--- a/inclusion_lists/exp_summary.xlsx
+++ b/inclusion_lists/exp_summary.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Experiments" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Experiments!$A$1:$Z$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Experiments!$A$1:$AA$39</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1849" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2023" uniqueCount="575">
   <si>
     <t>date</t>
   </si>
@@ -1746,6 +1746,15 @@
   </si>
   <si>
     <t>CalibTunnel</t>
+  </si>
+  <si>
+    <t>sync_jump_ts</t>
+  </si>
+  <si>
+    <t>[3018197071718]</t>
+  </si>
+  <si>
+    <t>[5586708860759]</t>
   </si>
 </sst>
 </file>
@@ -2497,13 +2506,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z174"/>
+  <dimension ref="A1:AA174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B138" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A163" sqref="A163"/>
+      <selection pane="bottomRight" activeCell="X84" sqref="X84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2530,13 +2539,13 @@
     <col min="20" max="20" width="3" customWidth="1"/>
     <col min="21" max="21" width="5.125" customWidth="1"/>
     <col min="22" max="22" width="8.125" customWidth="1"/>
-    <col min="23" max="23" width="5.375" customWidth="1"/>
-    <col min="24" max="24" width="59" customWidth="1"/>
-    <col min="25" max="25" width="107.625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="78.625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="5.375" customWidth="1"/>
+    <col min="25" max="25" width="59" customWidth="1"/>
+    <col min="26" max="26" width="107.625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="78.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -2607,16 +2616,19 @@
         <v>571</v>
       </c>
       <c r="X1" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>48</v>
       </c>
@@ -2656,8 +2668,11 @@
       <c r="U2">
         <v>3089</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="X2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>49</v>
       </c>
@@ -2694,8 +2709,11 @@
       <c r="R3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="X3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>50</v>
       </c>
@@ -2732,8 +2750,11 @@
       <c r="R4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="X4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -2770,8 +2791,11 @@
       <c r="R5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="X5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
@@ -2808,8 +2832,11 @@
       <c r="R6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="X6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>53</v>
       </c>
@@ -2846,8 +2873,11 @@
       <c r="R7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="X7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>54</v>
       </c>
@@ -2884,8 +2914,11 @@
       <c r="R8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="X8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>55</v>
       </c>
@@ -2922,8 +2955,11 @@
       <c r="R9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="X9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>56</v>
       </c>
@@ -2960,8 +2996,11 @@
       <c r="R10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="X10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -2998,8 +3037,11 @@
       <c r="R11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="X11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -3036,8 +3078,11 @@
       <c r="R12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="X12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>40</v>
       </c>
@@ -3074,8 +3119,11 @@
       <c r="R13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="X13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
@@ -3112,8 +3160,11 @@
       <c r="R14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="X14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -3150,8 +3201,11 @@
       <c r="R15" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="X15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
@@ -3188,8 +3242,11 @@
       <c r="R16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>44</v>
       </c>
@@ -3226,8 +3283,11 @@
       <c r="R17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
@@ -3264,8 +3324,11 @@
       <c r="R18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
@@ -3302,8 +3365,11 @@
       <c r="R19" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>47</v>
       </c>
@@ -3340,8 +3406,11 @@
       <c r="R20" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -3387,8 +3456,11 @@
       <c r="U21">
         <v>3089</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
@@ -3434,8 +3506,11 @@
       <c r="U22">
         <v>3089</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
@@ -3481,8 +3556,11 @@
       <c r="U23">
         <v>3089</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
@@ -3528,8 +3606,11 @@
       <c r="U24">
         <v>3089</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>16</v>
       </c>
@@ -3575,8 +3656,11 @@
       <c r="U25">
         <v>3089</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
@@ -3622,8 +3706,11 @@
       <c r="U26">
         <v>3089</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
@@ -3669,8 +3756,11 @@
       <c r="U27">
         <v>3089</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
@@ -3716,8 +3806,11 @@
       <c r="U28">
         <v>3089</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
@@ -3778,8 +3871,11 @@
       <c r="U29">
         <v>3089</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
@@ -3825,8 +3921,11 @@
       <c r="U30">
         <v>3089</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="X30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>23</v>
       </c>
@@ -3873,10 +3972,13 @@
         <v>3089</v>
       </c>
       <c r="X31" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y31" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>19</v>
       </c>
@@ -3922,8 +4024,11 @@
       <c r="U32">
         <v>3089</v>
       </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="X32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>24</v>
       </c>
@@ -3969,8 +4074,11 @@
       <c r="U33">
         <v>3089</v>
       </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="X33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>25</v>
       </c>
@@ -4031,8 +4139,11 @@
       <c r="U34">
         <v>3089</v>
       </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="X34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>26</v>
       </c>
@@ -4078,11 +4189,14 @@
       <c r="U35">
         <v>3089</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="X35" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA35" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>27</v>
       </c>
@@ -4128,8 +4242,11 @@
       <c r="U36">
         <v>3089</v>
       </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="X36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>28</v>
       </c>
@@ -4175,8 +4292,11 @@
       <c r="U37">
         <v>3089</v>
       </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="X37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>29</v>
       </c>
@@ -4222,8 +4342,11 @@
       <c r="U38">
         <v>3089</v>
       </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="X38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>30</v>
       </c>
@@ -4269,8 +4392,11 @@
       <c r="U39">
         <v>3089</v>
       </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="X39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>31</v>
       </c>
@@ -4331,8 +4457,11 @@
       <c r="U40">
         <v>3089</v>
       </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="X40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>32</v>
       </c>
@@ -4378,8 +4507,11 @@
       <c r="U41">
         <v>3089</v>
       </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="X41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>6</v>
       </c>
@@ -4440,8 +4572,11 @@
       <c r="U42">
         <v>3089</v>
       </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="X42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>33</v>
       </c>
@@ -4502,8 +4637,11 @@
       <c r="U43">
         <v>3089</v>
       </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="X43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>34</v>
       </c>
@@ -4549,8 +4687,11 @@
       <c r="U44">
         <v>3089</v>
       </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="X44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>35</v>
       </c>
@@ -4596,8 +4737,11 @@
       <c r="U45">
         <v>3089</v>
       </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="X45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>36</v>
       </c>
@@ -4643,8 +4787,11 @@
       <c r="U46">
         <v>3089</v>
       </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="X46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>37</v>
       </c>
@@ -4690,8 +4837,11 @@
       <c r="U47">
         <v>3089</v>
       </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="X47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>57</v>
       </c>
@@ -4753,16 +4903,19 @@
         <v>3089</v>
       </c>
       <c r="X48" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y48" t="s">
         <v>61</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>60</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="AA48" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>62</v>
       </c>
@@ -4824,13 +4977,16 @@
         <v>3089</v>
       </c>
       <c r="X49" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y49" t="s">
         <v>64</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>65</v>
       </c>
@@ -4892,13 +5048,16 @@
         <v>3089</v>
       </c>
       <c r="X50" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y50" t="s">
         <v>69</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>70</v>
       </c>
@@ -4960,13 +5119,16 @@
         <v>3089</v>
       </c>
       <c r="X51" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y51" t="s">
         <v>72</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>73</v>
       </c>
@@ -5028,13 +5190,16 @@
         <v>3089</v>
       </c>
       <c r="X52" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y52" t="s">
         <v>75</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>76</v>
       </c>
@@ -5096,13 +5261,16 @@
         <v>3089</v>
       </c>
       <c r="X53" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y53" t="s">
         <v>77</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>79</v>
       </c>
@@ -5164,13 +5332,16 @@
         <v>2365</v>
       </c>
       <c r="X54" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y54" t="s">
         <v>81</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>82</v>
       </c>
@@ -5232,13 +5403,16 @@
         <v>2365</v>
       </c>
       <c r="X55" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y55" t="s">
         <v>83</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>88</v>
       </c>
@@ -5300,13 +5474,16 @@
         <v>2365</v>
       </c>
       <c r="X56" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y56" t="s">
         <v>83</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>91</v>
       </c>
@@ -5368,13 +5545,16 @@
         <v>2365</v>
       </c>
       <c r="X57" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y57" t="s">
         <v>83</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>93</v>
       </c>
@@ -5436,13 +5616,16 @@
         <v>2365</v>
       </c>
       <c r="X58" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y58" t="s">
         <v>94</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>96</v>
       </c>
@@ -5504,13 +5687,16 @@
         <v>2365</v>
       </c>
       <c r="X59" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y59" t="s">
         <v>94</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>98</v>
       </c>
@@ -5572,13 +5758,16 @@
         <v>2365</v>
       </c>
       <c r="X60" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y60" t="s">
         <v>99</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>101</v>
       </c>
@@ -5640,13 +5829,16 @@
         <v>2365</v>
       </c>
       <c r="X61" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y61" t="s">
         <v>102</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>106</v>
       </c>
@@ -5708,13 +5900,16 @@
         <v>2365</v>
       </c>
       <c r="X62" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y62" t="s">
         <v>94</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>108</v>
       </c>
@@ -5776,13 +5971,16 @@
         <v>2365</v>
       </c>
       <c r="X63" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y63" t="s">
         <v>109</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>111</v>
       </c>
@@ -5844,13 +6042,16 @@
         <v>2365</v>
       </c>
       <c r="X64" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y64" t="s">
         <v>112</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>114</v>
       </c>
@@ -5912,13 +6113,16 @@
         <v>2365</v>
       </c>
       <c r="X65" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y65" t="s">
         <v>115</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>116</v>
       </c>
@@ -5980,13 +6184,16 @@
         <v>2365</v>
       </c>
       <c r="X66" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y66" t="s">
         <v>117</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>119</v>
       </c>
@@ -6048,13 +6255,16 @@
         <v>2365</v>
       </c>
       <c r="X67" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y67" t="s">
         <v>120</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>122</v>
       </c>
@@ -6116,13 +6326,16 @@
         <v>2365</v>
       </c>
       <c r="X68" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y68" t="s">
         <v>123</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>124</v>
       </c>
@@ -6172,13 +6385,16 @@
         <v>14</v>
       </c>
       <c r="X69" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y69" t="s">
         <v>125</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>126</v>
       </c>
@@ -6240,13 +6456,16 @@
         <v>2365</v>
       </c>
       <c r="X70" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y70" t="s">
         <v>127</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>130</v>
       </c>
@@ -6308,13 +6527,16 @@
         <v>2365</v>
       </c>
       <c r="X71" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y71" t="s">
         <v>131</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>133</v>
       </c>
@@ -6376,16 +6598,19 @@
         <v>2365</v>
       </c>
       <c r="X72" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y72" t="s">
         <v>134</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>135</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="AA72" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>136</v>
       </c>
@@ -6447,16 +6672,19 @@
         <v>2365</v>
       </c>
       <c r="X73" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y73" t="s">
         <v>137</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>138</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="AA73" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>139</v>
       </c>
@@ -6518,13 +6746,16 @@
         <v>2365</v>
       </c>
       <c r="X74" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y74" t="s">
         <v>140</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>142</v>
       </c>
@@ -6586,16 +6817,19 @@
         <v>2365</v>
       </c>
       <c r="X75" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y75" t="s">
         <v>143</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>144</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="AA75" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>145</v>
       </c>
@@ -6657,13 +6891,16 @@
         <v>2365</v>
       </c>
       <c r="X76" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y76" t="s">
         <v>146</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>148</v>
       </c>
@@ -6725,13 +6962,16 @@
         <v>2365</v>
       </c>
       <c r="X77" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y77" t="s">
         <v>150</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>151</v>
       </c>
@@ -6793,13 +7033,16 @@
         <v>2365</v>
       </c>
       <c r="X78" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y78" t="s">
         <v>152</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>154</v>
       </c>
@@ -6861,13 +7104,16 @@
         <v>2365</v>
       </c>
       <c r="X79" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y79" t="s">
         <v>155</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>157</v>
       </c>
@@ -6929,13 +7175,16 @@
         <v>2365</v>
       </c>
       <c r="X80" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y80" t="s">
         <v>158</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>160</v>
       </c>
@@ -6997,16 +7246,19 @@
         <v>2365</v>
       </c>
       <c r="X81" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y81" t="s">
         <v>164</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>159</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="AA81" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>163</v>
       </c>
@@ -7068,13 +7320,16 @@
         <v>2365</v>
       </c>
       <c r="X82" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y82" t="s">
         <v>167</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>165</v>
       </c>
@@ -7136,16 +7391,19 @@
         <v>2365</v>
       </c>
       <c r="X83" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y83" t="s">
         <v>166</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>169</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="AA83" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>171</v>
       </c>
@@ -7207,13 +7465,16 @@
         <v>2358</v>
       </c>
       <c r="X84" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y84" t="s">
         <v>173</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>177</v>
       </c>
@@ -7275,16 +7536,19 @@
         <v>2358</v>
       </c>
       <c r="X85" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y85" t="s">
         <v>176</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>180</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="AA85" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>178</v>
       </c>
@@ -7346,16 +7610,19 @@
         <v>2358</v>
       </c>
       <c r="X86" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y86" t="s">
         <v>179</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>180</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="AA86" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>181</v>
       </c>
@@ -7417,16 +7684,19 @@
         <v>2365</v>
       </c>
       <c r="X87" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y87" t="s">
         <v>179</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>180</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="AA87" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>183</v>
       </c>
@@ -7488,16 +7758,19 @@
         <v>2365</v>
       </c>
       <c r="X88" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y88" t="s">
         <v>184</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>180</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="AA88" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>186</v>
       </c>
@@ -7559,16 +7832,19 @@
         <v>2365</v>
       </c>
       <c r="X89" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y89" t="s">
         <v>184</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>180</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="AA89" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>194</v>
       </c>
@@ -7630,16 +7906,19 @@
         <v>2365</v>
       </c>
       <c r="X90" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y90" t="s">
         <v>184</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>189</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="AA90" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>195</v>
       </c>
@@ -7701,16 +7980,19 @@
         <v>2365</v>
       </c>
       <c r="X91" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y91" t="s">
         <v>191</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>192</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="AA91" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>196</v>
       </c>
@@ -7772,16 +8054,19 @@
         <v>2365</v>
       </c>
       <c r="X92" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y92" t="s">
         <v>191</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>192</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="AA92" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>197</v>
       </c>
@@ -7843,16 +8128,19 @@
         <v>2365</v>
       </c>
       <c r="X93" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y93" t="s">
         <v>203</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>192</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="AA93" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>201</v>
       </c>
@@ -7914,16 +8202,19 @@
         <v>2365</v>
       </c>
       <c r="X94" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y94" t="s">
         <v>204</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>192</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="AA94" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>200</v>
       </c>
@@ -7985,16 +8276,19 @@
         <v>745</v>
       </c>
       <c r="X95" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y95" t="s">
         <v>203</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>192</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="AA95" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>202</v>
       </c>
@@ -8056,16 +8350,19 @@
         <v>745</v>
       </c>
       <c r="X96" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y96" t="s">
         <v>203</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>205</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="AA96" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>206</v>
       </c>
@@ -8127,16 +8424,19 @@
         <v>745</v>
       </c>
       <c r="X97" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y97" t="s">
         <v>207</v>
       </c>
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>208</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="AA97" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>209</v>
       </c>
@@ -8198,16 +8498,19 @@
         <v>745</v>
       </c>
       <c r="X98" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y98" t="s">
         <v>210</v>
       </c>
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>211</v>
       </c>
-      <c r="Z98" t="s">
+      <c r="AA98" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>213</v>
       </c>
@@ -8269,13 +8572,16 @@
         <v>745</v>
       </c>
       <c r="X99" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y99" t="s">
         <v>214</v>
       </c>
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>216</v>
       </c>
@@ -8337,16 +8643,19 @@
         <v>745</v>
       </c>
       <c r="X100" t="s">
+        <v>573</v>
+      </c>
+      <c r="Y100" t="s">
         <v>214</v>
       </c>
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>215</v>
       </c>
-      <c r="Z100" t="s">
+      <c r="AA100" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>218</v>
       </c>
@@ -8408,13 +8717,16 @@
         <v>745</v>
       </c>
       <c r="X101" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y101" t="s">
         <v>219</v>
       </c>
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>220</v>
       </c>
@@ -8476,13 +8788,16 @@
         <v>745</v>
       </c>
       <c r="X102" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y102" t="s">
         <v>219</v>
       </c>
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>222</v>
       </c>
@@ -8544,13 +8859,16 @@
         <v>745</v>
       </c>
       <c r="X103" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y103" t="s">
         <v>223</v>
       </c>
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>225</v>
       </c>
@@ -8612,13 +8930,16 @@
         <v>745</v>
       </c>
       <c r="X104" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y104" t="s">
         <v>226</v>
       </c>
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>228</v>
       </c>
@@ -8680,13 +9001,16 @@
         <v>745</v>
       </c>
       <c r="X105" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y105" t="s">
         <v>232</v>
       </c>
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>230</v>
       </c>
@@ -8748,13 +9072,16 @@
         <v>745</v>
       </c>
       <c r="X106" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y106" t="s">
         <v>234</v>
       </c>
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>235</v>
       </c>
@@ -8816,13 +9143,16 @@
         <v>2365</v>
       </c>
       <c r="X107" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y107" t="s">
         <v>231</v>
       </c>
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>237</v>
       </c>
@@ -8884,13 +9214,16 @@
         <v>708</v>
       </c>
       <c r="X108" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y108" t="s">
         <v>239</v>
       </c>
-      <c r="Y108" t="s">
+      <c r="Z108" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>241</v>
       </c>
@@ -8952,16 +9285,19 @@
         <v>708</v>
       </c>
       <c r="X109" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y109" t="s">
         <v>243</v>
       </c>
-      <c r="Y109" t="s">
+      <c r="Z109" t="s">
         <v>240</v>
       </c>
-      <c r="Z109" t="s">
+      <c r="AA109" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>245</v>
       </c>
@@ -9023,16 +9359,19 @@
         <v>708</v>
       </c>
       <c r="X110" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y110" t="s">
         <v>246</v>
       </c>
-      <c r="Y110" t="s">
+      <c r="Z110" t="s">
         <v>247</v>
       </c>
-      <c r="Z110" t="s">
+      <c r="AA110" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>250</v>
       </c>
@@ -9094,13 +9433,16 @@
         <v>708</v>
       </c>
       <c r="X111" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y111" t="s">
         <v>252</v>
       </c>
-      <c r="Y111" t="s">
+      <c r="Z111" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>254</v>
       </c>
@@ -9162,10 +9504,13 @@
         <v>708</v>
       </c>
       <c r="X112" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y112" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>251</v>
       </c>
@@ -9227,13 +9572,16 @@
         <v>708</v>
       </c>
       <c r="X113" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y113" t="s">
         <v>252</v>
       </c>
-      <c r="Y113" t="s">
+      <c r="Z113" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>255</v>
       </c>
@@ -9295,13 +9643,16 @@
         <v>708</v>
       </c>
       <c r="X114" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y114" t="s">
         <v>257</v>
       </c>
-      <c r="Y114" t="s">
+      <c r="Z114" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>258</v>
       </c>
@@ -9363,13 +9714,16 @@
         <v>708</v>
       </c>
       <c r="X115" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y115" t="s">
         <v>259</v>
       </c>
-      <c r="Y115" t="s">
+      <c r="Z115" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>261</v>
       </c>
@@ -9431,13 +9785,16 @@
         <v>2358</v>
       </c>
       <c r="X116" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y116" t="s">
         <v>262</v>
       </c>
-      <c r="Y116" t="s">
+      <c r="Z116" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>264</v>
       </c>
@@ -9499,13 +9856,16 @@
         <v>708</v>
       </c>
       <c r="X117" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y117" t="s">
         <v>265</v>
       </c>
-      <c r="Y117" t="s">
+      <c r="Z117" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>266</v>
       </c>
@@ -9567,13 +9927,16 @@
         <v>2358</v>
       </c>
       <c r="X118" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y118" t="s">
         <v>262</v>
       </c>
-      <c r="Y118" t="s">
+      <c r="Z118" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>267</v>
       </c>
@@ -9635,13 +9998,16 @@
         <v>708</v>
       </c>
       <c r="X119" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y119" t="s">
         <v>265</v>
       </c>
-      <c r="Y119" t="s">
+      <c r="Z119" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>269</v>
       </c>
@@ -9703,13 +10069,16 @@
         <v>2358</v>
       </c>
       <c r="X120" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y120" t="s">
         <v>270</v>
       </c>
-      <c r="Y120" t="s">
+      <c r="Z120" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>271</v>
       </c>
@@ -9771,13 +10140,16 @@
         <v>708</v>
       </c>
       <c r="X121" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y121" t="s">
         <v>272</v>
       </c>
-      <c r="Y121" t="s">
+      <c r="Z121" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>274</v>
       </c>
@@ -9839,13 +10211,16 @@
         <v>2358</v>
       </c>
       <c r="X122" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y122" t="s">
         <v>276</v>
       </c>
-      <c r="Y122" t="s">
+      <c r="Z122" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>277</v>
       </c>
@@ -9907,13 +10282,16 @@
         <v>2358</v>
       </c>
       <c r="X123" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y123" t="s">
         <v>278</v>
       </c>
-      <c r="Y123" t="s">
+      <c r="Z123" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>280</v>
       </c>
@@ -9975,10 +10353,13 @@
         <v>2358</v>
       </c>
       <c r="X124" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y124" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>281</v>
       </c>
@@ -10040,10 +10421,13 @@
         <v>708</v>
       </c>
       <c r="X125" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y125" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>282</v>
       </c>
@@ -10105,10 +10489,13 @@
         <v>2358</v>
       </c>
       <c r="X126" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y126" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>283</v>
       </c>
@@ -10170,10 +10557,13 @@
         <v>2358</v>
       </c>
       <c r="X127" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y127" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>286</v>
       </c>
@@ -10235,10 +10625,13 @@
         <v>708</v>
       </c>
       <c r="X128" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y128" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>287</v>
       </c>
@@ -10300,13 +10693,16 @@
         <v>2358</v>
       </c>
       <c r="X129" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y129" t="s">
         <v>291</v>
       </c>
-      <c r="Y129" t="s">
+      <c r="Z129" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>289</v>
       </c>
@@ -10368,13 +10764,16 @@
         <v>708</v>
       </c>
       <c r="X130" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y130" t="s">
         <v>290</v>
       </c>
-      <c r="Y130" t="s">
+      <c r="Z130" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>293</v>
       </c>
@@ -10436,13 +10835,16 @@
         <v>708</v>
       </c>
       <c r="X131" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y131" t="s">
         <v>294</v>
       </c>
-      <c r="Y131" t="s">
+      <c r="Z131" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>296</v>
       </c>
@@ -10504,13 +10906,16 @@
         <v>2358</v>
       </c>
       <c r="X132" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y132" t="s">
         <v>290</v>
       </c>
-      <c r="Y132" t="s">
+      <c r="Z132" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>297</v>
       </c>
@@ -10572,16 +10977,19 @@
         <v>708</v>
       </c>
       <c r="X133" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y133" t="s">
         <v>294</v>
       </c>
-      <c r="Y133" t="s">
+      <c r="Z133" t="s">
         <v>298</v>
       </c>
-      <c r="Z133" t="s">
+      <c r="AA133" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>299</v>
       </c>
@@ -10643,16 +11051,19 @@
         <v>2358</v>
       </c>
       <c r="X134" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y134" t="s">
         <v>300</v>
       </c>
-      <c r="Y134" t="s">
+      <c r="Z134" t="s">
         <v>298</v>
       </c>
-      <c r="Z134" t="s">
+      <c r="AA134" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>302</v>
       </c>
@@ -10714,16 +11125,19 @@
         <v>2358</v>
       </c>
       <c r="X135" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y135" t="s">
         <v>303</v>
       </c>
-      <c r="Y135" t="s">
+      <c r="Z135" t="s">
         <v>304</v>
       </c>
-      <c r="Z135" t="s">
+      <c r="AA135" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>305</v>
       </c>
@@ -10785,16 +11199,19 @@
         <v>2358</v>
       </c>
       <c r="X136" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y136" t="s">
         <v>306</v>
       </c>
-      <c r="Y136" t="s">
+      <c r="Z136" t="s">
         <v>307</v>
       </c>
-      <c r="Z136" t="s">
+      <c r="AA136" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>310</v>
       </c>
@@ -10856,16 +11273,19 @@
         <v>2358</v>
       </c>
       <c r="X137" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y137" t="s">
         <v>311</v>
       </c>
-      <c r="Y137" t="s">
+      <c r="Z137" t="s">
         <v>312</v>
       </c>
-      <c r="Z137" t="s">
+      <c r="AA137" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>314</v>
       </c>
@@ -10927,16 +11347,19 @@
         <v>708</v>
       </c>
       <c r="X138" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y138" t="s">
         <v>285</v>
       </c>
-      <c r="Y138" t="s">
+      <c r="Z138" t="s">
         <v>315</v>
       </c>
-      <c r="Z138" t="s">
+      <c r="AA138" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>316</v>
       </c>
@@ -10998,13 +11421,16 @@
         <v>2358</v>
       </c>
       <c r="X139" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y139" t="s">
         <v>317</v>
       </c>
-      <c r="Y139" t="s">
+      <c r="Z139" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>318</v>
       </c>
@@ -11066,13 +11492,16 @@
         <v>2358</v>
       </c>
       <c r="X140" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y140" t="s">
         <v>322</v>
       </c>
-      <c r="Y140" t="s">
+      <c r="Z140" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>321</v>
       </c>
@@ -11134,13 +11563,16 @@
         <v>2358</v>
       </c>
       <c r="X141" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y141" t="s">
         <v>326</v>
       </c>
-      <c r="Y141" t="s">
+      <c r="Z141" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>324</v>
       </c>
@@ -11202,13 +11634,16 @@
         <v>2358</v>
       </c>
       <c r="X142" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y142" t="s">
         <v>325</v>
       </c>
-      <c r="Y142" t="s">
+      <c r="Z142" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>328</v>
       </c>
@@ -11270,16 +11705,19 @@
         <v>2358</v>
       </c>
       <c r="X143" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y143" t="s">
         <v>325</v>
       </c>
-      <c r="Y143" t="s">
+      <c r="Z143" t="s">
         <v>329</v>
       </c>
-      <c r="Z143" t="s">
+      <c r="AA143" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>331</v>
       </c>
@@ -11337,11 +11775,14 @@
       <c r="T144">
         <v>9</v>
       </c>
-      <c r="Z144" t="s">
+      <c r="X144" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA144" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>334</v>
       </c>
@@ -11403,16 +11844,19 @@
         <v>2358</v>
       </c>
       <c r="X145" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y145" t="s">
         <v>325</v>
       </c>
-      <c r="Y145" t="s">
+      <c r="Z145" t="s">
         <v>329</v>
       </c>
-      <c r="Z145" t="s">
+      <c r="AA145" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>336</v>
       </c>
@@ -11474,16 +11918,19 @@
         <v>2358</v>
       </c>
       <c r="X146" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y146" t="s">
         <v>337</v>
       </c>
-      <c r="Y146" t="s">
+      <c r="Z146" t="s">
         <v>338</v>
       </c>
-      <c r="Z146" t="s">
+      <c r="AA146" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>339</v>
       </c>
@@ -11545,10 +11992,13 @@
         <v>708</v>
       </c>
       <c r="X147" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y147" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>342</v>
       </c>
@@ -11610,13 +12060,16 @@
         <v>2358</v>
       </c>
       <c r="X148" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y148" t="s">
         <v>344</v>
       </c>
-      <c r="Y148" t="s">
+      <c r="Z148" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>345</v>
       </c>
@@ -11678,13 +12131,16 @@
         <v>2358</v>
       </c>
       <c r="X149" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y149" t="s">
         <v>346</v>
       </c>
-      <c r="Y149" t="s">
+      <c r="Z149" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>348</v>
       </c>
@@ -11746,16 +12202,19 @@
         <v>2358</v>
       </c>
       <c r="X150" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y150" t="s">
         <v>350</v>
       </c>
-      <c r="Y150" t="s">
+      <c r="Z150" t="s">
         <v>349</v>
       </c>
-      <c r="Z150" t="s">
+      <c r="AA150" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>352</v>
       </c>
@@ -11817,13 +12276,16 @@
         <v>2358</v>
       </c>
       <c r="X151" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y151" t="s">
         <v>353</v>
       </c>
-      <c r="Y151" t="s">
+      <c r="Z151" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>354</v>
       </c>
@@ -11885,16 +12347,19 @@
         <v>2358</v>
       </c>
       <c r="X152" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y152" t="s">
         <v>355</v>
       </c>
-      <c r="Y152" t="s">
+      <c r="Z152" t="s">
         <v>356</v>
       </c>
-      <c r="Z152" t="s">
+      <c r="AA152" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>358</v>
       </c>
@@ -11956,16 +12421,19 @@
         <v>2358</v>
       </c>
       <c r="X153" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y153" t="s">
         <v>353</v>
       </c>
-      <c r="Y153" t="s">
+      <c r="Z153" t="s">
         <v>343</v>
       </c>
-      <c r="Z153" t="s">
+      <c r="AA153" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>360</v>
       </c>
@@ -12027,13 +12495,16 @@
         <v>2358</v>
       </c>
       <c r="X154" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y154" t="s">
         <v>361</v>
       </c>
-      <c r="Y154" t="s">
+      <c r="Z154" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>362</v>
       </c>
@@ -12095,13 +12566,16 @@
         <v>2358</v>
       </c>
       <c r="X155" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y155" t="s">
         <v>350</v>
       </c>
-      <c r="Y155" t="s">
+      <c r="Z155" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>363</v>
       </c>
@@ -12163,13 +12637,16 @@
         <v>2358</v>
       </c>
       <c r="X156" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y156" t="s">
         <v>374</v>
       </c>
-      <c r="Y156" t="s">
+      <c r="Z156" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>364</v>
       </c>
@@ -12231,13 +12708,16 @@
         <v>2358</v>
       </c>
       <c r="X157" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y157" t="s">
         <v>353</v>
       </c>
-      <c r="Y157" t="s">
+      <c r="Z157" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>365</v>
       </c>
@@ -12299,13 +12779,16 @@
         <v>2358</v>
       </c>
       <c r="X158" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y158" t="s">
         <v>366</v>
       </c>
-      <c r="Y158" t="s">
+      <c r="Z158" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>367</v>
       </c>
@@ -12367,13 +12850,16 @@
         <v>2358</v>
       </c>
       <c r="X159" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y159" t="s">
         <v>374</v>
       </c>
-      <c r="Y159" t="s">
+      <c r="Z159" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>369</v>
       </c>
@@ -12435,13 +12921,16 @@
         <v>2358</v>
       </c>
       <c r="X160" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y160" t="s">
         <v>366</v>
       </c>
-      <c r="Y160" t="s">
+      <c r="Z160" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>371</v>
       </c>
@@ -12503,13 +12992,16 @@
         <v>2358</v>
       </c>
       <c r="X161" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y161" t="s">
         <v>366</v>
       </c>
-      <c r="Y161" t="s">
+      <c r="Z161" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>373</v>
       </c>
@@ -12571,13 +13063,16 @@
         <v>2358</v>
       </c>
       <c r="X162" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y162" t="s">
         <v>374</v>
       </c>
-      <c r="Y162" t="s">
+      <c r="Z162" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="163" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:27" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>376</v>
       </c>
@@ -12639,16 +13134,19 @@
         <v>2358</v>
       </c>
       <c r="X163" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y163" t="s">
         <v>374</v>
       </c>
-      <c r="Y163" t="s">
+      <c r="Z163" t="s">
         <v>380</v>
       </c>
-      <c r="Z163" t="s">
+      <c r="AA163" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>378</v>
       </c>
@@ -12710,13 +13208,16 @@
         <v>2358</v>
       </c>
       <c r="X164" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y164" t="s">
         <v>366</v>
       </c>
-      <c r="Y164" t="s">
+      <c r="Z164" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>379</v>
       </c>
@@ -12778,13 +13279,16 @@
         <v>2358</v>
       </c>
       <c r="X165" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y165" t="s">
         <v>366</v>
       </c>
-      <c r="Y165" t="s">
+      <c r="Z165" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>381</v>
       </c>
@@ -12846,13 +13350,16 @@
         <v>2358</v>
       </c>
       <c r="X166" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y166" t="s">
         <v>382</v>
       </c>
-      <c r="Y166" t="s">
+      <c r="Z166" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>383</v>
       </c>
@@ -12914,16 +13421,19 @@
         <v>2358</v>
       </c>
       <c r="X167" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y167" t="s">
         <v>353</v>
       </c>
-      <c r="Y167" t="s">
+      <c r="Z167" t="s">
         <v>385</v>
       </c>
-      <c r="Z167" t="s">
+      <c r="AA167" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>386</v>
       </c>
@@ -12985,13 +13495,16 @@
         <v>2358</v>
       </c>
       <c r="X168" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y168" t="s">
         <v>387</v>
       </c>
-      <c r="Y168" t="s">
+      <c r="Z168" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>388</v>
       </c>
@@ -13053,13 +13566,16 @@
         <v>2358</v>
       </c>
       <c r="X169" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y169" t="s">
         <v>387</v>
       </c>
-      <c r="Y169" t="s">
+      <c r="Z169" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>389</v>
       </c>
@@ -13121,16 +13637,19 @@
         <v>2358</v>
       </c>
       <c r="X170" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y170" t="s">
         <v>390</v>
       </c>
-      <c r="Y170" t="s">
+      <c r="Z170" t="s">
         <v>385</v>
       </c>
-      <c r="Z170" t="s">
+      <c r="AA170" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>392</v>
       </c>
@@ -13192,13 +13711,16 @@
         <v>2358</v>
       </c>
       <c r="X171" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y171" t="s">
         <v>390</v>
       </c>
-      <c r="Y171" t="s">
+      <c r="Z171" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>393</v>
       </c>
@@ -13260,13 +13782,16 @@
         <v>2358</v>
       </c>
       <c r="X172" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y172" t="s">
         <v>394</v>
       </c>
-      <c r="Y172" t="s">
+      <c r="Z172" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>395</v>
       </c>
@@ -13328,13 +13853,16 @@
         <v>2358</v>
       </c>
       <c r="X173" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y173" t="s">
         <v>396</v>
       </c>
-      <c r="Y173" t="s">
+      <c r="Z173" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>397</v>
       </c>
@@ -13396,17 +13924,20 @@
         <v>2358</v>
       </c>
       <c r="X174" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y174" t="s">
         <v>398</v>
       </c>
-      <c r="Y174" t="s">
+      <c r="Z174" t="s">
         <v>385</v>
       </c>
-      <c r="Z174" t="s">
+      <c r="AA174" t="s">
         <v>399</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z47">
+  <autoFilter ref="A1:AA47">
     <sortState ref="A2:Y47">
       <sortCondition ref="D1:D39"/>
     </sortState>

--- a/inclusion_lists/exp_summary.xlsx
+++ b/inclusion_lists/exp_summary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2023" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2023" uniqueCount="578">
   <si>
     <t>date</t>
   </si>
@@ -1755,6 +1755,15 @@
   </si>
   <si>
     <t>[5586708860759]</t>
+  </si>
+  <si>
+    <t>[5354369066007]</t>
+  </si>
+  <si>
+    <t>[3379071603714]</t>
+  </si>
+  <si>
+    <t>[4322190426638 5097944849115]</t>
   </si>
 </sst>
 </file>
@@ -2509,10 +2518,10 @@
   <dimension ref="A1:AA174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B133" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X84" sqref="X84"/>
+      <selection pane="bottomRight" activeCell="X164" sqref="X164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6891,7 +6900,7 @@
         <v>2365</v>
       </c>
       <c r="X76" t="s">
-        <v>87</v>
+        <v>575</v>
       </c>
       <c r="Y76" t="s">
         <v>146</v>
@@ -11844,7 +11853,7 @@
         <v>2358</v>
       </c>
       <c r="X145" t="s">
-        <v>87</v>
+        <v>576</v>
       </c>
       <c r="Y145" t="s">
         <v>325</v>
@@ -13134,7 +13143,7 @@
         <v>2358</v>
       </c>
       <c r="X163" t="s">
-        <v>87</v>
+        <v>577</v>
       </c>
       <c r="Y163" t="s">
         <v>374</v>

--- a/inclusion_lists/exp_summary.xlsx
+++ b/inclusion_lists/exp_summary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2086" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2111" uniqueCount="589">
   <si>
     <t>date</t>
   </si>
@@ -1785,6 +1785,18 @@
   </si>
   <si>
     <t>[1 1 1 1;1 1 1 1;1 1 1 1; 1 1 1 1]</t>
+  </si>
+  <si>
+    <t>{'WM','WM','WM','N/A'}</t>
+  </si>
+  <si>
+    <t>{'WM','WM','CA1','N/A'}</t>
+  </si>
+  <si>
+    <t>{'WM','CA1','CA1','N/A'}</t>
+  </si>
+  <si>
+    <t>{'CA1','CA1','CA1','N/A'}</t>
   </si>
 </sst>
 </file>
@@ -2539,10 +2551,10 @@
   <dimension ref="A1:AC174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I45" sqref="I45"/>
+      <selection pane="bottomRight" activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4544,11 +4556,20 @@
       <c r="J31" t="s">
         <v>8</v>
       </c>
+      <c r="K31" t="s">
+        <v>585</v>
+      </c>
       <c r="L31" s="10" t="s">
         <v>500</v>
       </c>
       <c r="M31" s="9" t="s">
         <v>562</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -4594,11 +4615,20 @@
       <c r="J32" t="s">
         <v>8</v>
       </c>
+      <c r="K32" t="s">
+        <v>585</v>
+      </c>
       <c r="L32" s="10" t="s">
         <v>500</v>
       </c>
       <c r="M32" s="9" t="s">
         <v>561</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -4644,11 +4674,20 @@
       <c r="J33" t="s">
         <v>8</v>
       </c>
+      <c r="K33" t="s">
+        <v>586</v>
+      </c>
       <c r="L33" s="10" t="s">
         <v>500</v>
       </c>
       <c r="M33" s="9" t="s">
         <v>560</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -4694,11 +4733,20 @@
       <c r="J34" t="s">
         <v>8</v>
       </c>
+      <c r="K34" t="s">
+        <v>586</v>
+      </c>
       <c r="L34" s="10" t="s">
         <v>500</v>
       </c>
       <c r="M34" s="9" t="s">
         <v>559</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -4744,11 +4792,20 @@
       <c r="J35" t="s">
         <v>8</v>
       </c>
+      <c r="K35" t="s">
+        <v>586</v>
+      </c>
       <c r="L35" s="10" t="s">
         <v>500</v>
       </c>
       <c r="M35" s="9" t="s">
         <v>558</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -4794,11 +4851,20 @@
       <c r="J36" t="s">
         <v>8</v>
       </c>
+      <c r="K36" t="s">
+        <v>586</v>
+      </c>
       <c r="L36" s="10" t="s">
         <v>500</v>
       </c>
       <c r="M36" s="9" t="s">
         <v>557</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -4844,6 +4910,9 @@
       <c r="J37" t="s">
         <v>8</v>
       </c>
+      <c r="K37" t="s">
+        <v>587</v>
+      </c>
       <c r="L37" s="10" t="s">
         <v>500</v>
       </c>
@@ -4909,11 +4978,20 @@
       <c r="J38" t="s">
         <v>8</v>
       </c>
+      <c r="K38" t="s">
+        <v>587</v>
+      </c>
       <c r="L38" s="10" t="s">
         <v>500</v>
       </c>
       <c r="M38" s="9" t="s">
         <v>556</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -4959,11 +5037,20 @@
       <c r="J39" t="s">
         <v>8</v>
       </c>
+      <c r="K39" t="s">
+        <v>587</v>
+      </c>
       <c r="L39" s="10" t="s">
         <v>500</v>
       </c>
       <c r="M39" s="9" t="s">
         <v>554</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -5012,11 +5099,20 @@
       <c r="J40" t="s">
         <v>8</v>
       </c>
+      <c r="K40" t="s">
+        <v>587</v>
+      </c>
       <c r="L40" s="10" t="s">
         <v>500</v>
       </c>
       <c r="M40" s="9" t="s">
         <v>553</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
       </c>
       <c r="P40">
         <v>0</v>
@@ -5062,11 +5158,20 @@
       <c r="J41" t="s">
         <v>8</v>
       </c>
+      <c r="K41" t="s">
+        <v>587</v>
+      </c>
       <c r="L41" s="10" t="s">
         <v>500</v>
       </c>
       <c r="M41" s="9" t="s">
         <v>552</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
       </c>
       <c r="P41">
         <v>0</v>
@@ -5112,6 +5217,9 @@
       <c r="J42" t="s">
         <v>8</v>
       </c>
+      <c r="K42" t="s">
+        <v>587</v>
+      </c>
       <c r="L42" s="10" t="s">
         <v>500</v>
       </c>
@@ -5177,11 +5285,20 @@
       <c r="J43" t="s">
         <v>8</v>
       </c>
+      <c r="K43" t="s">
+        <v>587</v>
+      </c>
       <c r="L43" s="10" t="s">
         <v>500</v>
       </c>
       <c r="M43" s="9" t="s">
         <v>550</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
       </c>
       <c r="P43">
         <v>0</v>
@@ -5230,11 +5347,20 @@
       <c r="J44" t="s">
         <v>8</v>
       </c>
+      <c r="K44" t="s">
+        <v>587</v>
+      </c>
       <c r="L44" s="10" t="s">
         <v>500</v>
       </c>
       <c r="M44" s="9" t="s">
         <v>549</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
       </c>
       <c r="P44">
         <v>0</v>
@@ -5280,11 +5406,20 @@
       <c r="J45" t="s">
         <v>8</v>
       </c>
+      <c r="K45" t="s">
+        <v>587</v>
+      </c>
       <c r="L45" s="10" t="s">
         <v>500</v>
       </c>
       <c r="M45" s="9" t="s">
         <v>548</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
       </c>
       <c r="P45">
         <v>0</v>
@@ -5330,11 +5465,20 @@
       <c r="J46" t="s">
         <v>8</v>
       </c>
+      <c r="K46" t="s">
+        <v>587</v>
+      </c>
       <c r="L46" s="10" t="s">
         <v>500</v>
       </c>
       <c r="M46" s="9" t="s">
         <v>547</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>1</v>
       </c>
       <c r="P46">
         <v>0</v>
@@ -5380,11 +5524,20 @@
       <c r="J47" t="s">
         <v>8</v>
       </c>
+      <c r="K47" t="s">
+        <v>587</v>
+      </c>
       <c r="L47" s="10" t="s">
         <v>500</v>
       </c>
       <c r="M47" s="9" t="s">
         <v>546</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>1</v>
       </c>
       <c r="P47">
         <v>0</v>
@@ -5430,6 +5583,9 @@
       <c r="J48" t="s">
         <v>8</v>
       </c>
+      <c r="K48" t="s">
+        <v>588</v>
+      </c>
       <c r="L48" s="10" t="s">
         <v>500</v>
       </c>
@@ -5495,11 +5651,20 @@
       <c r="J49" t="s">
         <v>8</v>
       </c>
+      <c r="K49" t="s">
+        <v>588</v>
+      </c>
       <c r="L49" s="10" t="s">
         <v>500</v>
       </c>
       <c r="M49" s="9" t="s">
         <v>545</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
       </c>
       <c r="P49">
         <v>0</v>
@@ -5545,6 +5710,9 @@
       <c r="J50" t="s">
         <v>8</v>
       </c>
+      <c r="K50" t="s">
+        <v>588</v>
+      </c>
       <c r="L50" s="10" t="s">
         <v>500</v>
       </c>
@@ -5610,6 +5778,9 @@
       <c r="J51" t="s">
         <v>8</v>
       </c>
+      <c r="K51" t="s">
+        <v>588</v>
+      </c>
       <c r="L51" s="10" t="s">
         <v>500</v>
       </c>
@@ -5675,11 +5846,20 @@
       <c r="J52" t="s">
         <v>8</v>
       </c>
+      <c r="K52" t="s">
+        <v>588</v>
+      </c>
       <c r="L52" s="10" t="s">
         <v>500</v>
       </c>
       <c r="M52" s="9" t="s">
         <v>544</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
       </c>
       <c r="P52">
         <v>0</v>
@@ -5725,11 +5905,20 @@
       <c r="J53" t="s">
         <v>8</v>
       </c>
+      <c r="K53" t="s">
+        <v>588</v>
+      </c>
       <c r="L53" s="10" t="s">
         <v>500</v>
       </c>
       <c r="M53" s="9" t="s">
         <v>543</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
       </c>
       <c r="P53">
         <v>0</v>
@@ -5775,11 +5964,20 @@
       <c r="J54" t="s">
         <v>8</v>
       </c>
+      <c r="K54" t="s">
+        <v>588</v>
+      </c>
       <c r="L54" s="10" t="s">
         <v>500</v>
       </c>
       <c r="M54" s="9" t="s">
         <v>542</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>1</v>
       </c>
       <c r="P54">
         <v>0</v>
@@ -5825,11 +6023,20 @@
       <c r="J55" t="s">
         <v>8</v>
       </c>
+      <c r="K55" t="s">
+        <v>588</v>
+      </c>
       <c r="L55" s="10" t="s">
         <v>500</v>
       </c>
       <c r="M55" s="9" t="s">
         <v>541</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
       </c>
       <c r="P55">
         <v>0</v>

--- a/inclusion_lists/exp_summary.xlsx
+++ b/inclusion_lists/exp_summary.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Experiments" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Experiments!$A$1:$AC$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Experiments!$A$1:$AC$174</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2111" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="596">
   <si>
     <t>date</t>
   </si>
@@ -1754,30 +1754,15 @@
     <t>TT_loc</t>
   </si>
   <si>
-    <t>{'dCA1','WM','dCA1','dCA1'}</t>
-  </si>
-  <si>
     <t>{'CTX','CTX','CTX','CTX'}</t>
   </si>
   <si>
     <t>probably still in cortex; maybe TT3,4 in CA1</t>
   </si>
   <si>
-    <t>{'dCA1','N/A','N/A','dCA1'}</t>
-  </si>
-  <si>
     <t>{'N/A','N/A','N/A','N/A'}</t>
   </si>
   <si>
-    <t>{'WM','N/A','N/A','dCA1'}</t>
-  </si>
-  <si>
-    <t>{'dCA1','dCA1','dCA1','dCA1'}</t>
-  </si>
-  <si>
-    <t>{'dCA1','WM',WM','dCA1'}</t>
-  </si>
-  <si>
     <t>UseNegThr</t>
   </si>
   <si>
@@ -1797,6 +1782,42 @@
   </si>
   <si>
     <t>{'CA1','CA1','CA1','N/A'}</t>
+  </si>
+  <si>
+    <t>{'DG','CA3','WM2','DG'}</t>
+  </si>
+  <si>
+    <t>{'DG','CA3','DG/CA3','DG'}</t>
+  </si>
+  <si>
+    <t>{'CA1','WM','CA1','CA1'}</t>
+  </si>
+  <si>
+    <t>{'WM','N/A','N/A','CA1'}</t>
+  </si>
+  <si>
+    <t>{'CA1','N/A','N/A','CA1'}</t>
+  </si>
+  <si>
+    <t>{'CA1','WM',WM','CA1'}</t>
+  </si>
+  <si>
+    <t>{'CA1','CA1','CA1','CA1'}</t>
+  </si>
+  <si>
+    <t>{'WM2','WM2','CA1','CA1'}</t>
+  </si>
+  <si>
+    <t>{'WM2','WM2','CA1','WM2'}</t>
+  </si>
+  <si>
+    <t>{'DG','WM2','CA1','WM2'}</t>
+  </si>
+  <si>
+    <t>{'DG','WM2','CA1','DG'}</t>
+  </si>
+  <si>
+    <t>{'DG','CA3','CA1','DG'}</t>
   </si>
 </sst>
 </file>
@@ -2551,10 +2572,10 @@
   <dimension ref="A1:AC174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K49" sqref="K49"/>
+      <selection pane="bottomRight" activeCell="K135" sqref="K135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2606,7 +2627,7 @@
         <v>489</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>395</v>
@@ -2705,7 +2726,7 @@
         <v>8</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>563</v>
@@ -2783,7 +2804,7 @@
         <v>8</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L3" s="10" t="s">
         <v>500</v>
@@ -2861,7 +2882,7 @@
         <v>8</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L4" s="10" t="s">
         <v>500</v>
@@ -2939,7 +2960,7 @@
         <v>8</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L5" s="10" t="s">
         <v>500</v>
@@ -3016,7 +3037,9 @@
       <c r="J6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>586</v>
+      </c>
       <c r="L6" s="10" t="s">
         <v>500</v>
       </c>
@@ -3060,7 +3083,7 @@
         <v>199</v>
       </c>
       <c r="AB6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AC6" t="s">
         <v>189</v>
@@ -3092,6 +3115,9 @@
       <c r="J7" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="K7" s="1" t="s">
+        <v>586</v>
+      </c>
       <c r="L7" s="10" t="s">
         <v>500</v>
       </c>
@@ -3135,7 +3161,7 @@
         <v>198</v>
       </c>
       <c r="AB7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AC7" t="s">
         <v>189</v>
@@ -3168,7 +3194,7 @@
         <v>8</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="L8" s="10" t="s">
         <v>500</v>
@@ -3246,7 +3272,7 @@
         <v>8</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="L9" s="10" t="s">
         <v>500</v>
@@ -3324,7 +3350,7 @@
         <v>8</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="L10" s="10" t="s">
         <v>500</v>
@@ -3402,7 +3428,7 @@
         <v>8</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="L11" s="10" t="s">
         <v>500</v>
@@ -3477,7 +3503,7 @@
         <v>8</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>500</v>
@@ -3555,7 +3581,7 @@
         <v>8</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="L13" s="10" t="s">
         <v>500</v>
@@ -3630,7 +3656,7 @@
         <v>8</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="L14" s="10" t="s">
         <v>500</v>
@@ -3705,7 +3731,7 @@
         <v>8</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="L15" s="10" t="s">
         <v>500</v>
@@ -3780,7 +3806,7 @@
         <v>8</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="L16" s="10" t="s">
         <v>500</v>
@@ -3855,7 +3881,7 @@
         <v>8</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="L17" s="10" t="s">
         <v>500</v>
@@ -3930,7 +3956,7 @@
         <v>8</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="L18" s="10" t="s">
         <v>500</v>
@@ -4005,7 +4031,7 @@
         <v>8</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="L19" s="10" t="s">
         <v>500</v>
@@ -4445,13 +4471,13 @@
         <v>42614</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="G29">
         <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="J29" t="s">
         <v>8</v>
@@ -4495,13 +4521,13 @@
         <v>42615</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="G30">
         <v>4</v>
       </c>
       <c r="I30" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="J30" t="s">
         <v>8</v>
@@ -4545,19 +4571,19 @@
         <v>42617</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="G31">
         <v>4</v>
       </c>
       <c r="I31" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="J31" t="s">
         <v>8</v>
       </c>
       <c r="K31" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="L31" s="10" t="s">
         <v>500</v>
@@ -4604,19 +4630,19 @@
         <v>42620</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="G32">
         <v>4</v>
       </c>
       <c r="I32" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="J32" t="s">
         <v>8</v>
       </c>
       <c r="K32" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="L32" s="10" t="s">
         <v>500</v>
@@ -4663,19 +4689,19 @@
         <v>42621</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="G33">
         <v>4</v>
       </c>
       <c r="I33" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="J33" t="s">
         <v>8</v>
       </c>
       <c r="K33" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="L33" s="10" t="s">
         <v>500</v>
@@ -4722,19 +4748,19 @@
         <v>42622</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="G34">
         <v>4</v>
       </c>
       <c r="I34" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="J34" t="s">
         <v>8</v>
       </c>
       <c r="K34" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="L34" s="10" t="s">
         <v>500</v>
@@ -4781,19 +4807,19 @@
         <v>42624</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="G35">
         <v>4</v>
       </c>
       <c r="I35" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="J35" t="s">
         <v>8</v>
       </c>
       <c r="K35" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="L35" s="10" t="s">
         <v>500</v>
@@ -4840,19 +4866,19 @@
         <v>42625</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="G36">
         <v>4</v>
       </c>
       <c r="I36" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="J36" t="s">
         <v>8</v>
       </c>
       <c r="K36" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="L36" s="10" t="s">
         <v>500</v>
@@ -4899,19 +4925,19 @@
         <v>42626</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="G37">
         <v>4</v>
       </c>
       <c r="I37" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="J37" t="s">
         <v>8</v>
       </c>
       <c r="K37" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="L37" s="10" t="s">
         <v>500</v>
@@ -4967,19 +4993,19 @@
         <v>42627</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="G38">
         <v>4</v>
       </c>
       <c r="I38" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="J38" t="s">
         <v>8</v>
       </c>
       <c r="K38" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="L38" s="10" t="s">
         <v>500</v>
@@ -5026,19 +5052,19 @@
         <v>42628</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="G39">
         <v>4</v>
       </c>
       <c r="I39" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="J39" t="s">
         <v>8</v>
       </c>
       <c r="K39" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="L39" s="10" t="s">
         <v>500</v>
@@ -5088,19 +5114,19 @@
         <v>42629</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="G40">
         <v>4</v>
       </c>
       <c r="I40" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="J40" t="s">
         <v>8</v>
       </c>
       <c r="K40" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="L40" s="10" t="s">
         <v>500</v>
@@ -5147,19 +5173,19 @@
         <v>42631</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="G41">
         <v>4</v>
       </c>
       <c r="I41" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="J41" t="s">
         <v>8</v>
       </c>
       <c r="K41" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="L41" s="10" t="s">
         <v>500</v>
@@ -5206,19 +5232,19 @@
         <v>42632</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="G42">
         <v>4</v>
       </c>
       <c r="I42" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="J42" t="s">
         <v>8</v>
       </c>
       <c r="K42" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="L42" s="10" t="s">
         <v>500</v>
@@ -5274,19 +5300,19 @@
         <v>42633</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="G43">
         <v>4</v>
       </c>
       <c r="I43" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="J43" t="s">
         <v>8</v>
       </c>
       <c r="K43" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="L43" s="10" t="s">
         <v>500</v>
@@ -5336,19 +5362,19 @@
         <v>42634</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="G44">
         <v>4</v>
       </c>
       <c r="I44" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="J44" t="s">
         <v>8</v>
       </c>
       <c r="K44" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="L44" s="10" t="s">
         <v>500</v>
@@ -5395,19 +5421,19 @@
         <v>42636</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="G45">
         <v>4</v>
       </c>
       <c r="I45" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="J45" t="s">
         <v>8</v>
       </c>
       <c r="K45" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="L45" s="10" t="s">
         <v>500</v>
@@ -5454,19 +5480,19 @@
         <v>42637</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="G46">
         <v>4</v>
       </c>
       <c r="I46" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="J46" t="s">
         <v>8</v>
       </c>
       <c r="K46" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="L46" s="10" t="s">
         <v>500</v>
@@ -5513,19 +5539,19 @@
         <v>42638</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="G47">
         <v>4</v>
       </c>
       <c r="I47" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="J47" t="s">
         <v>8</v>
       </c>
       <c r="K47" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="L47" s="10" t="s">
         <v>500</v>
@@ -5572,19 +5598,19 @@
         <v>42639</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="G48">
         <v>4</v>
       </c>
       <c r="I48" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="J48" t="s">
         <v>8</v>
       </c>
       <c r="K48" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="L48" s="10" t="s">
         <v>500</v>
@@ -5640,19 +5666,19 @@
         <v>42640</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="G49">
         <v>4</v>
       </c>
       <c r="I49" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="J49" t="s">
         <v>8</v>
       </c>
       <c r="K49" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="L49" s="10" t="s">
         <v>500</v>
@@ -5699,19 +5725,19 @@
         <v>42641</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="G50">
         <v>4</v>
       </c>
       <c r="I50" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="J50" t="s">
         <v>8</v>
       </c>
       <c r="K50" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="L50" s="10" t="s">
         <v>500</v>
@@ -5767,19 +5793,19 @@
         <v>42642</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="G51">
         <v>4</v>
       </c>
       <c r="I51" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="J51" t="s">
         <v>8</v>
       </c>
       <c r="K51" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="L51" s="10" t="s">
         <v>500</v>
@@ -5835,19 +5861,19 @@
         <v>42643</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="G52">
         <v>4</v>
       </c>
       <c r="I52" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="J52" t="s">
         <v>8</v>
       </c>
       <c r="K52" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="L52" s="10" t="s">
         <v>500</v>
@@ -5894,19 +5920,19 @@
         <v>42646</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="G53">
         <v>4</v>
       </c>
       <c r="I53" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="J53" t="s">
         <v>8</v>
       </c>
       <c r="K53" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="L53" s="10" t="s">
         <v>500</v>
@@ -5953,19 +5979,19 @@
         <v>42647</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="G54">
         <v>4</v>
       </c>
       <c r="I54" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="J54" t="s">
         <v>8</v>
       </c>
       <c r="K54" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="L54" s="10" t="s">
         <v>500</v>
@@ -6012,19 +6038,19 @@
         <v>42648</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="G55">
         <v>4</v>
       </c>
       <c r="I55" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="J55" t="s">
         <v>8</v>
       </c>
       <c r="K55" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="L55" s="10" t="s">
         <v>500</v>
@@ -6083,7 +6109,7 @@
         <v>88</v>
       </c>
       <c r="K56" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="L56" s="10" t="s">
         <v>563</v>
@@ -6160,7 +6186,7 @@
         <v>88</v>
       </c>
       <c r="K57" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="L57" s="10" t="s">
         <v>500</v>
@@ -6234,7 +6260,7 @@
         <v>88</v>
       </c>
       <c r="K58" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="L58" s="10" t="s">
         <v>500</v>
@@ -6308,7 +6334,7 @@
         <v>88</v>
       </c>
       <c r="K59" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="L59" s="10" t="s">
         <v>500</v>
@@ -6382,7 +6408,7 @@
         <v>88</v>
       </c>
       <c r="K60" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="L60" s="10" t="s">
         <v>500</v>
@@ -6456,7 +6482,7 @@
         <v>88</v>
       </c>
       <c r="K61" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="L61" s="10" t="s">
         <v>500</v>
@@ -6530,7 +6556,7 @@
         <v>88</v>
       </c>
       <c r="K62" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="L62" s="10" t="s">
         <v>500</v>
@@ -6604,7 +6630,7 @@
         <v>88</v>
       </c>
       <c r="K63" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="L63" s="10" t="s">
         <v>500</v>
@@ -6678,7 +6704,7 @@
         <v>88</v>
       </c>
       <c r="K64" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="L64" s="10" t="s">
         <v>500</v>
@@ -6752,7 +6778,7 @@
         <v>88</v>
       </c>
       <c r="K65" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="L65" s="10" t="s">
         <v>500</v>
@@ -6826,7 +6852,7 @@
         <v>88</v>
       </c>
       <c r="K66" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="L66" s="10" t="s">
         <v>500</v>
@@ -6900,7 +6926,7 @@
         <v>88</v>
       </c>
       <c r="K67" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="L67" s="10" t="s">
         <v>500</v>
@@ -6974,7 +7000,7 @@
         <v>88</v>
       </c>
       <c r="K68" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="L68" s="10" t="s">
         <v>500</v>
@@ -7048,7 +7074,7 @@
         <v>88</v>
       </c>
       <c r="K69" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="L69" s="10" t="s">
         <v>500</v>
@@ -7122,7 +7148,7 @@
         <v>88</v>
       </c>
       <c r="K70" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="L70" s="10" t="s">
         <v>500</v>
@@ -7196,7 +7222,7 @@
         <v>88</v>
       </c>
       <c r="K71" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="L71" s="10" t="s">
         <v>500</v>
@@ -7270,7 +7296,7 @@
         <v>88</v>
       </c>
       <c r="K72" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="L72" s="10" t="s">
         <v>500</v>
@@ -7344,7 +7370,7 @@
         <v>88</v>
       </c>
       <c r="K73" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="L73" s="10" t="s">
         <v>500</v>
@@ -7418,7 +7444,7 @@
         <v>88</v>
       </c>
       <c r="K74" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="L74" s="10" t="s">
         <v>500</v>
@@ -7492,7 +7518,7 @@
         <v>88</v>
       </c>
       <c r="K75" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="L75" s="10" t="s">
         <v>500</v>
@@ -7566,7 +7592,7 @@
         <v>88</v>
       </c>
       <c r="K76" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="L76" s="10" t="s">
         <v>505</v>
@@ -7640,7 +7666,7 @@
         <v>88</v>
       </c>
       <c r="K77" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="L77" s="10" t="s">
         <v>563</v>
@@ -7702,7 +7728,7 @@
         <v>88</v>
       </c>
       <c r="K78" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="L78" s="10" t="s">
         <v>500</v>
@@ -7776,7 +7802,7 @@
         <v>88</v>
       </c>
       <c r="K79" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="L79" s="10" t="s">
         <v>500</v>
@@ -7850,7 +7876,7 @@
         <v>88</v>
       </c>
       <c r="K80" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="L80" s="10" t="s">
         <v>500</v>
@@ -7927,7 +7953,7 @@
         <v>88</v>
       </c>
       <c r="K81" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="L81" s="10" t="s">
         <v>500</v>
@@ -8004,7 +8030,7 @@
         <v>88</v>
       </c>
       <c r="K82" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="L82" s="10" t="s">
         <v>500</v>
@@ -8078,7 +8104,7 @@
         <v>88</v>
       </c>
       <c r="K83" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="L83" s="10" t="s">
         <v>500</v>
@@ -8155,7 +8181,7 @@
         <v>88</v>
       </c>
       <c r="K84" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="L84" s="10" t="s">
         <v>500</v>
@@ -8229,7 +8255,7 @@
         <v>88</v>
       </c>
       <c r="K85" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="L85" s="10" t="s">
         <v>500</v>
@@ -8303,7 +8329,7 @@
         <v>88</v>
       </c>
       <c r="K86" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="L86" s="10" t="s">
         <v>500</v>
@@ -8377,7 +8403,7 @@
         <v>88</v>
       </c>
       <c r="K87" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="L87" s="10" t="s">
         <v>500</v>
@@ -8451,7 +8477,7 @@
         <v>88</v>
       </c>
       <c r="K88" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="L88" s="10" t="s">
         <v>500</v>
@@ -8525,7 +8551,7 @@
         <v>88</v>
       </c>
       <c r="K89" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="L89" s="10" t="s">
         <v>500</v>
@@ -8602,7 +8628,7 @@
         <v>88</v>
       </c>
       <c r="K90" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="L90" s="10" t="s">
         <v>500</v>
@@ -8676,7 +8702,7 @@
         <v>88</v>
       </c>
       <c r="K91" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="L91" s="10" t="s">
         <v>500</v>
@@ -9989,7 +10015,7 @@
         <v>8</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="L109" s="10" t="s">
         <v>500</v>
@@ -10064,7 +10090,7 @@
         <v>8</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="L110" s="10" t="s">
         <v>500</v>
@@ -10139,7 +10165,7 @@
         <v>8</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="L111" s="10" t="s">
         <v>500</v>
@@ -10214,7 +10240,7 @@
         <v>8</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="L112" s="10" t="s">
         <v>500</v>
@@ -10289,7 +10315,7 @@
         <v>8</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="L113" s="10" t="s">
         <v>500</v>
@@ -10364,7 +10390,7 @@
         <v>8</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="L114" s="10" t="s">
         <v>500</v>
@@ -10439,7 +10465,7 @@
         <v>8</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="L115" s="10" t="s">
         <v>500</v>
@@ -10514,7 +10540,7 @@
         <v>8</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="L116" s="10" t="s">
         <v>500</v>
@@ -10589,7 +10615,7 @@
         <v>8</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="L117" s="10" t="s">
         <v>500</v>
@@ -10660,7 +10686,9 @@
       <c r="J118" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K118" s="1"/>
+      <c r="K118" s="1" t="s">
+        <v>590</v>
+      </c>
       <c r="L118" s="10" t="s">
         <v>500</v>
       </c>
@@ -10730,7 +10758,9 @@
       <c r="J119" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K119" s="1"/>
+      <c r="K119" s="1" t="s">
+        <v>590</v>
+      </c>
       <c r="L119" s="10" t="s">
         <v>500</v>
       </c>
@@ -10800,7 +10830,9 @@
       <c r="J120" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K120" s="1"/>
+      <c r="K120" s="1" t="s">
+        <v>590</v>
+      </c>
       <c r="L120" s="10" t="s">
         <v>500</v>
       </c>
@@ -10873,7 +10905,9 @@
       <c r="J121" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K121" s="1"/>
+      <c r="K121" s="1" t="s">
+        <v>590</v>
+      </c>
       <c r="L121" s="10" t="s">
         <v>500</v>
       </c>
@@ -10946,7 +10980,9 @@
       <c r="J122" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K122" s="1"/>
+      <c r="K122" s="1" t="s">
+        <v>590</v>
+      </c>
       <c r="L122" s="10" t="s">
         <v>500</v>
       </c>
@@ -11022,7 +11058,9 @@
       <c r="J123" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K123" s="1"/>
+      <c r="K123" s="1" t="s">
+        <v>591</v>
+      </c>
       <c r="L123" s="10" t="s">
         <v>500</v>
       </c>
@@ -11098,7 +11136,9 @@
       <c r="J124" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K124" s="1"/>
+      <c r="K124" s="1" t="s">
+        <v>592</v>
+      </c>
       <c r="L124" s="10" t="s">
         <v>500</v>
       </c>
@@ -11174,7 +11214,9 @@
       <c r="J125" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K125" s="1"/>
+      <c r="K125" s="1" t="s">
+        <v>593</v>
+      </c>
       <c r="L125" s="10" t="s">
         <v>500</v>
       </c>
@@ -11250,7 +11292,9 @@
       <c r="J126" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K126" s="1"/>
+      <c r="K126" s="1" t="s">
+        <v>593</v>
+      </c>
       <c r="L126" s="10" t="s">
         <v>500</v>
       </c>
@@ -11326,7 +11370,9 @@
       <c r="J127" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K127" s="1"/>
+      <c r="K127" s="1" t="s">
+        <v>594</v>
+      </c>
       <c r="L127" s="10" t="s">
         <v>500</v>
       </c>
@@ -11399,7 +11445,9 @@
       <c r="J128" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K128" s="1"/>
+      <c r="K128" s="1" t="s">
+        <v>594</v>
+      </c>
       <c r="L128" s="10" t="s">
         <v>500</v>
       </c>
@@ -11472,7 +11520,9 @@
       <c r="J129" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K129" s="1"/>
+      <c r="K129" s="1" t="s">
+        <v>594</v>
+      </c>
       <c r="L129" s="10" t="s">
         <v>500</v>
       </c>
@@ -11545,7 +11595,9 @@
       <c r="J130" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K130" s="1"/>
+      <c r="K130" s="1" t="s">
+        <v>595</v>
+      </c>
       <c r="L130" s="10" t="s">
         <v>500</v>
       </c>
@@ -11618,7 +11670,9 @@
       <c r="J131" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K131" s="1"/>
+      <c r="K131" s="1" t="s">
+        <v>595</v>
+      </c>
       <c r="L131" s="10" t="s">
         <v>500</v>
       </c>
@@ -11694,7 +11748,9 @@
       <c r="J132" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K132" s="1"/>
+      <c r="K132" s="1" t="s">
+        <v>595</v>
+      </c>
       <c r="L132" s="10" t="s">
         <v>500</v>
       </c>
@@ -11770,7 +11826,9 @@
       <c r="J133" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K133" s="1"/>
+      <c r="K133" s="1" t="s">
+        <v>595</v>
+      </c>
       <c r="L133" s="10" t="s">
         <v>505</v>
       </c>
@@ -11846,7 +11904,9 @@
       <c r="J134" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K134" s="1"/>
+      <c r="K134" s="1" t="s">
+        <v>595</v>
+      </c>
       <c r="L134" s="10" t="s">
         <v>500</v>
       </c>
@@ -11919,7 +11979,9 @@
       <c r="J135" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K135" s="1"/>
+      <c r="K135" s="1" t="s">
+        <v>595</v>
+      </c>
       <c r="L135" s="10" t="s">
         <v>500</v>
       </c>
@@ -11992,7 +12054,9 @@
       <c r="J136" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K136" s="1"/>
+      <c r="K136" s="1" t="s">
+        <v>584</v>
+      </c>
       <c r="L136" s="10" t="s">
         <v>500</v>
       </c>
@@ -12068,7 +12132,9 @@
       <c r="J137" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K137" s="1"/>
+      <c r="K137" s="1" t="s">
+        <v>585</v>
+      </c>
       <c r="L137" s="10" t="s">
         <v>500</v>
       </c>
@@ -12141,7 +12207,9 @@
       <c r="J138" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K138" s="1"/>
+      <c r="K138" s="1" t="s">
+        <v>585</v>
+      </c>
       <c r="L138" s="10" t="s">
         <v>500</v>
       </c>
@@ -12217,7 +12285,9 @@
       <c r="J139" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K139" s="1"/>
+      <c r="K139" s="1" t="s">
+        <v>585</v>
+      </c>
       <c r="L139" s="10" t="s">
         <v>500</v>
       </c>
@@ -12290,7 +12360,9 @@
       <c r="J140" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K140" s="1"/>
+      <c r="K140" s="1" t="s">
+        <v>585</v>
+      </c>
       <c r="L140" s="10" t="s">
         <v>500</v>
       </c>
@@ -12363,7 +12435,9 @@
       <c r="J141" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K141" s="1"/>
+      <c r="K141" s="1" t="s">
+        <v>585</v>
+      </c>
       <c r="L141" s="10" t="s">
         <v>500</v>
       </c>
@@ -12436,7 +12510,9 @@
       <c r="J142" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K142" s="1"/>
+      <c r="K142" s="1" t="s">
+        <v>585</v>
+      </c>
       <c r="L142" s="10" t="s">
         <v>500</v>
       </c>
@@ -12509,7 +12585,9 @@
       <c r="J143" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K143" s="1"/>
+      <c r="K143" s="1" t="s">
+        <v>585</v>
+      </c>
       <c r="L143" s="10" t="s">
         <v>500</v>
       </c>
@@ -12582,7 +12660,9 @@
       <c r="J144" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K144" s="1"/>
+      <c r="K144" s="1" t="s">
+        <v>585</v>
+      </c>
       <c r="L144" s="10" t="s">
         <v>500</v>
       </c>
@@ -12655,7 +12735,9 @@
       <c r="J145" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K145" s="1"/>
+      <c r="K145" s="1" t="s">
+        <v>585</v>
+      </c>
       <c r="L145" s="10" t="s">
         <v>500</v>
       </c>
@@ -12728,7 +12810,9 @@
       <c r="J146" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K146" s="1"/>
+      <c r="K146" s="1" t="s">
+        <v>585</v>
+      </c>
       <c r="L146" s="10" t="s">
         <v>500</v>
       </c>
@@ -12801,7 +12885,9 @@
       <c r="J147" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K147" s="1"/>
+      <c r="K147" s="1" t="s">
+        <v>585</v>
+      </c>
       <c r="L147" s="10" t="s">
         <v>500</v>
       </c>
@@ -12877,7 +12963,9 @@
       <c r="J148" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K148" s="1"/>
+      <c r="K148" s="1" t="s">
+        <v>585</v>
+      </c>
       <c r="L148" s="10" t="s">
         <v>500</v>
       </c>
@@ -12950,7 +13038,9 @@
       <c r="J149" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K149" s="1"/>
+      <c r="K149" s="1" t="s">
+        <v>585</v>
+      </c>
       <c r="L149" s="10" t="s">
         <v>500</v>
       </c>
@@ -13023,7 +13113,9 @@
       <c r="J150" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K150" s="1"/>
+      <c r="K150" s="1" t="s">
+        <v>585</v>
+      </c>
       <c r="L150" s="10" t="s">
         <v>500</v>
       </c>
@@ -13096,7 +13188,9 @@
       <c r="J151" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K151" s="1"/>
+      <c r="K151" s="1" t="s">
+        <v>585</v>
+      </c>
       <c r="L151" s="10" t="s">
         <v>500</v>
       </c>
@@ -13172,7 +13266,9 @@
       <c r="J152" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K152" s="1"/>
+      <c r="K152" s="1" t="s">
+        <v>585</v>
+      </c>
       <c r="L152" s="10" t="s">
         <v>500</v>
       </c>
@@ -13245,7 +13341,9 @@
       <c r="J153" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K153" s="1"/>
+      <c r="K153" s="1" t="s">
+        <v>585</v>
+      </c>
       <c r="L153" s="10" t="s">
         <v>500</v>
       </c>
@@ -13318,7 +13416,9 @@
       <c r="J154" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K154" s="1"/>
+      <c r="K154" s="1" t="s">
+        <v>585</v>
+      </c>
       <c r="L154" s="10" t="s">
         <v>500</v>
       </c>
@@ -13394,7 +13494,9 @@
       <c r="J155" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K155" s="1"/>
+      <c r="K155" s="1" t="s">
+        <v>585</v>
+      </c>
       <c r="L155" s="10" t="s">
         <v>500</v>
       </c>
@@ -13467,7 +13569,9 @@
       <c r="J156" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K156" s="1"/>
+      <c r="K156" s="1" t="s">
+        <v>585</v>
+      </c>
       <c r="L156" s="10" t="s">
         <v>500</v>
       </c>
@@ -13540,7 +13644,9 @@
       <c r="J157" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K157" s="1"/>
+      <c r="K157" s="1" t="s">
+        <v>585</v>
+      </c>
       <c r="L157" s="10" t="s">
         <v>500</v>
       </c>
@@ -13613,7 +13719,9 @@
       <c r="J158" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K158" s="1"/>
+      <c r="K158" s="1" t="s">
+        <v>585</v>
+      </c>
       <c r="L158" s="10" t="s">
         <v>500</v>
       </c>
@@ -14539,7 +14647,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC47">
+  <autoFilter ref="A1:AC174">
     <sortState ref="A2:Y47">
       <sortCondition ref="D1:D39"/>
     </sortState>

--- a/inclusion_lists/exp_summary.xlsx
+++ b/inclusion_lists/exp_summary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="597">
   <si>
     <t>date</t>
   </si>
@@ -1818,6 +1818,9 @@
   </si>
   <si>
     <t>{'DG','CA3','CA1','DG'}</t>
+  </si>
+  <si>
+    <t>{'???','WM','???','???'}</t>
   </si>
 </sst>
 </file>
@@ -2569,13 +2572,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AC174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B110" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K135" sqref="K135"/>
+      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2713,7 +2717,7 @@
         <v>43158</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>237</v>
+        <v>86</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2">
@@ -2791,7 +2795,7 @@
         <v>43159</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>237</v>
+        <v>86</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3">
@@ -2869,7 +2873,7 @@
         <v>43160</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>237</v>
+        <v>86</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4">
@@ -2947,7 +2951,7 @@
         <v>43163</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>237</v>
+        <v>86</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5">
@@ -3038,7 +3042,7 @@
         <v>8</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="L6" s="10" t="s">
         <v>500</v>
@@ -3116,7 +3120,7 @@
         <v>8</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="L7" s="10" t="s">
         <v>500</v>
@@ -4079,7 +4083,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -4121,7 +4125,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -4163,7 +4167,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
@@ -4205,7 +4209,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -4247,7 +4251,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
@@ -4289,7 +4293,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>44</v>
       </c>
@@ -4331,7 +4335,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>45</v>
       </c>
@@ -4373,7 +4377,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
@@ -4415,7 +4419,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>47</v>
       </c>
@@ -4457,7 +4461,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -4507,7 +4511,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>13</v>
       </c>
@@ -4557,7 +4561,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>14</v>
       </c>
@@ -4616,7 +4620,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>15</v>
       </c>
@@ -4675,7 +4679,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
@@ -4734,7 +4738,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>17</v>
       </c>
@@ -4793,7 +4797,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -4852,7 +4856,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>20</v>
       </c>
@@ -4911,7 +4915,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
@@ -4979,7 +4983,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>22</v>
       </c>
@@ -5038,7 +5042,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>23</v>
       </c>
@@ -5100,7 +5104,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
@@ -5159,7 +5163,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>24</v>
       </c>
@@ -5218,7 +5222,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>25</v>
       </c>
@@ -5286,7 +5290,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>26</v>
       </c>
@@ -5348,7 +5352,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>27</v>
       </c>
@@ -5407,7 +5411,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>28</v>
       </c>
@@ -5466,7 +5470,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>29</v>
       </c>
@@ -5525,7 +5529,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>30</v>
       </c>
@@ -5584,7 +5588,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>31</v>
       </c>
@@ -5652,7 +5656,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>32</v>
       </c>
@@ -5711,7 +5715,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>6</v>
       </c>
@@ -5779,7 +5783,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>33</v>
       </c>
@@ -5847,7 +5851,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>34</v>
       </c>
@@ -5906,7 +5910,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>35</v>
       </c>
@@ -5965,7 +5969,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>36</v>
       </c>
@@ -6024,7 +6028,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>37</v>
       </c>
@@ -6083,7 +6087,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>57</v>
       </c>
@@ -6160,7 +6164,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>62</v>
       </c>
@@ -6234,7 +6238,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>65</v>
       </c>
@@ -6308,7 +6312,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>70</v>
       </c>
@@ -6382,7 +6386,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>73</v>
       </c>
@@ -6456,7 +6460,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>76</v>
       </c>
@@ -6530,7 +6534,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>79</v>
       </c>
@@ -6604,7 +6608,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>82</v>
       </c>
@@ -6678,7 +6682,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>87</v>
       </c>
@@ -6752,7 +6756,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>89</v>
       </c>
@@ -6826,7 +6830,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>91</v>
       </c>
@@ -6900,7 +6904,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>94</v>
       </c>
@@ -6974,7 +6978,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>96</v>
       </c>
@@ -7048,7 +7052,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>99</v>
       </c>
@@ -7122,7 +7126,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>102</v>
       </c>
@@ -7196,7 +7200,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>104</v>
       </c>
@@ -7270,7 +7274,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>107</v>
       </c>
@@ -7344,7 +7348,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>110</v>
       </c>
@@ -7418,7 +7422,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>112</v>
       </c>
@@ -7492,7 +7496,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>115</v>
       </c>
@@ -7566,7 +7570,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>118</v>
       </c>
@@ -7640,7 +7644,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>120</v>
       </c>
@@ -7702,7 +7706,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>122</v>
       </c>
@@ -7776,7 +7780,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>126</v>
       </c>
@@ -7850,7 +7854,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>129</v>
       </c>
@@ -7927,7 +7931,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>132</v>
       </c>
@@ -8004,7 +8008,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>135</v>
       </c>
@@ -8078,7 +8082,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>138</v>
       </c>
@@ -8155,7 +8159,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>141</v>
       </c>
@@ -8229,7 +8233,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>144</v>
       </c>
@@ -8303,7 +8307,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>147</v>
       </c>
@@ -8377,7 +8381,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>150</v>
       </c>
@@ -8451,7 +8455,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>153</v>
       </c>
@@ -8525,7 +8529,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>156</v>
       </c>
@@ -8602,7 +8606,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>159</v>
       </c>
@@ -8676,7 +8680,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>161</v>
       </c>
@@ -8753,7 +8757,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>232</v>
       </c>
@@ -8826,7 +8830,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>236</v>
       </c>
@@ -8902,7 +8906,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>240</v>
       </c>
@@ -8978,7 +8982,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>249</v>
       </c>
@@ -9048,7 +9052,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>256</v>
       </c>
@@ -9121,7 +9125,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>261</v>
       </c>
@@ -9194,7 +9198,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>264</v>
       </c>
@@ -9267,7 +9271,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>272</v>
       </c>
@@ -9340,7 +9344,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>276</v>
       </c>
@@ -9410,7 +9414,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>281</v>
       </c>
@@ -9480,7 +9484,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>284</v>
       </c>
@@ -9553,7 +9557,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>291</v>
       </c>
@@ -9626,7 +9630,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>309</v>
       </c>
@@ -9702,7 +9706,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>326</v>
       </c>
@@ -9769,7 +9773,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>334</v>
       </c>
@@ -9839,7 +9843,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>349</v>
       </c>
@@ -9915,7 +9919,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>355</v>
       </c>
@@ -9988,7 +9992,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>245</v>
       </c>
@@ -10063,7 +10067,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>246</v>
       </c>
@@ -10138,7 +10142,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>250</v>
       </c>
@@ -10213,7 +10217,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>253</v>
       </c>
@@ -10288,7 +10292,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>259</v>
       </c>
@@ -10363,7 +10367,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>262</v>
       </c>
@@ -10438,7 +10442,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>266</v>
       </c>
@@ -10513,7 +10517,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>269</v>
       </c>
@@ -10588,7 +10592,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>275</v>
       </c>
@@ -10660,7 +10664,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>277</v>
       </c>
@@ -10732,7 +10736,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>278</v>
       </c>
@@ -10804,7 +10808,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>282</v>
       </c>
@@ -10879,7 +10883,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>288</v>
       </c>
@@ -10954,7 +10958,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>292</v>
       </c>
@@ -11032,7 +11036,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>294</v>
       </c>
@@ -11110,7 +11114,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>297</v>
       </c>
@@ -11188,7 +11192,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>300</v>
       </c>
@@ -11266,7 +11270,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>305</v>
       </c>
@@ -11344,7 +11348,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>311</v>
       </c>
@@ -11419,7 +11423,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>313</v>
       </c>
@@ -11494,7 +11498,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="129" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>316</v>
       </c>
@@ -11569,7 +11573,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="130" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>319</v>
       </c>
@@ -11644,7 +11648,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="131" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>323</v>
       </c>
@@ -11722,7 +11726,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="132" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>329</v>
       </c>
@@ -11800,7 +11804,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="133" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>331</v>
       </c>
@@ -11878,7 +11882,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="134" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>337</v>
       </c>
@@ -11953,7 +11957,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="135" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>340</v>
       </c>
@@ -12028,7 +12032,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="136" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>343</v>
       </c>
@@ -12106,7 +12110,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="137" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>347</v>
       </c>
@@ -12181,7 +12185,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="138" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>353</v>
       </c>
@@ -12259,7 +12263,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="139" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>357</v>
       </c>
@@ -12334,7 +12338,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="140" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>358</v>
       </c>
@@ -12409,7 +12413,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="141" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>359</v>
       </c>
@@ -12484,7 +12488,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="142" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>360</v>
       </c>
@@ -12559,7 +12563,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="143" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>362</v>
       </c>
@@ -12634,7 +12638,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="144" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>364</v>
       </c>
@@ -12709,7 +12713,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="145" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>366</v>
       </c>
@@ -12784,7 +12788,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="146" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>368</v>
       </c>
@@ -12859,7 +12863,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="147" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>371</v>
       </c>
@@ -12937,7 +12941,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="148" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>373</v>
       </c>
@@ -13012,7 +13016,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="149" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>374</v>
       </c>
@@ -13087,7 +13091,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="150" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>376</v>
       </c>
@@ -13162,7 +13166,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="151" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>378</v>
       </c>
@@ -13240,7 +13244,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="152" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>381</v>
       </c>
@@ -13315,7 +13319,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="153" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>383</v>
       </c>
@@ -13390,7 +13394,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="154" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>384</v>
       </c>
@@ -13468,7 +13472,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="155" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>387</v>
       </c>
@@ -13543,7 +13547,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="156" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>388</v>
       </c>
@@ -13618,7 +13622,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="157" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>390</v>
       </c>
@@ -13693,7 +13697,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="158" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>392</v>
       </c>
@@ -13771,7 +13775,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="159" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>167</v>
       </c>
@@ -13844,7 +13848,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="160" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>173</v>
       </c>
@@ -13920,7 +13924,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="161" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>174</v>
       </c>
@@ -13996,7 +14000,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="162" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>177</v>
       </c>
@@ -14072,7 +14076,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="163" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>179</v>
       </c>
@@ -14148,7 +14152,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="164" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>182</v>
       </c>
@@ -14224,7 +14228,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="165" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>48</v>
       </c>
@@ -14268,7 +14272,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="166" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>49</v>
       </c>
@@ -14310,7 +14314,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="167" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>50</v>
       </c>
@@ -14352,7 +14356,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="168" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>51</v>
       </c>
@@ -14394,7 +14398,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="169" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>52</v>
       </c>
@@ -14436,7 +14440,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="170" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>53</v>
       </c>
@@ -14478,7 +14482,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="171" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>54</v>
       </c>
@@ -14520,7 +14524,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="172" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>55</v>
       </c>
@@ -14562,7 +14566,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="173" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>56</v>
       </c>
@@ -14604,7 +14608,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="174" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>12</v>
       </c>
@@ -14648,6 +14652,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AC174">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="34"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:Y47">
       <sortCondition ref="D1:D39"/>
     </sortState>

--- a/inclusion_lists/exp_summary.xlsx
+++ b/inclusion_lists/exp_summary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="596">
   <si>
     <t>date</t>
   </si>
@@ -749,9 +749,6 @@
   </si>
   <si>
     <t>Somo</t>
-  </si>
-  <si>
-    <t>[3,2]</t>
   </si>
   <si>
     <t>b9861_d180519</t>
@@ -2579,7 +2576,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomRight" activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2619,40 +2616,40 @@
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>67</v>
@@ -2664,19 +2661,19 @@
         <v>184</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>496</v>
-      </c>
       <c r="U1" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>68</v>
@@ -2685,25 +2682,25 @@
         <v>10</v>
       </c>
       <c r="X1" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="Z1" s="2" t="s">
-        <v>567</v>
-      </c>
       <c r="AA1" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="AC1" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>190</v>
       </c>
@@ -2730,10 +2727,10 @@
         <v>8</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>86</v>
@@ -2760,7 +2757,7 @@
         <v>9</v>
       </c>
       <c r="U2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V2">
         <v>5</v>
@@ -2781,7 +2778,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>191</v>
       </c>
@@ -2808,13 +2805,13 @@
         <v>8</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -2838,7 +2835,7 @@
         <v>9</v>
       </c>
       <c r="U3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V3">
         <v>5</v>
@@ -2859,7 +2856,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>192</v>
       </c>
@@ -2886,13 +2883,13 @@
         <v>8</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -2916,7 +2913,7 @@
         <v>9</v>
       </c>
       <c r="U4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V4">
         <v>5</v>
@@ -2937,7 +2934,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>193</v>
       </c>
@@ -2964,13 +2961,13 @@
         <v>8</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -2994,7 +2991,7 @@
         <v>9</v>
       </c>
       <c r="U5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V5">
         <v>5</v>
@@ -3015,7 +3012,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>196</v>
       </c>
@@ -3042,13 +3039,13 @@
         <v>8</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -3072,7 +3069,7 @@
         <v>9</v>
       </c>
       <c r="U6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V6">
         <v>5</v>
@@ -3087,13 +3084,13 @@
         <v>199</v>
       </c>
       <c r="AB6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AC6" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>195</v>
       </c>
@@ -3120,13 +3117,13 @@
         <v>8</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -3150,7 +3147,7 @@
         <v>9</v>
       </c>
       <c r="U7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V7">
         <v>5</v>
@@ -3165,13 +3162,13 @@
         <v>198</v>
       </c>
       <c r="AB7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AC7" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>197</v>
       </c>
@@ -3198,13 +3195,13 @@
         <v>8</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -3228,7 +3225,7 @@
         <v>9</v>
       </c>
       <c r="U8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V8">
         <v>5</v>
@@ -3249,7 +3246,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>201</v>
       </c>
@@ -3276,13 +3273,13 @@
         <v>8</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -3306,7 +3303,7 @@
         <v>9</v>
       </c>
       <c r="U9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V9">
         <v>5</v>
@@ -3327,7 +3324,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>204</v>
       </c>
@@ -3354,13 +3351,13 @@
         <v>8</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -3384,7 +3381,7 @@
         <v>9</v>
       </c>
       <c r="U10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V10">
         <v>5</v>
@@ -3405,7 +3402,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>208</v>
       </c>
@@ -3432,13 +3429,13 @@
         <v>8</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -3462,7 +3459,7 @@
         <v>9</v>
       </c>
       <c r="U11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V11">
         <v>5</v>
@@ -3480,7 +3477,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>211</v>
       </c>
@@ -3507,13 +3504,13 @@
         <v>8</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -3537,7 +3534,7 @@
         <v>9</v>
       </c>
       <c r="U12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V12">
         <v>5</v>
@@ -3546,7 +3543,7 @@
         <v>745</v>
       </c>
       <c r="Z12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AA12" t="s">
         <v>209</v>
@@ -3558,7 +3555,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>213</v>
       </c>
@@ -3585,13 +3582,13 @@
         <v>8</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -3615,7 +3612,7 @@
         <v>9</v>
       </c>
       <c r="U13" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V13">
         <v>5</v>
@@ -3633,7 +3630,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>215</v>
       </c>
@@ -3660,13 +3657,13 @@
         <v>8</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -3690,7 +3687,7 @@
         <v>9</v>
       </c>
       <c r="U14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V14">
         <v>5</v>
@@ -3708,7 +3705,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>217</v>
       </c>
@@ -3735,13 +3732,13 @@
         <v>8</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -3765,7 +3762,7 @@
         <v>9</v>
       </c>
       <c r="U15" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V15">
         <v>5</v>
@@ -3783,7 +3780,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>220</v>
       </c>
@@ -3810,13 +3807,13 @@
         <v>8</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -3840,7 +3837,7 @@
         <v>9</v>
       </c>
       <c r="U16" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V16">
         <v>5</v>
@@ -3858,7 +3855,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>223</v>
       </c>
@@ -3885,13 +3882,13 @@
         <v>8</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -3915,7 +3912,7 @@
         <v>9</v>
       </c>
       <c r="U17" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V17">
         <v>5</v>
@@ -3933,7 +3930,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>225</v>
       </c>
@@ -3960,13 +3957,13 @@
         <v>8</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -3990,7 +3987,7 @@
         <v>9</v>
       </c>
       <c r="U18" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V18">
         <v>5</v>
@@ -4008,7 +4005,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>230</v>
       </c>
@@ -4035,13 +4032,13 @@
         <v>8</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -4065,7 +4062,7 @@
         <v>9</v>
       </c>
       <c r="U19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V19">
         <v>5</v>
@@ -4110,7 +4107,7 @@
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M20" s="7" t="s">
         <v>86</v>
@@ -4152,7 +4149,7 @@
       </c>
       <c r="K21" s="7"/>
       <c r="L21" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M21" s="7" t="s">
         <v>86</v>
@@ -4194,7 +4191,7 @@
       </c>
       <c r="K22" s="7"/>
       <c r="L22" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M22" s="7" t="s">
         <v>86</v>
@@ -4236,7 +4233,7 @@
       </c>
       <c r="K23" s="7"/>
       <c r="L23" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>86</v>
@@ -4278,7 +4275,7 @@
       </c>
       <c r="K24" s="7"/>
       <c r="L24" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M24" s="7" t="s">
         <v>86</v>
@@ -4320,7 +4317,7 @@
       </c>
       <c r="K25" s="7"/>
       <c r="L25" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M25" s="7" t="s">
         <v>86</v>
@@ -4362,7 +4359,7 @@
       </c>
       <c r="K26" s="7"/>
       <c r="L26" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M26" s="7" t="s">
         <v>86</v>
@@ -4404,7 +4401,7 @@
       </c>
       <c r="K27" s="7"/>
       <c r="L27" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M27" s="7" t="s">
         <v>86</v>
@@ -4446,7 +4443,7 @@
       </c>
       <c r="K28" s="7"/>
       <c r="L28" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M28" s="7" t="s">
         <v>86</v>
@@ -4475,19 +4472,19 @@
         <v>42614</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="G29">
+        <v>4</v>
+      </c>
+      <c r="I29" t="s">
         <v>578</v>
-      </c>
-      <c r="G29">
-        <v>4</v>
-      </c>
-      <c r="I29" t="s">
-        <v>579</v>
       </c>
       <c r="J29" t="s">
         <v>8</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M29" s="7" t="s">
         <v>86</v>
@@ -4525,19 +4522,19 @@
         <v>42615</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="I30" t="s">
         <v>578</v>
-      </c>
-      <c r="G30">
-        <v>4</v>
-      </c>
-      <c r="I30" t="s">
-        <v>579</v>
       </c>
       <c r="J30" t="s">
         <v>8</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M30" s="7" t="s">
         <v>86</v>
@@ -4575,25 +4572,25 @@
         <v>42617</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="I31" t="s">
         <v>578</v>
-      </c>
-      <c r="G31">
-        <v>4</v>
-      </c>
-      <c r="I31" t="s">
-        <v>579</v>
       </c>
       <c r="J31" t="s">
         <v>8</v>
       </c>
       <c r="K31" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -4608,7 +4605,7 @@
         <v>9</v>
       </c>
       <c r="U31" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V31">
         <v>14</v>
@@ -4634,25 +4631,25 @@
         <v>42620</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="I32" t="s">
         <v>578</v>
-      </c>
-      <c r="G32">
-        <v>4</v>
-      </c>
-      <c r="I32" t="s">
-        <v>579</v>
       </c>
       <c r="J32" t="s">
         <v>8</v>
       </c>
       <c r="K32" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -4667,7 +4664,7 @@
         <v>9</v>
       </c>
       <c r="U32" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V32">
         <v>14</v>
@@ -4693,25 +4690,25 @@
         <v>42621</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+      <c r="I33" t="s">
         <v>578</v>
-      </c>
-      <c r="G33">
-        <v>4</v>
-      </c>
-      <c r="I33" t="s">
-        <v>579</v>
       </c>
       <c r="J33" t="s">
         <v>8</v>
       </c>
       <c r="K33" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -4726,7 +4723,7 @@
         <v>9</v>
       </c>
       <c r="U33" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V33">
         <v>14</v>
@@ -4752,25 +4749,25 @@
         <v>42622</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+      <c r="I34" t="s">
         <v>578</v>
-      </c>
-      <c r="G34">
-        <v>4</v>
-      </c>
-      <c r="I34" t="s">
-        <v>579</v>
       </c>
       <c r="J34" t="s">
         <v>8</v>
       </c>
       <c r="K34" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -4785,7 +4782,7 @@
         <v>9</v>
       </c>
       <c r="U34" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V34">
         <v>14</v>
@@ -4811,25 +4808,25 @@
         <v>42624</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="G35">
+        <v>4</v>
+      </c>
+      <c r="I35" t="s">
         <v>578</v>
-      </c>
-      <c r="G35">
-        <v>4</v>
-      </c>
-      <c r="I35" t="s">
-        <v>579</v>
       </c>
       <c r="J35" t="s">
         <v>8</v>
       </c>
       <c r="K35" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -4844,7 +4841,7 @@
         <v>9</v>
       </c>
       <c r="U35" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V35">
         <v>14</v>
@@ -4870,25 +4867,25 @@
         <v>42625</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
+      </c>
+      <c r="I36" t="s">
         <v>578</v>
-      </c>
-      <c r="G36">
-        <v>4</v>
-      </c>
-      <c r="I36" t="s">
-        <v>579</v>
       </c>
       <c r="J36" t="s">
         <v>8</v>
       </c>
       <c r="K36" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -4903,7 +4900,7 @@
         <v>9</v>
       </c>
       <c r="U36" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V36">
         <v>14</v>
@@ -4929,25 +4926,25 @@
         <v>42626</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
+      <c r="I37" t="s">
         <v>578</v>
-      </c>
-      <c r="G37">
-        <v>4</v>
-      </c>
-      <c r="I37" t="s">
-        <v>579</v>
       </c>
       <c r="J37" t="s">
         <v>8</v>
       </c>
       <c r="K37" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -4971,7 +4968,7 @@
         <v>9</v>
       </c>
       <c r="U37" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V37">
         <v>14</v>
@@ -4997,25 +4994,25 @@
         <v>42627</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="G38">
+        <v>4</v>
+      </c>
+      <c r="I38" t="s">
         <v>578</v>
-      </c>
-      <c r="G38">
-        <v>4</v>
-      </c>
-      <c r="I38" t="s">
-        <v>579</v>
       </c>
       <c r="J38" t="s">
         <v>8</v>
       </c>
       <c r="K38" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -5030,7 +5027,7 @@
         <v>9</v>
       </c>
       <c r="U38" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V38">
         <v>14</v>
@@ -5056,25 +5053,25 @@
         <v>42628</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+      <c r="I39" t="s">
         <v>578</v>
-      </c>
-      <c r="G39">
-        <v>4</v>
-      </c>
-      <c r="I39" t="s">
-        <v>579</v>
       </c>
       <c r="J39" t="s">
         <v>8</v>
       </c>
       <c r="K39" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -5089,7 +5086,7 @@
         <v>9</v>
       </c>
       <c r="U39" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V39">
         <v>14</v>
@@ -5101,7 +5098,7 @@
         <v>86</v>
       </c>
       <c r="AA39" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="40" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
@@ -5118,25 +5115,25 @@
         <v>42629</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="G40">
+        <v>4</v>
+      </c>
+      <c r="I40" t="s">
         <v>578</v>
-      </c>
-      <c r="G40">
-        <v>4</v>
-      </c>
-      <c r="I40" t="s">
-        <v>579</v>
       </c>
       <c r="J40" t="s">
         <v>8</v>
       </c>
       <c r="K40" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -5151,7 +5148,7 @@
         <v>9</v>
       </c>
       <c r="U40" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V40">
         <v>14</v>
@@ -5177,25 +5174,25 @@
         <v>42631</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="I41" t="s">
         <v>578</v>
-      </c>
-      <c r="G41">
-        <v>4</v>
-      </c>
-      <c r="I41" t="s">
-        <v>579</v>
       </c>
       <c r="J41" t="s">
         <v>8</v>
       </c>
       <c r="K41" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -5210,7 +5207,7 @@
         <v>9</v>
       </c>
       <c r="U41" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V41">
         <v>14</v>
@@ -5236,25 +5233,25 @@
         <v>42632</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="G42">
+        <v>4</v>
+      </c>
+      <c r="I42" t="s">
         <v>578</v>
-      </c>
-      <c r="G42">
-        <v>4</v>
-      </c>
-      <c r="I42" t="s">
-        <v>579</v>
       </c>
       <c r="J42" t="s">
         <v>8</v>
       </c>
       <c r="K42" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -5278,7 +5275,7 @@
         <v>9</v>
       </c>
       <c r="U42" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V42">
         <v>14</v>
@@ -5304,25 +5301,25 @@
         <v>42633</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="G43">
+        <v>4</v>
+      </c>
+      <c r="I43" t="s">
         <v>578</v>
-      </c>
-      <c r="G43">
-        <v>4</v>
-      </c>
-      <c r="I43" t="s">
-        <v>579</v>
       </c>
       <c r="J43" t="s">
         <v>8</v>
       </c>
       <c r="K43" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -5337,7 +5334,7 @@
         <v>9</v>
       </c>
       <c r="U43" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V43">
         <v>14</v>
@@ -5349,7 +5346,7 @@
         <v>86</v>
       </c>
       <c r="AC43" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="44" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
@@ -5366,25 +5363,25 @@
         <v>42634</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="G44">
+        <v>4</v>
+      </c>
+      <c r="I44" t="s">
         <v>578</v>
-      </c>
-      <c r="G44">
-        <v>4</v>
-      </c>
-      <c r="I44" t="s">
-        <v>579</v>
       </c>
       <c r="J44" t="s">
         <v>8</v>
       </c>
       <c r="K44" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -5399,7 +5396,7 @@
         <v>9</v>
       </c>
       <c r="U44" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V44">
         <v>14</v>
@@ -5425,25 +5422,25 @@
         <v>42636</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="G45">
+        <v>4</v>
+      </c>
+      <c r="I45" t="s">
         <v>578</v>
-      </c>
-      <c r="G45">
-        <v>4</v>
-      </c>
-      <c r="I45" t="s">
-        <v>579</v>
       </c>
       <c r="J45" t="s">
         <v>8</v>
       </c>
       <c r="K45" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -5458,7 +5455,7 @@
         <v>9</v>
       </c>
       <c r="U45" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V45">
         <v>14</v>
@@ -5484,25 +5481,25 @@
         <v>42637</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+      <c r="I46" t="s">
         <v>578</v>
-      </c>
-      <c r="G46">
-        <v>4</v>
-      </c>
-      <c r="I46" t="s">
-        <v>579</v>
       </c>
       <c r="J46" t="s">
         <v>8</v>
       </c>
       <c r="K46" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -5517,7 +5514,7 @@
         <v>9</v>
       </c>
       <c r="U46" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V46">
         <v>14</v>
@@ -5543,25 +5540,25 @@
         <v>42638</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="G47">
+        <v>4</v>
+      </c>
+      <c r="I47" t="s">
         <v>578</v>
-      </c>
-      <c r="G47">
-        <v>4</v>
-      </c>
-      <c r="I47" t="s">
-        <v>579</v>
       </c>
       <c r="J47" t="s">
         <v>8</v>
       </c>
       <c r="K47" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -5576,7 +5573,7 @@
         <v>9</v>
       </c>
       <c r="U47" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V47">
         <v>14</v>
@@ -5602,25 +5599,25 @@
         <v>42639</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="G48">
+        <v>4</v>
+      </c>
+      <c r="I48" t="s">
         <v>578</v>
-      </c>
-      <c r="G48">
-        <v>4</v>
-      </c>
-      <c r="I48" t="s">
-        <v>579</v>
       </c>
       <c r="J48" t="s">
         <v>8</v>
       </c>
       <c r="K48" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -5644,7 +5641,7 @@
         <v>9</v>
       </c>
       <c r="U48" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V48">
         <v>14</v>
@@ -5670,25 +5667,25 @@
         <v>42640</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="G49">
+        <v>4</v>
+      </c>
+      <c r="I49" t="s">
         <v>578</v>
-      </c>
-      <c r="G49">
-        <v>4</v>
-      </c>
-      <c r="I49" t="s">
-        <v>579</v>
       </c>
       <c r="J49" t="s">
         <v>8</v>
       </c>
       <c r="K49" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L49" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -5703,7 +5700,7 @@
         <v>9</v>
       </c>
       <c r="U49" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V49">
         <v>14</v>
@@ -5729,25 +5726,25 @@
         <v>42641</v>
       </c>
       <c r="E50" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="G50">
+        <v>4</v>
+      </c>
+      <c r="I50" t="s">
         <v>578</v>
-      </c>
-      <c r="G50">
-        <v>4</v>
-      </c>
-      <c r="I50" t="s">
-        <v>579</v>
       </c>
       <c r="J50" t="s">
         <v>8</v>
       </c>
       <c r="K50" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -5771,7 +5768,7 @@
         <v>9</v>
       </c>
       <c r="U50" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V50">
         <v>14</v>
@@ -5797,25 +5794,25 @@
         <v>42642</v>
       </c>
       <c r="E51" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="G51">
+        <v>4</v>
+      </c>
+      <c r="I51" t="s">
         <v>578</v>
-      </c>
-      <c r="G51">
-        <v>4</v>
-      </c>
-      <c r="I51" t="s">
-        <v>579</v>
       </c>
       <c r="J51" t="s">
         <v>8</v>
       </c>
       <c r="K51" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L51" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -5839,7 +5836,7 @@
         <v>9</v>
       </c>
       <c r="U51" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V51">
         <v>14</v>
@@ -5865,25 +5862,25 @@
         <v>42643</v>
       </c>
       <c r="E52" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="G52">
+        <v>4</v>
+      </c>
+      <c r="I52" t="s">
         <v>578</v>
-      </c>
-      <c r="G52">
-        <v>4</v>
-      </c>
-      <c r="I52" t="s">
-        <v>579</v>
       </c>
       <c r="J52" t="s">
         <v>8</v>
       </c>
       <c r="K52" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -5898,7 +5895,7 @@
         <v>9</v>
       </c>
       <c r="U52" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V52">
         <v>14</v>
@@ -5924,25 +5921,25 @@
         <v>42646</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="G53">
+        <v>4</v>
+      </c>
+      <c r="I53" t="s">
         <v>578</v>
-      </c>
-      <c r="G53">
-        <v>4</v>
-      </c>
-      <c r="I53" t="s">
-        <v>579</v>
       </c>
       <c r="J53" t="s">
         <v>8</v>
       </c>
       <c r="K53" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L53" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -5957,7 +5954,7 @@
         <v>9</v>
       </c>
       <c r="U53" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V53">
         <v>14</v>
@@ -5983,25 +5980,25 @@
         <v>42647</v>
       </c>
       <c r="E54" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="G54">
+        <v>4</v>
+      </c>
+      <c r="I54" t="s">
         <v>578</v>
-      </c>
-      <c r="G54">
-        <v>4</v>
-      </c>
-      <c r="I54" t="s">
-        <v>579</v>
       </c>
       <c r="J54" t="s">
         <v>8</v>
       </c>
       <c r="K54" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L54" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -6016,7 +6013,7 @@
         <v>9</v>
       </c>
       <c r="U54" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V54">
         <v>14</v>
@@ -6042,25 +6039,25 @@
         <v>42648</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="G55">
+        <v>4</v>
+      </c>
+      <c r="I55" t="s">
         <v>578</v>
-      </c>
-      <c r="G55">
-        <v>4</v>
-      </c>
-      <c r="I55" t="s">
-        <v>579</v>
       </c>
       <c r="J55" t="s">
         <v>8</v>
       </c>
       <c r="K55" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L55" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -6075,7 +6072,7 @@
         <v>9</v>
       </c>
       <c r="U55" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V55">
         <v>14</v>
@@ -6113,10 +6110,10 @@
         <v>88</v>
       </c>
       <c r="K56" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L56" s="10" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M56" s="7" t="s">
         <v>86</v>
@@ -6143,7 +6140,7 @@
         <v>9</v>
       </c>
       <c r="U56" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V56">
         <v>14</v>
@@ -6190,13 +6187,13 @@
         <v>88</v>
       </c>
       <c r="K57" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L57" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -6220,7 +6217,7 @@
         <v>9</v>
       </c>
       <c r="U57" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V57">
         <v>14</v>
@@ -6264,13 +6261,13 @@
         <v>88</v>
       </c>
       <c r="K58" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L58" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -6294,7 +6291,7 @@
         <v>9</v>
       </c>
       <c r="U58" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V58">
         <v>14</v>
@@ -6338,13 +6335,13 @@
         <v>88</v>
       </c>
       <c r="K59" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L59" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M59" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -6368,7 +6365,7 @@
         <v>9</v>
       </c>
       <c r="U59" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V59">
         <v>14</v>
@@ -6412,13 +6409,13 @@
         <v>88</v>
       </c>
       <c r="K60" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L60" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M60" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -6442,7 +6439,7 @@
         <v>9</v>
       </c>
       <c r="U60" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V60">
         <v>14</v>
@@ -6486,13 +6483,13 @@
         <v>88</v>
       </c>
       <c r="K61" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L61" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M61" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -6516,7 +6513,7 @@
         <v>9</v>
       </c>
       <c r="U61" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V61">
         <v>14</v>
@@ -6560,13 +6557,13 @@
         <v>88</v>
       </c>
       <c r="K62" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L62" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M62" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -6590,7 +6587,7 @@
         <v>9</v>
       </c>
       <c r="U62" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V62">
         <v>14</v>
@@ -6634,13 +6631,13 @@
         <v>88</v>
       </c>
       <c r="K63" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L63" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M63" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -6664,7 +6661,7 @@
         <v>9</v>
       </c>
       <c r="U63" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V63">
         <v>14</v>
@@ -6708,13 +6705,13 @@
         <v>88</v>
       </c>
       <c r="K64" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L64" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M64" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -6738,7 +6735,7 @@
         <v>9</v>
       </c>
       <c r="U64" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V64">
         <v>14</v>
@@ -6782,13 +6779,13 @@
         <v>88</v>
       </c>
       <c r="K65" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L65" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M65" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -6812,7 +6809,7 @@
         <v>9</v>
       </c>
       <c r="U65" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V65">
         <v>14</v>
@@ -6856,13 +6853,13 @@
         <v>88</v>
       </c>
       <c r="K66" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L66" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M66" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -6886,7 +6883,7 @@
         <v>9</v>
       </c>
       <c r="U66" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V66">
         <v>14</v>
@@ -6930,13 +6927,13 @@
         <v>88</v>
       </c>
       <c r="K67" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L67" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M67" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -6960,7 +6957,7 @@
         <v>9</v>
       </c>
       <c r="U67" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V67">
         <v>14</v>
@@ -7004,13 +7001,13 @@
         <v>88</v>
       </c>
       <c r="K68" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L68" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M68" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -7034,7 +7031,7 @@
         <v>9</v>
       </c>
       <c r="U68" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V68">
         <v>14</v>
@@ -7078,13 +7075,13 @@
         <v>88</v>
       </c>
       <c r="K69" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L69" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M69" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -7108,7 +7105,7 @@
         <v>9</v>
       </c>
       <c r="U69" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V69">
         <v>14</v>
@@ -7152,13 +7149,13 @@
         <v>88</v>
       </c>
       <c r="K70" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L70" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M70" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -7182,7 +7179,7 @@
         <v>9</v>
       </c>
       <c r="U70" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V70">
         <v>14</v>
@@ -7226,13 +7223,13 @@
         <v>88</v>
       </c>
       <c r="K71" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L71" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M71" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -7256,7 +7253,7 @@
         <v>9</v>
       </c>
       <c r="U71" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V71">
         <v>14</v>
@@ -7300,13 +7297,13 @@
         <v>88</v>
       </c>
       <c r="K72" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L72" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M72" s="9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -7330,7 +7327,7 @@
         <v>9</v>
       </c>
       <c r="U72" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V72">
         <v>14</v>
@@ -7374,13 +7371,13 @@
         <v>88</v>
       </c>
       <c r="K73" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L73" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M73" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -7404,7 +7401,7 @@
         <v>9</v>
       </c>
       <c r="U73" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V73">
         <v>14</v>
@@ -7448,13 +7445,13 @@
         <v>88</v>
       </c>
       <c r="K74" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L74" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M74" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -7478,7 +7475,7 @@
         <v>9</v>
       </c>
       <c r="U74" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V74">
         <v>14</v>
@@ -7522,13 +7519,13 @@
         <v>88</v>
       </c>
       <c r="K75" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L75" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -7552,7 +7549,7 @@
         <v>9</v>
       </c>
       <c r="U75" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V75">
         <v>14</v>
@@ -7596,13 +7593,13 @@
         <v>88</v>
       </c>
       <c r="K76" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L76" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="M76" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -7626,7 +7623,7 @@
         <v>9</v>
       </c>
       <c r="U76" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V76">
         <v>14</v>
@@ -7670,10 +7667,10 @@
         <v>88</v>
       </c>
       <c r="K77" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L77" s="10" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M77" s="7" t="s">
         <v>86</v>
@@ -7691,7 +7688,7 @@
         <v>125</v>
       </c>
       <c r="U77" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V77">
         <v>14</v>
@@ -7732,13 +7729,13 @@
         <v>88</v>
       </c>
       <c r="K78" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L78" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M78" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -7762,7 +7759,7 @@
         <v>9</v>
       </c>
       <c r="U78" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V78">
         <v>14</v>
@@ -7806,13 +7803,13 @@
         <v>88</v>
       </c>
       <c r="K79" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L79" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M79" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -7836,7 +7833,7 @@
         <v>9</v>
       </c>
       <c r="U79" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V79">
         <v>14</v>
@@ -7880,13 +7877,13 @@
         <v>88</v>
       </c>
       <c r="K80" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L80" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M80" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -7910,7 +7907,7 @@
         <v>9</v>
       </c>
       <c r="U80" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V80">
         <v>14</v>
@@ -7957,13 +7954,13 @@
         <v>88</v>
       </c>
       <c r="K81" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L81" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M81" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -7987,7 +7984,7 @@
         <v>9</v>
       </c>
       <c r="U81" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V81">
         <v>14</v>
@@ -8034,13 +8031,13 @@
         <v>88</v>
       </c>
       <c r="K82" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L82" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M82" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -8064,7 +8061,7 @@
         <v>9</v>
       </c>
       <c r="U82" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V82">
         <v>14</v>
@@ -8108,13 +8105,13 @@
         <v>88</v>
       </c>
       <c r="K83" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L83" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M83" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -8138,7 +8135,7 @@
         <v>9</v>
       </c>
       <c r="U83" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V83">
         <v>14</v>
@@ -8185,13 +8182,13 @@
         <v>88</v>
       </c>
       <c r="K84" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L84" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M84" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -8215,7 +8212,7 @@
         <v>9</v>
       </c>
       <c r="U84" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V84">
         <v>14</v>
@@ -8224,7 +8221,7 @@
         <v>2365</v>
       </c>
       <c r="Z84" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AA84" t="s">
         <v>142</v>
@@ -8259,13 +8256,13 @@
         <v>88</v>
       </c>
       <c r="K85" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L85" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M85" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -8289,7 +8286,7 @@
         <v>9</v>
       </c>
       <c r="U85" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V85">
         <v>14</v>
@@ -8333,13 +8330,13 @@
         <v>88</v>
       </c>
       <c r="K86" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L86" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M86" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -8363,7 +8360,7 @@
         <v>9</v>
       </c>
       <c r="U86" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V86">
         <v>14</v>
@@ -8407,13 +8404,13 @@
         <v>88</v>
       </c>
       <c r="K87" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L87" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M87" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -8437,7 +8434,7 @@
         <v>9</v>
       </c>
       <c r="U87" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V87">
         <v>14</v>
@@ -8481,13 +8478,13 @@
         <v>88</v>
       </c>
       <c r="K88" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L88" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M88" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -8511,7 +8508,7 @@
         <v>9</v>
       </c>
       <c r="U88" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V88">
         <v>14</v>
@@ -8555,13 +8552,13 @@
         <v>88</v>
       </c>
       <c r="K89" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L89" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M89" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -8585,7 +8582,7 @@
         <v>9</v>
       </c>
       <c r="U89" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V89">
         <v>14</v>
@@ -8632,13 +8629,13 @@
         <v>88</v>
       </c>
       <c r="K90" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L90" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M90" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -8662,7 +8659,7 @@
         <v>9</v>
       </c>
       <c r="U90" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V90">
         <v>14</v>
@@ -8706,13 +8703,13 @@
         <v>88</v>
       </c>
       <c r="K91" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L91" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M91" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -8736,7 +8733,7 @@
         <v>9</v>
       </c>
       <c r="U91" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="V91">
         <v>14</v>
@@ -8745,7 +8742,7 @@
         <v>2365</v>
       </c>
       <c r="Z91" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AA91" t="s">
         <v>162</v>
@@ -8785,10 +8782,10 @@
       </c>
       <c r="K92" s="1"/>
       <c r="L92" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M92" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -8812,7 +8809,7 @@
         <v>9</v>
       </c>
       <c r="U92" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V92">
         <v>5</v>
@@ -8858,10 +8855,10 @@
       </c>
       <c r="K93" s="1"/>
       <c r="L93" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M93" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -8885,7 +8882,7 @@
         <v>9</v>
       </c>
       <c r="U93" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V93">
         <v>5</v>
@@ -8934,10 +8931,10 @@
       </c>
       <c r="K94" s="1"/>
       <c r="L94" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M94" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -8961,7 +8958,7 @@
         <v>9</v>
       </c>
       <c r="U94" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V94">
         <v>5</v>
@@ -8984,7 +8981,7 @@
     </row>
     <row r="95" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B95" s="4">
         <v>2289</v>
@@ -9010,10 +9007,10 @@
       </c>
       <c r="K95" s="1"/>
       <c r="L95" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M95" s="9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -9037,7 +9034,7 @@
         <v>9</v>
       </c>
       <c r="U95" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V95">
         <v>5</v>
@@ -9054,7 +9051,7 @@
     </row>
     <row r="96" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B96" s="4">
         <v>2289</v>
@@ -9080,10 +9077,10 @@
       </c>
       <c r="K96" s="1"/>
       <c r="L96" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M96" s="9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -9107,7 +9104,7 @@
         <v>9</v>
       </c>
       <c r="U96" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V96">
         <v>4</v>
@@ -9119,15 +9116,15 @@
         <v>86</v>
       </c>
       <c r="AA96" t="s">
+        <v>256</v>
+      </c>
+      <c r="AB96" t="s">
         <v>257</v>
-      </c>
-      <c r="AB96" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="97" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B97" s="4">
         <v>2289</v>
@@ -9153,10 +9150,10 @@
       </c>
       <c r="K97" s="1"/>
       <c r="L97" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M97" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -9180,7 +9177,7 @@
         <v>9</v>
       </c>
       <c r="U97" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V97">
         <v>4</v>
@@ -9192,15 +9189,15 @@
         <v>86</v>
       </c>
       <c r="AA97" t="s">
+        <v>256</v>
+      </c>
+      <c r="AB97" t="s">
         <v>257</v>
-      </c>
-      <c r="AB97" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="98" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B98" s="4">
         <v>2289</v>
@@ -9226,10 +9223,10 @@
       </c>
       <c r="K98" s="1"/>
       <c r="L98" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M98" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -9253,7 +9250,7 @@
         <v>9</v>
       </c>
       <c r="U98" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V98">
         <v>4</v>
@@ -9265,15 +9262,15 @@
         <v>86</v>
       </c>
       <c r="AA98" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AB98" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="99" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B99" s="4">
         <v>2289</v>
@@ -9299,10 +9296,10 @@
       </c>
       <c r="K99" s="1"/>
       <c r="L99" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M99" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -9326,7 +9323,7 @@
         <v>9</v>
       </c>
       <c r="U99" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V99">
         <v>5</v>
@@ -9338,15 +9335,15 @@
         <v>86</v>
       </c>
       <c r="AA99" t="s">
+        <v>272</v>
+      </c>
+      <c r="AB99" t="s">
         <v>273</v>
-      </c>
-      <c r="AB99" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="100" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B100" s="4">
         <v>2289</v>
@@ -9372,10 +9369,10 @@
       </c>
       <c r="K100" s="1"/>
       <c r="L100" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M100" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -9399,7 +9396,7 @@
         <v>9</v>
       </c>
       <c r="U100" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V100">
         <v>4</v>
@@ -9411,12 +9408,12 @@
         <v>86</v>
       </c>
       <c r="AA100" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="101" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B101" s="4">
         <v>2289</v>
@@ -9442,10 +9439,10 @@
       </c>
       <c r="K101" s="1"/>
       <c r="L101" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M101" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="N101">
         <v>1</v>
@@ -9469,7 +9466,7 @@
         <v>9</v>
       </c>
       <c r="U101" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V101">
         <v>4</v>
@@ -9481,12 +9478,12 @@
         <v>86</v>
       </c>
       <c r="AA101" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="102" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B102" s="4">
         <v>2289</v>
@@ -9512,10 +9509,10 @@
       </c>
       <c r="K102" s="1"/>
       <c r="L102" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M102" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -9539,7 +9536,7 @@
         <v>9</v>
       </c>
       <c r="U102" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V102">
         <v>4</v>
@@ -9551,15 +9548,15 @@
         <v>86</v>
       </c>
       <c r="AA102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AB102" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="103" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B103" s="4">
         <v>2289</v>
@@ -9585,10 +9582,10 @@
       </c>
       <c r="K103" s="1"/>
       <c r="L103" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M103" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="N103">
         <v>1</v>
@@ -9612,7 +9609,7 @@
         <v>9</v>
       </c>
       <c r="U103" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V103">
         <v>4</v>
@@ -9624,15 +9621,15 @@
         <v>86</v>
       </c>
       <c r="AA103" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AB103" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="104" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B104" s="4">
         <v>2289</v>
@@ -9658,10 +9655,10 @@
       </c>
       <c r="K104" s="1"/>
       <c r="L104" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M104" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -9685,7 +9682,7 @@
         <v>9</v>
       </c>
       <c r="U104" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V104">
         <v>4</v>
@@ -9697,18 +9694,18 @@
         <v>86</v>
       </c>
       <c r="AA104" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AB104" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AC104" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="105" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B105" s="4">
         <v>2289</v>
@@ -9734,7 +9731,7 @@
       </c>
       <c r="K105" s="1"/>
       <c r="L105" s="10" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M105" s="7" t="s">
         <v>86</v>
@@ -9758,24 +9755,24 @@
         <v>0</v>
       </c>
       <c r="T105" t="s">
+        <v>326</v>
+      </c>
+      <c r="U105" t="s">
+        <v>501</v>
+      </c>
+      <c r="V105">
+        <v>9</v>
+      </c>
+      <c r="Z105" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC105" t="s">
         <v>327</v>
-      </c>
-      <c r="U105" t="s">
-        <v>502</v>
-      </c>
-      <c r="V105">
-        <v>9</v>
-      </c>
-      <c r="Z105" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC105" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="106" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B106" s="4">
         <v>2289</v>
@@ -9801,10 +9798,10 @@
       </c>
       <c r="K106" s="1"/>
       <c r="L106" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M106" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -9828,7 +9825,7 @@
         <v>9</v>
       </c>
       <c r="U106" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V106">
         <v>5</v>
@@ -9840,12 +9837,12 @@
         <v>86</v>
       </c>
       <c r="AA106" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="107" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B107" s="4">
         <v>2289</v>
@@ -9871,10 +9868,10 @@
       </c>
       <c r="K107" s="1"/>
       <c r="L107" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M107" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N107">
         <v>1</v>
@@ -9898,7 +9895,7 @@
         <v>9</v>
       </c>
       <c r="U107" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V107">
         <v>9</v>
@@ -9910,18 +9907,18 @@
         <v>86</v>
       </c>
       <c r="AA107" t="s">
+        <v>349</v>
+      </c>
+      <c r="AB107" t="s">
         <v>350</v>
       </c>
-      <c r="AB107" t="s">
-        <v>351</v>
-      </c>
       <c r="AC107" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="108" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B108" s="4">
         <v>2289</v>
@@ -9947,10 +9944,10 @@
       </c>
       <c r="K108" s="1"/>
       <c r="L108" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M108" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -9974,7 +9971,7 @@
         <v>9</v>
       </c>
       <c r="U108" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V108">
         <v>9</v>
@@ -9986,15 +9983,15 @@
         <v>86</v>
       </c>
       <c r="AA108" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AB108" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="109" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B109" s="4">
         <v>9861</v>
@@ -10019,13 +10016,13 @@
         <v>8</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L109" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M109" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="N109">
         <v>1</v>
@@ -10049,7 +10046,7 @@
         <v>9</v>
       </c>
       <c r="U109" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V109">
         <v>5</v>
@@ -10061,15 +10058,15 @@
         <v>86</v>
       </c>
       <c r="AA109" t="s">
+        <v>246</v>
+      </c>
+      <c r="AB109" t="s">
         <v>247</v>
       </c>
-      <c r="AB109" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="110" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B110" s="4">
         <v>9861</v>
@@ -10081,7 +10078,7 @@
         <v>43241</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>244</v>
+        <v>86</v>
       </c>
       <c r="F110" s="1"/>
       <c r="G110">
@@ -10094,13 +10091,13 @@
         <v>8</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L110" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M110" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="N110">
         <v>1</v>
@@ -10124,7 +10121,7 @@
         <v>9</v>
       </c>
       <c r="U110" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V110">
         <v>5</v>
@@ -10136,15 +10133,15 @@
         <v>86</v>
       </c>
       <c r="AA110" t="s">
+        <v>246</v>
+      </c>
+      <c r="AB110" t="s">
         <v>247</v>
       </c>
-      <c r="AB110" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="111" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B111" s="4">
         <v>9861</v>
@@ -10156,7 +10153,7 @@
         <v>43242</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>244</v>
+        <v>86</v>
       </c>
       <c r="F111" s="1"/>
       <c r="G111">
@@ -10169,13 +10166,13 @@
         <v>8</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L111" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M111" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N111">
         <v>1</v>
@@ -10199,7 +10196,7 @@
         <v>9</v>
       </c>
       <c r="U111" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V111">
         <v>5</v>
@@ -10211,15 +10208,15 @@
         <v>86</v>
       </c>
       <c r="AA111" t="s">
+        <v>251</v>
+      </c>
+      <c r="AB111" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="AB111" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="112" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="B112" s="4">
         <v>9861</v>
@@ -10244,13 +10241,13 @@
         <v>8</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L112" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M112" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N112">
         <v>1</v>
@@ -10274,7 +10271,7 @@
         <v>9</v>
       </c>
       <c r="U112" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V112">
         <v>5</v>
@@ -10286,15 +10283,15 @@
         <v>86</v>
       </c>
       <c r="AA112" t="s">
+        <v>253</v>
+      </c>
+      <c r="AB112" t="s">
         <v>254</v>
       </c>
-      <c r="AB112" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="113" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B113" s="4">
         <v>9861</v>
@@ -10319,13 +10316,13 @@
         <v>8</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L113" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M113" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="N113">
         <v>1</v>
@@ -10349,7 +10346,7 @@
         <v>9</v>
       </c>
       <c r="U113" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V113">
         <v>5</v>
@@ -10361,15 +10358,15 @@
         <v>86</v>
       </c>
       <c r="AA113" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AB113" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="114" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="114" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B114" s="4">
         <v>9861</v>
@@ -10394,13 +10391,13 @@
         <v>8</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L114" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M114" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="N114">
         <v>1</v>
@@ -10424,7 +10421,7 @@
         <v>9</v>
       </c>
       <c r="U114" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V114">
         <v>5</v>
@@ -10436,15 +10433,15 @@
         <v>86</v>
       </c>
       <c r="AA114" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AB114" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="115" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="115" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B115" s="4">
         <v>9861</v>
@@ -10469,13 +10466,13 @@
         <v>8</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L115" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M115" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="N115">
         <v>1</v>
@@ -10499,7 +10496,7 @@
         <v>9</v>
       </c>
       <c r="U115" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V115">
         <v>5</v>
@@ -10511,15 +10508,15 @@
         <v>86</v>
       </c>
       <c r="AA115" t="s">
+        <v>266</v>
+      </c>
+      <c r="AB115" t="s">
         <v>267</v>
       </c>
-      <c r="AB115" t="s">
+    </row>
+    <row r="116" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
         <v>268</v>
-      </c>
-    </row>
-    <row r="116" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="B116" s="4">
         <v>9861</v>
@@ -10544,13 +10541,13 @@
         <v>8</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L116" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M116" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="N116">
         <v>1</v>
@@ -10574,7 +10571,7 @@
         <v>9</v>
       </c>
       <c r="U116" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V116">
         <v>5</v>
@@ -10586,15 +10583,15 @@
         <v>86</v>
       </c>
       <c r="AA116" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AB116" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="117" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="117" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B117" s="4">
         <v>9861</v>
@@ -10619,13 +10616,13 @@
         <v>8</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L117" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M117" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N117">
         <v>1</v>
@@ -10649,7 +10646,7 @@
         <v>9</v>
       </c>
       <c r="U117" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V117">
         <v>5</v>
@@ -10661,12 +10658,12 @@
         <v>86</v>
       </c>
       <c r="AA117" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="118" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B118" s="4">
         <v>9861</v>
@@ -10691,13 +10688,13 @@
         <v>8</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L118" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M118" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N118">
         <v>1</v>
@@ -10721,7 +10718,7 @@
         <v>9</v>
       </c>
       <c r="U118" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V118">
         <v>5</v>
@@ -10733,12 +10730,12 @@
         <v>86</v>
       </c>
       <c r="AA118" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="119" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B119" s="4">
         <v>9861</v>
@@ -10763,13 +10760,13 @@
         <v>8</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L119" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M119" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N119">
         <v>1</v>
@@ -10793,7 +10790,7 @@
         <v>9</v>
       </c>
       <c r="U119" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V119">
         <v>5</v>
@@ -10805,12 +10802,12 @@
         <v>86</v>
       </c>
       <c r="AA119" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="120" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="120" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B120" s="4">
         <v>9861</v>
@@ -10835,13 +10832,13 @@
         <v>8</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L120" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M120" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N120">
         <v>1</v>
@@ -10865,7 +10862,7 @@
         <v>9</v>
       </c>
       <c r="U120" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V120">
         <v>5</v>
@@ -10877,15 +10874,15 @@
         <v>86</v>
       </c>
       <c r="AA120" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AB120" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="121" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="121" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B121" s="4">
         <v>9861</v>
@@ -10910,13 +10907,13 @@
         <v>8</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L121" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M121" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N121">
         <v>1</v>
@@ -10940,7 +10937,7 @@
         <v>9</v>
       </c>
       <c r="U121" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V121">
         <v>5</v>
@@ -10952,15 +10949,15 @@
         <v>86</v>
       </c>
       <c r="AA121" t="s">
+        <v>288</v>
+      </c>
+      <c r="AB121" t="s">
         <v>289</v>
       </c>
-      <c r="AB121" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="122" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B122" s="4">
         <v>9861</v>
@@ -10985,13 +10982,13 @@
         <v>8</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L122" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M122" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="N122">
         <v>1</v>
@@ -11015,7 +11012,7 @@
         <v>9</v>
       </c>
       <c r="U122" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V122">
         <v>5</v>
@@ -11027,18 +11024,18 @@
         <v>86</v>
       </c>
       <c r="AA122" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AB122" t="s">
+        <v>292</v>
+      </c>
+      <c r="AC122" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="123" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="AC122" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="123" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="B123" s="4">
         <v>9861</v>
@@ -11063,13 +11060,13 @@
         <v>8</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L123" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M123" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="N123">
         <v>1</v>
@@ -11093,7 +11090,7 @@
         <v>9</v>
       </c>
       <c r="U123" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V123">
         <v>5</v>
@@ -11105,18 +11102,18 @@
         <v>86</v>
       </c>
       <c r="AA123" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB123" t="s">
+        <v>292</v>
+      </c>
+      <c r="AC123" t="s">
         <v>295</v>
       </c>
-      <c r="AB123" t="s">
-        <v>293</v>
-      </c>
-      <c r="AC123" t="s">
+    </row>
+    <row r="124" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
         <v>296</v>
-      </c>
-    </row>
-    <row r="124" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="B124" s="4">
         <v>9861</v>
@@ -11141,13 +11138,13 @@
         <v>8</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L124" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M124" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N124">
         <v>1</v>
@@ -11171,7 +11168,7 @@
         <v>9</v>
       </c>
       <c r="U124" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V124">
         <v>5</v>
@@ -11183,18 +11180,18 @@
         <v>86</v>
       </c>
       <c r="AA124" t="s">
+        <v>297</v>
+      </c>
+      <c r="AB124" t="s">
         <v>298</v>
       </c>
-      <c r="AB124" t="s">
+      <c r="AC124" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="125" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="AC124" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="125" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="B125" s="4">
         <v>9861</v>
@@ -11213,19 +11210,19 @@
         <v>4</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L125" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M125" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="N125">
         <v>1</v>
@@ -11249,7 +11246,7 @@
         <v>9</v>
       </c>
       <c r="U125" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V125">
         <v>5</v>
@@ -11261,18 +11258,18 @@
         <v>86</v>
       </c>
       <c r="AA125" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB125" t="s">
         <v>301</v>
       </c>
-      <c r="AB125" t="s">
+      <c r="AC125" t="s">
         <v>302</v>
       </c>
-      <c r="AC125" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="126" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B126" s="4">
         <v>9861</v>
@@ -11291,19 +11288,19 @@
         <v>4</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L126" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M126" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="N126">
         <v>1</v>
@@ -11327,7 +11324,7 @@
         <v>9</v>
       </c>
       <c r="U126" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V126">
         <v>5</v>
@@ -11339,18 +11336,18 @@
         <v>86</v>
       </c>
       <c r="AA126" t="s">
+        <v>305</v>
+      </c>
+      <c r="AB126" t="s">
         <v>306</v>
       </c>
-      <c r="AB126" t="s">
+      <c r="AC126" t="s">
         <v>307</v>
       </c>
-      <c r="AC126" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="127" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B127" s="4">
         <v>9861</v>
@@ -11369,19 +11366,19 @@
         <v>4</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L127" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M127" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="N127">
         <v>1</v>
@@ -11405,7 +11402,7 @@
         <v>9</v>
       </c>
       <c r="U127" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V127">
         <v>5</v>
@@ -11417,15 +11414,15 @@
         <v>86</v>
       </c>
       <c r="AA127" t="s">
+        <v>311</v>
+      </c>
+      <c r="AB127" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="128" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="AB127" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="128" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="B128" s="4">
         <v>9861</v>
@@ -11444,19 +11441,19 @@
         <v>4</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L128" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M128" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="N128">
         <v>1</v>
@@ -11480,7 +11477,7 @@
         <v>9</v>
       </c>
       <c r="U128" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V128">
         <v>5</v>
@@ -11492,15 +11489,15 @@
         <v>86</v>
       </c>
       <c r="AA128" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AB128" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="129" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
         <v>315</v>
-      </c>
-    </row>
-    <row r="129" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="B129" s="4">
         <v>9861</v>
@@ -11519,19 +11516,19 @@
         <v>4</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L129" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M129" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N129">
         <v>1</v>
@@ -11555,7 +11552,7 @@
         <v>9</v>
       </c>
       <c r="U129" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V129">
         <v>5</v>
@@ -11567,15 +11564,15 @@
         <v>86</v>
       </c>
       <c r="AA129" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AB129" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
         <v>318</v>
-      </c>
-    </row>
-    <row r="130" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="B130" s="4">
         <v>9861</v>
@@ -11594,19 +11591,19 @@
         <v>4</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L130" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M130" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="N130">
         <v>1</v>
@@ -11630,7 +11627,7 @@
         <v>9</v>
       </c>
       <c r="U130" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V130">
         <v>5</v>
@@ -11642,15 +11639,15 @@
         <v>86</v>
       </c>
       <c r="AA130" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AB130" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
         <v>322</v>
-      </c>
-    </row>
-    <row r="131" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="B131" s="4">
         <v>9861</v>
@@ -11669,19 +11666,19 @@
         <v>4</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L131" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M131" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="N131">
         <v>1</v>
@@ -11705,7 +11702,7 @@
         <v>9</v>
       </c>
       <c r="U131" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V131">
         <v>4</v>
@@ -11717,18 +11714,18 @@
         <v>86</v>
       </c>
       <c r="AA131" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AB131" t="s">
+        <v>323</v>
+      </c>
+      <c r="AC131" t="s">
         <v>324</v>
       </c>
-      <c r="AC131" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="132" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B132" s="4">
         <v>9861</v>
@@ -11747,19 +11744,19 @@
         <v>4</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L132" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M132" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N132">
         <v>1</v>
@@ -11783,7 +11780,7 @@
         <v>9</v>
       </c>
       <c r="U132" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V132">
         <v>9</v>
@@ -11792,21 +11789,21 @@
         <v>2358</v>
       </c>
       <c r="Z132" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AA132" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AB132" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AC132" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="133" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
         <v>330</v>
-      </c>
-    </row>
-    <row r="133" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="B133" s="4">
         <v>9861</v>
@@ -11825,20 +11822,20 @@
         <v>4</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L133" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="M133" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="M133" s="9" t="s">
-        <v>506</v>
-      </c>
       <c r="N133">
         <v>1</v>
       </c>
@@ -11861,7 +11858,7 @@
         <v>9</v>
       </c>
       <c r="U133" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V133">
         <v>9</v>
@@ -11873,18 +11870,18 @@
         <v>86</v>
       </c>
       <c r="AA133" t="s">
+        <v>331</v>
+      </c>
+      <c r="AB133" t="s">
         <v>332</v>
       </c>
-      <c r="AB133" t="s">
-        <v>333</v>
-      </c>
       <c r="AC133" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
         <v>336</v>
-      </c>
-    </row>
-    <row r="134" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="B134" s="4">
         <v>9861</v>
@@ -11903,19 +11900,19 @@
         <v>4</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L134" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M134" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="N134">
         <v>1</v>
@@ -11939,7 +11936,7 @@
         <v>9</v>
       </c>
       <c r="U134" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V134">
         <v>9</v>
@@ -11951,15 +11948,15 @@
         <v>86</v>
       </c>
       <c r="AA134" t="s">
+        <v>338</v>
+      </c>
+      <c r="AB134" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="AB134" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="135" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="B135" s="4">
         <v>9861</v>
@@ -11978,19 +11975,19 @@
         <v>4</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L135" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M135" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="N135">
         <v>1</v>
@@ -12014,7 +12011,7 @@
         <v>9</v>
       </c>
       <c r="U135" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V135">
         <v>9</v>
@@ -12026,15 +12023,15 @@
         <v>86</v>
       </c>
       <c r="AA135" t="s">
+        <v>340</v>
+      </c>
+      <c r="AB135" t="s">
         <v>341</v>
       </c>
-      <c r="AB135" t="s">
+    </row>
+    <row r="136" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
         <v>342</v>
-      </c>
-    </row>
-    <row r="136" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="B136" s="4">
         <v>9861</v>
@@ -12053,19 +12050,19 @@
         <v>4</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L136" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M136" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N136">
         <v>1</v>
@@ -12089,7 +12086,7 @@
         <v>9</v>
       </c>
       <c r="U136" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V136">
         <v>9</v>
@@ -12101,18 +12098,18 @@
         <v>86</v>
       </c>
       <c r="AA136" t="s">
+        <v>344</v>
+      </c>
+      <c r="AB136" t="s">
+        <v>343</v>
+      </c>
+      <c r="AC136" t="s">
         <v>345</v>
       </c>
-      <c r="AB136" t="s">
-        <v>344</v>
-      </c>
-      <c r="AC136" t="s">
+    </row>
+    <row r="137" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
         <v>346</v>
-      </c>
-    </row>
-    <row r="137" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="B137" s="4">
         <v>9861</v>
@@ -12131,19 +12128,19 @@
         <v>4</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L137" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M137" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N137">
         <v>1</v>
@@ -12167,7 +12164,7 @@
         <v>9</v>
       </c>
       <c r="U137" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V137">
         <v>9</v>
@@ -12179,15 +12176,15 @@
         <v>86</v>
       </c>
       <c r="AA137" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AB137" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="138" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B138" s="4">
         <v>9861</v>
@@ -12206,19 +12203,19 @@
         <v>4</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L138" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M138" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="N138">
         <v>1</v>
@@ -12242,7 +12239,7 @@
         <v>9</v>
       </c>
       <c r="U138" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V138">
         <v>9</v>
@@ -12254,18 +12251,18 @@
         <v>86</v>
       </c>
       <c r="AA138" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AB138" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AC138" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="139" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="139" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B139" s="4">
         <v>9861</v>
@@ -12284,19 +12281,19 @@
         <v>4</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L139" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M139" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="N139">
         <v>1</v>
@@ -12320,7 +12317,7 @@
         <v>9</v>
       </c>
       <c r="U139" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V139">
         <v>9</v>
@@ -12332,15 +12329,15 @@
         <v>86</v>
       </c>
       <c r="AA139" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AB139" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="140" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="140" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B140" s="4">
         <v>9861</v>
@@ -12359,19 +12356,19 @@
         <v>4</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L140" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M140" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N140">
         <v>1</v>
@@ -12395,7 +12392,7 @@
         <v>9</v>
       </c>
       <c r="U140" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V140">
         <v>9</v>
@@ -12407,15 +12404,15 @@
         <v>86</v>
       </c>
       <c r="AA140" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AB140" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="141" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="141" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B141" s="4">
         <v>9861</v>
@@ -12434,19 +12431,19 @@
         <v>4</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L141" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M141" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="N141">
         <v>1</v>
@@ -12470,7 +12467,7 @@
         <v>9</v>
       </c>
       <c r="U141" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V141">
         <v>9</v>
@@ -12482,15 +12479,15 @@
         <v>86</v>
       </c>
       <c r="AA141" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AB141" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="142" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="142" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B142" s="4">
         <v>9861</v>
@@ -12509,19 +12506,19 @@
         <v>4</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L142" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M142" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N142">
         <v>1</v>
@@ -12545,7 +12542,7 @@
         <v>9</v>
       </c>
       <c r="U142" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V142">
         <v>9</v>
@@ -12557,15 +12554,15 @@
         <v>86</v>
       </c>
       <c r="AA142" t="s">
+        <v>360</v>
+      </c>
+      <c r="AB142" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="143" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="AB142" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="143" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
-        <v>362</v>
       </c>
       <c r="B143" s="4">
         <v>9861</v>
@@ -12584,19 +12581,19 @@
         <v>4</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L143" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M143" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="N143">
         <v>1</v>
@@ -12620,7 +12617,7 @@
         <v>9</v>
       </c>
       <c r="U143" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V143">
         <v>9</v>
@@ -12632,15 +12629,15 @@
         <v>86</v>
       </c>
       <c r="AA143" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AB143" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="144" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
         <v>363</v>
-      </c>
-    </row>
-    <row r="144" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="1" t="s">
-        <v>364</v>
       </c>
       <c r="B144" s="4">
         <v>9861</v>
@@ -12659,19 +12656,19 @@
         <v>4</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L144" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M144" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="N144">
         <v>1</v>
@@ -12695,7 +12692,7 @@
         <v>9</v>
       </c>
       <c r="U144" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V144">
         <v>9</v>
@@ -12707,15 +12704,15 @@
         <v>86</v>
       </c>
       <c r="AA144" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AB144" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="145" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
         <v>365</v>
-      </c>
-    </row>
-    <row r="145" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="B145" s="4">
         <v>9861</v>
@@ -12734,19 +12731,19 @@
         <v>4</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L145" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M145" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N145">
         <v>1</v>
@@ -12770,7 +12767,7 @@
         <v>9</v>
       </c>
       <c r="U145" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V145">
         <v>9</v>
@@ -12782,15 +12779,15 @@
         <v>86</v>
       </c>
       <c r="AA145" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AB145" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="146" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
         <v>367</v>
-      </c>
-    </row>
-    <row r="146" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="B146" s="4">
         <v>9861</v>
@@ -12809,19 +12806,19 @@
         <v>4</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L146" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M146" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N146">
         <v>1</v>
@@ -12845,7 +12842,7 @@
         <v>9</v>
       </c>
       <c r="U146" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V146">
         <v>9</v>
@@ -12857,15 +12854,15 @@
         <v>86</v>
       </c>
       <c r="AA146" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB146" t="s">
         <v>369</v>
       </c>
-      <c r="AB146" t="s">
+    </row>
+    <row r="147" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
         <v>370</v>
-      </c>
-    </row>
-    <row r="147" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="B147" s="4">
         <v>9861</v>
@@ -12884,19 +12881,19 @@
         <v>4</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L147" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M147" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N147">
         <v>1</v>
@@ -12920,7 +12917,7 @@
         <v>9</v>
       </c>
       <c r="U147" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V147">
         <v>9</v>
@@ -12929,21 +12926,21 @@
         <v>2358</v>
       </c>
       <c r="Z147" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AA147" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AB147" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AC147" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="148" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
         <v>372</v>
-      </c>
-    </row>
-    <row r="148" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="B148" s="4">
         <v>9861</v>
@@ -12962,19 +12959,19 @@
         <v>4</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L148" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M148" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N148">
         <v>1</v>
@@ -12998,7 +12995,7 @@
         <v>9</v>
       </c>
       <c r="U148" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V148">
         <v>9</v>
@@ -13010,15 +13007,15 @@
         <v>86</v>
       </c>
       <c r="AA148" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AB148" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="149" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="149" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B149" s="4">
         <v>9861</v>
@@ -13037,19 +13034,19 @@
         <v>4</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L149" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M149" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N149">
         <v>1</v>
@@ -13073,7 +13070,7 @@
         <v>9</v>
       </c>
       <c r="U149" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V149">
         <v>9</v>
@@ -13085,15 +13082,15 @@
         <v>86</v>
       </c>
       <c r="AA149" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AB149" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="150" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
         <v>375</v>
-      </c>
-    </row>
-    <row r="150" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="1" t="s">
-        <v>376</v>
       </c>
       <c r="B150" s="4">
         <v>9861</v>
@@ -13112,19 +13109,19 @@
         <v>4</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L150" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M150" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N150">
         <v>1</v>
@@ -13148,7 +13145,7 @@
         <v>9</v>
       </c>
       <c r="U150" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V150">
         <v>9</v>
@@ -13160,15 +13157,15 @@
         <v>86</v>
       </c>
       <c r="AA150" t="s">
+        <v>376</v>
+      </c>
+      <c r="AB150" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="151" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="AB150" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="151" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="B151" s="4">
         <v>9861</v>
@@ -13187,19 +13184,19 @@
         <v>4</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L151" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M151" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="N151">
         <v>1</v>
@@ -13223,7 +13220,7 @@
         <v>9</v>
       </c>
       <c r="U151" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V151">
         <v>9</v>
@@ -13235,18 +13232,18 @@
         <v>86</v>
       </c>
       <c r="AA151" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AB151" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC151" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="152" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="AC151" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="152" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="B152" s="4">
         <v>9861</v>
@@ -13265,19 +13262,19 @@
         <v>4</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L152" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M152" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="N152">
         <v>1</v>
@@ -13301,7 +13298,7 @@
         <v>9</v>
       </c>
       <c r="U152" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V152">
         <v>9</v>
@@ -13313,15 +13310,15 @@
         <v>86</v>
       </c>
       <c r="AA152" t="s">
+        <v>381</v>
+      </c>
+      <c r="AB152" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="153" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="AB152" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="153" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="B153" s="4">
         <v>9861</v>
@@ -13340,19 +13337,19 @@
         <v>4</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L153" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M153" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="N153">
         <v>1</v>
@@ -13376,7 +13373,7 @@
         <v>9</v>
       </c>
       <c r="U153" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V153">
         <v>9</v>
@@ -13388,15 +13385,15 @@
         <v>86</v>
       </c>
       <c r="AA153" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AB153" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="154" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="154" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B154" s="4">
         <v>9861</v>
@@ -13415,19 +13412,19 @@
         <v>4</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L154" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M154" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N154">
         <v>1</v>
@@ -13451,7 +13448,7 @@
         <v>9</v>
       </c>
       <c r="U154" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V154">
         <v>9</v>
@@ -13463,18 +13460,18 @@
         <v>86</v>
       </c>
       <c r="AA154" t="s">
+        <v>384</v>
+      </c>
+      <c r="AB154" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC154" t="s">
         <v>385</v>
       </c>
-      <c r="AB154" t="s">
-        <v>380</v>
-      </c>
-      <c r="AC154" t="s">
+    </row>
+    <row r="155" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
         <v>386</v>
-      </c>
-    </row>
-    <row r="155" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="B155" s="4">
         <v>9861</v>
@@ -13493,19 +13490,19 @@
         <v>4</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L155" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M155" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="N155">
         <v>1</v>
@@ -13529,7 +13526,7 @@
         <v>9</v>
       </c>
       <c r="U155" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V155">
         <v>9</v>
@@ -13541,15 +13538,15 @@
         <v>86</v>
       </c>
       <c r="AA155" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AB155" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="156" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="156" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B156" s="4">
         <v>9861</v>
@@ -13568,19 +13565,19 @@
         <v>4</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L156" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M156" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="N156">
         <v>1</v>
@@ -13604,7 +13601,7 @@
         <v>9</v>
       </c>
       <c r="U156" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V156">
         <v>9</v>
@@ -13616,15 +13613,15 @@
         <v>86</v>
       </c>
       <c r="AA156" t="s">
+        <v>388</v>
+      </c>
+      <c r="AB156" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="157" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="AB156" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="157" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="B157" s="4">
         <v>9861</v>
@@ -13643,19 +13640,19 @@
         <v>4</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L157" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M157" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N157">
         <v>1</v>
@@ -13679,7 +13676,7 @@
         <v>9</v>
       </c>
       <c r="U157" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V157">
         <v>9</v>
@@ -13691,15 +13688,15 @@
         <v>86</v>
       </c>
       <c r="AA157" t="s">
+        <v>390</v>
+      </c>
+      <c r="AB157" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="158" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="AB157" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="158" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="1" t="s">
-        <v>392</v>
       </c>
       <c r="B158" s="4">
         <v>9861</v>
@@ -13718,19 +13715,19 @@
         <v>4</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L158" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M158" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="N158">
         <v>1</v>
@@ -13754,7 +13751,7 @@
         <v>9</v>
       </c>
       <c r="U158" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V158">
         <v>9</v>
@@ -13766,13 +13763,13 @@
         <v>86</v>
       </c>
       <c r="AA158" t="s">
+        <v>392</v>
+      </c>
+      <c r="AB158" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC158" t="s">
         <v>393</v>
-      </c>
-      <c r="AB158" t="s">
-        <v>380</v>
-      </c>
-      <c r="AC158" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="159" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
@@ -13803,10 +13800,10 @@
       </c>
       <c r="K159" s="1"/>
       <c r="L159" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M159" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="N159">
         <v>1</v>
@@ -13830,7 +13827,7 @@
         <v>9</v>
       </c>
       <c r="U159" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V159">
         <v>5</v>
@@ -13876,10 +13873,10 @@
       </c>
       <c r="K160" s="1"/>
       <c r="L160" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M160" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="N160">
         <v>1</v>
@@ -13903,7 +13900,7 @@
         <v>9</v>
       </c>
       <c r="U160" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V160">
         <v>5</v>
@@ -13952,10 +13949,10 @@
       </c>
       <c r="K161" s="1"/>
       <c r="L161" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M161" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="N161">
         <v>1</v>
@@ -13979,7 +13976,7 @@
         <v>9</v>
       </c>
       <c r="U161" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V161">
         <v>5</v>
@@ -14028,10 +14025,10 @@
       </c>
       <c r="K162" s="1"/>
       <c r="L162" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M162" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="N162">
         <v>1</v>
@@ -14055,7 +14052,7 @@
         <v>9</v>
       </c>
       <c r="U162" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V162">
         <v>5</v>
@@ -14104,10 +14101,10 @@
       </c>
       <c r="K163" s="1"/>
       <c r="L163" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M163" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="N163">
         <v>1</v>
@@ -14131,7 +14128,7 @@
         <v>9</v>
       </c>
       <c r="U163" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V163">
         <v>5</v>
@@ -14180,10 +14177,10 @@
       </c>
       <c r="K164" s="1"/>
       <c r="L164" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M164" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="N164">
         <v>1</v>
@@ -14207,7 +14204,7 @@
         <v>9</v>
       </c>
       <c r="U164" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V164">
         <v>5</v>
@@ -14254,7 +14251,7 @@
         <v>8</v>
       </c>
       <c r="L165" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M165" s="7" t="s">
         <v>86</v>
@@ -14299,7 +14296,7 @@
       </c>
       <c r="K166" s="7"/>
       <c r="L166" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M166" s="7" t="s">
         <v>86</v>
@@ -14341,7 +14338,7 @@
       </c>
       <c r="K167" s="7"/>
       <c r="L167" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M167" s="7" t="s">
         <v>86</v>
@@ -14383,7 +14380,7 @@
       </c>
       <c r="K168" s="7"/>
       <c r="L168" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M168" s="7" t="s">
         <v>86</v>
@@ -14425,7 +14422,7 @@
       </c>
       <c r="K169" s="7"/>
       <c r="L169" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M169" s="7" t="s">
         <v>86</v>
@@ -14467,7 +14464,7 @@
       </c>
       <c r="K170" s="7"/>
       <c r="L170" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M170" s="7" t="s">
         <v>86</v>
@@ -14509,7 +14506,7 @@
       </c>
       <c r="K171" s="7"/>
       <c r="L171" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M171" s="7" t="s">
         <v>86</v>
@@ -14551,7 +14548,7 @@
       </c>
       <c r="K172" s="7"/>
       <c r="L172" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M172" s="7" t="s">
         <v>86</v>
@@ -14593,7 +14590,7 @@
       </c>
       <c r="K173" s="7"/>
       <c r="L173" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M173" s="7" t="s">
         <v>86</v>
@@ -14635,7 +14632,7 @@
       </c>
       <c r="K174" s="7"/>
       <c r="L174" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M174" s="7" t="s">
         <v>86</v>
@@ -14654,7 +14651,7 @@
   <autoFilter ref="A1:AC174">
     <filterColumn colId="1">
       <filters>
-        <filter val="34"/>
+        <filter val="9861"/>
       </filters>
     </filterColumn>
     <sortState ref="A2:Y47">

--- a/inclusion_lists/exp_summary.xlsx
+++ b/inclusion_lists/exp_summary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2155" uniqueCount="597">
   <si>
     <t>date</t>
   </si>
@@ -1818,6 +1818,9 @@
   </si>
   <si>
     <t>{'???','WM','???','???'}</t>
+  </si>
+  <si>
+    <t>problem with nlg clock diff (huge values)</t>
   </si>
 </sst>
 </file>
@@ -2573,10 +2576,10 @@
   <dimension ref="A1:AC174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="W109" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E111" sqref="E111"/>
+      <selection pane="bottomRight" activeCell="AC121" sqref="AC121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2590,7 +2593,7 @@
     <col min="8" max="8" width="1.25" customWidth="1"/>
     <col min="9" max="9" width="27.5" customWidth="1"/>
     <col min="10" max="10" width="8.625" customWidth="1"/>
-    <col min="11" max="11" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.625" customWidth="1"/>
     <col min="12" max="12" width="2.75" customWidth="1"/>
     <col min="13" max="13" width="3.375" style="9" customWidth="1"/>
     <col min="14" max="14" width="2.75" customWidth="1"/>
@@ -2600,7 +2603,7 @@
     <col min="18" max="18" width="3.25" customWidth="1"/>
     <col min="19" max="19" width="3.125" customWidth="1"/>
     <col min="20" max="20" width="5.375" customWidth="1"/>
-    <col min="21" max="21" width="3.5" customWidth="1"/>
+    <col min="21" max="21" width="19.5" customWidth="1"/>
     <col min="22" max="22" width="3" customWidth="1"/>
     <col min="23" max="23" width="3.75" customWidth="1"/>
     <col min="24" max="24" width="2.5" customWidth="1"/>
@@ -10878,6 +10881,9 @@
       </c>
       <c r="AB120" t="s">
         <v>282</v>
+      </c>
+      <c r="AC120" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="121" spans="1:29" x14ac:dyDescent="0.2">

--- a/inclusion_lists/exp_summary.xlsx
+++ b/inclusion_lists/exp_summary.xlsx
@@ -838,9 +838,6 @@
     <t>Tamir+bicycles, good behavior but short exp 23 flights</t>
   </si>
   <si>
-    <t>very small cells;</t>
-  </si>
-  <si>
     <t>b9861_d180529</t>
   </si>
   <si>
@@ -1821,6 +1818,9 @@
   </si>
   <si>
     <t>problem with nlg clock diff (huge values)</t>
+  </si>
+  <si>
+    <t>very small cells; probably omnetics got disconnected in the middle (abrupt noise from the middle)</t>
   </si>
 </sst>
 </file>
@@ -2576,10 +2576,10 @@
   <dimension ref="A1:AC174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="W109" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC121" sqref="AC121"/>
+      <selection pane="bottomRight" activeCell="AB100" sqref="AB100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2609,7 +2609,7 @@
     <col min="24" max="24" width="2.5" customWidth="1"/>
     <col min="25" max="25" width="3.75" customWidth="1"/>
     <col min="26" max="26" width="4.875" customWidth="1"/>
-    <col min="27" max="27" width="59" customWidth="1"/>
+    <col min="27" max="27" width="20" customWidth="1"/>
     <col min="28" max="28" width="107.625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="78.625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2619,40 +2619,40 @@
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>67</v>
@@ -2664,19 +2664,19 @@
         <v>184</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>495</v>
-      </c>
       <c r="U1" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>68</v>
@@ -2685,22 +2685,22 @@
         <v>10</v>
       </c>
       <c r="X1" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="Z1" s="2" t="s">
-        <v>566</v>
-      </c>
       <c r="AA1" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>497</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="2" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
@@ -2730,10 +2730,10 @@
         <v>8</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>86</v>
@@ -2760,7 +2760,7 @@
         <v>9</v>
       </c>
       <c r="U2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V2">
         <v>5</v>
@@ -2808,13 +2808,13 @@
         <v>8</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -2838,7 +2838,7 @@
         <v>9</v>
       </c>
       <c r="U3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V3">
         <v>5</v>
@@ -2886,13 +2886,13 @@
         <v>8</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -2916,7 +2916,7 @@
         <v>9</v>
       </c>
       <c r="U4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V4">
         <v>5</v>
@@ -2964,13 +2964,13 @@
         <v>8</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -2994,7 +2994,7 @@
         <v>9</v>
       </c>
       <c r="U5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V5">
         <v>5</v>
@@ -3042,13 +3042,13 @@
         <v>8</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -3072,7 +3072,7 @@
         <v>9</v>
       </c>
       <c r="U6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V6">
         <v>5</v>
@@ -3087,7 +3087,7 @@
         <v>199</v>
       </c>
       <c r="AB6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AC6" t="s">
         <v>189</v>
@@ -3120,13 +3120,13 @@
         <v>8</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -3150,7 +3150,7 @@
         <v>9</v>
       </c>
       <c r="U7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V7">
         <v>5</v>
@@ -3165,7 +3165,7 @@
         <v>198</v>
       </c>
       <c r="AB7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AC7" t="s">
         <v>189</v>
@@ -3198,13 +3198,13 @@
         <v>8</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -3228,7 +3228,7 @@
         <v>9</v>
       </c>
       <c r="U8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V8">
         <v>5</v>
@@ -3276,13 +3276,13 @@
         <v>8</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -3306,7 +3306,7 @@
         <v>9</v>
       </c>
       <c r="U9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V9">
         <v>5</v>
@@ -3354,13 +3354,13 @@
         <v>8</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -3384,7 +3384,7 @@
         <v>9</v>
       </c>
       <c r="U10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V10">
         <v>5</v>
@@ -3432,13 +3432,13 @@
         <v>8</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -3462,7 +3462,7 @@
         <v>9</v>
       </c>
       <c r="U11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V11">
         <v>5</v>
@@ -3507,13 +3507,13 @@
         <v>8</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -3537,7 +3537,7 @@
         <v>9</v>
       </c>
       <c r="U12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V12">
         <v>5</v>
@@ -3546,7 +3546,7 @@
         <v>745</v>
       </c>
       <c r="Z12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AA12" t="s">
         <v>209</v>
@@ -3585,13 +3585,13 @@
         <v>8</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -3615,7 +3615,7 @@
         <v>9</v>
       </c>
       <c r="U13" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V13">
         <v>5</v>
@@ -3660,13 +3660,13 @@
         <v>8</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -3690,7 +3690,7 @@
         <v>9</v>
       </c>
       <c r="U14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V14">
         <v>5</v>
@@ -3735,13 +3735,13 @@
         <v>8</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -3765,7 +3765,7 @@
         <v>9</v>
       </c>
       <c r="U15" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V15">
         <v>5</v>
@@ -3810,13 +3810,13 @@
         <v>8</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -3840,7 +3840,7 @@
         <v>9</v>
       </c>
       <c r="U16" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V16">
         <v>5</v>
@@ -3885,13 +3885,13 @@
         <v>8</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -3915,7 +3915,7 @@
         <v>9</v>
       </c>
       <c r="U17" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V17">
         <v>5</v>
@@ -3960,13 +3960,13 @@
         <v>8</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -3990,7 +3990,7 @@
         <v>9</v>
       </c>
       <c r="U18" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V18">
         <v>5</v>
@@ -4035,13 +4035,13 @@
         <v>8</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -4065,7 +4065,7 @@
         <v>9</v>
       </c>
       <c r="U19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V19">
         <v>5</v>
@@ -4110,7 +4110,7 @@
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M20" s="7" t="s">
         <v>86</v>
@@ -4152,7 +4152,7 @@
       </c>
       <c r="K21" s="7"/>
       <c r="L21" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M21" s="7" t="s">
         <v>86</v>
@@ -4194,7 +4194,7 @@
       </c>
       <c r="K22" s="7"/>
       <c r="L22" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M22" s="7" t="s">
         <v>86</v>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="K23" s="7"/>
       <c r="L23" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>86</v>
@@ -4278,7 +4278,7 @@
       </c>
       <c r="K24" s="7"/>
       <c r="L24" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M24" s="7" t="s">
         <v>86</v>
@@ -4320,7 +4320,7 @@
       </c>
       <c r="K25" s="7"/>
       <c r="L25" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M25" s="7" t="s">
         <v>86</v>
@@ -4362,7 +4362,7 @@
       </c>
       <c r="K26" s="7"/>
       <c r="L26" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M26" s="7" t="s">
         <v>86</v>
@@ -4404,7 +4404,7 @@
       </c>
       <c r="K27" s="7"/>
       <c r="L27" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M27" s="7" t="s">
         <v>86</v>
@@ -4446,7 +4446,7 @@
       </c>
       <c r="K28" s="7"/>
       <c r="L28" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M28" s="7" t="s">
         <v>86</v>
@@ -4475,19 +4475,19 @@
         <v>42614</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G29">
+        <v>4</v>
+      </c>
+      <c r="I29" t="s">
         <v>577</v>
-      </c>
-      <c r="G29">
-        <v>4</v>
-      </c>
-      <c r="I29" t="s">
-        <v>578</v>
       </c>
       <c r="J29" t="s">
         <v>8</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M29" s="7" t="s">
         <v>86</v>
@@ -4525,19 +4525,19 @@
         <v>42615</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="I30" t="s">
         <v>577</v>
-      </c>
-      <c r="G30">
-        <v>4</v>
-      </c>
-      <c r="I30" t="s">
-        <v>578</v>
       </c>
       <c r="J30" t="s">
         <v>8</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M30" s="7" t="s">
         <v>86</v>
@@ -4575,25 +4575,25 @@
         <v>42617</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="I31" t="s">
         <v>577</v>
-      </c>
-      <c r="G31">
-        <v>4</v>
-      </c>
-      <c r="I31" t="s">
-        <v>578</v>
       </c>
       <c r="J31" t="s">
         <v>8</v>
       </c>
       <c r="K31" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -4608,7 +4608,7 @@
         <v>9</v>
       </c>
       <c r="U31" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V31">
         <v>14</v>
@@ -4634,25 +4634,25 @@
         <v>42620</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="I32" t="s">
         <v>577</v>
-      </c>
-      <c r="G32">
-        <v>4</v>
-      </c>
-      <c r="I32" t="s">
-        <v>578</v>
       </c>
       <c r="J32" t="s">
         <v>8</v>
       </c>
       <c r="K32" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -4667,7 +4667,7 @@
         <v>9</v>
       </c>
       <c r="U32" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V32">
         <v>14</v>
@@ -4693,25 +4693,25 @@
         <v>42621</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+      <c r="I33" t="s">
         <v>577</v>
-      </c>
-      <c r="G33">
-        <v>4</v>
-      </c>
-      <c r="I33" t="s">
-        <v>578</v>
       </c>
       <c r="J33" t="s">
         <v>8</v>
       </c>
       <c r="K33" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -4726,7 +4726,7 @@
         <v>9</v>
       </c>
       <c r="U33" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V33">
         <v>14</v>
@@ -4752,25 +4752,25 @@
         <v>42622</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+      <c r="I34" t="s">
         <v>577</v>
-      </c>
-      <c r="G34">
-        <v>4</v>
-      </c>
-      <c r="I34" t="s">
-        <v>578</v>
       </c>
       <c r="J34" t="s">
         <v>8</v>
       </c>
       <c r="K34" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -4785,7 +4785,7 @@
         <v>9</v>
       </c>
       <c r="U34" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V34">
         <v>14</v>
@@ -4811,25 +4811,25 @@
         <v>42624</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G35">
+        <v>4</v>
+      </c>
+      <c r="I35" t="s">
         <v>577</v>
-      </c>
-      <c r="G35">
-        <v>4</v>
-      </c>
-      <c r="I35" t="s">
-        <v>578</v>
       </c>
       <c r="J35" t="s">
         <v>8</v>
       </c>
       <c r="K35" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -4844,7 +4844,7 @@
         <v>9</v>
       </c>
       <c r="U35" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V35">
         <v>14</v>
@@ -4870,25 +4870,25 @@
         <v>42625</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
+      </c>
+      <c r="I36" t="s">
         <v>577</v>
-      </c>
-      <c r="G36">
-        <v>4</v>
-      </c>
-      <c r="I36" t="s">
-        <v>578</v>
       </c>
       <c r="J36" t="s">
         <v>8</v>
       </c>
       <c r="K36" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -4903,7 +4903,7 @@
         <v>9</v>
       </c>
       <c r="U36" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V36">
         <v>14</v>
@@ -4929,25 +4929,25 @@
         <v>42626</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
+      <c r="I37" t="s">
         <v>577</v>
-      </c>
-      <c r="G37">
-        <v>4</v>
-      </c>
-      <c r="I37" t="s">
-        <v>578</v>
       </c>
       <c r="J37" t="s">
         <v>8</v>
       </c>
       <c r="K37" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -4971,7 +4971,7 @@
         <v>9</v>
       </c>
       <c r="U37" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V37">
         <v>14</v>
@@ -4997,25 +4997,25 @@
         <v>42627</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G38">
+        <v>4</v>
+      </c>
+      <c r="I38" t="s">
         <v>577</v>
-      </c>
-      <c r="G38">
-        <v>4</v>
-      </c>
-      <c r="I38" t="s">
-        <v>578</v>
       </c>
       <c r="J38" t="s">
         <v>8</v>
       </c>
       <c r="K38" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -5030,7 +5030,7 @@
         <v>9</v>
       </c>
       <c r="U38" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V38">
         <v>14</v>
@@ -5056,25 +5056,25 @@
         <v>42628</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+      <c r="I39" t="s">
         <v>577</v>
-      </c>
-      <c r="G39">
-        <v>4</v>
-      </c>
-      <c r="I39" t="s">
-        <v>578</v>
       </c>
       <c r="J39" t="s">
         <v>8</v>
       </c>
       <c r="K39" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -5089,7 +5089,7 @@
         <v>9</v>
       </c>
       <c r="U39" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V39">
         <v>14</v>
@@ -5101,7 +5101,7 @@
         <v>86</v>
       </c>
       <c r="AA39" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="40" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
@@ -5118,25 +5118,25 @@
         <v>42629</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G40">
+        <v>4</v>
+      </c>
+      <c r="I40" t="s">
         <v>577</v>
-      </c>
-      <c r="G40">
-        <v>4</v>
-      </c>
-      <c r="I40" t="s">
-        <v>578</v>
       </c>
       <c r="J40" t="s">
         <v>8</v>
       </c>
       <c r="K40" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -5151,7 +5151,7 @@
         <v>9</v>
       </c>
       <c r="U40" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V40">
         <v>14</v>
@@ -5177,25 +5177,25 @@
         <v>42631</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="I41" t="s">
         <v>577</v>
-      </c>
-      <c r="G41">
-        <v>4</v>
-      </c>
-      <c r="I41" t="s">
-        <v>578</v>
       </c>
       <c r="J41" t="s">
         <v>8</v>
       </c>
       <c r="K41" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -5210,7 +5210,7 @@
         <v>9</v>
       </c>
       <c r="U41" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V41">
         <v>14</v>
@@ -5236,25 +5236,25 @@
         <v>42632</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G42">
+        <v>4</v>
+      </c>
+      <c r="I42" t="s">
         <v>577</v>
-      </c>
-      <c r="G42">
-        <v>4</v>
-      </c>
-      <c r="I42" t="s">
-        <v>578</v>
       </c>
       <c r="J42" t="s">
         <v>8</v>
       </c>
       <c r="K42" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -5278,7 +5278,7 @@
         <v>9</v>
       </c>
       <c r="U42" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V42">
         <v>14</v>
@@ -5304,25 +5304,25 @@
         <v>42633</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G43">
+        <v>4</v>
+      </c>
+      <c r="I43" t="s">
         <v>577</v>
-      </c>
-      <c r="G43">
-        <v>4</v>
-      </c>
-      <c r="I43" t="s">
-        <v>578</v>
       </c>
       <c r="J43" t="s">
         <v>8</v>
       </c>
       <c r="K43" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -5337,7 +5337,7 @@
         <v>9</v>
       </c>
       <c r="U43" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V43">
         <v>14</v>
@@ -5349,7 +5349,7 @@
         <v>86</v>
       </c>
       <c r="AC43" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="44" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
@@ -5366,25 +5366,25 @@
         <v>42634</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G44">
+        <v>4</v>
+      </c>
+      <c r="I44" t="s">
         <v>577</v>
-      </c>
-      <c r="G44">
-        <v>4</v>
-      </c>
-      <c r="I44" t="s">
-        <v>578</v>
       </c>
       <c r="J44" t="s">
         <v>8</v>
       </c>
       <c r="K44" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -5399,7 +5399,7 @@
         <v>9</v>
       </c>
       <c r="U44" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V44">
         <v>14</v>
@@ -5425,25 +5425,25 @@
         <v>42636</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G45">
+        <v>4</v>
+      </c>
+      <c r="I45" t="s">
         <v>577</v>
-      </c>
-      <c r="G45">
-        <v>4</v>
-      </c>
-      <c r="I45" t="s">
-        <v>578</v>
       </c>
       <c r="J45" t="s">
         <v>8</v>
       </c>
       <c r="K45" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -5458,7 +5458,7 @@
         <v>9</v>
       </c>
       <c r="U45" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V45">
         <v>14</v>
@@ -5484,25 +5484,25 @@
         <v>42637</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+      <c r="I46" t="s">
         <v>577</v>
-      </c>
-      <c r="G46">
-        <v>4</v>
-      </c>
-      <c r="I46" t="s">
-        <v>578</v>
       </c>
       <c r="J46" t="s">
         <v>8</v>
       </c>
       <c r="K46" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -5517,7 +5517,7 @@
         <v>9</v>
       </c>
       <c r="U46" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V46">
         <v>14</v>
@@ -5543,25 +5543,25 @@
         <v>42638</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G47">
+        <v>4</v>
+      </c>
+      <c r="I47" t="s">
         <v>577</v>
-      </c>
-      <c r="G47">
-        <v>4</v>
-      </c>
-      <c r="I47" t="s">
-        <v>578</v>
       </c>
       <c r="J47" t="s">
         <v>8</v>
       </c>
       <c r="K47" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -5576,7 +5576,7 @@
         <v>9</v>
       </c>
       <c r="U47" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V47">
         <v>14</v>
@@ -5602,25 +5602,25 @@
         <v>42639</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G48">
+        <v>4</v>
+      </c>
+      <c r="I48" t="s">
         <v>577</v>
-      </c>
-      <c r="G48">
-        <v>4</v>
-      </c>
-      <c r="I48" t="s">
-        <v>578</v>
       </c>
       <c r="J48" t="s">
         <v>8</v>
       </c>
       <c r="K48" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -5644,7 +5644,7 @@
         <v>9</v>
       </c>
       <c r="U48" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V48">
         <v>14</v>
@@ -5670,25 +5670,25 @@
         <v>42640</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G49">
+        <v>4</v>
+      </c>
+      <c r="I49" t="s">
         <v>577</v>
-      </c>
-      <c r="G49">
-        <v>4</v>
-      </c>
-      <c r="I49" t="s">
-        <v>578</v>
       </c>
       <c r="J49" t="s">
         <v>8</v>
       </c>
       <c r="K49" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L49" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -5703,7 +5703,7 @@
         <v>9</v>
       </c>
       <c r="U49" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V49">
         <v>14</v>
@@ -5729,25 +5729,25 @@
         <v>42641</v>
       </c>
       <c r="E50" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G50">
+        <v>4</v>
+      </c>
+      <c r="I50" t="s">
         <v>577</v>
-      </c>
-      <c r="G50">
-        <v>4</v>
-      </c>
-      <c r="I50" t="s">
-        <v>578</v>
       </c>
       <c r="J50" t="s">
         <v>8</v>
       </c>
       <c r="K50" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -5771,7 +5771,7 @@
         <v>9</v>
       </c>
       <c r="U50" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V50">
         <v>14</v>
@@ -5797,25 +5797,25 @@
         <v>42642</v>
       </c>
       <c r="E51" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G51">
+        <v>4</v>
+      </c>
+      <c r="I51" t="s">
         <v>577</v>
-      </c>
-      <c r="G51">
-        <v>4</v>
-      </c>
-      <c r="I51" t="s">
-        <v>578</v>
       </c>
       <c r="J51" t="s">
         <v>8</v>
       </c>
       <c r="K51" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L51" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -5839,7 +5839,7 @@
         <v>9</v>
       </c>
       <c r="U51" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V51">
         <v>14</v>
@@ -5865,25 +5865,25 @@
         <v>42643</v>
       </c>
       <c r="E52" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G52">
+        <v>4</v>
+      </c>
+      <c r="I52" t="s">
         <v>577</v>
-      </c>
-      <c r="G52">
-        <v>4</v>
-      </c>
-      <c r="I52" t="s">
-        <v>578</v>
       </c>
       <c r="J52" t="s">
         <v>8</v>
       </c>
       <c r="K52" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -5898,7 +5898,7 @@
         <v>9</v>
       </c>
       <c r="U52" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V52">
         <v>14</v>
@@ -5924,25 +5924,25 @@
         <v>42646</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G53">
+        <v>4</v>
+      </c>
+      <c r="I53" t="s">
         <v>577</v>
-      </c>
-      <c r="G53">
-        <v>4</v>
-      </c>
-      <c r="I53" t="s">
-        <v>578</v>
       </c>
       <c r="J53" t="s">
         <v>8</v>
       </c>
       <c r="K53" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L53" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -5957,7 +5957,7 @@
         <v>9</v>
       </c>
       <c r="U53" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V53">
         <v>14</v>
@@ -5983,25 +5983,25 @@
         <v>42647</v>
       </c>
       <c r="E54" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G54">
+        <v>4</v>
+      </c>
+      <c r="I54" t="s">
         <v>577</v>
-      </c>
-      <c r="G54">
-        <v>4</v>
-      </c>
-      <c r="I54" t="s">
-        <v>578</v>
       </c>
       <c r="J54" t="s">
         <v>8</v>
       </c>
       <c r="K54" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L54" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -6016,7 +6016,7 @@
         <v>9</v>
       </c>
       <c r="U54" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V54">
         <v>14</v>
@@ -6042,25 +6042,25 @@
         <v>42648</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="G55">
+        <v>4</v>
+      </c>
+      <c r="I55" t="s">
         <v>577</v>
-      </c>
-      <c r="G55">
-        <v>4</v>
-      </c>
-      <c r="I55" t="s">
-        <v>578</v>
       </c>
       <c r="J55" t="s">
         <v>8</v>
       </c>
       <c r="K55" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L55" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -6075,7 +6075,7 @@
         <v>9</v>
       </c>
       <c r="U55" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V55">
         <v>14</v>
@@ -6113,10 +6113,10 @@
         <v>88</v>
       </c>
       <c r="K56" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L56" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M56" s="7" t="s">
         <v>86</v>
@@ -6143,7 +6143,7 @@
         <v>9</v>
       </c>
       <c r="U56" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V56">
         <v>14</v>
@@ -6190,13 +6190,13 @@
         <v>88</v>
       </c>
       <c r="K57" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L57" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -6220,7 +6220,7 @@
         <v>9</v>
       </c>
       <c r="U57" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V57">
         <v>14</v>
@@ -6264,13 +6264,13 @@
         <v>88</v>
       </c>
       <c r="K58" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L58" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -6294,7 +6294,7 @@
         <v>9</v>
       </c>
       <c r="U58" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V58">
         <v>14</v>
@@ -6338,13 +6338,13 @@
         <v>88</v>
       </c>
       <c r="K59" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L59" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M59" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -6368,7 +6368,7 @@
         <v>9</v>
       </c>
       <c r="U59" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V59">
         <v>14</v>
@@ -6412,13 +6412,13 @@
         <v>88</v>
       </c>
       <c r="K60" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L60" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M60" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -6442,7 +6442,7 @@
         <v>9</v>
       </c>
       <c r="U60" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V60">
         <v>14</v>
@@ -6486,13 +6486,13 @@
         <v>88</v>
       </c>
       <c r="K61" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L61" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M61" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -6516,7 +6516,7 @@
         <v>9</v>
       </c>
       <c r="U61" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V61">
         <v>14</v>
@@ -6560,13 +6560,13 @@
         <v>88</v>
       </c>
       <c r="K62" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L62" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M62" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -6590,7 +6590,7 @@
         <v>9</v>
       </c>
       <c r="U62" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V62">
         <v>14</v>
@@ -6634,13 +6634,13 @@
         <v>88</v>
       </c>
       <c r="K63" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L63" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M63" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -6664,7 +6664,7 @@
         <v>9</v>
       </c>
       <c r="U63" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V63">
         <v>14</v>
@@ -6708,13 +6708,13 @@
         <v>88</v>
       </c>
       <c r="K64" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L64" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M64" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -6738,7 +6738,7 @@
         <v>9</v>
       </c>
       <c r="U64" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V64">
         <v>14</v>
@@ -6782,13 +6782,13 @@
         <v>88</v>
       </c>
       <c r="K65" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L65" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M65" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -6812,7 +6812,7 @@
         <v>9</v>
       </c>
       <c r="U65" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V65">
         <v>14</v>
@@ -6856,13 +6856,13 @@
         <v>88</v>
       </c>
       <c r="K66" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L66" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M66" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -6886,7 +6886,7 @@
         <v>9</v>
       </c>
       <c r="U66" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V66">
         <v>14</v>
@@ -6930,13 +6930,13 @@
         <v>88</v>
       </c>
       <c r="K67" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L67" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M67" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -6960,7 +6960,7 @@
         <v>9</v>
       </c>
       <c r="U67" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V67">
         <v>14</v>
@@ -7004,13 +7004,13 @@
         <v>88</v>
       </c>
       <c r="K68" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L68" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M68" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -7034,7 +7034,7 @@
         <v>9</v>
       </c>
       <c r="U68" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V68">
         <v>14</v>
@@ -7078,13 +7078,13 @@
         <v>88</v>
       </c>
       <c r="K69" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L69" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M69" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -7108,7 +7108,7 @@
         <v>9</v>
       </c>
       <c r="U69" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V69">
         <v>14</v>
@@ -7152,13 +7152,13 @@
         <v>88</v>
       </c>
       <c r="K70" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L70" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M70" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -7182,7 +7182,7 @@
         <v>9</v>
       </c>
       <c r="U70" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V70">
         <v>14</v>
@@ -7226,13 +7226,13 @@
         <v>88</v>
       </c>
       <c r="K71" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L71" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M71" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -7256,7 +7256,7 @@
         <v>9</v>
       </c>
       <c r="U71" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V71">
         <v>14</v>
@@ -7300,13 +7300,13 @@
         <v>88</v>
       </c>
       <c r="K72" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L72" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M72" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -7330,7 +7330,7 @@
         <v>9</v>
       </c>
       <c r="U72" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V72">
         <v>14</v>
@@ -7374,13 +7374,13 @@
         <v>88</v>
       </c>
       <c r="K73" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L73" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M73" s="9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -7404,7 +7404,7 @@
         <v>9</v>
       </c>
       <c r="U73" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V73">
         <v>14</v>
@@ -7448,13 +7448,13 @@
         <v>88</v>
       </c>
       <c r="K74" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L74" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M74" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -7478,7 +7478,7 @@
         <v>9</v>
       </c>
       <c r="U74" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V74">
         <v>14</v>
@@ -7522,13 +7522,13 @@
         <v>88</v>
       </c>
       <c r="K75" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L75" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -7552,7 +7552,7 @@
         <v>9</v>
       </c>
       <c r="U75" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V75">
         <v>14</v>
@@ -7596,13 +7596,13 @@
         <v>88</v>
       </c>
       <c r="K76" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L76" s="10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="M76" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -7626,7 +7626,7 @@
         <v>9</v>
       </c>
       <c r="U76" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V76">
         <v>14</v>
@@ -7670,10 +7670,10 @@
         <v>88</v>
       </c>
       <c r="K77" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L77" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M77" s="7" t="s">
         <v>86</v>
@@ -7691,7 +7691,7 @@
         <v>125</v>
       </c>
       <c r="U77" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V77">
         <v>14</v>
@@ -7732,13 +7732,13 @@
         <v>88</v>
       </c>
       <c r="K78" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L78" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M78" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -7762,7 +7762,7 @@
         <v>9</v>
       </c>
       <c r="U78" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V78">
         <v>14</v>
@@ -7806,13 +7806,13 @@
         <v>88</v>
       </c>
       <c r="K79" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L79" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M79" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -7836,7 +7836,7 @@
         <v>9</v>
       </c>
       <c r="U79" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V79">
         <v>14</v>
@@ -7880,13 +7880,13 @@
         <v>88</v>
       </c>
       <c r="K80" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L80" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M80" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -7910,7 +7910,7 @@
         <v>9</v>
       </c>
       <c r="U80" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V80">
         <v>14</v>
@@ -7957,13 +7957,13 @@
         <v>88</v>
       </c>
       <c r="K81" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L81" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M81" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -7987,7 +7987,7 @@
         <v>9</v>
       </c>
       <c r="U81" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V81">
         <v>14</v>
@@ -8034,13 +8034,13 @@
         <v>88</v>
       </c>
       <c r="K82" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L82" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M82" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -8064,7 +8064,7 @@
         <v>9</v>
       </c>
       <c r="U82" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V82">
         <v>14</v>
@@ -8108,13 +8108,13 @@
         <v>88</v>
       </c>
       <c r="K83" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L83" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M83" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -8138,7 +8138,7 @@
         <v>9</v>
       </c>
       <c r="U83" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V83">
         <v>14</v>
@@ -8185,13 +8185,13 @@
         <v>88</v>
       </c>
       <c r="K84" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L84" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M84" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -8215,7 +8215,7 @@
         <v>9</v>
       </c>
       <c r="U84" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V84">
         <v>14</v>
@@ -8224,7 +8224,7 @@
         <v>2365</v>
       </c>
       <c r="Z84" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AA84" t="s">
         <v>142</v>
@@ -8259,13 +8259,13 @@
         <v>88</v>
       </c>
       <c r="K85" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L85" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M85" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -8289,7 +8289,7 @@
         <v>9</v>
       </c>
       <c r="U85" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V85">
         <v>14</v>
@@ -8333,13 +8333,13 @@
         <v>88</v>
       </c>
       <c r="K86" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L86" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M86" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -8363,7 +8363,7 @@
         <v>9</v>
       </c>
       <c r="U86" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V86">
         <v>14</v>
@@ -8407,13 +8407,13 @@
         <v>88</v>
       </c>
       <c r="K87" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L87" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M87" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -8437,7 +8437,7 @@
         <v>9</v>
       </c>
       <c r="U87" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V87">
         <v>14</v>
@@ -8481,13 +8481,13 @@
         <v>88</v>
       </c>
       <c r="K88" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L88" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M88" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -8511,7 +8511,7 @@
         <v>9</v>
       </c>
       <c r="U88" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V88">
         <v>14</v>
@@ -8555,13 +8555,13 @@
         <v>88</v>
       </c>
       <c r="K89" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L89" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M89" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -8585,7 +8585,7 @@
         <v>9</v>
       </c>
       <c r="U89" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V89">
         <v>14</v>
@@ -8632,13 +8632,13 @@
         <v>88</v>
       </c>
       <c r="K90" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L90" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M90" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -8662,7 +8662,7 @@
         <v>9</v>
       </c>
       <c r="U90" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V90">
         <v>14</v>
@@ -8706,13 +8706,13 @@
         <v>88</v>
       </c>
       <c r="K91" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L91" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M91" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -8736,7 +8736,7 @@
         <v>9</v>
       </c>
       <c r="U91" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="V91">
         <v>14</v>
@@ -8745,7 +8745,7 @@
         <v>2365</v>
       </c>
       <c r="Z91" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="AA91" t="s">
         <v>162</v>
@@ -8757,7 +8757,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="92" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>232</v>
       </c>
@@ -8771,7 +8771,7 @@
         <v>43234</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>237</v>
+        <v>86</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92">
@@ -8785,10 +8785,10 @@
       </c>
       <c r="K92" s="1"/>
       <c r="L92" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M92" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -8812,7 +8812,7 @@
         <v>9</v>
       </c>
       <c r="U92" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V92">
         <v>5</v>
@@ -8830,7 +8830,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="93" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>236</v>
       </c>
@@ -8844,7 +8844,7 @@
         <v>43235</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>237</v>
+        <v>86</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93">
@@ -8858,10 +8858,10 @@
       </c>
       <c r="K93" s="1"/>
       <c r="L93" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M93" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -8885,7 +8885,7 @@
         <v>9</v>
       </c>
       <c r="U93" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V93">
         <v>5</v>
@@ -8906,7 +8906,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="94" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>240</v>
       </c>
@@ -8934,10 +8934,10 @@
       </c>
       <c r="K94" s="1"/>
       <c r="L94" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M94" s="9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -8961,7 +8961,7 @@
         <v>9</v>
       </c>
       <c r="U94" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V94">
         <v>5</v>
@@ -8982,7 +8982,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="95" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>248</v>
       </c>
@@ -9010,10 +9010,10 @@
       </c>
       <c r="K95" s="1"/>
       <c r="L95" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M95" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -9037,7 +9037,7 @@
         <v>9</v>
       </c>
       <c r="U95" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V95">
         <v>5</v>
@@ -9052,7 +9052,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="96" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>255</v>
       </c>
@@ -9080,10 +9080,10 @@
       </c>
       <c r="K96" s="1"/>
       <c r="L96" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M96" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -9107,7 +9107,7 @@
         <v>9</v>
       </c>
       <c r="U96" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V96">
         <v>4</v>
@@ -9125,7 +9125,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="97" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>260</v>
       </c>
@@ -9153,10 +9153,10 @@
       </c>
       <c r="K97" s="1"/>
       <c r="L97" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M97" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -9180,7 +9180,7 @@
         <v>9</v>
       </c>
       <c r="U97" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V97">
         <v>4</v>
@@ -9198,7 +9198,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="98" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>263</v>
       </c>
@@ -9226,10 +9226,10 @@
       </c>
       <c r="K98" s="1"/>
       <c r="L98" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M98" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -9253,7 +9253,7 @@
         <v>9</v>
       </c>
       <c r="U98" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V98">
         <v>4</v>
@@ -9271,7 +9271,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="99" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>271</v>
       </c>
@@ -9299,10 +9299,10 @@
       </c>
       <c r="K99" s="1"/>
       <c r="L99" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M99" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -9326,7 +9326,7 @@
         <v>9</v>
       </c>
       <c r="U99" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V99">
         <v>5</v>
@@ -9341,12 +9341,12 @@
         <v>272</v>
       </c>
       <c r="AB99" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="100" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B100" s="4">
         <v>2289</v>
@@ -9372,10 +9372,10 @@
       </c>
       <c r="K100" s="1"/>
       <c r="L100" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M100" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -9399,7 +9399,7 @@
         <v>9</v>
       </c>
       <c r="U100" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V100">
         <v>4</v>
@@ -9411,12 +9411,12 @@
         <v>86</v>
       </c>
       <c r="AA100" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="101" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
         <v>279</v>
-      </c>
-    </row>
-    <row r="101" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="B101" s="4">
         <v>2289</v>
@@ -9442,10 +9442,10 @@
       </c>
       <c r="K101" s="1"/>
       <c r="L101" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M101" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N101">
         <v>1</v>
@@ -9469,7 +9469,7 @@
         <v>9</v>
       </c>
       <c r="U101" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V101">
         <v>4</v>
@@ -9481,12 +9481,12 @@
         <v>86</v>
       </c>
       <c r="AA101" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="102" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="102" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B102" s="4">
         <v>2289</v>
@@ -9512,10 +9512,10 @@
       </c>
       <c r="K102" s="1"/>
       <c r="L102" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M102" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -9539,7 +9539,7 @@
         <v>9</v>
       </c>
       <c r="U102" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V102">
         <v>4</v>
@@ -9551,15 +9551,15 @@
         <v>86</v>
       </c>
       <c r="AA102" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB102" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="103" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="103" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B103" s="4">
         <v>2289</v>
@@ -9585,10 +9585,10 @@
       </c>
       <c r="K103" s="1"/>
       <c r="L103" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M103" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="N103">
         <v>1</v>
@@ -9612,7 +9612,7 @@
         <v>9</v>
       </c>
       <c r="U103" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V103">
         <v>4</v>
@@ -9624,15 +9624,15 @@
         <v>86</v>
       </c>
       <c r="AA103" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB103" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="104" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="104" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B104" s="4">
         <v>2289</v>
@@ -9658,10 +9658,10 @@
       </c>
       <c r="K104" s="1"/>
       <c r="L104" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M104" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -9685,7 +9685,7 @@
         <v>9</v>
       </c>
       <c r="U104" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V104">
         <v>4</v>
@@ -9697,18 +9697,18 @@
         <v>86</v>
       </c>
       <c r="AA104" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AB104" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AC104" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="105" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="105" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B105" s="4">
         <v>2289</v>
@@ -9734,7 +9734,7 @@
       </c>
       <c r="K105" s="1"/>
       <c r="L105" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M105" s="7" t="s">
         <v>86</v>
@@ -9758,24 +9758,24 @@
         <v>0</v>
       </c>
       <c r="T105" t="s">
+        <v>325</v>
+      </c>
+      <c r="U105" t="s">
+        <v>500</v>
+      </c>
+      <c r="V105">
+        <v>9</v>
+      </c>
+      <c r="Z105" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC105" t="s">
         <v>326</v>
       </c>
-      <c r="U105" t="s">
-        <v>501</v>
-      </c>
-      <c r="V105">
-        <v>9</v>
-      </c>
-      <c r="Z105" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC105" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="106" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B106" s="4">
         <v>2289</v>
@@ -9801,10 +9801,10 @@
       </c>
       <c r="K106" s="1"/>
       <c r="L106" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M106" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -9828,7 +9828,7 @@
         <v>9</v>
       </c>
       <c r="U106" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V106">
         <v>5</v>
@@ -9840,12 +9840,12 @@
         <v>86</v>
       </c>
       <c r="AA106" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="107" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="107" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B107" s="4">
         <v>2289</v>
@@ -9871,10 +9871,10 @@
       </c>
       <c r="K107" s="1"/>
       <c r="L107" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M107" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N107">
         <v>1</v>
@@ -9898,7 +9898,7 @@
         <v>9</v>
       </c>
       <c r="U107" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V107">
         <v>9</v>
@@ -9910,18 +9910,18 @@
         <v>86</v>
       </c>
       <c r="AA107" t="s">
+        <v>348</v>
+      </c>
+      <c r="AB107" t="s">
         <v>349</v>
       </c>
-      <c r="AB107" t="s">
-        <v>350</v>
-      </c>
       <c r="AC107" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
         <v>353</v>
-      </c>
-    </row>
-    <row r="108" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="B108" s="4">
         <v>2289</v>
@@ -9947,10 +9947,10 @@
       </c>
       <c r="K108" s="1"/>
       <c r="L108" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M108" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -9974,7 +9974,7 @@
         <v>9</v>
       </c>
       <c r="U108" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V108">
         <v>9</v>
@@ -9986,13 +9986,13 @@
         <v>86</v>
       </c>
       <c r="AA108" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AB108" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>244</v>
       </c>
@@ -10019,13 +10019,13 @@
         <v>8</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L109" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M109" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="N109">
         <v>1</v>
@@ -10049,7 +10049,7 @@
         <v>9</v>
       </c>
       <c r="U109" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V109">
         <v>5</v>
@@ -10067,7 +10067,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>245</v>
       </c>
@@ -10094,13 +10094,13 @@
         <v>8</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L110" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M110" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N110">
         <v>1</v>
@@ -10124,7 +10124,7 @@
         <v>9</v>
       </c>
       <c r="U110" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V110">
         <v>5</v>
@@ -10142,7 +10142,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>249</v>
       </c>
@@ -10169,13 +10169,13 @@
         <v>8</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L111" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M111" s="9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="N111">
         <v>1</v>
@@ -10199,7 +10199,7 @@
         <v>9</v>
       </c>
       <c r="U111" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V111">
         <v>5</v>
@@ -10217,7 +10217,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>252</v>
       </c>
@@ -10244,13 +10244,13 @@
         <v>8</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L112" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M112" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="N112">
         <v>1</v>
@@ -10274,7 +10274,7 @@
         <v>9</v>
       </c>
       <c r="U112" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V112">
         <v>5</v>
@@ -10292,7 +10292,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>258</v>
       </c>
@@ -10319,13 +10319,13 @@
         <v>8</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L113" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M113" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N113">
         <v>1</v>
@@ -10349,7 +10349,7 @@
         <v>9</v>
       </c>
       <c r="U113" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V113">
         <v>5</v>
@@ -10367,7 +10367,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>261</v>
       </c>
@@ -10394,13 +10394,13 @@
         <v>8</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L114" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M114" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="N114">
         <v>1</v>
@@ -10424,7 +10424,7 @@
         <v>9</v>
       </c>
       <c r="U114" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V114">
         <v>5</v>
@@ -10442,7 +10442,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>265</v>
       </c>
@@ -10469,13 +10469,13 @@
         <v>8</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L115" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M115" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="N115">
         <v>1</v>
@@ -10499,7 +10499,7 @@
         <v>9</v>
       </c>
       <c r="U115" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V115">
         <v>5</v>
@@ -10517,7 +10517,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>268</v>
       </c>
@@ -10544,13 +10544,13 @@
         <v>8</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L116" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M116" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="N116">
         <v>1</v>
@@ -10574,7 +10574,7 @@
         <v>9</v>
       </c>
       <c r="U116" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V116">
         <v>5</v>
@@ -10592,9 +10592,9 @@
         <v>269</v>
       </c>
     </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B117" s="4">
         <v>9861</v>
@@ -10619,13 +10619,13 @@
         <v>8</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L117" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M117" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N117">
         <v>1</v>
@@ -10649,7 +10649,7 @@
         <v>9</v>
       </c>
       <c r="U117" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V117">
         <v>5</v>
@@ -10661,12 +10661,12 @@
         <v>86</v>
       </c>
       <c r="AA117" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B118" s="4">
         <v>9861</v>
@@ -10691,13 +10691,13 @@
         <v>8</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L118" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M118" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N118">
         <v>1</v>
@@ -10721,7 +10721,7 @@
         <v>9</v>
       </c>
       <c r="U118" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V118">
         <v>5</v>
@@ -10733,12 +10733,12 @@
         <v>86</v>
       </c>
       <c r="AA118" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B119" s="4">
         <v>9861</v>
@@ -10763,13 +10763,13 @@
         <v>8</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L119" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M119" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="N119">
         <v>1</v>
@@ -10793,7 +10793,7 @@
         <v>9</v>
       </c>
       <c r="U119" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V119">
         <v>5</v>
@@ -10805,12 +10805,12 @@
         <v>86</v>
       </c>
       <c r="AA119" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="120" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B120" s="4">
         <v>9861</v>
@@ -10835,13 +10835,13 @@
         <v>8</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L120" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M120" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N120">
         <v>1</v>
@@ -10865,7 +10865,7 @@
         <v>9</v>
       </c>
       <c r="U120" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V120">
         <v>5</v>
@@ -10877,18 +10877,18 @@
         <v>86</v>
       </c>
       <c r="AA120" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AB120" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AC120" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.2">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="121" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B121" s="4">
         <v>9861</v>
@@ -10913,13 +10913,13 @@
         <v>8</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L121" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M121" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N121">
         <v>1</v>
@@ -10943,7 +10943,7 @@
         <v>9</v>
       </c>
       <c r="U121" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V121">
         <v>5</v>
@@ -10955,15 +10955,15 @@
         <v>86</v>
       </c>
       <c r="AA121" t="s">
+        <v>287</v>
+      </c>
+      <c r="AB121" t="s">
         <v>288</v>
       </c>
-      <c r="AB121" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B122" s="4">
         <v>9861</v>
@@ -10988,13 +10988,13 @@
         <v>8</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L122" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M122" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="N122">
         <v>1</v>
@@ -11018,7 +11018,7 @@
         <v>9</v>
       </c>
       <c r="U122" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V122">
         <v>5</v>
@@ -11030,18 +11030,18 @@
         <v>86</v>
       </c>
       <c r="AA122" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AB122" t="s">
+        <v>291</v>
+      </c>
+      <c r="AC122" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="123" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="AC122" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="B123" s="4">
         <v>9861</v>
@@ -11066,13 +11066,13 @@
         <v>8</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L123" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M123" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N123">
         <v>1</v>
@@ -11096,7 +11096,7 @@
         <v>9</v>
       </c>
       <c r="U123" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V123">
         <v>5</v>
@@ -11108,18 +11108,18 @@
         <v>86</v>
       </c>
       <c r="AA123" t="s">
+        <v>293</v>
+      </c>
+      <c r="AB123" t="s">
+        <v>291</v>
+      </c>
+      <c r="AC123" t="s">
         <v>294</v>
       </c>
-      <c r="AB123" t="s">
-        <v>292</v>
-      </c>
-      <c r="AC123" t="s">
+    </row>
+    <row r="124" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
         <v>295</v>
-      </c>
-    </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="B124" s="4">
         <v>9861</v>
@@ -11144,13 +11144,13 @@
         <v>8</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L124" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M124" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="N124">
         <v>1</v>
@@ -11174,7 +11174,7 @@
         <v>9</v>
       </c>
       <c r="U124" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V124">
         <v>5</v>
@@ -11186,18 +11186,18 @@
         <v>86</v>
       </c>
       <c r="AA124" t="s">
+        <v>296</v>
+      </c>
+      <c r="AB124" t="s">
         <v>297</v>
       </c>
-      <c r="AB124" t="s">
+      <c r="AC124" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="125" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="AC124" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="B125" s="4">
         <v>9861</v>
@@ -11216,19 +11216,19 @@
         <v>4</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L125" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M125" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="N125">
         <v>1</v>
@@ -11252,7 +11252,7 @@
         <v>9</v>
       </c>
       <c r="U125" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V125">
         <v>5</v>
@@ -11264,18 +11264,18 @@
         <v>86</v>
       </c>
       <c r="AA125" t="s">
+        <v>299</v>
+      </c>
+      <c r="AB125" t="s">
         <v>300</v>
       </c>
-      <c r="AB125" t="s">
+      <c r="AC125" t="s">
         <v>301</v>
       </c>
-      <c r="AC125" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B126" s="4">
         <v>9861</v>
@@ -11294,19 +11294,19 @@
         <v>4</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L126" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M126" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="N126">
         <v>1</v>
@@ -11330,7 +11330,7 @@
         <v>9</v>
       </c>
       <c r="U126" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V126">
         <v>5</v>
@@ -11342,18 +11342,18 @@
         <v>86</v>
       </c>
       <c r="AA126" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB126" t="s">
         <v>305</v>
       </c>
-      <c r="AB126" t="s">
+      <c r="AC126" t="s">
         <v>306</v>
       </c>
-      <c r="AC126" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B127" s="4">
         <v>9861</v>
@@ -11372,19 +11372,19 @@
         <v>4</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L127" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M127" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="N127">
         <v>1</v>
@@ -11408,7 +11408,7 @@
         <v>9</v>
       </c>
       <c r="U127" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V127">
         <v>5</v>
@@ -11420,15 +11420,15 @@
         <v>86</v>
       </c>
       <c r="AA127" t="s">
+        <v>310</v>
+      </c>
+      <c r="AB127" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="128" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="AB127" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="B128" s="4">
         <v>9861</v>
@@ -11447,19 +11447,19 @@
         <v>4</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L128" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M128" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N128">
         <v>1</v>
@@ -11483,7 +11483,7 @@
         <v>9</v>
       </c>
       <c r="U128" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V128">
         <v>5</v>
@@ -11495,15 +11495,15 @@
         <v>86</v>
       </c>
       <c r="AA128" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AB128" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="129" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
         <v>314</v>
-      </c>
-    </row>
-    <row r="129" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="B129" s="4">
         <v>9861</v>
@@ -11522,19 +11522,19 @@
         <v>4</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L129" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M129" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N129">
         <v>1</v>
@@ -11558,7 +11558,7 @@
         <v>9</v>
       </c>
       <c r="U129" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V129">
         <v>5</v>
@@ -11570,15 +11570,15 @@
         <v>86</v>
       </c>
       <c r="AA129" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AB129" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
         <v>317</v>
-      </c>
-    </row>
-    <row r="130" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="B130" s="4">
         <v>9861</v>
@@ -11597,19 +11597,19 @@
         <v>4</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L130" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M130" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="N130">
         <v>1</v>
@@ -11633,7 +11633,7 @@
         <v>9</v>
       </c>
       <c r="U130" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V130">
         <v>5</v>
@@ -11645,15 +11645,15 @@
         <v>86</v>
       </c>
       <c r="AA130" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AB130" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
         <v>321</v>
-      </c>
-    </row>
-    <row r="131" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
-        <v>322</v>
       </c>
       <c r="B131" s="4">
         <v>9861</v>
@@ -11672,19 +11672,19 @@
         <v>4</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L131" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M131" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="N131">
         <v>1</v>
@@ -11708,7 +11708,7 @@
         <v>9</v>
       </c>
       <c r="U131" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V131">
         <v>4</v>
@@ -11720,18 +11720,18 @@
         <v>86</v>
       </c>
       <c r="AA131" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AB131" t="s">
+        <v>322</v>
+      </c>
+      <c r="AC131" t="s">
         <v>323</v>
       </c>
-      <c r="AC131" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="132" spans="1:29" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B132" s="4">
         <v>9861</v>
@@ -11750,19 +11750,19 @@
         <v>4</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L132" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M132" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="N132">
         <v>1</v>
@@ -11786,7 +11786,7 @@
         <v>9</v>
       </c>
       <c r="U132" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V132">
         <v>9</v>
@@ -11795,21 +11795,21 @@
         <v>2358</v>
       </c>
       <c r="Z132" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AA132" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AB132" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AC132" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="133" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="133" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="B133" s="4">
         <v>9861</v>
@@ -11828,20 +11828,20 @@
         <v>4</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L133" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="M133" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="M133" s="9" t="s">
-        <v>505</v>
-      </c>
       <c r="N133">
         <v>1</v>
       </c>
@@ -11864,7 +11864,7 @@
         <v>9</v>
       </c>
       <c r="U133" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V133">
         <v>9</v>
@@ -11876,18 +11876,18 @@
         <v>86</v>
       </c>
       <c r="AA133" t="s">
+        <v>330</v>
+      </c>
+      <c r="AB133" t="s">
         <v>331</v>
       </c>
-      <c r="AB133" t="s">
-        <v>332</v>
-      </c>
       <c r="AC133" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
         <v>335</v>
-      </c>
-    </row>
-    <row r="134" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="B134" s="4">
         <v>9861</v>
@@ -11906,19 +11906,19 @@
         <v>4</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L134" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M134" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="N134">
         <v>1</v>
@@ -11942,7 +11942,7 @@
         <v>9</v>
       </c>
       <c r="U134" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V134">
         <v>9</v>
@@ -11954,15 +11954,15 @@
         <v>86</v>
       </c>
       <c r="AA134" t="s">
+        <v>337</v>
+      </c>
+      <c r="AB134" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="AB134" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="135" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="B135" s="4">
         <v>9861</v>
@@ -11981,19 +11981,19 @@
         <v>4</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L135" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M135" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="N135">
         <v>1</v>
@@ -12017,7 +12017,7 @@
         <v>9</v>
       </c>
       <c r="U135" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V135">
         <v>9</v>
@@ -12029,15 +12029,15 @@
         <v>86</v>
       </c>
       <c r="AA135" t="s">
+        <v>339</v>
+      </c>
+      <c r="AB135" t="s">
         <v>340</v>
       </c>
-      <c r="AB135" t="s">
+    </row>
+    <row r="136" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
         <v>341</v>
-      </c>
-    </row>
-    <row r="136" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="B136" s="4">
         <v>9861</v>
@@ -12056,19 +12056,19 @@
         <v>4</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L136" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M136" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="N136">
         <v>1</v>
@@ -12092,7 +12092,7 @@
         <v>9</v>
       </c>
       <c r="U136" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V136">
         <v>9</v>
@@ -12104,18 +12104,18 @@
         <v>86</v>
       </c>
       <c r="AA136" t="s">
+        <v>343</v>
+      </c>
+      <c r="AB136" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC136" t="s">
         <v>344</v>
       </c>
-      <c r="AB136" t="s">
-        <v>343</v>
-      </c>
-      <c r="AC136" t="s">
+    </row>
+    <row r="137" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
         <v>345</v>
-      </c>
-    </row>
-    <row r="137" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A137" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="B137" s="4">
         <v>9861</v>
@@ -12134,19 +12134,19 @@
         <v>4</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L137" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M137" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N137">
         <v>1</v>
@@ -12170,7 +12170,7 @@
         <v>9</v>
       </c>
       <c r="U137" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V137">
         <v>9</v>
@@ -12182,15 +12182,15 @@
         <v>86</v>
       </c>
       <c r="AA137" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AB137" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="138" spans="1:29" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B138" s="4">
         <v>9861</v>
@@ -12209,19 +12209,19 @@
         <v>4</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L138" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M138" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="N138">
         <v>1</v>
@@ -12245,7 +12245,7 @@
         <v>9</v>
       </c>
       <c r="U138" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V138">
         <v>9</v>
@@ -12257,18 +12257,18 @@
         <v>86</v>
       </c>
       <c r="AA138" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AB138" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AC138" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="139" spans="1:29" x14ac:dyDescent="0.2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="139" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B139" s="4">
         <v>9861</v>
@@ -12287,19 +12287,19 @@
         <v>4</v>
       </c>
       <c r="I139" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L139" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M139" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="N139">
         <v>1</v>
@@ -12323,7 +12323,7 @@
         <v>9</v>
       </c>
       <c r="U139" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V139">
         <v>9</v>
@@ -12335,15 +12335,15 @@
         <v>86</v>
       </c>
       <c r="AA139" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AB139" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="140" spans="1:29" x14ac:dyDescent="0.2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="140" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B140" s="4">
         <v>9861</v>
@@ -12362,19 +12362,19 @@
         <v>4</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L140" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M140" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="N140">
         <v>1</v>
@@ -12398,7 +12398,7 @@
         <v>9</v>
       </c>
       <c r="U140" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V140">
         <v>9</v>
@@ -12410,15 +12410,15 @@
         <v>86</v>
       </c>
       <c r="AA140" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AB140" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="141" spans="1:29" x14ac:dyDescent="0.2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="141" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B141" s="4">
         <v>9861</v>
@@ -12437,19 +12437,19 @@
         <v>4</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L141" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M141" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="N141">
         <v>1</v>
@@ -12473,7 +12473,7 @@
         <v>9</v>
       </c>
       <c r="U141" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V141">
         <v>9</v>
@@ -12485,15 +12485,15 @@
         <v>86</v>
       </c>
       <c r="AA141" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AB141" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="142" spans="1:29" x14ac:dyDescent="0.2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="142" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B142" s="4">
         <v>9861</v>
@@ -12512,19 +12512,19 @@
         <v>4</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L142" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M142" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="N142">
         <v>1</v>
@@ -12548,7 +12548,7 @@
         <v>9</v>
       </c>
       <c r="U142" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V142">
         <v>9</v>
@@ -12560,15 +12560,15 @@
         <v>86</v>
       </c>
       <c r="AA142" t="s">
+        <v>359</v>
+      </c>
+      <c r="AB142" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="143" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="AB142" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="143" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
-        <v>361</v>
       </c>
       <c r="B143" s="4">
         <v>9861</v>
@@ -12587,19 +12587,19 @@
         <v>4</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L143" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M143" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N143">
         <v>1</v>
@@ -12623,7 +12623,7 @@
         <v>9</v>
       </c>
       <c r="U143" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V143">
         <v>9</v>
@@ -12635,15 +12635,15 @@
         <v>86</v>
       </c>
       <c r="AA143" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AB143" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="144" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
         <v>362</v>
-      </c>
-    </row>
-    <row r="144" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A144" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="B144" s="4">
         <v>9861</v>
@@ -12662,19 +12662,19 @@
         <v>4</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L144" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M144" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="N144">
         <v>1</v>
@@ -12698,7 +12698,7 @@
         <v>9</v>
       </c>
       <c r="U144" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V144">
         <v>9</v>
@@ -12710,15 +12710,15 @@
         <v>86</v>
       </c>
       <c r="AA144" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AB144" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="145" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
         <v>364</v>
-      </c>
-    </row>
-    <row r="145" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A145" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="B145" s="4">
         <v>9861</v>
@@ -12737,19 +12737,19 @@
         <v>4</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L145" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M145" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="N145">
         <v>1</v>
@@ -12773,7 +12773,7 @@
         <v>9</v>
       </c>
       <c r="U145" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V145">
         <v>9</v>
@@ -12785,15 +12785,15 @@
         <v>86</v>
       </c>
       <c r="AA145" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AB145" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="146" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
         <v>366</v>
-      </c>
-    </row>
-    <row r="146" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A146" s="1" t="s">
-        <v>367</v>
       </c>
       <c r="B146" s="4">
         <v>9861</v>
@@ -12812,19 +12812,19 @@
         <v>4</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L146" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M146" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N146">
         <v>1</v>
@@ -12848,7 +12848,7 @@
         <v>9</v>
       </c>
       <c r="U146" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V146">
         <v>9</v>
@@ -12860,15 +12860,15 @@
         <v>86</v>
       </c>
       <c r="AA146" t="s">
+        <v>367</v>
+      </c>
+      <c r="AB146" t="s">
         <v>368</v>
       </c>
-      <c r="AB146" t="s">
+    </row>
+    <row r="147" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
         <v>369</v>
-      </c>
-    </row>
-    <row r="147" spans="1:29" ht="15" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="B147" s="4">
         <v>9861</v>
@@ -12887,19 +12887,19 @@
         <v>4</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L147" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M147" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N147">
         <v>1</v>
@@ -12923,7 +12923,7 @@
         <v>9</v>
       </c>
       <c r="U147" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V147">
         <v>9</v>
@@ -12932,21 +12932,21 @@
         <v>2358</v>
       </c>
       <c r="Z147" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AA147" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AB147" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AC147" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="148" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
         <v>371</v>
-      </c>
-    </row>
-    <row r="148" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A148" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="B148" s="4">
         <v>9861</v>
@@ -12965,19 +12965,19 @@
         <v>4</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L148" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M148" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N148">
         <v>1</v>
@@ -13001,7 +13001,7 @@
         <v>9</v>
       </c>
       <c r="U148" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V148">
         <v>9</v>
@@ -13013,15 +13013,15 @@
         <v>86</v>
       </c>
       <c r="AA148" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AB148" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="149" spans="1:29" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="149" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B149" s="4">
         <v>9861</v>
@@ -13040,19 +13040,19 @@
         <v>4</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L149" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M149" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N149">
         <v>1</v>
@@ -13076,7 +13076,7 @@
         <v>9</v>
       </c>
       <c r="U149" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V149">
         <v>9</v>
@@ -13088,15 +13088,15 @@
         <v>86</v>
       </c>
       <c r="AA149" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AB149" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="150" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
         <v>374</v>
-      </c>
-    </row>
-    <row r="150" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A150" s="1" t="s">
-        <v>375</v>
       </c>
       <c r="B150" s="4">
         <v>9861</v>
@@ -13115,19 +13115,19 @@
         <v>4</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L150" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M150" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N150">
         <v>1</v>
@@ -13151,7 +13151,7 @@
         <v>9</v>
       </c>
       <c r="U150" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V150">
         <v>9</v>
@@ -13163,15 +13163,15 @@
         <v>86</v>
       </c>
       <c r="AA150" t="s">
+        <v>375</v>
+      </c>
+      <c r="AB150" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="151" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="AB150" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="151" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A151" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="B151" s="4">
         <v>9861</v>
@@ -13190,19 +13190,19 @@
         <v>4</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L151" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M151" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N151">
         <v>1</v>
@@ -13226,7 +13226,7 @@
         <v>9</v>
       </c>
       <c r="U151" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V151">
         <v>9</v>
@@ -13238,18 +13238,18 @@
         <v>86</v>
       </c>
       <c r="AA151" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AB151" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC151" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="152" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="AC151" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="152" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A152" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="B152" s="4">
         <v>9861</v>
@@ -13268,19 +13268,19 @@
         <v>4</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L152" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M152" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="N152">
         <v>1</v>
@@ -13304,7 +13304,7 @@
         <v>9</v>
       </c>
       <c r="U152" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V152">
         <v>9</v>
@@ -13316,15 +13316,15 @@
         <v>86</v>
       </c>
       <c r="AA152" t="s">
+        <v>380</v>
+      </c>
+      <c r="AB152" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="153" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="AB152" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="153" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A153" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="B153" s="4">
         <v>9861</v>
@@ -13343,19 +13343,19 @@
         <v>4</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L153" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M153" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="N153">
         <v>1</v>
@@ -13379,7 +13379,7 @@
         <v>9</v>
       </c>
       <c r="U153" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V153">
         <v>9</v>
@@ -13391,15 +13391,15 @@
         <v>86</v>
       </c>
       <c r="AA153" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AB153" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="154" spans="1:29" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="154" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B154" s="4">
         <v>9861</v>
@@ -13418,19 +13418,19 @@
         <v>4</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L154" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M154" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="N154">
         <v>1</v>
@@ -13454,7 +13454,7 @@
         <v>9</v>
       </c>
       <c r="U154" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V154">
         <v>9</v>
@@ -13466,18 +13466,18 @@
         <v>86</v>
       </c>
       <c r="AA154" t="s">
+        <v>383</v>
+      </c>
+      <c r="AB154" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC154" t="s">
         <v>384</v>
       </c>
-      <c r="AB154" t="s">
-        <v>379</v>
-      </c>
-      <c r="AC154" t="s">
+    </row>
+    <row r="155" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
         <v>385</v>
-      </c>
-    </row>
-    <row r="155" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A155" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="B155" s="4">
         <v>9861</v>
@@ -13496,19 +13496,19 @@
         <v>4</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L155" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M155" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N155">
         <v>1</v>
@@ -13532,7 +13532,7 @@
         <v>9</v>
       </c>
       <c r="U155" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V155">
         <v>9</v>
@@ -13544,15 +13544,15 @@
         <v>86</v>
       </c>
       <c r="AA155" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AB155" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="156" spans="1:29" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="156" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B156" s="4">
         <v>9861</v>
@@ -13571,19 +13571,19 @@
         <v>4</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L156" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M156" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="N156">
         <v>1</v>
@@ -13607,7 +13607,7 @@
         <v>9</v>
       </c>
       <c r="U156" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V156">
         <v>9</v>
@@ -13619,15 +13619,15 @@
         <v>86</v>
       </c>
       <c r="AA156" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB156" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="157" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="AB156" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="157" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A157" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="B157" s="4">
         <v>9861</v>
@@ -13646,19 +13646,19 @@
         <v>4</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L157" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M157" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N157">
         <v>1</v>
@@ -13682,7 +13682,7 @@
         <v>9</v>
       </c>
       <c r="U157" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V157">
         <v>9</v>
@@ -13694,15 +13694,15 @@
         <v>86</v>
       </c>
       <c r="AA157" t="s">
+        <v>389</v>
+      </c>
+      <c r="AB157" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="158" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="AB157" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="158" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A158" s="1" t="s">
-        <v>391</v>
       </c>
       <c r="B158" s="4">
         <v>9861</v>
@@ -13721,19 +13721,19 @@
         <v>4</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L158" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M158" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="N158">
         <v>1</v>
@@ -13757,7 +13757,7 @@
         <v>9</v>
       </c>
       <c r="U158" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V158">
         <v>9</v>
@@ -13769,13 +13769,13 @@
         <v>86</v>
       </c>
       <c r="AA158" t="s">
+        <v>391</v>
+      </c>
+      <c r="AB158" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC158" t="s">
         <v>392</v>
-      </c>
-      <c r="AB158" t="s">
-        <v>379</v>
-      </c>
-      <c r="AC158" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="159" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
@@ -13806,10 +13806,10 @@
       </c>
       <c r="K159" s="1"/>
       <c r="L159" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M159" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="N159">
         <v>1</v>
@@ -13833,7 +13833,7 @@
         <v>9</v>
       </c>
       <c r="U159" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V159">
         <v>5</v>
@@ -13879,10 +13879,10 @@
       </c>
       <c r="K160" s="1"/>
       <c r="L160" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M160" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="N160">
         <v>1</v>
@@ -13906,7 +13906,7 @@
         <v>9</v>
       </c>
       <c r="U160" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V160">
         <v>5</v>
@@ -13955,10 +13955,10 @@
       </c>
       <c r="K161" s="1"/>
       <c r="L161" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M161" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="N161">
         <v>1</v>
@@ -13982,7 +13982,7 @@
         <v>9</v>
       </c>
       <c r="U161" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V161">
         <v>5</v>
@@ -14031,10 +14031,10 @@
       </c>
       <c r="K162" s="1"/>
       <c r="L162" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M162" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="N162">
         <v>1</v>
@@ -14058,7 +14058,7 @@
         <v>9</v>
       </c>
       <c r="U162" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V162">
         <v>5</v>
@@ -14107,10 +14107,10 @@
       </c>
       <c r="K163" s="1"/>
       <c r="L163" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M163" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="N163">
         <v>1</v>
@@ -14134,7 +14134,7 @@
         <v>9</v>
       </c>
       <c r="U163" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V163">
         <v>5</v>
@@ -14183,10 +14183,10 @@
       </c>
       <c r="K164" s="1"/>
       <c r="L164" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M164" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="N164">
         <v>1</v>
@@ -14210,7 +14210,7 @@
         <v>9</v>
       </c>
       <c r="U164" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="V164">
         <v>5</v>
@@ -14257,7 +14257,7 @@
         <v>8</v>
       </c>
       <c r="L165" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M165" s="7" t="s">
         <v>86</v>
@@ -14302,7 +14302,7 @@
       </c>
       <c r="K166" s="7"/>
       <c r="L166" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M166" s="7" t="s">
         <v>86</v>
@@ -14344,7 +14344,7 @@
       </c>
       <c r="K167" s="7"/>
       <c r="L167" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M167" s="7" t="s">
         <v>86</v>
@@ -14386,7 +14386,7 @@
       </c>
       <c r="K168" s="7"/>
       <c r="L168" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M168" s="7" t="s">
         <v>86</v>
@@ -14428,7 +14428,7 @@
       </c>
       <c r="K169" s="7"/>
       <c r="L169" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M169" s="7" t="s">
         <v>86</v>
@@ -14470,7 +14470,7 @@
       </c>
       <c r="K170" s="7"/>
       <c r="L170" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M170" s="7" t="s">
         <v>86</v>
@@ -14512,7 +14512,7 @@
       </c>
       <c r="K171" s="7"/>
       <c r="L171" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M171" s="7" t="s">
         <v>86</v>
@@ -14554,7 +14554,7 @@
       </c>
       <c r="K172" s="7"/>
       <c r="L172" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M172" s="7" t="s">
         <v>86</v>
@@ -14596,7 +14596,7 @@
       </c>
       <c r="K173" s="7"/>
       <c r="L173" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M173" s="7" t="s">
         <v>86</v>
@@ -14638,7 +14638,7 @@
       </c>
       <c r="K174" s="7"/>
       <c r="L174" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M174" s="7" t="s">
         <v>86</v>
@@ -14657,7 +14657,7 @@
   <autoFilter ref="A1:AC174">
     <filterColumn colId="1">
       <filters>
-        <filter val="9861"/>
+        <filter val="2289"/>
       </filters>
     </filterColumn>
     <sortState ref="A2:Y47">

--- a/inclusion_lists/exp_summary.xlsx
+++ b/inclusion_lists/exp_summary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2155" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="598">
   <si>
     <t>date</t>
   </si>
@@ -1814,13 +1814,16 @@
     <t>{'DG','CA3','CA1','DG'}</t>
   </si>
   <si>
-    <t>{'???','WM','???','???'}</t>
-  </si>
-  <si>
     <t>problem with nlg clock diff (huge values)</t>
   </si>
   <si>
     <t>very small cells; probably omnetics got disconnected in the middle (abrupt noise from the middle)</t>
+  </si>
+  <si>
+    <t>{'WM','WM','CA1','CA1'}</t>
+  </si>
+  <si>
+    <t>{'CA1','CA1','CA1','WM'}</t>
   </si>
 </sst>
 </file>
@@ -2572,14 +2575,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AC174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB100" sqref="AB100"/>
+      <selection pane="bottomRight" activeCell="K102" sqref="K102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2703,7 +2705,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="2" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>190</v>
       </c>
@@ -2781,7 +2783,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>191</v>
       </c>
@@ -2859,7 +2861,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>192</v>
       </c>
@@ -2937,7 +2939,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>193</v>
       </c>
@@ -3015,7 +3017,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>196</v>
       </c>
@@ -3042,7 +3044,7 @@
         <v>8</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="L6" s="10" t="s">
         <v>498</v>
@@ -3093,7 +3095,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>195</v>
       </c>
@@ -3120,7 +3122,7 @@
         <v>8</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="L7" s="10" t="s">
         <v>498</v>
@@ -3171,7 +3173,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>197</v>
       </c>
@@ -3249,7 +3251,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>201</v>
       </c>
@@ -3327,7 +3329,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>204</v>
       </c>
@@ -3405,7 +3407,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>208</v>
       </c>
@@ -3480,7 +3482,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>211</v>
       </c>
@@ -3558,7 +3560,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>213</v>
       </c>
@@ -3633,7 +3635,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>215</v>
       </c>
@@ -3708,7 +3710,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="15" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>217</v>
       </c>
@@ -3783,7 +3785,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="16" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>220</v>
       </c>
@@ -3858,7 +3860,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="17" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>223</v>
       </c>
@@ -3933,7 +3935,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="18" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>225</v>
       </c>
@@ -4008,7 +4010,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>230</v>
       </c>
@@ -4083,7 +4085,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="20" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -4125,7 +4127,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -4167,7 +4169,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
@@ -4209,7 +4211,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -4251,7 +4253,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
@@ -4293,7 +4295,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>44</v>
       </c>
@@ -4335,7 +4337,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>45</v>
       </c>
@@ -4377,7 +4379,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
@@ -4419,7 +4421,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>47</v>
       </c>
@@ -4461,7 +4463,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -4511,7 +4513,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>13</v>
       </c>
@@ -4561,7 +4563,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>14</v>
       </c>
@@ -4620,7 +4622,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>15</v>
       </c>
@@ -4679,7 +4681,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
@@ -4738,7 +4740,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>17</v>
       </c>
@@ -4797,7 +4799,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -4856,7 +4858,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>20</v>
       </c>
@@ -4915,7 +4917,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
@@ -4983,7 +4985,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>22</v>
       </c>
@@ -5042,7 +5044,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>23</v>
       </c>
@@ -5104,7 +5106,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="40" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
@@ -5163,7 +5165,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>24</v>
       </c>
@@ -5222,7 +5224,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>25</v>
       </c>
@@ -5290,7 +5292,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>26</v>
       </c>
@@ -5352,7 +5354,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="44" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>27</v>
       </c>
@@ -5411,7 +5413,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>28</v>
       </c>
@@ -5470,7 +5472,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>29</v>
       </c>
@@ -5529,7 +5531,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>30</v>
       </c>
@@ -5588,7 +5590,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>31</v>
       </c>
@@ -5656,7 +5658,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>32</v>
       </c>
@@ -5715,7 +5717,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>6</v>
       </c>
@@ -5783,7 +5785,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>33</v>
       </c>
@@ -5851,7 +5853,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>34</v>
       </c>
@@ -5910,7 +5912,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>35</v>
       </c>
@@ -5969,7 +5971,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>36</v>
       </c>
@@ -6028,7 +6030,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>37</v>
       </c>
@@ -6087,7 +6089,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>57</v>
       </c>
@@ -6164,7 +6166,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>62</v>
       </c>
@@ -6238,7 +6240,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>65</v>
       </c>
@@ -6312,7 +6314,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>70</v>
       </c>
@@ -6386,7 +6388,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>73</v>
       </c>
@@ -6460,7 +6462,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>76</v>
       </c>
@@ -6534,7 +6536,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="62" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>79</v>
       </c>
@@ -6608,7 +6610,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>82</v>
       </c>
@@ -6682,7 +6684,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>87</v>
       </c>
@@ -6756,7 +6758,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>89</v>
       </c>
@@ -6830,7 +6832,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="66" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>91</v>
       </c>
@@ -6904,7 +6906,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="67" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>94</v>
       </c>
@@ -6978,7 +6980,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="68" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>96</v>
       </c>
@@ -7052,7 +7054,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>99</v>
       </c>
@@ -7126,7 +7128,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="70" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>102</v>
       </c>
@@ -7200,7 +7202,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="71" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>104</v>
       </c>
@@ -7274,7 +7276,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="72" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>107</v>
       </c>
@@ -7348,7 +7350,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="73" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>110</v>
       </c>
@@ -7422,7 +7424,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="74" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>112</v>
       </c>
@@ -7496,7 +7498,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="75" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>115</v>
       </c>
@@ -7570,7 +7572,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="76" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>118</v>
       </c>
@@ -7644,7 +7646,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>120</v>
       </c>
@@ -7706,7 +7708,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="78" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>122</v>
       </c>
@@ -7780,7 +7782,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="79" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>126</v>
       </c>
@@ -7854,7 +7856,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="80" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>129</v>
       </c>
@@ -7931,7 +7933,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="81" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>132</v>
       </c>
@@ -8008,7 +8010,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="82" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>135</v>
       </c>
@@ -8082,7 +8084,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="83" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>138</v>
       </c>
@@ -8159,7 +8161,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="84" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>141</v>
       </c>
@@ -8233,7 +8235,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="85" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>144</v>
       </c>
@@ -8307,7 +8309,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="86" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>147</v>
       </c>
@@ -8381,7 +8383,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="87" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>150</v>
       </c>
@@ -8455,7 +8457,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="88" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>153</v>
       </c>
@@ -8529,7 +8531,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="89" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>156</v>
       </c>
@@ -8606,7 +8608,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="90" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>159</v>
       </c>
@@ -8680,7 +8682,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="91" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>161</v>
       </c>
@@ -8932,7 +8934,9 @@
       <c r="J94" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="1"/>
+      <c r="K94" t="s">
+        <v>588</v>
+      </c>
       <c r="L94" s="10" t="s">
         <v>498</v>
       </c>
@@ -9008,7 +9012,9 @@
       <c r="J95" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K95" s="1"/>
+      <c r="K95" t="s">
+        <v>588</v>
+      </c>
       <c r="L95" s="10" t="s">
         <v>498</v>
       </c>
@@ -9078,7 +9084,9 @@
       <c r="J96" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K96" s="1"/>
+      <c r="K96" t="s">
+        <v>597</v>
+      </c>
       <c r="L96" s="10" t="s">
         <v>498</v>
       </c>
@@ -9151,7 +9159,9 @@
       <c r="J97" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K97" s="1"/>
+      <c r="K97" t="s">
+        <v>597</v>
+      </c>
       <c r="L97" s="10" t="s">
         <v>498</v>
       </c>
@@ -9224,7 +9234,9 @@
       <c r="J98" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K98" s="1"/>
+      <c r="K98" t="s">
+        <v>597</v>
+      </c>
       <c r="L98" s="10" t="s">
         <v>498</v>
       </c>
@@ -9297,7 +9309,9 @@
       <c r="J99" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K99" s="1"/>
+      <c r="K99" t="s">
+        <v>597</v>
+      </c>
       <c r="L99" s="10" t="s">
         <v>498</v>
       </c>
@@ -9341,7 +9355,7 @@
         <v>272</v>
       </c>
       <c r="AB99" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="100" spans="1:29" x14ac:dyDescent="0.2">
@@ -9370,7 +9384,9 @@
       <c r="J100" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="1"/>
+      <c r="K100" t="s">
+        <v>597</v>
+      </c>
       <c r="L100" s="10" t="s">
         <v>498</v>
       </c>
@@ -9440,7 +9456,9 @@
       <c r="J101" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="1"/>
+      <c r="K101" t="s">
+        <v>597</v>
+      </c>
       <c r="L101" s="10" t="s">
         <v>498</v>
       </c>
@@ -9992,7 +10010,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="109" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>244</v>
       </c>
@@ -10067,7 +10085,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="110" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>245</v>
       </c>
@@ -10142,7 +10160,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="111" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>249</v>
       </c>
@@ -10217,7 +10235,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="112" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>252</v>
       </c>
@@ -10292,7 +10310,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="113" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>258</v>
       </c>
@@ -10367,7 +10385,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="114" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>261</v>
       </c>
@@ -10442,7 +10460,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="115" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>265</v>
       </c>
@@ -10517,7 +10535,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="116" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>268</v>
       </c>
@@ -10592,7 +10610,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="117" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>273</v>
       </c>
@@ -10664,7 +10682,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="118" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>275</v>
       </c>
@@ -10736,7 +10754,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="119" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>276</v>
       </c>
@@ -10808,7 +10826,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="120" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>280</v>
       </c>
@@ -10883,10 +10901,10 @@
         <v>281</v>
       </c>
       <c r="AC120" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="121" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="121" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>286</v>
       </c>
@@ -10961,7 +10979,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="122" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>290</v>
       </c>
@@ -11039,7 +11057,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="123" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>292</v>
       </c>
@@ -11117,7 +11135,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="124" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>295</v>
       </c>
@@ -11195,7 +11213,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="125" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>298</v>
       </c>
@@ -11273,7 +11291,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="126" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>303</v>
       </c>
@@ -11351,7 +11369,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="127" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>309</v>
       </c>
@@ -11426,7 +11444,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="128" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>311</v>
       </c>
@@ -11501,7 +11519,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="129" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>314</v>
       </c>
@@ -11576,7 +11594,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="130" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>317</v>
       </c>
@@ -11651,7 +11669,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="131" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>321</v>
       </c>
@@ -11729,7 +11747,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="132" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>327</v>
       </c>
@@ -11807,7 +11825,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="133" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>329</v>
       </c>
@@ -11885,7 +11903,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="134" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>335</v>
       </c>
@@ -11960,7 +11978,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="135" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>338</v>
       </c>
@@ -12035,7 +12053,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="136" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>341</v>
       </c>
@@ -12113,7 +12131,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="137" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>345</v>
       </c>
@@ -12188,7 +12206,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="138" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>351</v>
       </c>
@@ -12266,7 +12284,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="139" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>355</v>
       </c>
@@ -12341,7 +12359,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="140" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>356</v>
       </c>
@@ -12416,7 +12434,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="141" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>357</v>
       </c>
@@ -12491,7 +12509,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="142" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>358</v>
       </c>
@@ -12566,7 +12584,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="143" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>360</v>
       </c>
@@ -12641,7 +12659,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="144" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>362</v>
       </c>
@@ -12716,7 +12734,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="145" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>364</v>
       </c>
@@ -12791,7 +12809,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="146" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>366</v>
       </c>
@@ -12866,7 +12884,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="147" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>369</v>
       </c>
@@ -12944,7 +12962,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="148" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>371</v>
       </c>
@@ -13019,7 +13037,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="149" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>372</v>
       </c>
@@ -13094,7 +13112,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="150" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>374</v>
       </c>
@@ -13169,7 +13187,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="151" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>376</v>
       </c>
@@ -13247,7 +13265,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="152" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>379</v>
       </c>
@@ -13322,7 +13340,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="153" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>381</v>
       </c>
@@ -13397,7 +13415,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="154" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>382</v>
       </c>
@@ -13475,7 +13493,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="155" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>385</v>
       </c>
@@ -13550,7 +13568,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="156" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>386</v>
       </c>
@@ -13625,7 +13643,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="157" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>388</v>
       </c>
@@ -13700,7 +13718,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="158" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>390</v>
       </c>
@@ -13778,7 +13796,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="159" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>167</v>
       </c>
@@ -13851,7 +13869,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="160" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>173</v>
       </c>
@@ -13927,7 +13945,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="161" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>174</v>
       </c>
@@ -14003,7 +14021,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="162" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>177</v>
       </c>
@@ -14079,7 +14097,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="163" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>179</v>
       </c>
@@ -14155,7 +14173,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="164" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>182</v>
       </c>
@@ -14231,7 +14249,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="165" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>48</v>
       </c>
@@ -14275,7 +14293,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="166" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>49</v>
       </c>
@@ -14317,7 +14335,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="167" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>50</v>
       </c>
@@ -14359,7 +14377,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="168" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>51</v>
       </c>
@@ -14401,7 +14419,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="169" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>52</v>
       </c>
@@ -14443,7 +14461,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="170" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>53</v>
       </c>
@@ -14485,7 +14503,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="171" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>54</v>
       </c>
@@ -14527,7 +14545,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="172" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>55</v>
       </c>
@@ -14569,7 +14587,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="173" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>56</v>
       </c>
@@ -14611,7 +14629,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="174" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>12</v>
       </c>
@@ -14655,11 +14673,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AC174">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="2289"/>
-      </filters>
-    </filterColumn>
     <sortState ref="A2:Y47">
       <sortCondition ref="D1:D39"/>
     </sortState>

--- a/inclusion_lists/exp_summary.xlsx
+++ b/inclusion_lists/exp_summary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2199" uniqueCount="599">
   <si>
     <t>date</t>
   </si>
@@ -1793,9 +1793,6 @@
     <t>{'CA1','N/A','N/A','CA1'}</t>
   </si>
   <si>
-    <t>{'CA1','WM',WM','CA1'}</t>
-  </si>
-  <si>
     <t>{'CA1','CA1','CA1','CA1'}</t>
   </si>
   <si>
@@ -1824,6 +1821,12 @@
   </si>
   <si>
     <t>{'CA1','CA1','CA1','WM'}</t>
+  </si>
+  <si>
+    <t>{'TBD','TBD','TBD','TBD'}</t>
+  </si>
+  <si>
+    <t>{'CA1','WM','WM','CA1'}</t>
   </si>
 </sst>
 </file>
@@ -2578,10 +2581,10 @@
   <dimension ref="A1:AC174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B94" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K102" sqref="K102"/>
+      <selection pane="bottomRight" activeCell="K112" sqref="K112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3044,7 +3047,7 @@
         <v>8</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L6" s="10" t="s">
         <v>498</v>
@@ -3122,7 +3125,7 @@
         <v>8</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L7" s="10" t="s">
         <v>498</v>
@@ -4110,7 +4113,9 @@
       <c r="J20" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K20" s="7"/>
+      <c r="K20" t="s">
+        <v>597</v>
+      </c>
       <c r="L20" s="10" t="s">
         <v>498</v>
       </c>
@@ -4152,7 +4157,9 @@
       <c r="J21" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K21" s="7"/>
+      <c r="K21" t="s">
+        <v>597</v>
+      </c>
       <c r="L21" s="10" t="s">
         <v>498</v>
       </c>
@@ -4194,7 +4201,9 @@
       <c r="J22" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K22" s="7"/>
+      <c r="K22" t="s">
+        <v>597</v>
+      </c>
       <c r="L22" s="10" t="s">
         <v>498</v>
       </c>
@@ -4236,7 +4245,9 @@
       <c r="J23" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K23" s="7"/>
+      <c r="K23" t="s">
+        <v>597</v>
+      </c>
       <c r="L23" s="10" t="s">
         <v>498</v>
       </c>
@@ -4278,7 +4289,9 @@
       <c r="J24" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K24" s="7"/>
+      <c r="K24" t="s">
+        <v>597</v>
+      </c>
       <c r="L24" s="10" t="s">
         <v>498</v>
       </c>
@@ -4320,7 +4333,9 @@
       <c r="J25" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K25" s="7"/>
+      <c r="K25" t="s">
+        <v>597</v>
+      </c>
       <c r="L25" s="10" t="s">
         <v>498</v>
       </c>
@@ -4362,7 +4377,9 @@
       <c r="J26" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K26" s="7"/>
+      <c r="K26" t="s">
+        <v>597</v>
+      </c>
       <c r="L26" s="10" t="s">
         <v>498</v>
       </c>
@@ -4404,7 +4421,9 @@
       <c r="J27" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K27" s="7"/>
+      <c r="K27" t="s">
+        <v>597</v>
+      </c>
       <c r="L27" s="10" t="s">
         <v>498</v>
       </c>
@@ -4446,7 +4465,9 @@
       <c r="J28" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K28" s="7"/>
+      <c r="K28" t="s">
+        <v>597</v>
+      </c>
       <c r="L28" s="10" t="s">
         <v>498</v>
       </c>
@@ -4487,6 +4508,9 @@
       </c>
       <c r="J29" t="s">
         <v>8</v>
+      </c>
+      <c r="K29" t="s">
+        <v>597</v>
       </c>
       <c r="L29" s="10" t="s">
         <v>561</v>
@@ -4538,6 +4562,9 @@
       <c r="J30" t="s">
         <v>8</v>
       </c>
+      <c r="K30" t="s">
+        <v>597</v>
+      </c>
       <c r="L30" s="10" t="s">
         <v>561</v>
       </c>
@@ -8785,7 +8812,9 @@
       <c r="J92" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K92" s="1"/>
+      <c r="K92" t="s">
+        <v>597</v>
+      </c>
       <c r="L92" s="10" t="s">
         <v>498</v>
       </c>
@@ -8858,7 +8887,9 @@
       <c r="J93" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K93" s="1"/>
+      <c r="K93" t="s">
+        <v>597</v>
+      </c>
       <c r="L93" s="10" t="s">
         <v>498</v>
       </c>
@@ -8935,7 +8966,7 @@
         <v>8</v>
       </c>
       <c r="K94" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L94" s="10" t="s">
         <v>498</v>
@@ -9013,7 +9044,7 @@
         <v>8</v>
       </c>
       <c r="K95" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L95" s="10" t="s">
         <v>498</v>
@@ -9085,7 +9116,7 @@
         <v>8</v>
       </c>
       <c r="K96" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L96" s="10" t="s">
         <v>498</v>
@@ -9160,7 +9191,7 @@
         <v>8</v>
       </c>
       <c r="K97" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L97" s="10" t="s">
         <v>498</v>
@@ -9235,7 +9266,7 @@
         <v>8</v>
       </c>
       <c r="K98" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L98" s="10" t="s">
         <v>498</v>
@@ -9310,7 +9341,7 @@
         <v>8</v>
       </c>
       <c r="K99" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L99" s="10" t="s">
         <v>498</v>
@@ -9355,7 +9386,7 @@
         <v>272</v>
       </c>
       <c r="AB99" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="100" spans="1:29" x14ac:dyDescent="0.2">
@@ -9385,7 +9416,7 @@
         <v>8</v>
       </c>
       <c r="K100" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L100" s="10" t="s">
         <v>498</v>
@@ -9457,7 +9488,7 @@
         <v>8</v>
       </c>
       <c r="K101" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L101" s="10" t="s">
         <v>498</v>
@@ -9528,7 +9559,9 @@
       <c r="J102" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K102" s="1"/>
+      <c r="K102" t="s">
+        <v>597</v>
+      </c>
       <c r="L102" s="10" t="s">
         <v>498</v>
       </c>
@@ -9601,7 +9634,9 @@
       <c r="J103" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K103" s="1"/>
+      <c r="K103" t="s">
+        <v>597</v>
+      </c>
       <c r="L103" s="10" t="s">
         <v>498</v>
       </c>
@@ -9674,7 +9709,9 @@
       <c r="J104" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K104" s="1"/>
+      <c r="K104" t="s">
+        <v>597</v>
+      </c>
       <c r="L104" s="10" t="s">
         <v>498</v>
       </c>
@@ -9750,7 +9787,9 @@
       <c r="J105" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K105" s="1"/>
+      <c r="K105" t="s">
+        <v>597</v>
+      </c>
       <c r="L105" s="10" t="s">
         <v>561</v>
       </c>
@@ -9817,7 +9856,9 @@
       <c r="J106" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K106" s="1"/>
+      <c r="K106" t="s">
+        <v>597</v>
+      </c>
       <c r="L106" s="10" t="s">
         <v>498</v>
       </c>
@@ -9887,7 +9928,9 @@
       <c r="J107" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K107" s="1"/>
+      <c r="K107" t="s">
+        <v>597</v>
+      </c>
       <c r="L107" s="10" t="s">
         <v>498</v>
       </c>
@@ -9963,7 +10006,9 @@
       <c r="J108" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K108" s="1"/>
+      <c r="K108" t="s">
+        <v>597</v>
+      </c>
       <c r="L108" s="10" t="s">
         <v>498</v>
       </c>
@@ -10037,7 +10082,7 @@
         <v>8</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="L109" s="10" t="s">
         <v>498</v>
@@ -10112,7 +10157,7 @@
         <v>8</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="L110" s="10" t="s">
         <v>498</v>
@@ -10187,7 +10232,7 @@
         <v>8</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="L111" s="10" t="s">
         <v>498</v>
@@ -10262,7 +10307,7 @@
         <v>8</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L112" s="10" t="s">
         <v>498</v>
@@ -10337,7 +10382,7 @@
         <v>8</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L113" s="10" t="s">
         <v>498</v>
@@ -10412,7 +10457,7 @@
         <v>8</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L114" s="10" t="s">
         <v>498</v>
@@ -10487,7 +10532,7 @@
         <v>8</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L115" s="10" t="s">
         <v>498</v>
@@ -10562,7 +10607,7 @@
         <v>8</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L116" s="10" t="s">
         <v>498</v>
@@ -10637,7 +10682,7 @@
         <v>8</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L117" s="10" t="s">
         <v>498</v>
@@ -10709,7 +10754,7 @@
         <v>8</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L118" s="10" t="s">
         <v>498</v>
@@ -10781,7 +10826,7 @@
         <v>8</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L119" s="10" t="s">
         <v>498</v>
@@ -10853,7 +10898,7 @@
         <v>8</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L120" s="10" t="s">
         <v>498</v>
@@ -10901,7 +10946,7 @@
         <v>281</v>
       </c>
       <c r="AC120" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="121" spans="1:29" x14ac:dyDescent="0.2">
@@ -10931,7 +10976,7 @@
         <v>8</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L121" s="10" t="s">
         <v>498</v>
@@ -11006,7 +11051,7 @@
         <v>8</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L122" s="10" t="s">
         <v>498</v>
@@ -11084,7 +11129,7 @@
         <v>8</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L123" s="10" t="s">
         <v>498</v>
@@ -11162,7 +11207,7 @@
         <v>8</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L124" s="10" t="s">
         <v>498</v>
@@ -11240,7 +11285,7 @@
         <v>8</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L125" s="10" t="s">
         <v>498</v>
@@ -11318,7 +11363,7 @@
         <v>8</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L126" s="10" t="s">
         <v>498</v>
@@ -11396,7 +11441,7 @@
         <v>8</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L127" s="10" t="s">
         <v>498</v>
@@ -11471,7 +11516,7 @@
         <v>8</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L128" s="10" t="s">
         <v>498</v>
@@ -11546,7 +11591,7 @@
         <v>8</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L129" s="10" t="s">
         <v>498</v>
@@ -11621,7 +11666,7 @@
         <v>8</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L130" s="10" t="s">
         <v>498</v>
@@ -11696,7 +11741,7 @@
         <v>8</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L131" s="10" t="s">
         <v>498</v>
@@ -11774,7 +11819,7 @@
         <v>8</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L132" s="10" t="s">
         <v>498</v>
@@ -11852,7 +11897,7 @@
         <v>8</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L133" s="10" t="s">
         <v>503</v>
@@ -11930,7 +11975,7 @@
         <v>8</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L134" s="10" t="s">
         <v>498</v>
@@ -12005,7 +12050,7 @@
         <v>8</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L135" s="10" t="s">
         <v>498</v>
@@ -13822,7 +13867,9 @@
       <c r="J159" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K159" s="1"/>
+      <c r="K159" t="s">
+        <v>597</v>
+      </c>
       <c r="L159" s="10" t="s">
         <v>498</v>
       </c>
@@ -13895,7 +13942,9 @@
       <c r="J160" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K160" s="1"/>
+      <c r="K160" t="s">
+        <v>597</v>
+      </c>
       <c r="L160" s="10" t="s">
         <v>498</v>
       </c>
@@ -13971,7 +14020,9 @@
       <c r="J161" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K161" s="1"/>
+      <c r="K161" t="s">
+        <v>597</v>
+      </c>
       <c r="L161" s="10" t="s">
         <v>498</v>
       </c>
@@ -14047,7 +14098,9 @@
       <c r="J162" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K162" s="1"/>
+      <c r="K162" t="s">
+        <v>597</v>
+      </c>
       <c r="L162" s="10" t="s">
         <v>498</v>
       </c>
@@ -14123,7 +14176,9 @@
       <c r="J163" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K163" s="1"/>
+      <c r="K163" t="s">
+        <v>597</v>
+      </c>
       <c r="L163" s="10" t="s">
         <v>498</v>
       </c>
@@ -14199,7 +14254,9 @@
       <c r="J164" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K164" s="1"/>
+      <c r="K164" t="s">
+        <v>597</v>
+      </c>
       <c r="L164" s="10" t="s">
         <v>498</v>
       </c>
@@ -14274,6 +14331,9 @@
       <c r="J165" t="s">
         <v>8</v>
       </c>
+      <c r="K165" t="s">
+        <v>597</v>
+      </c>
       <c r="L165" s="10" t="s">
         <v>498</v>
       </c>
@@ -14318,7 +14378,9 @@
       <c r="J166" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K166" s="7"/>
+      <c r="K166" t="s">
+        <v>597</v>
+      </c>
       <c r="L166" s="10" t="s">
         <v>498</v>
       </c>
@@ -14360,7 +14422,9 @@
       <c r="J167" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K167" s="7"/>
+      <c r="K167" t="s">
+        <v>597</v>
+      </c>
       <c r="L167" s="10" t="s">
         <v>498</v>
       </c>
@@ -14402,7 +14466,9 @@
       <c r="J168" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K168" s="7"/>
+      <c r="K168" t="s">
+        <v>597</v>
+      </c>
       <c r="L168" s="10" t="s">
         <v>498</v>
       </c>
@@ -14444,7 +14510,9 @@
       <c r="J169" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K169" s="7"/>
+      <c r="K169" t="s">
+        <v>597</v>
+      </c>
       <c r="L169" s="10" t="s">
         <v>498</v>
       </c>
@@ -14486,7 +14554,9 @@
       <c r="J170" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K170" s="7"/>
+      <c r="K170" t="s">
+        <v>597</v>
+      </c>
       <c r="L170" s="10" t="s">
         <v>498</v>
       </c>
@@ -14528,7 +14598,9 @@
       <c r="J171" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K171" s="7"/>
+      <c r="K171" t="s">
+        <v>597</v>
+      </c>
       <c r="L171" s="10" t="s">
         <v>498</v>
       </c>
@@ -14570,7 +14642,9 @@
       <c r="J172" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K172" s="7"/>
+      <c r="K172" t="s">
+        <v>597</v>
+      </c>
       <c r="L172" s="10" t="s">
         <v>498</v>
       </c>
@@ -14612,7 +14686,9 @@
       <c r="J173" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K173" s="7"/>
+      <c r="K173" t="s">
+        <v>597</v>
+      </c>
       <c r="L173" s="10" t="s">
         <v>498</v>
       </c>
@@ -14654,7 +14730,9 @@
       <c r="J174" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K174" s="7"/>
+      <c r="K174" t="s">
+        <v>597</v>
+      </c>
       <c r="L174" s="10" t="s">
         <v>498</v>
       </c>

--- a/inclusion_lists/exp_summary.xlsx
+++ b/inclusion_lists/exp_summary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2199" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2372" uniqueCount="742">
   <si>
     <t>date</t>
   </si>
@@ -1827,6 +1827,435 @@
   </si>
   <si>
     <t>{'CA1','WM','WM','CA1'}</t>
+  </si>
+  <si>
+    <t>[1480;1280;1360;1440]</t>
+  </si>
+  <si>
+    <t>[1560;1440;1520;1600]</t>
+  </si>
+  <si>
+    <t>[1600;1520;1600;1680]</t>
+  </si>
+  <si>
+    <t>[1880;1760;1880;1920]</t>
+  </si>
+  <si>
+    <t>[2000;1840;2000;2000]</t>
+  </si>
+  <si>
+    <t>[2160;1920;2120;2040]</t>
+  </si>
+  <si>
+    <t>[2440;2040;2320;2320]</t>
+  </si>
+  <si>
+    <t>[2520;2120;2400;2400]</t>
+  </si>
+  <si>
+    <t>[2560;2160;2440;2440]</t>
+  </si>
+  <si>
+    <t>[2600;2200;2480;2460]</t>
+  </si>
+  <si>
+    <t>[2640;2240;2500;2480]</t>
+  </si>
+  <si>
+    <t>[2680;2280;2520;2500]</t>
+  </si>
+  <si>
+    <t>[2700;2280;2520;2520]</t>
+  </si>
+  <si>
+    <t>[4160;2320;3800;1800]</t>
+  </si>
+  <si>
+    <t>[4640;2320;3200;4320]</t>
+  </si>
+  <si>
+    <t>[4640;2320;3520;4360]</t>
+  </si>
+  <si>
+    <t>[4640;2320;3720;4380]</t>
+  </si>
+  <si>
+    <t>[4640;2320;3720;4400]</t>
+  </si>
+  <si>
+    <t>[1920;1680;1720;1820]</t>
+  </si>
+  <si>
+    <t>[1960;1800;1840;1900]</t>
+  </si>
+  <si>
+    <t>[1980;1840;1880;1920]</t>
+  </si>
+  <si>
+    <t>[2000;1880;1960;1940]</t>
+  </si>
+  <si>
+    <t>[2020;1960;2040;2020]</t>
+  </si>
+  <si>
+    <t>[2060;2000;2040;2020]</t>
+  </si>
+  <si>
+    <t>[2100;2040;2040;2020]</t>
+  </si>
+  <si>
+    <t>[2160;2100;2080;2080]</t>
+  </si>
+  <si>
+    <t>[2180;2120;2100;2100]</t>
+  </si>
+  <si>
+    <t>[2220;2140;2140;2140]</t>
+  </si>
+  <si>
+    <t>[2240;2160;2160;2160]</t>
+  </si>
+  <si>
+    <t>[2260;2180;2180;2180]</t>
+  </si>
+  <si>
+    <t>[2300;2260;2220;2260]</t>
+  </si>
+  <si>
+    <t>[2540;2420;2220;2380]</t>
+  </si>
+  <si>
+    <t>[2780;2660;2260;2620]</t>
+  </si>
+  <si>
+    <t>[2860;2900;2200;2860]</t>
+  </si>
+  <si>
+    <t>[2900;2940;2120;2900]</t>
+  </si>
+  <si>
+    <t>[2920;3060;2120;2940]</t>
+  </si>
+  <si>
+    <t>[2940;3120;2100;2980]</t>
+  </si>
+  <si>
+    <t>[2960;3200;2080;3020]</t>
+  </si>
+  <si>
+    <t>[2980;3320;2060;3040]</t>
+  </si>
+  <si>
+    <t>[2920;3440;2020;3040]</t>
+  </si>
+  <si>
+    <t>[2860;3450;2060;3050]</t>
+  </si>
+  <si>
+    <t>[2800;3460;2140;3070]</t>
+  </si>
+  <si>
+    <t>[2740;3480;2140;3090]</t>
+  </si>
+  <si>
+    <t>[2700;3500;2160;3150]</t>
+  </si>
+  <si>
+    <t>[2680;3520;2560;3190]</t>
+  </si>
+  <si>
+    <t>[2660;3540;2840;3230]</t>
+  </si>
+  <si>
+    <t>[2640;3550;2880;3250]</t>
+  </si>
+  <si>
+    <t>[2630;3560;2890;3260]</t>
+  </si>
+  <si>
+    <t>[2620;3570;2900;3340]</t>
+  </si>
+  <si>
+    <t>[2600;3580;2910;3460]</t>
+  </si>
+  <si>
+    <t>[2680;3580;2930;3380]</t>
+  </si>
+  <si>
+    <t>[2690;3590;2950;3300]</t>
+  </si>
+  <si>
+    <t>[2750;3610;2960;3200]</t>
+  </si>
+  <si>
+    <t>[2770;3570;3030;3080]</t>
+  </si>
+  <si>
+    <t>[2790;3550;3050;3040]</t>
+  </si>
+  <si>
+    <t>[2810;3530;3090;3020]</t>
+  </si>
+  <si>
+    <t>[2830;3520;3170;2960]</t>
+  </si>
+  <si>
+    <t>[2850;3520;3250;2920]</t>
+  </si>
+  <si>
+    <t>[2870;3500;3310;2900]</t>
+  </si>
+  <si>
+    <t>[2890;3490;3320;2880]</t>
+  </si>
+  <si>
+    <t>[2910;3510;3330;2940]</t>
+  </si>
+  <si>
+    <t>[2930;3530;3340;2940]</t>
+  </si>
+  <si>
+    <t>[2870;3540;3350;2960]</t>
+  </si>
+  <si>
+    <t>[2850;3550;3360;2980]</t>
+  </si>
+  <si>
+    <t>[2830;3560;3370;3000]</t>
+  </si>
+  <si>
+    <t>[2810;3570;3380;3020]</t>
+  </si>
+  <si>
+    <t>[1960;2080;2000;2120]</t>
+  </si>
+  <si>
+    <t>[2000;2100;2020;2140]</t>
+  </si>
+  <si>
+    <t>[2280;2340;2160;2000]</t>
+  </si>
+  <si>
+    <t>[2480;2380;2300;2040]</t>
+  </si>
+  <si>
+    <t>[2640;2440;2380;2120]</t>
+  </si>
+  <si>
+    <t>[2680;2470;2420;2200]</t>
+  </si>
+  <si>
+    <t>[2440;2520;2480;2440]</t>
+  </si>
+  <si>
+    <t>[2760;2660;2680;3040]</t>
+  </si>
+  <si>
+    <t>[1960;2100;1880;2080]</t>
+  </si>
+  <si>
+    <t>[2120;2180;1920;2140]</t>
+  </si>
+  <si>
+    <t>[2120;2200;1940;2180]</t>
+  </si>
+  <si>
+    <t>[2140;2220;1960;2200]</t>
+  </si>
+  <si>
+    <t>[2880;2900;2220;2420]</t>
+  </si>
+  <si>
+    <t>[2880;3380;2440;2880]</t>
+  </si>
+  <si>
+    <t>[2880;3280;3000;3360]</t>
+  </si>
+  <si>
+    <t>[2880;3200;3160;3400]</t>
+  </si>
+  <si>
+    <t>[nan;nan;nan;nan]</t>
+  </si>
+  <si>
+    <t>[1520;nan;nan;1520]</t>
+  </si>
+  <si>
+    <t>[1680;nan;nan;1520]</t>
+  </si>
+  <si>
+    <t>[2000;nan;nan;1560]</t>
+  </si>
+  <si>
+    <t>[2160;nan;nan;1580]</t>
+  </si>
+  <si>
+    <t>[2400;nan;nan;1660]</t>
+  </si>
+  <si>
+    <t>[2320;nan;nan;1580]</t>
+  </si>
+  <si>
+    <t>[2340;nan;nan;1560]</t>
+  </si>
+  <si>
+    <t>[2380;nan;nan;1420]</t>
+  </si>
+  <si>
+    <t>[2420;nan;nan;1260]</t>
+  </si>
+  <si>
+    <t>[2480;nan;nan;1240]</t>
+  </si>
+  <si>
+    <t>[2520;nan;nan;1220]</t>
+  </si>
+  <si>
+    <t>[2560;nan;nan;1260]</t>
+  </si>
+  <si>
+    <t>[2620;nan;nan;1280]</t>
+  </si>
+  <si>
+    <t>[2680;nan;nan;1300]</t>
+  </si>
+  <si>
+    <t>[2740;nan;nan;1320]</t>
+  </si>
+  <si>
+    <t>[2820;nan;nan;1340]</t>
+  </si>
+  <si>
+    <t>[2920;nan;nan;1400]</t>
+  </si>
+  <si>
+    <t>[3000;nan;nan;1440]</t>
+  </si>
+  <si>
+    <t>[3040;nan;nan;1400]</t>
+  </si>
+  <si>
+    <t>[3020;nan;nan;1360]</t>
+  </si>
+  <si>
+    <t>[2840;nan;nan;1340]</t>
+  </si>
+  <si>
+    <t>[2840;nan;nan;1240]</t>
+  </si>
+  <si>
+    <t>[2840;nan;nan;1200]</t>
+  </si>
+  <si>
+    <t>[2840;nan;nan;1160]</t>
+  </si>
+  <si>
+    <t>[2840;nan;nan;1140]</t>
+  </si>
+  <si>
+    <t>[2840;nan;nan;1120]</t>
+  </si>
+  <si>
+    <t>[2840;nan;nan;1180]</t>
+  </si>
+  <si>
+    <t>[2840;nan;nan;1330]</t>
+  </si>
+  <si>
+    <t>[2840;nan;nan;1150]</t>
+  </si>
+  <si>
+    <t>[2840;nan;nan;1190]</t>
+  </si>
+  <si>
+    <t>[2840;nan;nan;1230]</t>
+  </si>
+  <si>
+    <t>[2840;nan;nan;1270]</t>
+  </si>
+  <si>
+    <t>[2840;nan;nan;1310]</t>
+  </si>
+  <si>
+    <t>[1680;1700;1680;1680]</t>
+  </si>
+  <si>
+    <t>[1840;1860;1840;1840]</t>
+  </si>
+  <si>
+    <t>[1920;1940;1860;1920]</t>
+  </si>
+  <si>
+    <t>[2160;2180;2100;2160]</t>
+  </si>
+  <si>
+    <t>[2240;2260;2140;2240]</t>
+  </si>
+  <si>
+    <t>[2320;2340;2160;2280]</t>
+  </si>
+  <si>
+    <t>[2480;2500;2280;2420]</t>
+  </si>
+  <si>
+    <t>[2560;2580;2300;2460]</t>
+  </si>
+  <si>
+    <t>[2640;2620;2320;2500]</t>
+  </si>
+  <si>
+    <t>[2760;2740;2340;2620]</t>
+  </si>
+  <si>
+    <t>[2880;2860;2360;2740]</t>
+  </si>
+  <si>
+    <t>[3000;2880;2380;2780]</t>
+  </si>
+  <si>
+    <t>[2520;2940;2440;2460]</t>
+  </si>
+  <si>
+    <t>[2480;2960;2480;2380]</t>
+  </si>
+  <si>
+    <t>[2400;2980;2500;2300]</t>
+  </si>
+  <si>
+    <t>[2320;3000;2520;2220]</t>
+  </si>
+  <si>
+    <t>[2160;2900;2480;2060]</t>
+  </si>
+  <si>
+    <t>[2120;2820;2460;2020]</t>
+  </si>
+  <si>
+    <t>[2080;2800;2440;1980]</t>
+  </si>
+  <si>
+    <t>[2000;2760;2380;1940]</t>
+  </si>
+  <si>
+    <t>[1960;2740;2360;1920]</t>
+  </si>
+  <si>
+    <t>[1940;2720;2340;1900]</t>
+  </si>
+  <si>
+    <t>[1920;2700;2320;1880]</t>
+  </si>
+  <si>
+    <t>[1900;2680;2240;1900]</t>
+  </si>
+  <si>
+    <t>[1860;2740;2400;1880]</t>
+  </si>
+  <si>
+    <t>[1840;2760;2420;1900]</t>
+  </si>
+  <si>
+    <t>[1820;2780;2440;1900]</t>
   </si>
 </sst>
 </file>
@@ -2581,10 +3010,10 @@
   <dimension ref="A1:AC174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B94" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K112" sqref="K112"/>
+      <selection pane="bottomRight" activeCell="Q48" sqref="Q48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2595,17 +3024,17 @@
     <col min="4" max="4" width="10.125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="5.125" style="7" customWidth="1"/>
     <col min="7" max="7" width="2" customWidth="1"/>
-    <col min="8" max="8" width="1.25" customWidth="1"/>
+    <col min="8" max="8" width="26.5" customWidth="1"/>
     <col min="9" max="9" width="27.5" customWidth="1"/>
     <col min="10" max="10" width="8.625" customWidth="1"/>
     <col min="11" max="11" width="25.625" customWidth="1"/>
     <col min="12" max="12" width="2.75" customWidth="1"/>
-    <col min="13" max="13" width="3.375" style="9" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="9" customWidth="1"/>
     <col min="14" max="14" width="2.75" customWidth="1"/>
     <col min="15" max="15" width="2.5" customWidth="1"/>
     <col min="16" max="16" width="3" customWidth="1"/>
-    <col min="17" max="17" width="3.75" customWidth="1"/>
-    <col min="18" max="18" width="3.25" customWidth="1"/>
+    <col min="17" max="17" width="5.5" customWidth="1"/>
+    <col min="18" max="18" width="6.5" customWidth="1"/>
     <col min="19" max="19" width="3.125" customWidth="1"/>
     <col min="20" max="20" width="5.375" customWidth="1"/>
     <col min="21" max="21" width="19.5" customWidth="1"/>
@@ -2728,6 +3157,9 @@
       <c r="G2">
         <v>4</v>
       </c>
+      <c r="H2" t="s">
+        <v>599</v>
+      </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2806,6 +3238,9 @@
       <c r="G3">
         <v>4</v>
       </c>
+      <c r="H3" t="s">
+        <v>600</v>
+      </c>
       <c r="I3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2884,6 +3319,9 @@
       <c r="G4">
         <v>4</v>
       </c>
+      <c r="H4" t="s">
+        <v>601</v>
+      </c>
       <c r="I4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2962,6 +3400,9 @@
       <c r="G5">
         <v>4</v>
       </c>
+      <c r="H5" t="s">
+        <v>602</v>
+      </c>
       <c r="I5" s="1" t="s">
         <v>7</v>
       </c>
@@ -3040,6 +3481,9 @@
       <c r="G6">
         <v>4</v>
       </c>
+      <c r="H6" t="s">
+        <v>603</v>
+      </c>
       <c r="I6" s="1" t="s">
         <v>7</v>
       </c>
@@ -3118,6 +3562,9 @@
       <c r="G7">
         <v>4</v>
       </c>
+      <c r="H7" t="s">
+        <v>604</v>
+      </c>
       <c r="I7" s="1" t="s">
         <v>7</v>
       </c>
@@ -3196,6 +3643,9 @@
       <c r="G8">
         <v>4</v>
       </c>
+      <c r="H8" t="s">
+        <v>605</v>
+      </c>
       <c r="I8" s="1" t="s">
         <v>7</v>
       </c>
@@ -3274,6 +3724,9 @@
       <c r="G9">
         <v>4</v>
       </c>
+      <c r="H9" t="s">
+        <v>606</v>
+      </c>
       <c r="I9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3352,6 +3805,9 @@
       <c r="G10">
         <v>4</v>
       </c>
+      <c r="H10" t="s">
+        <v>607</v>
+      </c>
       <c r="I10" s="1" t="s">
         <v>7</v>
       </c>
@@ -3430,6 +3886,9 @@
       <c r="G11">
         <v>4</v>
       </c>
+      <c r="H11" t="s">
+        <v>608</v>
+      </c>
       <c r="I11" s="1" t="s">
         <v>7</v>
       </c>
@@ -3505,6 +3964,9 @@
       <c r="G12">
         <v>4</v>
       </c>
+      <c r="H12" t="s">
+        <v>609</v>
+      </c>
       <c r="I12" s="1" t="s">
         <v>7</v>
       </c>
@@ -3583,6 +4045,9 @@
       <c r="G13">
         <v>4</v>
       </c>
+      <c r="H13" t="s">
+        <v>610</v>
+      </c>
       <c r="I13" s="1" t="s">
         <v>7</v>
       </c>
@@ -3658,6 +4123,9 @@
       <c r="G14">
         <v>4</v>
       </c>
+      <c r="H14" t="s">
+        <v>611</v>
+      </c>
       <c r="I14" s="1" t="s">
         <v>7</v>
       </c>
@@ -3733,6 +4201,9 @@
       <c r="G15">
         <v>4</v>
       </c>
+      <c r="H15" t="s">
+        <v>612</v>
+      </c>
       <c r="I15" s="1" t="s">
         <v>7</v>
       </c>
@@ -3808,6 +4279,9 @@
       <c r="G16">
         <v>4</v>
       </c>
+      <c r="H16" t="s">
+        <v>613</v>
+      </c>
       <c r="I16" s="1" t="s">
         <v>7</v>
       </c>
@@ -3883,6 +4357,9 @@
       <c r="G17">
         <v>4</v>
       </c>
+      <c r="H17" t="s">
+        <v>614</v>
+      </c>
       <c r="I17" s="1" t="s">
         <v>7</v>
       </c>
@@ -3958,6 +4435,9 @@
       <c r="G18">
         <v>4</v>
       </c>
+      <c r="H18" t="s">
+        <v>615</v>
+      </c>
       <c r="I18" s="1" t="s">
         <v>7</v>
       </c>
@@ -4033,6 +4513,9 @@
       <c r="G19">
         <v>4</v>
       </c>
+      <c r="H19" t="s">
+        <v>616</v>
+      </c>
       <c r="I19" s="1" t="s">
         <v>7</v>
       </c>
@@ -4107,6 +4590,9 @@
       <c r="G20">
         <v>4</v>
       </c>
+      <c r="H20" t="s">
+        <v>681</v>
+      </c>
       <c r="I20" s="7" t="s">
         <v>86</v>
       </c>
@@ -4151,6 +4637,9 @@
       <c r="G21">
         <v>4</v>
       </c>
+      <c r="H21" t="s">
+        <v>681</v>
+      </c>
       <c r="I21" s="7" t="s">
         <v>86</v>
       </c>
@@ -4195,6 +4684,9 @@
       <c r="G22">
         <v>4</v>
       </c>
+      <c r="H22" t="s">
+        <v>681</v>
+      </c>
       <c r="I22" s="7" t="s">
         <v>86</v>
       </c>
@@ -4239,6 +4731,9 @@
       <c r="G23">
         <v>4</v>
       </c>
+      <c r="H23" t="s">
+        <v>681</v>
+      </c>
       <c r="I23" s="7" t="s">
         <v>86</v>
       </c>
@@ -4283,6 +4778,9 @@
       <c r="G24">
         <v>4</v>
       </c>
+      <c r="H24" t="s">
+        <v>681</v>
+      </c>
       <c r="I24" s="7" t="s">
         <v>86</v>
       </c>
@@ -4327,6 +4825,9 @@
       <c r="G25">
         <v>4</v>
       </c>
+      <c r="H25" t="s">
+        <v>681</v>
+      </c>
       <c r="I25" s="7" t="s">
         <v>86</v>
       </c>
@@ -4371,6 +4872,9 @@
       <c r="G26">
         <v>4</v>
       </c>
+      <c r="H26" t="s">
+        <v>681</v>
+      </c>
       <c r="I26" s="7" t="s">
         <v>86</v>
       </c>
@@ -4415,6 +4919,9 @@
       <c r="G27">
         <v>4</v>
       </c>
+      <c r="H27" t="s">
+        <v>681</v>
+      </c>
       <c r="I27" s="7" t="s">
         <v>86</v>
       </c>
@@ -4459,6 +4966,9 @@
       <c r="G28">
         <v>4</v>
       </c>
+      <c r="H28" t="s">
+        <v>681</v>
+      </c>
       <c r="I28" s="7" t="s">
         <v>86</v>
       </c>
@@ -4502,6 +5012,9 @@
       </c>
       <c r="G29">
         <v>4</v>
+      </c>
+      <c r="H29" t="s">
+        <v>715</v>
       </c>
       <c r="I29" t="s">
         <v>577</v>
@@ -4556,6 +5069,9 @@
       <c r="G30">
         <v>4</v>
       </c>
+      <c r="H30" t="s">
+        <v>716</v>
+      </c>
       <c r="I30" t="s">
         <v>577</v>
       </c>
@@ -4609,6 +5125,9 @@
       <c r="G31">
         <v>4</v>
       </c>
+      <c r="H31" t="s">
+        <v>717</v>
+      </c>
       <c r="I31" t="s">
         <v>577</v>
       </c>
@@ -4632,6 +5151,15 @@
       </c>
       <c r="P31">
         <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
       </c>
       <c r="T31" t="s">
         <v>9</v>
@@ -4668,6 +5196,9 @@
       <c r="G32">
         <v>4</v>
       </c>
+      <c r="H32" t="s">
+        <v>718</v>
+      </c>
       <c r="I32" t="s">
         <v>577</v>
       </c>
@@ -4691,6 +5222,15 @@
       </c>
       <c r="P32">
         <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0.5</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
       </c>
       <c r="T32" t="s">
         <v>9</v>
@@ -4727,6 +5267,9 @@
       <c r="G33">
         <v>4</v>
       </c>
+      <c r="H33" t="s">
+        <v>719</v>
+      </c>
       <c r="I33" t="s">
         <v>577</v>
       </c>
@@ -4750,6 +5293,15 @@
       </c>
       <c r="P33">
         <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
       </c>
       <c r="T33" t="s">
         <v>9</v>
@@ -4786,6 +5338,9 @@
       <c r="G34">
         <v>4</v>
       </c>
+      <c r="H34" t="s">
+        <v>720</v>
+      </c>
       <c r="I34" t="s">
         <v>577</v>
       </c>
@@ -4809,6 +5364,15 @@
       </c>
       <c r="P34">
         <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
       </c>
       <c r="T34" t="s">
         <v>9</v>
@@ -4845,6 +5409,9 @@
       <c r="G35">
         <v>4</v>
       </c>
+      <c r="H35" t="s">
+        <v>721</v>
+      </c>
       <c r="I35" t="s">
         <v>577</v>
       </c>
@@ -4868,6 +5435,15 @@
       </c>
       <c r="P35">
         <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
       </c>
       <c r="T35" t="s">
         <v>9</v>
@@ -4904,6 +5480,9 @@
       <c r="G36">
         <v>4</v>
       </c>
+      <c r="H36" t="s">
+        <v>722</v>
+      </c>
       <c r="I36" t="s">
         <v>577</v>
       </c>
@@ -4927,6 +5506,15 @@
       </c>
       <c r="P36">
         <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <v>1</v>
       </c>
       <c r="T36" t="s">
         <v>9</v>
@@ -4963,6 +5551,9 @@
       <c r="G37">
         <v>4</v>
       </c>
+      <c r="H37" t="s">
+        <v>723</v>
+      </c>
       <c r="I37" t="s">
         <v>577</v>
       </c>
@@ -5031,6 +5622,9 @@
       <c r="G38">
         <v>4</v>
       </c>
+      <c r="H38" t="s">
+        <v>724</v>
+      </c>
       <c r="I38" t="s">
         <v>577</v>
       </c>
@@ -5054,6 +5648,15 @@
       </c>
       <c r="P38">
         <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
       </c>
       <c r="T38" t="s">
         <v>9</v>
@@ -5090,6 +5693,9 @@
       <c r="G39">
         <v>4</v>
       </c>
+      <c r="H39" t="s">
+        <v>725</v>
+      </c>
       <c r="I39" t="s">
         <v>577</v>
       </c>
@@ -5113,6 +5719,15 @@
       </c>
       <c r="P39">
         <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
       </c>
       <c r="T39" t="s">
         <v>9</v>
@@ -5152,6 +5767,9 @@
       <c r="G40">
         <v>4</v>
       </c>
+      <c r="H40" t="s">
+        <v>726</v>
+      </c>
       <c r="I40" t="s">
         <v>577</v>
       </c>
@@ -5175,6 +5793,15 @@
       </c>
       <c r="P40">
         <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="R40">
+        <v>1</v>
+      </c>
+      <c r="S40">
+        <v>1</v>
       </c>
       <c r="T40" t="s">
         <v>9</v>
@@ -5211,6 +5838,9 @@
       <c r="G41">
         <v>4</v>
       </c>
+      <c r="H41" t="s">
+        <v>727</v>
+      </c>
       <c r="I41" t="s">
         <v>577</v>
       </c>
@@ -5234,6 +5864,15 @@
       </c>
       <c r="P41">
         <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
       </c>
       <c r="T41" t="s">
         <v>9</v>
@@ -5270,6 +5909,9 @@
       <c r="G42">
         <v>4</v>
       </c>
+      <c r="H42" t="s">
+        <v>728</v>
+      </c>
       <c r="I42" t="s">
         <v>577</v>
       </c>
@@ -5338,6 +5980,9 @@
       <c r="G43">
         <v>4</v>
       </c>
+      <c r="H43" t="s">
+        <v>729</v>
+      </c>
       <c r="I43" t="s">
         <v>577</v>
       </c>
@@ -5361,6 +6006,15 @@
       </c>
       <c r="P43">
         <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
       </c>
       <c r="T43" t="s">
         <v>9</v>
@@ -5400,6 +6054,9 @@
       <c r="G44">
         <v>4</v>
       </c>
+      <c r="H44" t="s">
+        <v>730</v>
+      </c>
       <c r="I44" t="s">
         <v>577</v>
       </c>
@@ -5423,6 +6080,15 @@
       </c>
       <c r="P44">
         <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
+      <c r="S44">
+        <v>1</v>
       </c>
       <c r="T44" t="s">
         <v>9</v>
@@ -5459,6 +6125,9 @@
       <c r="G45">
         <v>4</v>
       </c>
+      <c r="H45" t="s">
+        <v>731</v>
+      </c>
       <c r="I45" t="s">
         <v>577</v>
       </c>
@@ -5482,6 +6151,15 @@
       </c>
       <c r="P45">
         <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
+      </c>
+      <c r="R45">
+        <v>1</v>
+      </c>
+      <c r="S45">
+        <v>1</v>
       </c>
       <c r="T45" t="s">
         <v>9</v>
@@ -5518,6 +6196,9 @@
       <c r="G46">
         <v>4</v>
       </c>
+      <c r="H46" t="s">
+        <v>732</v>
+      </c>
       <c r="I46" t="s">
         <v>577</v>
       </c>
@@ -5541,6 +6222,15 @@
       </c>
       <c r="P46">
         <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0.5</v>
+      </c>
+      <c r="R46">
+        <v>1</v>
+      </c>
+      <c r="S46">
+        <v>1</v>
       </c>
       <c r="T46" t="s">
         <v>9</v>
@@ -5577,6 +6267,9 @@
       <c r="G47">
         <v>4</v>
       </c>
+      <c r="H47" t="s">
+        <v>733</v>
+      </c>
       <c r="I47" t="s">
         <v>577</v>
       </c>
@@ -5600,6 +6293,15 @@
       </c>
       <c r="P47">
         <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>1</v>
+      </c>
+      <c r="R47">
+        <v>1</v>
+      </c>
+      <c r="S47">
+        <v>1</v>
       </c>
       <c r="T47" t="s">
         <v>9</v>
@@ -5636,6 +6338,9 @@
       <c r="G48">
         <v>4</v>
       </c>
+      <c r="H48" t="s">
+        <v>734</v>
+      </c>
       <c r="I48" t="s">
         <v>577</v>
       </c>
@@ -5704,6 +6409,9 @@
       <c r="G49">
         <v>4</v>
       </c>
+      <c r="H49" t="s">
+        <v>735</v>
+      </c>
       <c r="I49" t="s">
         <v>577</v>
       </c>
@@ -5727,6 +6435,15 @@
       </c>
       <c r="P49">
         <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>1</v>
       </c>
       <c r="T49" t="s">
         <v>9</v>
@@ -5763,6 +6480,9 @@
       <c r="G50">
         <v>4</v>
       </c>
+      <c r="H50" t="s">
+        <v>736</v>
+      </c>
       <c r="I50" t="s">
         <v>577</v>
       </c>
@@ -5831,6 +6551,9 @@
       <c r="G51">
         <v>4</v>
       </c>
+      <c r="H51" t="s">
+        <v>737</v>
+      </c>
       <c r="I51" t="s">
         <v>577</v>
       </c>
@@ -5899,6 +6622,9 @@
       <c r="G52">
         <v>4</v>
       </c>
+      <c r="H52" t="s">
+        <v>738</v>
+      </c>
       <c r="I52" t="s">
         <v>577</v>
       </c>
@@ -5922,6 +6648,15 @@
       </c>
       <c r="P52">
         <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>1</v>
       </c>
       <c r="T52" t="s">
         <v>9</v>
@@ -5958,6 +6693,9 @@
       <c r="G53">
         <v>4</v>
       </c>
+      <c r="H53" t="s">
+        <v>739</v>
+      </c>
       <c r="I53" t="s">
         <v>577</v>
       </c>
@@ -5980,6 +6718,15 @@
         <v>1</v>
       </c>
       <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
         <v>0</v>
       </c>
       <c r="T53" t="s">
@@ -6017,6 +6764,9 @@
       <c r="G54">
         <v>4</v>
       </c>
+      <c r="H54" t="s">
+        <v>740</v>
+      </c>
       <c r="I54" t="s">
         <v>577</v>
       </c>
@@ -6039,6 +6789,15 @@
         <v>1</v>
       </c>
       <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
         <v>0</v>
       </c>
       <c r="T54" t="s">
@@ -6076,6 +6835,9 @@
       <c r="G55">
         <v>4</v>
       </c>
+      <c r="H55" t="s">
+        <v>741</v>
+      </c>
       <c r="I55" t="s">
         <v>577</v>
       </c>
@@ -6098,6 +6860,15 @@
         <v>1</v>
       </c>
       <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
         <v>0</v>
       </c>
       <c r="T55" t="s">
@@ -6135,6 +6906,9 @@
       <c r="G56">
         <v>4</v>
       </c>
+      <c r="H56" t="s">
+        <v>682</v>
+      </c>
       <c r="I56" t="s">
         <v>63</v>
       </c>
@@ -6212,6 +6986,9 @@
       <c r="G57">
         <v>4</v>
       </c>
+      <c r="H57" t="s">
+        <v>683</v>
+      </c>
       <c r="I57" t="s">
         <v>63</v>
       </c>
@@ -6286,6 +7063,9 @@
       <c r="G58">
         <v>4</v>
       </c>
+      <c r="H58" t="s">
+        <v>684</v>
+      </c>
       <c r="I58" t="s">
         <v>63</v>
       </c>
@@ -6360,6 +7140,9 @@
       <c r="G59">
         <v>4</v>
       </c>
+      <c r="H59" t="s">
+        <v>685</v>
+      </c>
       <c r="I59" t="s">
         <v>63</v>
       </c>
@@ -6434,6 +7217,9 @@
       <c r="G60">
         <v>4</v>
       </c>
+      <c r="H60" t="s">
+        <v>686</v>
+      </c>
       <c r="I60" t="s">
         <v>63</v>
       </c>
@@ -6508,6 +7294,9 @@
       <c r="G61">
         <v>4</v>
       </c>
+      <c r="H61" t="s">
+        <v>687</v>
+      </c>
       <c r="I61" t="s">
         <v>63</v>
       </c>
@@ -6582,6 +7371,9 @@
       <c r="G62">
         <v>4</v>
       </c>
+      <c r="H62" t="s">
+        <v>688</v>
+      </c>
       <c r="I62" t="s">
         <v>63</v>
       </c>
@@ -6656,6 +7448,9 @@
       <c r="G63">
         <v>4</v>
       </c>
+      <c r="H63" t="s">
+        <v>689</v>
+      </c>
       <c r="I63" t="s">
         <v>63</v>
       </c>
@@ -6730,6 +7525,9 @@
       <c r="G64">
         <v>4</v>
       </c>
+      <c r="H64" t="s">
+        <v>690</v>
+      </c>
       <c r="I64" t="s">
         <v>63</v>
       </c>
@@ -6804,6 +7602,9 @@
       <c r="G65">
         <v>4</v>
       </c>
+      <c r="H65" t="s">
+        <v>691</v>
+      </c>
       <c r="I65" t="s">
         <v>63</v>
       </c>
@@ -6878,6 +7679,9 @@
       <c r="G66">
         <v>4</v>
       </c>
+      <c r="H66" t="s">
+        <v>692</v>
+      </c>
       <c r="I66" t="s">
         <v>63</v>
       </c>
@@ -6952,6 +7756,9 @@
       <c r="G67">
         <v>4</v>
       </c>
+      <c r="H67" t="s">
+        <v>693</v>
+      </c>
       <c r="I67" t="s">
         <v>63</v>
       </c>
@@ -7026,6 +7833,9 @@
       <c r="G68">
         <v>4</v>
       </c>
+      <c r="H68" t="s">
+        <v>694</v>
+      </c>
       <c r="I68" t="s">
         <v>63</v>
       </c>
@@ -7100,6 +7910,9 @@
       <c r="G69">
         <v>4</v>
       </c>
+      <c r="H69" t="s">
+        <v>695</v>
+      </c>
       <c r="I69" t="s">
         <v>63</v>
       </c>
@@ -7174,6 +7987,9 @@
       <c r="G70">
         <v>4</v>
       </c>
+      <c r="H70" t="s">
+        <v>696</v>
+      </c>
       <c r="I70" t="s">
         <v>63</v>
       </c>
@@ -7248,6 +8064,9 @@
       <c r="G71">
         <v>4</v>
       </c>
+      <c r="H71" t="s">
+        <v>697</v>
+      </c>
       <c r="I71" t="s">
         <v>63</v>
       </c>
@@ -7322,6 +8141,9 @@
       <c r="G72">
         <v>4</v>
       </c>
+      <c r="H72" t="s">
+        <v>698</v>
+      </c>
       <c r="I72" t="s">
         <v>63</v>
       </c>
@@ -7396,6 +8218,9 @@
       <c r="G73">
         <v>4</v>
       </c>
+      <c r="H73" t="s">
+        <v>699</v>
+      </c>
       <c r="I73" t="s">
         <v>63</v>
       </c>
@@ -7470,6 +8295,9 @@
       <c r="G74">
         <v>4</v>
       </c>
+      <c r="H74" t="s">
+        <v>700</v>
+      </c>
       <c r="I74" t="s">
         <v>63</v>
       </c>
@@ -7544,6 +8372,9 @@
       <c r="G75">
         <v>4</v>
       </c>
+      <c r="H75" t="s">
+        <v>701</v>
+      </c>
       <c r="I75" t="s">
         <v>63</v>
       </c>
@@ -7618,6 +8449,9 @@
       <c r="G76">
         <v>4</v>
       </c>
+      <c r="H76" t="s">
+        <v>702</v>
+      </c>
       <c r="I76" t="s">
         <v>63</v>
       </c>
@@ -7692,6 +8526,9 @@
       <c r="G77">
         <v>4</v>
       </c>
+      <c r="H77" t="s">
+        <v>703</v>
+      </c>
       <c r="I77" t="s">
         <v>63</v>
       </c>
@@ -7754,6 +8591,9 @@
       <c r="G78">
         <v>4</v>
       </c>
+      <c r="H78" t="s">
+        <v>704</v>
+      </c>
       <c r="I78" t="s">
         <v>63</v>
       </c>
@@ -7828,6 +8668,9 @@
       <c r="G79">
         <v>4</v>
       </c>
+      <c r="H79" t="s">
+        <v>705</v>
+      </c>
       <c r="I79" t="s">
         <v>63</v>
       </c>
@@ -7902,6 +8745,9 @@
       <c r="G80">
         <v>4</v>
       </c>
+      <c r="H80" t="s">
+        <v>706</v>
+      </c>
       <c r="I80" t="s">
         <v>63</v>
       </c>
@@ -7979,6 +8825,9 @@
       <c r="G81">
         <v>4</v>
       </c>
+      <c r="H81" t="s">
+        <v>707</v>
+      </c>
       <c r="I81" t="s">
         <v>63</v>
       </c>
@@ -8056,6 +8905,9 @@
       <c r="G82">
         <v>4</v>
       </c>
+      <c r="H82" t="s">
+        <v>707</v>
+      </c>
       <c r="I82" t="s">
         <v>63</v>
       </c>
@@ -8130,6 +8982,9 @@
       <c r="G83">
         <v>4</v>
       </c>
+      <c r="H83" t="s">
+        <v>708</v>
+      </c>
       <c r="I83" t="s">
         <v>63</v>
       </c>
@@ -8207,6 +9062,9 @@
       <c r="G84">
         <v>4</v>
       </c>
+      <c r="H84" t="s">
+        <v>704</v>
+      </c>
       <c r="I84" t="s">
         <v>63</v>
       </c>
@@ -8281,6 +9139,9 @@
       <c r="G85">
         <v>4</v>
       </c>
+      <c r="H85" t="s">
+        <v>703</v>
+      </c>
       <c r="I85" t="s">
         <v>63</v>
       </c>
@@ -8355,6 +9216,9 @@
       <c r="G86">
         <v>4</v>
       </c>
+      <c r="H86" t="s">
+        <v>709</v>
+      </c>
       <c r="I86" t="s">
         <v>63</v>
       </c>
@@ -8429,6 +9293,9 @@
       <c r="G87">
         <v>4</v>
       </c>
+      <c r="H87" t="s">
+        <v>710</v>
+      </c>
       <c r="I87" t="s">
         <v>63</v>
       </c>
@@ -8503,6 +9370,9 @@
       <c r="G88">
         <v>4</v>
       </c>
+      <c r="H88" t="s">
+        <v>711</v>
+      </c>
       <c r="I88" t="s">
         <v>63</v>
       </c>
@@ -8577,6 +9447,9 @@
       <c r="G89">
         <v>4</v>
       </c>
+      <c r="H89" t="s">
+        <v>712</v>
+      </c>
       <c r="I89" t="s">
         <v>63</v>
       </c>
@@ -8654,6 +9527,9 @@
       <c r="G90">
         <v>4</v>
       </c>
+      <c r="H90" t="s">
+        <v>713</v>
+      </c>
       <c r="I90" t="s">
         <v>63</v>
       </c>
@@ -8728,6 +9604,9 @@
       <c r="G91">
         <v>4</v>
       </c>
+      <c r="H91" t="s">
+        <v>714</v>
+      </c>
       <c r="I91" t="s">
         <v>63</v>
       </c>
@@ -8806,6 +9685,9 @@
       <c r="G92">
         <v>4</v>
       </c>
+      <c r="H92" t="s">
+        <v>665</v>
+      </c>
       <c r="I92" s="1" t="s">
         <v>7</v>
       </c>
@@ -8881,6 +9763,9 @@
       <c r="G93">
         <v>4</v>
       </c>
+      <c r="H93" t="s">
+        <v>666</v>
+      </c>
       <c r="I93" s="1" t="s">
         <v>7</v>
       </c>
@@ -8959,6 +9844,9 @@
       <c r="G94">
         <v>4</v>
       </c>
+      <c r="H94" t="s">
+        <v>667</v>
+      </c>
       <c r="I94" s="1" t="s">
         <v>7</v>
       </c>
@@ -9037,6 +9925,9 @@
       <c r="G95">
         <v>4</v>
       </c>
+      <c r="H95" t="s">
+        <v>668</v>
+      </c>
       <c r="I95" s="1" t="s">
         <v>7</v>
       </c>
@@ -9109,6 +10000,9 @@
       <c r="G96">
         <v>4</v>
       </c>
+      <c r="H96" t="s">
+        <v>669</v>
+      </c>
       <c r="I96" s="1" t="s">
         <v>7</v>
       </c>
@@ -9184,6 +10078,9 @@
       <c r="G97">
         <v>4</v>
       </c>
+      <c r="H97" t="s">
+        <v>670</v>
+      </c>
       <c r="I97" s="1" t="s">
         <v>7</v>
       </c>
@@ -9259,6 +10156,9 @@
       <c r="G98">
         <v>4</v>
       </c>
+      <c r="H98" t="s">
+        <v>671</v>
+      </c>
       <c r="I98" s="1" t="s">
         <v>7</v>
       </c>
@@ -9334,6 +10234,9 @@
       <c r="G99">
         <v>4</v>
       </c>
+      <c r="H99" t="s">
+        <v>672</v>
+      </c>
       <c r="I99" s="1" t="s">
         <v>7</v>
       </c>
@@ -9409,6 +10312,9 @@
       <c r="G100">
         <v>4</v>
       </c>
+      <c r="H100" t="s">
+        <v>673</v>
+      </c>
       <c r="I100" s="1" t="s">
         <v>7</v>
       </c>
@@ -9481,6 +10387,9 @@
       <c r="G101">
         <v>4</v>
       </c>
+      <c r="H101" t="s">
+        <v>674</v>
+      </c>
       <c r="I101" s="1" t="s">
         <v>7</v>
       </c>
@@ -9553,6 +10462,9 @@
       <c r="G102">
         <v>4</v>
       </c>
+      <c r="H102" t="s">
+        <v>675</v>
+      </c>
       <c r="I102" s="1" t="s">
         <v>7</v>
       </c>
@@ -9628,6 +10540,9 @@
       <c r="G103">
         <v>4</v>
       </c>
+      <c r="H103" t="s">
+        <v>676</v>
+      </c>
       <c r="I103" s="1" t="s">
         <v>7</v>
       </c>
@@ -9703,6 +10618,9 @@
       <c r="G104">
         <v>4</v>
       </c>
+      <c r="H104" t="s">
+        <v>677</v>
+      </c>
       <c r="I104" s="1" t="s">
         <v>7</v>
       </c>
@@ -9781,6 +10699,9 @@
       <c r="G105">
         <v>4</v>
       </c>
+      <c r="H105" t="s">
+        <v>681</v>
+      </c>
       <c r="I105" s="1" t="s">
         <v>7</v>
       </c>
@@ -9850,6 +10771,9 @@
       <c r="G106">
         <v>4</v>
       </c>
+      <c r="H106" t="s">
+        <v>678</v>
+      </c>
       <c r="I106" s="1" t="s">
         <v>7</v>
       </c>
@@ -9922,6 +10846,9 @@
       <c r="G107">
         <v>4</v>
       </c>
+      <c r="H107" t="s">
+        <v>679</v>
+      </c>
       <c r="I107" s="1" t="s">
         <v>7</v>
       </c>
@@ -10000,6 +10927,9 @@
       <c r="G108">
         <v>4</v>
       </c>
+      <c r="H108" t="s">
+        <v>680</v>
+      </c>
       <c r="I108" s="1" t="s">
         <v>7</v>
       </c>
@@ -10075,6 +11005,9 @@
       <c r="G109">
         <v>4</v>
       </c>
+      <c r="H109" t="s">
+        <v>617</v>
+      </c>
       <c r="I109" s="1" t="s">
         <v>7</v>
       </c>
@@ -10150,6 +11083,9 @@
       <c r="G110">
         <v>4</v>
       </c>
+      <c r="H110" t="s">
+        <v>618</v>
+      </c>
       <c r="I110" s="1" t="s">
         <v>7</v>
       </c>
@@ -10225,6 +11161,9 @@
       <c r="G111">
         <v>4</v>
       </c>
+      <c r="H111" t="s">
+        <v>619</v>
+      </c>
       <c r="I111" s="1" t="s">
         <v>7</v>
       </c>
@@ -10300,6 +11239,9 @@
       <c r="G112">
         <v>4</v>
       </c>
+      <c r="H112" t="s">
+        <v>620</v>
+      </c>
       <c r="I112" s="1" t="s">
         <v>7</v>
       </c>
@@ -10375,6 +11317,9 @@
       <c r="G113">
         <v>4</v>
       </c>
+      <c r="H113" t="s">
+        <v>620</v>
+      </c>
       <c r="I113" s="1" t="s">
         <v>7</v>
       </c>
@@ -10450,6 +11395,9 @@
       <c r="G114">
         <v>4</v>
       </c>
+      <c r="H114" t="s">
+        <v>621</v>
+      </c>
       <c r="I114" s="1" t="s">
         <v>7</v>
       </c>
@@ -10525,6 +11473,9 @@
       <c r="G115">
         <v>4</v>
       </c>
+      <c r="H115" t="s">
+        <v>622</v>
+      </c>
       <c r="I115" s="1" t="s">
         <v>7</v>
       </c>
@@ -10600,6 +11551,9 @@
       <c r="G116">
         <v>4</v>
       </c>
+      <c r="H116" t="s">
+        <v>623</v>
+      </c>
       <c r="I116" s="1" t="s">
         <v>7</v>
       </c>
@@ -10675,6 +11629,9 @@
       <c r="G117">
         <v>4</v>
       </c>
+      <c r="H117" t="s">
+        <v>624</v>
+      </c>
       <c r="I117" s="1" t="s">
         <v>7</v>
       </c>
@@ -10747,6 +11704,9 @@
       <c r="G118">
         <v>4</v>
       </c>
+      <c r="H118" t="s">
+        <v>625</v>
+      </c>
       <c r="I118" s="1" t="s">
         <v>7</v>
       </c>
@@ -10819,6 +11779,9 @@
       <c r="G119">
         <v>4</v>
       </c>
+      <c r="H119" t="s">
+        <v>626</v>
+      </c>
       <c r="I119" s="1" t="s">
         <v>7</v>
       </c>
@@ -10891,6 +11854,9 @@
       <c r="G120">
         <v>4</v>
       </c>
+      <c r="H120" t="s">
+        <v>627</v>
+      </c>
       <c r="I120" s="1" t="s">
         <v>7</v>
       </c>
@@ -10969,6 +11935,9 @@
       <c r="G121">
         <v>4</v>
       </c>
+      <c r="H121" t="s">
+        <v>628</v>
+      </c>
       <c r="I121" s="1" t="s">
         <v>7</v>
       </c>
@@ -11044,6 +12013,9 @@
       <c r="G122">
         <v>4</v>
       </c>
+      <c r="H122" t="s">
+        <v>629</v>
+      </c>
       <c r="I122" s="1" t="s">
         <v>7</v>
       </c>
@@ -11122,6 +12094,9 @@
       <c r="G123">
         <v>4</v>
       </c>
+      <c r="H123" t="s">
+        <v>630</v>
+      </c>
       <c r="I123" s="1" t="s">
         <v>7</v>
       </c>
@@ -11200,6 +12175,9 @@
       <c r="G124">
         <v>4</v>
       </c>
+      <c r="H124" t="s">
+        <v>631</v>
+      </c>
       <c r="I124" s="1" t="s">
         <v>7</v>
       </c>
@@ -11278,6 +12256,9 @@
       <c r="G125">
         <v>4</v>
       </c>
+      <c r="H125" t="s">
+        <v>632</v>
+      </c>
       <c r="I125" s="1" t="s">
         <v>302</v>
       </c>
@@ -11356,6 +12337,9 @@
       <c r="G126">
         <v>4</v>
       </c>
+      <c r="H126" t="s">
+        <v>633</v>
+      </c>
       <c r="I126" s="1" t="s">
         <v>302</v>
       </c>
@@ -11434,6 +12418,9 @@
       <c r="G127">
         <v>4</v>
       </c>
+      <c r="H127" t="s">
+        <v>634</v>
+      </c>
       <c r="I127" s="1" t="s">
         <v>302</v>
       </c>
@@ -11509,6 +12496,9 @@
       <c r="G128">
         <v>4</v>
       </c>
+      <c r="H128" t="s">
+        <v>635</v>
+      </c>
       <c r="I128" s="1" t="s">
         <v>302</v>
       </c>
@@ -11584,6 +12574,9 @@
       <c r="G129">
         <v>4</v>
       </c>
+      <c r="H129" t="s">
+        <v>636</v>
+      </c>
       <c r="I129" s="1" t="s">
         <v>302</v>
       </c>
@@ -11659,6 +12652,9 @@
       <c r="G130">
         <v>4</v>
       </c>
+      <c r="H130" t="s">
+        <v>637</v>
+      </c>
       <c r="I130" s="1" t="s">
         <v>302</v>
       </c>
@@ -11734,6 +12730,9 @@
       <c r="G131">
         <v>4</v>
       </c>
+      <c r="H131" t="s">
+        <v>638</v>
+      </c>
       <c r="I131" s="1" t="s">
         <v>302</v>
       </c>
@@ -11812,6 +12811,9 @@
       <c r="G132">
         <v>4</v>
       </c>
+      <c r="H132" t="s">
+        <v>639</v>
+      </c>
       <c r="I132" s="1" t="s">
         <v>302</v>
       </c>
@@ -11890,6 +12892,9 @@
       <c r="G133">
         <v>4</v>
       </c>
+      <c r="H133" t="s">
+        <v>640</v>
+      </c>
       <c r="I133" s="1" t="s">
         <v>302</v>
       </c>
@@ -11968,6 +12973,9 @@
       <c r="G134">
         <v>4</v>
       </c>
+      <c r="H134" t="s">
+        <v>641</v>
+      </c>
       <c r="I134" s="1" t="s">
         <v>302</v>
       </c>
@@ -12043,6 +13051,9 @@
       <c r="G135">
         <v>4</v>
       </c>
+      <c r="H135" t="s">
+        <v>642</v>
+      </c>
       <c r="I135" s="1" t="s">
         <v>302</v>
       </c>
@@ -12118,6 +13129,9 @@
       <c r="G136">
         <v>4</v>
       </c>
+      <c r="H136" t="s">
+        <v>643</v>
+      </c>
       <c r="I136" s="1" t="s">
         <v>302</v>
       </c>
@@ -12196,6 +13210,9 @@
       <c r="G137">
         <v>4</v>
       </c>
+      <c r="H137" t="s">
+        <v>644</v>
+      </c>
       <c r="I137" s="1" t="s">
         <v>302</v>
       </c>
@@ -12271,6 +13288,9 @@
       <c r="G138">
         <v>4</v>
       </c>
+      <c r="H138" t="s">
+        <v>645</v>
+      </c>
       <c r="I138" s="1" t="s">
         <v>302</v>
       </c>
@@ -12349,6 +13369,9 @@
       <c r="G139">
         <v>4</v>
       </c>
+      <c r="H139" t="s">
+        <v>646</v>
+      </c>
       <c r="I139" s="1" t="s">
         <v>302</v>
       </c>
@@ -12424,6 +13447,9 @@
       <c r="G140">
         <v>4</v>
       </c>
+      <c r="H140" t="s">
+        <v>647</v>
+      </c>
       <c r="I140" s="1" t="s">
         <v>302</v>
       </c>
@@ -12499,6 +13525,9 @@
       <c r="G141">
         <v>4</v>
       </c>
+      <c r="H141" t="s">
+        <v>648</v>
+      </c>
       <c r="I141" s="1" t="s">
         <v>302</v>
       </c>
@@ -12574,6 +13603,9 @@
       <c r="G142">
         <v>4</v>
       </c>
+      <c r="H142" t="s">
+        <v>649</v>
+      </c>
       <c r="I142" s="1" t="s">
         <v>302</v>
       </c>
@@ -12649,6 +13681,9 @@
       <c r="G143">
         <v>4</v>
       </c>
+      <c r="H143" t="s">
+        <v>650</v>
+      </c>
       <c r="I143" s="1" t="s">
         <v>302</v>
       </c>
@@ -12724,6 +13759,9 @@
       <c r="G144">
         <v>4</v>
       </c>
+      <c r="H144" t="s">
+        <v>651</v>
+      </c>
       <c r="I144" s="1" t="s">
         <v>302</v>
       </c>
@@ -12799,6 +13837,9 @@
       <c r="G145">
         <v>4</v>
       </c>
+      <c r="H145" t="s">
+        <v>652</v>
+      </c>
       <c r="I145" s="1" t="s">
         <v>302</v>
       </c>
@@ -12874,6 +13915,9 @@
       <c r="G146">
         <v>4</v>
       </c>
+      <c r="H146" t="s">
+        <v>653</v>
+      </c>
       <c r="I146" s="1" t="s">
         <v>302</v>
       </c>
@@ -12949,6 +13993,9 @@
       <c r="G147">
         <v>4</v>
       </c>
+      <c r="H147" t="s">
+        <v>654</v>
+      </c>
       <c r="I147" s="1" t="s">
         <v>302</v>
       </c>
@@ -13027,6 +14074,9 @@
       <c r="G148">
         <v>4</v>
       </c>
+      <c r="H148" t="s">
+        <v>655</v>
+      </c>
       <c r="I148" s="1" t="s">
         <v>302</v>
       </c>
@@ -13102,6 +14152,9 @@
       <c r="G149">
         <v>4</v>
       </c>
+      <c r="H149" t="s">
+        <v>656</v>
+      </c>
       <c r="I149" s="1" t="s">
         <v>302</v>
       </c>
@@ -13177,6 +14230,9 @@
       <c r="G150">
         <v>4</v>
       </c>
+      <c r="H150" t="s">
+        <v>657</v>
+      </c>
       <c r="I150" s="1" t="s">
         <v>302</v>
       </c>
@@ -13252,6 +14308,9 @@
       <c r="G151">
         <v>4</v>
       </c>
+      <c r="H151" t="s">
+        <v>658</v>
+      </c>
       <c r="I151" s="1" t="s">
         <v>302</v>
       </c>
@@ -13330,6 +14389,9 @@
       <c r="G152">
         <v>4</v>
       </c>
+      <c r="H152" t="s">
+        <v>659</v>
+      </c>
       <c r="I152" s="1" t="s">
         <v>302</v>
       </c>
@@ -13405,6 +14467,9 @@
       <c r="G153">
         <v>4</v>
       </c>
+      <c r="H153" t="s">
+        <v>660</v>
+      </c>
       <c r="I153" s="1" t="s">
         <v>302</v>
       </c>
@@ -13480,6 +14545,9 @@
       <c r="G154">
         <v>4</v>
       </c>
+      <c r="H154" t="s">
+        <v>661</v>
+      </c>
       <c r="I154" s="1" t="s">
         <v>302</v>
       </c>
@@ -13558,6 +14626,9 @@
       <c r="G155">
         <v>4</v>
       </c>
+      <c r="H155" t="s">
+        <v>662</v>
+      </c>
       <c r="I155" s="1" t="s">
         <v>302</v>
       </c>
@@ -13633,6 +14704,9 @@
       <c r="G156">
         <v>4</v>
       </c>
+      <c r="H156" t="s">
+        <v>663</v>
+      </c>
       <c r="I156" s="1" t="s">
         <v>302</v>
       </c>
@@ -13708,6 +14782,9 @@
       <c r="G157">
         <v>4</v>
       </c>
+      <c r="H157" t="s">
+        <v>664</v>
+      </c>
       <c r="I157" s="1" t="s">
         <v>302</v>
       </c>
@@ -13783,6 +14860,9 @@
       <c r="G158">
         <v>4</v>
       </c>
+      <c r="H158" t="s">
+        <v>664</v>
+      </c>
       <c r="I158" s="1" t="s">
         <v>302</v>
       </c>
@@ -13861,6 +14941,9 @@
       <c r="G159">
         <v>4</v>
       </c>
+      <c r="H159" t="s">
+        <v>681</v>
+      </c>
       <c r="I159" s="1" t="s">
         <v>7</v>
       </c>
@@ -13936,6 +15019,9 @@
       <c r="G160">
         <v>4</v>
       </c>
+      <c r="H160" t="s">
+        <v>681</v>
+      </c>
       <c r="I160" s="1" t="s">
         <v>7</v>
       </c>
@@ -14014,6 +15100,9 @@
       <c r="G161">
         <v>4</v>
       </c>
+      <c r="H161" t="s">
+        <v>681</v>
+      </c>
       <c r="I161" s="1" t="s">
         <v>7</v>
       </c>
@@ -14092,6 +15181,9 @@
       <c r="G162">
         <v>4</v>
       </c>
+      <c r="H162" t="s">
+        <v>681</v>
+      </c>
       <c r="I162" s="1" t="s">
         <v>7</v>
       </c>
@@ -14170,6 +15262,9 @@
       <c r="G163">
         <v>4</v>
       </c>
+      <c r="H163" t="s">
+        <v>681</v>
+      </c>
       <c r="I163" s="1" t="s">
         <v>7</v>
       </c>
@@ -14248,6 +15343,9 @@
       <c r="G164">
         <v>4</v>
       </c>
+      <c r="H164" t="s">
+        <v>681</v>
+      </c>
       <c r="I164" s="1" t="s">
         <v>7</v>
       </c>
@@ -14325,6 +15423,9 @@
       <c r="G165">
         <v>4</v>
       </c>
+      <c r="H165" t="s">
+        <v>681</v>
+      </c>
       <c r="I165" t="s">
         <v>7</v>
       </c>
@@ -14372,6 +15473,9 @@
       <c r="G166">
         <v>4</v>
       </c>
+      <c r="H166" t="s">
+        <v>681</v>
+      </c>
       <c r="I166" s="7" t="s">
         <v>86</v>
       </c>
@@ -14416,6 +15520,9 @@
       <c r="G167">
         <v>4</v>
       </c>
+      <c r="H167" t="s">
+        <v>681</v>
+      </c>
       <c r="I167" s="7" t="s">
         <v>86</v>
       </c>
@@ -14460,6 +15567,9 @@
       <c r="G168">
         <v>4</v>
       </c>
+      <c r="H168" t="s">
+        <v>681</v>
+      </c>
       <c r="I168" s="7" t="s">
         <v>86</v>
       </c>
@@ -14504,6 +15614,9 @@
       <c r="G169">
         <v>4</v>
       </c>
+      <c r="H169" t="s">
+        <v>681</v>
+      </c>
       <c r="I169" s="7" t="s">
         <v>86</v>
       </c>
@@ -14548,6 +15661,9 @@
       <c r="G170">
         <v>4</v>
       </c>
+      <c r="H170" t="s">
+        <v>681</v>
+      </c>
       <c r="I170" s="7" t="s">
         <v>86</v>
       </c>
@@ -14592,6 +15708,9 @@
       <c r="G171">
         <v>4</v>
       </c>
+      <c r="H171" t="s">
+        <v>681</v>
+      </c>
       <c r="I171" s="7" t="s">
         <v>86</v>
       </c>
@@ -14636,6 +15755,9 @@
       <c r="G172">
         <v>4</v>
       </c>
+      <c r="H172" t="s">
+        <v>681</v>
+      </c>
       <c r="I172" s="7" t="s">
         <v>86</v>
       </c>
@@ -14680,6 +15802,9 @@
       <c r="G173">
         <v>4</v>
       </c>
+      <c r="H173" t="s">
+        <v>681</v>
+      </c>
       <c r="I173" s="7" t="s">
         <v>86</v>
       </c>
@@ -14723,6 +15848,9 @@
       </c>
       <c r="G174">
         <v>4</v>
+      </c>
+      <c r="H174" t="s">
+        <v>681</v>
       </c>
       <c r="I174" s="7" t="s">
         <v>86</v>

--- a/inclusion_lists/exp_summary.xlsx
+++ b/inclusion_lists/exp_summary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2372" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2372" uniqueCount="745">
   <si>
     <t>date</t>
   </si>
@@ -1137,7 +1137,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1781,9 +1781,6 @@
     <t>{'DG','CA3','WM2','DG'}</t>
   </si>
   <si>
-    <t>{'DG','CA3','DG/CA3','DG'}</t>
-  </si>
-  <si>
     <t>{'CA1','WM','CA1','CA1'}</t>
   </si>
   <si>
@@ -2256,6 +2253,18 @@
   </si>
   <si>
     <t>[1820;2780;2440;1900]</t>
+  </si>
+  <si>
+    <t>{'DG','CA3','DG','DG'}</t>
+  </si>
+  <si>
+    <t>{'DG','CA3','WM3','DG'}</t>
+  </si>
+  <si>
+    <t>{'DG','CA3','CA3','DG'}</t>
+  </si>
+  <si>
+    <t>{'TBD','TBD','TBD','CA3'}</t>
   </si>
 </sst>
 </file>
@@ -2266,7 +2275,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2274,14 +2283,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -3010,45 +3019,45 @@
   <dimension ref="A1:AC174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B81" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q48" sqref="Q48"/>
+      <selection pane="bottomRight" activeCell="K108" sqref="K108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.140625" style="7" customWidth="1"/>
     <col min="7" max="7" width="2" customWidth="1"/>
-    <col min="8" max="8" width="26.5" customWidth="1"/>
-    <col min="9" max="9" width="27.5" customWidth="1"/>
-    <col min="10" max="10" width="8.625" customWidth="1"/>
-    <col min="11" max="11" width="25.625" customWidth="1"/>
-    <col min="12" max="12" width="2.75" customWidth="1"/>
-    <col min="13" max="13" width="12.5" style="9" customWidth="1"/>
-    <col min="14" max="14" width="2.75" customWidth="1"/>
-    <col min="15" max="15" width="2.5" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" customWidth="1"/>
+    <col min="11" max="11" width="25.5703125" customWidth="1"/>
+    <col min="12" max="12" width="2.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" style="9" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" customWidth="1"/>
+    <col min="15" max="15" width="2.42578125" customWidth="1"/>
     <col min="16" max="16" width="3" customWidth="1"/>
-    <col min="17" max="17" width="5.5" customWidth="1"/>
-    <col min="18" max="18" width="6.5" customWidth="1"/>
-    <col min="19" max="19" width="3.125" customWidth="1"/>
-    <col min="20" max="20" width="5.375" customWidth="1"/>
-    <col min="21" max="21" width="19.5" customWidth="1"/>
+    <col min="17" max="17" width="5.42578125" customWidth="1"/>
+    <col min="18" max="18" width="6.42578125" customWidth="1"/>
+    <col min="19" max="19" width="3.140625" customWidth="1"/>
+    <col min="20" max="20" width="5.42578125" customWidth="1"/>
+    <col min="21" max="21" width="19.42578125" customWidth="1"/>
     <col min="22" max="22" width="3" customWidth="1"/>
-    <col min="23" max="23" width="3.75" customWidth="1"/>
-    <col min="24" max="24" width="2.5" customWidth="1"/>
-    <col min="25" max="25" width="3.75" customWidth="1"/>
-    <col min="26" max="26" width="4.875" customWidth="1"/>
+    <col min="23" max="23" width="3.7109375" customWidth="1"/>
+    <col min="24" max="24" width="2.42578125" customWidth="1"/>
+    <col min="25" max="25" width="3.7109375" customWidth="1"/>
+    <col min="26" max="26" width="4.85546875" customWidth="1"/>
     <col min="27" max="27" width="20" customWidth="1"/>
-    <col min="28" max="28" width="107.625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="78.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="107.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="78.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -3137,7 +3146,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>190</v>
       </c>
@@ -3158,7 +3167,7 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
@@ -3218,7 +3227,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>191</v>
       </c>
@@ -3239,7 +3248,7 @@
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>7</v>
@@ -3299,7 +3308,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>192</v>
       </c>
@@ -3320,7 +3329,7 @@
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>7</v>
@@ -3380,7 +3389,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>193</v>
       </c>
@@ -3401,7 +3410,7 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>7</v>
@@ -3461,7 +3470,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>196</v>
       </c>
@@ -3482,7 +3491,7 @@
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>7</v>
@@ -3491,7 +3500,7 @@
         <v>8</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L6" s="10" t="s">
         <v>498</v>
@@ -3542,7 +3551,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>195</v>
       </c>
@@ -3563,7 +3572,7 @@
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>7</v>
@@ -3572,7 +3581,7 @@
         <v>8</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L7" s="10" t="s">
         <v>498</v>
@@ -3623,7 +3632,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>197</v>
       </c>
@@ -3644,7 +3653,7 @@
         <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>7</v>
@@ -3653,7 +3662,7 @@
         <v>8</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L8" s="10" t="s">
         <v>498</v>
@@ -3704,7 +3713,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>201</v>
       </c>
@@ -3725,7 +3734,7 @@
         <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>7</v>
@@ -3734,7 +3743,7 @@
         <v>8</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L9" s="10" t="s">
         <v>498</v>
@@ -3785,7 +3794,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>204</v>
       </c>
@@ -3806,7 +3815,7 @@
         <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>7</v>
@@ -3815,7 +3824,7 @@
         <v>8</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L10" s="10" t="s">
         <v>498</v>
@@ -3866,7 +3875,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>208</v>
       </c>
@@ -3887,7 +3896,7 @@
         <v>4</v>
       </c>
       <c r="H11" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>7</v>
@@ -3896,7 +3905,7 @@
         <v>8</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L11" s="10" t="s">
         <v>498</v>
@@ -3944,7 +3953,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>211</v>
       </c>
@@ -3965,7 +3974,7 @@
         <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>7</v>
@@ -3974,7 +3983,7 @@
         <v>8</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>498</v>
@@ -4025,7 +4034,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>213</v>
       </c>
@@ -4046,7 +4055,7 @@
         <v>4</v>
       </c>
       <c r="H13" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>7</v>
@@ -4055,7 +4064,7 @@
         <v>8</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L13" s="10" t="s">
         <v>498</v>
@@ -4103,7 +4112,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>215</v>
       </c>
@@ -4124,7 +4133,7 @@
         <v>4</v>
       </c>
       <c r="H14" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>7</v>
@@ -4133,7 +4142,7 @@
         <v>8</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L14" s="10" t="s">
         <v>498</v>
@@ -4181,7 +4190,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>217</v>
       </c>
@@ -4202,7 +4211,7 @@
         <v>4</v>
       </c>
       <c r="H15" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>7</v>
@@ -4259,7 +4268,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>220</v>
       </c>
@@ -4280,7 +4289,7 @@
         <v>4</v>
       </c>
       <c r="H16" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>7</v>
@@ -4337,7 +4346,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>223</v>
       </c>
@@ -4358,7 +4367,7 @@
         <v>4</v>
       </c>
       <c r="H17" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>7</v>
@@ -4415,7 +4424,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>225</v>
       </c>
@@ -4436,7 +4445,7 @@
         <v>4</v>
       </c>
       <c r="H18" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>7</v>
@@ -4493,7 +4502,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>230</v>
       </c>
@@ -4514,7 +4523,7 @@
         <v>4</v>
       </c>
       <c r="H19" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>7</v>
@@ -4571,7 +4580,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -4591,7 +4600,7 @@
         <v>4</v>
       </c>
       <c r="H20" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>86</v>
@@ -4600,7 +4609,7 @@
         <v>86</v>
       </c>
       <c r="K20" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L20" s="10" t="s">
         <v>498</v>
@@ -4618,7 +4627,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -4638,7 +4647,7 @@
         <v>4</v>
       </c>
       <c r="H21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>86</v>
@@ -4647,7 +4656,7 @@
         <v>86</v>
       </c>
       <c r="K21" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L21" s="10" t="s">
         <v>498</v>
@@ -4665,7 +4674,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
@@ -4685,7 +4694,7 @@
         <v>4</v>
       </c>
       <c r="H22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>86</v>
@@ -4694,7 +4703,7 @@
         <v>86</v>
       </c>
       <c r="K22" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L22" s="10" t="s">
         <v>498</v>
@@ -4712,7 +4721,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -4732,7 +4741,7 @@
         <v>4</v>
       </c>
       <c r="H23" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>86</v>
@@ -4741,7 +4750,7 @@
         <v>86</v>
       </c>
       <c r="K23" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L23" s="10" t="s">
         <v>498</v>
@@ -4759,7 +4768,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
@@ -4779,7 +4788,7 @@
         <v>4</v>
       </c>
       <c r="H24" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>86</v>
@@ -4788,7 +4797,7 @@
         <v>86</v>
       </c>
       <c r="K24" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L24" s="10" t="s">
         <v>498</v>
@@ -4806,7 +4815,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>44</v>
       </c>
@@ -4826,7 +4835,7 @@
         <v>4</v>
       </c>
       <c r="H25" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>86</v>
@@ -4835,7 +4844,7 @@
         <v>86</v>
       </c>
       <c r="K25" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L25" s="10" t="s">
         <v>498</v>
@@ -4853,7 +4862,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>45</v>
       </c>
@@ -4873,7 +4882,7 @@
         <v>4</v>
       </c>
       <c r="H26" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>86</v>
@@ -4882,7 +4891,7 @@
         <v>86</v>
       </c>
       <c r="K26" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L26" s="10" t="s">
         <v>498</v>
@@ -4900,7 +4909,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>46</v>
       </c>
@@ -4920,7 +4929,7 @@
         <v>4</v>
       </c>
       <c r="H27" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>86</v>
@@ -4929,7 +4938,7 @@
         <v>86</v>
       </c>
       <c r="K27" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L27" s="10" t="s">
         <v>498</v>
@@ -4947,7 +4956,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>47</v>
       </c>
@@ -4967,7 +4976,7 @@
         <v>4</v>
       </c>
       <c r="H28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>86</v>
@@ -4976,7 +4985,7 @@
         <v>86</v>
       </c>
       <c r="K28" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L28" s="10" t="s">
         <v>498</v>
@@ -4994,7 +5003,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -5014,7 +5023,7 @@
         <v>4</v>
       </c>
       <c r="H29" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="I29" t="s">
         <v>577</v>
@@ -5023,7 +5032,7 @@
         <v>8</v>
       </c>
       <c r="K29" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L29" s="10" t="s">
         <v>561</v>
@@ -5050,7 +5059,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>13</v>
       </c>
@@ -5070,7 +5079,7 @@
         <v>4</v>
       </c>
       <c r="H30" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="I30" t="s">
         <v>577</v>
@@ -5079,7 +5088,7 @@
         <v>8</v>
       </c>
       <c r="K30" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L30" s="10" t="s">
         <v>561</v>
@@ -5106,7 +5115,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>14</v>
       </c>
@@ -5126,7 +5135,7 @@
         <v>4</v>
       </c>
       <c r="H31" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="I31" t="s">
         <v>577</v>
@@ -5177,7 +5186,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>15</v>
       </c>
@@ -5197,7 +5206,7 @@
         <v>4</v>
       </c>
       <c r="H32" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I32" t="s">
         <v>577</v>
@@ -5248,7 +5257,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
@@ -5268,7 +5277,7 @@
         <v>4</v>
       </c>
       <c r="H33" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I33" t="s">
         <v>577</v>
@@ -5319,7 +5328,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>17</v>
       </c>
@@ -5339,7 +5348,7 @@
         <v>4</v>
       </c>
       <c r="H34" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I34" t="s">
         <v>577</v>
@@ -5390,7 +5399,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -5410,7 +5419,7 @@
         <v>4</v>
       </c>
       <c r="H35" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="I35" t="s">
         <v>577</v>
@@ -5461,7 +5470,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>20</v>
       </c>
@@ -5481,7 +5490,7 @@
         <v>4</v>
       </c>
       <c r="H36" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I36" t="s">
         <v>577</v>
@@ -5532,7 +5541,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
@@ -5552,7 +5561,7 @@
         <v>4</v>
       </c>
       <c r="H37" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I37" t="s">
         <v>577</v>
@@ -5603,7 +5612,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>22</v>
       </c>
@@ -5623,7 +5632,7 @@
         <v>4</v>
       </c>
       <c r="H38" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I38" t="s">
         <v>577</v>
@@ -5674,7 +5683,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>23</v>
       </c>
@@ -5694,7 +5703,7 @@
         <v>4</v>
       </c>
       <c r="H39" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="I39" t="s">
         <v>577</v>
@@ -5748,7 +5757,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
@@ -5768,7 +5777,7 @@
         <v>4</v>
       </c>
       <c r="H40" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="I40" t="s">
         <v>577</v>
@@ -5819,7 +5828,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>24</v>
       </c>
@@ -5839,7 +5848,7 @@
         <v>4</v>
       </c>
       <c r="H41" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I41" t="s">
         <v>577</v>
@@ -5890,7 +5899,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>25</v>
       </c>
@@ -5910,7 +5919,7 @@
         <v>4</v>
       </c>
       <c r="H42" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I42" t="s">
         <v>577</v>
@@ -5961,7 +5970,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>26</v>
       </c>
@@ -5981,7 +5990,7 @@
         <v>4</v>
       </c>
       <c r="H43" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I43" t="s">
         <v>577</v>
@@ -6035,7 +6044,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>27</v>
       </c>
@@ -6055,7 +6064,7 @@
         <v>4</v>
       </c>
       <c r="H44" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I44" t="s">
         <v>577</v>
@@ -6106,7 +6115,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>28</v>
       </c>
@@ -6126,7 +6135,7 @@
         <v>4</v>
       </c>
       <c r="H45" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I45" t="s">
         <v>577</v>
@@ -6177,7 +6186,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>29</v>
       </c>
@@ -6197,7 +6206,7 @@
         <v>4</v>
       </c>
       <c r="H46" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I46" t="s">
         <v>577</v>
@@ -6248,7 +6257,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>30</v>
       </c>
@@ -6268,7 +6277,7 @@
         <v>4</v>
       </c>
       <c r="H47" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I47" t="s">
         <v>577</v>
@@ -6319,7 +6328,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>31</v>
       </c>
@@ -6339,7 +6348,7 @@
         <v>4</v>
       </c>
       <c r="H48" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I48" t="s">
         <v>577</v>
@@ -6390,7 +6399,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>32</v>
       </c>
@@ -6410,7 +6419,7 @@
         <v>4</v>
       </c>
       <c r="H49" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I49" t="s">
         <v>577</v>
@@ -6461,7 +6470,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>6</v>
       </c>
@@ -6481,7 +6490,7 @@
         <v>4</v>
       </c>
       <c r="H50" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I50" t="s">
         <v>577</v>
@@ -6532,7 +6541,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>33</v>
       </c>
@@ -6552,7 +6561,7 @@
         <v>4</v>
       </c>
       <c r="H51" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="I51" t="s">
         <v>577</v>
@@ -6603,7 +6612,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>34</v>
       </c>
@@ -6623,7 +6632,7 @@
         <v>4</v>
       </c>
       <c r="H52" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="I52" t="s">
         <v>577</v>
@@ -6674,7 +6683,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>35</v>
       </c>
@@ -6694,7 +6703,7 @@
         <v>4</v>
       </c>
       <c r="H53" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I53" t="s">
         <v>577</v>
@@ -6745,7 +6754,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>36</v>
       </c>
@@ -6765,7 +6774,7 @@
         <v>4</v>
       </c>
       <c r="H54" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="I54" t="s">
         <v>577</v>
@@ -6816,7 +6825,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>37</v>
       </c>
@@ -6836,7 +6845,7 @@
         <v>4</v>
       </c>
       <c r="H55" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="I55" t="s">
         <v>577</v>
@@ -6887,7 +6896,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>57</v>
       </c>
@@ -6907,7 +6916,7 @@
         <v>4</v>
       </c>
       <c r="H56" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I56" t="s">
         <v>63</v>
@@ -6916,7 +6925,7 @@
         <v>88</v>
       </c>
       <c r="K56" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L56" s="10" t="s">
         <v>561</v>
@@ -6967,7 +6976,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>62</v>
       </c>
@@ -6987,7 +6996,7 @@
         <v>4</v>
       </c>
       <c r="H57" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I57" t="s">
         <v>63</v>
@@ -6996,7 +7005,7 @@
         <v>88</v>
       </c>
       <c r="K57" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L57" s="10" t="s">
         <v>498</v>
@@ -7044,7 +7053,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>65</v>
       </c>
@@ -7064,7 +7073,7 @@
         <v>4</v>
       </c>
       <c r="H58" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I58" t="s">
         <v>63</v>
@@ -7073,7 +7082,7 @@
         <v>88</v>
       </c>
       <c r="K58" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L58" s="10" t="s">
         <v>498</v>
@@ -7121,7 +7130,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>70</v>
       </c>
@@ -7141,7 +7150,7 @@
         <v>4</v>
       </c>
       <c r="H59" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I59" t="s">
         <v>63</v>
@@ -7150,7 +7159,7 @@
         <v>88</v>
       </c>
       <c r="K59" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L59" s="10" t="s">
         <v>498</v>
@@ -7198,7 +7207,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>73</v>
       </c>
@@ -7218,7 +7227,7 @@
         <v>4</v>
       </c>
       <c r="H60" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I60" t="s">
         <v>63</v>
@@ -7227,7 +7236,7 @@
         <v>88</v>
       </c>
       <c r="K60" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L60" s="10" t="s">
         <v>498</v>
@@ -7275,7 +7284,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>76</v>
       </c>
@@ -7295,7 +7304,7 @@
         <v>4</v>
       </c>
       <c r="H61" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I61" t="s">
         <v>63</v>
@@ -7304,7 +7313,7 @@
         <v>88</v>
       </c>
       <c r="K61" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L61" s="10" t="s">
         <v>498</v>
@@ -7352,7 +7361,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>79</v>
       </c>
@@ -7372,7 +7381,7 @@
         <v>4</v>
       </c>
       <c r="H62" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I62" t="s">
         <v>63</v>
@@ -7381,7 +7390,7 @@
         <v>88</v>
       </c>
       <c r="K62" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L62" s="10" t="s">
         <v>498</v>
@@ -7429,7 +7438,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>82</v>
       </c>
@@ -7449,7 +7458,7 @@
         <v>4</v>
       </c>
       <c r="H63" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I63" t="s">
         <v>63</v>
@@ -7458,7 +7467,7 @@
         <v>88</v>
       </c>
       <c r="K63" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L63" s="10" t="s">
         <v>498</v>
@@ -7506,7 +7515,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>87</v>
       </c>
@@ -7526,7 +7535,7 @@
         <v>4</v>
       </c>
       <c r="H64" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I64" t="s">
         <v>63</v>
@@ -7535,7 +7544,7 @@
         <v>88</v>
       </c>
       <c r="K64" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L64" s="10" t="s">
         <v>498</v>
@@ -7583,7 +7592,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>89</v>
       </c>
@@ -7603,7 +7612,7 @@
         <v>4</v>
       </c>
       <c r="H65" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="I65" t="s">
         <v>63</v>
@@ -7612,7 +7621,7 @@
         <v>88</v>
       </c>
       <c r="K65" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L65" s="10" t="s">
         <v>498</v>
@@ -7660,7 +7669,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>91</v>
       </c>
@@ -7680,7 +7689,7 @@
         <v>4</v>
       </c>
       <c r="H66" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="I66" t="s">
         <v>63</v>
@@ -7689,7 +7698,7 @@
         <v>88</v>
       </c>
       <c r="K66" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L66" s="10" t="s">
         <v>498</v>
@@ -7737,7 +7746,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>94</v>
       </c>
@@ -7757,7 +7766,7 @@
         <v>4</v>
       </c>
       <c r="H67" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I67" t="s">
         <v>63</v>
@@ -7766,7 +7775,7 @@
         <v>88</v>
       </c>
       <c r="K67" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L67" s="10" t="s">
         <v>498</v>
@@ -7814,7 +7823,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>96</v>
       </c>
@@ -7834,7 +7843,7 @@
         <v>4</v>
       </c>
       <c r="H68" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I68" t="s">
         <v>63</v>
@@ -7843,7 +7852,7 @@
         <v>88</v>
       </c>
       <c r="K68" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L68" s="10" t="s">
         <v>498</v>
@@ -7891,7 +7900,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>99</v>
       </c>
@@ -7911,7 +7920,7 @@
         <v>4</v>
       </c>
       <c r="H69" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="I69" t="s">
         <v>63</v>
@@ -7920,7 +7929,7 @@
         <v>88</v>
       </c>
       <c r="K69" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L69" s="10" t="s">
         <v>498</v>
@@ -7968,7 +7977,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>102</v>
       </c>
@@ -7988,7 +7997,7 @@
         <v>4</v>
       </c>
       <c r="H70" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="I70" t="s">
         <v>63</v>
@@ -7997,7 +8006,7 @@
         <v>88</v>
       </c>
       <c r="K70" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L70" s="10" t="s">
         <v>498</v>
@@ -8045,7 +8054,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>104</v>
       </c>
@@ -8065,7 +8074,7 @@
         <v>4</v>
       </c>
       <c r="H71" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="I71" t="s">
         <v>63</v>
@@ -8074,7 +8083,7 @@
         <v>88</v>
       </c>
       <c r="K71" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L71" s="10" t="s">
         <v>498</v>
@@ -8122,7 +8131,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>107</v>
       </c>
@@ -8142,7 +8151,7 @@
         <v>4</v>
       </c>
       <c r="H72" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I72" t="s">
         <v>63</v>
@@ -8151,7 +8160,7 @@
         <v>88</v>
       </c>
       <c r="K72" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L72" s="10" t="s">
         <v>498</v>
@@ -8199,7 +8208,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>110</v>
       </c>
@@ -8219,7 +8228,7 @@
         <v>4</v>
       </c>
       <c r="H73" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="I73" t="s">
         <v>63</v>
@@ -8228,7 +8237,7 @@
         <v>88</v>
       </c>
       <c r="K73" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L73" s="10" t="s">
         <v>498</v>
@@ -8276,7 +8285,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>112</v>
       </c>
@@ -8296,7 +8305,7 @@
         <v>4</v>
       </c>
       <c r="H74" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I74" t="s">
         <v>63</v>
@@ -8305,7 +8314,7 @@
         <v>88</v>
       </c>
       <c r="K74" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L74" s="10" t="s">
         <v>498</v>
@@ -8353,7 +8362,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>115</v>
       </c>
@@ -8373,7 +8382,7 @@
         <v>4</v>
       </c>
       <c r="H75" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I75" t="s">
         <v>63</v>
@@ -8382,7 +8391,7 @@
         <v>88</v>
       </c>
       <c r="K75" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L75" s="10" t="s">
         <v>498</v>
@@ -8430,7 +8439,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>118</v>
       </c>
@@ -8450,7 +8459,7 @@
         <v>4</v>
       </c>
       <c r="H76" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I76" t="s">
         <v>63</v>
@@ -8459,7 +8468,7 @@
         <v>88</v>
       </c>
       <c r="K76" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L76" s="10" t="s">
         <v>503</v>
@@ -8507,7 +8516,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>120</v>
       </c>
@@ -8527,7 +8536,7 @@
         <v>4</v>
       </c>
       <c r="H77" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="I77" t="s">
         <v>63</v>
@@ -8536,7 +8545,7 @@
         <v>88</v>
       </c>
       <c r="K77" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L77" s="10" t="s">
         <v>561</v>
@@ -8572,7 +8581,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>122</v>
       </c>
@@ -8592,7 +8601,7 @@
         <v>4</v>
       </c>
       <c r="H78" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I78" t="s">
         <v>63</v>
@@ -8601,7 +8610,7 @@
         <v>88</v>
       </c>
       <c r="K78" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L78" s="10" t="s">
         <v>498</v>
@@ -8649,7 +8658,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>126</v>
       </c>
@@ -8669,7 +8678,7 @@
         <v>4</v>
       </c>
       <c r="H79" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I79" t="s">
         <v>63</v>
@@ -8678,7 +8687,7 @@
         <v>88</v>
       </c>
       <c r="K79" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L79" s="10" t="s">
         <v>498</v>
@@ -8726,7 +8735,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>129</v>
       </c>
@@ -8746,7 +8755,7 @@
         <v>4</v>
       </c>
       <c r="H80" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="I80" t="s">
         <v>63</v>
@@ -8755,7 +8764,7 @@
         <v>88</v>
       </c>
       <c r="K80" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L80" s="10" t="s">
         <v>498</v>
@@ -8806,7 +8815,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>132</v>
       </c>
@@ -8826,7 +8835,7 @@
         <v>4</v>
       </c>
       <c r="H81" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I81" t="s">
         <v>63</v>
@@ -8835,7 +8844,7 @@
         <v>88</v>
       </c>
       <c r="K81" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L81" s="10" t="s">
         <v>498</v>
@@ -8886,7 +8895,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>135</v>
       </c>
@@ -8906,7 +8915,7 @@
         <v>4</v>
       </c>
       <c r="H82" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I82" t="s">
         <v>63</v>
@@ -8915,7 +8924,7 @@
         <v>88</v>
       </c>
       <c r="K82" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L82" s="10" t="s">
         <v>498</v>
@@ -8963,7 +8972,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>138</v>
       </c>
@@ -8983,7 +8992,7 @@
         <v>4</v>
       </c>
       <c r="H83" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="I83" t="s">
         <v>63</v>
@@ -8992,7 +9001,7 @@
         <v>88</v>
       </c>
       <c r="K83" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L83" s="10" t="s">
         <v>498</v>
@@ -9043,7 +9052,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>141</v>
       </c>
@@ -9063,7 +9072,7 @@
         <v>4</v>
       </c>
       <c r="H84" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I84" t="s">
         <v>63</v>
@@ -9072,7 +9081,7 @@
         <v>88</v>
       </c>
       <c r="K84" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L84" s="10" t="s">
         <v>498</v>
@@ -9120,7 +9129,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>144</v>
       </c>
@@ -9140,7 +9149,7 @@
         <v>4</v>
       </c>
       <c r="H85" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="I85" t="s">
         <v>63</v>
@@ -9149,7 +9158,7 @@
         <v>88</v>
       </c>
       <c r="K85" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L85" s="10" t="s">
         <v>498</v>
@@ -9197,7 +9206,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>147</v>
       </c>
@@ -9217,7 +9226,7 @@
         <v>4</v>
       </c>
       <c r="H86" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="I86" t="s">
         <v>63</v>
@@ -9226,7 +9235,7 @@
         <v>88</v>
       </c>
       <c r="K86" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L86" s="10" t="s">
         <v>498</v>
@@ -9274,7 +9283,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>150</v>
       </c>
@@ -9294,7 +9303,7 @@
         <v>4</v>
       </c>
       <c r="H87" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="I87" t="s">
         <v>63</v>
@@ -9303,7 +9312,7 @@
         <v>88</v>
       </c>
       <c r="K87" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L87" s="10" t="s">
         <v>498</v>
@@ -9351,7 +9360,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>153</v>
       </c>
@@ -9371,7 +9380,7 @@
         <v>4</v>
       </c>
       <c r="H88" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="I88" t="s">
         <v>63</v>
@@ -9380,7 +9389,7 @@
         <v>88</v>
       </c>
       <c r="K88" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L88" s="10" t="s">
         <v>498</v>
@@ -9428,7 +9437,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>156</v>
       </c>
@@ -9448,7 +9457,7 @@
         <v>4</v>
       </c>
       <c r="H89" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I89" t="s">
         <v>63</v>
@@ -9457,7 +9466,7 @@
         <v>88</v>
       </c>
       <c r="K89" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L89" s="10" t="s">
         <v>498</v>
@@ -9508,7 +9517,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>159</v>
       </c>
@@ -9528,7 +9537,7 @@
         <v>4</v>
       </c>
       <c r="H90" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I90" t="s">
         <v>63</v>
@@ -9537,7 +9546,7 @@
         <v>88</v>
       </c>
       <c r="K90" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L90" s="10" t="s">
         <v>498</v>
@@ -9585,7 +9594,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>161</v>
       </c>
@@ -9605,7 +9614,7 @@
         <v>4</v>
       </c>
       <c r="H91" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I91" t="s">
         <v>63</v>
@@ -9614,7 +9623,7 @@
         <v>88</v>
       </c>
       <c r="K91" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L91" s="10" t="s">
         <v>498</v>
@@ -9665,7 +9674,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>232</v>
       </c>
@@ -9686,7 +9695,7 @@
         <v>4</v>
       </c>
       <c r="H92" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>7</v>
@@ -9695,7 +9704,7 @@
         <v>8</v>
       </c>
       <c r="K92" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L92" s="10" t="s">
         <v>498</v>
@@ -9743,7 +9752,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>236</v>
       </c>
@@ -9764,7 +9773,7 @@
         <v>4</v>
       </c>
       <c r="H93" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>7</v>
@@ -9773,7 +9782,7 @@
         <v>8</v>
       </c>
       <c r="K93" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L93" s="10" t="s">
         <v>498</v>
@@ -9824,7 +9833,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>240</v>
       </c>
@@ -9845,7 +9854,7 @@
         <v>4</v>
       </c>
       <c r="H94" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>7</v>
@@ -9854,7 +9863,7 @@
         <v>8</v>
       </c>
       <c r="K94" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L94" s="10" t="s">
         <v>498</v>
@@ -9905,7 +9914,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>248</v>
       </c>
@@ -9926,7 +9935,7 @@
         <v>4</v>
       </c>
       <c r="H95" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>7</v>
@@ -9935,7 +9944,7 @@
         <v>8</v>
       </c>
       <c r="K95" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L95" s="10" t="s">
         <v>498</v>
@@ -9980,7 +9989,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>255</v>
       </c>
@@ -10001,7 +10010,7 @@
         <v>4</v>
       </c>
       <c r="H96" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>7</v>
@@ -10010,7 +10019,7 @@
         <v>8</v>
       </c>
       <c r="K96" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L96" s="10" t="s">
         <v>498</v>
@@ -10058,7 +10067,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>260</v>
       </c>
@@ -10079,7 +10088,7 @@
         <v>4</v>
       </c>
       <c r="H97" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>7</v>
@@ -10088,7 +10097,7 @@
         <v>8</v>
       </c>
       <c r="K97" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L97" s="10" t="s">
         <v>498</v>
@@ -10136,7 +10145,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>263</v>
       </c>
@@ -10157,7 +10166,7 @@
         <v>4</v>
       </c>
       <c r="H98" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>7</v>
@@ -10166,7 +10175,7 @@
         <v>8</v>
       </c>
       <c r="K98" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L98" s="10" t="s">
         <v>498</v>
@@ -10214,7 +10223,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>271</v>
       </c>
@@ -10235,7 +10244,7 @@
         <v>4</v>
       </c>
       <c r="H99" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>7</v>
@@ -10244,7 +10253,7 @@
         <v>8</v>
       </c>
       <c r="K99" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L99" s="10" t="s">
         <v>498</v>
@@ -10289,10 +10298,10 @@
         <v>272</v>
       </c>
       <c r="AB99" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.2">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>274</v>
       </c>
@@ -10313,7 +10322,7 @@
         <v>4</v>
       </c>
       <c r="H100" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>7</v>
@@ -10322,7 +10331,7 @@
         <v>8</v>
       </c>
       <c r="K100" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L100" s="10" t="s">
         <v>498</v>
@@ -10367,7 +10376,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>279</v>
       </c>
@@ -10388,7 +10397,7 @@
         <v>4</v>
       </c>
       <c r="H101" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>7</v>
@@ -10397,7 +10406,7 @@
         <v>8</v>
       </c>
       <c r="K101" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L101" s="10" t="s">
         <v>498</v>
@@ -10442,7 +10451,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>282</v>
       </c>
@@ -10463,7 +10472,7 @@
         <v>4</v>
       </c>
       <c r="H102" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>7</v>
@@ -10472,7 +10481,7 @@
         <v>8</v>
       </c>
       <c r="K102" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L102" s="10" t="s">
         <v>498</v>
@@ -10520,7 +10529,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>289</v>
       </c>
@@ -10541,7 +10550,7 @@
         <v>4</v>
       </c>
       <c r="H103" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>7</v>
@@ -10550,7 +10559,7 @@
         <v>8</v>
       </c>
       <c r="K103" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L103" s="10" t="s">
         <v>498</v>
@@ -10598,7 +10607,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>307</v>
       </c>
@@ -10619,7 +10628,7 @@
         <v>4</v>
       </c>
       <c r="H104" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>7</v>
@@ -10628,7 +10637,7 @@
         <v>8</v>
       </c>
       <c r="K104" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L104" s="10" t="s">
         <v>498</v>
@@ -10679,7 +10688,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>324</v>
       </c>
@@ -10700,7 +10709,7 @@
         <v>4</v>
       </c>
       <c r="H105" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>7</v>
@@ -10709,7 +10718,7 @@
         <v>8</v>
       </c>
       <c r="K105" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L105" s="10" t="s">
         <v>561</v>
@@ -10751,7 +10760,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>332</v>
       </c>
@@ -10772,7 +10781,7 @@
         <v>4</v>
       </c>
       <c r="H106" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>7</v>
@@ -10781,7 +10790,7 @@
         <v>8</v>
       </c>
       <c r="K106" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L106" s="10" t="s">
         <v>498</v>
@@ -10826,7 +10835,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>347</v>
       </c>
@@ -10847,7 +10856,7 @@
         <v>4</v>
       </c>
       <c r="H107" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>7</v>
@@ -10856,7 +10865,7 @@
         <v>8</v>
       </c>
       <c r="K107" t="s">
-        <v>597</v>
+        <v>744</v>
       </c>
       <c r="L107" s="10" t="s">
         <v>498</v>
@@ -10907,7 +10916,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>353</v>
       </c>
@@ -10928,7 +10937,7 @@
         <v>4</v>
       </c>
       <c r="H108" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>7</v>
@@ -10937,7 +10946,7 @@
         <v>8</v>
       </c>
       <c r="K108" t="s">
-        <v>597</v>
+        <v>744</v>
       </c>
       <c r="L108" s="10" t="s">
         <v>498</v>
@@ -10985,7 +10994,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>244</v>
       </c>
@@ -11006,7 +11015,7 @@
         <v>4</v>
       </c>
       <c r="H109" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>7</v>
@@ -11015,7 +11024,7 @@
         <v>8</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L109" s="10" t="s">
         <v>498</v>
@@ -11063,7 +11072,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>245</v>
       </c>
@@ -11084,7 +11093,7 @@
         <v>4</v>
       </c>
       <c r="H110" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>7</v>
@@ -11093,7 +11102,7 @@
         <v>8</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L110" s="10" t="s">
         <v>498</v>
@@ -11141,7 +11150,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>249</v>
       </c>
@@ -11162,7 +11171,7 @@
         <v>4</v>
       </c>
       <c r="H111" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>7</v>
@@ -11171,7 +11180,7 @@
         <v>8</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L111" s="10" t="s">
         <v>498</v>
@@ -11219,7 +11228,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>252</v>
       </c>
@@ -11240,7 +11249,7 @@
         <v>4</v>
       </c>
       <c r="H112" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>7</v>
@@ -11249,7 +11258,7 @@
         <v>8</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L112" s="10" t="s">
         <v>498</v>
@@ -11297,7 +11306,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>258</v>
       </c>
@@ -11318,7 +11327,7 @@
         <v>4</v>
       </c>
       <c r="H113" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I113" s="1" t="s">
         <v>7</v>
@@ -11327,7 +11336,7 @@
         <v>8</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L113" s="10" t="s">
         <v>498</v>
@@ -11375,7 +11384,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>261</v>
       </c>
@@ -11396,7 +11405,7 @@
         <v>4</v>
       </c>
       <c r="H114" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I114" s="1" t="s">
         <v>7</v>
@@ -11405,7 +11414,7 @@
         <v>8</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L114" s="10" t="s">
         <v>498</v>
@@ -11453,7 +11462,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>265</v>
       </c>
@@ -11474,7 +11483,7 @@
         <v>4</v>
       </c>
       <c r="H115" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>7</v>
@@ -11483,7 +11492,7 @@
         <v>8</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L115" s="10" t="s">
         <v>498</v>
@@ -11531,7 +11540,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>268</v>
       </c>
@@ -11552,7 +11561,7 @@
         <v>4</v>
       </c>
       <c r="H116" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>7</v>
@@ -11561,7 +11570,7 @@
         <v>8</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L116" s="10" t="s">
         <v>498</v>
@@ -11609,7 +11618,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>273</v>
       </c>
@@ -11630,7 +11639,7 @@
         <v>4</v>
       </c>
       <c r="H117" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I117" s="1" t="s">
         <v>7</v>
@@ -11639,7 +11648,7 @@
         <v>8</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L117" s="10" t="s">
         <v>498</v>
@@ -11684,7 +11693,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>275</v>
       </c>
@@ -11705,7 +11714,7 @@
         <v>4</v>
       </c>
       <c r="H118" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I118" s="1" t="s">
         <v>7</v>
@@ -11714,7 +11723,7 @@
         <v>8</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L118" s="10" t="s">
         <v>498</v>
@@ -11759,7 +11768,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>276</v>
       </c>
@@ -11780,7 +11789,7 @@
         <v>4</v>
       </c>
       <c r="H119" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>7</v>
@@ -11789,7 +11798,7 @@
         <v>8</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L119" s="10" t="s">
         <v>498</v>
@@ -11834,7 +11843,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>280</v>
       </c>
@@ -11855,7 +11864,7 @@
         <v>4</v>
       </c>
       <c r="H120" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I120" s="1" t="s">
         <v>7</v>
@@ -11864,7 +11873,7 @@
         <v>8</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L120" s="10" t="s">
         <v>498</v>
@@ -11912,10 +11921,10 @@
         <v>281</v>
       </c>
       <c r="AC120" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.2">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="121" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>286</v>
       </c>
@@ -11936,7 +11945,7 @@
         <v>4</v>
       </c>
       <c r="H121" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I121" s="1" t="s">
         <v>7</v>
@@ -11945,7 +11954,7 @@
         <v>8</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L121" s="10" t="s">
         <v>498</v>
@@ -11993,7 +12002,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>290</v>
       </c>
@@ -12014,7 +12023,7 @@
         <v>4</v>
       </c>
       <c r="H122" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I122" s="1" t="s">
         <v>7</v>
@@ -12023,7 +12032,7 @@
         <v>8</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L122" s="10" t="s">
         <v>498</v>
@@ -12074,7 +12083,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>292</v>
       </c>
@@ -12095,7 +12104,7 @@
         <v>4</v>
       </c>
       <c r="H123" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I123" s="1" t="s">
         <v>7</v>
@@ -12104,7 +12113,7 @@
         <v>8</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L123" s="10" t="s">
         <v>498</v>
@@ -12155,7 +12164,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>295</v>
       </c>
@@ -12176,7 +12185,7 @@
         <v>4</v>
       </c>
       <c r="H124" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I124" s="1" t="s">
         <v>7</v>
@@ -12185,7 +12194,7 @@
         <v>8</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L124" s="10" t="s">
         <v>498</v>
@@ -12236,7 +12245,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>298</v>
       </c>
@@ -12257,7 +12266,7 @@
         <v>4</v>
       </c>
       <c r="H125" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>302</v>
@@ -12266,7 +12275,7 @@
         <v>8</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L125" s="10" t="s">
         <v>498</v>
@@ -12317,7 +12326,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>303</v>
       </c>
@@ -12338,7 +12347,7 @@
         <v>4</v>
       </c>
       <c r="H126" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I126" s="1" t="s">
         <v>302</v>
@@ -12347,7 +12356,7 @@
         <v>8</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L126" s="10" t="s">
         <v>498</v>
@@ -12398,7 +12407,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>309</v>
       </c>
@@ -12419,7 +12428,7 @@
         <v>4</v>
       </c>
       <c r="H127" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I127" s="1" t="s">
         <v>302</v>
@@ -12428,7 +12437,7 @@
         <v>8</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L127" s="10" t="s">
         <v>498</v>
@@ -12476,7 +12485,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>311</v>
       </c>
@@ -12497,7 +12506,7 @@
         <v>4</v>
       </c>
       <c r="H128" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I128" s="1" t="s">
         <v>302</v>
@@ -12506,7 +12515,7 @@
         <v>8</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L128" s="10" t="s">
         <v>498</v>
@@ -12554,7 +12563,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="129" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>314</v>
       </c>
@@ -12575,7 +12584,7 @@
         <v>4</v>
       </c>
       <c r="H129" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I129" s="1" t="s">
         <v>302</v>
@@ -12584,7 +12593,7 @@
         <v>8</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L129" s="10" t="s">
         <v>498</v>
@@ -12632,7 +12641,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="130" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>317</v>
       </c>
@@ -12653,7 +12662,7 @@
         <v>4</v>
       </c>
       <c r="H130" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I130" s="1" t="s">
         <v>302</v>
@@ -12662,7 +12671,7 @@
         <v>8</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L130" s="10" t="s">
         <v>498</v>
@@ -12710,7 +12719,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="131" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>321</v>
       </c>
@@ -12731,7 +12740,7 @@
         <v>4</v>
       </c>
       <c r="H131" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I131" s="1" t="s">
         <v>302</v>
@@ -12740,7 +12749,7 @@
         <v>8</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L131" s="10" t="s">
         <v>498</v>
@@ -12791,7 +12800,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="132" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>327</v>
       </c>
@@ -12812,7 +12821,7 @@
         <v>4</v>
       </c>
       <c r="H132" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I132" s="1" t="s">
         <v>302</v>
@@ -12821,7 +12830,7 @@
         <v>8</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L132" s="10" t="s">
         <v>498</v>
@@ -12872,7 +12881,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="133" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>329</v>
       </c>
@@ -12893,7 +12902,7 @@
         <v>4</v>
       </c>
       <c r="H133" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I133" s="1" t="s">
         <v>302</v>
@@ -12902,7 +12911,7 @@
         <v>8</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L133" s="10" t="s">
         <v>503</v>
@@ -12953,7 +12962,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="134" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>335</v>
       </c>
@@ -12974,7 +12983,7 @@
         <v>4</v>
       </c>
       <c r="H134" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I134" s="1" t="s">
         <v>302</v>
@@ -12983,7 +12992,7 @@
         <v>8</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L134" s="10" t="s">
         <v>498</v>
@@ -13031,7 +13040,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="135" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>338</v>
       </c>
@@ -13052,7 +13061,7 @@
         <v>4</v>
       </c>
       <c r="H135" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I135" s="1" t="s">
         <v>302</v>
@@ -13061,7 +13070,7 @@
         <v>8</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="L135" s="10" t="s">
         <v>498</v>
@@ -13109,7 +13118,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="136" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>341</v>
       </c>
@@ -13130,7 +13139,7 @@
         <v>4</v>
       </c>
       <c r="H136" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I136" s="1" t="s">
         <v>302</v>
@@ -13190,7 +13199,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="137" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>345</v>
       </c>
@@ -13211,7 +13220,7 @@
         <v>4</v>
       </c>
       <c r="H137" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I137" s="1" t="s">
         <v>302</v>
@@ -13220,7 +13229,7 @@
         <v>8</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>583</v>
+        <v>741</v>
       </c>
       <c r="L137" s="10" t="s">
         <v>498</v>
@@ -13268,7 +13277,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="138" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>351</v>
       </c>
@@ -13289,7 +13298,7 @@
         <v>4</v>
       </c>
       <c r="H138" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I138" s="1" t="s">
         <v>302</v>
@@ -13298,7 +13307,7 @@
         <v>8</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>583</v>
+        <v>741</v>
       </c>
       <c r="L138" s="10" t="s">
         <v>498</v>
@@ -13349,7 +13358,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="139" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>355</v>
       </c>
@@ -13370,7 +13379,7 @@
         <v>4</v>
       </c>
       <c r="H139" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I139" s="1" t="s">
         <v>302</v>
@@ -13379,7 +13388,7 @@
         <v>8</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>583</v>
+        <v>741</v>
       </c>
       <c r="L139" s="10" t="s">
         <v>498</v>
@@ -13427,7 +13436,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="140" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>356</v>
       </c>
@@ -13448,7 +13457,7 @@
         <v>4</v>
       </c>
       <c r="H140" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I140" s="1" t="s">
         <v>302</v>
@@ -13457,7 +13466,7 @@
         <v>8</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>583</v>
+        <v>741</v>
       </c>
       <c r="L140" s="10" t="s">
         <v>498</v>
@@ -13505,7 +13514,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="141" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>357</v>
       </c>
@@ -13526,7 +13535,7 @@
         <v>4</v>
       </c>
       <c r="H141" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I141" s="1" t="s">
         <v>302</v>
@@ -13535,7 +13544,7 @@
         <v>8</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>583</v>
+        <v>741</v>
       </c>
       <c r="L141" s="10" t="s">
         <v>498</v>
@@ -13583,7 +13592,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="142" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>358</v>
       </c>
@@ -13604,7 +13613,7 @@
         <v>4</v>
       </c>
       <c r="H142" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I142" s="1" t="s">
         <v>302</v>
@@ -13613,7 +13622,7 @@
         <v>8</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>583</v>
+        <v>741</v>
       </c>
       <c r="L142" s="10" t="s">
         <v>498</v>
@@ -13661,7 +13670,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="143" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>360</v>
       </c>
@@ -13682,7 +13691,7 @@
         <v>4</v>
       </c>
       <c r="H143" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I143" s="1" t="s">
         <v>302</v>
@@ -13691,7 +13700,7 @@
         <v>8</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>583</v>
+        <v>741</v>
       </c>
       <c r="L143" s="10" t="s">
         <v>498</v>
@@ -13739,7 +13748,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="144" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>362</v>
       </c>
@@ -13760,7 +13769,7 @@
         <v>4</v>
       </c>
       <c r="H144" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I144" s="1" t="s">
         <v>302</v>
@@ -13769,7 +13778,7 @@
         <v>8</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>583</v>
+        <v>741</v>
       </c>
       <c r="L144" s="10" t="s">
         <v>498</v>
@@ -13817,7 +13826,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="145" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>364</v>
       </c>
@@ -13838,7 +13847,7 @@
         <v>4</v>
       </c>
       <c r="H145" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I145" s="1" t="s">
         <v>302</v>
@@ -13847,7 +13856,7 @@
         <v>8</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>583</v>
+        <v>742</v>
       </c>
       <c r="L145" s="10" t="s">
         <v>498</v>
@@ -13895,7 +13904,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="146" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>366</v>
       </c>
@@ -13916,7 +13925,7 @@
         <v>4</v>
       </c>
       <c r="H146" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I146" s="1" t="s">
         <v>302</v>
@@ -13925,7 +13934,7 @@
         <v>8</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>583</v>
+        <v>742</v>
       </c>
       <c r="L146" s="10" t="s">
         <v>498</v>
@@ -13973,7 +13982,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="147" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>369</v>
       </c>
@@ -13994,7 +14003,7 @@
         <v>4</v>
       </c>
       <c r="H147" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I147" s="1" t="s">
         <v>302</v>
@@ -14003,7 +14012,7 @@
         <v>8</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>583</v>
+        <v>742</v>
       </c>
       <c r="L147" s="10" t="s">
         <v>498</v>
@@ -14054,7 +14063,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="148" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>371</v>
       </c>
@@ -14075,7 +14084,7 @@
         <v>4</v>
       </c>
       <c r="H148" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I148" s="1" t="s">
         <v>302</v>
@@ -14084,7 +14093,7 @@
         <v>8</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>583</v>
+        <v>742</v>
       </c>
       <c r="L148" s="10" t="s">
         <v>498</v>
@@ -14132,7 +14141,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="149" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>372</v>
       </c>
@@ -14153,7 +14162,7 @@
         <v>4</v>
       </c>
       <c r="H149" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I149" s="1" t="s">
         <v>302</v>
@@ -14162,7 +14171,7 @@
         <v>8</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>583</v>
+        <v>743</v>
       </c>
       <c r="L149" s="10" t="s">
         <v>498</v>
@@ -14210,7 +14219,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="150" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>374</v>
       </c>
@@ -14231,7 +14240,7 @@
         <v>4</v>
       </c>
       <c r="H150" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I150" s="1" t="s">
         <v>302</v>
@@ -14240,7 +14249,7 @@
         <v>8</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>583</v>
+        <v>743</v>
       </c>
       <c r="L150" s="10" t="s">
         <v>498</v>
@@ -14288,7 +14297,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="151" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>376</v>
       </c>
@@ -14309,7 +14318,7 @@
         <v>4</v>
       </c>
       <c r="H151" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I151" s="1" t="s">
         <v>302</v>
@@ -14318,7 +14327,7 @@
         <v>8</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>583</v>
+        <v>743</v>
       </c>
       <c r="L151" s="10" t="s">
         <v>498</v>
@@ -14369,7 +14378,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="152" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>379</v>
       </c>
@@ -14390,7 +14399,7 @@
         <v>4</v>
       </c>
       <c r="H152" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I152" s="1" t="s">
         <v>302</v>
@@ -14399,7 +14408,7 @@
         <v>8</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>583</v>
+        <v>743</v>
       </c>
       <c r="L152" s="10" t="s">
         <v>498</v>
@@ -14447,7 +14456,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="153" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>381</v>
       </c>
@@ -14468,7 +14477,7 @@
         <v>4</v>
       </c>
       <c r="H153" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I153" s="1" t="s">
         <v>302</v>
@@ -14477,7 +14486,7 @@
         <v>8</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>583</v>
+        <v>743</v>
       </c>
       <c r="L153" s="10" t="s">
         <v>498</v>
@@ -14525,7 +14534,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="154" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>382</v>
       </c>
@@ -14546,7 +14555,7 @@
         <v>4</v>
       </c>
       <c r="H154" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I154" s="1" t="s">
         <v>302</v>
@@ -14555,7 +14564,7 @@
         <v>8</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>583</v>
+        <v>743</v>
       </c>
       <c r="L154" s="10" t="s">
         <v>498</v>
@@ -14606,7 +14615,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="155" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>385</v>
       </c>
@@ -14627,7 +14636,7 @@
         <v>4</v>
       </c>
       <c r="H155" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I155" s="1" t="s">
         <v>302</v>
@@ -14636,7 +14645,7 @@
         <v>8</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>583</v>
+        <v>743</v>
       </c>
       <c r="L155" s="10" t="s">
         <v>498</v>
@@ -14684,7 +14693,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="156" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>386</v>
       </c>
@@ -14705,7 +14714,7 @@
         <v>4</v>
       </c>
       <c r="H156" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I156" s="1" t="s">
         <v>302</v>
@@ -14714,7 +14723,7 @@
         <v>8</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>583</v>
+        <v>743</v>
       </c>
       <c r="L156" s="10" t="s">
         <v>498</v>
@@ -14762,7 +14771,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="157" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>388</v>
       </c>
@@ -14783,7 +14792,7 @@
         <v>4</v>
       </c>
       <c r="H157" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I157" s="1" t="s">
         <v>302</v>
@@ -14792,7 +14801,7 @@
         <v>8</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>583</v>
+        <v>743</v>
       </c>
       <c r="L157" s="10" t="s">
         <v>498</v>
@@ -14840,7 +14849,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="158" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>390</v>
       </c>
@@ -14861,7 +14870,7 @@
         <v>4</v>
       </c>
       <c r="H158" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I158" s="1" t="s">
         <v>302</v>
@@ -14870,7 +14879,7 @@
         <v>8</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>583</v>
+        <v>743</v>
       </c>
       <c r="L158" s="10" t="s">
         <v>498</v>
@@ -14921,7 +14930,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="159" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>167</v>
       </c>
@@ -14942,7 +14951,7 @@
         <v>4</v>
       </c>
       <c r="H159" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I159" s="1" t="s">
         <v>7</v>
@@ -14951,7 +14960,7 @@
         <v>8</v>
       </c>
       <c r="K159" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L159" s="10" t="s">
         <v>498</v>
@@ -14999,7 +15008,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="160" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>173</v>
       </c>
@@ -15020,7 +15029,7 @@
         <v>4</v>
       </c>
       <c r="H160" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I160" s="1" t="s">
         <v>7</v>
@@ -15029,7 +15038,7 @@
         <v>8</v>
       </c>
       <c r="K160" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L160" s="10" t="s">
         <v>498</v>
@@ -15080,7 +15089,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="161" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>174</v>
       </c>
@@ -15101,7 +15110,7 @@
         <v>4</v>
       </c>
       <c r="H161" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I161" s="1" t="s">
         <v>7</v>
@@ -15110,7 +15119,7 @@
         <v>8</v>
       </c>
       <c r="K161" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L161" s="10" t="s">
         <v>498</v>
@@ -15161,7 +15170,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="162" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>177</v>
       </c>
@@ -15182,7 +15191,7 @@
         <v>4</v>
       </c>
       <c r="H162" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I162" s="1" t="s">
         <v>7</v>
@@ -15191,7 +15200,7 @@
         <v>8</v>
       </c>
       <c r="K162" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L162" s="10" t="s">
         <v>498</v>
@@ -15242,7 +15251,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="163" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>179</v>
       </c>
@@ -15263,7 +15272,7 @@
         <v>4</v>
       </c>
       <c r="H163" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I163" s="1" t="s">
         <v>7</v>
@@ -15272,7 +15281,7 @@
         <v>8</v>
       </c>
       <c r="K163" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L163" s="10" t="s">
         <v>498</v>
@@ -15323,7 +15332,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="164" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>182</v>
       </c>
@@ -15344,7 +15353,7 @@
         <v>4</v>
       </c>
       <c r="H164" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I164" s="1" t="s">
         <v>7</v>
@@ -15353,7 +15362,7 @@
         <v>8</v>
       </c>
       <c r="K164" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L164" s="10" t="s">
         <v>498</v>
@@ -15404,7 +15413,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="165" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>48</v>
       </c>
@@ -15424,7 +15433,7 @@
         <v>4</v>
       </c>
       <c r="H165" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I165" t="s">
         <v>7</v>
@@ -15433,7 +15442,7 @@
         <v>8</v>
       </c>
       <c r="K165" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L165" s="10" t="s">
         <v>498</v>
@@ -15454,7 +15463,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="166" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>49</v>
       </c>
@@ -15474,7 +15483,7 @@
         <v>4</v>
       </c>
       <c r="H166" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I166" s="7" t="s">
         <v>86</v>
@@ -15483,7 +15492,7 @@
         <v>86</v>
       </c>
       <c r="K166" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L166" s="10" t="s">
         <v>498</v>
@@ -15501,7 +15510,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="167" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>50</v>
       </c>
@@ -15521,7 +15530,7 @@
         <v>4</v>
       </c>
       <c r="H167" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I167" s="7" t="s">
         <v>86</v>
@@ -15530,7 +15539,7 @@
         <v>86</v>
       </c>
       <c r="K167" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L167" s="10" t="s">
         <v>498</v>
@@ -15548,7 +15557,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="168" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>51</v>
       </c>
@@ -15568,7 +15577,7 @@
         <v>4</v>
       </c>
       <c r="H168" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I168" s="7" t="s">
         <v>86</v>
@@ -15577,7 +15586,7 @@
         <v>86</v>
       </c>
       <c r="K168" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L168" s="10" t="s">
         <v>498</v>
@@ -15595,7 +15604,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="169" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>52</v>
       </c>
@@ -15615,7 +15624,7 @@
         <v>4</v>
       </c>
       <c r="H169" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I169" s="7" t="s">
         <v>86</v>
@@ -15624,7 +15633,7 @@
         <v>86</v>
       </c>
       <c r="K169" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L169" s="10" t="s">
         <v>498</v>
@@ -15642,7 +15651,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="170" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>53</v>
       </c>
@@ -15662,7 +15671,7 @@
         <v>4</v>
       </c>
       <c r="H170" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I170" s="7" t="s">
         <v>86</v>
@@ -15671,7 +15680,7 @@
         <v>86</v>
       </c>
       <c r="K170" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L170" s="10" t="s">
         <v>498</v>
@@ -15689,7 +15698,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="171" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>54</v>
       </c>
@@ -15709,7 +15718,7 @@
         <v>4</v>
       </c>
       <c r="H171" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I171" s="7" t="s">
         <v>86</v>
@@ -15718,7 +15727,7 @@
         <v>86</v>
       </c>
       <c r="K171" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L171" s="10" t="s">
         <v>498</v>
@@ -15736,7 +15745,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="172" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>55</v>
       </c>
@@ -15756,7 +15765,7 @@
         <v>4</v>
       </c>
       <c r="H172" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I172" s="7" t="s">
         <v>86</v>
@@ -15765,7 +15774,7 @@
         <v>86</v>
       </c>
       <c r="K172" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L172" s="10" t="s">
         <v>498</v>
@@ -15783,7 +15792,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="173" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>56</v>
       </c>
@@ -15803,7 +15812,7 @@
         <v>4</v>
       </c>
       <c r="H173" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I173" s="7" t="s">
         <v>86</v>
@@ -15812,7 +15821,7 @@
         <v>86</v>
       </c>
       <c r="K173" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L173" s="10" t="s">
         <v>498</v>
@@ -15830,7 +15839,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="174" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>12</v>
       </c>
@@ -15850,7 +15859,7 @@
         <v>4</v>
       </c>
       <c r="H174" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I174" s="7" t="s">
         <v>86</v>
@@ -15859,7 +15868,7 @@
         <v>86</v>
       </c>
       <c r="K174" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L174" s="10" t="s">
         <v>498</v>

--- a/inclusion_lists/exp_summary.xlsx
+++ b/inclusion_lists/exp_summary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2372" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2538" uniqueCount="791">
   <si>
     <t>date</t>
   </si>
@@ -2265,6 +2265,144 @@
   </si>
   <si>
     <t>{'TBD','TBD','TBD','CA3'}</t>
+  </si>
+  <si>
+    <t>b0184_d191127</t>
+  </si>
+  <si>
+    <t>b0184_d191128</t>
+  </si>
+  <si>
+    <t>b0184_d191129</t>
+  </si>
+  <si>
+    <t>b0184_d191130</t>
+  </si>
+  <si>
+    <t>b0184_d191201</t>
+  </si>
+  <si>
+    <t>b0184_d191202</t>
+  </si>
+  <si>
+    <t>b0184_d191203</t>
+  </si>
+  <si>
+    <t>b0184_d191204</t>
+  </si>
+  <si>
+    <t>b0184_d191205</t>
+  </si>
+  <si>
+    <t>b0184_d191208</t>
+  </si>
+  <si>
+    <t>b0184_d191209</t>
+  </si>
+  <si>
+    <t>Shir</t>
+  </si>
+  <si>
+    <t>[6 1]</t>
+  </si>
+  <si>
+    <t>b0184_d191124</t>
+  </si>
+  <si>
+    <t>[1 1 1 1;1 1 1 1;1 1 1 1;1 1 1 1;1 1 1 1;1 1 1 1;1 1 1 1;1 1 1 1;1 1 1 1;1 1 1 1;1 1 1 1;1 1 1 1;1 1 1 1;1 1 1 1;1 1 1 1;1 1 1 1]</t>
+  </si>
+  <si>
+    <t>[1 2 3 4 5 6 7 8 9 10 11 12 13 14 15 16]</t>
+  </si>
+  <si>
+    <t>[59434546000 63082975000]</t>
+  </si>
+  <si>
+    <t>6m</t>
+  </si>
+  <si>
+    <t>b0184_d191125</t>
+  </si>
+  <si>
+    <t>[48776123000 51679735000]</t>
+  </si>
+  <si>
+    <t>b0184_d191126</t>
+  </si>
+  <si>
+    <t>[43714183000 46954719000]</t>
+  </si>
+  <si>
+    <t>[60145523000 66587858000]</t>
+  </si>
+  <si>
+    <t>120m</t>
+  </si>
+  <si>
+    <t>[42995335000 47390925000]</t>
+  </si>
+  <si>
+    <t>[48986037000 52928086000]</t>
+  </si>
+  <si>
+    <t>[33418817000 37379645000]</t>
+  </si>
+  <si>
+    <t>[47649050000 51464821000]</t>
+  </si>
+  <si>
+    <t>[43296150000 47443548000]</t>
+  </si>
+  <si>
+    <t>[42007182000 46353290000]</t>
+  </si>
+  <si>
+    <t>[53071661000 56916329000]</t>
+  </si>
+  <si>
+    <t>[45450019000 49507242000]</t>
+  </si>
+  <si>
+    <t>[58748740000 62174712000]</t>
+  </si>
+  <si>
+    <t>[42249148000 45446637000]</t>
+  </si>
+  <si>
+    <t>[nan;nan;nan;nan;nan;nan;nan;nan;nan;nan;nan;nan;nan;nan;nan;nan;]</t>
+  </si>
+  <si>
+    <t>SpikeLog-64</t>
+  </si>
+  <si>
+    <t>one very short dark session - 1 flight only.</t>
+  </si>
+  <si>
+    <t>way to far end doing medium height, way back very low (0.5 m above the ground), mostly direct flights, landed only one time on the floor.</t>
+  </si>
+  <si>
+    <t>most flights are low, both way to and back at 0.5m above the ground or less.</t>
+  </si>
+  <si>
+    <t>the bat bumped its head in the ball and the floor in the first flight - maybe lost cells. most flights are low, both way to and back at 0.5m above the ground or less.</t>
+  </si>
+  <si>
+    <t>typical for this bat: flight upwards ehrn near Polygals</t>
+  </si>
+  <si>
+    <t>heavy raining during most of the session. The bat was a bit instress, but behavior was overall good</t>
+  </si>
+  <si>
+    <t>used sponged neurologger protector</t>
+  </si>
+  <si>
+    <t>used improvised protector with the upper bridge which is keeping the two sides of the protector from bending during hits in flight</t>
+  </si>
+  <si>
+    <t>used rgular protector with the "shelf" right to Omnetics connector when looking from the front is shaved out(because of the "flight artifacts)</t>
+  </si>
+  <si>
+    <t>the same as yesterday only that today with BeSpoon tag on the left side(near right hemisphere), instead of the battery(which is usually on the right).</t>
   </si>
 </sst>
 </file>
@@ -3016,13 +3154,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC174"/>
+  <dimension ref="A1:AC188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B81" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B146" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K108" sqref="K108"/>
+      <selection pane="bottomRight" activeCell="C177" sqref="C177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3032,7 +3170,7 @@
     <col min="3" max="3" width="7" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="5.140625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="2" customWidth="1"/>
+    <col min="7" max="7" width="3" customWidth="1"/>
     <col min="8" max="8" width="26.42578125" customWidth="1"/>
     <col min="9" max="9" width="27.42578125" customWidth="1"/>
     <col min="10" max="10" width="8.5703125" customWidth="1"/>
@@ -3048,11 +3186,11 @@
     <col min="20" max="20" width="5.42578125" customWidth="1"/>
     <col min="21" max="21" width="19.42578125" customWidth="1"/>
     <col min="22" max="22" width="3" customWidth="1"/>
-    <col min="23" max="23" width="3.7109375" customWidth="1"/>
+    <col min="23" max="23" width="5.85546875" customWidth="1"/>
     <col min="24" max="24" width="2.42578125" customWidth="1"/>
     <col min="25" max="25" width="3.7109375" customWidth="1"/>
     <col min="26" max="26" width="4.85546875" customWidth="1"/>
-    <col min="27" max="27" width="20" customWidth="1"/>
+    <col min="27" max="27" width="154.5703125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="107.5703125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="78.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -15883,6 +16021,1008 @@
         <v>9</v>
       </c>
       <c r="Z174" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="175" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B175" s="7">
+        <v>184</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="D175" s="5">
+        <v>43793</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="G175">
+        <v>16</v>
+      </c>
+      <c r="H175" t="s">
+        <v>779</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="J175" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="K175" s="7"/>
+      <c r="L175" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M175" s="9" t="s">
+        <v>761</v>
+      </c>
+      <c r="N175">
+        <v>1</v>
+      </c>
+      <c r="O175">
+        <v>1</v>
+      </c>
+      <c r="P175">
+        <v>0</v>
+      </c>
+      <c r="Q175">
+        <v>0</v>
+      </c>
+      <c r="R175">
+        <v>0</v>
+      </c>
+      <c r="S175">
+        <v>0</v>
+      </c>
+      <c r="T175" t="s">
+        <v>762</v>
+      </c>
+      <c r="U175" t="s">
+        <v>780</v>
+      </c>
+      <c r="V175">
+        <v>16</v>
+      </c>
+      <c r="W175">
+        <v>1624</v>
+      </c>
+      <c r="Z175" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="176" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B176" s="7">
+        <v>184</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="D176" s="5">
+        <v>43794</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="G176">
+        <v>16</v>
+      </c>
+      <c r="H176" t="s">
+        <v>779</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="J176" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="K176" s="7"/>
+      <c r="L176" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M176" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="N176">
+        <v>1</v>
+      </c>
+      <c r="O176">
+        <v>1</v>
+      </c>
+      <c r="P176">
+        <v>0</v>
+      </c>
+      <c r="Q176">
+        <v>0</v>
+      </c>
+      <c r="R176">
+        <v>0</v>
+      </c>
+      <c r="S176">
+        <v>0</v>
+      </c>
+      <c r="T176" t="s">
+        <v>762</v>
+      </c>
+      <c r="U176" t="s">
+        <v>780</v>
+      </c>
+      <c r="V176">
+        <v>16</v>
+      </c>
+      <c r="W176">
+        <v>1624</v>
+      </c>
+      <c r="Z176" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="177" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B177" s="7">
+        <v>184</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="D177" s="5">
+        <v>43795</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="G177">
+        <v>16</v>
+      </c>
+      <c r="H177" t="s">
+        <v>779</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="J177" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="K177" s="7"/>
+      <c r="L177" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M177" s="9" t="s">
+        <v>766</v>
+      </c>
+      <c r="N177">
+        <v>1</v>
+      </c>
+      <c r="O177">
+        <v>1</v>
+      </c>
+      <c r="P177">
+        <v>0</v>
+      </c>
+      <c r="Q177">
+        <v>0</v>
+      </c>
+      <c r="R177">
+        <v>0</v>
+      </c>
+      <c r="S177">
+        <v>0</v>
+      </c>
+      <c r="T177" t="s">
+        <v>762</v>
+      </c>
+      <c r="U177" t="s">
+        <v>780</v>
+      </c>
+      <c r="V177">
+        <v>16</v>
+      </c>
+      <c r="W177">
+        <v>1624</v>
+      </c>
+      <c r="Z177" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA177" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="178" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B178" s="7">
+        <v>184</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="D178" s="5">
+        <v>43796</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="G178">
+        <v>16</v>
+      </c>
+      <c r="H178" t="s">
+        <v>779</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="J178" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="K178" s="7"/>
+      <c r="L178" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M178" s="9" t="s">
+        <v>767</v>
+      </c>
+      <c r="N178">
+        <v>1</v>
+      </c>
+      <c r="O178">
+        <v>1</v>
+      </c>
+      <c r="P178">
+        <v>0</v>
+      </c>
+      <c r="Q178">
+        <v>0</v>
+      </c>
+      <c r="R178">
+        <v>0</v>
+      </c>
+      <c r="S178">
+        <v>0</v>
+      </c>
+      <c r="T178" t="s">
+        <v>768</v>
+      </c>
+      <c r="U178" t="s">
+        <v>780</v>
+      </c>
+      <c r="V178">
+        <v>16</v>
+      </c>
+      <c r="W178">
+        <v>1624</v>
+      </c>
+      <c r="Z178" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA178" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="179" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B179" s="7">
+        <v>184</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="D179" s="5">
+        <v>43797</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="G179">
+        <v>16</v>
+      </c>
+      <c r="H179" t="s">
+        <v>779</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="J179" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="K179" s="7"/>
+      <c r="L179" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M179" s="9" t="s">
+        <v>769</v>
+      </c>
+      <c r="N179">
+        <v>1</v>
+      </c>
+      <c r="O179">
+        <v>1</v>
+      </c>
+      <c r="P179">
+        <v>0</v>
+      </c>
+      <c r="Q179">
+        <v>0</v>
+      </c>
+      <c r="R179">
+        <v>0</v>
+      </c>
+      <c r="S179">
+        <v>0</v>
+      </c>
+      <c r="T179" t="s">
+        <v>768</v>
+      </c>
+      <c r="U179" t="s">
+        <v>780</v>
+      </c>
+      <c r="V179">
+        <v>16</v>
+      </c>
+      <c r="W179">
+        <v>1624</v>
+      </c>
+      <c r="Z179" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA179" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="180" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B180" s="7">
+        <v>184</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="D180" s="5">
+        <v>43798</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="G180">
+        <v>16</v>
+      </c>
+      <c r="H180" t="s">
+        <v>779</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="J180" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="K180" s="7"/>
+      <c r="L180" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M180" s="9" t="s">
+        <v>770</v>
+      </c>
+      <c r="N180">
+        <v>1</v>
+      </c>
+      <c r="O180">
+        <v>1</v>
+      </c>
+      <c r="P180">
+        <v>0</v>
+      </c>
+      <c r="Q180">
+        <v>0</v>
+      </c>
+      <c r="R180">
+        <v>0</v>
+      </c>
+      <c r="S180">
+        <v>0</v>
+      </c>
+      <c r="T180" t="s">
+        <v>768</v>
+      </c>
+      <c r="U180" t="s">
+        <v>780</v>
+      </c>
+      <c r="V180">
+        <v>16</v>
+      </c>
+      <c r="W180">
+        <v>1624</v>
+      </c>
+      <c r="Z180" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA180" t="s">
+        <v>783</v>
+      </c>
+      <c r="AB180" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="181" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B181" s="7">
+        <v>184</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="D181" s="5">
+        <v>43799</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="G181">
+        <v>16</v>
+      </c>
+      <c r="H181" t="s">
+        <v>779</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="J181" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="K181" s="7"/>
+      <c r="L181" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M181" s="9" t="s">
+        <v>771</v>
+      </c>
+      <c r="N181">
+        <v>1</v>
+      </c>
+      <c r="O181">
+        <v>1</v>
+      </c>
+      <c r="P181">
+        <v>0</v>
+      </c>
+      <c r="Q181">
+        <v>0</v>
+      </c>
+      <c r="R181">
+        <v>0</v>
+      </c>
+      <c r="S181">
+        <v>0</v>
+      </c>
+      <c r="T181" t="s">
+        <v>768</v>
+      </c>
+      <c r="U181" t="s">
+        <v>780</v>
+      </c>
+      <c r="V181">
+        <v>16</v>
+      </c>
+      <c r="W181">
+        <v>1624</v>
+      </c>
+      <c r="Z181" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA181" t="s">
+        <v>784</v>
+      </c>
+      <c r="AB181" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="182" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B182" s="7">
+        <v>184</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="D182" s="5">
+        <v>43800</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="G182">
+        <v>16</v>
+      </c>
+      <c r="H182" t="s">
+        <v>779</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="J182" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="K182" s="7"/>
+      <c r="L182" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M182" s="9" t="s">
+        <v>772</v>
+      </c>
+      <c r="N182">
+        <v>1</v>
+      </c>
+      <c r="O182">
+        <v>1</v>
+      </c>
+      <c r="P182">
+        <v>0</v>
+      </c>
+      <c r="Q182">
+        <v>0</v>
+      </c>
+      <c r="R182">
+        <v>0</v>
+      </c>
+      <c r="S182">
+        <v>0</v>
+      </c>
+      <c r="T182" t="s">
+        <v>768</v>
+      </c>
+      <c r="U182" t="s">
+        <v>780</v>
+      </c>
+      <c r="V182">
+        <v>16</v>
+      </c>
+      <c r="W182">
+        <v>1624</v>
+      </c>
+      <c r="Z182" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB182" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="183" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="B183" s="7">
+        <v>184</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="D183" s="5">
+        <v>43801</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="G183">
+        <v>16</v>
+      </c>
+      <c r="H183" t="s">
+        <v>779</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="J183" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="K183" s="7"/>
+      <c r="L183" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M183" s="9" t="s">
+        <v>773</v>
+      </c>
+      <c r="N183">
+        <v>1</v>
+      </c>
+      <c r="O183">
+        <v>1</v>
+      </c>
+      <c r="P183">
+        <v>0</v>
+      </c>
+      <c r="Q183">
+        <v>0</v>
+      </c>
+      <c r="R183">
+        <v>0</v>
+      </c>
+      <c r="S183">
+        <v>0</v>
+      </c>
+      <c r="T183" t="s">
+        <v>768</v>
+      </c>
+      <c r="U183" t="s">
+        <v>780</v>
+      </c>
+      <c r="V183">
+        <v>16</v>
+      </c>
+      <c r="W183">
+        <v>1624</v>
+      </c>
+      <c r="Z183" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB183" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="184" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B184" s="7">
+        <v>184</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="D184" s="5">
+        <v>43802</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="G184">
+        <v>16</v>
+      </c>
+      <c r="H184" t="s">
+        <v>779</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="J184" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="K184" s="7"/>
+      <c r="L184" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M184" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="N184">
+        <v>1</v>
+      </c>
+      <c r="O184">
+        <v>1</v>
+      </c>
+      <c r="P184">
+        <v>0</v>
+      </c>
+      <c r="Q184">
+        <v>0</v>
+      </c>
+      <c r="R184">
+        <v>0</v>
+      </c>
+      <c r="S184">
+        <v>0</v>
+      </c>
+      <c r="T184" t="s">
+        <v>768</v>
+      </c>
+      <c r="U184" t="s">
+        <v>780</v>
+      </c>
+      <c r="V184">
+        <v>16</v>
+      </c>
+      <c r="W184">
+        <v>1624</v>
+      </c>
+      <c r="Z184" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA184" t="s">
+        <v>785</v>
+      </c>
+      <c r="AB184" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="185" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B185" s="7">
+        <v>184</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="D185" s="5">
+        <v>43803</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="G185">
+        <v>16</v>
+      </c>
+      <c r="H185" t="s">
+        <v>779</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="J185" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="K185" s="7"/>
+      <c r="L185" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M185" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="N185">
+        <v>1</v>
+      </c>
+      <c r="O185">
+        <v>1</v>
+      </c>
+      <c r="P185">
+        <v>0</v>
+      </c>
+      <c r="Q185">
+        <v>0</v>
+      </c>
+      <c r="R185">
+        <v>0</v>
+      </c>
+      <c r="S185">
+        <v>0</v>
+      </c>
+      <c r="T185" t="s">
+        <v>768</v>
+      </c>
+      <c r="U185" t="s">
+        <v>780</v>
+      </c>
+      <c r="V185">
+        <v>16</v>
+      </c>
+      <c r="W185">
+        <v>1624</v>
+      </c>
+      <c r="Z185" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="186" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B186" s="7">
+        <v>184</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="D186" s="5">
+        <v>43804</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="G186">
+        <v>16</v>
+      </c>
+      <c r="H186" t="s">
+        <v>779</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="J186" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="K186" s="7"/>
+      <c r="L186" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M186" s="9" t="s">
+        <v>776</v>
+      </c>
+      <c r="N186">
+        <v>1</v>
+      </c>
+      <c r="O186">
+        <v>1</v>
+      </c>
+      <c r="P186">
+        <v>0</v>
+      </c>
+      <c r="Q186">
+        <v>0</v>
+      </c>
+      <c r="R186">
+        <v>0</v>
+      </c>
+      <c r="S186">
+        <v>0</v>
+      </c>
+      <c r="T186" t="s">
+        <v>768</v>
+      </c>
+      <c r="U186" t="s">
+        <v>780</v>
+      </c>
+      <c r="V186">
+        <v>16</v>
+      </c>
+      <c r="W186">
+        <v>1624</v>
+      </c>
+      <c r="Z186" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="187" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="B187" s="7">
+        <v>184</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="D187" s="5">
+        <v>43807</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="G187">
+        <v>16</v>
+      </c>
+      <c r="H187" t="s">
+        <v>779</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="J187" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="K187" s="7"/>
+      <c r="L187" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M187" s="9" t="s">
+        <v>777</v>
+      </c>
+      <c r="N187">
+        <v>1</v>
+      </c>
+      <c r="O187">
+        <v>1</v>
+      </c>
+      <c r="P187">
+        <v>0</v>
+      </c>
+      <c r="Q187">
+        <v>0</v>
+      </c>
+      <c r="R187">
+        <v>0</v>
+      </c>
+      <c r="S187">
+        <v>0</v>
+      </c>
+      <c r="T187" t="s">
+        <v>768</v>
+      </c>
+      <c r="U187" t="s">
+        <v>780</v>
+      </c>
+      <c r="V187">
+        <v>16</v>
+      </c>
+      <c r="W187">
+        <v>1624</v>
+      </c>
+      <c r="Z187" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA187" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="188" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B188" s="7">
+        <v>184</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="D188" s="5">
+        <v>43808</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="G188">
+        <v>16</v>
+      </c>
+      <c r="H188" t="s">
+        <v>779</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="J188" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="K188" s="7"/>
+      <c r="L188" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M188" s="9" t="s">
+        <v>778</v>
+      </c>
+      <c r="N188">
+        <v>1</v>
+      </c>
+      <c r="O188">
+        <v>1</v>
+      </c>
+      <c r="P188">
+        <v>0</v>
+      </c>
+      <c r="Q188">
+        <v>0</v>
+      </c>
+      <c r="R188">
+        <v>0</v>
+      </c>
+      <c r="S188">
+        <v>0</v>
+      </c>
+      <c r="T188" t="s">
+        <v>768</v>
+      </c>
+      <c r="U188" t="s">
+        <v>780</v>
+      </c>
+      <c r="V188">
+        <v>16</v>
+      </c>
+      <c r="W188">
+        <v>1624</v>
+      </c>
+      <c r="Z188" t="s">
         <v>86</v>
       </c>
     </row>

--- a/inclusion_lists/exp_summary.xlsx
+++ b/inclusion_lists/exp_summary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2538" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2541" uniqueCount="783">
   <si>
     <t>date</t>
   </si>
@@ -2315,60 +2315,18 @@
     <t>[1 2 3 4 5 6 7 8 9 10 11 12 13 14 15 16]</t>
   </si>
   <si>
-    <t>[59434546000 63082975000]</t>
-  </si>
-  <si>
     <t>6m</t>
   </si>
   <si>
     <t>b0184_d191125</t>
   </si>
   <si>
-    <t>[48776123000 51679735000]</t>
-  </si>
-  <si>
     <t>b0184_d191126</t>
   </si>
   <si>
-    <t>[43714183000 46954719000]</t>
-  </si>
-  <si>
-    <t>[60145523000 66587858000]</t>
-  </si>
-  <si>
     <t>120m</t>
   </si>
   <si>
-    <t>[42995335000 47390925000]</t>
-  </si>
-  <si>
-    <t>[48986037000 52928086000]</t>
-  </si>
-  <si>
-    <t>[33418817000 37379645000]</t>
-  </si>
-  <si>
-    <t>[47649050000 51464821000]</t>
-  </si>
-  <si>
-    <t>[43296150000 47443548000]</t>
-  </si>
-  <si>
-    <t>[42007182000 46353290000]</t>
-  </si>
-  <si>
-    <t>[53071661000 56916329000]</t>
-  </si>
-  <si>
-    <t>[45450019000 49507242000]</t>
-  </si>
-  <si>
-    <t>[58748740000 62174712000]</t>
-  </si>
-  <si>
-    <t>[42249148000 45446637000]</t>
-  </si>
-  <si>
     <t>[nan;nan;nan;nan;nan;nan;nan;nan;nan;nan;nan;nan;nan;nan;nan;nan;]</t>
   </si>
   <si>
@@ -2403,6 +2361,24 @@
   </si>
   <si>
     <t>the same as yesterday only that today with BeSpoon tag on the left side(near right hemisphere), instead of the battery(which is usually on the right).</t>
+  </si>
+  <si>
+    <t>{'TBD','TBD','TBD','TBD','TBD','TBD','TBD','TBD','TBD','TBD','TBD','TBD','TBD','TBD','TBD','TBD'}</t>
+  </si>
+  <si>
+    <t>[33421026000 33743453000; 33814579705 36571517679; 36638738000 37377320000]</t>
+  </si>
+  <si>
+    <t>[47651774000 48084419000; 48145514378 50853468195; 50916426000 51462587000]</t>
+  </si>
+  <si>
+    <t>[43297999000 43676890000; 43715406000 46215024000; 46248112000 47441443000]</t>
+  </si>
+  <si>
+    <t>{'CA1','TBD','TBD','TBD','TBD','TBD','CA1','TBD','TBD','TBD','TBD','CA1','CA1','CA1','TBD','CA1'}</t>
+  </si>
+  <si>
+    <t>{'CA1','TBD','TBD','TBD','TBD','TBD','CA1','TBD','TBD','TBD','CA1','CA1','CA1','CA1','TBD','CA1'}</t>
   </si>
 </sst>
 </file>
@@ -3157,10 +3133,10 @@
   <dimension ref="A1:AC188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B146" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B161" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C177" sqref="C177"/>
+      <selection pane="bottomRight" activeCell="K183" sqref="K183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16044,7 +16020,7 @@
         <v>16</v>
       </c>
       <c r="H175" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="I175" s="1" t="s">
         <v>759</v>
@@ -16052,36 +16028,35 @@
       <c r="J175" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="K175" s="7"/>
+      <c r="K175" t="s">
+        <v>777</v>
+      </c>
       <c r="L175" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="M175" s="9" t="s">
+      <c r="N175">
+        <v>1</v>
+      </c>
+      <c r="O175">
+        <v>1</v>
+      </c>
+      <c r="P175">
+        <v>0</v>
+      </c>
+      <c r="Q175">
+        <v>0</v>
+      </c>
+      <c r="R175">
+        <v>0</v>
+      </c>
+      <c r="S175">
+        <v>0</v>
+      </c>
+      <c r="T175" t="s">
         <v>761</v>
       </c>
-      <c r="N175">
-        <v>1</v>
-      </c>
-      <c r="O175">
-        <v>1</v>
-      </c>
-      <c r="P175">
-        <v>0</v>
-      </c>
-      <c r="Q175">
-        <v>0</v>
-      </c>
-      <c r="R175">
-        <v>0</v>
-      </c>
-      <c r="S175">
-        <v>0</v>
-      </c>
-      <c r="T175" t="s">
-        <v>762</v>
-      </c>
       <c r="U175" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="V175">
         <v>16</v>
@@ -16095,7 +16070,7 @@
     </row>
     <row r="176" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B176" s="7">
         <v>184</v>
@@ -16113,7 +16088,7 @@
         <v>16</v>
       </c>
       <c r="H176" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="I176" s="1" t="s">
         <v>759</v>
@@ -16121,13 +16096,12 @@
       <c r="J176" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="K176" s="7"/>
+      <c r="K176" s="7" t="s">
+        <v>777</v>
+      </c>
       <c r="L176" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="M176" s="9" t="s">
-        <v>764</v>
-      </c>
       <c r="N176">
         <v>1</v>
       </c>
@@ -16147,10 +16121,10 @@
         <v>0</v>
       </c>
       <c r="T176" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="U176" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="V176">
         <v>16</v>
@@ -16164,7 +16138,7 @@
     </row>
     <row r="177" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B177" s="7">
         <v>184</v>
@@ -16182,7 +16156,7 @@
         <v>16</v>
       </c>
       <c r="H177" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="I177" s="1" t="s">
         <v>759</v>
@@ -16190,36 +16164,35 @@
       <c r="J177" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="K177" s="7"/>
+      <c r="K177" s="7" t="s">
+        <v>777</v>
+      </c>
       <c r="L177" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="M177" s="9" t="s">
+      <c r="N177">
+        <v>1</v>
+      </c>
+      <c r="O177">
+        <v>1</v>
+      </c>
+      <c r="P177">
+        <v>0</v>
+      </c>
+      <c r="Q177">
+        <v>0</v>
+      </c>
+      <c r="R177">
+        <v>0</v>
+      </c>
+      <c r="S177">
+        <v>0</v>
+      </c>
+      <c r="T177" t="s">
+        <v>761</v>
+      </c>
+      <c r="U177" t="s">
         <v>766</v>
-      </c>
-      <c r="N177">
-        <v>1</v>
-      </c>
-      <c r="O177">
-        <v>1</v>
-      </c>
-      <c r="P177">
-        <v>0</v>
-      </c>
-      <c r="Q177">
-        <v>0</v>
-      </c>
-      <c r="R177">
-        <v>0</v>
-      </c>
-      <c r="S177">
-        <v>0</v>
-      </c>
-      <c r="T177" t="s">
-        <v>762</v>
-      </c>
-      <c r="U177" t="s">
-        <v>780</v>
       </c>
       <c r="V177">
         <v>16</v>
@@ -16231,7 +16204,7 @@
         <v>86</v>
       </c>
       <c r="AA177" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
     </row>
     <row r="178" spans="1:28" x14ac:dyDescent="0.25">
@@ -16254,7 +16227,7 @@
         <v>16</v>
       </c>
       <c r="H178" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="I178" s="1" t="s">
         <v>759</v>
@@ -16262,13 +16235,12 @@
       <c r="J178" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="K178" s="7"/>
+      <c r="K178" s="7" t="s">
+        <v>777</v>
+      </c>
       <c r="L178" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="M178" s="9" t="s">
-        <v>767</v>
-      </c>
       <c r="N178">
         <v>1</v>
       </c>
@@ -16288,10 +16260,10 @@
         <v>0</v>
       </c>
       <c r="T178" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="U178" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="V178">
         <v>16</v>
@@ -16303,7 +16275,7 @@
         <v>86</v>
       </c>
       <c r="AA178" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
     </row>
     <row r="179" spans="1:28" x14ac:dyDescent="0.25">
@@ -16326,7 +16298,7 @@
         <v>16</v>
       </c>
       <c r="H179" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="I179" s="1" t="s">
         <v>759</v>
@@ -16334,13 +16306,12 @@
       <c r="J179" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="K179" s="7"/>
+      <c r="K179" s="7" t="s">
+        <v>777</v>
+      </c>
       <c r="L179" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="M179" s="9" t="s">
-        <v>769</v>
-      </c>
       <c r="N179">
         <v>1</v>
       </c>
@@ -16360,10 +16331,10 @@
         <v>0</v>
       </c>
       <c r="T179" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="U179" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="V179">
         <v>16</v>
@@ -16375,7 +16346,7 @@
         <v>86</v>
       </c>
       <c r="AA179" t="s">
-        <v>783</v>
+        <v>769</v>
       </c>
     </row>
     <row r="180" spans="1:28" x14ac:dyDescent="0.25">
@@ -16398,7 +16369,7 @@
         <v>16</v>
       </c>
       <c r="H180" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="I180" s="1" t="s">
         <v>759</v>
@@ -16406,13 +16377,12 @@
       <c r="J180" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="K180" s="7"/>
+      <c r="K180" s="7" t="s">
+        <v>777</v>
+      </c>
       <c r="L180" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="M180" s="9" t="s">
-        <v>770</v>
-      </c>
       <c r="N180">
         <v>1</v>
       </c>
@@ -16432,10 +16402,10 @@
         <v>0</v>
       </c>
       <c r="T180" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="U180" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="V180">
         <v>16</v>
@@ -16447,10 +16417,10 @@
         <v>86</v>
       </c>
       <c r="AA180" t="s">
-        <v>783</v>
+        <v>769</v>
       </c>
       <c r="AB180" t="s">
-        <v>787</v>
+        <v>773</v>
       </c>
     </row>
     <row r="181" spans="1:28" x14ac:dyDescent="0.25">
@@ -16473,7 +16443,7 @@
         <v>16</v>
       </c>
       <c r="H181" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="I181" s="1" t="s">
         <v>759</v>
@@ -16481,12 +16451,14 @@
       <c r="J181" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="K181" s="7"/>
+      <c r="K181" s="7" t="s">
+        <v>781</v>
+      </c>
       <c r="L181" s="10" t="s">
         <v>498</v>
       </c>
       <c r="M181" s="9" t="s">
-        <v>771</v>
+        <v>778</v>
       </c>
       <c r="N181">
         <v>1</v>
@@ -16507,10 +16479,10 @@
         <v>0</v>
       </c>
       <c r="T181" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="U181" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="V181">
         <v>16</v>
@@ -16522,10 +16494,10 @@
         <v>86</v>
       </c>
       <c r="AA181" t="s">
-        <v>784</v>
+        <v>770</v>
       </c>
       <c r="AB181" t="s">
-        <v>788</v>
+        <v>774</v>
       </c>
     </row>
     <row r="182" spans="1:28" x14ac:dyDescent="0.25">
@@ -16548,7 +16520,7 @@
         <v>16</v>
       </c>
       <c r="H182" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="I182" s="1" t="s">
         <v>759</v>
@@ -16556,12 +16528,14 @@
       <c r="J182" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="K182" s="7"/>
+      <c r="K182" s="7" t="s">
+        <v>782</v>
+      </c>
       <c r="L182" s="10" t="s">
         <v>498</v>
       </c>
       <c r="M182" s="9" t="s">
-        <v>772</v>
+        <v>779</v>
       </c>
       <c r="N182">
         <v>1</v>
@@ -16582,10 +16556,10 @@
         <v>0</v>
       </c>
       <c r="T182" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="U182" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="V182">
         <v>16</v>
@@ -16597,7 +16571,7 @@
         <v>86</v>
       </c>
       <c r="AB182" t="s">
-        <v>787</v>
+        <v>773</v>
       </c>
     </row>
     <row r="183" spans="1:28" x14ac:dyDescent="0.25">
@@ -16620,7 +16594,7 @@
         <v>16</v>
       </c>
       <c r="H183" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="I183" s="1" t="s">
         <v>759</v>
@@ -16628,12 +16602,14 @@
       <c r="J183" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="K183" s="7"/>
+      <c r="K183" s="7" t="s">
+        <v>777</v>
+      </c>
       <c r="L183" s="10" t="s">
         <v>498</v>
       </c>
       <c r="M183" s="9" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="N183">
         <v>1</v>
@@ -16654,10 +16630,10 @@
         <v>0</v>
       </c>
       <c r="T183" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="U183" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="V183">
         <v>16</v>
@@ -16669,7 +16645,7 @@
         <v>86</v>
       </c>
       <c r="AB183" t="s">
-        <v>789</v>
+        <v>775</v>
       </c>
     </row>
     <row r="184" spans="1:28" x14ac:dyDescent="0.25">
@@ -16692,7 +16668,7 @@
         <v>16</v>
       </c>
       <c r="H184" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="I184" s="1" t="s">
         <v>759</v>
@@ -16700,13 +16676,12 @@
       <c r="J184" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="K184" s="7"/>
+      <c r="K184" s="7" t="s">
+        <v>777</v>
+      </c>
       <c r="L184" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="M184" s="9" t="s">
-        <v>774</v>
-      </c>
       <c r="N184">
         <v>1</v>
       </c>
@@ -16726,10 +16701,10 @@
         <v>0</v>
       </c>
       <c r="T184" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="U184" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="V184">
         <v>16</v>
@@ -16741,10 +16716,10 @@
         <v>86</v>
       </c>
       <c r="AA184" t="s">
-        <v>785</v>
+        <v>771</v>
       </c>
       <c r="AB184" t="s">
-        <v>790</v>
+        <v>776</v>
       </c>
     </row>
     <row r="185" spans="1:28" x14ac:dyDescent="0.25">
@@ -16767,7 +16742,7 @@
         <v>16</v>
       </c>
       <c r="H185" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="I185" s="1" t="s">
         <v>759</v>
@@ -16775,13 +16750,12 @@
       <c r="J185" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="K185" s="7"/>
+      <c r="K185" s="7" t="s">
+        <v>777</v>
+      </c>
       <c r="L185" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="M185" s="9" t="s">
-        <v>775</v>
-      </c>
       <c r="N185">
         <v>1</v>
       </c>
@@ -16801,10 +16775,10 @@
         <v>0</v>
       </c>
       <c r="T185" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="U185" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="V185">
         <v>16</v>
@@ -16836,7 +16810,7 @@
         <v>16</v>
       </c>
       <c r="H186" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="I186" s="1" t="s">
         <v>759</v>
@@ -16844,13 +16818,12 @@
       <c r="J186" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="K186" s="7"/>
+      <c r="K186" s="7" t="s">
+        <v>777</v>
+      </c>
       <c r="L186" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="M186" s="9" t="s">
-        <v>776</v>
-      </c>
       <c r="N186">
         <v>1</v>
       </c>
@@ -16870,10 +16843,10 @@
         <v>0</v>
       </c>
       <c r="T186" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="U186" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="V186">
         <v>16</v>
@@ -16905,7 +16878,7 @@
         <v>16</v>
       </c>
       <c r="H187" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="I187" s="1" t="s">
         <v>759</v>
@@ -16913,13 +16886,12 @@
       <c r="J187" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="K187" s="7"/>
+      <c r="K187" s="7" t="s">
+        <v>777</v>
+      </c>
       <c r="L187" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="M187" s="9" t="s">
-        <v>777</v>
-      </c>
       <c r="N187">
         <v>1</v>
       </c>
@@ -16939,10 +16911,10 @@
         <v>0</v>
       </c>
       <c r="T187" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="U187" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="V187">
         <v>16</v>
@@ -16954,7 +16926,7 @@
         <v>86</v>
       </c>
       <c r="AA187" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
     </row>
     <row r="188" spans="1:28" x14ac:dyDescent="0.25">
@@ -16977,7 +16949,7 @@
         <v>16</v>
       </c>
       <c r="H188" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="I188" s="1" t="s">
         <v>759</v>
@@ -16985,13 +16957,12 @@
       <c r="J188" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="K188" s="7"/>
+      <c r="K188" s="7" t="s">
+        <v>777</v>
+      </c>
       <c r="L188" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="M188" s="9" t="s">
-        <v>778</v>
-      </c>
       <c r="N188">
         <v>1</v>
       </c>
@@ -17011,10 +16982,10 @@
         <v>0</v>
       </c>
       <c r="T188" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="U188" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="V188">
         <v>16</v>

--- a/inclusion_lists/exp_summary.xlsx
+++ b/inclusion_lists/exp_summary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2541" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2541" uniqueCount="784">
   <si>
     <t>date</t>
   </si>
@@ -2379,6 +2379,9 @@
   </si>
   <si>
     <t>{'CA1','TBD','TBD','TBD','TBD','TBD','CA1','TBD','TBD','TBD','CA1','CA1','CA1','CA1','TBD','CA1'}</t>
+  </si>
+  <si>
+    <t>{'CA1','TBD','TBD','TBD','TBD','TBD','CA1','TBD','TBD','TBD','CA1','TBD','CA1','CA1','TBD','CA1'}</t>
   </si>
 </sst>
 </file>
@@ -3133,10 +3136,10 @@
   <dimension ref="A1:AC188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B161" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B158" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K183" sqref="K183"/>
+      <selection pane="bottomRight" activeCell="A184" sqref="A184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3166,7 +3169,7 @@
     <col min="24" max="24" width="2.42578125" customWidth="1"/>
     <col min="25" max="25" width="3.7109375" customWidth="1"/>
     <col min="26" max="26" width="4.85546875" customWidth="1"/>
-    <col min="27" max="27" width="154.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="88.7109375" customWidth="1"/>
     <col min="28" max="28" width="107.5703125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="78.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -16603,7 +16606,7 @@
         <v>760</v>
       </c>
       <c r="K183" s="7" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="L183" s="10" t="s">
         <v>498</v>

--- a/inclusion_lists/exp_summary.xlsx
+++ b/inclusion_lists/exp_summary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2541" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2660" uniqueCount="808">
   <si>
     <t>date</t>
   </si>
@@ -2267,9 +2267,6 @@
     <t>{'TBD','TBD','TBD','CA3'}</t>
   </si>
   <si>
-    <t>b0184_d191127</t>
-  </si>
-  <si>
     <t>b0184_d191128</t>
   </si>
   <si>
@@ -2303,27 +2300,12 @@
     <t>Shir</t>
   </si>
   <si>
-    <t>[6 1]</t>
-  </si>
-  <si>
-    <t>b0184_d191124</t>
-  </si>
-  <si>
     <t>[1 1 1 1;1 1 1 1;1 1 1 1;1 1 1 1;1 1 1 1;1 1 1 1;1 1 1 1;1 1 1 1;1 1 1 1;1 1 1 1;1 1 1 1;1 1 1 1;1 1 1 1;1 1 1 1;1 1 1 1;1 1 1 1]</t>
   </si>
   <si>
     <t>[1 2 3 4 5 6 7 8 9 10 11 12 13 14 15 16]</t>
   </si>
   <si>
-    <t>6m</t>
-  </si>
-  <si>
-    <t>b0184_d191125</t>
-  </si>
-  <si>
-    <t>b0184_d191126</t>
-  </si>
-  <si>
     <t>120m</t>
   </si>
   <si>
@@ -2333,12 +2315,6 @@
     <t>SpikeLog-64</t>
   </si>
   <si>
-    <t>one very short dark session - 1 flight only.</t>
-  </si>
-  <si>
-    <t>way to far end doing medium height, way back very low (0.5 m above the ground), mostly direct flights, landed only one time on the floor.</t>
-  </si>
-  <si>
     <t>most flights are low, both way to and back at 0.5m above the ground or less.</t>
   </si>
   <si>
@@ -2363,25 +2339,121 @@
     <t>the same as yesterday only that today with BeSpoon tag on the left side(near right hemisphere), instead of the battery(which is usually on the right).</t>
   </si>
   <si>
-    <t>{'TBD','TBD','TBD','TBD','TBD','TBD','TBD','TBD','TBD','TBD','TBD','TBD','TBD','TBD','TBD','TBD'}</t>
-  </si>
-  <si>
     <t>[33421026000 33743453000; 33814579705 36571517679; 36638738000 37377320000]</t>
   </si>
   <si>
     <t>[47651774000 48084419000; 48145514378 50853468195; 50916426000 51462587000]</t>
   </si>
   <si>
-    <t>[43297999000 43676890000; 43715406000 46215024000; 46248112000 47441443000]</t>
-  </si>
-  <si>
-    <t>{'CA1','TBD','TBD','TBD','TBD','TBD','CA1','TBD','TBD','TBD','TBD','CA1','CA1','CA1','TBD','CA1'}</t>
-  </si>
-  <si>
     <t>{'CA1','TBD','TBD','TBD','TBD','TBD','CA1','TBD','TBD','TBD','CA1','CA1','CA1','CA1','TBD','CA1'}</t>
   </si>
   <si>
-    <t>{'CA1','TBD','TBD','TBD','TBD','TBD','CA1','TBD','TBD','TBD','CA1','TBD','CA1','CA1','TBD','CA1'}</t>
+    <t>[42996716000 43398344000;  43448478283 46758852405;  46833804000 47374483000]</t>
+  </si>
+  <si>
+    <t>[48990278000 49360176767; 49385702555 52410745642; 52453715000 52924663000]</t>
+  </si>
+  <si>
+    <t>[43297999000 43676890000; 43703190036 46198524689; 46248112000 47441443000]</t>
+  </si>
+  <si>
+    <t>[42008508000 42509030916; 42549382153 45847232000; 45891038000 46349301000]</t>
+  </si>
+  <si>
+    <t>[53072884000 53525554248; 53561649000 56039684731; 56073933000 56700724000]</t>
+  </si>
+  <si>
+    <t>[45451593000 45959709000; 46014682197 48249405865; 48306648000 49505503000]</t>
+  </si>
+  <si>
+    <t>b0184_d191210</t>
+  </si>
+  <si>
+    <t>b0184_d191211</t>
+  </si>
+  <si>
+    <t>b0184_d191212</t>
+  </si>
+  <si>
+    <t>b0184_d191215</t>
+  </si>
+  <si>
+    <t>b0184_d191216</t>
+  </si>
+  <si>
+    <t>b0184_d191217</t>
+  </si>
+  <si>
+    <t>b0184_d191220</t>
+  </si>
+  <si>
+    <t>b0184_d191222</t>
+  </si>
+  <si>
+    <t>b0184_d191224</t>
+  </si>
+  <si>
+    <t>b0184_d191225</t>
+  </si>
+  <si>
+    <t>b0184_d191226</t>
+  </si>
+  <si>
+    <t>b0184_d200101</t>
+  </si>
+  <si>
+    <t>b0184_d200102</t>
+  </si>
+  <si>
+    <t>the logger was restarted a few times during the run - the protector was hiting the SD card</t>
+  </si>
+  <si>
+    <t>winds in the beginning of the run. The MAHSOM fell in the the first 10 minutes of the behavior and Efrat had to hold it. The bat was a bit scared but still flew well.</t>
+  </si>
+  <si>
+    <t>[42250304000 42603202524; 42679783380 44921609000; 44987515000 45444983000]</t>
+  </si>
+  <si>
+    <t>[53267796000 53844871000; 53899448613 56206936743; 56261380000 57003580000]</t>
+  </si>
+  <si>
+    <t>[54472068000 55636937000; 55663181459 57765648372; 57812019000 58221774000]</t>
+  </si>
+  <si>
+    <t>[48806414000 49409970000; 49445590711 51784103472; 51846449000 52225157000]</t>
+  </si>
+  <si>
+    <t>[44592759000 45045998000; 45075851632 46992051329; 47063238000 47623872000]</t>
+  </si>
+  <si>
+    <t>[49925120000 50551000000; 50620905164 52988270184; 53054221000 54394434000]</t>
+  </si>
+  <si>
+    <t>[58751273000 59087557000; 59125261260 61614240000; 61553064299 62173276000]</t>
+  </si>
+  <si>
+    <t>[35936083000 36452649000; 36518390854 38668695143; 38731961000 39212575000]</t>
+  </si>
+  <si>
+    <t>[41969900000 42287386000; 42322454185 44507265110; 44582143000 45129013000]</t>
+  </si>
+  <si>
+    <t>[57783002000 58687385000; 58728865921 60602453000; 60627515000 60978019000]</t>
+  </si>
+  <si>
+    <t>[40889960000 41276030000; 41308462435 43418558820; 43474109000 43928114000]</t>
+  </si>
+  <si>
+    <t>[47714400000 48126668590; 48189894153 49640148066; 49682755000 50216473000]</t>
+  </si>
+  <si>
+    <t>[39927708000 40275994244; 40367561459 41924687825; 41976757000 42307975000]</t>
+  </si>
+  <si>
+    <t>[40328462000 40669666471; 40740890384 42966271431; 43055435000 43631985000]</t>
+  </si>
+  <si>
+    <t>[39954098000 40362586512; 40486117434 42625785856; 42710397336 43214325000]</t>
   </si>
 </sst>
 </file>
@@ -3133,13 +3205,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC188"/>
+  <dimension ref="A1:AC197"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B158" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B166" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A184" sqref="A184"/>
+      <selection pane="bottomRight" activeCell="E189" sqref="E189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3148,14 +3220,15 @@
     <col min="2" max="2" width="4.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" style="7" customWidth="1"/>
     <col min="7" max="7" width="3" customWidth="1"/>
-    <col min="8" max="8" width="26.42578125" customWidth="1"/>
-    <col min="9" max="9" width="27.42578125" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" customWidth="1"/>
-    <col min="11" max="11" width="25.5703125" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="103.28515625" customWidth="1"/>
+    <col min="10" max="10" width="39.28515625" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" style="9" customWidth="1"/>
     <col min="14" max="14" width="2.7109375" customWidth="1"/>
     <col min="15" max="15" width="2.42578125" customWidth="1"/>
     <col min="16" max="16" width="3" customWidth="1"/>
@@ -3163,7 +3236,7 @@
     <col min="18" max="18" width="6.42578125" customWidth="1"/>
     <col min="19" max="19" width="3.140625" customWidth="1"/>
     <col min="20" max="20" width="5.42578125" customWidth="1"/>
-    <col min="21" max="21" width="19.42578125" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" customWidth="1"/>
     <col min="22" max="22" width="3" customWidth="1"/>
     <col min="23" max="23" width="5.85546875" customWidth="1"/>
     <col min="24" max="24" width="2.42578125" customWidth="1"/>
@@ -16005,61 +16078,64 @@
     </row>
     <row r="175" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>758</v>
+        <v>745</v>
       </c>
       <c r="B175" s="7">
         <v>184</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D175" s="5">
-        <v>43793</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>757</v>
+        <v>43797</v>
+      </c>
+      <c r="E175" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="G175">
         <v>16</v>
       </c>
       <c r="H175" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="J175" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="K175" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="L175" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M175" s="9" t="s">
+        <v>772</v>
+      </c>
+      <c r="N175">
+        <v>1</v>
+      </c>
+      <c r="O175">
+        <v>1</v>
+      </c>
+      <c r="P175">
+        <v>0</v>
+      </c>
+      <c r="Q175">
+        <v>0</v>
+      </c>
+      <c r="R175">
+        <v>0</v>
+      </c>
+      <c r="S175">
+        <v>0</v>
+      </c>
+      <c r="T175" t="s">
+        <v>758</v>
+      </c>
+      <c r="U175" t="s">
         <v>760</v>
-      </c>
-      <c r="K175" t="s">
-        <v>777</v>
-      </c>
-      <c r="L175" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="N175">
-        <v>1</v>
-      </c>
-      <c r="O175">
-        <v>1</v>
-      </c>
-      <c r="P175">
-        <v>0</v>
-      </c>
-      <c r="Q175">
-        <v>0</v>
-      </c>
-      <c r="R175">
-        <v>0</v>
-      </c>
-      <c r="S175">
-        <v>0</v>
-      </c>
-      <c r="T175" t="s">
-        <v>761</v>
-      </c>
-      <c r="U175" t="s">
-        <v>766</v>
       </c>
       <c r="V175">
         <v>16</v>
@@ -16070,64 +16146,70 @@
       <c r="Z175" t="s">
         <v>86</v>
       </c>
+      <c r="AA175" t="s">
+        <v>761</v>
+      </c>
     </row>
     <row r="176" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>762</v>
+        <v>746</v>
       </c>
       <c r="B176" s="7">
         <v>184</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D176" s="5">
-        <v>43794</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>757</v>
+        <v>43798</v>
+      </c>
+      <c r="E176" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="G176">
         <v>16</v>
       </c>
       <c r="H176" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="J176" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="K176" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="L176" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M176" s="9" t="s">
+        <v>773</v>
+      </c>
+      <c r="N176">
+        <v>1</v>
+      </c>
+      <c r="O176">
+        <v>1</v>
+      </c>
+      <c r="P176">
+        <v>0</v>
+      </c>
+      <c r="Q176">
+        <v>0</v>
+      </c>
+      <c r="R176">
+        <v>0</v>
+      </c>
+      <c r="S176">
+        <v>0</v>
+      </c>
+      <c r="T176" t="s">
+        <v>758</v>
+      </c>
+      <c r="U176" t="s">
         <v>760</v>
-      </c>
-      <c r="K176" s="7" t="s">
-        <v>777</v>
-      </c>
-      <c r="L176" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="N176">
-        <v>1</v>
-      </c>
-      <c r="O176">
-        <v>1</v>
-      </c>
-      <c r="P176">
-        <v>0</v>
-      </c>
-      <c r="Q176">
-        <v>0</v>
-      </c>
-      <c r="R176">
-        <v>0</v>
-      </c>
-      <c r="S176">
-        <v>0</v>
-      </c>
-      <c r="T176" t="s">
-        <v>761</v>
-      </c>
-      <c r="U176" t="s">
-        <v>766</v>
       </c>
       <c r="V176">
         <v>16</v>
@@ -16138,64 +16220,73 @@
       <c r="Z176" t="s">
         <v>86</v>
       </c>
+      <c r="AA176" t="s">
+        <v>761</v>
+      </c>
+      <c r="AB176" t="s">
+        <v>765</v>
+      </c>
     </row>
     <row r="177" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
       <c r="B177" s="7">
         <v>184</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D177" s="5">
-        <v>43795</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>757</v>
+        <v>43799</v>
+      </c>
+      <c r="E177" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="G177">
         <v>16</v>
       </c>
       <c r="H177" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="J177" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="K177" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="L177" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M177" s="9" t="s">
+        <v>769</v>
+      </c>
+      <c r="N177">
+        <v>1</v>
+      </c>
+      <c r="O177">
+        <v>1</v>
+      </c>
+      <c r="P177">
+        <v>0</v>
+      </c>
+      <c r="Q177">
+        <v>0</v>
+      </c>
+      <c r="R177">
+        <v>0</v>
+      </c>
+      <c r="S177">
+        <v>0</v>
+      </c>
+      <c r="T177" t="s">
+        <v>758</v>
+      </c>
+      <c r="U177" t="s">
         <v>760</v>
-      </c>
-      <c r="K177" s="7" t="s">
-        <v>777</v>
-      </c>
-      <c r="L177" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="N177">
-        <v>1</v>
-      </c>
-      <c r="O177">
-        <v>1</v>
-      </c>
-      <c r="P177">
-        <v>0</v>
-      </c>
-      <c r="Q177">
-        <v>0</v>
-      </c>
-      <c r="R177">
-        <v>0</v>
-      </c>
-      <c r="S177">
-        <v>0</v>
-      </c>
-      <c r="T177" t="s">
-        <v>761</v>
-      </c>
-      <c r="U177" t="s">
-        <v>766</v>
       </c>
       <c r="V177">
         <v>16</v>
@@ -16207,66 +16298,72 @@
         <v>86</v>
       </c>
       <c r="AA177" t="s">
-        <v>767</v>
+        <v>762</v>
+      </c>
+      <c r="AB177" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="178" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="B178" s="7">
         <v>184</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D178" s="5">
-        <v>43796</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>757</v>
+        <v>43800</v>
+      </c>
+      <c r="E178" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="G178">
         <v>16</v>
       </c>
       <c r="H178" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="J178" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="K178" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="L178" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M178" s="9" t="s">
+        <v>770</v>
+      </c>
+      <c r="N178">
+        <v>1</v>
+      </c>
+      <c r="O178">
+        <v>1</v>
+      </c>
+      <c r="P178">
+        <v>0</v>
+      </c>
+      <c r="Q178">
+        <v>0</v>
+      </c>
+      <c r="R178">
+        <v>0</v>
+      </c>
+      <c r="S178">
+        <v>0</v>
+      </c>
+      <c r="T178" t="s">
+        <v>758</v>
+      </c>
+      <c r="U178" t="s">
         <v>760</v>
-      </c>
-      <c r="K178" s="7" t="s">
-        <v>777</v>
-      </c>
-      <c r="L178" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="N178">
-        <v>1</v>
-      </c>
-      <c r="O178">
-        <v>1</v>
-      </c>
-      <c r="P178">
-        <v>0</v>
-      </c>
-      <c r="Q178">
-        <v>0</v>
-      </c>
-      <c r="R178">
-        <v>0</v>
-      </c>
-      <c r="S178">
-        <v>0</v>
-      </c>
-      <c r="T178" t="s">
-        <v>764</v>
-      </c>
-      <c r="U178" t="s">
-        <v>766</v>
       </c>
       <c r="V178">
         <v>16</v>
@@ -16277,67 +16374,70 @@
       <c r="Z178" t="s">
         <v>86</v>
       </c>
-      <c r="AA178" t="s">
-        <v>768</v>
+      <c r="AB178" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="179" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="B179" s="7">
         <v>184</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D179" s="5">
-        <v>43797</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>757</v>
+        <v>43801</v>
+      </c>
+      <c r="E179" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="G179">
         <v>16</v>
       </c>
       <c r="H179" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="J179" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="K179" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="L179" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M179" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="N179">
+        <v>1</v>
+      </c>
+      <c r="O179">
+        <v>1</v>
+      </c>
+      <c r="P179">
+        <v>0</v>
+      </c>
+      <c r="Q179">
+        <v>0</v>
+      </c>
+      <c r="R179">
+        <v>0</v>
+      </c>
+      <c r="S179">
+        <v>0</v>
+      </c>
+      <c r="T179" t="s">
+        <v>758</v>
+      </c>
+      <c r="U179" t="s">
         <v>760</v>
-      </c>
-      <c r="K179" s="7" t="s">
-        <v>777</v>
-      </c>
-      <c r="L179" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="N179">
-        <v>1</v>
-      </c>
-      <c r="O179">
-        <v>1</v>
-      </c>
-      <c r="P179">
-        <v>0</v>
-      </c>
-      <c r="Q179">
-        <v>0</v>
-      </c>
-      <c r="R179">
-        <v>0</v>
-      </c>
-      <c r="S179">
-        <v>0</v>
-      </c>
-      <c r="T179" t="s">
-        <v>764</v>
-      </c>
-      <c r="U179" t="s">
-        <v>766</v>
       </c>
       <c r="V179">
         <v>16</v>
@@ -16348,67 +16448,70 @@
       <c r="Z179" t="s">
         <v>86</v>
       </c>
-      <c r="AA179" t="s">
-        <v>769</v>
+      <c r="AB179" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="180" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="B180" s="7">
         <v>184</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D180" s="5">
-        <v>43798</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>757</v>
+        <v>43802</v>
+      </c>
+      <c r="E180" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="G180">
         <v>16</v>
       </c>
       <c r="H180" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="J180" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="K180" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="L180" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M180" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="N180">
+        <v>1</v>
+      </c>
+      <c r="O180">
+        <v>1</v>
+      </c>
+      <c r="P180">
+        <v>0</v>
+      </c>
+      <c r="Q180">
+        <v>0</v>
+      </c>
+      <c r="R180">
+        <v>0</v>
+      </c>
+      <c r="S180">
+        <v>0</v>
+      </c>
+      <c r="T180" t="s">
+        <v>758</v>
+      </c>
+      <c r="U180" t="s">
         <v>760</v>
-      </c>
-      <c r="K180" s="7" t="s">
-        <v>777</v>
-      </c>
-      <c r="L180" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="N180">
-        <v>1</v>
-      </c>
-      <c r="O180">
-        <v>1</v>
-      </c>
-      <c r="P180">
-        <v>0</v>
-      </c>
-      <c r="Q180">
-        <v>0</v>
-      </c>
-      <c r="R180">
-        <v>0</v>
-      </c>
-      <c r="S180">
-        <v>0</v>
-      </c>
-      <c r="T180" t="s">
-        <v>764</v>
-      </c>
-      <c r="U180" t="s">
-        <v>766</v>
       </c>
       <c r="V180">
         <v>16</v>
@@ -16420,72 +16523,72 @@
         <v>86</v>
       </c>
       <c r="AA180" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="AB180" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="181" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="B181" s="7">
         <v>184</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D181" s="5">
-        <v>43799</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>757</v>
+        <v>43803</v>
+      </c>
+      <c r="E181" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="G181">
         <v>16</v>
       </c>
       <c r="H181" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="I181" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="J181" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="K181" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="L181" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M181" s="9" t="s">
+        <v>776</v>
+      </c>
+      <c r="N181">
+        <v>1</v>
+      </c>
+      <c r="O181">
+        <v>1</v>
+      </c>
+      <c r="P181">
+        <v>0</v>
+      </c>
+      <c r="Q181">
+        <v>0</v>
+      </c>
+      <c r="R181">
+        <v>0</v>
+      </c>
+      <c r="S181">
+        <v>0</v>
+      </c>
+      <c r="T181" t="s">
+        <v>758</v>
+      </c>
+      <c r="U181" t="s">
         <v>760</v>
-      </c>
-      <c r="K181" s="7" t="s">
-        <v>781</v>
-      </c>
-      <c r="L181" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="M181" s="9" t="s">
-        <v>778</v>
-      </c>
-      <c r="N181">
-        <v>1</v>
-      </c>
-      <c r="O181">
-        <v>1</v>
-      </c>
-      <c r="P181">
-        <v>0</v>
-      </c>
-      <c r="Q181">
-        <v>0</v>
-      </c>
-      <c r="R181">
-        <v>0</v>
-      </c>
-      <c r="S181">
-        <v>0</v>
-      </c>
-      <c r="T181" t="s">
-        <v>764</v>
-      </c>
-      <c r="U181" t="s">
-        <v>766</v>
       </c>
       <c r="V181">
         <v>16</v>
@@ -16496,73 +16599,67 @@
       <c r="Z181" t="s">
         <v>86</v>
       </c>
-      <c r="AA181" t="s">
-        <v>770</v>
-      </c>
-      <c r="AB181" t="s">
-        <v>774</v>
-      </c>
     </row>
     <row r="182" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="B182" s="7">
         <v>184</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D182" s="5">
-        <v>43800</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>757</v>
+        <v>43804</v>
+      </c>
+      <c r="E182" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="G182">
         <v>16</v>
       </c>
       <c r="H182" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="J182" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="K182" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="L182" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M182" s="9" t="s">
+        <v>777</v>
+      </c>
+      <c r="N182">
+        <v>1</v>
+      </c>
+      <c r="O182">
+        <v>1</v>
+      </c>
+      <c r="P182">
+        <v>0</v>
+      </c>
+      <c r="Q182">
+        <v>0</v>
+      </c>
+      <c r="R182">
+        <v>0</v>
+      </c>
+      <c r="S182">
+        <v>0</v>
+      </c>
+      <c r="T182" t="s">
+        <v>758</v>
+      </c>
+      <c r="U182" t="s">
         <v>760</v>
-      </c>
-      <c r="K182" s="7" t="s">
-        <v>782</v>
-      </c>
-      <c r="L182" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="M182" s="9" t="s">
-        <v>779</v>
-      </c>
-      <c r="N182">
-        <v>1</v>
-      </c>
-      <c r="O182">
-        <v>1</v>
-      </c>
-      <c r="P182">
-        <v>0</v>
-      </c>
-      <c r="Q182">
-        <v>0</v>
-      </c>
-      <c r="R182">
-        <v>0</v>
-      </c>
-      <c r="S182">
-        <v>0</v>
-      </c>
-      <c r="T182" t="s">
-        <v>764</v>
-      </c>
-      <c r="U182" t="s">
-        <v>766</v>
       </c>
       <c r="V182">
         <v>16</v>
@@ -16573,70 +16670,67 @@
       <c r="Z182" t="s">
         <v>86</v>
       </c>
-      <c r="AB182" t="s">
-        <v>773</v>
-      </c>
     </row>
     <row r="183" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="B183" s="7">
         <v>184</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D183" s="5">
-        <v>43801</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>757</v>
+        <v>43807</v>
+      </c>
+      <c r="E183" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="G183">
         <v>16</v>
       </c>
       <c r="H183" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="J183" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="K183" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="L183" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M183" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="N183">
+        <v>1</v>
+      </c>
+      <c r="O183">
+        <v>1</v>
+      </c>
+      <c r="P183">
+        <v>0</v>
+      </c>
+      <c r="Q183">
+        <v>0</v>
+      </c>
+      <c r="R183">
+        <v>0</v>
+      </c>
+      <c r="S183">
+        <v>0</v>
+      </c>
+      <c r="T183" t="s">
+        <v>758</v>
+      </c>
+      <c r="U183" t="s">
         <v>760</v>
-      </c>
-      <c r="K183" s="7" t="s">
-        <v>783</v>
-      </c>
-      <c r="L183" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="M183" s="9" t="s">
-        <v>780</v>
-      </c>
-      <c r="N183">
-        <v>1</v>
-      </c>
-      <c r="O183">
-        <v>1</v>
-      </c>
-      <c r="P183">
-        <v>0</v>
-      </c>
-      <c r="Q183">
-        <v>0</v>
-      </c>
-      <c r="R183">
-        <v>0</v>
-      </c>
-      <c r="S183">
-        <v>0</v>
-      </c>
-      <c r="T183" t="s">
-        <v>764</v>
-      </c>
-      <c r="U183" t="s">
-        <v>766</v>
       </c>
       <c r="V183">
         <v>16</v>
@@ -16647,67 +16741,70 @@
       <c r="Z183" t="s">
         <v>86</v>
       </c>
-      <c r="AB183" t="s">
-        <v>775</v>
+      <c r="AA183" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="184" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="B184" s="7">
         <v>184</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D184" s="5">
-        <v>43802</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>757</v>
+        <v>43808</v>
+      </c>
+      <c r="E184" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="G184">
         <v>16</v>
       </c>
       <c r="H184" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="J184" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="K184" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="L184" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M184" s="9" t="s">
+        <v>793</v>
+      </c>
+      <c r="N184">
+        <v>1</v>
+      </c>
+      <c r="O184">
+        <v>1</v>
+      </c>
+      <c r="P184">
+        <v>0</v>
+      </c>
+      <c r="Q184">
+        <v>0</v>
+      </c>
+      <c r="R184">
+        <v>0</v>
+      </c>
+      <c r="S184">
+        <v>0</v>
+      </c>
+      <c r="T184" t="s">
+        <v>758</v>
+      </c>
+      <c r="U184" t="s">
         <v>760</v>
-      </c>
-      <c r="K184" s="7" t="s">
-        <v>777</v>
-      </c>
-      <c r="L184" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="N184">
-        <v>1</v>
-      </c>
-      <c r="O184">
-        <v>1</v>
-      </c>
-      <c r="P184">
-        <v>0</v>
-      </c>
-      <c r="Q184">
-        <v>0</v>
-      </c>
-      <c r="R184">
-        <v>0</v>
-      </c>
-      <c r="S184">
-        <v>0</v>
-      </c>
-      <c r="T184" t="s">
-        <v>764</v>
-      </c>
-      <c r="U184" t="s">
-        <v>766</v>
       </c>
       <c r="V184">
         <v>16</v>
@@ -16718,70 +16815,67 @@
       <c r="Z184" t="s">
         <v>86</v>
       </c>
-      <c r="AA184" t="s">
-        <v>771</v>
-      </c>
-      <c r="AB184" t="s">
-        <v>776</v>
-      </c>
     </row>
     <row r="185" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>752</v>
+        <v>778</v>
       </c>
       <c r="B185" s="7">
         <v>184</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D185" s="5">
-        <v>43803</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>757</v>
+        <v>43809</v>
+      </c>
+      <c r="E185" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="G185">
         <v>16</v>
       </c>
       <c r="H185" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="J185" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="K185" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="L185" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M185" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="N185">
+        <v>1</v>
+      </c>
+      <c r="O185">
+        <v>1</v>
+      </c>
+      <c r="P185">
+        <v>0</v>
+      </c>
+      <c r="Q185">
+        <v>0</v>
+      </c>
+      <c r="R185">
+        <v>0</v>
+      </c>
+      <c r="S185">
+        <v>0</v>
+      </c>
+      <c r="T185" t="s">
+        <v>758</v>
+      </c>
+      <c r="U185" t="s">
         <v>760</v>
-      </c>
-      <c r="K185" s="7" t="s">
-        <v>777</v>
-      </c>
-      <c r="L185" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="N185">
-        <v>1</v>
-      </c>
-      <c r="O185">
-        <v>1</v>
-      </c>
-      <c r="P185">
-        <v>0</v>
-      </c>
-      <c r="Q185">
-        <v>0</v>
-      </c>
-      <c r="R185">
-        <v>0</v>
-      </c>
-      <c r="S185">
-        <v>0</v>
-      </c>
-      <c r="T185" t="s">
-        <v>764</v>
-      </c>
-      <c r="U185" t="s">
-        <v>766</v>
       </c>
       <c r="V185">
         <v>16</v>
@@ -16795,61 +16889,64 @@
     </row>
     <row r="186" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>753</v>
+        <v>779</v>
       </c>
       <c r="B186" s="7">
         <v>184</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D186" s="5">
-        <v>43804</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>757</v>
+        <v>43810</v>
+      </c>
+      <c r="E186" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="G186">
         <v>16</v>
       </c>
       <c r="H186" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="J186" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="K186" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="L186" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M186" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="N186">
+        <v>1</v>
+      </c>
+      <c r="O186">
+        <v>1</v>
+      </c>
+      <c r="P186">
+        <v>0</v>
+      </c>
+      <c r="Q186">
+        <v>0</v>
+      </c>
+      <c r="R186">
+        <v>0</v>
+      </c>
+      <c r="S186">
+        <v>0</v>
+      </c>
+      <c r="T186" t="s">
+        <v>758</v>
+      </c>
+      <c r="U186" t="s">
         <v>760</v>
-      </c>
-      <c r="K186" s="7" t="s">
-        <v>777</v>
-      </c>
-      <c r="L186" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="N186">
-        <v>1</v>
-      </c>
-      <c r="O186">
-        <v>1</v>
-      </c>
-      <c r="P186">
-        <v>0</v>
-      </c>
-      <c r="Q186">
-        <v>0</v>
-      </c>
-      <c r="R186">
-        <v>0</v>
-      </c>
-      <c r="S186">
-        <v>0</v>
-      </c>
-      <c r="T186" t="s">
-        <v>764</v>
-      </c>
-      <c r="U186" t="s">
-        <v>766</v>
       </c>
       <c r="V186">
         <v>16</v>
@@ -16863,61 +16960,64 @@
     </row>
     <row r="187" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>754</v>
+        <v>780</v>
       </c>
       <c r="B187" s="7">
         <v>184</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D187" s="5">
-        <v>43807</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>757</v>
+        <v>43811</v>
+      </c>
+      <c r="E187" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="G187">
         <v>16</v>
       </c>
       <c r="H187" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="J187" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="K187" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="L187" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M187" s="9" t="s">
+        <v>796</v>
+      </c>
+      <c r="N187">
+        <v>1</v>
+      </c>
+      <c r="O187">
+        <v>1</v>
+      </c>
+      <c r="P187">
+        <v>0</v>
+      </c>
+      <c r="Q187">
+        <v>0</v>
+      </c>
+      <c r="R187">
+        <v>0</v>
+      </c>
+      <c r="S187">
+        <v>0</v>
+      </c>
+      <c r="T187" t="s">
+        <v>758</v>
+      </c>
+      <c r="U187" t="s">
         <v>760</v>
-      </c>
-      <c r="K187" s="7" t="s">
-        <v>777</v>
-      </c>
-      <c r="L187" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="N187">
-        <v>1</v>
-      </c>
-      <c r="O187">
-        <v>1</v>
-      </c>
-      <c r="P187">
-        <v>0</v>
-      </c>
-      <c r="Q187">
-        <v>0</v>
-      </c>
-      <c r="R187">
-        <v>0</v>
-      </c>
-      <c r="S187">
-        <v>0</v>
-      </c>
-      <c r="T187" t="s">
-        <v>764</v>
-      </c>
-      <c r="U187" t="s">
-        <v>766</v>
       </c>
       <c r="V187">
         <v>16</v>
@@ -16928,67 +17028,67 @@
       <c r="Z187" t="s">
         <v>86</v>
       </c>
-      <c r="AA187" t="s">
-        <v>772</v>
-      </c>
     </row>
     <row r="188" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>755</v>
+        <v>781</v>
       </c>
       <c r="B188" s="7">
         <v>184</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D188" s="5">
-        <v>43808</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>757</v>
+        <v>43814</v>
+      </c>
+      <c r="E188" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="G188">
         <v>16</v>
       </c>
       <c r="H188" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="J188" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="K188" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="L188" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M188" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="N188">
+        <v>1</v>
+      </c>
+      <c r="O188">
+        <v>1</v>
+      </c>
+      <c r="P188">
+        <v>0</v>
+      </c>
+      <c r="Q188">
+        <v>0</v>
+      </c>
+      <c r="R188">
+        <v>0</v>
+      </c>
+      <c r="S188">
+        <v>0</v>
+      </c>
+      <c r="T188" t="s">
+        <v>758</v>
+      </c>
+      <c r="U188" t="s">
         <v>760</v>
-      </c>
-      <c r="K188" s="7" t="s">
-        <v>777</v>
-      </c>
-      <c r="L188" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="N188">
-        <v>1</v>
-      </c>
-      <c r="O188">
-        <v>1</v>
-      </c>
-      <c r="P188">
-        <v>0</v>
-      </c>
-      <c r="Q188">
-        <v>0</v>
-      </c>
-      <c r="R188">
-        <v>0</v>
-      </c>
-      <c r="S188">
-        <v>0</v>
-      </c>
-      <c r="T188" t="s">
-        <v>764</v>
-      </c>
-      <c r="U188" t="s">
-        <v>766</v>
       </c>
       <c r="V188">
         <v>16</v>
@@ -16997,6 +17097,651 @@
         <v>1624</v>
       </c>
       <c r="Z188" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="189" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B189" s="7">
+        <v>184</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="D189" s="5">
+        <v>43815</v>
+      </c>
+      <c r="E189" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G189">
+        <v>16</v>
+      </c>
+      <c r="H189" t="s">
+        <v>759</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="J189" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="K189" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="L189" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M189" s="9" t="s">
+        <v>798</v>
+      </c>
+      <c r="N189">
+        <v>1</v>
+      </c>
+      <c r="O189">
+        <v>1</v>
+      </c>
+      <c r="P189">
+        <v>0</v>
+      </c>
+      <c r="Q189">
+        <v>0</v>
+      </c>
+      <c r="R189">
+        <v>0</v>
+      </c>
+      <c r="S189">
+        <v>0</v>
+      </c>
+      <c r="T189" t="s">
+        <v>758</v>
+      </c>
+      <c r="U189" t="s">
+        <v>760</v>
+      </c>
+      <c r="V189">
+        <v>16</v>
+      </c>
+      <c r="W189">
+        <v>1624</v>
+      </c>
+      <c r="Z189" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="190" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="B190" s="7">
+        <v>184</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="D190" s="5">
+        <v>43816</v>
+      </c>
+      <c r="E190" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G190">
+        <v>16</v>
+      </c>
+      <c r="H190" t="s">
+        <v>759</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="J190" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="K190" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="L190" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M190" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="N190">
+        <v>1</v>
+      </c>
+      <c r="O190">
+        <v>1</v>
+      </c>
+      <c r="P190">
+        <v>0</v>
+      </c>
+      <c r="Q190">
+        <v>0</v>
+      </c>
+      <c r="R190">
+        <v>0</v>
+      </c>
+      <c r="S190">
+        <v>0</v>
+      </c>
+      <c r="T190" t="s">
+        <v>758</v>
+      </c>
+      <c r="U190" t="s">
+        <v>760</v>
+      </c>
+      <c r="V190">
+        <v>16</v>
+      </c>
+      <c r="W190">
+        <v>1624</v>
+      </c>
+      <c r="Z190" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="191" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B191" s="7">
+        <v>184</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="D191" s="5">
+        <v>43819</v>
+      </c>
+      <c r="E191" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G191">
+        <v>16</v>
+      </c>
+      <c r="H191" t="s">
+        <v>759</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="J191" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="K191" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="L191" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M191" s="9" t="s">
+        <v>801</v>
+      </c>
+      <c r="N191">
+        <v>1</v>
+      </c>
+      <c r="O191">
+        <v>1</v>
+      </c>
+      <c r="P191">
+        <v>0</v>
+      </c>
+      <c r="Q191">
+        <v>0</v>
+      </c>
+      <c r="R191">
+        <v>0</v>
+      </c>
+      <c r="S191">
+        <v>0</v>
+      </c>
+      <c r="T191" t="s">
+        <v>758</v>
+      </c>
+      <c r="U191" t="s">
+        <v>760</v>
+      </c>
+      <c r="V191">
+        <v>16</v>
+      </c>
+      <c r="W191">
+        <v>1624</v>
+      </c>
+      <c r="Z191" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="192" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="B192" s="7">
+        <v>184</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="D192" s="5">
+        <v>43821</v>
+      </c>
+      <c r="E192" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G192">
+        <v>16</v>
+      </c>
+      <c r="H192" t="s">
+        <v>759</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="J192" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="K192" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="L192" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M192" s="9" t="s">
+        <v>802</v>
+      </c>
+      <c r="N192">
+        <v>1</v>
+      </c>
+      <c r="O192">
+        <v>1</v>
+      </c>
+      <c r="P192">
+        <v>0</v>
+      </c>
+      <c r="Q192">
+        <v>0</v>
+      </c>
+      <c r="R192">
+        <v>0</v>
+      </c>
+      <c r="S192">
+        <v>0</v>
+      </c>
+      <c r="T192" t="s">
+        <v>758</v>
+      </c>
+      <c r="U192" t="s">
+        <v>760</v>
+      </c>
+      <c r="V192">
+        <v>16</v>
+      </c>
+      <c r="W192">
+        <v>1624</v>
+      </c>
+      <c r="Z192" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB192" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="193" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B193" s="7">
+        <v>184</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="D193" s="5">
+        <v>43823</v>
+      </c>
+      <c r="E193" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G193">
+        <v>16</v>
+      </c>
+      <c r="H193" t="s">
+        <v>759</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="J193" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="K193" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="L193" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M193" s="9" t="s">
+        <v>803</v>
+      </c>
+      <c r="N193">
+        <v>1</v>
+      </c>
+      <c r="O193">
+        <v>1</v>
+      </c>
+      <c r="P193">
+        <v>0</v>
+      </c>
+      <c r="Q193">
+        <v>0</v>
+      </c>
+      <c r="R193">
+        <v>0</v>
+      </c>
+      <c r="S193">
+        <v>0</v>
+      </c>
+      <c r="T193" t="s">
+        <v>758</v>
+      </c>
+      <c r="U193" t="s">
+        <v>760</v>
+      </c>
+      <c r="V193">
+        <v>16</v>
+      </c>
+      <c r="W193">
+        <v>1624</v>
+      </c>
+      <c r="Z193" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA193" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="194" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B194" s="7">
+        <v>184</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="D194" s="5">
+        <v>43824</v>
+      </c>
+      <c r="E194" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G194">
+        <v>16</v>
+      </c>
+      <c r="H194" t="s">
+        <v>759</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="J194" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="K194" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="L194" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M194" s="9" t="s">
+        <v>804</v>
+      </c>
+      <c r="N194">
+        <v>1</v>
+      </c>
+      <c r="O194">
+        <v>1</v>
+      </c>
+      <c r="P194">
+        <v>0</v>
+      </c>
+      <c r="Q194">
+        <v>0</v>
+      </c>
+      <c r="R194">
+        <v>0</v>
+      </c>
+      <c r="S194">
+        <v>0</v>
+      </c>
+      <c r="T194" t="s">
+        <v>758</v>
+      </c>
+      <c r="U194" t="s">
+        <v>760</v>
+      </c>
+      <c r="V194">
+        <v>16</v>
+      </c>
+      <c r="W194">
+        <v>1624</v>
+      </c>
+      <c r="Z194" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="195" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B195" s="7">
+        <v>184</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="D195" s="5">
+        <v>43825</v>
+      </c>
+      <c r="E195" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G195">
+        <v>16</v>
+      </c>
+      <c r="H195" t="s">
+        <v>759</v>
+      </c>
+      <c r="I195" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="J195" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="K195" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="L195" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M195" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="N195">
+        <v>1</v>
+      </c>
+      <c r="O195">
+        <v>1</v>
+      </c>
+      <c r="P195">
+        <v>0</v>
+      </c>
+      <c r="Q195">
+        <v>0</v>
+      </c>
+      <c r="R195">
+        <v>0</v>
+      </c>
+      <c r="S195">
+        <v>0</v>
+      </c>
+      <c r="T195" t="s">
+        <v>758</v>
+      </c>
+      <c r="U195" t="s">
+        <v>760</v>
+      </c>
+      <c r="V195">
+        <v>16</v>
+      </c>
+      <c r="W195">
+        <v>1624</v>
+      </c>
+      <c r="Z195" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="196" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B196" s="7">
+        <v>184</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="D196" s="5">
+        <v>43831</v>
+      </c>
+      <c r="E196" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G196">
+        <v>16</v>
+      </c>
+      <c r="H196" t="s">
+        <v>759</v>
+      </c>
+      <c r="I196" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="J196" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="K196" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="L196" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M196" s="9" t="s">
+        <v>806</v>
+      </c>
+      <c r="N196">
+        <v>1</v>
+      </c>
+      <c r="O196">
+        <v>1</v>
+      </c>
+      <c r="P196">
+        <v>0</v>
+      </c>
+      <c r="Q196">
+        <v>0</v>
+      </c>
+      <c r="R196">
+        <v>0</v>
+      </c>
+      <c r="S196">
+        <v>0</v>
+      </c>
+      <c r="T196" t="s">
+        <v>758</v>
+      </c>
+      <c r="U196" t="s">
+        <v>760</v>
+      </c>
+      <c r="V196">
+        <v>16</v>
+      </c>
+      <c r="W196">
+        <v>1624</v>
+      </c>
+      <c r="Z196" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="197" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B197" s="7">
+        <v>184</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="D197" s="5">
+        <v>43832</v>
+      </c>
+      <c r="E197" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G197">
+        <v>16</v>
+      </c>
+      <c r="H197" t="s">
+        <v>759</v>
+      </c>
+      <c r="I197" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="J197" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="K197" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="L197" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M197" s="9" t="s">
+        <v>807</v>
+      </c>
+      <c r="N197">
+        <v>1</v>
+      </c>
+      <c r="O197">
+        <v>1</v>
+      </c>
+      <c r="P197">
+        <v>0</v>
+      </c>
+      <c r="Q197">
+        <v>0</v>
+      </c>
+      <c r="R197">
+        <v>0</v>
+      </c>
+      <c r="S197">
+        <v>0</v>
+      </c>
+      <c r="T197" t="s">
+        <v>758</v>
+      </c>
+      <c r="U197" t="s">
+        <v>760</v>
+      </c>
+      <c r="V197">
+        <v>16</v>
+      </c>
+      <c r="W197">
+        <v>1624</v>
+      </c>
+      <c r="Z197" t="s">
         <v>86</v>
       </c>
     </row>

--- a/inclusion_lists/exp_summary.xlsx
+++ b/inclusion_lists/exp_summary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2660" uniqueCount="808">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2660" uniqueCount="807">
   <si>
     <t>date</t>
   </si>
@@ -1758,9 +1758,6 @@
   </si>
   <si>
     <t>UseNegThr</t>
-  </si>
-  <si>
-    <t>[4 4]</t>
   </si>
   <si>
     <t>[1 1 1 1;1 1 1 1;1 1 1 1; 1 1 1 1]</t>
@@ -3208,10 +3205,10 @@
   <dimension ref="A1:AC197"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B166" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E189" sqref="E189"/>
+      <selection pane="bottomRight" activeCell="E28" sqref="E28:E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3357,7 +3354,7 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
@@ -3438,7 +3435,7 @@
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>7</v>
@@ -3519,7 +3516,7 @@
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>7</v>
@@ -3600,7 +3597,7 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>7</v>
@@ -3681,7 +3678,7 @@
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>7</v>
@@ -3690,7 +3687,7 @@
         <v>8</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L6" s="10" t="s">
         <v>498</v>
@@ -3762,7 +3759,7 @@
         <v>4</v>
       </c>
       <c r="H7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>7</v>
@@ -3771,7 +3768,7 @@
         <v>8</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L7" s="10" t="s">
         <v>498</v>
@@ -3843,7 +3840,7 @@
         <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>7</v>
@@ -3852,7 +3849,7 @@
         <v>8</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L8" s="10" t="s">
         <v>498</v>
@@ -3924,7 +3921,7 @@
         <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>7</v>
@@ -3933,7 +3930,7 @@
         <v>8</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L9" s="10" t="s">
         <v>498</v>
@@ -4005,7 +4002,7 @@
         <v>4</v>
       </c>
       <c r="H10" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>7</v>
@@ -4014,7 +4011,7 @@
         <v>8</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L10" s="10" t="s">
         <v>498</v>
@@ -4086,7 +4083,7 @@
         <v>4</v>
       </c>
       <c r="H11" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>7</v>
@@ -4095,7 +4092,7 @@
         <v>8</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L11" s="10" t="s">
         <v>498</v>
@@ -4164,7 +4161,7 @@
         <v>4</v>
       </c>
       <c r="H12" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>7</v>
@@ -4173,7 +4170,7 @@
         <v>8</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>498</v>
@@ -4245,7 +4242,7 @@
         <v>4</v>
       </c>
       <c r="H13" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>7</v>
@@ -4254,7 +4251,7 @@
         <v>8</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L13" s="10" t="s">
         <v>498</v>
@@ -4323,7 +4320,7 @@
         <v>4</v>
       </c>
       <c r="H14" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>7</v>
@@ -4332,7 +4329,7 @@
         <v>8</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L14" s="10" t="s">
         <v>498</v>
@@ -4401,7 +4398,7 @@
         <v>4</v>
       </c>
       <c r="H15" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>7</v>
@@ -4479,7 +4476,7 @@
         <v>4</v>
       </c>
       <c r="H16" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>7</v>
@@ -4557,7 +4554,7 @@
         <v>4</v>
       </c>
       <c r="H17" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>7</v>
@@ -4635,7 +4632,7 @@
         <v>4</v>
       </c>
       <c r="H18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>7</v>
@@ -4713,7 +4710,7 @@
         <v>4</v>
       </c>
       <c r="H19" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>7</v>
@@ -4790,7 +4787,7 @@
         <v>4</v>
       </c>
       <c r="H20" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>86</v>
@@ -4799,7 +4796,7 @@
         <v>86</v>
       </c>
       <c r="K20" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L20" s="10" t="s">
         <v>498</v>
@@ -4837,7 +4834,7 @@
         <v>4</v>
       </c>
       <c r="H21" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>86</v>
@@ -4846,7 +4843,7 @@
         <v>86</v>
       </c>
       <c r="K21" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L21" s="10" t="s">
         <v>498</v>
@@ -4884,7 +4881,7 @@
         <v>4</v>
       </c>
       <c r="H22" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I22" s="7" t="s">
         <v>86</v>
@@ -4893,7 +4890,7 @@
         <v>86</v>
       </c>
       <c r="K22" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L22" s="10" t="s">
         <v>498</v>
@@ -4931,7 +4928,7 @@
         <v>4</v>
       </c>
       <c r="H23" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>86</v>
@@ -4940,7 +4937,7 @@
         <v>86</v>
       </c>
       <c r="K23" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L23" s="10" t="s">
         <v>498</v>
@@ -4978,7 +4975,7 @@
         <v>4</v>
       </c>
       <c r="H24" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I24" s="7" t="s">
         <v>86</v>
@@ -4987,7 +4984,7 @@
         <v>86</v>
       </c>
       <c r="K24" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L24" s="10" t="s">
         <v>498</v>
@@ -5025,7 +5022,7 @@
         <v>4</v>
       </c>
       <c r="H25" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I25" s="7" t="s">
         <v>86</v>
@@ -5034,7 +5031,7 @@
         <v>86</v>
       </c>
       <c r="K25" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L25" s="10" t="s">
         <v>498</v>
@@ -5072,7 +5069,7 @@
         <v>4</v>
       </c>
       <c r="H26" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>86</v>
@@ -5081,7 +5078,7 @@
         <v>86</v>
       </c>
       <c r="K26" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L26" s="10" t="s">
         <v>498</v>
@@ -5119,7 +5116,7 @@
         <v>4</v>
       </c>
       <c r="H27" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I27" s="7" t="s">
         <v>86</v>
@@ -5128,7 +5125,7 @@
         <v>86</v>
       </c>
       <c r="K27" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L27" s="10" t="s">
         <v>498</v>
@@ -5166,7 +5163,7 @@
         <v>4</v>
       </c>
       <c r="H28" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>86</v>
@@ -5175,7 +5172,7 @@
         <v>86</v>
       </c>
       <c r="K28" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L28" s="10" t="s">
         <v>498</v>
@@ -5207,22 +5204,22 @@
         <v>42614</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29">
+        <v>4</v>
+      </c>
+      <c r="H29" t="s">
+        <v>713</v>
+      </c>
+      <c r="I29" t="s">
         <v>576</v>
-      </c>
-      <c r="G29">
-        <v>4</v>
-      </c>
-      <c r="H29" t="s">
-        <v>714</v>
-      </c>
-      <c r="I29" t="s">
-        <v>577</v>
       </c>
       <c r="J29" t="s">
         <v>8</v>
       </c>
       <c r="K29" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L29" s="10" t="s">
         <v>561</v>
@@ -5263,22 +5260,22 @@
         <v>42615</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="H30" t="s">
+        <v>714</v>
+      </c>
+      <c r="I30" t="s">
         <v>576</v>
-      </c>
-      <c r="G30">
-        <v>4</v>
-      </c>
-      <c r="H30" t="s">
-        <v>715</v>
-      </c>
-      <c r="I30" t="s">
-        <v>577</v>
       </c>
       <c r="J30" t="s">
         <v>8</v>
       </c>
       <c r="K30" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L30" s="10" t="s">
         <v>561</v>
@@ -5319,22 +5316,22 @@
         <v>42617</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="H31" t="s">
+        <v>715</v>
+      </c>
+      <c r="I31" t="s">
         <v>576</v>
-      </c>
-      <c r="G31">
-        <v>4</v>
-      </c>
-      <c r="H31" t="s">
-        <v>716</v>
-      </c>
-      <c r="I31" t="s">
-        <v>577</v>
       </c>
       <c r="J31" t="s">
         <v>8</v>
       </c>
       <c r="K31" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L31" s="10" t="s">
         <v>498</v>
@@ -5390,22 +5387,22 @@
         <v>42620</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32" t="s">
+        <v>716</v>
+      </c>
+      <c r="I32" t="s">
         <v>576</v>
-      </c>
-      <c r="G32">
-        <v>4</v>
-      </c>
-      <c r="H32" t="s">
-        <v>717</v>
-      </c>
-      <c r="I32" t="s">
-        <v>577</v>
       </c>
       <c r="J32" t="s">
         <v>8</v>
       </c>
       <c r="K32" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L32" s="10" t="s">
         <v>498</v>
@@ -5461,22 +5458,22 @@
         <v>42621</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+      <c r="H33" t="s">
+        <v>717</v>
+      </c>
+      <c r="I33" t="s">
         <v>576</v>
-      </c>
-      <c r="G33">
-        <v>4</v>
-      </c>
-      <c r="H33" t="s">
-        <v>718</v>
-      </c>
-      <c r="I33" t="s">
-        <v>577</v>
       </c>
       <c r="J33" t="s">
         <v>8</v>
       </c>
       <c r="K33" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L33" s="10" t="s">
         <v>498</v>
@@ -5532,22 +5529,22 @@
         <v>42622</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+      <c r="H34" t="s">
+        <v>718</v>
+      </c>
+      <c r="I34" t="s">
         <v>576</v>
-      </c>
-      <c r="G34">
-        <v>4</v>
-      </c>
-      <c r="H34" t="s">
-        <v>719</v>
-      </c>
-      <c r="I34" t="s">
-        <v>577</v>
       </c>
       <c r="J34" t="s">
         <v>8</v>
       </c>
       <c r="K34" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L34" s="10" t="s">
         <v>498</v>
@@ -5603,22 +5600,22 @@
         <v>42624</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G35">
+        <v>4</v>
+      </c>
+      <c r="H35" t="s">
+        <v>719</v>
+      </c>
+      <c r="I35" t="s">
         <v>576</v>
-      </c>
-      <c r="G35">
-        <v>4</v>
-      </c>
-      <c r="H35" t="s">
-        <v>720</v>
-      </c>
-      <c r="I35" t="s">
-        <v>577</v>
       </c>
       <c r="J35" t="s">
         <v>8</v>
       </c>
       <c r="K35" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L35" s="10" t="s">
         <v>498</v>
@@ -5674,22 +5671,22 @@
         <v>42625</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
+      </c>
+      <c r="H36" t="s">
+        <v>720</v>
+      </c>
+      <c r="I36" t="s">
         <v>576</v>
-      </c>
-      <c r="G36">
-        <v>4</v>
-      </c>
-      <c r="H36" t="s">
-        <v>721</v>
-      </c>
-      <c r="I36" t="s">
-        <v>577</v>
       </c>
       <c r="J36" t="s">
         <v>8</v>
       </c>
       <c r="K36" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L36" s="10" t="s">
         <v>498</v>
@@ -5745,22 +5742,22 @@
         <v>42626</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
+      <c r="H37" t="s">
+        <v>721</v>
+      </c>
+      <c r="I37" t="s">
         <v>576</v>
-      </c>
-      <c r="G37">
-        <v>4</v>
-      </c>
-      <c r="H37" t="s">
-        <v>722</v>
-      </c>
-      <c r="I37" t="s">
-        <v>577</v>
       </c>
       <c r="J37" t="s">
         <v>8</v>
       </c>
       <c r="K37" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L37" s="10" t="s">
         <v>498</v>
@@ -5816,22 +5813,22 @@
         <v>42627</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G38">
+        <v>4</v>
+      </c>
+      <c r="H38" t="s">
+        <v>722</v>
+      </c>
+      <c r="I38" t="s">
         <v>576</v>
-      </c>
-      <c r="G38">
-        <v>4</v>
-      </c>
-      <c r="H38" t="s">
-        <v>723</v>
-      </c>
-      <c r="I38" t="s">
-        <v>577</v>
       </c>
       <c r="J38" t="s">
         <v>8</v>
       </c>
       <c r="K38" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L38" s="10" t="s">
         <v>498</v>
@@ -5887,22 +5884,22 @@
         <v>42628</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+      <c r="H39" t="s">
+        <v>723</v>
+      </c>
+      <c r="I39" t="s">
         <v>576</v>
-      </c>
-      <c r="G39">
-        <v>4</v>
-      </c>
-      <c r="H39" t="s">
-        <v>724</v>
-      </c>
-      <c r="I39" t="s">
-        <v>577</v>
       </c>
       <c r="J39" t="s">
         <v>8</v>
       </c>
       <c r="K39" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L39" s="10" t="s">
         <v>498</v>
@@ -5961,22 +5958,22 @@
         <v>42629</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G40">
+        <v>4</v>
+      </c>
+      <c r="H40" t="s">
+        <v>724</v>
+      </c>
+      <c r="I40" t="s">
         <v>576</v>
-      </c>
-      <c r="G40">
-        <v>4</v>
-      </c>
-      <c r="H40" t="s">
-        <v>725</v>
-      </c>
-      <c r="I40" t="s">
-        <v>577</v>
       </c>
       <c r="J40" t="s">
         <v>8</v>
       </c>
       <c r="K40" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L40" s="10" t="s">
         <v>498</v>
@@ -6032,22 +6029,22 @@
         <v>42631</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41" t="s">
+        <v>725</v>
+      </c>
+      <c r="I41" t="s">
         <v>576</v>
-      </c>
-      <c r="G41">
-        <v>4</v>
-      </c>
-      <c r="H41" t="s">
-        <v>726</v>
-      </c>
-      <c r="I41" t="s">
-        <v>577</v>
       </c>
       <c r="J41" t="s">
         <v>8</v>
       </c>
       <c r="K41" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L41" s="10" t="s">
         <v>498</v>
@@ -6103,22 +6100,22 @@
         <v>42632</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G42">
+        <v>4</v>
+      </c>
+      <c r="H42" t="s">
+        <v>726</v>
+      </c>
+      <c r="I42" t="s">
         <v>576</v>
-      </c>
-      <c r="G42">
-        <v>4</v>
-      </c>
-      <c r="H42" t="s">
-        <v>727</v>
-      </c>
-      <c r="I42" t="s">
-        <v>577</v>
       </c>
       <c r="J42" t="s">
         <v>8</v>
       </c>
       <c r="K42" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L42" s="10" t="s">
         <v>498</v>
@@ -6174,22 +6171,22 @@
         <v>42633</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G43">
+        <v>4</v>
+      </c>
+      <c r="H43" t="s">
+        <v>727</v>
+      </c>
+      <c r="I43" t="s">
         <v>576</v>
-      </c>
-      <c r="G43">
-        <v>4</v>
-      </c>
-      <c r="H43" t="s">
-        <v>728</v>
-      </c>
-      <c r="I43" t="s">
-        <v>577</v>
       </c>
       <c r="J43" t="s">
         <v>8</v>
       </c>
       <c r="K43" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L43" s="10" t="s">
         <v>498</v>
@@ -6248,22 +6245,22 @@
         <v>42634</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G44">
+        <v>4</v>
+      </c>
+      <c r="H44" t="s">
+        <v>728</v>
+      </c>
+      <c r="I44" t="s">
         <v>576</v>
-      </c>
-      <c r="G44">
-        <v>4</v>
-      </c>
-      <c r="H44" t="s">
-        <v>729</v>
-      </c>
-      <c r="I44" t="s">
-        <v>577</v>
       </c>
       <c r="J44" t="s">
         <v>8</v>
       </c>
       <c r="K44" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L44" s="10" t="s">
         <v>498</v>
@@ -6319,22 +6316,22 @@
         <v>42636</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G45">
+        <v>4</v>
+      </c>
+      <c r="H45" t="s">
+        <v>729</v>
+      </c>
+      <c r="I45" t="s">
         <v>576</v>
-      </c>
-      <c r="G45">
-        <v>4</v>
-      </c>
-      <c r="H45" t="s">
-        <v>730</v>
-      </c>
-      <c r="I45" t="s">
-        <v>577</v>
       </c>
       <c r="J45" t="s">
         <v>8</v>
       </c>
       <c r="K45" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L45" s="10" t="s">
         <v>498</v>
@@ -6390,22 +6387,22 @@
         <v>42637</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+      <c r="H46" t="s">
+        <v>730</v>
+      </c>
+      <c r="I46" t="s">
         <v>576</v>
-      </c>
-      <c r="G46">
-        <v>4</v>
-      </c>
-      <c r="H46" t="s">
-        <v>731</v>
-      </c>
-      <c r="I46" t="s">
-        <v>577</v>
       </c>
       <c r="J46" t="s">
         <v>8</v>
       </c>
       <c r="K46" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L46" s="10" t="s">
         <v>498</v>
@@ -6461,22 +6458,22 @@
         <v>42638</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G47">
+        <v>4</v>
+      </c>
+      <c r="H47" t="s">
+        <v>731</v>
+      </c>
+      <c r="I47" t="s">
         <v>576</v>
-      </c>
-      <c r="G47">
-        <v>4</v>
-      </c>
-      <c r="H47" t="s">
-        <v>732</v>
-      </c>
-      <c r="I47" t="s">
-        <v>577</v>
       </c>
       <c r="J47" t="s">
         <v>8</v>
       </c>
       <c r="K47" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="L47" s="10" t="s">
         <v>498</v>
@@ -6532,22 +6529,22 @@
         <v>42639</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G48">
+        <v>4</v>
+      </c>
+      <c r="H48" t="s">
+        <v>732</v>
+      </c>
+      <c r="I48" t="s">
         <v>576</v>
-      </c>
-      <c r="G48">
-        <v>4</v>
-      </c>
-      <c r="H48" t="s">
-        <v>733</v>
-      </c>
-      <c r="I48" t="s">
-        <v>577</v>
       </c>
       <c r="J48" t="s">
         <v>8</v>
       </c>
       <c r="K48" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L48" s="10" t="s">
         <v>498</v>
@@ -6603,22 +6600,22 @@
         <v>42640</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G49">
+        <v>4</v>
+      </c>
+      <c r="H49" t="s">
+        <v>733</v>
+      </c>
+      <c r="I49" t="s">
         <v>576</v>
-      </c>
-      <c r="G49">
-        <v>4</v>
-      </c>
-      <c r="H49" t="s">
-        <v>734</v>
-      </c>
-      <c r="I49" t="s">
-        <v>577</v>
       </c>
       <c r="J49" t="s">
         <v>8</v>
       </c>
       <c r="K49" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L49" s="10" t="s">
         <v>498</v>
@@ -6674,22 +6671,22 @@
         <v>42641</v>
       </c>
       <c r="E50" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G50">
+        <v>4</v>
+      </c>
+      <c r="H50" t="s">
+        <v>734</v>
+      </c>
+      <c r="I50" t="s">
         <v>576</v>
-      </c>
-      <c r="G50">
-        <v>4</v>
-      </c>
-      <c r="H50" t="s">
-        <v>735</v>
-      </c>
-      <c r="I50" t="s">
-        <v>577</v>
       </c>
       <c r="J50" t="s">
         <v>8</v>
       </c>
       <c r="K50" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L50" s="10" t="s">
         <v>498</v>
@@ -6745,22 +6742,22 @@
         <v>42642</v>
       </c>
       <c r="E51" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G51">
+        <v>4</v>
+      </c>
+      <c r="H51" t="s">
+        <v>735</v>
+      </c>
+      <c r="I51" t="s">
         <v>576</v>
-      </c>
-      <c r="G51">
-        <v>4</v>
-      </c>
-      <c r="H51" t="s">
-        <v>736</v>
-      </c>
-      <c r="I51" t="s">
-        <v>577</v>
       </c>
       <c r="J51" t="s">
         <v>8</v>
       </c>
       <c r="K51" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L51" s="10" t="s">
         <v>498</v>
@@ -6816,22 +6813,22 @@
         <v>42643</v>
       </c>
       <c r="E52" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G52">
+        <v>4</v>
+      </c>
+      <c r="H52" t="s">
+        <v>736</v>
+      </c>
+      <c r="I52" t="s">
         <v>576</v>
-      </c>
-      <c r="G52">
-        <v>4</v>
-      </c>
-      <c r="H52" t="s">
-        <v>737</v>
-      </c>
-      <c r="I52" t="s">
-        <v>577</v>
       </c>
       <c r="J52" t="s">
         <v>8</v>
       </c>
       <c r="K52" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L52" s="10" t="s">
         <v>498</v>
@@ -6887,22 +6884,22 @@
         <v>42646</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G53">
+        <v>4</v>
+      </c>
+      <c r="H53" t="s">
+        <v>737</v>
+      </c>
+      <c r="I53" t="s">
         <v>576</v>
-      </c>
-      <c r="G53">
-        <v>4</v>
-      </c>
-      <c r="H53" t="s">
-        <v>738</v>
-      </c>
-      <c r="I53" t="s">
-        <v>577</v>
       </c>
       <c r="J53" t="s">
         <v>8</v>
       </c>
       <c r="K53" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L53" s="10" t="s">
         <v>498</v>
@@ -6958,22 +6955,22 @@
         <v>42647</v>
       </c>
       <c r="E54" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G54">
+        <v>4</v>
+      </c>
+      <c r="H54" t="s">
+        <v>738</v>
+      </c>
+      <c r="I54" t="s">
         <v>576</v>
-      </c>
-      <c r="G54">
-        <v>4</v>
-      </c>
-      <c r="H54" t="s">
-        <v>739</v>
-      </c>
-      <c r="I54" t="s">
-        <v>577</v>
       </c>
       <c r="J54" t="s">
         <v>8</v>
       </c>
       <c r="K54" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L54" s="10" t="s">
         <v>498</v>
@@ -7029,22 +7026,22 @@
         <v>42648</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G55">
+        <v>4</v>
+      </c>
+      <c r="H55" t="s">
+        <v>739</v>
+      </c>
+      <c r="I55" t="s">
         <v>576</v>
-      </c>
-      <c r="G55">
-        <v>4</v>
-      </c>
-      <c r="H55" t="s">
-        <v>740</v>
-      </c>
-      <c r="I55" t="s">
-        <v>577</v>
       </c>
       <c r="J55" t="s">
         <v>8</v>
       </c>
       <c r="K55" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="L55" s="10" t="s">
         <v>498</v>
@@ -7106,7 +7103,7 @@
         <v>4</v>
       </c>
       <c r="H56" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I56" t="s">
         <v>63</v>
@@ -7115,7 +7112,7 @@
         <v>88</v>
       </c>
       <c r="K56" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L56" s="10" t="s">
         <v>561</v>
@@ -7186,7 +7183,7 @@
         <v>4</v>
       </c>
       <c r="H57" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I57" t="s">
         <v>63</v>
@@ -7195,7 +7192,7 @@
         <v>88</v>
       </c>
       <c r="K57" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L57" s="10" t="s">
         <v>498</v>
@@ -7263,7 +7260,7 @@
         <v>4</v>
       </c>
       <c r="H58" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="I58" t="s">
         <v>63</v>
@@ -7272,7 +7269,7 @@
         <v>88</v>
       </c>
       <c r="K58" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L58" s="10" t="s">
         <v>498</v>
@@ -7340,7 +7337,7 @@
         <v>4</v>
       </c>
       <c r="H59" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="I59" t="s">
         <v>63</v>
@@ -7349,7 +7346,7 @@
         <v>88</v>
       </c>
       <c r="K59" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="L59" s="10" t="s">
         <v>498</v>
@@ -7417,7 +7414,7 @@
         <v>4</v>
       </c>
       <c r="H60" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="I60" t="s">
         <v>63</v>
@@ -7426,7 +7423,7 @@
         <v>88</v>
       </c>
       <c r="K60" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L60" s="10" t="s">
         <v>498</v>
@@ -7494,7 +7491,7 @@
         <v>4</v>
       </c>
       <c r="H61" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I61" t="s">
         <v>63</v>
@@ -7503,7 +7500,7 @@
         <v>88</v>
       </c>
       <c r="K61" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L61" s="10" t="s">
         <v>498</v>
@@ -7571,7 +7568,7 @@
         <v>4</v>
       </c>
       <c r="H62" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I62" t="s">
         <v>63</v>
@@ -7580,7 +7577,7 @@
         <v>88</v>
       </c>
       <c r="K62" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L62" s="10" t="s">
         <v>498</v>
@@ -7648,7 +7645,7 @@
         <v>4</v>
       </c>
       <c r="H63" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I63" t="s">
         <v>63</v>
@@ -7657,7 +7654,7 @@
         <v>88</v>
       </c>
       <c r="K63" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L63" s="10" t="s">
         <v>498</v>
@@ -7725,7 +7722,7 @@
         <v>4</v>
       </c>
       <c r="H64" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I64" t="s">
         <v>63</v>
@@ -7734,7 +7731,7 @@
         <v>88</v>
       </c>
       <c r="K64" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L64" s="10" t="s">
         <v>498</v>
@@ -7802,7 +7799,7 @@
         <v>4</v>
       </c>
       <c r="H65" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I65" t="s">
         <v>63</v>
@@ -7811,7 +7808,7 @@
         <v>88</v>
       </c>
       <c r="K65" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L65" s="10" t="s">
         <v>498</v>
@@ -7879,7 +7876,7 @@
         <v>4</v>
       </c>
       <c r="H66" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="I66" t="s">
         <v>63</v>
@@ -7888,7 +7885,7 @@
         <v>88</v>
       </c>
       <c r="K66" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L66" s="10" t="s">
         <v>498</v>
@@ -7956,7 +7953,7 @@
         <v>4</v>
       </c>
       <c r="H67" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="I67" t="s">
         <v>63</v>
@@ -7965,7 +7962,7 @@
         <v>88</v>
       </c>
       <c r="K67" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L67" s="10" t="s">
         <v>498</v>
@@ -8033,7 +8030,7 @@
         <v>4</v>
       </c>
       <c r="H68" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I68" t="s">
         <v>63</v>
@@ -8042,7 +8039,7 @@
         <v>88</v>
       </c>
       <c r="K68" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L68" s="10" t="s">
         <v>498</v>
@@ -8110,7 +8107,7 @@
         <v>4</v>
       </c>
       <c r="H69" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I69" t="s">
         <v>63</v>
@@ -8119,7 +8116,7 @@
         <v>88</v>
       </c>
       <c r="K69" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L69" s="10" t="s">
         <v>498</v>
@@ -8187,7 +8184,7 @@
         <v>4</v>
       </c>
       <c r="H70" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="I70" t="s">
         <v>63</v>
@@ -8196,7 +8193,7 @@
         <v>88</v>
       </c>
       <c r="K70" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L70" s="10" t="s">
         <v>498</v>
@@ -8264,7 +8261,7 @@
         <v>4</v>
       </c>
       <c r="H71" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="I71" t="s">
         <v>63</v>
@@ -8273,7 +8270,7 @@
         <v>88</v>
       </c>
       <c r="K71" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L71" s="10" t="s">
         <v>498</v>
@@ -8341,7 +8338,7 @@
         <v>4</v>
       </c>
       <c r="H72" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="I72" t="s">
         <v>63</v>
@@ -8350,7 +8347,7 @@
         <v>88</v>
       </c>
       <c r="K72" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L72" s="10" t="s">
         <v>498</v>
@@ -8418,7 +8415,7 @@
         <v>4</v>
       </c>
       <c r="H73" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I73" t="s">
         <v>63</v>
@@ -8427,7 +8424,7 @@
         <v>88</v>
       </c>
       <c r="K73" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L73" s="10" t="s">
         <v>498</v>
@@ -8495,7 +8492,7 @@
         <v>4</v>
       </c>
       <c r="H74" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="I74" t="s">
         <v>63</v>
@@ -8504,7 +8501,7 @@
         <v>88</v>
       </c>
       <c r="K74" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L74" s="10" t="s">
         <v>498</v>
@@ -8572,7 +8569,7 @@
         <v>4</v>
       </c>
       <c r="H75" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I75" t="s">
         <v>63</v>
@@ -8581,7 +8578,7 @@
         <v>88</v>
       </c>
       <c r="K75" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L75" s="10" t="s">
         <v>498</v>
@@ -8649,7 +8646,7 @@
         <v>4</v>
       </c>
       <c r="H76" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I76" t="s">
         <v>63</v>
@@ -8658,7 +8655,7 @@
         <v>88</v>
       </c>
       <c r="K76" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L76" s="10" t="s">
         <v>503</v>
@@ -8726,7 +8723,7 @@
         <v>4</v>
       </c>
       <c r="H77" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I77" t="s">
         <v>63</v>
@@ -8735,7 +8732,7 @@
         <v>88</v>
       </c>
       <c r="K77" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L77" s="10" t="s">
         <v>561</v>
@@ -8791,7 +8788,7 @@
         <v>4</v>
       </c>
       <c r="H78" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="I78" t="s">
         <v>63</v>
@@ -8800,7 +8797,7 @@
         <v>88</v>
       </c>
       <c r="K78" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L78" s="10" t="s">
         <v>498</v>
@@ -8868,7 +8865,7 @@
         <v>4</v>
       </c>
       <c r="H79" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I79" t="s">
         <v>63</v>
@@ -8877,7 +8874,7 @@
         <v>88</v>
       </c>
       <c r="K79" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L79" s="10" t="s">
         <v>498</v>
@@ -8945,7 +8942,7 @@
         <v>4</v>
       </c>
       <c r="H80" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I80" t="s">
         <v>63</v>
@@ -8954,7 +8951,7 @@
         <v>88</v>
       </c>
       <c r="K80" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L80" s="10" t="s">
         <v>498</v>
@@ -9025,7 +9022,7 @@
         <v>4</v>
       </c>
       <c r="H81" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="I81" t="s">
         <v>63</v>
@@ -9034,7 +9031,7 @@
         <v>88</v>
       </c>
       <c r="K81" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L81" s="10" t="s">
         <v>498</v>
@@ -9105,7 +9102,7 @@
         <v>4</v>
       </c>
       <c r="H82" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="I82" t="s">
         <v>63</v>
@@ -9114,7 +9111,7 @@
         <v>88</v>
       </c>
       <c r="K82" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L82" s="10" t="s">
         <v>498</v>
@@ -9182,7 +9179,7 @@
         <v>4</v>
       </c>
       <c r="H83" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I83" t="s">
         <v>63</v>
@@ -9191,7 +9188,7 @@
         <v>88</v>
       </c>
       <c r="K83" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L83" s="10" t="s">
         <v>498</v>
@@ -9262,7 +9259,7 @@
         <v>4</v>
       </c>
       <c r="H84" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="I84" t="s">
         <v>63</v>
@@ -9271,7 +9268,7 @@
         <v>88</v>
       </c>
       <c r="K84" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L84" s="10" t="s">
         <v>498</v>
@@ -9339,7 +9336,7 @@
         <v>4</v>
       </c>
       <c r="H85" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I85" t="s">
         <v>63</v>
@@ -9348,7 +9345,7 @@
         <v>88</v>
       </c>
       <c r="K85" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L85" s="10" t="s">
         <v>498</v>
@@ -9416,7 +9413,7 @@
         <v>4</v>
       </c>
       <c r="H86" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="I86" t="s">
         <v>63</v>
@@ -9425,7 +9422,7 @@
         <v>88</v>
       </c>
       <c r="K86" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L86" s="10" t="s">
         <v>498</v>
@@ -9493,7 +9490,7 @@
         <v>4</v>
       </c>
       <c r="H87" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="I87" t="s">
         <v>63</v>
@@ -9502,7 +9499,7 @@
         <v>88</v>
       </c>
       <c r="K87" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L87" s="10" t="s">
         <v>498</v>
@@ -9570,7 +9567,7 @@
         <v>4</v>
       </c>
       <c r="H88" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="I88" t="s">
         <v>63</v>
@@ -9579,7 +9576,7 @@
         <v>88</v>
       </c>
       <c r="K88" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L88" s="10" t="s">
         <v>498</v>
@@ -9647,7 +9644,7 @@
         <v>4</v>
       </c>
       <c r="H89" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="I89" t="s">
         <v>63</v>
@@ -9656,7 +9653,7 @@
         <v>88</v>
       </c>
       <c r="K89" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L89" s="10" t="s">
         <v>498</v>
@@ -9727,7 +9724,7 @@
         <v>4</v>
       </c>
       <c r="H90" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I90" t="s">
         <v>63</v>
@@ -9736,7 +9733,7 @@
         <v>88</v>
       </c>
       <c r="K90" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L90" s="10" t="s">
         <v>498</v>
@@ -9804,7 +9801,7 @@
         <v>4</v>
       </c>
       <c r="H91" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="I91" t="s">
         <v>63</v>
@@ -9813,7 +9810,7 @@
         <v>88</v>
       </c>
       <c r="K91" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L91" s="10" t="s">
         <v>498</v>
@@ -9885,7 +9882,7 @@
         <v>4</v>
       </c>
       <c r="H92" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>7</v>
@@ -9894,7 +9891,7 @@
         <v>8</v>
       </c>
       <c r="K92" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L92" s="10" t="s">
         <v>498</v>
@@ -9963,7 +9960,7 @@
         <v>4</v>
       </c>
       <c r="H93" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>7</v>
@@ -9972,7 +9969,7 @@
         <v>8</v>
       </c>
       <c r="K93" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L93" s="10" t="s">
         <v>498</v>
@@ -10044,7 +10041,7 @@
         <v>4</v>
       </c>
       <c r="H94" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>7</v>
@@ -10053,7 +10050,7 @@
         <v>8</v>
       </c>
       <c r="K94" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L94" s="10" t="s">
         <v>498</v>
@@ -10125,7 +10122,7 @@
         <v>4</v>
       </c>
       <c r="H95" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>7</v>
@@ -10134,7 +10131,7 @@
         <v>8</v>
       </c>
       <c r="K95" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L95" s="10" t="s">
         <v>498</v>
@@ -10200,7 +10197,7 @@
         <v>4</v>
       </c>
       <c r="H96" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>7</v>
@@ -10209,7 +10206,7 @@
         <v>8</v>
       </c>
       <c r="K96" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L96" s="10" t="s">
         <v>498</v>
@@ -10278,7 +10275,7 @@
         <v>4</v>
       </c>
       <c r="H97" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>7</v>
@@ -10287,7 +10284,7 @@
         <v>8</v>
       </c>
       <c r="K97" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L97" s="10" t="s">
         <v>498</v>
@@ -10356,7 +10353,7 @@
         <v>4</v>
       </c>
       <c r="H98" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>7</v>
@@ -10365,7 +10362,7 @@
         <v>8</v>
       </c>
       <c r="K98" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L98" s="10" t="s">
         <v>498</v>
@@ -10434,7 +10431,7 @@
         <v>4</v>
       </c>
       <c r="H99" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>7</v>
@@ -10443,7 +10440,7 @@
         <v>8</v>
       </c>
       <c r="K99" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L99" s="10" t="s">
         <v>498</v>
@@ -10488,7 +10485,7 @@
         <v>272</v>
       </c>
       <c r="AB99" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="100" spans="1:29" x14ac:dyDescent="0.25">
@@ -10512,7 +10509,7 @@
         <v>4</v>
       </c>
       <c r="H100" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>7</v>
@@ -10521,7 +10518,7 @@
         <v>8</v>
       </c>
       <c r="K100" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L100" s="10" t="s">
         <v>498</v>
@@ -10587,7 +10584,7 @@
         <v>4</v>
       </c>
       <c r="H101" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>7</v>
@@ -10596,7 +10593,7 @@
         <v>8</v>
       </c>
       <c r="K101" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L101" s="10" t="s">
         <v>498</v>
@@ -10662,7 +10659,7 @@
         <v>4</v>
       </c>
       <c r="H102" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>7</v>
@@ -10671,7 +10668,7 @@
         <v>8</v>
       </c>
       <c r="K102" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L102" s="10" t="s">
         <v>498</v>
@@ -10740,7 +10737,7 @@
         <v>4</v>
       </c>
       <c r="H103" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>7</v>
@@ -10749,7 +10746,7 @@
         <v>8</v>
       </c>
       <c r="K103" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L103" s="10" t="s">
         <v>498</v>
@@ -10818,7 +10815,7 @@
         <v>4</v>
       </c>
       <c r="H104" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>7</v>
@@ -10827,7 +10824,7 @@
         <v>8</v>
       </c>
       <c r="K104" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L104" s="10" t="s">
         <v>498</v>
@@ -10899,7 +10896,7 @@
         <v>4</v>
       </c>
       <c r="H105" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>7</v>
@@ -10908,7 +10905,7 @@
         <v>8</v>
       </c>
       <c r="K105" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L105" s="10" t="s">
         <v>561</v>
@@ -10971,7 +10968,7 @@
         <v>4</v>
       </c>
       <c r="H106" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>7</v>
@@ -10980,7 +10977,7 @@
         <v>8</v>
       </c>
       <c r="K106" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L106" s="10" t="s">
         <v>498</v>
@@ -11046,7 +11043,7 @@
         <v>4</v>
       </c>
       <c r="H107" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>7</v>
@@ -11055,7 +11052,7 @@
         <v>8</v>
       </c>
       <c r="K107" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="L107" s="10" t="s">
         <v>498</v>
@@ -11127,7 +11124,7 @@
         <v>4</v>
       </c>
       <c r="H108" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>7</v>
@@ -11136,7 +11133,7 @@
         <v>8</v>
       </c>
       <c r="K108" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="L108" s="10" t="s">
         <v>498</v>
@@ -11205,7 +11202,7 @@
         <v>4</v>
       </c>
       <c r="H109" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>7</v>
@@ -11214,7 +11211,7 @@
         <v>8</v>
       </c>
       <c r="K109" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L109" s="10" t="s">
         <v>498</v>
@@ -11283,7 +11280,7 @@
         <v>4</v>
       </c>
       <c r="H110" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>7</v>
@@ -11292,7 +11289,7 @@
         <v>8</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L110" s="10" t="s">
         <v>498</v>
@@ -11361,7 +11358,7 @@
         <v>4</v>
       </c>
       <c r="H111" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>7</v>
@@ -11370,7 +11367,7 @@
         <v>8</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L111" s="10" t="s">
         <v>498</v>
@@ -11439,7 +11436,7 @@
         <v>4</v>
       </c>
       <c r="H112" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>7</v>
@@ -11448,7 +11445,7 @@
         <v>8</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L112" s="10" t="s">
         <v>498</v>
@@ -11517,7 +11514,7 @@
         <v>4</v>
       </c>
       <c r="H113" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I113" s="1" t="s">
         <v>7</v>
@@ -11526,7 +11523,7 @@
         <v>8</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L113" s="10" t="s">
         <v>498</v>
@@ -11595,7 +11592,7 @@
         <v>4</v>
       </c>
       <c r="H114" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I114" s="1" t="s">
         <v>7</v>
@@ -11604,7 +11601,7 @@
         <v>8</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L114" s="10" t="s">
         <v>498</v>
@@ -11673,7 +11670,7 @@
         <v>4</v>
       </c>
       <c r="H115" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>7</v>
@@ -11682,7 +11679,7 @@
         <v>8</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L115" s="10" t="s">
         <v>498</v>
@@ -11751,7 +11748,7 @@
         <v>4</v>
       </c>
       <c r="H116" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>7</v>
@@ -11760,7 +11757,7 @@
         <v>8</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L116" s="10" t="s">
         <v>498</v>
@@ -11829,7 +11826,7 @@
         <v>4</v>
       </c>
       <c r="H117" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I117" s="1" t="s">
         <v>7</v>
@@ -11838,7 +11835,7 @@
         <v>8</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L117" s="10" t="s">
         <v>498</v>
@@ -11904,7 +11901,7 @@
         <v>4</v>
       </c>
       <c r="H118" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I118" s="1" t="s">
         <v>7</v>
@@ -11913,7 +11910,7 @@
         <v>8</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L118" s="10" t="s">
         <v>498</v>
@@ -11979,7 +11976,7 @@
         <v>4</v>
       </c>
       <c r="H119" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>7</v>
@@ -11988,7 +11985,7 @@
         <v>8</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L119" s="10" t="s">
         <v>498</v>
@@ -12054,7 +12051,7 @@
         <v>4</v>
       </c>
       <c r="H120" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I120" s="1" t="s">
         <v>7</v>
@@ -12063,7 +12060,7 @@
         <v>8</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L120" s="10" t="s">
         <v>498</v>
@@ -12111,7 +12108,7 @@
         <v>281</v>
       </c>
       <c r="AC120" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="121" spans="1:29" x14ac:dyDescent="0.25">
@@ -12135,7 +12132,7 @@
         <v>4</v>
       </c>
       <c r="H121" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I121" s="1" t="s">
         <v>7</v>
@@ -12144,7 +12141,7 @@
         <v>8</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L121" s="10" t="s">
         <v>498</v>
@@ -12213,7 +12210,7 @@
         <v>4</v>
       </c>
       <c r="H122" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I122" s="1" t="s">
         <v>7</v>
@@ -12222,7 +12219,7 @@
         <v>8</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L122" s="10" t="s">
         <v>498</v>
@@ -12294,7 +12291,7 @@
         <v>4</v>
       </c>
       <c r="H123" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I123" s="1" t="s">
         <v>7</v>
@@ -12303,7 +12300,7 @@
         <v>8</v>
       </c>
       <c r="K123" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="L123" s="10" t="s">
         <v>498</v>
@@ -12375,7 +12372,7 @@
         <v>4</v>
       </c>
       <c r="H124" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I124" s="1" t="s">
         <v>7</v>
@@ -12384,7 +12381,7 @@
         <v>8</v>
       </c>
       <c r="K124" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="L124" s="10" t="s">
         <v>498</v>
@@ -12456,7 +12453,7 @@
         <v>4</v>
       </c>
       <c r="H125" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>302</v>
@@ -12465,7 +12462,7 @@
         <v>8</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L125" s="10" t="s">
         <v>498</v>
@@ -12537,7 +12534,7 @@
         <v>4</v>
       </c>
       <c r="H126" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I126" s="1" t="s">
         <v>302</v>
@@ -12546,7 +12543,7 @@
         <v>8</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="L126" s="10" t="s">
         <v>498</v>
@@ -12618,7 +12615,7 @@
         <v>4</v>
       </c>
       <c r="H127" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I127" s="1" t="s">
         <v>302</v>
@@ -12627,7 +12624,7 @@
         <v>8</v>
       </c>
       <c r="K127" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L127" s="10" t="s">
         <v>498</v>
@@ -12696,7 +12693,7 @@
         <v>4</v>
       </c>
       <c r="H128" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I128" s="1" t="s">
         <v>302</v>
@@ -12705,7 +12702,7 @@
         <v>8</v>
       </c>
       <c r="K128" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L128" s="10" t="s">
         <v>498</v>
@@ -12774,7 +12771,7 @@
         <v>4</v>
       </c>
       <c r="H129" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I129" s="1" t="s">
         <v>302</v>
@@ -12783,7 +12780,7 @@
         <v>8</v>
       </c>
       <c r="K129" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="L129" s="10" t="s">
         <v>498</v>
@@ -12852,7 +12849,7 @@
         <v>4</v>
       </c>
       <c r="H130" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I130" s="1" t="s">
         <v>302</v>
@@ -12861,7 +12858,7 @@
         <v>8</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L130" s="10" t="s">
         <v>498</v>
@@ -12930,7 +12927,7 @@
         <v>4</v>
       </c>
       <c r="H131" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I131" s="1" t="s">
         <v>302</v>
@@ -12939,7 +12936,7 @@
         <v>8</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L131" s="10" t="s">
         <v>498</v>
@@ -13011,7 +13008,7 @@
         <v>4</v>
       </c>
       <c r="H132" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I132" s="1" t="s">
         <v>302</v>
@@ -13020,7 +13017,7 @@
         <v>8</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L132" s="10" t="s">
         <v>498</v>
@@ -13092,7 +13089,7 @@
         <v>4</v>
       </c>
       <c r="H133" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I133" s="1" t="s">
         <v>302</v>
@@ -13101,7 +13098,7 @@
         <v>8</v>
       </c>
       <c r="K133" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L133" s="10" t="s">
         <v>503</v>
@@ -13173,7 +13170,7 @@
         <v>4</v>
       </c>
       <c r="H134" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I134" s="1" t="s">
         <v>302</v>
@@ -13182,7 +13179,7 @@
         <v>8</v>
       </c>
       <c r="K134" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L134" s="10" t="s">
         <v>498</v>
@@ -13251,7 +13248,7 @@
         <v>4</v>
       </c>
       <c r="H135" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I135" s="1" t="s">
         <v>302</v>
@@ -13260,7 +13257,7 @@
         <v>8</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="L135" s="10" t="s">
         <v>498</v>
@@ -13329,7 +13326,7 @@
         <v>4</v>
       </c>
       <c r="H136" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I136" s="1" t="s">
         <v>302</v>
@@ -13338,7 +13335,7 @@
         <v>8</v>
       </c>
       <c r="K136" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L136" s="10" t="s">
         <v>498</v>
@@ -13410,7 +13407,7 @@
         <v>4</v>
       </c>
       <c r="H137" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I137" s="1" t="s">
         <v>302</v>
@@ -13419,7 +13416,7 @@
         <v>8</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="L137" s="10" t="s">
         <v>498</v>
@@ -13488,7 +13485,7 @@
         <v>4</v>
       </c>
       <c r="H138" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I138" s="1" t="s">
         <v>302</v>
@@ -13497,7 +13494,7 @@
         <v>8</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="L138" s="10" t="s">
         <v>498</v>
@@ -13569,7 +13566,7 @@
         <v>4</v>
       </c>
       <c r="H139" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I139" s="1" t="s">
         <v>302</v>
@@ -13578,7 +13575,7 @@
         <v>8</v>
       </c>
       <c r="K139" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="L139" s="10" t="s">
         <v>498</v>
@@ -13647,7 +13644,7 @@
         <v>4</v>
       </c>
       <c r="H140" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I140" s="1" t="s">
         <v>302</v>
@@ -13656,7 +13653,7 @@
         <v>8</v>
       </c>
       <c r="K140" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="L140" s="10" t="s">
         <v>498</v>
@@ -13725,7 +13722,7 @@
         <v>4</v>
       </c>
       <c r="H141" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I141" s="1" t="s">
         <v>302</v>
@@ -13734,7 +13731,7 @@
         <v>8</v>
       </c>
       <c r="K141" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="L141" s="10" t="s">
         <v>498</v>
@@ -13803,7 +13800,7 @@
         <v>4</v>
       </c>
       <c r="H142" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I142" s="1" t="s">
         <v>302</v>
@@ -13812,7 +13809,7 @@
         <v>8</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="L142" s="10" t="s">
         <v>498</v>
@@ -13881,7 +13878,7 @@
         <v>4</v>
       </c>
       <c r="H143" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I143" s="1" t="s">
         <v>302</v>
@@ -13890,7 +13887,7 @@
         <v>8</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="L143" s="10" t="s">
         <v>498</v>
@@ -13959,7 +13956,7 @@
         <v>4</v>
       </c>
       <c r="H144" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I144" s="1" t="s">
         <v>302</v>
@@ -13968,7 +13965,7 @@
         <v>8</v>
       </c>
       <c r="K144" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="L144" s="10" t="s">
         <v>498</v>
@@ -14037,7 +14034,7 @@
         <v>4</v>
       </c>
       <c r="H145" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I145" s="1" t="s">
         <v>302</v>
@@ -14046,7 +14043,7 @@
         <v>8</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="L145" s="10" t="s">
         <v>498</v>
@@ -14115,7 +14112,7 @@
         <v>4</v>
       </c>
       <c r="H146" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I146" s="1" t="s">
         <v>302</v>
@@ -14124,7 +14121,7 @@
         <v>8</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="L146" s="10" t="s">
         <v>498</v>
@@ -14193,7 +14190,7 @@
         <v>4</v>
       </c>
       <c r="H147" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I147" s="1" t="s">
         <v>302</v>
@@ -14202,7 +14199,7 @@
         <v>8</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="L147" s="10" t="s">
         <v>498</v>
@@ -14274,7 +14271,7 @@
         <v>4</v>
       </c>
       <c r="H148" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I148" s="1" t="s">
         <v>302</v>
@@ -14283,7 +14280,7 @@
         <v>8</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="L148" s="10" t="s">
         <v>498</v>
@@ -14352,7 +14349,7 @@
         <v>4</v>
       </c>
       <c r="H149" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I149" s="1" t="s">
         <v>302</v>
@@ -14361,7 +14358,7 @@
         <v>8</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="L149" s="10" t="s">
         <v>498</v>
@@ -14430,7 +14427,7 @@
         <v>4</v>
       </c>
       <c r="H150" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I150" s="1" t="s">
         <v>302</v>
@@ -14439,7 +14436,7 @@
         <v>8</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="L150" s="10" t="s">
         <v>498</v>
@@ -14508,7 +14505,7 @@
         <v>4</v>
       </c>
       <c r="H151" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I151" s="1" t="s">
         <v>302</v>
@@ -14517,7 +14514,7 @@
         <v>8</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="L151" s="10" t="s">
         <v>498</v>
@@ -14589,7 +14586,7 @@
         <v>4</v>
       </c>
       <c r="H152" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I152" s="1" t="s">
         <v>302</v>
@@ -14598,7 +14595,7 @@
         <v>8</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="L152" s="10" t="s">
         <v>498</v>
@@ -14667,7 +14664,7 @@
         <v>4</v>
       </c>
       <c r="H153" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I153" s="1" t="s">
         <v>302</v>
@@ -14676,7 +14673,7 @@
         <v>8</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="L153" s="10" t="s">
         <v>498</v>
@@ -14745,7 +14742,7 @@
         <v>4</v>
       </c>
       <c r="H154" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I154" s="1" t="s">
         <v>302</v>
@@ -14754,7 +14751,7 @@
         <v>8</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="L154" s="10" t="s">
         <v>498</v>
@@ -14826,7 +14823,7 @@
         <v>4</v>
       </c>
       <c r="H155" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I155" s="1" t="s">
         <v>302</v>
@@ -14835,7 +14832,7 @@
         <v>8</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="L155" s="10" t="s">
         <v>498</v>
@@ -14904,7 +14901,7 @@
         <v>4</v>
       </c>
       <c r="H156" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I156" s="1" t="s">
         <v>302</v>
@@ -14913,7 +14910,7 @@
         <v>8</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="L156" s="10" t="s">
         <v>498</v>
@@ -14982,7 +14979,7 @@
         <v>4</v>
       </c>
       <c r="H157" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I157" s="1" t="s">
         <v>302</v>
@@ -14991,7 +14988,7 @@
         <v>8</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="L157" s="10" t="s">
         <v>498</v>
@@ -15060,7 +15057,7 @@
         <v>4</v>
       </c>
       <c r="H158" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I158" s="1" t="s">
         <v>302</v>
@@ -15069,7 +15066,7 @@
         <v>8</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="L158" s="10" t="s">
         <v>498</v>
@@ -15141,7 +15138,7 @@
         <v>4</v>
       </c>
       <c r="H159" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I159" s="1" t="s">
         <v>7</v>
@@ -15150,7 +15147,7 @@
         <v>8</v>
       </c>
       <c r="K159" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L159" s="10" t="s">
         <v>498</v>
@@ -15219,7 +15216,7 @@
         <v>4</v>
       </c>
       <c r="H160" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I160" s="1" t="s">
         <v>7</v>
@@ -15228,7 +15225,7 @@
         <v>8</v>
       </c>
       <c r="K160" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L160" s="10" t="s">
         <v>498</v>
@@ -15300,7 +15297,7 @@
         <v>4</v>
       </c>
       <c r="H161" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I161" s="1" t="s">
         <v>7</v>
@@ -15309,7 +15306,7 @@
         <v>8</v>
       </c>
       <c r="K161" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L161" s="10" t="s">
         <v>498</v>
@@ -15381,7 +15378,7 @@
         <v>4</v>
       </c>
       <c r="H162" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I162" s="1" t="s">
         <v>7</v>
@@ -15390,7 +15387,7 @@
         <v>8</v>
       </c>
       <c r="K162" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L162" s="10" t="s">
         <v>498</v>
@@ -15462,7 +15459,7 @@
         <v>4</v>
       </c>
       <c r="H163" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I163" s="1" t="s">
         <v>7</v>
@@ -15471,7 +15468,7 @@
         <v>8</v>
       </c>
       <c r="K163" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L163" s="10" t="s">
         <v>498</v>
@@ -15543,7 +15540,7 @@
         <v>4</v>
       </c>
       <c r="H164" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I164" s="1" t="s">
         <v>7</v>
@@ -15552,7 +15549,7 @@
         <v>8</v>
       </c>
       <c r="K164" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L164" s="10" t="s">
         <v>498</v>
@@ -15623,7 +15620,7 @@
         <v>4</v>
       </c>
       <c r="H165" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I165" t="s">
         <v>7</v>
@@ -15632,7 +15629,7 @@
         <v>8</v>
       </c>
       <c r="K165" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L165" s="10" t="s">
         <v>498</v>
@@ -15673,7 +15670,7 @@
         <v>4</v>
       </c>
       <c r="H166" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I166" s="7" t="s">
         <v>86</v>
@@ -15682,7 +15679,7 @@
         <v>86</v>
       </c>
       <c r="K166" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L166" s="10" t="s">
         <v>498</v>
@@ -15720,7 +15717,7 @@
         <v>4</v>
       </c>
       <c r="H167" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I167" s="7" t="s">
         <v>86</v>
@@ -15729,7 +15726,7 @@
         <v>86</v>
       </c>
       <c r="K167" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L167" s="10" t="s">
         <v>498</v>
@@ -15767,7 +15764,7 @@
         <v>4</v>
       </c>
       <c r="H168" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I168" s="7" t="s">
         <v>86</v>
@@ -15776,7 +15773,7 @@
         <v>86</v>
       </c>
       <c r="K168" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L168" s="10" t="s">
         <v>498</v>
@@ -15814,7 +15811,7 @@
         <v>4</v>
       </c>
       <c r="H169" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I169" s="7" t="s">
         <v>86</v>
@@ -15823,7 +15820,7 @@
         <v>86</v>
       </c>
       <c r="K169" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L169" s="10" t="s">
         <v>498</v>
@@ -15861,7 +15858,7 @@
         <v>4</v>
       </c>
       <c r="H170" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I170" s="7" t="s">
         <v>86</v>
@@ -15870,7 +15867,7 @@
         <v>86</v>
       </c>
       <c r="K170" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L170" s="10" t="s">
         <v>498</v>
@@ -15908,7 +15905,7 @@
         <v>4</v>
       </c>
       <c r="H171" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I171" s="7" t="s">
         <v>86</v>
@@ -15917,7 +15914,7 @@
         <v>86</v>
       </c>
       <c r="K171" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L171" s="10" t="s">
         <v>498</v>
@@ -15955,7 +15952,7 @@
         <v>4</v>
       </c>
       <c r="H172" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I172" s="7" t="s">
         <v>86</v>
@@ -15964,7 +15961,7 @@
         <v>86</v>
       </c>
       <c r="K172" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L172" s="10" t="s">
         <v>498</v>
@@ -16002,7 +15999,7 @@
         <v>4</v>
       </c>
       <c r="H173" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I173" s="7" t="s">
         <v>86</v>
@@ -16011,7 +16008,7 @@
         <v>86</v>
       </c>
       <c r="K173" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L173" s="10" t="s">
         <v>498</v>
@@ -16049,7 +16046,7 @@
         <v>4</v>
       </c>
       <c r="H174" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I174" s="7" t="s">
         <v>86</v>
@@ -16058,7 +16055,7 @@
         <v>86</v>
       </c>
       <c r="K174" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="L174" s="10" t="s">
         <v>498</v>
@@ -16078,13 +16075,13 @@
     </row>
     <row r="175" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B175" s="7">
         <v>184</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D175" s="5">
         <v>43797</v>
@@ -16096,46 +16093,46 @@
         <v>16</v>
       </c>
       <c r="H175" t="s">
+        <v>758</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="J175" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="K175" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="L175" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M175" s="9" t="s">
+        <v>771</v>
+      </c>
+      <c r="N175">
+        <v>1</v>
+      </c>
+      <c r="O175">
+        <v>1</v>
+      </c>
+      <c r="P175">
+        <v>0</v>
+      </c>
+      <c r="Q175">
+        <v>0</v>
+      </c>
+      <c r="R175">
+        <v>0</v>
+      </c>
+      <c r="S175">
+        <v>0</v>
+      </c>
+      <c r="T175" t="s">
+        <v>757</v>
+      </c>
+      <c r="U175" t="s">
         <v>759</v>
-      </c>
-      <c r="I175" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="J175" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="K175" s="7" t="s">
-        <v>771</v>
-      </c>
-      <c r="L175" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="M175" s="9" t="s">
-        <v>772</v>
-      </c>
-      <c r="N175">
-        <v>1</v>
-      </c>
-      <c r="O175">
-        <v>1</v>
-      </c>
-      <c r="P175">
-        <v>0</v>
-      </c>
-      <c r="Q175">
-        <v>0</v>
-      </c>
-      <c r="R175">
-        <v>0</v>
-      </c>
-      <c r="S175">
-        <v>0</v>
-      </c>
-      <c r="T175" t="s">
-        <v>758</v>
-      </c>
-      <c r="U175" t="s">
-        <v>760</v>
       </c>
       <c r="V175">
         <v>16</v>
@@ -16147,18 +16144,18 @@
         <v>86</v>
       </c>
       <c r="AA175" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="176" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B176" s="7">
         <v>184</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D176" s="5">
         <v>43798</v>
@@ -16170,46 +16167,46 @@
         <v>16</v>
       </c>
       <c r="H176" t="s">
+        <v>758</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="J176" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="K176" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="L176" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M176" s="9" t="s">
+        <v>772</v>
+      </c>
+      <c r="N176">
+        <v>1</v>
+      </c>
+      <c r="O176">
+        <v>1</v>
+      </c>
+      <c r="P176">
+        <v>0</v>
+      </c>
+      <c r="Q176">
+        <v>0</v>
+      </c>
+      <c r="R176">
+        <v>0</v>
+      </c>
+      <c r="S176">
+        <v>0</v>
+      </c>
+      <c r="T176" t="s">
+        <v>757</v>
+      </c>
+      <c r="U176" t="s">
         <v>759</v>
-      </c>
-      <c r="I176" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="J176" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="K176" s="7" t="s">
-        <v>771</v>
-      </c>
-      <c r="L176" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="M176" s="9" t="s">
-        <v>773</v>
-      </c>
-      <c r="N176">
-        <v>1</v>
-      </c>
-      <c r="O176">
-        <v>1</v>
-      </c>
-      <c r="P176">
-        <v>0</v>
-      </c>
-      <c r="Q176">
-        <v>0</v>
-      </c>
-      <c r="R176">
-        <v>0</v>
-      </c>
-      <c r="S176">
-        <v>0</v>
-      </c>
-      <c r="T176" t="s">
-        <v>758</v>
-      </c>
-      <c r="U176" t="s">
-        <v>760</v>
       </c>
       <c r="V176">
         <v>16</v>
@@ -16221,21 +16218,21 @@
         <v>86</v>
       </c>
       <c r="AA176" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AB176" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="177" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B177" s="7">
         <v>184</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D177" s="5">
         <v>43799</v>
@@ -16247,46 +16244,46 @@
         <v>16</v>
       </c>
       <c r="H177" t="s">
+        <v>758</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="J177" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="K177" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="L177" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M177" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="N177">
+        <v>1</v>
+      </c>
+      <c r="O177">
+        <v>1</v>
+      </c>
+      <c r="P177">
+        <v>0</v>
+      </c>
+      <c r="Q177">
+        <v>0</v>
+      </c>
+      <c r="R177">
+        <v>0</v>
+      </c>
+      <c r="S177">
+        <v>0</v>
+      </c>
+      <c r="T177" t="s">
+        <v>757</v>
+      </c>
+      <c r="U177" t="s">
         <v>759</v>
-      </c>
-      <c r="I177" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="J177" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="K177" s="7" t="s">
-        <v>771</v>
-      </c>
-      <c r="L177" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="M177" s="9" t="s">
-        <v>769</v>
-      </c>
-      <c r="N177">
-        <v>1</v>
-      </c>
-      <c r="O177">
-        <v>1</v>
-      </c>
-      <c r="P177">
-        <v>0</v>
-      </c>
-      <c r="Q177">
-        <v>0</v>
-      </c>
-      <c r="R177">
-        <v>0</v>
-      </c>
-      <c r="S177">
-        <v>0</v>
-      </c>
-      <c r="T177" t="s">
-        <v>758</v>
-      </c>
-      <c r="U177" t="s">
-        <v>760</v>
       </c>
       <c r="V177">
         <v>16</v>
@@ -16298,21 +16295,21 @@
         <v>86</v>
       </c>
       <c r="AA177" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="AB177" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="178" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B178" s="7">
         <v>184</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D178" s="5">
         <v>43800</v>
@@ -16324,46 +16321,46 @@
         <v>16</v>
       </c>
       <c r="H178" t="s">
+        <v>758</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="J178" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="K178" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="L178" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M178" s="9" t="s">
+        <v>769</v>
+      </c>
+      <c r="N178">
+        <v>1</v>
+      </c>
+      <c r="O178">
+        <v>1</v>
+      </c>
+      <c r="P178">
+        <v>0</v>
+      </c>
+      <c r="Q178">
+        <v>0</v>
+      </c>
+      <c r="R178">
+        <v>0</v>
+      </c>
+      <c r="S178">
+        <v>0</v>
+      </c>
+      <c r="T178" t="s">
+        <v>757</v>
+      </c>
+      <c r="U178" t="s">
         <v>759</v>
-      </c>
-      <c r="I178" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="J178" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="K178" s="7" t="s">
-        <v>771</v>
-      </c>
-      <c r="L178" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="M178" s="9" t="s">
-        <v>770</v>
-      </c>
-      <c r="N178">
-        <v>1</v>
-      </c>
-      <c r="O178">
-        <v>1</v>
-      </c>
-      <c r="P178">
-        <v>0</v>
-      </c>
-      <c r="Q178">
-        <v>0</v>
-      </c>
-      <c r="R178">
-        <v>0</v>
-      </c>
-      <c r="S178">
-        <v>0</v>
-      </c>
-      <c r="T178" t="s">
-        <v>758</v>
-      </c>
-      <c r="U178" t="s">
-        <v>760</v>
       </c>
       <c r="V178">
         <v>16</v>
@@ -16375,18 +16372,18 @@
         <v>86</v>
       </c>
       <c r="AB178" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="179" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B179" s="7">
         <v>184</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D179" s="5">
         <v>43801</v>
@@ -16398,46 +16395,46 @@
         <v>16</v>
       </c>
       <c r="H179" t="s">
+        <v>758</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="J179" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="K179" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="L179" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M179" s="9" t="s">
+        <v>773</v>
+      </c>
+      <c r="N179">
+        <v>1</v>
+      </c>
+      <c r="O179">
+        <v>1</v>
+      </c>
+      <c r="P179">
+        <v>0</v>
+      </c>
+      <c r="Q179">
+        <v>0</v>
+      </c>
+      <c r="R179">
+        <v>0</v>
+      </c>
+      <c r="S179">
+        <v>0</v>
+      </c>
+      <c r="T179" t="s">
+        <v>757</v>
+      </c>
+      <c r="U179" t="s">
         <v>759</v>
-      </c>
-      <c r="I179" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="J179" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="K179" s="7" t="s">
-        <v>771</v>
-      </c>
-      <c r="L179" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="M179" s="9" t="s">
-        <v>774</v>
-      </c>
-      <c r="N179">
-        <v>1</v>
-      </c>
-      <c r="O179">
-        <v>1</v>
-      </c>
-      <c r="P179">
-        <v>0</v>
-      </c>
-      <c r="Q179">
-        <v>0</v>
-      </c>
-      <c r="R179">
-        <v>0</v>
-      </c>
-      <c r="S179">
-        <v>0</v>
-      </c>
-      <c r="T179" t="s">
-        <v>758</v>
-      </c>
-      <c r="U179" t="s">
-        <v>760</v>
       </c>
       <c r="V179">
         <v>16</v>
@@ -16449,18 +16446,18 @@
         <v>86</v>
       </c>
       <c r="AB179" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="180" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B180" s="7">
         <v>184</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D180" s="5">
         <v>43802</v>
@@ -16472,46 +16469,46 @@
         <v>16</v>
       </c>
       <c r="H180" t="s">
+        <v>758</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="J180" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="K180" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="L180" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M180" s="9" t="s">
+        <v>774</v>
+      </c>
+      <c r="N180">
+        <v>1</v>
+      </c>
+      <c r="O180">
+        <v>1</v>
+      </c>
+      <c r="P180">
+        <v>0</v>
+      </c>
+      <c r="Q180">
+        <v>0</v>
+      </c>
+      <c r="R180">
+        <v>0</v>
+      </c>
+      <c r="S180">
+        <v>0</v>
+      </c>
+      <c r="T180" t="s">
+        <v>757</v>
+      </c>
+      <c r="U180" t="s">
         <v>759</v>
-      </c>
-      <c r="I180" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="J180" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="K180" s="7" t="s">
-        <v>771</v>
-      </c>
-      <c r="L180" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="M180" s="9" t="s">
-        <v>775</v>
-      </c>
-      <c r="N180">
-        <v>1</v>
-      </c>
-      <c r="O180">
-        <v>1</v>
-      </c>
-      <c r="P180">
-        <v>0</v>
-      </c>
-      <c r="Q180">
-        <v>0</v>
-      </c>
-      <c r="R180">
-        <v>0</v>
-      </c>
-      <c r="S180">
-        <v>0</v>
-      </c>
-      <c r="T180" t="s">
-        <v>758</v>
-      </c>
-      <c r="U180" t="s">
-        <v>760</v>
       </c>
       <c r="V180">
         <v>16</v>
@@ -16523,21 +16520,21 @@
         <v>86</v>
       </c>
       <c r="AA180" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="AB180" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="181" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B181" s="7">
         <v>184</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D181" s="5">
         <v>43803</v>
@@ -16549,46 +16546,46 @@
         <v>16</v>
       </c>
       <c r="H181" t="s">
+        <v>758</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="J181" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="K181" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="L181" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M181" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="N181">
+        <v>1</v>
+      </c>
+      <c r="O181">
+        <v>1</v>
+      </c>
+      <c r="P181">
+        <v>0</v>
+      </c>
+      <c r="Q181">
+        <v>0</v>
+      </c>
+      <c r="R181">
+        <v>0</v>
+      </c>
+      <c r="S181">
+        <v>0</v>
+      </c>
+      <c r="T181" t="s">
+        <v>757</v>
+      </c>
+      <c r="U181" t="s">
         <v>759</v>
-      </c>
-      <c r="I181" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="J181" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="K181" s="7" t="s">
-        <v>771</v>
-      </c>
-      <c r="L181" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="M181" s="9" t="s">
-        <v>776</v>
-      </c>
-      <c r="N181">
-        <v>1</v>
-      </c>
-      <c r="O181">
-        <v>1</v>
-      </c>
-      <c r="P181">
-        <v>0</v>
-      </c>
-      <c r="Q181">
-        <v>0</v>
-      </c>
-      <c r="R181">
-        <v>0</v>
-      </c>
-      <c r="S181">
-        <v>0</v>
-      </c>
-      <c r="T181" t="s">
-        <v>758</v>
-      </c>
-      <c r="U181" t="s">
-        <v>760</v>
       </c>
       <c r="V181">
         <v>16</v>
@@ -16602,13 +16599,13 @@
     </row>
     <row r="182" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B182" s="7">
         <v>184</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D182" s="5">
         <v>43804</v>
@@ -16620,46 +16617,46 @@
         <v>16</v>
       </c>
       <c r="H182" t="s">
+        <v>758</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="J182" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="K182" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="L182" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M182" s="9" t="s">
+        <v>776</v>
+      </c>
+      <c r="N182">
+        <v>1</v>
+      </c>
+      <c r="O182">
+        <v>1</v>
+      </c>
+      <c r="P182">
+        <v>0</v>
+      </c>
+      <c r="Q182">
+        <v>0</v>
+      </c>
+      <c r="R182">
+        <v>0</v>
+      </c>
+      <c r="S182">
+        <v>0</v>
+      </c>
+      <c r="T182" t="s">
+        <v>757</v>
+      </c>
+      <c r="U182" t="s">
         <v>759</v>
-      </c>
-      <c r="I182" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="J182" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="K182" s="7" t="s">
-        <v>771</v>
-      </c>
-      <c r="L182" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="M182" s="9" t="s">
-        <v>777</v>
-      </c>
-      <c r="N182">
-        <v>1</v>
-      </c>
-      <c r="O182">
-        <v>1</v>
-      </c>
-      <c r="P182">
-        <v>0</v>
-      </c>
-      <c r="Q182">
-        <v>0</v>
-      </c>
-      <c r="R182">
-        <v>0</v>
-      </c>
-      <c r="S182">
-        <v>0</v>
-      </c>
-      <c r="T182" t="s">
-        <v>758</v>
-      </c>
-      <c r="U182" t="s">
-        <v>760</v>
       </c>
       <c r="V182">
         <v>16</v>
@@ -16673,13 +16670,13 @@
     </row>
     <row r="183" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B183" s="7">
         <v>184</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D183" s="5">
         <v>43807</v>
@@ -16691,46 +16688,46 @@
         <v>16</v>
       </c>
       <c r="H183" t="s">
+        <v>758</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="J183" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="K183" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="L183" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M183" s="9" t="s">
+        <v>798</v>
+      </c>
+      <c r="N183">
+        <v>1</v>
+      </c>
+      <c r="O183">
+        <v>1</v>
+      </c>
+      <c r="P183">
+        <v>0</v>
+      </c>
+      <c r="Q183">
+        <v>0</v>
+      </c>
+      <c r="R183">
+        <v>0</v>
+      </c>
+      <c r="S183">
+        <v>0</v>
+      </c>
+      <c r="T183" t="s">
+        <v>757</v>
+      </c>
+      <c r="U183" t="s">
         <v>759</v>
-      </c>
-      <c r="I183" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="J183" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="K183" s="7" t="s">
-        <v>771</v>
-      </c>
-      <c r="L183" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="M183" s="9" t="s">
-        <v>799</v>
-      </c>
-      <c r="N183">
-        <v>1</v>
-      </c>
-      <c r="O183">
-        <v>1</v>
-      </c>
-      <c r="P183">
-        <v>0</v>
-      </c>
-      <c r="Q183">
-        <v>0</v>
-      </c>
-      <c r="R183">
-        <v>0</v>
-      </c>
-      <c r="S183">
-        <v>0</v>
-      </c>
-      <c r="T183" t="s">
-        <v>758</v>
-      </c>
-      <c r="U183" t="s">
-        <v>760</v>
       </c>
       <c r="V183">
         <v>16</v>
@@ -16742,18 +16739,18 @@
         <v>86</v>
       </c>
       <c r="AA183" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="184" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B184" s="7">
         <v>184</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D184" s="5">
         <v>43808</v>
@@ -16765,46 +16762,46 @@
         <v>16</v>
       </c>
       <c r="H184" t="s">
+        <v>758</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="J184" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="K184" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="L184" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M184" s="9" t="s">
+        <v>792</v>
+      </c>
+      <c r="N184">
+        <v>1</v>
+      </c>
+      <c r="O184">
+        <v>1</v>
+      </c>
+      <c r="P184">
+        <v>0</v>
+      </c>
+      <c r="Q184">
+        <v>0</v>
+      </c>
+      <c r="R184">
+        <v>0</v>
+      </c>
+      <c r="S184">
+        <v>0</v>
+      </c>
+      <c r="T184" t="s">
+        <v>757</v>
+      </c>
+      <c r="U184" t="s">
         <v>759</v>
-      </c>
-      <c r="I184" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="J184" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="K184" s="7" t="s">
-        <v>771</v>
-      </c>
-      <c r="L184" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="M184" s="9" t="s">
-        <v>793</v>
-      </c>
-      <c r="N184">
-        <v>1</v>
-      </c>
-      <c r="O184">
-        <v>1</v>
-      </c>
-      <c r="P184">
-        <v>0</v>
-      </c>
-      <c r="Q184">
-        <v>0</v>
-      </c>
-      <c r="R184">
-        <v>0</v>
-      </c>
-      <c r="S184">
-        <v>0</v>
-      </c>
-      <c r="T184" t="s">
-        <v>758</v>
-      </c>
-      <c r="U184" t="s">
-        <v>760</v>
       </c>
       <c r="V184">
         <v>16</v>
@@ -16818,13 +16815,13 @@
     </row>
     <row r="185" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B185" s="7">
         <v>184</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D185" s="5">
         <v>43809</v>
@@ -16836,46 +16833,46 @@
         <v>16</v>
       </c>
       <c r="H185" t="s">
+        <v>758</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="J185" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="K185" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="L185" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M185" s="9" t="s">
+        <v>793</v>
+      </c>
+      <c r="N185">
+        <v>1</v>
+      </c>
+      <c r="O185">
+        <v>1</v>
+      </c>
+      <c r="P185">
+        <v>0</v>
+      </c>
+      <c r="Q185">
+        <v>0</v>
+      </c>
+      <c r="R185">
+        <v>0</v>
+      </c>
+      <c r="S185">
+        <v>0</v>
+      </c>
+      <c r="T185" t="s">
+        <v>757</v>
+      </c>
+      <c r="U185" t="s">
         <v>759</v>
-      </c>
-      <c r="I185" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="J185" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="K185" s="7" t="s">
-        <v>771</v>
-      </c>
-      <c r="L185" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="M185" s="9" t="s">
-        <v>794</v>
-      </c>
-      <c r="N185">
-        <v>1</v>
-      </c>
-      <c r="O185">
-        <v>1</v>
-      </c>
-      <c r="P185">
-        <v>0</v>
-      </c>
-      <c r="Q185">
-        <v>0</v>
-      </c>
-      <c r="R185">
-        <v>0</v>
-      </c>
-      <c r="S185">
-        <v>0</v>
-      </c>
-      <c r="T185" t="s">
-        <v>758</v>
-      </c>
-      <c r="U185" t="s">
-        <v>760</v>
       </c>
       <c r="V185">
         <v>16</v>
@@ -16889,13 +16886,13 @@
     </row>
     <row r="186" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B186" s="7">
         <v>184</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D186" s="5">
         <v>43810</v>
@@ -16907,46 +16904,46 @@
         <v>16</v>
       </c>
       <c r="H186" t="s">
+        <v>758</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="J186" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="K186" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="L186" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M186" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="N186">
+        <v>1</v>
+      </c>
+      <c r="O186">
+        <v>1</v>
+      </c>
+      <c r="P186">
+        <v>0</v>
+      </c>
+      <c r="Q186">
+        <v>0</v>
+      </c>
+      <c r="R186">
+        <v>0</v>
+      </c>
+      <c r="S186">
+        <v>0</v>
+      </c>
+      <c r="T186" t="s">
+        <v>757</v>
+      </c>
+      <c r="U186" t="s">
         <v>759</v>
-      </c>
-      <c r="I186" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="J186" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="K186" s="7" t="s">
-        <v>771</v>
-      </c>
-      <c r="L186" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="M186" s="9" t="s">
-        <v>795</v>
-      </c>
-      <c r="N186">
-        <v>1</v>
-      </c>
-      <c r="O186">
-        <v>1</v>
-      </c>
-      <c r="P186">
-        <v>0</v>
-      </c>
-      <c r="Q186">
-        <v>0</v>
-      </c>
-      <c r="R186">
-        <v>0</v>
-      </c>
-      <c r="S186">
-        <v>0</v>
-      </c>
-      <c r="T186" t="s">
-        <v>758</v>
-      </c>
-      <c r="U186" t="s">
-        <v>760</v>
       </c>
       <c r="V186">
         <v>16</v>
@@ -16960,13 +16957,13 @@
     </row>
     <row r="187" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B187" s="7">
         <v>184</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D187" s="5">
         <v>43811</v>
@@ -16978,46 +16975,46 @@
         <v>16</v>
       </c>
       <c r="H187" t="s">
+        <v>758</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="J187" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="K187" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="L187" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M187" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="N187">
+        <v>1</v>
+      </c>
+      <c r="O187">
+        <v>1</v>
+      </c>
+      <c r="P187">
+        <v>0</v>
+      </c>
+      <c r="Q187">
+        <v>0</v>
+      </c>
+      <c r="R187">
+        <v>0</v>
+      </c>
+      <c r="S187">
+        <v>0</v>
+      </c>
+      <c r="T187" t="s">
+        <v>757</v>
+      </c>
+      <c r="U187" t="s">
         <v>759</v>
-      </c>
-      <c r="I187" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="J187" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="K187" s="7" t="s">
-        <v>771</v>
-      </c>
-      <c r="L187" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="M187" s="9" t="s">
-        <v>796</v>
-      </c>
-      <c r="N187">
-        <v>1</v>
-      </c>
-      <c r="O187">
-        <v>1</v>
-      </c>
-      <c r="P187">
-        <v>0</v>
-      </c>
-      <c r="Q187">
-        <v>0</v>
-      </c>
-      <c r="R187">
-        <v>0</v>
-      </c>
-      <c r="S187">
-        <v>0</v>
-      </c>
-      <c r="T187" t="s">
-        <v>758</v>
-      </c>
-      <c r="U187" t="s">
-        <v>760</v>
       </c>
       <c r="V187">
         <v>16</v>
@@ -17031,13 +17028,13 @@
     </row>
     <row r="188" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B188" s="7">
         <v>184</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D188" s="5">
         <v>43814</v>
@@ -17049,46 +17046,46 @@
         <v>16</v>
       </c>
       <c r="H188" t="s">
+        <v>758</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="J188" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="K188" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="L188" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M188" s="9" t="s">
+        <v>796</v>
+      </c>
+      <c r="N188">
+        <v>1</v>
+      </c>
+      <c r="O188">
+        <v>1</v>
+      </c>
+      <c r="P188">
+        <v>0</v>
+      </c>
+      <c r="Q188">
+        <v>0</v>
+      </c>
+      <c r="R188">
+        <v>0</v>
+      </c>
+      <c r="S188">
+        <v>0</v>
+      </c>
+      <c r="T188" t="s">
+        <v>757</v>
+      </c>
+      <c r="U188" t="s">
         <v>759</v>
-      </c>
-      <c r="I188" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="J188" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="K188" s="7" t="s">
-        <v>771</v>
-      </c>
-      <c r="L188" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="M188" s="9" t="s">
-        <v>797</v>
-      </c>
-      <c r="N188">
-        <v>1</v>
-      </c>
-      <c r="O188">
-        <v>1</v>
-      </c>
-      <c r="P188">
-        <v>0</v>
-      </c>
-      <c r="Q188">
-        <v>0</v>
-      </c>
-      <c r="R188">
-        <v>0</v>
-      </c>
-      <c r="S188">
-        <v>0</v>
-      </c>
-      <c r="T188" t="s">
-        <v>758</v>
-      </c>
-      <c r="U188" t="s">
-        <v>760</v>
       </c>
       <c r="V188">
         <v>16</v>
@@ -17102,13 +17099,13 @@
     </row>
     <row r="189" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B189" s="7">
         <v>184</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D189" s="5">
         <v>43815</v>
@@ -17120,46 +17117,46 @@
         <v>16</v>
       </c>
       <c r="H189" t="s">
+        <v>758</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="J189" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="K189" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="L189" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M189" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="N189">
+        <v>1</v>
+      </c>
+      <c r="O189">
+        <v>1</v>
+      </c>
+      <c r="P189">
+        <v>0</v>
+      </c>
+      <c r="Q189">
+        <v>0</v>
+      </c>
+      <c r="R189">
+        <v>0</v>
+      </c>
+      <c r="S189">
+        <v>0</v>
+      </c>
+      <c r="T189" t="s">
+        <v>757</v>
+      </c>
+      <c r="U189" t="s">
         <v>759</v>
-      </c>
-      <c r="I189" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="J189" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="K189" s="7" t="s">
-        <v>771</v>
-      </c>
-      <c r="L189" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="M189" s="9" t="s">
-        <v>798</v>
-      </c>
-      <c r="N189">
-        <v>1</v>
-      </c>
-      <c r="O189">
-        <v>1</v>
-      </c>
-      <c r="P189">
-        <v>0</v>
-      </c>
-      <c r="Q189">
-        <v>0</v>
-      </c>
-      <c r="R189">
-        <v>0</v>
-      </c>
-      <c r="S189">
-        <v>0</v>
-      </c>
-      <c r="T189" t="s">
-        <v>758</v>
-      </c>
-      <c r="U189" t="s">
-        <v>760</v>
       </c>
       <c r="V189">
         <v>16</v>
@@ -17173,13 +17170,13 @@
     </row>
     <row r="190" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B190" s="7">
         <v>184</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D190" s="5">
         <v>43816</v>
@@ -17191,46 +17188,46 @@
         <v>16</v>
       </c>
       <c r="H190" t="s">
+        <v>758</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="J190" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="K190" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="L190" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M190" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="N190">
+        <v>1</v>
+      </c>
+      <c r="O190">
+        <v>1</v>
+      </c>
+      <c r="P190">
+        <v>0</v>
+      </c>
+      <c r="Q190">
+        <v>0</v>
+      </c>
+      <c r="R190">
+        <v>0</v>
+      </c>
+      <c r="S190">
+        <v>0</v>
+      </c>
+      <c r="T190" t="s">
+        <v>757</v>
+      </c>
+      <c r="U190" t="s">
         <v>759</v>
-      </c>
-      <c r="I190" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="J190" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="K190" s="7" t="s">
-        <v>771</v>
-      </c>
-      <c r="L190" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="M190" s="9" t="s">
-        <v>800</v>
-      </c>
-      <c r="N190">
-        <v>1</v>
-      </c>
-      <c r="O190">
-        <v>1</v>
-      </c>
-      <c r="P190">
-        <v>0</v>
-      </c>
-      <c r="Q190">
-        <v>0</v>
-      </c>
-      <c r="R190">
-        <v>0</v>
-      </c>
-      <c r="S190">
-        <v>0</v>
-      </c>
-      <c r="T190" t="s">
-        <v>758</v>
-      </c>
-      <c r="U190" t="s">
-        <v>760</v>
       </c>
       <c r="V190">
         <v>16</v>
@@ -17244,13 +17241,13 @@
     </row>
     <row r="191" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B191" s="7">
         <v>184</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D191" s="5">
         <v>43819</v>
@@ -17262,46 +17259,46 @@
         <v>16</v>
       </c>
       <c r="H191" t="s">
+        <v>758</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="J191" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="K191" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="L191" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M191" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="N191">
+        <v>1</v>
+      </c>
+      <c r="O191">
+        <v>1</v>
+      </c>
+      <c r="P191">
+        <v>0</v>
+      </c>
+      <c r="Q191">
+        <v>0</v>
+      </c>
+      <c r="R191">
+        <v>0</v>
+      </c>
+      <c r="S191">
+        <v>0</v>
+      </c>
+      <c r="T191" t="s">
+        <v>757</v>
+      </c>
+      <c r="U191" t="s">
         <v>759</v>
-      </c>
-      <c r="I191" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="J191" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="K191" s="7" t="s">
-        <v>771</v>
-      </c>
-      <c r="L191" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="M191" s="9" t="s">
-        <v>801</v>
-      </c>
-      <c r="N191">
-        <v>1</v>
-      </c>
-      <c r="O191">
-        <v>1</v>
-      </c>
-      <c r="P191">
-        <v>0</v>
-      </c>
-      <c r="Q191">
-        <v>0</v>
-      </c>
-      <c r="R191">
-        <v>0</v>
-      </c>
-      <c r="S191">
-        <v>0</v>
-      </c>
-      <c r="T191" t="s">
-        <v>758</v>
-      </c>
-      <c r="U191" t="s">
-        <v>760</v>
       </c>
       <c r="V191">
         <v>16</v>
@@ -17315,13 +17312,13 @@
     </row>
     <row r="192" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B192" s="7">
         <v>184</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D192" s="5">
         <v>43821</v>
@@ -17333,46 +17330,46 @@
         <v>16</v>
       </c>
       <c r="H192" t="s">
+        <v>758</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="J192" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="K192" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="L192" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M192" s="9" t="s">
+        <v>801</v>
+      </c>
+      <c r="N192">
+        <v>1</v>
+      </c>
+      <c r="O192">
+        <v>1</v>
+      </c>
+      <c r="P192">
+        <v>0</v>
+      </c>
+      <c r="Q192">
+        <v>0</v>
+      </c>
+      <c r="R192">
+        <v>0</v>
+      </c>
+      <c r="S192">
+        <v>0</v>
+      </c>
+      <c r="T192" t="s">
+        <v>757</v>
+      </c>
+      <c r="U192" t="s">
         <v>759</v>
-      </c>
-      <c r="I192" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="J192" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="K192" s="7" t="s">
-        <v>771</v>
-      </c>
-      <c r="L192" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="M192" s="9" t="s">
-        <v>802</v>
-      </c>
-      <c r="N192">
-        <v>1</v>
-      </c>
-      <c r="O192">
-        <v>1</v>
-      </c>
-      <c r="P192">
-        <v>0</v>
-      </c>
-      <c r="Q192">
-        <v>0</v>
-      </c>
-      <c r="R192">
-        <v>0</v>
-      </c>
-      <c r="S192">
-        <v>0</v>
-      </c>
-      <c r="T192" t="s">
-        <v>758</v>
-      </c>
-      <c r="U192" t="s">
-        <v>760</v>
       </c>
       <c r="V192">
         <v>16</v>
@@ -17384,18 +17381,18 @@
         <v>86</v>
       </c>
       <c r="AB192" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="193" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B193" s="7">
         <v>184</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D193" s="5">
         <v>43823</v>
@@ -17407,46 +17404,46 @@
         <v>16</v>
       </c>
       <c r="H193" t="s">
+        <v>758</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="J193" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="K193" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="L193" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M193" s="9" t="s">
+        <v>802</v>
+      </c>
+      <c r="N193">
+        <v>1</v>
+      </c>
+      <c r="O193">
+        <v>1</v>
+      </c>
+      <c r="P193">
+        <v>0</v>
+      </c>
+      <c r="Q193">
+        <v>0</v>
+      </c>
+      <c r="R193">
+        <v>0</v>
+      </c>
+      <c r="S193">
+        <v>0</v>
+      </c>
+      <c r="T193" t="s">
+        <v>757</v>
+      </c>
+      <c r="U193" t="s">
         <v>759</v>
-      </c>
-      <c r="I193" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="J193" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="K193" s="7" t="s">
-        <v>771</v>
-      </c>
-      <c r="L193" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="M193" s="9" t="s">
-        <v>803</v>
-      </c>
-      <c r="N193">
-        <v>1</v>
-      </c>
-      <c r="O193">
-        <v>1</v>
-      </c>
-      <c r="P193">
-        <v>0</v>
-      </c>
-      <c r="Q193">
-        <v>0</v>
-      </c>
-      <c r="R193">
-        <v>0</v>
-      </c>
-      <c r="S193">
-        <v>0</v>
-      </c>
-      <c r="T193" t="s">
-        <v>758</v>
-      </c>
-      <c r="U193" t="s">
-        <v>760</v>
       </c>
       <c r="V193">
         <v>16</v>
@@ -17458,18 +17455,18 @@
         <v>86</v>
       </c>
       <c r="AA193" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="194" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B194" s="7">
         <v>184</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D194" s="5">
         <v>43824</v>
@@ -17481,46 +17478,46 @@
         <v>16</v>
       </c>
       <c r="H194" t="s">
+        <v>758</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="J194" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="K194" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="L194" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M194" s="9" t="s">
+        <v>803</v>
+      </c>
+      <c r="N194">
+        <v>1</v>
+      </c>
+      <c r="O194">
+        <v>1</v>
+      </c>
+      <c r="P194">
+        <v>0</v>
+      </c>
+      <c r="Q194">
+        <v>0</v>
+      </c>
+      <c r="R194">
+        <v>0</v>
+      </c>
+      <c r="S194">
+        <v>0</v>
+      </c>
+      <c r="T194" t="s">
+        <v>757</v>
+      </c>
+      <c r="U194" t="s">
         <v>759</v>
-      </c>
-      <c r="I194" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="J194" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="K194" s="7" t="s">
-        <v>771</v>
-      </c>
-      <c r="L194" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="M194" s="9" t="s">
-        <v>804</v>
-      </c>
-      <c r="N194">
-        <v>1</v>
-      </c>
-      <c r="O194">
-        <v>1</v>
-      </c>
-      <c r="P194">
-        <v>0</v>
-      </c>
-      <c r="Q194">
-        <v>0</v>
-      </c>
-      <c r="R194">
-        <v>0</v>
-      </c>
-      <c r="S194">
-        <v>0</v>
-      </c>
-      <c r="T194" t="s">
-        <v>758</v>
-      </c>
-      <c r="U194" t="s">
-        <v>760</v>
       </c>
       <c r="V194">
         <v>16</v>
@@ -17534,13 +17531,13 @@
     </row>
     <row r="195" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B195" s="7">
         <v>184</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D195" s="5">
         <v>43825</v>
@@ -17552,46 +17549,46 @@
         <v>16</v>
       </c>
       <c r="H195" t="s">
+        <v>758</v>
+      </c>
+      <c r="I195" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="J195" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="K195" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="L195" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M195" s="9" t="s">
+        <v>804</v>
+      </c>
+      <c r="N195">
+        <v>1</v>
+      </c>
+      <c r="O195">
+        <v>1</v>
+      </c>
+      <c r="P195">
+        <v>0</v>
+      </c>
+      <c r="Q195">
+        <v>0</v>
+      </c>
+      <c r="R195">
+        <v>0</v>
+      </c>
+      <c r="S195">
+        <v>0</v>
+      </c>
+      <c r="T195" t="s">
+        <v>757</v>
+      </c>
+      <c r="U195" t="s">
         <v>759</v>
-      </c>
-      <c r="I195" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="J195" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="K195" s="7" t="s">
-        <v>771</v>
-      </c>
-      <c r="L195" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="M195" s="9" t="s">
-        <v>805</v>
-      </c>
-      <c r="N195">
-        <v>1</v>
-      </c>
-      <c r="O195">
-        <v>1</v>
-      </c>
-      <c r="P195">
-        <v>0</v>
-      </c>
-      <c r="Q195">
-        <v>0</v>
-      </c>
-      <c r="R195">
-        <v>0</v>
-      </c>
-      <c r="S195">
-        <v>0</v>
-      </c>
-      <c r="T195" t="s">
-        <v>758</v>
-      </c>
-      <c r="U195" t="s">
-        <v>760</v>
       </c>
       <c r="V195">
         <v>16</v>
@@ -17605,13 +17602,13 @@
     </row>
     <row r="196" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B196" s="7">
         <v>184</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D196" s="5">
         <v>43831</v>
@@ -17623,46 +17620,46 @@
         <v>16</v>
       </c>
       <c r="H196" t="s">
+        <v>758</v>
+      </c>
+      <c r="I196" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="J196" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="K196" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="L196" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M196" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="N196">
+        <v>1</v>
+      </c>
+      <c r="O196">
+        <v>1</v>
+      </c>
+      <c r="P196">
+        <v>0</v>
+      </c>
+      <c r="Q196">
+        <v>0</v>
+      </c>
+      <c r="R196">
+        <v>0</v>
+      </c>
+      <c r="S196">
+        <v>0</v>
+      </c>
+      <c r="T196" t="s">
+        <v>757</v>
+      </c>
+      <c r="U196" t="s">
         <v>759</v>
-      </c>
-      <c r="I196" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="J196" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="K196" s="7" t="s">
-        <v>771</v>
-      </c>
-      <c r="L196" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="M196" s="9" t="s">
-        <v>806</v>
-      </c>
-      <c r="N196">
-        <v>1</v>
-      </c>
-      <c r="O196">
-        <v>1</v>
-      </c>
-      <c r="P196">
-        <v>0</v>
-      </c>
-      <c r="Q196">
-        <v>0</v>
-      </c>
-      <c r="R196">
-        <v>0</v>
-      </c>
-      <c r="S196">
-        <v>0</v>
-      </c>
-      <c r="T196" t="s">
-        <v>758</v>
-      </c>
-      <c r="U196" t="s">
-        <v>760</v>
       </c>
       <c r="V196">
         <v>16</v>
@@ -17676,13 +17673,13 @@
     </row>
     <row r="197" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B197" s="7">
         <v>184</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D197" s="5">
         <v>43832</v>
@@ -17694,46 +17691,46 @@
         <v>16</v>
       </c>
       <c r="H197" t="s">
+        <v>758</v>
+      </c>
+      <c r="I197" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="J197" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="K197" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="L197" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="M197" s="9" t="s">
+        <v>806</v>
+      </c>
+      <c r="N197">
+        <v>1</v>
+      </c>
+      <c r="O197">
+        <v>1</v>
+      </c>
+      <c r="P197">
+        <v>0</v>
+      </c>
+      <c r="Q197">
+        <v>0</v>
+      </c>
+      <c r="R197">
+        <v>0</v>
+      </c>
+      <c r="S197">
+        <v>0</v>
+      </c>
+      <c r="T197" t="s">
+        <v>757</v>
+      </c>
+      <c r="U197" t="s">
         <v>759</v>
-      </c>
-      <c r="I197" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="J197" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="K197" s="7" t="s">
-        <v>771</v>
-      </c>
-      <c r="L197" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="M197" s="9" t="s">
-        <v>807</v>
-      </c>
-      <c r="N197">
-        <v>1</v>
-      </c>
-      <c r="O197">
-        <v>1</v>
-      </c>
-      <c r="P197">
-        <v>0</v>
-      </c>
-      <c r="Q197">
-        <v>0</v>
-      </c>
-      <c r="R197">
-        <v>0</v>
-      </c>
-      <c r="S197">
-        <v>0</v>
-      </c>
-      <c r="T197" t="s">
-        <v>758</v>
-      </c>
-      <c r="U197" t="s">
-        <v>760</v>
       </c>
       <c r="V197">
         <v>16</v>

--- a/inclusion_lists/exp_summary.xlsx
+++ b/inclusion_lists/exp_summary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3664" uniqueCount="948">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4464" uniqueCount="1100">
   <si>
     <t>date</t>
   </si>
@@ -2877,6 +2877,462 @@
   </si>
   <si>
     <t xml:space="preserve">[62633296000 62975541000; 63006822000 67079541667; 67161349000 67618819000] </t>
+  </si>
+  <si>
+    <t>b2311_d191204</t>
+  </si>
+  <si>
+    <t>b2311_d191209</t>
+  </si>
+  <si>
+    <t>b2311_d191218</t>
+  </si>
+  <si>
+    <t>b2311_d191219</t>
+  </si>
+  <si>
+    <t>b2311_d191220</t>
+  </si>
+  <si>
+    <t>b2311_d191222</t>
+  </si>
+  <si>
+    <t>b2311_d191223</t>
+  </si>
+  <si>
+    <t>b2311_d191224</t>
+  </si>
+  <si>
+    <t>b2311_d191225</t>
+  </si>
+  <si>
+    <t>b2311_d191226</t>
+  </si>
+  <si>
+    <t>b2311_d191229</t>
+  </si>
+  <si>
+    <t>b2311_d191230</t>
+  </si>
+  <si>
+    <t>b2311_d191231</t>
+  </si>
+  <si>
+    <t>b2311_d200101</t>
+  </si>
+  <si>
+    <t>b2311_d200102</t>
+  </si>
+  <si>
+    <t>{'Behave_6m_Light';'Behave_6m_Dark';'Behave_6m_Light';'Sleep1'}</t>
+  </si>
+  <si>
+    <t>{'Sleep1';'Behave_6m_Light';'Dark1';'Behave_6m_Light';'Sleep2'}</t>
+  </si>
+  <si>
+    <t>{'Sleep1';'Behave_6m_Light';'Behave_6m_Dark';'Behave_6m_Light';'Behave';'Sleep2'}</t>
+  </si>
+  <si>
+    <t>{'Sleep1';'Light1';'Dark1';'Light2'}</t>
+  </si>
+  <si>
+    <t>{'Sleep1';'Light1';'Sleep2'; 'Sleep3';'Light2';'Dark1';'Sleep4'}</t>
+  </si>
+  <si>
+    <t>{'Sleep1';'Light1';'Sleep2'}</t>
+  </si>
+  <si>
+    <t>{'Sleep1';'Light1';'Dark1';'Light2';'Sleep2'}</t>
+  </si>
+  <si>
+    <t>{'Sleep1';'Light1';'Dark1';'Sleep2'}</t>
+  </si>
+  <si>
+    <t>{'Sleep1';'Light1';'Sleep2';'Dark1';'Sleep3'}</t>
+  </si>
+  <si>
+    <t>{'Sleep1';'Light1';'Sleep2';'Light2';'Dark1';'Sleep3'}</t>
+  </si>
+  <si>
+    <t>[57244691000 57928401000; 57942924000 58376154000; 58388592000 58720526000; 58740150000 58947045000]</t>
+  </si>
+  <si>
+    <t>[45641105000 46130938000; 46172896000 46860394000; 46870412000 48147290000; 48158022000 48845062000; 48872384000 49248014000]</t>
+  </si>
+  <si>
+    <t>Light+dark - had red LED during dark sometimes on - specified in local log</t>
+  </si>
+  <si>
+    <t>with dark session, good behavior in light first ok behavior in dark</t>
+  </si>
+  <si>
+    <t>with dark session, not very good behavior, many u-turns in light and in dark</t>
+  </si>
+  <si>
+    <t>no dark session, good behavior</t>
+  </si>
+  <si>
+    <t>only light session</t>
+  </si>
+  <si>
+    <t>only light session - good behavior</t>
+  </si>
+  <si>
+    <t>good dark behavior - 20 direct flights</t>
+  </si>
+  <si>
+    <t>Failed to send event of light end and dark start because the bat was on the far ball. Found the failure comments and used those as the TS for end of light behave and start of dark behave</t>
+  </si>
+  <si>
+    <t>ok dark behavior - 20 direct flights</t>
+  </si>
+  <si>
+    <t>the light and dark sessions areseparated recordings -  I changed in the middle neurologger battery</t>
+  </si>
+  <si>
+    <t>good behavior in light, bad behavior in dark. Had to hold and release the bat in the middle of the tunnel a few time - look in data!</t>
+  </si>
+  <si>
+    <t>{'CA1','TBD','TBD','TBD','TBD','TBD','TBD','TBD','TBD','TBD','TBD','TBD','TBD','TBD','TBD','TBD'}</t>
+  </si>
+  <si>
+    <t>{'CA1','TBD','CA1','TBD','TBD','TBD','CA1','TBD','TBD','TBD','TBD','TBD','TBD','TBD','TBD','TBD'}</t>
+  </si>
+  <si>
+    <t>{'CA1','TBD','CA1','TBD','CA1','TBD','CA1','TBD','TBD','TBD','TBD','TBD','TBD','TBD','TBD','TBD'}</t>
+  </si>
+  <si>
+    <t>b0102_d170914</t>
+  </si>
+  <si>
+    <t>b0102_d170919</t>
+  </si>
+  <si>
+    <t>b0102_d170920</t>
+  </si>
+  <si>
+    <t>b0102_d170924</t>
+  </si>
+  <si>
+    <t>b0102_d170925</t>
+  </si>
+  <si>
+    <t>b0102_d170926</t>
+  </si>
+  <si>
+    <t>b0102_d170927</t>
+  </si>
+  <si>
+    <t>b0102_d170928</t>
+  </si>
+  <si>
+    <t>b0102_d171001</t>
+  </si>
+  <si>
+    <t>b0102_d171002</t>
+  </si>
+  <si>
+    <t>b0102_d171003</t>
+  </si>
+  <si>
+    <t>b0102_d171005</t>
+  </si>
+  <si>
+    <t>b0102_d171008</t>
+  </si>
+  <si>
+    <t>b0102_d171009</t>
+  </si>
+  <si>
+    <t>b0102_d171010</t>
+  </si>
+  <si>
+    <t>b0102_d171012</t>
+  </si>
+  <si>
+    <t>b0102_d171016</t>
+  </si>
+  <si>
+    <t>b0102_d171018</t>
+  </si>
+  <si>
+    <t>b0102_d171019</t>
+  </si>
+  <si>
+    <t>b0102_d171026</t>
+  </si>
+  <si>
+    <t>[26992196000 27379007000; 27420628000 31541431000; 31585248000 32222796000]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[27324752000 27626449000; 27672426000 30379712000; 30477459000 31896862000] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[27891496000 28219808000; 28271527000 32877761000; 32946376000 33326334000] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[27652769000 28688188000; 28911210000 32478184000; 32630185000 32989980000] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[27735428000 28435117000; 28477061000 33857067000; 33934117000 34597441000] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[26978682000 27315673000; 27360323000 30724307000; 30817925000 31425462000] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[28496703000 28807092000; 28852274000 33215548000; 33286956000 33648917000] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[27938714000 28281916000; 28334947000 32282994000; 32359654000 32716537000] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[28586590000 29191812000; 29272650000 32222198000; 32312173000 32624199000] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[26726402000 27056093000; 27094961000 31333399000; 31403274000 31728148000] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[28379554000 28741962000; 28795540000 33712241754; 33801681754 34871121000] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[28848458000 29464837000; 29503243000 33757851000; 33853595000 34261598000] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[26816662000 27165841000; 27213281000 31596225000; 31674800000 32051950000] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[26755591000 27692876000; 27747012000 31804759000; 31863855000 32184644000] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[30066754000 30378482000; 30447212000 34719243000; 34775616000 35121271000] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[26761034000 27073403000; 27115419000 31865750000; 31927133000 32275042000] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[30273990000 30716459000; 30764819000 35076670000; 35145569000 35551792000] </t>
+  </si>
+  <si>
+    <t>fan was turned on in the middle of the experiment (30882769000)</t>
+  </si>
+  <si>
+    <t>fan was turned on in the middle of the experiment 27949673000</t>
+  </si>
+  <si>
+    <t>{'TBD','TBD','TBD','CA1'}</t>
+  </si>
+  <si>
+    <t>6m</t>
+  </si>
+  <si>
+    <t>b9845_d170212</t>
+  </si>
+  <si>
+    <t>b9845_d170213</t>
+  </si>
+  <si>
+    <t>b9845_d170215</t>
+  </si>
+  <si>
+    <t>b9845_d170216</t>
+  </si>
+  <si>
+    <t>b9845_d170217</t>
+  </si>
+  <si>
+    <t>b9845_d170219</t>
+  </si>
+  <si>
+    <t>b9845_d170220</t>
+  </si>
+  <si>
+    <t>b9845_d170221</t>
+  </si>
+  <si>
+    <t>b9845_d170222</t>
+  </si>
+  <si>
+    <t>b9845_d170223</t>
+  </si>
+  <si>
+    <t>{'CA1','TBD','CA1','CA1'}</t>
+  </si>
+  <si>
+    <t>[59161621000 59542452000; 59574423000 62773004000; 62793004000 64805626000]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[59315981000 59666181000; 59701307000 63246405000; 63286675000 63811844000] </t>
+  </si>
+  <si>
+    <t>power down in the middle of recording and uo again in a few seconds. Seen a jump in bsp recording.</t>
+  </si>
+  <si>
+    <t>b9845_d170516</t>
+  </si>
+  <si>
+    <t>b9845_d170517</t>
+  </si>
+  <si>
+    <t>b9845_d170518</t>
+  </si>
+  <si>
+    <t>b9845_d170525</t>
+  </si>
+  <si>
+    <t>b9845_d170527</t>
+  </si>
+  <si>
+    <t>b9845_d170528</t>
+  </si>
+  <si>
+    <t>b9845_d170529</t>
+  </si>
+  <si>
+    <t>b9845_d170603</t>
+  </si>
+  <si>
+    <t>b9845_d170605</t>
+  </si>
+  <si>
+    <t>b9845_d170606</t>
+  </si>
+  <si>
+    <t>b9845_d170608</t>
+  </si>
+  <si>
+    <t>b9845_d170612</t>
+  </si>
+  <si>
+    <t>b9845_d170614</t>
+  </si>
+  <si>
+    <t>b9845_d170615</t>
+  </si>
+  <si>
+    <t>b9845_d170622</t>
+  </si>
+  <si>
+    <t>{'TBD','TBD','CA1','TBD'}</t>
+  </si>
+  <si>
+    <t>{'TBD','TBD','CA1','CA1'}</t>
+  </si>
+  <si>
+    <t>in this experiment the red plastic box was taken out (29207273000) and brought back again (31375944000) use this experiment day carefully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[35809591878 36418188000; 36447678401 40612775730; 40708098000 41167840000] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[48416469000 48884941000; 48970581640 54423469644; 54510477000 55013315000] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[61363957000 61748432000; 61780633000 66387864678; 66448822000 66977851000] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[60276789000 60736844000; 60805075798 65723880086; 65797676000 66302797000] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[59094219000 59587579000; 59669101921 63942288306; 64017827000 64468812000] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[34386968000 34785686000; 34857015623 37429617000; 37500188000 37991309000] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[66926824000 67229284000; 67259596641 70266672000; 70349127000 70650698000] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[30800224000 31184715000; 31248546165 35579800000; 35646632000 36097359000] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[32493163000 32857758000; 32921718957 37411261022; 37492164000 37916813000] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[32364101000 33109843000; 33192181289 37707851930; 37782974000 38158142000] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[57403048000 58045372000; 58106731866 61078219106; 61387946000 61953690000] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[30901104000 31314595000; 31385576000 35364268990; 35564209000 35951220000] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[26811859000 27234095000; 27287990000 31354327676; 31531101000 32009011000] </t>
+  </si>
+  <si>
+    <t>the tag (bsp_pos) is moving during sleep1, but I think this is shir walking because the speed is rather slow...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[30146910000 30490302000; 30565610706 34654284003; 34877974000 35331250000] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[28690863000 29052631129; 29164484142 33526178514; 33681772000 34102176000] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[28414994000 28746622000; 28799707979 32049320877; 32147045000 32566036000] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[26797570000 27220607000; 27259168816 32400341000; 32468873000 32989851000] </t>
+  </si>
+  <si>
+    <t>[52919416000 53389929383; 53464993000 54004036000; 54027216000 54600030000; 54619398000 54996922000; 55213190000 59079595148; 59156520000 60080836000]</t>
+  </si>
+  <si>
+    <t>[43115182000 43554082000; 43582131261 47593343713; 47653398000 48501448000]</t>
+  </si>
+  <si>
+    <t>[50586231000 51193210792; 51249177079 55179674289; 55228552000 55869207000; ]</t>
+  </si>
+  <si>
+    <t>[51632641000 52521605000; 52538029368 54851054000; 54990324000 56904619000; 56992994253 57167306516]</t>
+  </si>
+  <si>
+    <t>[36988452000 37541980000; 37819702000 41676326454; 41772807000 42081938000; 42468025000 42600948000; 43253001000 43433533000; 43434882000 47095077000; 47178382000 47793689000]</t>
+  </si>
+  <si>
+    <t>[36777150000 37283783000; 37370275713 40160173525; 40246797000 40733144000]</t>
+  </si>
+  <si>
+    <t>[41016170000 41397526086; 41496868000 43476504000; 43720990000 45400734000; 45553110000 46848469845; 46937832000 47541843000]</t>
+  </si>
+  <si>
+    <t>[35931286000 36355604000; 36422220164 39110436922; 39168988000 39702291000]</t>
+  </si>
+  <si>
+    <t>[52072260000 52310835000; 52621121912 54973579897; 55052815000 55624239000]</t>
+  </si>
+  <si>
+    <t>[35506002000 35824692412; 35910704000 39559767000; 39676511000 44168529000; 44477912005 45266121000]</t>
+  </si>
+  <si>
+    <t>[35039267000 35457658000; 35566640329 38883502787; 38939035000 39092823000; 39799431000 43462809606; 43542367000 44231357000]</t>
+  </si>
+  <si>
+    <t>[46640373000 47116488292; 47173112088 49471529911; 49740734000 50068129000; 50128429000 50423134000; 50450822000 54437974223; 54516050000 55241550000]</t>
+  </si>
+  <si>
+    <t>[50080216000 50625899000; 50699894240 51326262000; 51366072000 55053322000; 55108443939 55828841668; 55881752000 56332699000]</t>
+  </si>
+  <si>
+    <t>[59358491000 59621516000; 59671970000 63085000000; 63120500000 63659899000]</t>
+  </si>
+  <si>
+    <t>[58836244000 59282650000; 59324252000 63426108000; 63457170000 64076635000]</t>
+  </si>
+  <si>
+    <t>[28303270000 28706712000; 28783257000 33722704000; 33774925000 34263193000]</t>
+  </si>
+  <si>
+    <t>[28449826000 28863624000; 28931664000 33174372000; 33238903000 33715128000]</t>
+  </si>
+  <si>
+    <t>[28388606000 28724624000; 28804362000 33483833000; 33555487000 33980062000]</t>
+  </si>
+  <si>
+    <t>[58585299000 58939969000; 58977277000 62870718000; 62903835000 63344864000]</t>
+  </si>
+  <si>
+    <t>problem with bespoon time</t>
   </si>
 </sst>
 </file>
@@ -2965,7 +3421,27 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="40">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3646,13 +4122,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD258"/>
+  <dimension ref="A1:AD318"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AB283" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="AD314" sqref="AD314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3666,11 +4142,11 @@
     <col min="7" max="7" width="5.140625" style="7" customWidth="1"/>
     <col min="8" max="8" width="3" customWidth="1"/>
     <col min="9" max="9" width="27.140625" customWidth="1"/>
-    <col min="10" max="10" width="31.140625" customWidth="1"/>
+    <col min="10" max="10" width="33" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" customWidth="1"/>
     <col min="12" max="12" width="23.42578125" customWidth="1"/>
-    <col min="13" max="13" width="43.7109375" customWidth="1"/>
-    <col min="14" max="14" width="75.140625" style="9" customWidth="1"/>
+    <col min="13" max="13" width="27.85546875" customWidth="1"/>
+    <col min="14" max="14" width="74.5703125" style="9" customWidth="1"/>
     <col min="15" max="15" width="4.5703125" customWidth="1"/>
     <col min="16" max="16" width="4.140625" customWidth="1"/>
     <col min="17" max="17" width="3.140625" customWidth="1"/>
@@ -23186,7 +23662,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="257" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A257" s="13" t="s">
         <v>916</v>
       </c>
@@ -23260,7 +23736,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="258" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A258" s="13" t="s">
         <v>917</v>
       </c>
@@ -23332,6 +23808,4503 @@
       </c>
       <c r="AA258" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="259" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A259" s="13" t="s">
+        <v>948</v>
+      </c>
+      <c r="B259" s="7">
+        <v>2311</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D259" s="5">
+        <v>43803</v>
+      </c>
+      <c r="E259" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F259" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H259">
+        <v>16</v>
+      </c>
+      <c r="I259" t="s">
+        <v>758</v>
+      </c>
+      <c r="J259" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="K259" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="L259" t="s">
+        <v>986</v>
+      </c>
+      <c r="M259" s="10" t="s">
+        <v>963</v>
+      </c>
+      <c r="N259" s="9" t="s">
+        <v>973</v>
+      </c>
+      <c r="O259">
+        <v>1</v>
+      </c>
+      <c r="P259">
+        <v>1</v>
+      </c>
+      <c r="Q259">
+        <v>1</v>
+      </c>
+      <c r="R259">
+        <v>0</v>
+      </c>
+      <c r="S259">
+        <v>0</v>
+      </c>
+      <c r="T259">
+        <v>0</v>
+      </c>
+      <c r="U259" t="s">
+        <v>1029</v>
+      </c>
+      <c r="V259" t="s">
+        <v>759</v>
+      </c>
+      <c r="W259">
+        <v>40</v>
+      </c>
+      <c r="X259">
+        <v>1624</v>
+      </c>
+      <c r="AA259" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="260" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A260" s="13" t="s">
+        <v>949</v>
+      </c>
+      <c r="B260" s="7">
+        <v>2311</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D260" s="5">
+        <v>43808</v>
+      </c>
+      <c r="E260" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F260" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H260">
+        <v>16</v>
+      </c>
+      <c r="I260" t="s">
+        <v>758</v>
+      </c>
+      <c r="J260" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="K260" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="L260" t="s">
+        <v>987</v>
+      </c>
+      <c r="M260" s="10" t="s">
+        <v>964</v>
+      </c>
+      <c r="N260" s="9" t="s">
+        <v>974</v>
+      </c>
+      <c r="O260">
+        <v>1</v>
+      </c>
+      <c r="P260">
+        <v>1</v>
+      </c>
+      <c r="Q260">
+        <v>1</v>
+      </c>
+      <c r="R260">
+        <v>0</v>
+      </c>
+      <c r="S260">
+        <v>0</v>
+      </c>
+      <c r="T260">
+        <v>0</v>
+      </c>
+      <c r="U260" t="s">
+        <v>1029</v>
+      </c>
+      <c r="V260" t="s">
+        <v>759</v>
+      </c>
+      <c r="W260">
+        <v>40</v>
+      </c>
+      <c r="X260">
+        <v>1624</v>
+      </c>
+      <c r="AA260" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB260" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="261" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A261" s="13" t="s">
+        <v>950</v>
+      </c>
+      <c r="B261" s="7">
+        <v>2311</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D261" s="5">
+        <v>43817</v>
+      </c>
+      <c r="E261" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F261" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H261">
+        <v>16</v>
+      </c>
+      <c r="I261" t="s">
+        <v>758</v>
+      </c>
+      <c r="J261" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="K261" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="L261" t="s">
+        <v>988</v>
+      </c>
+      <c r="M261" s="10" t="s">
+        <v>965</v>
+      </c>
+      <c r="N261" s="9" t="s">
+        <v>1080</v>
+      </c>
+      <c r="O261">
+        <v>1</v>
+      </c>
+      <c r="P261">
+        <v>1</v>
+      </c>
+      <c r="Q261">
+        <v>1</v>
+      </c>
+      <c r="R261">
+        <v>0</v>
+      </c>
+      <c r="S261">
+        <v>0</v>
+      </c>
+      <c r="T261">
+        <v>0</v>
+      </c>
+      <c r="U261" t="s">
+        <v>757</v>
+      </c>
+      <c r="V261" t="s">
+        <v>759</v>
+      </c>
+      <c r="W261">
+        <v>40</v>
+      </c>
+      <c r="X261">
+        <v>1624</v>
+      </c>
+      <c r="AA261" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="262" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A262" s="13" t="s">
+        <v>951</v>
+      </c>
+      <c r="B262" s="7">
+        <v>2311</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D262" s="5">
+        <v>43818</v>
+      </c>
+      <c r="E262" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F262" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H262">
+        <v>16</v>
+      </c>
+      <c r="I262" t="s">
+        <v>758</v>
+      </c>
+      <c r="J262" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="K262" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="L262" t="s">
+        <v>988</v>
+      </c>
+      <c r="M262" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N262" s="9" t="s">
+        <v>1081</v>
+      </c>
+      <c r="O262">
+        <v>1</v>
+      </c>
+      <c r="P262">
+        <v>1</v>
+      </c>
+      <c r="Q262">
+        <v>1</v>
+      </c>
+      <c r="R262">
+        <v>0</v>
+      </c>
+      <c r="S262">
+        <v>0</v>
+      </c>
+      <c r="T262">
+        <v>0</v>
+      </c>
+      <c r="U262" t="s">
+        <v>757</v>
+      </c>
+      <c r="V262" t="s">
+        <v>759</v>
+      </c>
+      <c r="W262">
+        <v>40</v>
+      </c>
+      <c r="X262">
+        <v>1624</v>
+      </c>
+      <c r="AA262" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="263" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A263" s="13" t="s">
+        <v>952</v>
+      </c>
+      <c r="B263" s="7">
+        <v>2311</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D263" s="5">
+        <v>43819</v>
+      </c>
+      <c r="E263" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F263" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H263">
+        <v>16</v>
+      </c>
+      <c r="I263" t="s">
+        <v>758</v>
+      </c>
+      <c r="J263" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="K263" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="L263" t="s">
+        <v>988</v>
+      </c>
+      <c r="M263" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N263" s="9" t="s">
+        <v>1082</v>
+      </c>
+      <c r="O263">
+        <v>1</v>
+      </c>
+      <c r="P263">
+        <v>1</v>
+      </c>
+      <c r="Q263">
+        <v>1</v>
+      </c>
+      <c r="R263">
+        <v>0</v>
+      </c>
+      <c r="S263">
+        <v>0</v>
+      </c>
+      <c r="T263">
+        <v>0</v>
+      </c>
+      <c r="U263" t="s">
+        <v>757</v>
+      </c>
+      <c r="V263" t="s">
+        <v>759</v>
+      </c>
+      <c r="W263">
+        <v>40</v>
+      </c>
+      <c r="X263">
+        <v>1624</v>
+      </c>
+      <c r="AA263" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="264" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A264" s="13" t="s">
+        <v>953</v>
+      </c>
+      <c r="B264" s="7">
+        <v>2311</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D264" s="5">
+        <v>43821</v>
+      </c>
+      <c r="E264" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F264" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H264">
+        <v>16</v>
+      </c>
+      <c r="I264" t="s">
+        <v>758</v>
+      </c>
+      <c r="J264" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="K264" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="L264" t="s">
+        <v>988</v>
+      </c>
+      <c r="M264" s="10" t="s">
+        <v>966</v>
+      </c>
+      <c r="N264" s="9" t="s">
+        <v>1083</v>
+      </c>
+      <c r="O264">
+        <v>1</v>
+      </c>
+      <c r="P264">
+        <v>1</v>
+      </c>
+      <c r="Q264">
+        <v>1</v>
+      </c>
+      <c r="R264">
+        <v>0</v>
+      </c>
+      <c r="S264">
+        <v>0</v>
+      </c>
+      <c r="T264">
+        <v>0</v>
+      </c>
+      <c r="U264" t="s">
+        <v>757</v>
+      </c>
+      <c r="V264" t="s">
+        <v>759</v>
+      </c>
+      <c r="W264">
+        <v>40</v>
+      </c>
+      <c r="X264">
+        <v>1624</v>
+      </c>
+      <c r="AA264" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB264" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="265" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A265" s="13" t="s">
+        <v>954</v>
+      </c>
+      <c r="B265" s="7">
+        <v>2311</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D265" s="5">
+        <v>43822</v>
+      </c>
+      <c r="E265" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F265" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H265">
+        <v>16</v>
+      </c>
+      <c r="I265" t="s">
+        <v>758</v>
+      </c>
+      <c r="J265" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="K265" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="L265" t="s">
+        <v>988</v>
+      </c>
+      <c r="M265" s="10" t="s">
+        <v>967</v>
+      </c>
+      <c r="N265" s="9" t="s">
+        <v>1084</v>
+      </c>
+      <c r="O265">
+        <v>1</v>
+      </c>
+      <c r="P265">
+        <v>1</v>
+      </c>
+      <c r="Q265">
+        <v>1</v>
+      </c>
+      <c r="R265">
+        <v>0</v>
+      </c>
+      <c r="S265">
+        <v>0</v>
+      </c>
+      <c r="T265">
+        <v>0</v>
+      </c>
+      <c r="U265" t="s">
+        <v>757</v>
+      </c>
+      <c r="V265" t="s">
+        <v>759</v>
+      </c>
+      <c r="W265">
+        <v>40</v>
+      </c>
+      <c r="X265">
+        <v>1624</v>
+      </c>
+      <c r="AA265" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB265" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="266" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A266" s="13" t="s">
+        <v>955</v>
+      </c>
+      <c r="B266" s="7">
+        <v>2311</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D266" s="5">
+        <v>43823</v>
+      </c>
+      <c r="E266" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F266" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H266">
+        <v>16</v>
+      </c>
+      <c r="I266" t="s">
+        <v>758</v>
+      </c>
+      <c r="J266" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="K266" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="L266" t="s">
+        <v>988</v>
+      </c>
+      <c r="M266" s="10" t="s">
+        <v>968</v>
+      </c>
+      <c r="N266" s="9" t="s">
+        <v>1085</v>
+      </c>
+      <c r="O266">
+        <v>1</v>
+      </c>
+      <c r="P266">
+        <v>1</v>
+      </c>
+      <c r="Q266">
+        <v>1</v>
+      </c>
+      <c r="R266">
+        <v>0</v>
+      </c>
+      <c r="S266">
+        <v>0</v>
+      </c>
+      <c r="T266">
+        <v>0</v>
+      </c>
+      <c r="U266" t="s">
+        <v>757</v>
+      </c>
+      <c r="V266" t="s">
+        <v>759</v>
+      </c>
+      <c r="W266">
+        <v>40</v>
+      </c>
+      <c r="X266">
+        <v>1624</v>
+      </c>
+      <c r="AA266" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB266" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="267" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A267" s="13" t="s">
+        <v>956</v>
+      </c>
+      <c r="B267" s="7">
+        <v>2311</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D267" s="5">
+        <v>43824</v>
+      </c>
+      <c r="E267" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F267" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H267">
+        <v>16</v>
+      </c>
+      <c r="I267" t="s">
+        <v>758</v>
+      </c>
+      <c r="J267" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="K267" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="L267" t="s">
+        <v>988</v>
+      </c>
+      <c r="M267" s="10" t="s">
+        <v>969</v>
+      </c>
+      <c r="N267" s="9" t="s">
+        <v>1086</v>
+      </c>
+      <c r="O267">
+        <v>1</v>
+      </c>
+      <c r="P267">
+        <v>1</v>
+      </c>
+      <c r="Q267">
+        <v>1</v>
+      </c>
+      <c r="R267">
+        <v>0</v>
+      </c>
+      <c r="S267">
+        <v>0</v>
+      </c>
+      <c r="T267">
+        <v>0</v>
+      </c>
+      <c r="U267" t="s">
+        <v>757</v>
+      </c>
+      <c r="V267" t="s">
+        <v>759</v>
+      </c>
+      <c r="W267">
+        <v>40</v>
+      </c>
+      <c r="X267">
+        <v>1624</v>
+      </c>
+      <c r="AA267" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="268" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A268" s="13" t="s">
+        <v>957</v>
+      </c>
+      <c r="B268" s="7">
+        <v>2311</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D268" s="5">
+        <v>43825</v>
+      </c>
+      <c r="E268" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F268" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H268">
+        <v>16</v>
+      </c>
+      <c r="I268" t="s">
+        <v>758</v>
+      </c>
+      <c r="J268" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="K268" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="L268" t="s">
+        <v>988</v>
+      </c>
+      <c r="M268" s="10" t="s">
+        <v>968</v>
+      </c>
+      <c r="N268" s="9" t="s">
+        <v>1087</v>
+      </c>
+      <c r="O268">
+        <v>1</v>
+      </c>
+      <c r="P268">
+        <v>1</v>
+      </c>
+      <c r="Q268">
+        <v>1</v>
+      </c>
+      <c r="R268">
+        <v>0</v>
+      </c>
+      <c r="S268">
+        <v>0</v>
+      </c>
+      <c r="T268">
+        <v>0</v>
+      </c>
+      <c r="U268" t="s">
+        <v>757</v>
+      </c>
+      <c r="V268" t="s">
+        <v>759</v>
+      </c>
+      <c r="W268">
+        <v>40</v>
+      </c>
+      <c r="X268">
+        <v>1624</v>
+      </c>
+      <c r="AA268" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB268" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="269" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A269" s="13" t="s">
+        <v>958</v>
+      </c>
+      <c r="B269" s="7">
+        <v>2311</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D269" s="5">
+        <v>43828</v>
+      </c>
+      <c r="E269" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F269" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H269">
+        <v>16</v>
+      </c>
+      <c r="I269" t="s">
+        <v>758</v>
+      </c>
+      <c r="J269" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="K269" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="L269" t="s">
+        <v>988</v>
+      </c>
+      <c r="M269" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N269" s="9" t="s">
+        <v>1088</v>
+      </c>
+      <c r="O269">
+        <v>1</v>
+      </c>
+      <c r="P269">
+        <v>1</v>
+      </c>
+      <c r="Q269">
+        <v>1</v>
+      </c>
+      <c r="R269">
+        <v>0</v>
+      </c>
+      <c r="S269">
+        <v>0</v>
+      </c>
+      <c r="T269">
+        <v>0</v>
+      </c>
+      <c r="U269" t="s">
+        <v>757</v>
+      </c>
+      <c r="V269" t="s">
+        <v>759</v>
+      </c>
+      <c r="W269">
+        <v>40</v>
+      </c>
+      <c r="X269">
+        <v>1624</v>
+      </c>
+      <c r="AA269" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB269" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="270" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A270" s="13" t="s">
+        <v>959</v>
+      </c>
+      <c r="B270" s="7">
+        <v>2311</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D270" s="5">
+        <v>43829</v>
+      </c>
+      <c r="E270" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F270" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H270">
+        <v>16</v>
+      </c>
+      <c r="I270" t="s">
+        <v>758</v>
+      </c>
+      <c r="J270" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="K270" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="L270" t="s">
+        <v>988</v>
+      </c>
+      <c r="M270" s="10" t="s">
+        <v>970</v>
+      </c>
+      <c r="N270" s="9" t="s">
+        <v>1089</v>
+      </c>
+      <c r="O270">
+        <v>1</v>
+      </c>
+      <c r="P270">
+        <v>1</v>
+      </c>
+      <c r="Q270">
+        <v>1</v>
+      </c>
+      <c r="R270">
+        <v>0</v>
+      </c>
+      <c r="S270">
+        <v>0</v>
+      </c>
+      <c r="T270">
+        <v>0</v>
+      </c>
+      <c r="U270" t="s">
+        <v>757</v>
+      </c>
+      <c r="V270" t="s">
+        <v>759</v>
+      </c>
+      <c r="W270">
+        <v>40</v>
+      </c>
+      <c r="X270">
+        <v>1624</v>
+      </c>
+      <c r="AA270" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB270" t="s">
+        <v>981</v>
+      </c>
+      <c r="AC270" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="271" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A271" s="13" t="s">
+        <v>960</v>
+      </c>
+      <c r="B271" s="7">
+        <v>2311</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D271" s="5">
+        <v>43830</v>
+      </c>
+      <c r="E271" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F271" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H271">
+        <v>16</v>
+      </c>
+      <c r="I271" t="s">
+        <v>758</v>
+      </c>
+      <c r="J271" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="K271" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="L271" t="s">
+        <v>988</v>
+      </c>
+      <c r="M271" s="10" t="s">
+        <v>971</v>
+      </c>
+      <c r="N271" s="9" t="s">
+        <v>1090</v>
+      </c>
+      <c r="O271">
+        <v>1</v>
+      </c>
+      <c r="P271">
+        <v>1</v>
+      </c>
+      <c r="Q271">
+        <v>1</v>
+      </c>
+      <c r="R271">
+        <v>0</v>
+      </c>
+      <c r="S271">
+        <v>0</v>
+      </c>
+      <c r="T271">
+        <v>0</v>
+      </c>
+      <c r="U271" t="s">
+        <v>757</v>
+      </c>
+      <c r="V271" t="s">
+        <v>759</v>
+      </c>
+      <c r="W271">
+        <v>40</v>
+      </c>
+      <c r="X271">
+        <v>1624</v>
+      </c>
+      <c r="AA271" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB271" t="s">
+        <v>983</v>
+      </c>
+      <c r="AC271" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="272" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A272" s="13" t="s">
+        <v>961</v>
+      </c>
+      <c r="B272" s="7">
+        <v>2311</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D272" s="5">
+        <v>43831</v>
+      </c>
+      <c r="E272" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F272" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H272">
+        <v>16</v>
+      </c>
+      <c r="I272" t="s">
+        <v>758</v>
+      </c>
+      <c r="J272" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="K272" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="L272" t="s">
+        <v>988</v>
+      </c>
+      <c r="M272" s="10" t="s">
+        <v>972</v>
+      </c>
+      <c r="N272" s="9" t="s">
+        <v>1091</v>
+      </c>
+      <c r="O272">
+        <v>1</v>
+      </c>
+      <c r="P272">
+        <v>1</v>
+      </c>
+      <c r="Q272">
+        <v>1</v>
+      </c>
+      <c r="R272">
+        <v>0</v>
+      </c>
+      <c r="S272">
+        <v>0</v>
+      </c>
+      <c r="T272">
+        <v>0</v>
+      </c>
+      <c r="U272" t="s">
+        <v>757</v>
+      </c>
+      <c r="V272" t="s">
+        <v>759</v>
+      </c>
+      <c r="W272">
+        <v>40</v>
+      </c>
+      <c r="X272">
+        <v>1624</v>
+      </c>
+      <c r="AA272" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB272" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="273" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A273" s="13" t="s">
+        <v>962</v>
+      </c>
+      <c r="B273" s="7">
+        <v>2311</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D273" s="5">
+        <v>43832</v>
+      </c>
+      <c r="E273" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F273" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H273">
+        <v>16</v>
+      </c>
+      <c r="I273" t="s">
+        <v>758</v>
+      </c>
+      <c r="J273" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="K273" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="L273" t="s">
+        <v>988</v>
+      </c>
+      <c r="M273" s="10" t="s">
+        <v>969</v>
+      </c>
+      <c r="N273" s="9" t="s">
+        <v>1092</v>
+      </c>
+      <c r="O273">
+        <v>1</v>
+      </c>
+      <c r="P273">
+        <v>1</v>
+      </c>
+      <c r="Q273">
+        <v>1</v>
+      </c>
+      <c r="R273">
+        <v>0</v>
+      </c>
+      <c r="S273">
+        <v>0</v>
+      </c>
+      <c r="T273">
+        <v>0</v>
+      </c>
+      <c r="U273" t="s">
+        <v>757</v>
+      </c>
+      <c r="V273" t="s">
+        <v>759</v>
+      </c>
+      <c r="W273">
+        <v>40</v>
+      </c>
+      <c r="X273">
+        <v>1624</v>
+      </c>
+      <c r="AA273" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="274" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A274" s="13" t="s">
+        <v>989</v>
+      </c>
+      <c r="B274" s="7">
+        <v>102</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D274" s="5">
+        <v>42992</v>
+      </c>
+      <c r="E274" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F274" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H274">
+        <v>4</v>
+      </c>
+      <c r="I274" t="s">
+        <v>679</v>
+      </c>
+      <c r="J274" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K274" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L274" t="s">
+        <v>595</v>
+      </c>
+      <c r="M274" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N274" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O274">
+        <v>1</v>
+      </c>
+      <c r="P274">
+        <v>1</v>
+      </c>
+      <c r="Q274">
+        <v>0</v>
+      </c>
+      <c r="R274">
+        <v>0</v>
+      </c>
+      <c r="S274">
+        <v>0</v>
+      </c>
+      <c r="T274">
+        <v>0</v>
+      </c>
+      <c r="U274" t="s">
+        <v>9</v>
+      </c>
+      <c r="V274" t="s">
+        <v>500</v>
+      </c>
+      <c r="W274">
+        <v>6</v>
+      </c>
+      <c r="AA274" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="275" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A275" s="13" t="s">
+        <v>990</v>
+      </c>
+      <c r="B275" s="7">
+        <v>102</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D275" s="5">
+        <v>42997</v>
+      </c>
+      <c r="E275" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F275" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H275">
+        <v>4</v>
+      </c>
+      <c r="I275" t="s">
+        <v>679</v>
+      </c>
+      <c r="J275" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K275" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L275" t="s">
+        <v>1028</v>
+      </c>
+      <c r="M275" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N275" s="7" t="s">
+        <v>1009</v>
+      </c>
+      <c r="O275">
+        <v>1</v>
+      </c>
+      <c r="P275">
+        <v>1</v>
+      </c>
+      <c r="Q275">
+        <v>0</v>
+      </c>
+      <c r="R275">
+        <v>1</v>
+      </c>
+      <c r="S275">
+        <v>0</v>
+      </c>
+      <c r="T275">
+        <v>1</v>
+      </c>
+      <c r="U275" t="s">
+        <v>9</v>
+      </c>
+      <c r="V275" t="s">
+        <v>500</v>
+      </c>
+      <c r="W275">
+        <v>6</v>
+      </c>
+      <c r="X275">
+        <v>3755</v>
+      </c>
+      <c r="AA275" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="276" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A276" s="13" t="s">
+        <v>991</v>
+      </c>
+      <c r="B276" s="7">
+        <v>102</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D276" s="5">
+        <v>42998</v>
+      </c>
+      <c r="E276" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F276" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H276">
+        <v>4</v>
+      </c>
+      <c r="I276" t="s">
+        <v>679</v>
+      </c>
+      <c r="J276" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K276" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L276" t="s">
+        <v>1028</v>
+      </c>
+      <c r="M276" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N276" s="14" t="s">
+        <v>1010</v>
+      </c>
+      <c r="O276">
+        <v>1</v>
+      </c>
+      <c r="P276">
+        <v>1</v>
+      </c>
+      <c r="Q276">
+        <v>0</v>
+      </c>
+      <c r="R276">
+        <v>0</v>
+      </c>
+      <c r="S276">
+        <v>0</v>
+      </c>
+      <c r="T276">
+        <v>0</v>
+      </c>
+      <c r="U276" t="s">
+        <v>9</v>
+      </c>
+      <c r="V276" t="s">
+        <v>500</v>
+      </c>
+      <c r="W276">
+        <v>7</v>
+      </c>
+      <c r="X276">
+        <v>3755</v>
+      </c>
+      <c r="AA276" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="277" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A277" s="13" t="s">
+        <v>992</v>
+      </c>
+      <c r="B277" s="7">
+        <v>102</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D277" s="5">
+        <v>43002</v>
+      </c>
+      <c r="E277" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F277" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H277">
+        <v>4</v>
+      </c>
+      <c r="I277" t="s">
+        <v>679</v>
+      </c>
+      <c r="J277" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K277" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L277" t="s">
+        <v>1028</v>
+      </c>
+      <c r="M277" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N277" s="14" t="s">
+        <v>1011</v>
+      </c>
+      <c r="O277">
+        <v>1</v>
+      </c>
+      <c r="P277">
+        <v>1</v>
+      </c>
+      <c r="Q277">
+        <v>0</v>
+      </c>
+      <c r="R277">
+        <v>0</v>
+      </c>
+      <c r="S277">
+        <v>0</v>
+      </c>
+      <c r="T277">
+        <v>0</v>
+      </c>
+      <c r="U277" t="s">
+        <v>9</v>
+      </c>
+      <c r="V277" t="s">
+        <v>500</v>
+      </c>
+      <c r="W277">
+        <v>7</v>
+      </c>
+      <c r="X277">
+        <v>3089</v>
+      </c>
+      <c r="AA277" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="278" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A278" s="13" t="s">
+        <v>993</v>
+      </c>
+      <c r="B278" s="7">
+        <v>102</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D278" s="5">
+        <v>43003</v>
+      </c>
+      <c r="E278" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F278" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H278">
+        <v>4</v>
+      </c>
+      <c r="I278" t="s">
+        <v>679</v>
+      </c>
+      <c r="J278" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K278" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L278" t="s">
+        <v>1028</v>
+      </c>
+      <c r="M278" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N278" s="14" t="s">
+        <v>1012</v>
+      </c>
+      <c r="O278">
+        <v>1</v>
+      </c>
+      <c r="P278">
+        <v>1</v>
+      </c>
+      <c r="Q278">
+        <v>0</v>
+      </c>
+      <c r="R278">
+        <v>0</v>
+      </c>
+      <c r="S278">
+        <v>0</v>
+      </c>
+      <c r="T278">
+        <v>0</v>
+      </c>
+      <c r="U278" t="s">
+        <v>9</v>
+      </c>
+      <c r="V278" t="s">
+        <v>500</v>
+      </c>
+      <c r="W278">
+        <v>7</v>
+      </c>
+      <c r="X278">
+        <v>3089</v>
+      </c>
+      <c r="AA278" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB278" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AD278" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="279" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A279" s="13" t="s">
+        <v>994</v>
+      </c>
+      <c r="B279" s="7">
+        <v>102</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D279" s="5">
+        <v>43004</v>
+      </c>
+      <c r="E279" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F279" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H279">
+        <v>4</v>
+      </c>
+      <c r="I279" t="s">
+        <v>679</v>
+      </c>
+      <c r="J279" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K279" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L279" t="s">
+        <v>1028</v>
+      </c>
+      <c r="M279" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N279" s="14" t="s">
+        <v>1013</v>
+      </c>
+      <c r="O279">
+        <v>1</v>
+      </c>
+      <c r="P279">
+        <v>1</v>
+      </c>
+      <c r="Q279">
+        <v>0</v>
+      </c>
+      <c r="R279">
+        <v>0</v>
+      </c>
+      <c r="S279">
+        <v>0</v>
+      </c>
+      <c r="T279">
+        <v>0</v>
+      </c>
+      <c r="U279" t="s">
+        <v>9</v>
+      </c>
+      <c r="V279" t="s">
+        <v>500</v>
+      </c>
+      <c r="W279">
+        <v>7</v>
+      </c>
+      <c r="X279">
+        <v>3089</v>
+      </c>
+      <c r="AA279" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="280" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A280" s="13" t="s">
+        <v>995</v>
+      </c>
+      <c r="B280" s="7">
+        <v>102</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D280" s="5">
+        <v>43005</v>
+      </c>
+      <c r="E280" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F280" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H280">
+        <v>4</v>
+      </c>
+      <c r="I280" t="s">
+        <v>679</v>
+      </c>
+      <c r="J280" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K280" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L280" t="s">
+        <v>1028</v>
+      </c>
+      <c r="M280" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N280" s="14" t="s">
+        <v>1014</v>
+      </c>
+      <c r="O280">
+        <v>1</v>
+      </c>
+      <c r="P280">
+        <v>1</v>
+      </c>
+      <c r="Q280">
+        <v>0</v>
+      </c>
+      <c r="R280">
+        <v>0</v>
+      </c>
+      <c r="S280">
+        <v>0</v>
+      </c>
+      <c r="T280">
+        <v>0</v>
+      </c>
+      <c r="U280" t="s">
+        <v>9</v>
+      </c>
+      <c r="V280" t="s">
+        <v>500</v>
+      </c>
+      <c r="W280">
+        <v>7</v>
+      </c>
+      <c r="X280">
+        <v>3089</v>
+      </c>
+      <c r="AA280" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB280" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AD280" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="281" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A281" s="13" t="s">
+        <v>996</v>
+      </c>
+      <c r="B281" s="7">
+        <v>102</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D281" s="5">
+        <v>43006</v>
+      </c>
+      <c r="E281" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F281" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H281">
+        <v>4</v>
+      </c>
+      <c r="I281" t="s">
+        <v>679</v>
+      </c>
+      <c r="J281" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K281" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L281" t="s">
+        <v>1028</v>
+      </c>
+      <c r="M281" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N281" s="14" t="s">
+        <v>1015</v>
+      </c>
+      <c r="O281">
+        <v>1</v>
+      </c>
+      <c r="P281">
+        <v>1</v>
+      </c>
+      <c r="Q281">
+        <v>0</v>
+      </c>
+      <c r="R281">
+        <v>0</v>
+      </c>
+      <c r="S281">
+        <v>0</v>
+      </c>
+      <c r="T281">
+        <v>0</v>
+      </c>
+      <c r="U281" t="s">
+        <v>9</v>
+      </c>
+      <c r="V281" t="s">
+        <v>500</v>
+      </c>
+      <c r="W281">
+        <v>7</v>
+      </c>
+      <c r="X281">
+        <v>3089</v>
+      </c>
+      <c r="AA281" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="282" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A282" s="13" t="s">
+        <v>997</v>
+      </c>
+      <c r="B282" s="7">
+        <v>102</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D282" s="5">
+        <v>43009</v>
+      </c>
+      <c r="E282" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F282" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H282">
+        <v>4</v>
+      </c>
+      <c r="I282" t="s">
+        <v>679</v>
+      </c>
+      <c r="J282" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K282" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L282" t="s">
+        <v>1028</v>
+      </c>
+      <c r="M282" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N282" s="14" t="s">
+        <v>1016</v>
+      </c>
+      <c r="O282">
+        <v>1</v>
+      </c>
+      <c r="P282">
+        <v>1</v>
+      </c>
+      <c r="Q282">
+        <v>0</v>
+      </c>
+      <c r="R282">
+        <v>0</v>
+      </c>
+      <c r="S282">
+        <v>0</v>
+      </c>
+      <c r="T282">
+        <v>0</v>
+      </c>
+      <c r="U282" t="s">
+        <v>9</v>
+      </c>
+      <c r="V282" t="s">
+        <v>500</v>
+      </c>
+      <c r="W282">
+        <v>7</v>
+      </c>
+      <c r="X282">
+        <v>3089</v>
+      </c>
+      <c r="AA282" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="283" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A283" s="13" t="s">
+        <v>998</v>
+      </c>
+      <c r="B283" s="7">
+        <v>102</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D283" s="5">
+        <v>43010</v>
+      </c>
+      <c r="E283" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F283" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H283">
+        <v>4</v>
+      </c>
+      <c r="I283" t="s">
+        <v>679</v>
+      </c>
+      <c r="J283" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K283" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L283" t="s">
+        <v>1028</v>
+      </c>
+      <c r="M283" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N283" s="14" t="s">
+        <v>1017</v>
+      </c>
+      <c r="O283">
+        <v>1</v>
+      </c>
+      <c r="P283">
+        <v>1</v>
+      </c>
+      <c r="Q283">
+        <v>0</v>
+      </c>
+      <c r="R283">
+        <v>0</v>
+      </c>
+      <c r="S283">
+        <v>0</v>
+      </c>
+      <c r="T283">
+        <v>0</v>
+      </c>
+      <c r="U283" t="s">
+        <v>9</v>
+      </c>
+      <c r="V283" t="s">
+        <v>500</v>
+      </c>
+      <c r="W283">
+        <v>7</v>
+      </c>
+      <c r="X283">
+        <v>3089</v>
+      </c>
+      <c r="AA283" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="284" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A284" s="13" t="s">
+        <v>999</v>
+      </c>
+      <c r="B284" s="7">
+        <v>102</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D284" s="5">
+        <v>43011</v>
+      </c>
+      <c r="E284" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F284" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H284">
+        <v>4</v>
+      </c>
+      <c r="I284" t="s">
+        <v>679</v>
+      </c>
+      <c r="J284" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K284" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L284" t="s">
+        <v>1028</v>
+      </c>
+      <c r="M284" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N284" s="14" t="s">
+        <v>1018</v>
+      </c>
+      <c r="O284">
+        <v>1</v>
+      </c>
+      <c r="P284">
+        <v>1</v>
+      </c>
+      <c r="Q284">
+        <v>0</v>
+      </c>
+      <c r="R284">
+        <v>0</v>
+      </c>
+      <c r="S284">
+        <v>0</v>
+      </c>
+      <c r="T284">
+        <v>0</v>
+      </c>
+      <c r="U284" t="s">
+        <v>9</v>
+      </c>
+      <c r="V284" t="s">
+        <v>500</v>
+      </c>
+      <c r="W284">
+        <v>7</v>
+      </c>
+      <c r="X284">
+        <v>3089</v>
+      </c>
+      <c r="AA284" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="285" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A285" s="13" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B285" s="7">
+        <v>102</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D285" s="5">
+        <v>43013</v>
+      </c>
+      <c r="E285" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F285" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H285">
+        <v>4</v>
+      </c>
+      <c r="I285" t="s">
+        <v>679</v>
+      </c>
+      <c r="J285" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K285" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L285" t="s">
+        <v>1028</v>
+      </c>
+      <c r="M285" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N285" s="14" t="s">
+        <v>1019</v>
+      </c>
+      <c r="O285">
+        <v>1</v>
+      </c>
+      <c r="P285">
+        <v>1</v>
+      </c>
+      <c r="Q285">
+        <v>0</v>
+      </c>
+      <c r="R285">
+        <v>0</v>
+      </c>
+      <c r="S285">
+        <v>0</v>
+      </c>
+      <c r="T285">
+        <v>0</v>
+      </c>
+      <c r="U285" t="s">
+        <v>9</v>
+      </c>
+      <c r="V285" t="s">
+        <v>500</v>
+      </c>
+      <c r="W285">
+        <v>7</v>
+      </c>
+      <c r="X285">
+        <v>3089</v>
+      </c>
+      <c r="AA285" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="286" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A286" s="13" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B286" s="7">
+        <v>102</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D286" s="5">
+        <v>43016</v>
+      </c>
+      <c r="E286" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F286" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H286">
+        <v>4</v>
+      </c>
+      <c r="I286" t="s">
+        <v>679</v>
+      </c>
+      <c r="J286" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K286" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L286" t="s">
+        <v>1028</v>
+      </c>
+      <c r="M286" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N286" s="14" t="s">
+        <v>1020</v>
+      </c>
+      <c r="O286">
+        <v>1</v>
+      </c>
+      <c r="P286">
+        <v>1</v>
+      </c>
+      <c r="Q286">
+        <v>0</v>
+      </c>
+      <c r="R286">
+        <v>0</v>
+      </c>
+      <c r="S286">
+        <v>0</v>
+      </c>
+      <c r="T286">
+        <v>0</v>
+      </c>
+      <c r="U286" t="s">
+        <v>9</v>
+      </c>
+      <c r="V286" t="s">
+        <v>500</v>
+      </c>
+      <c r="W286">
+        <v>7</v>
+      </c>
+      <c r="X286">
+        <v>3089</v>
+      </c>
+      <c r="AA286" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="287" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A287" s="13" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B287" s="7">
+        <v>102</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D287" s="5">
+        <v>43017</v>
+      </c>
+      <c r="E287" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F287" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H287">
+        <v>4</v>
+      </c>
+      <c r="I287" t="s">
+        <v>679</v>
+      </c>
+      <c r="J287" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K287" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L287" t="s">
+        <v>1028</v>
+      </c>
+      <c r="M287" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N287" s="14" t="s">
+        <v>1021</v>
+      </c>
+      <c r="O287">
+        <v>1</v>
+      </c>
+      <c r="P287">
+        <v>1</v>
+      </c>
+      <c r="Q287">
+        <v>0</v>
+      </c>
+      <c r="R287">
+        <v>0</v>
+      </c>
+      <c r="S287">
+        <v>0</v>
+      </c>
+      <c r="T287">
+        <v>0</v>
+      </c>
+      <c r="U287" t="s">
+        <v>9</v>
+      </c>
+      <c r="V287" t="s">
+        <v>500</v>
+      </c>
+      <c r="W287">
+        <v>7</v>
+      </c>
+      <c r="X287">
+        <v>3089</v>
+      </c>
+      <c r="AA287" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="288" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A288" s="13" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B288" s="7">
+        <v>102</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D288" s="5">
+        <v>43018</v>
+      </c>
+      <c r="E288" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F288" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H288">
+        <v>4</v>
+      </c>
+      <c r="I288" t="s">
+        <v>679</v>
+      </c>
+      <c r="J288" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K288" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L288" t="s">
+        <v>1028</v>
+      </c>
+      <c r="M288" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N288" s="14" t="s">
+        <v>1022</v>
+      </c>
+      <c r="O288">
+        <v>1</v>
+      </c>
+      <c r="P288">
+        <v>1</v>
+      </c>
+      <c r="Q288">
+        <v>0</v>
+      </c>
+      <c r="R288">
+        <v>0</v>
+      </c>
+      <c r="S288">
+        <v>0</v>
+      </c>
+      <c r="T288">
+        <v>0</v>
+      </c>
+      <c r="U288" t="s">
+        <v>9</v>
+      </c>
+      <c r="V288" t="s">
+        <v>500</v>
+      </c>
+      <c r="W288">
+        <v>7</v>
+      </c>
+      <c r="X288">
+        <v>3089</v>
+      </c>
+      <c r="AA288" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="289" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A289" s="13" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B289" s="7">
+        <v>102</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D289" s="5">
+        <v>43020</v>
+      </c>
+      <c r="E289" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F289" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H289">
+        <v>4</v>
+      </c>
+      <c r="I289" t="s">
+        <v>679</v>
+      </c>
+      <c r="J289" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K289" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L289" t="s">
+        <v>1028</v>
+      </c>
+      <c r="M289" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N289" s="14" t="s">
+        <v>1023</v>
+      </c>
+      <c r="O289">
+        <v>1</v>
+      </c>
+      <c r="P289">
+        <v>1</v>
+      </c>
+      <c r="Q289">
+        <v>0</v>
+      </c>
+      <c r="R289">
+        <v>0</v>
+      </c>
+      <c r="S289">
+        <v>0</v>
+      </c>
+      <c r="T289">
+        <v>0</v>
+      </c>
+      <c r="U289" t="s">
+        <v>9</v>
+      </c>
+      <c r="V289" t="s">
+        <v>500</v>
+      </c>
+      <c r="W289">
+        <v>7</v>
+      </c>
+      <c r="X289">
+        <v>3089</v>
+      </c>
+      <c r="AA289" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="290" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A290" s="13" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B290" s="7">
+        <v>102</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D290" s="5">
+        <v>43024</v>
+      </c>
+      <c r="E290" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F290" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H290">
+        <v>4</v>
+      </c>
+      <c r="I290" t="s">
+        <v>679</v>
+      </c>
+      <c r="J290" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K290" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L290" t="s">
+        <v>1028</v>
+      </c>
+      <c r="M290" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N290" s="14" t="s">
+        <v>1024</v>
+      </c>
+      <c r="O290">
+        <v>1</v>
+      </c>
+      <c r="P290">
+        <v>1</v>
+      </c>
+      <c r="Q290">
+        <v>0</v>
+      </c>
+      <c r="R290">
+        <v>0</v>
+      </c>
+      <c r="S290">
+        <v>0</v>
+      </c>
+      <c r="T290">
+        <v>0</v>
+      </c>
+      <c r="U290" t="s">
+        <v>9</v>
+      </c>
+      <c r="V290" t="s">
+        <v>500</v>
+      </c>
+      <c r="W290">
+        <v>7</v>
+      </c>
+      <c r="X290">
+        <v>3089</v>
+      </c>
+      <c r="AA290" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="291" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A291" s="13" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B291" s="7">
+        <v>102</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D291" s="5">
+        <v>43026</v>
+      </c>
+      <c r="E291" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F291" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H291">
+        <v>4</v>
+      </c>
+      <c r="I291" t="s">
+        <v>679</v>
+      </c>
+      <c r="J291" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K291" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L291" t="s">
+        <v>1028</v>
+      </c>
+      <c r="M291" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N291" s="14" t="s">
+        <v>1025</v>
+      </c>
+      <c r="O291">
+        <v>1</v>
+      </c>
+      <c r="P291">
+        <v>1</v>
+      </c>
+      <c r="Q291">
+        <v>0</v>
+      </c>
+      <c r="R291">
+        <v>0</v>
+      </c>
+      <c r="S291">
+        <v>0</v>
+      </c>
+      <c r="T291">
+        <v>0</v>
+      </c>
+      <c r="U291" t="s">
+        <v>9</v>
+      </c>
+      <c r="V291" t="s">
+        <v>500</v>
+      </c>
+      <c r="W291">
+        <v>7</v>
+      </c>
+      <c r="X291">
+        <v>3089</v>
+      </c>
+      <c r="AA291" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="292" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A292" s="13" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B292" s="7">
+        <v>102</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D292" s="5">
+        <v>43027</v>
+      </c>
+      <c r="E292" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F292" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H292">
+        <v>4</v>
+      </c>
+      <c r="I292" t="s">
+        <v>679</v>
+      </c>
+      <c r="J292" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K292" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L292" t="s">
+        <v>1028</v>
+      </c>
+      <c r="M292" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N292" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O292">
+        <v>1</v>
+      </c>
+      <c r="P292">
+        <v>1</v>
+      </c>
+      <c r="Q292">
+        <v>0</v>
+      </c>
+      <c r="R292">
+        <v>0</v>
+      </c>
+      <c r="S292">
+        <v>0</v>
+      </c>
+      <c r="T292">
+        <v>1</v>
+      </c>
+      <c r="U292" t="s">
+        <v>9</v>
+      </c>
+      <c r="V292" t="s">
+        <v>500</v>
+      </c>
+      <c r="W292">
+        <v>7</v>
+      </c>
+      <c r="X292">
+        <v>3089</v>
+      </c>
+      <c r="AA292" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="293" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A293" s="13" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B293" s="7">
+        <v>102</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D293" s="5">
+        <v>43034</v>
+      </c>
+      <c r="E293" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F293" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H293">
+        <v>4</v>
+      </c>
+      <c r="I293" t="s">
+        <v>679</v>
+      </c>
+      <c r="J293" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K293" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L293" t="s">
+        <v>595</v>
+      </c>
+      <c r="M293" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N293" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O293">
+        <v>1</v>
+      </c>
+      <c r="P293">
+        <v>1</v>
+      </c>
+      <c r="Q293">
+        <v>0</v>
+      </c>
+      <c r="R293">
+        <v>0</v>
+      </c>
+      <c r="S293">
+        <v>0</v>
+      </c>
+      <c r="T293">
+        <v>0</v>
+      </c>
+      <c r="U293" t="s">
+        <v>9</v>
+      </c>
+      <c r="V293" t="s">
+        <v>500</v>
+      </c>
+      <c r="W293">
+        <v>7</v>
+      </c>
+      <c r="X293">
+        <v>3089</v>
+      </c>
+      <c r="AA293" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="294" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A294" s="13" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B294" s="7">
+        <v>9845</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D294" s="5">
+        <v>42778</v>
+      </c>
+      <c r="E294" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F294" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H294">
+        <v>4</v>
+      </c>
+      <c r="I294" t="s">
+        <v>679</v>
+      </c>
+      <c r="J294" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K294" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L294" t="s">
+        <v>1040</v>
+      </c>
+      <c r="M294" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N294" s="7" t="s">
+        <v>1098</v>
+      </c>
+      <c r="O294">
+        <v>1</v>
+      </c>
+      <c r="P294">
+        <v>1</v>
+      </c>
+      <c r="Q294">
+        <v>0</v>
+      </c>
+      <c r="R294">
+        <v>0</v>
+      </c>
+      <c r="S294">
+        <v>0</v>
+      </c>
+      <c r="T294">
+        <v>0</v>
+      </c>
+      <c r="U294" t="s">
+        <v>9</v>
+      </c>
+      <c r="V294" t="s">
+        <v>501</v>
+      </c>
+      <c r="W294">
+        <v>18</v>
+      </c>
+      <c r="X294">
+        <v>3755</v>
+      </c>
+      <c r="AA294" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="295" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A295" s="13" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B295" s="7">
+        <v>9845</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D295" s="5">
+        <v>42779</v>
+      </c>
+      <c r="E295" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F295" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H295">
+        <v>4</v>
+      </c>
+      <c r="I295" t="s">
+        <v>679</v>
+      </c>
+      <c r="J295" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K295" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L295" t="s">
+        <v>1040</v>
+      </c>
+      <c r="M295" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N295" s="7" t="s">
+        <v>1093</v>
+      </c>
+      <c r="O295">
+        <v>1</v>
+      </c>
+      <c r="P295">
+        <v>1</v>
+      </c>
+      <c r="Q295">
+        <v>0</v>
+      </c>
+      <c r="R295">
+        <v>0</v>
+      </c>
+      <c r="S295">
+        <v>0</v>
+      </c>
+      <c r="T295">
+        <v>0</v>
+      </c>
+      <c r="U295" t="s">
+        <v>9</v>
+      </c>
+      <c r="V295" t="s">
+        <v>501</v>
+      </c>
+      <c r="W295">
+        <v>18</v>
+      </c>
+      <c r="X295">
+        <v>484</v>
+      </c>
+      <c r="AA295" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="296" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A296" s="13" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B296" s="7">
+        <v>9845</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D296" s="5">
+        <v>42781</v>
+      </c>
+      <c r="E296" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F296" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H296">
+        <v>4</v>
+      </c>
+      <c r="I296" t="s">
+        <v>679</v>
+      </c>
+      <c r="J296" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K296" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L296" t="s">
+        <v>1040</v>
+      </c>
+      <c r="M296" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N296" s="7" t="s">
+        <v>1094</v>
+      </c>
+      <c r="O296">
+        <v>1</v>
+      </c>
+      <c r="P296">
+        <v>1</v>
+      </c>
+      <c r="Q296">
+        <v>0</v>
+      </c>
+      <c r="R296">
+        <v>0</v>
+      </c>
+      <c r="S296">
+        <v>0</v>
+      </c>
+      <c r="T296">
+        <v>0</v>
+      </c>
+      <c r="U296" t="s">
+        <v>9</v>
+      </c>
+      <c r="V296" t="s">
+        <v>501</v>
+      </c>
+      <c r="W296">
+        <v>18</v>
+      </c>
+      <c r="X296">
+        <v>484</v>
+      </c>
+      <c r="AA296" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="297" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A297" s="13" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B297" s="7">
+        <v>9845</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D297" s="5">
+        <v>42782</v>
+      </c>
+      <c r="E297" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F297" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H297">
+        <v>4</v>
+      </c>
+      <c r="I297" t="s">
+        <v>679</v>
+      </c>
+      <c r="J297" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K297" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L297" t="s">
+        <v>1040</v>
+      </c>
+      <c r="M297" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N297" s="7" t="s">
+        <v>1041</v>
+      </c>
+      <c r="O297">
+        <v>1</v>
+      </c>
+      <c r="P297">
+        <v>1</v>
+      </c>
+      <c r="Q297">
+        <v>0</v>
+      </c>
+      <c r="R297">
+        <v>0</v>
+      </c>
+      <c r="S297">
+        <v>0</v>
+      </c>
+      <c r="T297">
+        <v>0</v>
+      </c>
+      <c r="U297" t="s">
+        <v>9</v>
+      </c>
+      <c r="V297" t="s">
+        <v>501</v>
+      </c>
+      <c r="W297">
+        <v>18</v>
+      </c>
+      <c r="X297">
+        <v>484</v>
+      </c>
+      <c r="AA297" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD297" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="298" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A298" s="13" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B298" s="7">
+        <v>9845</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D298" s="5">
+        <v>42783</v>
+      </c>
+      <c r="E298" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F298" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H298">
+        <v>4</v>
+      </c>
+      <c r="I298" t="s">
+        <v>679</v>
+      </c>
+      <c r="J298" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K298" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L298" t="s">
+        <v>1040</v>
+      </c>
+      <c r="M298" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N298" s="14" t="s">
+        <v>1062</v>
+      </c>
+      <c r="O298">
+        <v>1</v>
+      </c>
+      <c r="P298">
+        <v>1</v>
+      </c>
+      <c r="Q298">
+        <v>0</v>
+      </c>
+      <c r="R298">
+        <v>0</v>
+      </c>
+      <c r="S298">
+        <v>0</v>
+      </c>
+      <c r="T298">
+        <v>0</v>
+      </c>
+      <c r="U298" t="s">
+        <v>9</v>
+      </c>
+      <c r="V298" t="s">
+        <v>501</v>
+      </c>
+      <c r="W298">
+        <v>18</v>
+      </c>
+      <c r="X298">
+        <v>3755</v>
+      </c>
+      <c r="AA298" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="299" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A299" s="13" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B299" s="7">
+        <v>9845</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D299" s="5">
+        <v>42785</v>
+      </c>
+      <c r="E299" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F299" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H299">
+        <v>4</v>
+      </c>
+      <c r="I299" t="s">
+        <v>679</v>
+      </c>
+      <c r="J299" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K299" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L299" t="s">
+        <v>1040</v>
+      </c>
+      <c r="M299" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N299" s="14" t="s">
+        <v>1063</v>
+      </c>
+      <c r="O299">
+        <v>1</v>
+      </c>
+      <c r="P299">
+        <v>1</v>
+      </c>
+      <c r="Q299">
+        <v>0</v>
+      </c>
+      <c r="R299">
+        <v>0</v>
+      </c>
+      <c r="S299">
+        <v>0</v>
+      </c>
+      <c r="T299">
+        <v>0</v>
+      </c>
+      <c r="U299" t="s">
+        <v>9</v>
+      </c>
+      <c r="V299" t="s">
+        <v>501</v>
+      </c>
+      <c r="W299">
+        <v>18</v>
+      </c>
+      <c r="X299">
+        <v>3755</v>
+      </c>
+      <c r="AA299" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="300" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A300" s="13" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B300" s="7">
+        <v>9845</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D300" s="5">
+        <v>42786</v>
+      </c>
+      <c r="E300" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F300" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H300">
+        <v>4</v>
+      </c>
+      <c r="I300" t="s">
+        <v>679</v>
+      </c>
+      <c r="J300" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K300" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L300" t="s">
+        <v>1040</v>
+      </c>
+      <c r="M300" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N300" s="14" t="s">
+        <v>1042</v>
+      </c>
+      <c r="O300">
+        <v>1</v>
+      </c>
+      <c r="P300">
+        <v>1</v>
+      </c>
+      <c r="Q300">
+        <v>0</v>
+      </c>
+      <c r="R300">
+        <v>0</v>
+      </c>
+      <c r="S300">
+        <v>0</v>
+      </c>
+      <c r="T300">
+        <v>0</v>
+      </c>
+      <c r="U300" t="s">
+        <v>9</v>
+      </c>
+      <c r="V300" t="s">
+        <v>501</v>
+      </c>
+      <c r="W300">
+        <v>18</v>
+      </c>
+      <c r="X300">
+        <v>484</v>
+      </c>
+      <c r="AA300" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="301" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A301" s="13" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B301" s="7">
+        <v>9845</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D301" s="5">
+        <v>42787</v>
+      </c>
+      <c r="E301" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F301" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H301">
+        <v>4</v>
+      </c>
+      <c r="I301" t="s">
+        <v>679</v>
+      </c>
+      <c r="J301" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K301" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L301" t="s">
+        <v>1040</v>
+      </c>
+      <c r="M301" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N301" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="O301">
+        <v>1</v>
+      </c>
+      <c r="P301">
+        <v>1</v>
+      </c>
+      <c r="Q301">
+        <v>0</v>
+      </c>
+      <c r="R301">
+        <v>0</v>
+      </c>
+      <c r="S301">
+        <v>0</v>
+      </c>
+      <c r="T301">
+        <v>0</v>
+      </c>
+      <c r="U301" t="s">
+        <v>9</v>
+      </c>
+      <c r="V301" t="s">
+        <v>501</v>
+      </c>
+      <c r="W301">
+        <v>18</v>
+      </c>
+      <c r="X301">
+        <v>3089</v>
+      </c>
+      <c r="AA301" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="302" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A302" s="13" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B302" s="7">
+        <v>9845</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D302" s="5">
+        <v>42788</v>
+      </c>
+      <c r="E302" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F302" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H302">
+        <v>4</v>
+      </c>
+      <c r="I302" t="s">
+        <v>679</v>
+      </c>
+      <c r="J302" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K302" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L302" t="s">
+        <v>1040</v>
+      </c>
+      <c r="M302" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N302" s="14" t="s">
+        <v>1065</v>
+      </c>
+      <c r="O302">
+        <v>1</v>
+      </c>
+      <c r="P302">
+        <v>1</v>
+      </c>
+      <c r="Q302">
+        <v>0</v>
+      </c>
+      <c r="R302">
+        <v>0</v>
+      </c>
+      <c r="S302">
+        <v>0</v>
+      </c>
+      <c r="T302">
+        <v>0</v>
+      </c>
+      <c r="U302" t="s">
+        <v>9</v>
+      </c>
+      <c r="V302" t="s">
+        <v>501</v>
+      </c>
+      <c r="W302">
+        <v>18</v>
+      </c>
+      <c r="X302">
+        <v>3089</v>
+      </c>
+      <c r="AA302" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="303" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A303" s="13" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B303" s="7">
+        <v>9845</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D303" s="5">
+        <v>42789</v>
+      </c>
+      <c r="E303" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F303" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H303">
+        <v>4</v>
+      </c>
+      <c r="I303" t="s">
+        <v>679</v>
+      </c>
+      <c r="J303" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K303" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L303" t="s">
+        <v>1040</v>
+      </c>
+      <c r="M303" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N303" s="14" t="s">
+        <v>1066</v>
+      </c>
+      <c r="O303">
+        <v>1</v>
+      </c>
+      <c r="P303">
+        <v>1</v>
+      </c>
+      <c r="Q303">
+        <v>0</v>
+      </c>
+      <c r="R303">
+        <v>0</v>
+      </c>
+      <c r="S303">
+        <v>0</v>
+      </c>
+      <c r="T303">
+        <v>0</v>
+      </c>
+      <c r="U303" t="s">
+        <v>9</v>
+      </c>
+      <c r="V303" t="s">
+        <v>501</v>
+      </c>
+      <c r="W303">
+        <v>18</v>
+      </c>
+      <c r="X303">
+        <v>3089</v>
+      </c>
+      <c r="AA303" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="304" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A304" s="13" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B304" s="7">
+        <v>9845</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D304" s="5">
+        <v>42871</v>
+      </c>
+      <c r="E304" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F304" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H304">
+        <v>4</v>
+      </c>
+      <c r="I304" t="s">
+        <v>679</v>
+      </c>
+      <c r="J304" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K304" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L304" t="s">
+        <v>1059</v>
+      </c>
+      <c r="M304" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N304" s="14" t="s">
+        <v>1067</v>
+      </c>
+      <c r="O304">
+        <v>1</v>
+      </c>
+      <c r="P304">
+        <v>1</v>
+      </c>
+      <c r="Q304">
+        <v>0</v>
+      </c>
+      <c r="R304">
+        <v>0</v>
+      </c>
+      <c r="S304">
+        <v>0</v>
+      </c>
+      <c r="T304">
+        <v>0</v>
+      </c>
+      <c r="U304" t="s">
+        <v>9</v>
+      </c>
+      <c r="V304" t="s">
+        <v>501</v>
+      </c>
+      <c r="W304">
+        <v>18</v>
+      </c>
+      <c r="X304">
+        <v>1115</v>
+      </c>
+      <c r="AA304" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="305" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A305" s="13" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B305" s="7">
+        <v>9845</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D305" s="5">
+        <v>42872</v>
+      </c>
+      <c r="E305" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F305" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H305">
+        <v>4</v>
+      </c>
+      <c r="I305" t="s">
+        <v>679</v>
+      </c>
+      <c r="J305" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K305" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L305" t="s">
+        <v>1059</v>
+      </c>
+      <c r="M305" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N305" s="14" t="s">
+        <v>1068</v>
+      </c>
+      <c r="O305">
+        <v>1</v>
+      </c>
+      <c r="P305">
+        <v>1</v>
+      </c>
+      <c r="Q305">
+        <v>0</v>
+      </c>
+      <c r="R305">
+        <v>0</v>
+      </c>
+      <c r="S305">
+        <v>0</v>
+      </c>
+      <c r="T305">
+        <v>0</v>
+      </c>
+      <c r="U305" t="s">
+        <v>9</v>
+      </c>
+      <c r="V305" t="s">
+        <v>501</v>
+      </c>
+      <c r="W305">
+        <v>18</v>
+      </c>
+      <c r="X305">
+        <v>1115</v>
+      </c>
+      <c r="AA305" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="306" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A306" s="13" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B306" s="7">
+        <v>9845</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D306" s="5">
+        <v>42873</v>
+      </c>
+      <c r="E306" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F306" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H306">
+        <v>4</v>
+      </c>
+      <c r="I306" t="s">
+        <v>679</v>
+      </c>
+      <c r="J306" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K306" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L306" t="s">
+        <v>1059</v>
+      </c>
+      <c r="M306" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N306" s="14" t="s">
+        <v>1069</v>
+      </c>
+      <c r="O306">
+        <v>1</v>
+      </c>
+      <c r="P306">
+        <v>1</v>
+      </c>
+      <c r="Q306">
+        <v>0</v>
+      </c>
+      <c r="R306">
+        <v>0</v>
+      </c>
+      <c r="S306">
+        <v>0.5</v>
+      </c>
+      <c r="T306">
+        <v>1</v>
+      </c>
+      <c r="U306" t="s">
+        <v>9</v>
+      </c>
+      <c r="V306" t="s">
+        <v>501</v>
+      </c>
+      <c r="W306">
+        <v>18</v>
+      </c>
+      <c r="X306">
+        <v>1115</v>
+      </c>
+      <c r="AA306" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="307" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A307" s="13" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B307" s="7">
+        <v>9845</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D307" s="5">
+        <v>42880</v>
+      </c>
+      <c r="E307" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F307" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H307">
+        <v>4</v>
+      </c>
+      <c r="I307" t="s">
+        <v>679</v>
+      </c>
+      <c r="J307" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K307" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L307" t="s">
+        <v>1060</v>
+      </c>
+      <c r="M307" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N307" s="14" t="s">
+        <v>1070</v>
+      </c>
+      <c r="O307">
+        <v>1</v>
+      </c>
+      <c r="P307">
+        <v>1</v>
+      </c>
+      <c r="Q307">
+        <v>0</v>
+      </c>
+      <c r="R307">
+        <v>0</v>
+      </c>
+      <c r="S307">
+        <v>0</v>
+      </c>
+      <c r="T307">
+        <v>0</v>
+      </c>
+      <c r="U307" t="s">
+        <v>9</v>
+      </c>
+      <c r="V307" t="s">
+        <v>501</v>
+      </c>
+      <c r="W307">
+        <v>18</v>
+      </c>
+      <c r="X307">
+        <v>1115</v>
+      </c>
+      <c r="AA307" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="308" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A308" s="13" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B308" s="7">
+        <v>9845</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D308" s="5">
+        <v>42882</v>
+      </c>
+      <c r="E308" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F308" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H308">
+        <v>4</v>
+      </c>
+      <c r="I308" t="s">
+        <v>679</v>
+      </c>
+      <c r="J308" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K308" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L308" t="s">
+        <v>1060</v>
+      </c>
+      <c r="M308" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N308" s="14" t="s">
+        <v>1071</v>
+      </c>
+      <c r="O308">
+        <v>1</v>
+      </c>
+      <c r="P308">
+        <v>1</v>
+      </c>
+      <c r="Q308">
+        <v>0</v>
+      </c>
+      <c r="R308">
+        <v>0</v>
+      </c>
+      <c r="S308">
+        <v>0</v>
+      </c>
+      <c r="T308">
+        <v>0</v>
+      </c>
+      <c r="U308" t="s">
+        <v>9</v>
+      </c>
+      <c r="V308" t="s">
+        <v>501</v>
+      </c>
+      <c r="W308">
+        <v>18</v>
+      </c>
+      <c r="X308">
+        <v>1115</v>
+      </c>
+      <c r="AA308" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD308" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="309" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A309" s="13" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B309" s="7">
+        <v>9845</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D309" s="5">
+        <v>42883</v>
+      </c>
+      <c r="E309" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F309" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H309">
+        <v>4</v>
+      </c>
+      <c r="I309" t="s">
+        <v>679</v>
+      </c>
+      <c r="J309" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K309" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L309" t="s">
+        <v>1060</v>
+      </c>
+      <c r="M309" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N309" s="14" t="s">
+        <v>1072</v>
+      </c>
+      <c r="O309">
+        <v>1</v>
+      </c>
+      <c r="P309">
+        <v>1</v>
+      </c>
+      <c r="Q309">
+        <v>0</v>
+      </c>
+      <c r="R309">
+        <v>0</v>
+      </c>
+      <c r="S309">
+        <v>0</v>
+      </c>
+      <c r="T309">
+        <v>0</v>
+      </c>
+      <c r="U309" t="s">
+        <v>9</v>
+      </c>
+      <c r="V309" t="s">
+        <v>501</v>
+      </c>
+      <c r="W309">
+        <v>18</v>
+      </c>
+      <c r="X309">
+        <v>1115</v>
+      </c>
+      <c r="AA309" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="310" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A310" s="13" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B310" s="7">
+        <v>9845</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D310" s="5">
+        <v>42884</v>
+      </c>
+      <c r="E310" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F310" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H310">
+        <v>4</v>
+      </c>
+      <c r="I310" t="s">
+        <v>679</v>
+      </c>
+      <c r="J310" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K310" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L310" t="s">
+        <v>1060</v>
+      </c>
+      <c r="M310" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N310" s="14" t="s">
+        <v>1073</v>
+      </c>
+      <c r="O310">
+        <v>1</v>
+      </c>
+      <c r="P310">
+        <v>1</v>
+      </c>
+      <c r="Q310">
+        <v>0</v>
+      </c>
+      <c r="R310">
+        <v>0</v>
+      </c>
+      <c r="S310">
+        <v>0</v>
+      </c>
+      <c r="T310">
+        <v>0</v>
+      </c>
+      <c r="U310" t="s">
+        <v>9</v>
+      </c>
+      <c r="V310" t="s">
+        <v>501</v>
+      </c>
+      <c r="W310">
+        <v>18</v>
+      </c>
+      <c r="X310">
+        <v>1115</v>
+      </c>
+      <c r="AA310" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="311" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A311" s="13" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B311" s="7">
+        <v>9845</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D311" s="5">
+        <v>42889</v>
+      </c>
+      <c r="E311" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F311" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H311">
+        <v>4</v>
+      </c>
+      <c r="I311" t="s">
+        <v>679</v>
+      </c>
+      <c r="J311" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K311" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L311" t="s">
+        <v>1060</v>
+      </c>
+      <c r="M311" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N311" s="14" t="s">
+        <v>1074</v>
+      </c>
+      <c r="O311">
+        <v>1</v>
+      </c>
+      <c r="P311">
+        <v>1</v>
+      </c>
+      <c r="Q311">
+        <v>0</v>
+      </c>
+      <c r="R311">
+        <v>0</v>
+      </c>
+      <c r="S311">
+        <v>0</v>
+      </c>
+      <c r="T311">
+        <v>0</v>
+      </c>
+      <c r="U311" t="s">
+        <v>9</v>
+      </c>
+      <c r="V311" t="s">
+        <v>501</v>
+      </c>
+      <c r="W311">
+        <v>18</v>
+      </c>
+      <c r="X311">
+        <v>484</v>
+      </c>
+      <c r="AA311" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="312" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A312" s="13" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B312" s="7">
+        <v>9845</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D312" s="5">
+        <v>42891</v>
+      </c>
+      <c r="E312" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F312" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H312">
+        <v>4</v>
+      </c>
+      <c r="I312" t="s">
+        <v>679</v>
+      </c>
+      <c r="J312" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K312" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L312" t="s">
+        <v>1060</v>
+      </c>
+      <c r="M312" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N312" s="14" t="s">
+        <v>1076</v>
+      </c>
+      <c r="O312">
+        <v>1</v>
+      </c>
+      <c r="P312">
+        <v>1</v>
+      </c>
+      <c r="Q312">
+        <v>0</v>
+      </c>
+      <c r="R312">
+        <v>0</v>
+      </c>
+      <c r="S312">
+        <v>0</v>
+      </c>
+      <c r="T312">
+        <v>0</v>
+      </c>
+      <c r="U312" t="s">
+        <v>9</v>
+      </c>
+      <c r="V312" t="s">
+        <v>501</v>
+      </c>
+      <c r="W312">
+        <v>18</v>
+      </c>
+      <c r="X312">
+        <v>3755</v>
+      </c>
+      <c r="AA312" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="313" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A313" s="13" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B313" s="7">
+        <v>9845</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D313" s="5">
+        <v>42892</v>
+      </c>
+      <c r="E313" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F313" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H313">
+        <v>4</v>
+      </c>
+      <c r="I313" t="s">
+        <v>679</v>
+      </c>
+      <c r="J313" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K313" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L313" t="s">
+        <v>1060</v>
+      </c>
+      <c r="M313" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N313" s="7" t="s">
+        <v>1095</v>
+      </c>
+      <c r="O313">
+        <v>1</v>
+      </c>
+      <c r="P313">
+        <v>1</v>
+      </c>
+      <c r="Q313">
+        <v>0</v>
+      </c>
+      <c r="R313">
+        <v>0</v>
+      </c>
+      <c r="S313">
+        <v>0</v>
+      </c>
+      <c r="T313">
+        <v>0</v>
+      </c>
+      <c r="U313" t="s">
+        <v>9</v>
+      </c>
+      <c r="V313" t="s">
+        <v>501</v>
+      </c>
+      <c r="W313">
+        <v>18</v>
+      </c>
+      <c r="X313">
+        <v>3755</v>
+      </c>
+      <c r="AA313" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="314" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A314" s="13" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B314" s="7">
+        <v>9845</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D314" s="5">
+        <v>42894</v>
+      </c>
+      <c r="E314" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F314" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H314">
+        <v>4</v>
+      </c>
+      <c r="I314" t="s">
+        <v>679</v>
+      </c>
+      <c r="J314" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K314" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L314" t="s">
+        <v>1060</v>
+      </c>
+      <c r="M314" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N314" s="7" t="s">
+        <v>1096</v>
+      </c>
+      <c r="O314">
+        <v>1</v>
+      </c>
+      <c r="P314">
+        <v>1</v>
+      </c>
+      <c r="Q314">
+        <v>0</v>
+      </c>
+      <c r="R314">
+        <v>0</v>
+      </c>
+      <c r="S314">
+        <v>0</v>
+      </c>
+      <c r="T314">
+        <v>0</v>
+      </c>
+      <c r="U314" t="s">
+        <v>9</v>
+      </c>
+      <c r="V314" t="s">
+        <v>501</v>
+      </c>
+      <c r="W314">
+        <v>18</v>
+      </c>
+      <c r="X314">
+        <v>3755</v>
+      </c>
+      <c r="AA314" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD314" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="315" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A315" s="13" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B315" s="7">
+        <v>9845</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D315" s="5">
+        <v>42898</v>
+      </c>
+      <c r="E315" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F315" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H315">
+        <v>4</v>
+      </c>
+      <c r="I315" t="s">
+        <v>679</v>
+      </c>
+      <c r="J315" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K315" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L315" t="s">
+        <v>1060</v>
+      </c>
+      <c r="M315" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N315" s="14" t="s">
+        <v>1077</v>
+      </c>
+      <c r="O315">
+        <v>1</v>
+      </c>
+      <c r="P315">
+        <v>1</v>
+      </c>
+      <c r="Q315">
+        <v>0</v>
+      </c>
+      <c r="R315">
+        <v>0</v>
+      </c>
+      <c r="S315">
+        <v>0</v>
+      </c>
+      <c r="T315">
+        <v>0</v>
+      </c>
+      <c r="U315" t="s">
+        <v>9</v>
+      </c>
+      <c r="V315" t="s">
+        <v>501</v>
+      </c>
+      <c r="W315">
+        <v>18</v>
+      </c>
+      <c r="X315">
+        <v>3755</v>
+      </c>
+      <c r="AA315" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="316" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A316" s="13" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B316" s="7">
+        <v>9845</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D316" s="5">
+        <v>42900</v>
+      </c>
+      <c r="E316" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F316" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H316">
+        <v>4</v>
+      </c>
+      <c r="I316" t="s">
+        <v>679</v>
+      </c>
+      <c r="J316" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K316" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L316" t="s">
+        <v>1060</v>
+      </c>
+      <c r="M316" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N316" s="14" t="s">
+        <v>1078</v>
+      </c>
+      <c r="O316">
+        <v>1</v>
+      </c>
+      <c r="P316">
+        <v>1</v>
+      </c>
+      <c r="Q316">
+        <v>0</v>
+      </c>
+      <c r="R316">
+        <v>0</v>
+      </c>
+      <c r="S316">
+        <v>0</v>
+      </c>
+      <c r="T316">
+        <v>0</v>
+      </c>
+      <c r="U316" t="s">
+        <v>9</v>
+      </c>
+      <c r="V316" t="s">
+        <v>501</v>
+      </c>
+      <c r="W316">
+        <v>18</v>
+      </c>
+      <c r="X316">
+        <v>3755</v>
+      </c>
+      <c r="AA316" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="317" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A317" s="13" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B317" s="7">
+        <v>9845</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D317" s="5">
+        <v>42901</v>
+      </c>
+      <c r="E317" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F317" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H317">
+        <v>4</v>
+      </c>
+      <c r="I317" t="s">
+        <v>679</v>
+      </c>
+      <c r="J317" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K317" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L317" t="s">
+        <v>1060</v>
+      </c>
+      <c r="M317" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N317" s="7" t="s">
+        <v>1097</v>
+      </c>
+      <c r="O317">
+        <v>1</v>
+      </c>
+      <c r="P317">
+        <v>1</v>
+      </c>
+      <c r="Q317">
+        <v>0</v>
+      </c>
+      <c r="R317">
+        <v>0</v>
+      </c>
+      <c r="S317">
+        <v>0</v>
+      </c>
+      <c r="T317">
+        <v>0</v>
+      </c>
+      <c r="U317" t="s">
+        <v>9</v>
+      </c>
+      <c r="V317" t="s">
+        <v>501</v>
+      </c>
+      <c r="W317">
+        <v>18</v>
+      </c>
+      <c r="X317">
+        <v>3755</v>
+      </c>
+      <c r="AA317" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="318" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A318" s="13" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B318" s="7">
+        <v>9845</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D318" s="5">
+        <v>42908</v>
+      </c>
+      <c r="E318" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F318" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H318">
+        <v>4</v>
+      </c>
+      <c r="I318" t="s">
+        <v>679</v>
+      </c>
+      <c r="J318" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K318" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L318" t="s">
+        <v>1060</v>
+      </c>
+      <c r="M318" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N318" s="14" t="s">
+        <v>1079</v>
+      </c>
+      <c r="O318">
+        <v>1</v>
+      </c>
+      <c r="P318">
+        <v>1</v>
+      </c>
+      <c r="Q318">
+        <v>0</v>
+      </c>
+      <c r="R318">
+        <v>0</v>
+      </c>
+      <c r="S318">
+        <v>0</v>
+      </c>
+      <c r="T318">
+        <v>0</v>
+      </c>
+      <c r="U318" t="s">
+        <v>9</v>
+      </c>
+      <c r="V318" t="s">
+        <v>501</v>
+      </c>
+      <c r="W318">
+        <v>18</v>
+      </c>
+      <c r="X318">
+        <v>3755</v>
+      </c>
+      <c r="AA318" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB318" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AD318" t="s">
+        <v>1061</v>
       </c>
     </row>
   </sheetData>
@@ -23345,118 +28318,124 @@
   </sortState>
   <dataConsolidate/>
   <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="39" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48">
+    <cfRule type="duplicateValues" dxfId="38" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49">
     <cfRule type="duplicateValues" dxfId="37" priority="39"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A48">
+  <conditionalFormatting sqref="A50">
     <cfRule type="duplicateValues" dxfId="36" priority="38"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A49">
+  <conditionalFormatting sqref="A51">
     <cfRule type="duplicateValues" dxfId="35" priority="37"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A50">
+  <conditionalFormatting sqref="A52">
     <cfRule type="duplicateValues" dxfId="34" priority="36"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A51">
+  <conditionalFormatting sqref="A53">
     <cfRule type="duplicateValues" dxfId="33" priority="35"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
+  <conditionalFormatting sqref="A54">
     <cfRule type="duplicateValues" dxfId="32" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A53">
+  <conditionalFormatting sqref="A55">
     <cfRule type="duplicateValues" dxfId="31" priority="33"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
+  <conditionalFormatting sqref="A56">
     <cfRule type="duplicateValues" dxfId="30" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A55">
+  <conditionalFormatting sqref="A57">
     <cfRule type="duplicateValues" dxfId="29" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A56">
+  <conditionalFormatting sqref="A58">
     <cfRule type="duplicateValues" dxfId="28" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A57">
+  <conditionalFormatting sqref="A59">
     <cfRule type="duplicateValues" dxfId="27" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A58">
+  <conditionalFormatting sqref="A60">
     <cfRule type="duplicateValues" dxfId="26" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A59">
+  <conditionalFormatting sqref="A61">
     <cfRule type="duplicateValues" dxfId="25" priority="27"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A60">
+  <conditionalFormatting sqref="A62">
     <cfRule type="duplicateValues" dxfId="24" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A61">
+  <conditionalFormatting sqref="A63">
     <cfRule type="duplicateValues" dxfId="23" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A62">
+  <conditionalFormatting sqref="A64">
     <cfRule type="duplicateValues" dxfId="22" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A63">
+  <conditionalFormatting sqref="A65">
     <cfRule type="duplicateValues" dxfId="21" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A64">
+  <conditionalFormatting sqref="A66">
     <cfRule type="duplicateValues" dxfId="20" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A65">
+  <conditionalFormatting sqref="A67">
     <cfRule type="duplicateValues" dxfId="19" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A66">
+  <conditionalFormatting sqref="A68">
     <cfRule type="duplicateValues" dxfId="18" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A67">
+  <conditionalFormatting sqref="A69">
     <cfRule type="duplicateValues" dxfId="17" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A68">
+  <conditionalFormatting sqref="A70">
     <cfRule type="duplicateValues" dxfId="16" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A69">
+  <conditionalFormatting sqref="A71">
     <cfRule type="duplicateValues" dxfId="15" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70">
+  <conditionalFormatting sqref="A72">
     <cfRule type="duplicateValues" dxfId="14" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
+  <conditionalFormatting sqref="A73">
     <cfRule type="duplicateValues" dxfId="13" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A72">
+  <conditionalFormatting sqref="A74">
     <cfRule type="duplicateValues" dxfId="12" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A73">
+  <conditionalFormatting sqref="A75">
     <cfRule type="duplicateValues" dxfId="11" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A74">
+  <conditionalFormatting sqref="A76">
     <cfRule type="duplicateValues" dxfId="10" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A75">
+  <conditionalFormatting sqref="A77">
     <cfRule type="duplicateValues" dxfId="9" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A76">
+  <conditionalFormatting sqref="A78">
     <cfRule type="duplicateValues" dxfId="8" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A77">
+  <conditionalFormatting sqref="A79">
     <cfRule type="duplicateValues" dxfId="7" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A78">
+  <conditionalFormatting sqref="A80">
     <cfRule type="duplicateValues" dxfId="6" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A79">
+  <conditionalFormatting sqref="A81">
     <cfRule type="duplicateValues" dxfId="5" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A80">
+  <conditionalFormatting sqref="A82">
     <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A81">
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+  <conditionalFormatting sqref="A83">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A82">
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  <conditionalFormatting sqref="A233:A258">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A83">
+  <conditionalFormatting sqref="A294:A303">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A233:A258">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="A304:A318">
+    <cfRule type="duplicateValues" dxfId="0" priority="42"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="597" r:id="rId1"/>

--- a/inclusion_lists/exp_summary.xlsx
+++ b/inclusion_lists/exp_summary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4464" uniqueCount="1100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5023" uniqueCount="1186">
   <si>
     <t>date</t>
   </si>
@@ -3333,6 +3333,264 @@
   </si>
   <si>
     <t>problem with bespoon time</t>
+  </si>
+  <si>
+    <t>b2299_d191124</t>
+  </si>
+  <si>
+    <t>b2299_d191125</t>
+  </si>
+  <si>
+    <t>b2299_d191126</t>
+  </si>
+  <si>
+    <t>b2299_d191127</t>
+  </si>
+  <si>
+    <t>b2299_d191128</t>
+  </si>
+  <si>
+    <t>b2299_d191201</t>
+  </si>
+  <si>
+    <t>b2299_d191202</t>
+  </si>
+  <si>
+    <t>b2299_d191203</t>
+  </si>
+  <si>
+    <t>b2299_d191204</t>
+  </si>
+  <si>
+    <t>b2299_d191205</t>
+  </si>
+  <si>
+    <t>b2299_d191208</t>
+  </si>
+  <si>
+    <t>b2299_d191209</t>
+  </si>
+  <si>
+    <t>b2299_d191211</t>
+  </si>
+  <si>
+    <t>2299</t>
+  </si>
+  <si>
+    <t>{'TBD','TBD','TBD','TBD','TBD','TBD','TBD','TBD','TBD','TBD','TBD','TBD','TBD','TBD','TBD','TBD'}</t>
+  </si>
+  <si>
+    <t>[1 1 1 1;1 1 1 1;1 1 1 1;1 1 1 1;1 1 1 1;0 0 0 0;1 1 1 1;1 1 1 1;1 1 1 1;1 1 1 1;1 1 1 1;1 1 1 1;1 1 1 1;1 1 1 1;1 1 1 1;1 1 1 1]</t>
+  </si>
+  <si>
+    <t>[1 2 3 4 5 7 8 9 10 11 12 13 14 15 16]</t>
+  </si>
+  <si>
+    <t>b2382_d190604</t>
+  </si>
+  <si>
+    <t>b2382_d190606</t>
+  </si>
+  <si>
+    <t>b2382_d190610</t>
+  </si>
+  <si>
+    <t>b2382_d190612</t>
+  </si>
+  <si>
+    <t>b2382_d190616</t>
+  </si>
+  <si>
+    <t>b2382_d190617</t>
+  </si>
+  <si>
+    <t>b2382_d190618</t>
+  </si>
+  <si>
+    <t>b2382_d190619</t>
+  </si>
+  <si>
+    <t>b2382_d190620</t>
+  </si>
+  <si>
+    <t>{'Behave_6m'}</t>
+  </si>
+  <si>
+    <t>{'Sleep1';'Behave_6m';'Sleep2'}</t>
+  </si>
+  <si>
+    <t>[33609941000 35577612000]</t>
+  </si>
+  <si>
+    <t>[33367773000 35125640000]</t>
+  </si>
+  <si>
+    <t>[49981442000 50931072233; 50964058483 53852694944; 53986458541 54906356000; ]</t>
+  </si>
+  <si>
+    <t>[56956016000 57418127000; 57495310151 61700407000; 61840477000 62305349000; ]</t>
+  </si>
+  <si>
+    <t>[33159561000 33555745000; 33610962568 38282389492; 38411708994 38774630000; ]</t>
+  </si>
+  <si>
+    <t>[31674839000 32060944000; 32180187778 35754727786; 35808100000 36149928000; ]</t>
+  </si>
+  <si>
+    <t>[32073832000 32475131000; 32543232979 37765101998; 37808196000 38189552000; ]</t>
+  </si>
+  <si>
+    <t>[57019243076 57387585086; 57537088130 62976540500; 63050621015 63369406883; ]</t>
+  </si>
+  <si>
+    <t>[33558328088 33893517958; 33940992844 39996622047; 40077698000 40430024000; ]</t>
+  </si>
+  <si>
+    <t>[31601288660 31891604478; 31995791817 38605068387; 38686448086 38988143264; ]</t>
+  </si>
+  <si>
+    <t>[29134363744 29440479518; 29502032125 35826448600; 35967418204 36237570457; ]</t>
+  </si>
+  <si>
+    <t>[31446484291 31752917966; 31842780526 39166949884; 39276916000 39582906000; ]</t>
+  </si>
+  <si>
+    <t>[49317661580 49647557674; 49726047951 55126315818; 55321514473 55661839802; ]</t>
+  </si>
+  <si>
+    <t>[31462584244 31765885112; 31933076960 39241806935; 39308138771 39625834591; ]</t>
+  </si>
+  <si>
+    <t>[31870134774 32186458749; 32239096304 39462944150; 39535444687 39971768539; ]</t>
+  </si>
+  <si>
+    <t>{'TBD','TBD','TBD','TBD','TBD','TBD','TBD','TBD','CA1','TBD','CA1','TBD','CA1','TBD','TBD','TBD'}</t>
+  </si>
+  <si>
+    <t>{'TBD','TBD','TBD','TBD','TBD','TBD','CA1','TBD','CA1','TBD','CA1','TBD','CA1','TBD','TBD','TBD'}</t>
+  </si>
+  <si>
+    <t>{'CA3','TBD','CA3','TBD','TBD','TBD','CA1','TBD','CA1','TBD','CA1','TBD','CA1','TBD','TBD','TBD'}</t>
+  </si>
+  <si>
+    <t>[25472458000 26007831000; 26041930000 27920298431; 28010693014 28362307000]</t>
+  </si>
+  <si>
+    <t>[30445164000 30757931000; 30848614000 32218707319; 32343589441 32637301000]</t>
+  </si>
+  <si>
+    <t>[30113603000 30428876000; 30516509000 32438825532; 32659330084 32988287000]</t>
+  </si>
+  <si>
+    <t>[30502614000 30858535000; 30944931000 32691926687; 32755218000 33173838000]</t>
+  </si>
+  <si>
+    <t>[27738086000 28252968000; 28313451919 29863677729; 29927401000 30257669000]</t>
+  </si>
+  <si>
+    <t>[26539622086 28527769000]</t>
+  </si>
+  <si>
+    <t>[33465089000 35393741389]</t>
+  </si>
+  <si>
+    <t>{'CA1','CTX','CA1','CTX','CTX','TBD','CTX','CTX','CTX','CTX','CTX','CTX','CTX','CTX','CTX','CTX'}</t>
+  </si>
+  <si>
+    <t>{'CA1','CTX','CA1','CTX','CA1','TBD','CTX','CTX','CTX','CTX','CTX','CTX','CTX','CTX','CTX','CTX'}</t>
+  </si>
+  <si>
+    <t>{'CA1','CTX','CA1','CA1','CA1','TBD','CA1','CTX','CTX','CTX','CTX','CTX','CTX','CTX','CTX','CTX'}</t>
+  </si>
+  <si>
+    <t>{'CA1','CTX','CA1','CA1','CA1','TBD','CA1','CTX','CTX','CTX','CTX','CTX','PrS','CTX','CTX','CTX'}</t>
+  </si>
+  <si>
+    <t>{'CA1','CTX','CA1','CA1','CA1','TBD','CA1','CTX','CA1','CTX','CTX','CTX','PrS','PrS','CA1','CTX'}</t>
+  </si>
+  <si>
+    <t>b2336_d190903</t>
+  </si>
+  <si>
+    <t>2336</t>
+  </si>
+  <si>
+    <t>[0,0,0,0;1,1,1,1;1,1,1,1;0,0,0,0;1,1,1,1;1,1,1,1;1,1,0,0;1,1,1,1;1,1,1,1;1,1,1,1;1,1,1,1;1,1,1,1;1,1,1,1;1,1,1,1;1,1,1,1;0,0,0,0]</t>
+  </si>
+  <si>
+    <t>[2,3,5,6,7,8,9,10,11,12,13,14,15]</t>
+  </si>
+  <si>
+    <t>[nan nan; nan nan; nan nan; ]</t>
+  </si>
+  <si>
+    <t>b2336_d190910</t>
+  </si>
+  <si>
+    <t>b2336_d190911</t>
+  </si>
+  <si>
+    <t>b2336_d190915</t>
+  </si>
+  <si>
+    <t>b2336_d190918</t>
+  </si>
+  <si>
+    <t>b2336_d190921</t>
+  </si>
+  <si>
+    <t>b2336_d190923</t>
+  </si>
+  <si>
+    <t>b2336_d190925</t>
+  </si>
+  <si>
+    <t>b2336_d191002</t>
+  </si>
+  <si>
+    <t>b2336_d191006</t>
+  </si>
+  <si>
+    <t>b2336_d191007</t>
+  </si>
+  <si>
+    <t>b2336_d191010</t>
+  </si>
+  <si>
+    <t>b2336_d191012</t>
+  </si>
+  <si>
+    <t>b2336_d191023</t>
+  </si>
+  <si>
+    <t>b2336_d191030</t>
+  </si>
+  <si>
+    <t>b2336_d191110</t>
+  </si>
+  <si>
+    <t>b2336_d191114</t>
+  </si>
+  <si>
+    <t>b2336_d191124</t>
+  </si>
+  <si>
+    <t>b2299_d191210</t>
+  </si>
+  <si>
+    <t>b2299_d191212</t>
+  </si>
+  <si>
+    <t>b2299_d191213</t>
+  </si>
+  <si>
+    <t>[31723200707 32131441441; 32168159967 39668188681; 39728188681 40098057829; ]</t>
+  </si>
+  <si>
+    <t>[31632137327 31974662460; 32056927719 39059190647; 39186170153 39480628000; ]</t>
+  </si>
+  <si>
+    <t>[32271509929 32654251667; 32747308821 39878181896; 39945446550 40240270000; ]</t>
   </si>
 </sst>
 </file>
@@ -4122,13 +4380,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD318"/>
+  <dimension ref="A1:AD366"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AB283" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B306" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD314" sqref="AD314"/>
+      <selection pane="bottomRight" activeCell="J347" sqref="J347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4137,14 +4395,14 @@
     <col min="2" max="2" width="4.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" style="4" customWidth="1"/>
     <col min="6" max="6" width="6.5703125" style="7" customWidth="1"/>
     <col min="7" max="7" width="5.140625" style="7" customWidth="1"/>
     <col min="8" max="8" width="3" customWidth="1"/>
-    <col min="9" max="9" width="27.140625" customWidth="1"/>
-    <col min="10" max="10" width="33" customWidth="1"/>
+    <col min="9" max="9" width="6.140625" customWidth="1"/>
+    <col min="10" max="10" width="102.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="23.42578125" customWidth="1"/>
+    <col min="12" max="12" width="26" customWidth="1"/>
     <col min="13" max="13" width="27.85546875" customWidth="1"/>
     <col min="14" max="14" width="74.5703125" style="9" customWidth="1"/>
     <col min="15" max="15" width="4.5703125" customWidth="1"/>
@@ -18881,7 +19139,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="193" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A193" s="13" t="s">
         <v>785</v>
       </c>
@@ -18958,7 +19216,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="194" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A194" s="13" t="s">
         <v>786</v>
       </c>
@@ -19032,7 +19290,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="195" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A195" s="13" t="s">
         <v>787</v>
       </c>
@@ -19106,7 +19364,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="196" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A196" s="13" t="s">
         <v>788</v>
       </c>
@@ -19180,7 +19438,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="197" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A197" s="13" t="s">
         <v>789</v>
       </c>
@@ -19254,9 +19512,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="198" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A198" s="13" t="s">
-        <v>807</v>
+        <v>1117</v>
       </c>
       <c r="B198" s="7">
         <v>2382</v>
@@ -19265,7 +19523,7 @@
         <v>754</v>
       </c>
       <c r="D198" s="5">
-        <v>43639</v>
+        <v>43620</v>
       </c>
       <c r="E198" s="5" t="s">
         <v>843</v>
@@ -19286,13 +19544,13 @@
         <v>756</v>
       </c>
       <c r="L198" s="7" t="s">
-        <v>858</v>
+        <v>1114</v>
       </c>
       <c r="M198" s="10" t="s">
-        <v>845</v>
-      </c>
-      <c r="N198" s="11" t="s">
-        <v>861</v>
+        <v>1126</v>
+      </c>
+      <c r="N198" s="9" t="s">
+        <v>1128</v>
       </c>
       <c r="O198">
         <v>1</v>
@@ -19301,7 +19559,7 @@
         <v>1</v>
       </c>
       <c r="Q198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R198">
         <v>0</v>
@@ -19313,7 +19571,7 @@
         <v>0</v>
       </c>
       <c r="U198" t="s">
-        <v>757</v>
+        <v>1029</v>
       </c>
       <c r="V198" t="s">
         <v>759</v>
@@ -19327,13 +19585,10 @@
       <c r="AA198" t="s">
         <v>86</v>
       </c>
-      <c r="AB198" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="199" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A199" s="13" t="s">
-        <v>808</v>
+        <v>1118</v>
       </c>
       <c r="B199" s="7">
         <v>2382</v>
@@ -19342,7 +19597,7 @@
         <v>754</v>
       </c>
       <c r="D199" s="5">
-        <v>43640</v>
+        <v>43622</v>
       </c>
       <c r="E199" s="5" t="s">
         <v>843</v>
@@ -19363,13 +19618,13 @@
         <v>756</v>
       </c>
       <c r="L199" s="7" t="s">
-        <v>858</v>
+        <v>1114</v>
       </c>
       <c r="M199" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="N199" s="11" t="s">
-        <v>862</v>
+        <v>1126</v>
+      </c>
+      <c r="N199" s="9" t="s">
+        <v>1129</v>
       </c>
       <c r="O199">
         <v>1</v>
@@ -19378,7 +19633,7 @@
         <v>1</v>
       </c>
       <c r="Q199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R199">
         <v>0</v>
@@ -19390,7 +19645,7 @@
         <v>0</v>
       </c>
       <c r="U199" t="s">
-        <v>757</v>
+        <v>1029</v>
       </c>
       <c r="V199" t="s">
         <v>759</v>
@@ -19404,13 +19659,10 @@
       <c r="AA199" t="s">
         <v>86</v>
       </c>
-      <c r="AB199" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="200" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A200" s="13" t="s">
-        <v>809</v>
+        <v>1119</v>
       </c>
       <c r="B200" s="7">
         <v>2382</v>
@@ -19419,7 +19671,7 @@
         <v>754</v>
       </c>
       <c r="D200" s="5">
-        <v>43641</v>
+        <v>43626</v>
       </c>
       <c r="E200" s="5" t="s">
         <v>843</v>
@@ -19440,13 +19692,13 @@
         <v>756</v>
       </c>
       <c r="L200" s="7" t="s">
-        <v>858</v>
+        <v>1143</v>
       </c>
       <c r="M200" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="N200" s="11" t="s">
-        <v>863</v>
+        <v>1126</v>
+      </c>
+      <c r="N200" s="9" t="s">
+        <v>1152</v>
       </c>
       <c r="O200">
         <v>1</v>
@@ -19467,7 +19719,7 @@
         <v>0</v>
       </c>
       <c r="U200" t="s">
-        <v>757</v>
+        <v>1029</v>
       </c>
       <c r="V200" t="s">
         <v>759</v>
@@ -19476,15 +19728,15 @@
         <v>16</v>
       </c>
       <c r="X200">
-        <v>1624</v>
+        <v>4013</v>
       </c>
       <c r="AA200" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="201" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A201" s="13" t="s">
-        <v>810</v>
+        <v>1120</v>
       </c>
       <c r="B201" s="7">
         <v>2382</v>
@@ -19493,7 +19745,7 @@
         <v>754</v>
       </c>
       <c r="D201" s="5">
-        <v>43642</v>
+        <v>43628</v>
       </c>
       <c r="E201" s="5" t="s">
         <v>843</v>
@@ -19514,19 +19766,19 @@
         <v>756</v>
       </c>
       <c r="L201" s="7" t="s">
-        <v>858</v>
+        <v>1143</v>
       </c>
       <c r="M201" s="10" t="s">
-        <v>498</v>
+        <v>1126</v>
       </c>
       <c r="N201" s="11" t="s">
-        <v>846</v>
+        <v>1151</v>
       </c>
       <c r="O201">
         <v>1</v>
       </c>
       <c r="P201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q201">
         <v>0</v>
@@ -19541,7 +19793,7 @@
         <v>0</v>
       </c>
       <c r="U201" t="s">
-        <v>757</v>
+        <v>1029</v>
       </c>
       <c r="V201" t="s">
         <v>759</v>
@@ -19555,16 +19807,10 @@
       <c r="AA201" t="s">
         <v>86</v>
       </c>
-      <c r="AB201" t="s">
-        <v>852</v>
-      </c>
-      <c r="AD201" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="202" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A202" s="13" t="s">
-        <v>811</v>
+        <v>1121</v>
       </c>
       <c r="B202" s="7">
         <v>2382</v>
@@ -19573,7 +19819,7 @@
         <v>754</v>
       </c>
       <c r="D202" s="5">
-        <v>43643</v>
+        <v>43632</v>
       </c>
       <c r="E202" s="5" t="s">
         <v>843</v>
@@ -19594,13 +19840,13 @@
         <v>756</v>
       </c>
       <c r="L202" s="7" t="s">
-        <v>859</v>
+        <v>1144</v>
       </c>
       <c r="M202" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="N202" s="9" t="s">
-        <v>864</v>
+        <v>1127</v>
+      </c>
+      <c r="N202" s="11" t="s">
+        <v>1150</v>
       </c>
       <c r="O202">
         <v>1</v>
@@ -19609,7 +19855,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R202">
         <v>0</v>
@@ -19621,7 +19867,7 @@
         <v>0</v>
       </c>
       <c r="U202" t="s">
-        <v>757</v>
+        <v>1029</v>
       </c>
       <c r="V202" t="s">
         <v>759</v>
@@ -19630,15 +19876,15 @@
         <v>16</v>
       </c>
       <c r="X202">
-        <v>1624</v>
+        <v>4013</v>
       </c>
       <c r="AA202" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="203" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A203" s="13" t="s">
-        <v>812</v>
+        <v>1122</v>
       </c>
       <c r="B203" s="7">
         <v>2382</v>
@@ -19647,7 +19893,7 @@
         <v>754</v>
       </c>
       <c r="D203" s="5">
-        <v>43644</v>
+        <v>43633</v>
       </c>
       <c r="E203" s="5" t="s">
         <v>843</v>
@@ -19668,13 +19914,13 @@
         <v>756</v>
       </c>
       <c r="L203" s="7" t="s">
-        <v>859</v>
+        <v>1144</v>
       </c>
       <c r="M203" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="N203" s="9" t="s">
-        <v>865</v>
+        <v>1127</v>
+      </c>
+      <c r="N203" s="11" t="s">
+        <v>1149</v>
       </c>
       <c r="O203">
         <v>1</v>
@@ -19695,7 +19941,7 @@
         <v>0</v>
       </c>
       <c r="U203" t="s">
-        <v>757</v>
+        <v>1029</v>
       </c>
       <c r="V203" t="s">
         <v>759</v>
@@ -19704,15 +19950,15 @@
         <v>16</v>
       </c>
       <c r="X203">
-        <v>1624</v>
+        <v>4013</v>
       </c>
       <c r="AA203" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="204" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A204" s="13" t="s">
-        <v>813</v>
+        <v>1123</v>
       </c>
       <c r="B204" s="7">
         <v>2382</v>
@@ -19721,7 +19967,7 @@
         <v>754</v>
       </c>
       <c r="D204" s="5">
-        <v>43646</v>
+        <v>43634</v>
       </c>
       <c r="E204" s="5" t="s">
         <v>843</v>
@@ -19742,13 +19988,13 @@
         <v>756</v>
       </c>
       <c r="L204" s="7" t="s">
-        <v>859</v>
+        <v>1144</v>
       </c>
       <c r="M204" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="N204" s="9" t="s">
-        <v>866</v>
+        <v>1127</v>
+      </c>
+      <c r="N204" s="11" t="s">
+        <v>1148</v>
       </c>
       <c r="O204">
         <v>1</v>
@@ -19757,7 +20003,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R204">
         <v>0</v>
@@ -19769,7 +20015,7 @@
         <v>0</v>
       </c>
       <c r="U204" t="s">
-        <v>757</v>
+        <v>1029</v>
       </c>
       <c r="V204" t="s">
         <v>759</v>
@@ -19778,15 +20024,15 @@
         <v>16</v>
       </c>
       <c r="X204">
-        <v>1624</v>
+        <v>4013</v>
       </c>
       <c r="AA204" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="205" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A205" s="13" t="s">
-        <v>814</v>
+        <v>1124</v>
       </c>
       <c r="B205" s="7">
         <v>2382</v>
@@ -19795,7 +20041,7 @@
         <v>754</v>
       </c>
       <c r="D205" s="5">
-        <v>43647</v>
+        <v>43635</v>
       </c>
       <c r="E205" s="5" t="s">
         <v>843</v>
@@ -19816,13 +20062,13 @@
         <v>756</v>
       </c>
       <c r="L205" s="7" t="s">
-        <v>859</v>
+        <v>1145</v>
       </c>
       <c r="M205" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="N205" s="9" t="s">
-        <v>867</v>
+        <v>1127</v>
+      </c>
+      <c r="N205" s="11" t="s">
+        <v>1147</v>
       </c>
       <c r="O205">
         <v>1</v>
@@ -19843,7 +20089,7 @@
         <v>0</v>
       </c>
       <c r="U205" t="s">
-        <v>757</v>
+        <v>1029</v>
       </c>
       <c r="V205" t="s">
         <v>759</v>
@@ -19852,15 +20098,15 @@
         <v>16</v>
       </c>
       <c r="X205">
-        <v>1624</v>
+        <v>4013</v>
       </c>
       <c r="AA205" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="206" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A206" s="13" t="s">
-        <v>815</v>
+        <v>1125</v>
       </c>
       <c r="B206" s="7">
         <v>2382</v>
@@ -19869,7 +20115,7 @@
         <v>754</v>
       </c>
       <c r="D206" s="5">
-        <v>43648</v>
+        <v>43636</v>
       </c>
       <c r="E206" s="5" t="s">
         <v>843</v>
@@ -19890,19 +20136,19 @@
         <v>756</v>
       </c>
       <c r="L206" s="7" t="s">
-        <v>859</v>
+        <v>1145</v>
       </c>
       <c r="M206" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="N206" s="9" t="s">
-        <v>847</v>
+        <v>1127</v>
+      </c>
+      <c r="N206" s="11" t="s">
+        <v>1146</v>
       </c>
       <c r="O206">
         <v>1</v>
       </c>
       <c r="P206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q206">
         <v>0</v>
@@ -19917,7 +20163,7 @@
         <v>0</v>
       </c>
       <c r="U206" t="s">
-        <v>757</v>
+        <v>1029</v>
       </c>
       <c r="V206" t="s">
         <v>759</v>
@@ -19926,18 +20172,15 @@
         <v>16</v>
       </c>
       <c r="X206">
-        <v>1624</v>
+        <v>4013</v>
       </c>
       <c r="AA206" t="s">
         <v>86</v>
       </c>
-      <c r="AD206" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="207" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A207" s="13" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="B207" s="7">
         <v>2382</v>
@@ -19946,7 +20189,7 @@
         <v>754</v>
       </c>
       <c r="D207" s="5">
-        <v>43649</v>
+        <v>43639</v>
       </c>
       <c r="E207" s="5" t="s">
         <v>843</v>
@@ -19967,13 +20210,13 @@
         <v>756</v>
       </c>
       <c r="L207" s="7" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="M207" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="N207" s="9" t="s">
-        <v>868</v>
+        <v>845</v>
+      </c>
+      <c r="N207" s="11" t="s">
+        <v>861</v>
       </c>
       <c r="O207">
         <v>1</v>
@@ -20003,15 +20246,18 @@
         <v>16</v>
       </c>
       <c r="X207">
-        <v>1624</v>
+        <v>4013</v>
       </c>
       <c r="AA207" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="208" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AB207" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="208" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A208" s="13" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="B208" s="7">
         <v>2382</v>
@@ -20020,7 +20266,7 @@
         <v>754</v>
       </c>
       <c r="D208" s="5">
-        <v>43653</v>
+        <v>43640</v>
       </c>
       <c r="E208" s="5" t="s">
         <v>843</v>
@@ -20041,13 +20287,13 @@
         <v>756</v>
       </c>
       <c r="L208" s="7" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="M208" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N208" s="9" t="s">
-        <v>869</v>
+      <c r="N208" s="11" t="s">
+        <v>862</v>
       </c>
       <c r="O208">
         <v>1</v>
@@ -20077,15 +20323,18 @@
         <v>16</v>
       </c>
       <c r="X208">
-        <v>1624</v>
+        <v>4013</v>
       </c>
       <c r="AA208" t="s">
         <v>86</v>
+      </c>
+      <c r="AB208" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="209" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A209" s="13" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="B209" s="7">
         <v>2382</v>
@@ -20094,7 +20343,7 @@
         <v>754</v>
       </c>
       <c r="D209" s="5">
-        <v>43654</v>
+        <v>43641</v>
       </c>
       <c r="E209" s="5" t="s">
         <v>843</v>
@@ -20115,13 +20364,13 @@
         <v>756</v>
       </c>
       <c r="L209" s="7" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="M209" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N209" s="9" t="s">
-        <v>870</v>
+      <c r="N209" s="11" t="s">
+        <v>863</v>
       </c>
       <c r="O209">
         <v>1</v>
@@ -20159,7 +20408,7 @@
     </row>
     <row r="210" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A210" s="13" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="B210" s="7">
         <v>2382</v>
@@ -20168,7 +20417,7 @@
         <v>754</v>
       </c>
       <c r="D210" s="5">
-        <v>43655</v>
+        <v>43642</v>
       </c>
       <c r="E210" s="5" t="s">
         <v>843</v>
@@ -20189,19 +20438,19 @@
         <v>756</v>
       </c>
       <c r="L210" s="7" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="M210" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N210" s="9" t="s">
-        <v>871</v>
+      <c r="N210" s="11" t="s">
+        <v>846</v>
       </c>
       <c r="O210">
         <v>1</v>
       </c>
       <c r="P210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q210">
         <v>0</v>
@@ -20225,15 +20474,21 @@
         <v>16</v>
       </c>
       <c r="X210">
-        <v>1624</v>
+        <v>4013</v>
       </c>
       <c r="AA210" t="s">
         <v>86</v>
+      </c>
+      <c r="AB210" t="s">
+        <v>852</v>
+      </c>
+      <c r="AD210" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="211" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A211" s="13" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="B211" s="7">
         <v>2382</v>
@@ -20242,7 +20497,7 @@
         <v>754</v>
       </c>
       <c r="D211" s="5">
-        <v>43658</v>
+        <v>43643</v>
       </c>
       <c r="E211" s="5" t="s">
         <v>843</v>
@@ -20263,13 +20518,13 @@
         <v>756</v>
       </c>
       <c r="L211" s="7" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="M211" s="10" t="s">
         <v>498</v>
       </c>
       <c r="N211" s="9" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="O211">
         <v>1</v>
@@ -20307,7 +20562,7 @@
     </row>
     <row r="212" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A212" s="13" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="B212" s="7">
         <v>2382</v>
@@ -20316,7 +20571,7 @@
         <v>754</v>
       </c>
       <c r="D212" s="5">
-        <v>43660</v>
+        <v>43644</v>
       </c>
       <c r="E212" s="5" t="s">
         <v>843</v>
@@ -20337,13 +20592,13 @@
         <v>756</v>
       </c>
       <c r="L212" s="7" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="M212" s="10" t="s">
         <v>498</v>
       </c>
       <c r="N212" s="9" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="O212">
         <v>1</v>
@@ -20381,7 +20636,7 @@
     </row>
     <row r="213" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A213" s="13" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="B213" s="7">
         <v>2382</v>
@@ -20390,7 +20645,7 @@
         <v>754</v>
       </c>
       <c r="D213" s="5">
-        <v>43661</v>
+        <v>43646</v>
       </c>
       <c r="E213" s="5" t="s">
         <v>843</v>
@@ -20411,13 +20666,13 @@
         <v>756</v>
       </c>
       <c r="L213" s="7" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="M213" s="10" t="s">
         <v>498</v>
       </c>
       <c r="N213" s="9" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="O213">
         <v>1</v>
@@ -20455,7 +20710,7 @@
     </row>
     <row r="214" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A214" s="13" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="B214" s="7">
         <v>2382</v>
@@ -20464,7 +20719,7 @@
         <v>754</v>
       </c>
       <c r="D214" s="5">
-        <v>43662</v>
+        <v>43647</v>
       </c>
       <c r="E214" s="5" t="s">
         <v>843</v>
@@ -20485,13 +20740,13 @@
         <v>756</v>
       </c>
       <c r="L214" s="7" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="M214" s="10" t="s">
         <v>498</v>
       </c>
       <c r="N214" s="9" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="O214">
         <v>1</v>
@@ -20529,7 +20784,7 @@
     </row>
     <row r="215" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A215" s="13" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="B215" s="7">
         <v>2382</v>
@@ -20538,7 +20793,7 @@
         <v>754</v>
       </c>
       <c r="D215" s="5">
-        <v>43664</v>
+        <v>43648</v>
       </c>
       <c r="E215" s="5" t="s">
         <v>843</v>
@@ -20559,19 +20814,19 @@
         <v>756</v>
       </c>
       <c r="L215" s="7" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="M215" s="10" t="s">
         <v>498</v>
       </c>
       <c r="N215" s="9" t="s">
-        <v>876</v>
+        <v>847</v>
       </c>
       <c r="O215">
         <v>1</v>
       </c>
       <c r="P215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q215">
         <v>0</v>
@@ -20600,10 +20855,13 @@
       <c r="AA215" t="s">
         <v>86</v>
       </c>
+      <c r="AD215" t="s">
+        <v>854</v>
+      </c>
     </row>
     <row r="216" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A216" s="13" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="B216" s="7">
         <v>2382</v>
@@ -20612,7 +20870,7 @@
         <v>754</v>
       </c>
       <c r="D216" s="5">
-        <v>43667</v>
+        <v>43649</v>
       </c>
       <c r="E216" s="5" t="s">
         <v>843</v>
@@ -20639,7 +20897,7 @@
         <v>498</v>
       </c>
       <c r="N216" s="9" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="O216">
         <v>1</v>
@@ -20677,7 +20935,7 @@
     </row>
     <row r="217" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A217" s="13" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="B217" s="7">
         <v>2382</v>
@@ -20686,7 +20944,7 @@
         <v>754</v>
       </c>
       <c r="D217" s="5">
-        <v>43668</v>
+        <v>43653</v>
       </c>
       <c r="E217" s="5" t="s">
         <v>843</v>
@@ -20713,7 +20971,7 @@
         <v>498</v>
       </c>
       <c r="N217" s="9" t="s">
-        <v>848</v>
+        <v>869</v>
       </c>
       <c r="O217">
         <v>1</v>
@@ -20751,7 +21009,7 @@
     </row>
     <row r="218" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A218" s="13" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="B218" s="7">
         <v>2382</v>
@@ -20760,7 +21018,7 @@
         <v>754</v>
       </c>
       <c r="D218" s="5">
-        <v>43670</v>
+        <v>43654</v>
       </c>
       <c r="E218" s="5" t="s">
         <v>843</v>
@@ -20787,7 +21045,7 @@
         <v>498</v>
       </c>
       <c r="N218" s="9" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="O218">
         <v>1</v>
@@ -20825,7 +21083,7 @@
     </row>
     <row r="219" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A219" s="13" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="B219" s="7">
         <v>2382</v>
@@ -20834,7 +21092,7 @@
         <v>754</v>
       </c>
       <c r="D219" s="5">
-        <v>43671</v>
+        <v>43655</v>
       </c>
       <c r="E219" s="5" t="s">
         <v>843</v>
@@ -20861,7 +21119,7 @@
         <v>498</v>
       </c>
       <c r="N219" s="9" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="O219">
         <v>1</v>
@@ -20899,7 +21157,7 @@
     </row>
     <row r="220" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A220" s="13" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="B220" s="7">
         <v>2382</v>
@@ -20908,7 +21166,7 @@
         <v>754</v>
       </c>
       <c r="D220" s="5">
-        <v>43674</v>
+        <v>43658</v>
       </c>
       <c r="E220" s="5" t="s">
         <v>843</v>
@@ -20935,7 +21193,7 @@
         <v>498</v>
       </c>
       <c r="N220" s="9" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="O220">
         <v>1</v>
@@ -20973,7 +21231,7 @@
     </row>
     <row r="221" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A221" s="13" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="B221" s="7">
         <v>2382</v>
@@ -20982,7 +21240,7 @@
         <v>754</v>
       </c>
       <c r="D221" s="5">
-        <v>43675</v>
+        <v>43660</v>
       </c>
       <c r="E221" s="5" t="s">
         <v>843</v>
@@ -21009,7 +21267,7 @@
         <v>498</v>
       </c>
       <c r="N221" s="9" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="O221">
         <v>1</v>
@@ -21047,7 +21305,7 @@
     </row>
     <row r="222" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A222" s="13" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="B222" s="7">
         <v>2382</v>
@@ -21056,7 +21314,7 @@
         <v>754</v>
       </c>
       <c r="D222" s="5">
-        <v>43676</v>
+        <v>43661</v>
       </c>
       <c r="E222" s="5" t="s">
         <v>843</v>
@@ -21083,7 +21341,7 @@
         <v>498</v>
       </c>
       <c r="N222" s="9" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="O222">
         <v>1</v>
@@ -21121,7 +21379,7 @@
     </row>
     <row r="223" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A223" s="13" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="B223" s="7">
         <v>2382</v>
@@ -21130,7 +21388,7 @@
         <v>754</v>
       </c>
       <c r="D223" s="5">
-        <v>43677</v>
+        <v>43662</v>
       </c>
       <c r="E223" s="5" t="s">
         <v>843</v>
@@ -21157,7 +21415,7 @@
         <v>498</v>
       </c>
       <c r="N223" s="9" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="O223">
         <v>1</v>
@@ -21195,7 +21453,7 @@
     </row>
     <row r="224" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A224" s="13" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="B224" s="7">
         <v>2382</v>
@@ -21204,7 +21462,7 @@
         <v>754</v>
       </c>
       <c r="D224" s="5">
-        <v>43678</v>
+        <v>43664</v>
       </c>
       <c r="E224" s="5" t="s">
         <v>843</v>
@@ -21231,7 +21489,7 @@
         <v>498</v>
       </c>
       <c r="N224" s="9" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="O224">
         <v>1</v>
@@ -21266,13 +21524,10 @@
       <c r="AA224" t="s">
         <v>86</v>
       </c>
-      <c r="AD224" t="s">
-        <v>855</v>
-      </c>
     </row>
     <row r="225" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A225" s="13" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="B225" s="7">
         <v>2382</v>
@@ -21281,7 +21536,7 @@
         <v>754</v>
       </c>
       <c r="D225" s="5">
-        <v>43681</v>
+        <v>43667</v>
       </c>
       <c r="E225" s="5" t="s">
         <v>843</v>
@@ -21308,7 +21563,7 @@
         <v>498</v>
       </c>
       <c r="N225" s="9" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="O225">
         <v>1</v>
@@ -21346,7 +21601,7 @@
     </row>
     <row r="226" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A226" s="13" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="B226" s="7">
         <v>2382</v>
@@ -21355,7 +21610,7 @@
         <v>754</v>
       </c>
       <c r="D226" s="5">
-        <v>43682</v>
+        <v>43668</v>
       </c>
       <c r="E226" s="5" t="s">
         <v>843</v>
@@ -21382,7 +21637,7 @@
         <v>498</v>
       </c>
       <c r="N226" s="9" t="s">
-        <v>886</v>
+        <v>848</v>
       </c>
       <c r="O226">
         <v>1</v>
@@ -21420,7 +21675,7 @@
     </row>
     <row r="227" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A227" s="13" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="B227" s="7">
         <v>2382</v>
@@ -21429,7 +21684,7 @@
         <v>754</v>
       </c>
       <c r="D227" s="5">
-        <v>43684</v>
+        <v>43670</v>
       </c>
       <c r="E227" s="5" t="s">
         <v>843</v>
@@ -21456,7 +21711,7 @@
         <v>498</v>
       </c>
       <c r="N227" s="9" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="O227">
         <v>1</v>
@@ -21494,7 +21749,7 @@
     </row>
     <row r="228" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A228" s="13" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="B228" s="7">
         <v>2382</v>
@@ -21503,7 +21758,7 @@
         <v>754</v>
       </c>
       <c r="D228" s="5">
-        <v>43685</v>
+        <v>43671</v>
       </c>
       <c r="E228" s="5" t="s">
         <v>843</v>
@@ -21530,7 +21785,7 @@
         <v>498</v>
       </c>
       <c r="N228" s="9" t="s">
-        <v>888</v>
+        <v>879</v>
       </c>
       <c r="O228">
         <v>1</v>
@@ -21568,7 +21823,7 @@
     </row>
     <row r="229" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A229" s="13" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="B229" s="7">
         <v>2382</v>
@@ -21577,7 +21832,7 @@
         <v>754</v>
       </c>
       <c r="D229" s="5">
-        <v>43688</v>
+        <v>43674</v>
       </c>
       <c r="E229" s="5" t="s">
         <v>843</v>
@@ -21604,7 +21859,7 @@
         <v>498</v>
       </c>
       <c r="N229" s="9" t="s">
-        <v>849</v>
+        <v>880</v>
       </c>
       <c r="O229">
         <v>1</v>
@@ -21642,7 +21897,7 @@
     </row>
     <row r="230" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A230" s="13" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="B230" s="7">
         <v>2382</v>
@@ -21651,7 +21906,7 @@
         <v>754</v>
       </c>
       <c r="D230" s="5">
-        <v>43689</v>
+        <v>43675</v>
       </c>
       <c r="E230" s="5" t="s">
         <v>843</v>
@@ -21678,7 +21933,7 @@
         <v>498</v>
       </c>
       <c r="N230" s="9" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="O230">
         <v>1</v>
@@ -21716,7 +21971,7 @@
     </row>
     <row r="231" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A231" s="13" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="B231" s="7">
         <v>2382</v>
@@ -21725,7 +21980,7 @@
         <v>754</v>
       </c>
       <c r="D231" s="5">
-        <v>43690</v>
+        <v>43676</v>
       </c>
       <c r="E231" s="5" t="s">
         <v>843</v>
@@ -21752,7 +22007,7 @@
         <v>498</v>
       </c>
       <c r="N231" s="9" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="O231">
         <v>1</v>
@@ -21787,13 +22042,10 @@
       <c r="AA231" t="s">
         <v>86</v>
       </c>
-      <c r="AB231" t="s">
-        <v>856</v>
-      </c>
     </row>
     <row r="232" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A232" s="13" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="B232" s="7">
         <v>2382</v>
@@ -21802,7 +22054,7 @@
         <v>754</v>
       </c>
       <c r="D232" s="5">
-        <v>43691</v>
+        <v>43677</v>
       </c>
       <c r="E232" s="5" t="s">
         <v>843</v>
@@ -21829,7 +22081,7 @@
         <v>498</v>
       </c>
       <c r="N232" s="9" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="O232">
         <v>1</v>
@@ -21864,49 +22116,46 @@
       <c r="AA232" t="s">
         <v>86</v>
       </c>
-      <c r="AB232" t="s">
-        <v>857</v>
-      </c>
     </row>
     <row r="233" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A233" s="13" t="s">
-        <v>892</v>
+        <v>833</v>
       </c>
       <c r="B233" s="7">
-        <v>194</v>
+        <v>2382</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D233" s="5">
-        <v>43219</v>
-      </c>
-      <c r="E233" s="4" t="s">
-        <v>844</v>
+        <v>43678</v>
+      </c>
+      <c r="E233" s="5" t="s">
+        <v>843</v>
       </c>
       <c r="F233" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H233">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I233" t="s">
-        <v>679</v>
+        <v>758</v>
       </c>
       <c r="J233" s="1" t="s">
-        <v>7</v>
+        <v>755</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L233" t="s">
-        <v>928</v>
+        <v>756</v>
+      </c>
+      <c r="L233" s="7" t="s">
+        <v>860</v>
       </c>
       <c r="M233" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N233" s="14" t="s">
-        <v>927</v>
+      <c r="N233" s="9" t="s">
+        <v>884</v>
       </c>
       <c r="O233">
         <v>1</v>
@@ -21921,19 +22170,19 @@
         <v>0</v>
       </c>
       <c r="S233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T233">
         <v>0</v>
       </c>
       <c r="U233" t="s">
-        <v>9</v>
+        <v>757</v>
       </c>
       <c r="V233" t="s">
-        <v>500</v>
+        <v>759</v>
       </c>
       <c r="W233">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="X233">
         <v>1624</v>
@@ -21941,46 +22190,49 @@
       <c r="AA233" t="s">
         <v>86</v>
       </c>
+      <c r="AD233" t="s">
+        <v>855</v>
+      </c>
     </row>
     <row r="234" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A234" s="13" t="s">
-        <v>893</v>
+        <v>834</v>
       </c>
       <c r="B234" s="7">
-        <v>194</v>
+        <v>2382</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D234" s="5">
-        <v>43221</v>
-      </c>
-      <c r="E234" s="4" t="s">
-        <v>844</v>
+        <v>43681</v>
+      </c>
+      <c r="E234" s="5" t="s">
+        <v>843</v>
       </c>
       <c r="F234" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H234">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I234" t="s">
-        <v>679</v>
+        <v>758</v>
       </c>
       <c r="J234" s="1" t="s">
-        <v>7</v>
+        <v>755</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L234" t="s">
-        <v>928</v>
+        <v>756</v>
+      </c>
+      <c r="L234" s="7" t="s">
+        <v>860</v>
       </c>
       <c r="M234" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N234" s="14" t="s">
-        <v>929</v>
+      <c r="N234" s="9" t="s">
+        <v>885</v>
       </c>
       <c r="O234">
         <v>1</v>
@@ -21995,19 +22247,19 @@
         <v>0</v>
       </c>
       <c r="S234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T234">
         <v>0</v>
       </c>
       <c r="U234" t="s">
-        <v>9</v>
+        <v>757</v>
       </c>
       <c r="V234" t="s">
-        <v>500</v>
+        <v>759</v>
       </c>
       <c r="W234">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="X234">
         <v>1624</v>
@@ -22015,52 +22267,46 @@
       <c r="AA234" t="s">
         <v>86</v>
       </c>
-      <c r="AB234" t="s">
-        <v>924</v>
-      </c>
-      <c r="AD234" t="s">
-        <v>924</v>
-      </c>
     </row>
     <row r="235" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A235" s="13" t="s">
-        <v>894</v>
+        <v>835</v>
       </c>
       <c r="B235" s="7">
-        <v>194</v>
+        <v>2382</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D235" s="5">
-        <v>43222</v>
-      </c>
-      <c r="E235" s="4" t="s">
-        <v>844</v>
+        <v>43682</v>
+      </c>
+      <c r="E235" s="5" t="s">
+        <v>843</v>
       </c>
       <c r="F235" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H235">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I235" t="s">
-        <v>679</v>
+        <v>758</v>
       </c>
       <c r="J235" s="1" t="s">
-        <v>7</v>
+        <v>755</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L235" t="s">
-        <v>928</v>
+        <v>756</v>
+      </c>
+      <c r="L235" s="7" t="s">
+        <v>860</v>
       </c>
       <c r="M235" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N235" s="14" t="s">
-        <v>930</v>
+      <c r="N235" s="9" t="s">
+        <v>886</v>
       </c>
       <c r="O235">
         <v>1</v>
@@ -22075,19 +22321,19 @@
         <v>0</v>
       </c>
       <c r="S235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T235">
         <v>0</v>
       </c>
       <c r="U235" t="s">
-        <v>9</v>
+        <v>757</v>
       </c>
       <c r="V235" t="s">
-        <v>500</v>
+        <v>759</v>
       </c>
       <c r="W235">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="X235">
         <v>1624</v>
@@ -22098,43 +22344,43 @@
     </row>
     <row r="236" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A236" s="13" t="s">
-        <v>895</v>
+        <v>836</v>
       </c>
       <c r="B236" s="7">
-        <v>194</v>
+        <v>2382</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D236" s="5">
-        <v>43223</v>
-      </c>
-      <c r="E236" s="4" t="s">
-        <v>844</v>
+        <v>43684</v>
+      </c>
+      <c r="E236" s="5" t="s">
+        <v>843</v>
       </c>
       <c r="F236" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H236">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I236" t="s">
-        <v>679</v>
+        <v>758</v>
       </c>
       <c r="J236" s="1" t="s">
-        <v>7</v>
+        <v>755</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L236" t="s">
-        <v>928</v>
+        <v>756</v>
+      </c>
+      <c r="L236" s="7" t="s">
+        <v>860</v>
       </c>
       <c r="M236" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N236" s="14" t="s">
-        <v>931</v>
+      <c r="N236" s="9" t="s">
+        <v>887</v>
       </c>
       <c r="O236">
         <v>1</v>
@@ -22149,19 +22395,19 @@
         <v>0</v>
       </c>
       <c r="S236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T236">
         <v>0</v>
       </c>
       <c r="U236" t="s">
-        <v>9</v>
+        <v>757</v>
       </c>
       <c r="V236" t="s">
-        <v>500</v>
+        <v>759</v>
       </c>
       <c r="W236">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="X236">
         <v>1624</v>
@@ -22172,43 +22418,43 @@
     </row>
     <row r="237" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A237" s="13" t="s">
-        <v>896</v>
+        <v>837</v>
       </c>
       <c r="B237" s="7">
-        <v>194</v>
+        <v>2382</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D237" s="5">
-        <v>43225</v>
-      </c>
-      <c r="E237" s="4" t="s">
-        <v>844</v>
+        <v>43685</v>
+      </c>
+      <c r="E237" s="5" t="s">
+        <v>843</v>
       </c>
       <c r="F237" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H237">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I237" t="s">
-        <v>679</v>
+        <v>758</v>
       </c>
       <c r="J237" s="1" t="s">
-        <v>7</v>
+        <v>755</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L237" t="s">
-        <v>928</v>
+        <v>756</v>
+      </c>
+      <c r="L237" s="7" t="s">
+        <v>860</v>
       </c>
       <c r="M237" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N237" s="14" t="s">
-        <v>932</v>
+      <c r="N237" s="9" t="s">
+        <v>888</v>
       </c>
       <c r="O237">
         <v>1</v>
@@ -22223,19 +22469,19 @@
         <v>0</v>
       </c>
       <c r="S237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T237">
         <v>0</v>
       </c>
       <c r="U237" t="s">
-        <v>9</v>
+        <v>757</v>
       </c>
       <c r="V237" t="s">
-        <v>500</v>
+        <v>759</v>
       </c>
       <c r="W237">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="X237">
         <v>1624</v>
@@ -22246,43 +22492,43 @@
     </row>
     <row r="238" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A238" s="13" t="s">
-        <v>897</v>
+        <v>838</v>
       </c>
       <c r="B238" s="7">
-        <v>194</v>
+        <v>2382</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D238" s="5">
-        <v>43227</v>
-      </c>
-      <c r="E238" s="4" t="s">
-        <v>844</v>
+        <v>43688</v>
+      </c>
+      <c r="E238" s="5" t="s">
+        <v>843</v>
       </c>
       <c r="F238" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H238">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I238" t="s">
-        <v>679</v>
+        <v>758</v>
       </c>
       <c r="J238" s="1" t="s">
-        <v>7</v>
+        <v>755</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L238" t="s">
-        <v>928</v>
+        <v>756</v>
+      </c>
+      <c r="L238" s="7" t="s">
+        <v>860</v>
       </c>
       <c r="M238" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N238" s="14" t="s">
-        <v>918</v>
+      <c r="N238" s="9" t="s">
+        <v>849</v>
       </c>
       <c r="O238">
         <v>1</v>
@@ -22297,19 +22543,19 @@
         <v>0</v>
       </c>
       <c r="S238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T238">
         <v>0</v>
       </c>
       <c r="U238" t="s">
-        <v>9</v>
+        <v>757</v>
       </c>
       <c r="V238" t="s">
-        <v>500</v>
+        <v>759</v>
       </c>
       <c r="W238">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="X238">
         <v>1624</v>
@@ -22317,52 +22563,46 @@
       <c r="AA238" t="s">
         <v>86</v>
       </c>
-      <c r="AB238" t="s">
-        <v>925</v>
-      </c>
-      <c r="AD238" t="s">
-        <v>925</v>
-      </c>
     </row>
     <row r="239" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A239" s="13" t="s">
-        <v>898</v>
+        <v>839</v>
       </c>
       <c r="B239" s="7">
-        <v>194</v>
+        <v>2382</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D239" s="5">
-        <v>43228</v>
-      </c>
-      <c r="E239" s="4" t="s">
-        <v>844</v>
+        <v>43689</v>
+      </c>
+      <c r="E239" s="5" t="s">
+        <v>843</v>
       </c>
       <c r="F239" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H239">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I239" t="s">
-        <v>679</v>
+        <v>758</v>
       </c>
       <c r="J239" s="1" t="s">
-        <v>7</v>
+        <v>755</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L239" t="s">
-        <v>928</v>
+        <v>756</v>
+      </c>
+      <c r="L239" s="7" t="s">
+        <v>860</v>
       </c>
       <c r="M239" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N239" s="14" t="s">
-        <v>919</v>
+      <c r="N239" s="9" t="s">
+        <v>889</v>
       </c>
       <c r="O239">
         <v>1</v>
@@ -22377,19 +22617,19 @@
         <v>0</v>
       </c>
       <c r="S239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T239">
         <v>0</v>
       </c>
       <c r="U239" t="s">
-        <v>9</v>
+        <v>757</v>
       </c>
       <c r="V239" t="s">
-        <v>500</v>
+        <v>759</v>
       </c>
       <c r="W239">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="X239">
         <v>1624</v>
@@ -22400,43 +22640,43 @@
     </row>
     <row r="240" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A240" s="13" t="s">
-        <v>899</v>
+        <v>840</v>
       </c>
       <c r="B240" s="7">
-        <v>194</v>
+        <v>2382</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D240" s="5">
-        <v>43229</v>
-      </c>
-      <c r="E240" s="4" t="s">
-        <v>844</v>
+        <v>43690</v>
+      </c>
+      <c r="E240" s="5" t="s">
+        <v>843</v>
       </c>
       <c r="F240" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H240">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I240" t="s">
-        <v>679</v>
+        <v>758</v>
       </c>
       <c r="J240" s="1" t="s">
-        <v>7</v>
+        <v>755</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L240" t="s">
-        <v>928</v>
+        <v>756</v>
+      </c>
+      <c r="L240" s="7" t="s">
+        <v>860</v>
       </c>
       <c r="M240" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N240" s="14" t="s">
-        <v>920</v>
+      <c r="N240" s="9" t="s">
+        <v>890</v>
       </c>
       <c r="O240">
         <v>1</v>
@@ -22451,19 +22691,19 @@
         <v>0</v>
       </c>
       <c r="S240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T240">
         <v>0</v>
       </c>
       <c r="U240" t="s">
-        <v>9</v>
+        <v>757</v>
       </c>
       <c r="V240" t="s">
-        <v>500</v>
+        <v>759</v>
       </c>
       <c r="W240">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="X240">
         <v>1624</v>
@@ -22471,46 +22711,49 @@
       <c r="AA240" t="s">
         <v>86</v>
       </c>
+      <c r="AB240" t="s">
+        <v>856</v>
+      </c>
     </row>
     <row r="241" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A241" s="13" t="s">
-        <v>900</v>
+        <v>841</v>
       </c>
       <c r="B241" s="7">
-        <v>194</v>
+        <v>2382</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D241" s="5">
-        <v>43230</v>
-      </c>
-      <c r="E241" s="4" t="s">
-        <v>844</v>
+        <v>43691</v>
+      </c>
+      <c r="E241" s="5" t="s">
+        <v>843</v>
       </c>
       <c r="F241" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H241">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I241" t="s">
-        <v>679</v>
+        <v>758</v>
       </c>
       <c r="J241" s="1" t="s">
-        <v>7</v>
+        <v>755</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L241" t="s">
-        <v>928</v>
+        <v>756</v>
+      </c>
+      <c r="L241" s="7" t="s">
+        <v>860</v>
       </c>
       <c r="M241" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N241" s="14" t="s">
-        <v>933</v>
+      <c r="N241" s="9" t="s">
+        <v>891</v>
       </c>
       <c r="O241">
         <v>1</v>
@@ -22525,19 +22768,19 @@
         <v>0</v>
       </c>
       <c r="S241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T241">
         <v>0</v>
       </c>
       <c r="U241" t="s">
-        <v>9</v>
+        <v>757</v>
       </c>
       <c r="V241" t="s">
-        <v>500</v>
+        <v>759</v>
       </c>
       <c r="W241">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="X241">
         <v>1624</v>
@@ -22545,10 +22788,13 @@
       <c r="AA241" t="s">
         <v>86</v>
       </c>
+      <c r="AB241" t="s">
+        <v>857</v>
+      </c>
     </row>
     <row r="242" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A242" s="13" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
       <c r="B242" s="7">
         <v>194</v>
@@ -22557,7 +22803,7 @@
         <v>754</v>
       </c>
       <c r="D242" s="5">
-        <v>43233</v>
+        <v>43219</v>
       </c>
       <c r="E242" s="4" t="s">
         <v>844</v>
@@ -22584,7 +22830,7 @@
         <v>498</v>
       </c>
       <c r="N242" s="14" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="O242">
         <v>1</v>
@@ -22622,7 +22868,7 @@
     </row>
     <row r="243" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A243" s="13" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="B243" s="7">
         <v>194</v>
@@ -22631,7 +22877,7 @@
         <v>754</v>
       </c>
       <c r="D243" s="5">
-        <v>43234</v>
+        <v>43221</v>
       </c>
       <c r="E243" s="4" t="s">
         <v>844</v>
@@ -22658,7 +22904,7 @@
         <v>498</v>
       </c>
       <c r="N243" s="14" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="O243">
         <v>1</v>
@@ -22693,10 +22939,16 @@
       <c r="AA243" t="s">
         <v>86</v>
       </c>
+      <c r="AB243" t="s">
+        <v>924</v>
+      </c>
+      <c r="AD243" t="s">
+        <v>924</v>
+      </c>
     </row>
     <row r="244" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A244" s="13" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
       <c r="B244" s="7">
         <v>194</v>
@@ -22705,7 +22957,7 @@
         <v>754</v>
       </c>
       <c r="D244" s="5">
-        <v>43235</v>
+        <v>43222</v>
       </c>
       <c r="E244" s="4" t="s">
         <v>844</v>
@@ -22732,7 +22984,7 @@
         <v>498</v>
       </c>
       <c r="N244" s="14" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="O244">
         <v>1</v>
@@ -22770,7 +23022,7 @@
     </row>
     <row r="245" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A245" s="13" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="B245" s="7">
         <v>194</v>
@@ -22779,7 +23031,7 @@
         <v>754</v>
       </c>
       <c r="D245" s="5">
-        <v>43236</v>
+        <v>43223</v>
       </c>
       <c r="E245" s="4" t="s">
         <v>844</v>
@@ -22806,7 +23058,7 @@
         <v>498</v>
       </c>
       <c r="N245" s="14" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="O245">
         <v>1</v>
@@ -22844,7 +23096,7 @@
     </row>
     <row r="246" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A246" s="13" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="B246" s="7">
         <v>194</v>
@@ -22853,7 +23105,7 @@
         <v>754</v>
       </c>
       <c r="D246" s="5">
-        <v>43240</v>
+        <v>43225</v>
       </c>
       <c r="E246" s="4" t="s">
         <v>844</v>
@@ -22880,7 +23132,7 @@
         <v>498</v>
       </c>
       <c r="N246" s="14" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="O246">
         <v>1</v>
@@ -22918,7 +23170,7 @@
     </row>
     <row r="247" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A247" s="13" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
       <c r="B247" s="7">
         <v>194</v>
@@ -22927,7 +23179,7 @@
         <v>754</v>
       </c>
       <c r="D247" s="5">
-        <v>43241</v>
+        <v>43227</v>
       </c>
       <c r="E247" s="4" t="s">
         <v>844</v>
@@ -22954,7 +23206,7 @@
         <v>498</v>
       </c>
       <c r="N247" s="14" t="s">
-        <v>939</v>
+        <v>918</v>
       </c>
       <c r="O247">
         <v>1</v>
@@ -22989,10 +23241,16 @@
       <c r="AA247" t="s">
         <v>86</v>
       </c>
+      <c r="AB247" t="s">
+        <v>925</v>
+      </c>
+      <c r="AD247" t="s">
+        <v>925</v>
+      </c>
     </row>
     <row r="248" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A248" s="13" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="B248" s="7">
         <v>194</v>
@@ -23001,7 +23259,7 @@
         <v>754</v>
       </c>
       <c r="D248" s="5">
-        <v>43242</v>
+        <v>43228</v>
       </c>
       <c r="E248" s="4" t="s">
         <v>844</v>
@@ -23028,7 +23286,7 @@
         <v>498</v>
       </c>
       <c r="N248" s="14" t="s">
-        <v>940</v>
+        <v>919</v>
       </c>
       <c r="O248">
         <v>1</v>
@@ -23066,7 +23324,7 @@
     </row>
     <row r="249" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A249" s="13" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="B249" s="7">
         <v>194</v>
@@ -23075,7 +23333,7 @@
         <v>754</v>
       </c>
       <c r="D249" s="5">
-        <v>43248</v>
+        <v>43229</v>
       </c>
       <c r="E249" s="4" t="s">
         <v>844</v>
@@ -23102,7 +23360,7 @@
         <v>498</v>
       </c>
       <c r="N249" s="14" t="s">
-        <v>941</v>
+        <v>920</v>
       </c>
       <c r="O249">
         <v>1</v>
@@ -23140,7 +23398,7 @@
     </row>
     <row r="250" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A250" s="13" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="B250" s="7">
         <v>194</v>
@@ -23149,7 +23407,7 @@
         <v>754</v>
       </c>
       <c r="D250" s="5">
-        <v>43251</v>
+        <v>43230</v>
       </c>
       <c r="E250" s="4" t="s">
         <v>844</v>
@@ -23176,7 +23434,7 @@
         <v>498</v>
       </c>
       <c r="N250" s="14" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="O250">
         <v>1</v>
@@ -23211,16 +23469,10 @@
       <c r="AA250" t="s">
         <v>86</v>
       </c>
-      <c r="AB250" t="s">
-        <v>926</v>
-      </c>
-      <c r="AD250" t="s">
-        <v>926</v>
-      </c>
     </row>
     <row r="251" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A251" s="13" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="B251" s="7">
         <v>194</v>
@@ -23229,7 +23481,7 @@
         <v>754</v>
       </c>
       <c r="D251" s="5">
-        <v>43255</v>
+        <v>43233</v>
       </c>
       <c r="E251" s="4" t="s">
         <v>844</v>
@@ -23256,7 +23508,7 @@
         <v>498</v>
       </c>
       <c r="N251" s="14" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
       <c r="O251">
         <v>1</v>
@@ -23294,7 +23546,7 @@
     </row>
     <row r="252" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A252" s="13" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="B252" s="7">
         <v>194</v>
@@ -23303,7 +23555,7 @@
         <v>754</v>
       </c>
       <c r="D252" s="5">
-        <v>43256</v>
+        <v>43234</v>
       </c>
       <c r="E252" s="4" t="s">
         <v>844</v>
@@ -23330,7 +23582,7 @@
         <v>498</v>
       </c>
       <c r="N252" s="14" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
       <c r="O252">
         <v>1</v>
@@ -23368,7 +23620,7 @@
     </row>
     <row r="253" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A253" s="13" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="B253" s="7">
         <v>194</v>
@@ -23377,7 +23629,7 @@
         <v>754</v>
       </c>
       <c r="D253" s="5">
-        <v>43257</v>
+        <v>43235</v>
       </c>
       <c r="E253" s="4" t="s">
         <v>844</v>
@@ -23404,7 +23656,7 @@
         <v>498</v>
       </c>
       <c r="N253" s="14" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="O253">
         <v>1</v>
@@ -23442,7 +23694,7 @@
     </row>
     <row r="254" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A254" s="13" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
       <c r="B254" s="7">
         <v>194</v>
@@ -23451,7 +23703,7 @@
         <v>754</v>
       </c>
       <c r="D254" s="5">
-        <v>43258</v>
+        <v>43236</v>
       </c>
       <c r="E254" s="4" t="s">
         <v>844</v>
@@ -23478,7 +23730,7 @@
         <v>498</v>
       </c>
       <c r="N254" s="14" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="O254">
         <v>1</v>
@@ -23516,7 +23768,7 @@
     </row>
     <row r="255" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A255" s="13" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
       <c r="B255" s="7">
         <v>194</v>
@@ -23525,7 +23777,7 @@
         <v>754</v>
       </c>
       <c r="D255" s="5">
-        <v>43261</v>
+        <v>43240</v>
       </c>
       <c r="E255" s="4" t="s">
         <v>844</v>
@@ -23552,7 +23804,7 @@
         <v>498</v>
       </c>
       <c r="N255" s="14" t="s">
-        <v>921</v>
+        <v>938</v>
       </c>
       <c r="O255">
         <v>1</v>
@@ -23590,7 +23842,7 @@
     </row>
     <row r="256" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A256" s="13" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="B256" s="7">
         <v>194</v>
@@ -23599,7 +23851,7 @@
         <v>754</v>
       </c>
       <c r="D256" s="5">
-        <v>43262</v>
+        <v>43241</v>
       </c>
       <c r="E256" s="4" t="s">
         <v>844</v>
@@ -23626,7 +23878,7 @@
         <v>498</v>
       </c>
       <c r="N256" s="14" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="O256">
         <v>1</v>
@@ -23662,9 +23914,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="257" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A257" s="13" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="B257" s="7">
         <v>194</v>
@@ -23673,7 +23925,7 @@
         <v>754</v>
       </c>
       <c r="D257" s="5">
-        <v>43263</v>
+        <v>43242</v>
       </c>
       <c r="E257" s="4" t="s">
         <v>844</v>
@@ -23700,7 +23952,7 @@
         <v>498</v>
       </c>
       <c r="N257" s="14" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
       <c r="O257">
         <v>1</v>
@@ -23736,9 +23988,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="258" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A258" s="13" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="B258" s="7">
         <v>194</v>
@@ -23747,7 +23999,7 @@
         <v>754</v>
       </c>
       <c r="D258" s="5">
-        <v>43265</v>
+        <v>43248</v>
       </c>
       <c r="E258" s="4" t="s">
         <v>844</v>
@@ -23774,7 +24026,7 @@
         <v>498</v>
       </c>
       <c r="N258" s="14" t="s">
-        <v>923</v>
+        <v>941</v>
       </c>
       <c r="O258">
         <v>1</v>
@@ -23810,45 +24062,45 @@
         <v>86</v>
       </c>
     </row>
-    <row r="259" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A259" s="13" t="s">
-        <v>948</v>
+        <v>909</v>
       </c>
       <c r="B259" s="7">
-        <v>2311</v>
+        <v>194</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D259" s="5">
-        <v>43803</v>
+        <v>43251</v>
       </c>
       <c r="E259" s="4" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F259" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H259">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I259" t="s">
-        <v>758</v>
+        <v>679</v>
       </c>
       <c r="J259" s="1" t="s">
-        <v>755</v>
+        <v>7</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>756</v>
+        <v>8</v>
       </c>
       <c r="L259" t="s">
-        <v>986</v>
+        <v>928</v>
       </c>
       <c r="M259" s="10" t="s">
-        <v>963</v>
-      </c>
-      <c r="N259" s="9" t="s">
-        <v>973</v>
+        <v>498</v>
+      </c>
+      <c r="N259" s="14" t="s">
+        <v>942</v>
       </c>
       <c r="O259">
         <v>1</v>
@@ -23857,7 +24109,7 @@
         <v>1</v>
       </c>
       <c r="Q259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R259">
         <v>0</v>
@@ -23869,13 +24121,13 @@
         <v>0</v>
       </c>
       <c r="U259" t="s">
-        <v>1029</v>
+        <v>9</v>
       </c>
       <c r="V259" t="s">
-        <v>759</v>
+        <v>500</v>
       </c>
       <c r="W259">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="X259">
         <v>1624</v>
@@ -23883,46 +24135,52 @@
       <c r="AA259" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="260" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB259" t="s">
+        <v>926</v>
+      </c>
+      <c r="AD259" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="260" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A260" s="13" t="s">
-        <v>949</v>
+        <v>910</v>
       </c>
       <c r="B260" s="7">
-        <v>2311</v>
+        <v>194</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D260" s="5">
-        <v>43808</v>
+        <v>43255</v>
       </c>
       <c r="E260" s="4" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F260" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H260">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I260" t="s">
-        <v>758</v>
+        <v>679</v>
       </c>
       <c r="J260" s="1" t="s">
-        <v>755</v>
+        <v>7</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>756</v>
+        <v>8</v>
       </c>
       <c r="L260" t="s">
-        <v>987</v>
+        <v>928</v>
       </c>
       <c r="M260" s="10" t="s">
-        <v>964</v>
-      </c>
-      <c r="N260" s="9" t="s">
-        <v>974</v>
+        <v>498</v>
+      </c>
+      <c r="N260" s="14" t="s">
+        <v>943</v>
       </c>
       <c r="O260">
         <v>1</v>
@@ -23931,7 +24189,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R260">
         <v>0</v>
@@ -23943,13 +24201,13 @@
         <v>0</v>
       </c>
       <c r="U260" t="s">
-        <v>1029</v>
+        <v>9</v>
       </c>
       <c r="V260" t="s">
-        <v>759</v>
+        <v>500</v>
       </c>
       <c r="W260">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="X260">
         <v>1624</v>
@@ -23957,49 +24215,46 @@
       <c r="AA260" t="s">
         <v>86</v>
       </c>
-      <c r="AB260" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="261" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="261" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A261" s="13" t="s">
-        <v>950</v>
+        <v>911</v>
       </c>
       <c r="B261" s="7">
-        <v>2311</v>
+        <v>194</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D261" s="5">
-        <v>43817</v>
+        <v>43256</v>
       </c>
       <c r="E261" s="4" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F261" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H261">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I261" t="s">
-        <v>758</v>
+        <v>679</v>
       </c>
       <c r="J261" s="1" t="s">
-        <v>755</v>
+        <v>7</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>756</v>
+        <v>8</v>
       </c>
       <c r="L261" t="s">
-        <v>988</v>
+        <v>928</v>
       </c>
       <c r="M261" s="10" t="s">
-        <v>965</v>
-      </c>
-      <c r="N261" s="9" t="s">
-        <v>1080</v>
+        <v>498</v>
+      </c>
+      <c r="N261" s="14" t="s">
+        <v>944</v>
       </c>
       <c r="O261">
         <v>1</v>
@@ -24008,7 +24263,7 @@
         <v>1</v>
       </c>
       <c r="Q261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R261">
         <v>0</v>
@@ -24020,13 +24275,13 @@
         <v>0</v>
       </c>
       <c r="U261" t="s">
-        <v>757</v>
+        <v>9</v>
       </c>
       <c r="V261" t="s">
-        <v>759</v>
+        <v>500</v>
       </c>
       <c r="W261">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="X261">
         <v>1624</v>
@@ -24035,45 +24290,45 @@
         <v>86</v>
       </c>
     </row>
-    <row r="262" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A262" s="13" t="s">
-        <v>951</v>
+        <v>912</v>
       </c>
       <c r="B262" s="7">
-        <v>2311</v>
+        <v>194</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D262" s="5">
-        <v>43818</v>
+        <v>43257</v>
       </c>
       <c r="E262" s="4" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F262" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H262">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I262" t="s">
-        <v>758</v>
+        <v>679</v>
       </c>
       <c r="J262" s="1" t="s">
-        <v>755</v>
+        <v>7</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>756</v>
+        <v>8</v>
       </c>
       <c r="L262" t="s">
-        <v>988</v>
+        <v>928</v>
       </c>
       <c r="M262" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N262" s="9" t="s">
-        <v>1081</v>
+      <c r="N262" s="14" t="s">
+        <v>945</v>
       </c>
       <c r="O262">
         <v>1</v>
@@ -24082,7 +24337,7 @@
         <v>1</v>
       </c>
       <c r="Q262">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R262">
         <v>0</v>
@@ -24094,13 +24349,13 @@
         <v>0</v>
       </c>
       <c r="U262" t="s">
-        <v>757</v>
+        <v>9</v>
       </c>
       <c r="V262" t="s">
-        <v>759</v>
+        <v>500</v>
       </c>
       <c r="W262">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="X262">
         <v>1624</v>
@@ -24109,45 +24364,45 @@
         <v>86</v>
       </c>
     </row>
-    <row r="263" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A263" s="13" t="s">
-        <v>952</v>
+        <v>913</v>
       </c>
       <c r="B263" s="7">
-        <v>2311</v>
+        <v>194</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D263" s="5">
-        <v>43819</v>
+        <v>43258</v>
       </c>
       <c r="E263" s="4" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F263" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H263">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I263" t="s">
-        <v>758</v>
+        <v>679</v>
       </c>
       <c r="J263" s="1" t="s">
-        <v>755</v>
+        <v>7</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>756</v>
+        <v>8</v>
       </c>
       <c r="L263" t="s">
-        <v>988</v>
+        <v>928</v>
       </c>
       <c r="M263" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N263" s="9" t="s">
-        <v>1082</v>
+      <c r="N263" s="14" t="s">
+        <v>946</v>
       </c>
       <c r="O263">
         <v>1</v>
@@ -24156,7 +24411,7 @@
         <v>1</v>
       </c>
       <c r="Q263">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R263">
         <v>0</v>
@@ -24168,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="U263" t="s">
-        <v>757</v>
+        <v>9</v>
       </c>
       <c r="V263" t="s">
-        <v>759</v>
+        <v>500</v>
       </c>
       <c r="W263">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="X263">
         <v>1624</v>
@@ -24183,45 +24438,45 @@
         <v>86</v>
       </c>
     </row>
-    <row r="264" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A264" s="13" t="s">
-        <v>953</v>
+        <v>914</v>
       </c>
       <c r="B264" s="7">
-        <v>2311</v>
+        <v>194</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D264" s="5">
-        <v>43821</v>
+        <v>43261</v>
       </c>
       <c r="E264" s="4" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F264" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H264">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I264" t="s">
-        <v>758</v>
+        <v>679</v>
       </c>
       <c r="J264" s="1" t="s">
-        <v>755</v>
+        <v>7</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>756</v>
+        <v>8</v>
       </c>
       <c r="L264" t="s">
-        <v>988</v>
+        <v>928</v>
       </c>
       <c r="M264" s="10" t="s">
-        <v>966</v>
-      </c>
-      <c r="N264" s="9" t="s">
-        <v>1083</v>
+        <v>498</v>
+      </c>
+      <c r="N264" s="14" t="s">
+        <v>921</v>
       </c>
       <c r="O264">
         <v>1</v>
@@ -24230,7 +24485,7 @@
         <v>1</v>
       </c>
       <c r="Q264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R264">
         <v>0</v>
@@ -24242,13 +24497,13 @@
         <v>0</v>
       </c>
       <c r="U264" t="s">
-        <v>757</v>
+        <v>9</v>
       </c>
       <c r="V264" t="s">
-        <v>759</v>
+        <v>500</v>
       </c>
       <c r="W264">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="X264">
         <v>1624</v>
@@ -24256,49 +24511,46 @@
       <c r="AA264" t="s">
         <v>86</v>
       </c>
-      <c r="AB264" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="265" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A265" s="13" t="s">
-        <v>954</v>
+        <v>915</v>
       </c>
       <c r="B265" s="7">
-        <v>2311</v>
+        <v>194</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D265" s="5">
-        <v>43822</v>
+        <v>43262</v>
       </c>
       <c r="E265" s="4" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F265" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H265">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I265" t="s">
-        <v>758</v>
+        <v>679</v>
       </c>
       <c r="J265" s="1" t="s">
-        <v>755</v>
+        <v>7</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>756</v>
+        <v>8</v>
       </c>
       <c r="L265" t="s">
-        <v>988</v>
+        <v>928</v>
       </c>
       <c r="M265" s="10" t="s">
-        <v>967</v>
-      </c>
-      <c r="N265" s="9" t="s">
-        <v>1084</v>
+        <v>498</v>
+      </c>
+      <c r="N265" s="14" t="s">
+        <v>947</v>
       </c>
       <c r="O265">
         <v>1</v>
@@ -24307,7 +24559,7 @@
         <v>1</v>
       </c>
       <c r="Q265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R265">
         <v>0</v>
@@ -24319,13 +24571,13 @@
         <v>0</v>
       </c>
       <c r="U265" t="s">
-        <v>757</v>
+        <v>9</v>
       </c>
       <c r="V265" t="s">
-        <v>759</v>
+        <v>500</v>
       </c>
       <c r="W265">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="X265">
         <v>1624</v>
@@ -24333,49 +24585,46 @@
       <c r="AA265" t="s">
         <v>86</v>
       </c>
-      <c r="AB265" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="266" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A266" s="13" t="s">
-        <v>955</v>
+        <v>916</v>
       </c>
       <c r="B266" s="7">
-        <v>2311</v>
+        <v>194</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D266" s="5">
-        <v>43823</v>
+        <v>43263</v>
       </c>
       <c r="E266" s="4" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F266" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H266">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I266" t="s">
-        <v>758</v>
+        <v>679</v>
       </c>
       <c r="J266" s="1" t="s">
-        <v>755</v>
+        <v>7</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>756</v>
+        <v>8</v>
       </c>
       <c r="L266" t="s">
-        <v>988</v>
+        <v>928</v>
       </c>
       <c r="M266" s="10" t="s">
-        <v>968</v>
-      </c>
-      <c r="N266" s="9" t="s">
-        <v>1085</v>
+        <v>498</v>
+      </c>
+      <c r="N266" s="14" t="s">
+        <v>922</v>
       </c>
       <c r="O266">
         <v>1</v>
@@ -24384,7 +24633,7 @@
         <v>1</v>
       </c>
       <c r="Q266">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R266">
         <v>0</v>
@@ -24396,13 +24645,13 @@
         <v>0</v>
       </c>
       <c r="U266" t="s">
-        <v>757</v>
+        <v>9</v>
       </c>
       <c r="V266" t="s">
-        <v>759</v>
+        <v>500</v>
       </c>
       <c r="W266">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="X266">
         <v>1624</v>
@@ -24410,49 +24659,46 @@
       <c r="AA266" t="s">
         <v>86</v>
       </c>
-      <c r="AB266" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="267" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="267" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A267" s="13" t="s">
-        <v>956</v>
+        <v>917</v>
       </c>
       <c r="B267" s="7">
-        <v>2311</v>
+        <v>194</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D267" s="5">
-        <v>43824</v>
+        <v>43265</v>
       </c>
       <c r="E267" s="4" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F267" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H267">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I267" t="s">
-        <v>758</v>
+        <v>679</v>
       </c>
       <c r="J267" s="1" t="s">
-        <v>755</v>
+        <v>7</v>
       </c>
       <c r="K267" s="1" t="s">
-        <v>756</v>
+        <v>8</v>
       </c>
       <c r="L267" t="s">
-        <v>988</v>
+        <v>928</v>
       </c>
       <c r="M267" s="10" t="s">
-        <v>969</v>
-      </c>
-      <c r="N267" s="9" t="s">
-        <v>1086</v>
+        <v>498</v>
+      </c>
+      <c r="N267" s="14" t="s">
+        <v>923</v>
       </c>
       <c r="O267">
         <v>1</v>
@@ -24461,7 +24707,7 @@
         <v>1</v>
       </c>
       <c r="Q267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R267">
         <v>0</v>
@@ -24473,13 +24719,13 @@
         <v>0</v>
       </c>
       <c r="U267" t="s">
-        <v>757</v>
+        <v>9</v>
       </c>
       <c r="V267" t="s">
-        <v>759</v>
+        <v>500</v>
       </c>
       <c r="W267">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="X267">
         <v>1624</v>
@@ -24488,9 +24734,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="268" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A268" s="13" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="B268" s="7">
         <v>2311</v>
@@ -24499,7 +24745,7 @@
         <v>754</v>
       </c>
       <c r="D268" s="5">
-        <v>43825</v>
+        <v>43803</v>
       </c>
       <c r="E268" s="4" t="s">
         <v>843</v>
@@ -24520,13 +24766,13 @@
         <v>756</v>
       </c>
       <c r="L268" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="M268" s="10" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="N268" s="9" t="s">
-        <v>1087</v>
+        <v>973</v>
       </c>
       <c r="O268">
         <v>1</v>
@@ -24547,7 +24793,7 @@
         <v>0</v>
       </c>
       <c r="U268" t="s">
-        <v>757</v>
+        <v>1029</v>
       </c>
       <c r="V268" t="s">
         <v>759</v>
@@ -24561,13 +24807,10 @@
       <c r="AA268" t="s">
         <v>86</v>
       </c>
-      <c r="AB268" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="269" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="269" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A269" s="13" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="B269" s="7">
         <v>2311</v>
@@ -24576,7 +24819,7 @@
         <v>754</v>
       </c>
       <c r="D269" s="5">
-        <v>43828</v>
+        <v>43808</v>
       </c>
       <c r="E269" s="4" t="s">
         <v>843</v>
@@ -24597,13 +24840,13 @@
         <v>756</v>
       </c>
       <c r="L269" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="M269" s="10" t="s">
-        <v>498</v>
+        <v>964</v>
       </c>
       <c r="N269" s="9" t="s">
-        <v>1088</v>
+        <v>974</v>
       </c>
       <c r="O269">
         <v>1</v>
@@ -24624,7 +24867,7 @@
         <v>0</v>
       </c>
       <c r="U269" t="s">
-        <v>757</v>
+        <v>1029</v>
       </c>
       <c r="V269" t="s">
         <v>759</v>
@@ -24639,12 +24882,12 @@
         <v>86</v>
       </c>
       <c r="AB269" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="270" spans="1:29" x14ac:dyDescent="0.25">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="270" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A270" s="13" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="B270" s="7">
         <v>2311</v>
@@ -24653,7 +24896,7 @@
         <v>754</v>
       </c>
       <c r="D270" s="5">
-        <v>43829</v>
+        <v>43817</v>
       </c>
       <c r="E270" s="4" t="s">
         <v>843</v>
@@ -24677,10 +24920,10 @@
         <v>988</v>
       </c>
       <c r="M270" s="10" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="N270" s="9" t="s">
-        <v>1089</v>
+        <v>1080</v>
       </c>
       <c r="O270">
         <v>1</v>
@@ -24715,16 +24958,10 @@
       <c r="AA270" t="s">
         <v>86</v>
       </c>
-      <c r="AB270" t="s">
-        <v>981</v>
-      </c>
-      <c r="AC270" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="271" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="271" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A271" s="13" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="B271" s="7">
         <v>2311</v>
@@ -24733,7 +24970,7 @@
         <v>754</v>
       </c>
       <c r="D271" s="5">
-        <v>43830</v>
+        <v>43818</v>
       </c>
       <c r="E271" s="4" t="s">
         <v>843</v>
@@ -24757,10 +24994,10 @@
         <v>988</v>
       </c>
       <c r="M271" s="10" t="s">
-        <v>971</v>
+        <v>498</v>
       </c>
       <c r="N271" s="9" t="s">
-        <v>1090</v>
+        <v>1081</v>
       </c>
       <c r="O271">
         <v>1</v>
@@ -24795,16 +25032,10 @@
       <c r="AA271" t="s">
         <v>86</v>
       </c>
-      <c r="AB271" t="s">
-        <v>983</v>
-      </c>
-      <c r="AC271" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="272" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="272" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A272" s="13" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
       <c r="B272" s="7">
         <v>2311</v>
@@ -24813,7 +25044,7 @@
         <v>754</v>
       </c>
       <c r="D272" s="5">
-        <v>43831</v>
+        <v>43819</v>
       </c>
       <c r="E272" s="4" t="s">
         <v>843</v>
@@ -24837,10 +25068,10 @@
         <v>988</v>
       </c>
       <c r="M272" s="10" t="s">
-        <v>972</v>
+        <v>498</v>
       </c>
       <c r="N272" s="9" t="s">
-        <v>1091</v>
+        <v>1082</v>
       </c>
       <c r="O272">
         <v>1</v>
@@ -24875,13 +25106,10 @@
       <c r="AA272" t="s">
         <v>86</v>
       </c>
-      <c r="AB272" t="s">
-        <v>985</v>
-      </c>
     </row>
     <row r="273" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A273" s="13" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
       <c r="B273" s="7">
         <v>2311</v>
@@ -24890,7 +25118,7 @@
         <v>754</v>
       </c>
       <c r="D273" s="5">
-        <v>43832</v>
+        <v>43821</v>
       </c>
       <c r="E273" s="4" t="s">
         <v>843</v>
@@ -24914,10 +25142,10 @@
         <v>988</v>
       </c>
       <c r="M273" s="10" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="N273" s="9" t="s">
-        <v>1092</v>
+        <v>1083</v>
       </c>
       <c r="O273">
         <v>1</v>
@@ -24952,46 +25180,49 @@
       <c r="AA273" t="s">
         <v>86</v>
       </c>
+      <c r="AB273" t="s">
+        <v>976</v>
+      </c>
     </row>
     <row r="274" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A274" s="13" t="s">
-        <v>989</v>
+        <v>954</v>
       </c>
       <c r="B274" s="7">
-        <v>102</v>
+        <v>2311</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D274" s="5">
-        <v>42992</v>
+        <v>43822</v>
       </c>
       <c r="E274" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F274" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H274">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I274" t="s">
-        <v>679</v>
+        <v>758</v>
       </c>
       <c r="J274" s="1" t="s">
-        <v>7</v>
+        <v>755</v>
       </c>
       <c r="K274" s="1" t="s">
-        <v>8</v>
+        <v>756</v>
       </c>
       <c r="L274" t="s">
-        <v>595</v>
+        <v>988</v>
       </c>
       <c r="M274" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="N274" s="7" t="s">
-        <v>86</v>
+        <v>967</v>
+      </c>
+      <c r="N274" s="9" t="s">
+        <v>1084</v>
       </c>
       <c r="O274">
         <v>1</v>
@@ -25000,7 +25231,7 @@
         <v>1</v>
       </c>
       <c r="Q274">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R274">
         <v>0</v>
@@ -25012,57 +25243,63 @@
         <v>0</v>
       </c>
       <c r="U274" t="s">
-        <v>9</v>
+        <v>757</v>
       </c>
       <c r="V274" t="s">
-        <v>500</v>
+        <v>759</v>
       </c>
       <c r="W274">
-        <v>6</v>
+        <v>40</v>
+      </c>
+      <c r="X274">
+        <v>1624</v>
       </c>
       <c r="AA274" t="s">
         <v>86</v>
+      </c>
+      <c r="AB274" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="275" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A275" s="13" t="s">
-        <v>990</v>
+        <v>955</v>
       </c>
       <c r="B275" s="7">
-        <v>102</v>
+        <v>2311</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D275" s="5">
-        <v>42997</v>
+        <v>43823</v>
       </c>
       <c r="E275" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F275" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H275">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I275" t="s">
-        <v>679</v>
+        <v>758</v>
       </c>
       <c r="J275" s="1" t="s">
-        <v>7</v>
+        <v>755</v>
       </c>
       <c r="K275" s="1" t="s">
-        <v>8</v>
+        <v>756</v>
       </c>
       <c r="L275" t="s">
-        <v>1028</v>
+        <v>988</v>
       </c>
       <c r="M275" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="N275" s="7" t="s">
-        <v>1009</v>
+        <v>968</v>
+      </c>
+      <c r="N275" s="9" t="s">
+        <v>1085</v>
       </c>
       <c r="O275">
         <v>1</v>
@@ -25071,72 +25308,75 @@
         <v>1</v>
       </c>
       <c r="Q275">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S275">
         <v>0</v>
       </c>
       <c r="T275">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U275" t="s">
-        <v>9</v>
+        <v>757</v>
       </c>
       <c r="V275" t="s">
-        <v>500</v>
+        <v>759</v>
       </c>
       <c r="W275">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="X275">
-        <v>3755</v>
+        <v>1624</v>
       </c>
       <c r="AA275" t="s">
         <v>86</v>
+      </c>
+      <c r="AB275" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="276" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A276" s="13" t="s">
-        <v>991</v>
+        <v>956</v>
       </c>
       <c r="B276" s="7">
-        <v>102</v>
+        <v>2311</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D276" s="5">
-        <v>42998</v>
+        <v>43824</v>
       </c>
       <c r="E276" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F276" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H276">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I276" t="s">
-        <v>679</v>
+        <v>758</v>
       </c>
       <c r="J276" s="1" t="s">
-        <v>7</v>
+        <v>755</v>
       </c>
       <c r="K276" s="1" t="s">
-        <v>8</v>
+        <v>756</v>
       </c>
       <c r="L276" t="s">
-        <v>1028</v>
+        <v>988</v>
       </c>
       <c r="M276" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="N276" s="14" t="s">
-        <v>1010</v>
+        <v>969</v>
+      </c>
+      <c r="N276" s="9" t="s">
+        <v>1086</v>
       </c>
       <c r="O276">
         <v>1</v>
@@ -25145,7 +25385,7 @@
         <v>1</v>
       </c>
       <c r="Q276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R276">
         <v>0</v>
@@ -25157,16 +25397,16 @@
         <v>0</v>
       </c>
       <c r="U276" t="s">
-        <v>9</v>
+        <v>757</v>
       </c>
       <c r="V276" t="s">
-        <v>500</v>
+        <v>759</v>
       </c>
       <c r="W276">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="X276">
-        <v>3755</v>
+        <v>1624</v>
       </c>
       <c r="AA276" t="s">
         <v>86</v>
@@ -25174,43 +25414,43 @@
     </row>
     <row r="277" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A277" s="13" t="s">
-        <v>992</v>
+        <v>957</v>
       </c>
       <c r="B277" s="7">
-        <v>102</v>
+        <v>2311</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D277" s="5">
-        <v>43002</v>
+        <v>43825</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F277" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H277">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I277" t="s">
-        <v>679</v>
+        <v>758</v>
       </c>
       <c r="J277" s="1" t="s">
-        <v>7</v>
+        <v>755</v>
       </c>
       <c r="K277" s="1" t="s">
-        <v>8</v>
+        <v>756</v>
       </c>
       <c r="L277" t="s">
-        <v>1028</v>
+        <v>988</v>
       </c>
       <c r="M277" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="N277" s="14" t="s">
-        <v>1011</v>
+        <v>968</v>
+      </c>
+      <c r="N277" s="9" t="s">
+        <v>1087</v>
       </c>
       <c r="O277">
         <v>1</v>
@@ -25219,7 +25459,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R277">
         <v>0</v>
@@ -25231,60 +25471,63 @@
         <v>0</v>
       </c>
       <c r="U277" t="s">
-        <v>9</v>
+        <v>757</v>
       </c>
       <c r="V277" t="s">
-        <v>500</v>
+        <v>759</v>
       </c>
       <c r="W277">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="X277">
-        <v>3089</v>
+        <v>1624</v>
       </c>
       <c r="AA277" t="s">
         <v>86</v>
+      </c>
+      <c r="AB277" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="278" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A278" s="13" t="s">
-        <v>993</v>
+        <v>958</v>
       </c>
       <c r="B278" s="7">
-        <v>102</v>
+        <v>2311</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D278" s="5">
-        <v>43003</v>
+        <v>43828</v>
       </c>
       <c r="E278" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F278" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H278">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I278" t="s">
-        <v>679</v>
+        <v>758</v>
       </c>
       <c r="J278" s="1" t="s">
-        <v>7</v>
+        <v>755</v>
       </c>
       <c r="K278" s="1" t="s">
-        <v>8</v>
+        <v>756</v>
       </c>
       <c r="L278" t="s">
-        <v>1028</v>
+        <v>988</v>
       </c>
       <c r="M278" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N278" s="14" t="s">
-        <v>1012</v>
+      <c r="N278" s="9" t="s">
+        <v>1088</v>
       </c>
       <c r="O278">
         <v>1</v>
@@ -25293,7 +25536,7 @@
         <v>1</v>
       </c>
       <c r="Q278">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R278">
         <v>0</v>
@@ -25305,66 +25548,63 @@
         <v>0</v>
       </c>
       <c r="U278" t="s">
-        <v>9</v>
+        <v>757</v>
       </c>
       <c r="V278" t="s">
-        <v>500</v>
+        <v>759</v>
       </c>
       <c r="W278">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="X278">
-        <v>3089</v>
+        <v>1624</v>
       </c>
       <c r="AA278" t="s">
         <v>86</v>
       </c>
       <c r="AB278" t="s">
-        <v>1026</v>
-      </c>
-      <c r="AD278" t="s">
-        <v>1026</v>
+        <v>980</v>
       </c>
     </row>
     <row r="279" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A279" s="13" t="s">
-        <v>994</v>
+        <v>959</v>
       </c>
       <c r="B279" s="7">
-        <v>102</v>
+        <v>2311</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D279" s="5">
-        <v>43004</v>
+        <v>43829</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F279" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H279">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I279" t="s">
-        <v>679</v>
+        <v>758</v>
       </c>
       <c r="J279" s="1" t="s">
-        <v>7</v>
+        <v>755</v>
       </c>
       <c r="K279" s="1" t="s">
-        <v>8</v>
+        <v>756</v>
       </c>
       <c r="L279" t="s">
-        <v>1028</v>
+        <v>988</v>
       </c>
       <c r="M279" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="N279" s="14" t="s">
-        <v>1013</v>
+        <v>970</v>
+      </c>
+      <c r="N279" s="9" t="s">
+        <v>1089</v>
       </c>
       <c r="O279">
         <v>1</v>
@@ -25373,7 +25613,7 @@
         <v>1</v>
       </c>
       <c r="Q279">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R279">
         <v>0</v>
@@ -25385,60 +25625,66 @@
         <v>0</v>
       </c>
       <c r="U279" t="s">
-        <v>9</v>
+        <v>757</v>
       </c>
       <c r="V279" t="s">
-        <v>500</v>
+        <v>759</v>
       </c>
       <c r="W279">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="X279">
-        <v>3089</v>
+        <v>1624</v>
       </c>
       <c r="AA279" t="s">
         <v>86</v>
+      </c>
+      <c r="AB279" t="s">
+        <v>981</v>
+      </c>
+      <c r="AC279" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="280" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A280" s="13" t="s">
-        <v>995</v>
+        <v>960</v>
       </c>
       <c r="B280" s="7">
-        <v>102</v>
+        <v>2311</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D280" s="5">
-        <v>43005</v>
+        <v>43830</v>
       </c>
       <c r="E280" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F280" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H280">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I280" t="s">
-        <v>679</v>
+        <v>758</v>
       </c>
       <c r="J280" s="1" t="s">
-        <v>7</v>
+        <v>755</v>
       </c>
       <c r="K280" s="1" t="s">
-        <v>8</v>
+        <v>756</v>
       </c>
       <c r="L280" t="s">
-        <v>1028</v>
+        <v>988</v>
       </c>
       <c r="M280" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="N280" s="14" t="s">
-        <v>1014</v>
+        <v>971</v>
+      </c>
+      <c r="N280" s="9" t="s">
+        <v>1090</v>
       </c>
       <c r="O280">
         <v>1</v>
@@ -25447,7 +25693,7 @@
         <v>1</v>
       </c>
       <c r="Q280">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R280">
         <v>0</v>
@@ -25459,66 +25705,66 @@
         <v>0</v>
       </c>
       <c r="U280" t="s">
-        <v>9</v>
+        <v>757</v>
       </c>
       <c r="V280" t="s">
-        <v>500</v>
+        <v>759</v>
       </c>
       <c r="W280">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="X280">
-        <v>3089</v>
+        <v>1624</v>
       </c>
       <c r="AA280" t="s">
         <v>86</v>
       </c>
       <c r="AB280" t="s">
-        <v>1027</v>
-      </c>
-      <c r="AD280" t="s">
-        <v>1027</v>
+        <v>983</v>
+      </c>
+      <c r="AC280" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="281" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A281" s="13" t="s">
-        <v>996</v>
+        <v>961</v>
       </c>
       <c r="B281" s="7">
-        <v>102</v>
+        <v>2311</v>
       </c>
       <c r="C281" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D281" s="5">
-        <v>43006</v>
+        <v>43831</v>
       </c>
       <c r="E281" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F281" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H281">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I281" t="s">
-        <v>679</v>
+        <v>758</v>
       </c>
       <c r="J281" s="1" t="s">
-        <v>7</v>
+        <v>755</v>
       </c>
       <c r="K281" s="1" t="s">
-        <v>8</v>
+        <v>756</v>
       </c>
       <c r="L281" t="s">
-        <v>1028</v>
+        <v>988</v>
       </c>
       <c r="M281" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="N281" s="14" t="s">
-        <v>1015</v>
+        <v>972</v>
+      </c>
+      <c r="N281" s="9" t="s">
+        <v>1091</v>
       </c>
       <c r="O281">
         <v>1</v>
@@ -25527,7 +25773,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R281">
         <v>0</v>
@@ -25539,60 +25785,63 @@
         <v>0</v>
       </c>
       <c r="U281" t="s">
-        <v>9</v>
+        <v>757</v>
       </c>
       <c r="V281" t="s">
-        <v>500</v>
+        <v>759</v>
       </c>
       <c r="W281">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="X281">
-        <v>3089</v>
+        <v>1624</v>
       </c>
       <c r="AA281" t="s">
         <v>86</v>
+      </c>
+      <c r="AB281" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="282" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A282" s="13" t="s">
-        <v>997</v>
+        <v>962</v>
       </c>
       <c r="B282" s="7">
-        <v>102</v>
+        <v>2311</v>
       </c>
       <c r="C282" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D282" s="5">
-        <v>43009</v>
+        <v>43832</v>
       </c>
       <c r="E282" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F282" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H282">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I282" t="s">
-        <v>679</v>
+        <v>758</v>
       </c>
       <c r="J282" s="1" t="s">
-        <v>7</v>
+        <v>755</v>
       </c>
       <c r="K282" s="1" t="s">
-        <v>8</v>
+        <v>756</v>
       </c>
       <c r="L282" t="s">
-        <v>1028</v>
+        <v>988</v>
       </c>
       <c r="M282" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="N282" s="14" t="s">
-        <v>1016</v>
+        <v>969</v>
+      </c>
+      <c r="N282" s="9" t="s">
+        <v>1092</v>
       </c>
       <c r="O282">
         <v>1</v>
@@ -25601,7 +25850,7 @@
         <v>1</v>
       </c>
       <c r="Q282">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R282">
         <v>0</v>
@@ -25613,16 +25862,16 @@
         <v>0</v>
       </c>
       <c r="U282" t="s">
-        <v>9</v>
+        <v>757</v>
       </c>
       <c r="V282" t="s">
-        <v>500</v>
+        <v>759</v>
       </c>
       <c r="W282">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="X282">
-        <v>3089</v>
+        <v>1624</v>
       </c>
       <c r="AA282" t="s">
         <v>86</v>
@@ -25630,7 +25879,7 @@
     </row>
     <row r="283" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A283" s="13" t="s">
-        <v>998</v>
+        <v>989</v>
       </c>
       <c r="B283" s="7">
         <v>102</v>
@@ -25639,7 +25888,7 @@
         <v>754</v>
       </c>
       <c r="D283" s="5">
-        <v>43010</v>
+        <v>42992</v>
       </c>
       <c r="E283" s="4" t="s">
         <v>844</v>
@@ -25660,13 +25909,13 @@
         <v>8</v>
       </c>
       <c r="L283" t="s">
-        <v>1028</v>
+        <v>595</v>
       </c>
       <c r="M283" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N283" s="14" t="s">
-        <v>1017</v>
+      <c r="N283" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="O283">
         <v>1</v>
@@ -25693,10 +25942,7 @@
         <v>500</v>
       </c>
       <c r="W283">
-        <v>7</v>
-      </c>
-      <c r="X283">
-        <v>3089</v>
+        <v>6</v>
       </c>
       <c r="AA283" t="s">
         <v>86</v>
@@ -25704,7 +25950,7 @@
     </row>
     <row r="284" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A284" s="13" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="B284" s="7">
         <v>102</v>
@@ -25713,7 +25959,7 @@
         <v>754</v>
       </c>
       <c r="D284" s="5">
-        <v>43011</v>
+        <v>42997</v>
       </c>
       <c r="E284" s="4" t="s">
         <v>844</v>
@@ -25739,8 +25985,8 @@
       <c r="M284" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N284" s="14" t="s">
-        <v>1018</v>
+      <c r="N284" s="7" t="s">
+        <v>1009</v>
       </c>
       <c r="O284">
         <v>1</v>
@@ -25752,13 +25998,13 @@
         <v>0</v>
       </c>
       <c r="R284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S284">
         <v>0</v>
       </c>
       <c r="T284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U284" t="s">
         <v>9</v>
@@ -25767,10 +26013,10 @@
         <v>500</v>
       </c>
       <c r="W284">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X284">
-        <v>3089</v>
+        <v>3755</v>
       </c>
       <c r="AA284" t="s">
         <v>86</v>
@@ -25778,7 +26024,7 @@
     </row>
     <row r="285" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A285" s="13" t="s">
-        <v>1000</v>
+        <v>991</v>
       </c>
       <c r="B285" s="7">
         <v>102</v>
@@ -25787,7 +26033,7 @@
         <v>754</v>
       </c>
       <c r="D285" s="5">
-        <v>43013</v>
+        <v>42998</v>
       </c>
       <c r="E285" s="4" t="s">
         <v>844</v>
@@ -25814,7 +26060,7 @@
         <v>498</v>
       </c>
       <c r="N285" s="14" t="s">
-        <v>1019</v>
+        <v>1010</v>
       </c>
       <c r="O285">
         <v>1</v>
@@ -25844,7 +26090,7 @@
         <v>7</v>
       </c>
       <c r="X285">
-        <v>3089</v>
+        <v>3755</v>
       </c>
       <c r="AA285" t="s">
         <v>86</v>
@@ -25852,7 +26098,7 @@
     </row>
     <row r="286" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A286" s="13" t="s">
-        <v>1001</v>
+        <v>992</v>
       </c>
       <c r="B286" s="7">
         <v>102</v>
@@ -25861,7 +26107,7 @@
         <v>754</v>
       </c>
       <c r="D286" s="5">
-        <v>43016</v>
+        <v>43002</v>
       </c>
       <c r="E286" s="4" t="s">
         <v>844</v>
@@ -25888,7 +26134,7 @@
         <v>498</v>
       </c>
       <c r="N286" s="14" t="s">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="O286">
         <v>1</v>
@@ -25926,7 +26172,7 @@
     </row>
     <row r="287" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A287" s="13" t="s">
-        <v>1002</v>
+        <v>993</v>
       </c>
       <c r="B287" s="7">
         <v>102</v>
@@ -25935,7 +26181,7 @@
         <v>754</v>
       </c>
       <c r="D287" s="5">
-        <v>43017</v>
+        <v>43003</v>
       </c>
       <c r="E287" s="4" t="s">
         <v>844</v>
@@ -25962,7 +26208,7 @@
         <v>498</v>
       </c>
       <c r="N287" s="14" t="s">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="O287">
         <v>1</v>
@@ -25997,10 +26243,16 @@
       <c r="AA287" t="s">
         <v>86</v>
       </c>
+      <c r="AB287" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AD287" t="s">
+        <v>1026</v>
+      </c>
     </row>
     <row r="288" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A288" s="13" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="B288" s="7">
         <v>102</v>
@@ -26009,7 +26261,7 @@
         <v>754</v>
       </c>
       <c r="D288" s="5">
-        <v>43018</v>
+        <v>43004</v>
       </c>
       <c r="E288" s="4" t="s">
         <v>844</v>
@@ -26036,7 +26288,7 @@
         <v>498</v>
       </c>
       <c r="N288" s="14" t="s">
-        <v>1022</v>
+        <v>1013</v>
       </c>
       <c r="O288">
         <v>1</v>
@@ -26074,7 +26326,7 @@
     </row>
     <row r="289" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A289" s="13" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
       <c r="B289" s="7">
         <v>102</v>
@@ -26083,7 +26335,7 @@
         <v>754</v>
       </c>
       <c r="D289" s="5">
-        <v>43020</v>
+        <v>43005</v>
       </c>
       <c r="E289" s="4" t="s">
         <v>844</v>
@@ -26110,7 +26362,7 @@
         <v>498</v>
       </c>
       <c r="N289" s="14" t="s">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="O289">
         <v>1</v>
@@ -26145,10 +26397,16 @@
       <c r="AA289" t="s">
         <v>86</v>
       </c>
+      <c r="AB289" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AD289" t="s">
+        <v>1027</v>
+      </c>
     </row>
     <row r="290" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A290" s="13" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="B290" s="7">
         <v>102</v>
@@ -26157,7 +26415,7 @@
         <v>754</v>
       </c>
       <c r="D290" s="5">
-        <v>43024</v>
+        <v>43006</v>
       </c>
       <c r="E290" s="4" t="s">
         <v>844</v>
@@ -26184,7 +26442,7 @@
         <v>498</v>
       </c>
       <c r="N290" s="14" t="s">
-        <v>1024</v>
+        <v>1015</v>
       </c>
       <c r="O290">
         <v>1</v>
@@ -26222,7 +26480,7 @@
     </row>
     <row r="291" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A291" s="13" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="B291" s="7">
         <v>102</v>
@@ -26231,7 +26489,7 @@
         <v>754</v>
       </c>
       <c r="D291" s="5">
-        <v>43026</v>
+        <v>43009</v>
       </c>
       <c r="E291" s="4" t="s">
         <v>844</v>
@@ -26258,7 +26516,7 @@
         <v>498</v>
       </c>
       <c r="N291" s="14" t="s">
-        <v>1025</v>
+        <v>1016</v>
       </c>
       <c r="O291">
         <v>1</v>
@@ -26296,7 +26554,7 @@
     </row>
     <row r="292" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A292" s="13" t="s">
-        <v>1007</v>
+        <v>998</v>
       </c>
       <c r="B292" s="7">
         <v>102</v>
@@ -26305,7 +26563,7 @@
         <v>754</v>
       </c>
       <c r="D292" s="5">
-        <v>43027</v>
+        <v>43010</v>
       </c>
       <c r="E292" s="4" t="s">
         <v>844</v>
@@ -26331,8 +26589,8 @@
       <c r="M292" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N292" s="7" t="s">
-        <v>86</v>
+      <c r="N292" s="14" t="s">
+        <v>1017</v>
       </c>
       <c r="O292">
         <v>1</v>
@@ -26350,7 +26608,7 @@
         <v>0</v>
       </c>
       <c r="T292">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U292" t="s">
         <v>9</v>
@@ -26370,7 +26628,7 @@
     </row>
     <row r="293" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A293" s="13" t="s">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="B293" s="7">
         <v>102</v>
@@ -26379,7 +26637,7 @@
         <v>754</v>
       </c>
       <c r="D293" s="5">
-        <v>43034</v>
+        <v>43011</v>
       </c>
       <c r="E293" s="4" t="s">
         <v>844</v>
@@ -26400,13 +26658,13 @@
         <v>8</v>
       </c>
       <c r="L293" t="s">
-        <v>595</v>
+        <v>1028</v>
       </c>
       <c r="M293" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N293" s="7" t="s">
-        <v>86</v>
+      <c r="N293" s="14" t="s">
+        <v>1018</v>
       </c>
       <c r="O293">
         <v>1</v>
@@ -26444,16 +26702,16 @@
     </row>
     <row r="294" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A294" s="13" t="s">
-        <v>1030</v>
+        <v>1000</v>
       </c>
       <c r="B294" s="7">
-        <v>9845</v>
+        <v>102</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D294" s="5">
-        <v>42778</v>
+        <v>43013</v>
       </c>
       <c r="E294" s="4" t="s">
         <v>844</v>
@@ -26474,13 +26732,13 @@
         <v>8</v>
       </c>
       <c r="L294" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
       <c r="M294" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N294" s="7" t="s">
-        <v>1098</v>
+      <c r="N294" s="14" t="s">
+        <v>1019</v>
       </c>
       <c r="O294">
         <v>1</v>
@@ -26504,13 +26762,13 @@
         <v>9</v>
       </c>
       <c r="V294" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W294">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="X294">
-        <v>3755</v>
+        <v>3089</v>
       </c>
       <c r="AA294" t="s">
         <v>86</v>
@@ -26518,16 +26776,16 @@
     </row>
     <row r="295" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A295" s="13" t="s">
-        <v>1031</v>
+        <v>1001</v>
       </c>
       <c r="B295" s="7">
-        <v>9845</v>
+        <v>102</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D295" s="5">
-        <v>42779</v>
+        <v>43016</v>
       </c>
       <c r="E295" s="4" t="s">
         <v>844</v>
@@ -26548,13 +26806,13 @@
         <v>8</v>
       </c>
       <c r="L295" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
       <c r="M295" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N295" s="7" t="s">
-        <v>1093</v>
+      <c r="N295" s="14" t="s">
+        <v>1020</v>
       </c>
       <c r="O295">
         <v>1</v>
@@ -26578,13 +26836,13 @@
         <v>9</v>
       </c>
       <c r="V295" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W295">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="X295">
-        <v>484</v>
+        <v>3089</v>
       </c>
       <c r="AA295" t="s">
         <v>86</v>
@@ -26592,16 +26850,16 @@
     </row>
     <row r="296" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A296" s="13" t="s">
-        <v>1032</v>
+        <v>1002</v>
       </c>
       <c r="B296" s="7">
-        <v>9845</v>
+        <v>102</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D296" s="5">
-        <v>42781</v>
+        <v>43017</v>
       </c>
       <c r="E296" s="4" t="s">
         <v>844</v>
@@ -26622,13 +26880,13 @@
         <v>8</v>
       </c>
       <c r="L296" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
       <c r="M296" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N296" s="7" t="s">
-        <v>1094</v>
+      <c r="N296" s="14" t="s">
+        <v>1021</v>
       </c>
       <c r="O296">
         <v>1</v>
@@ -26652,13 +26910,13 @@
         <v>9</v>
       </c>
       <c r="V296" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W296">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="X296">
-        <v>484</v>
+        <v>3089</v>
       </c>
       <c r="AA296" t="s">
         <v>86</v>
@@ -26666,16 +26924,16 @@
     </row>
     <row r="297" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A297" s="13" t="s">
-        <v>1033</v>
+        <v>1003</v>
       </c>
       <c r="B297" s="7">
-        <v>9845</v>
+        <v>102</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D297" s="5">
-        <v>42782</v>
+        <v>43018</v>
       </c>
       <c r="E297" s="4" t="s">
         <v>844</v>
@@ -26696,13 +26954,13 @@
         <v>8</v>
       </c>
       <c r="L297" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
       <c r="M297" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N297" s="7" t="s">
-        <v>1041</v>
+      <c r="N297" s="14" t="s">
+        <v>1022</v>
       </c>
       <c r="O297">
         <v>1</v>
@@ -26726,33 +26984,30 @@
         <v>9</v>
       </c>
       <c r="V297" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W297">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="X297">
-        <v>484</v>
+        <v>3089</v>
       </c>
       <c r="AA297" t="s">
         <v>86</v>
-      </c>
-      <c r="AD297" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="298" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A298" s="13" t="s">
-        <v>1034</v>
+        <v>1004</v>
       </c>
       <c r="B298" s="7">
-        <v>9845</v>
+        <v>102</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D298" s="5">
-        <v>42783</v>
+        <v>43020</v>
       </c>
       <c r="E298" s="4" t="s">
         <v>844</v>
@@ -26773,13 +27028,13 @@
         <v>8</v>
       </c>
       <c r="L298" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
       <c r="M298" s="10" t="s">
         <v>498</v>
       </c>
       <c r="N298" s="14" t="s">
-        <v>1062</v>
+        <v>1023</v>
       </c>
       <c r="O298">
         <v>1</v>
@@ -26803,13 +27058,13 @@
         <v>9</v>
       </c>
       <c r="V298" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W298">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="X298">
-        <v>3755</v>
+        <v>3089</v>
       </c>
       <c r="AA298" t="s">
         <v>86</v>
@@ -26817,16 +27072,16 @@
     </row>
     <row r="299" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A299" s="13" t="s">
-        <v>1035</v>
+        <v>1005</v>
       </c>
       <c r="B299" s="7">
-        <v>9845</v>
+        <v>102</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D299" s="5">
-        <v>42785</v>
+        <v>43024</v>
       </c>
       <c r="E299" s="4" t="s">
         <v>844</v>
@@ -26847,13 +27102,13 @@
         <v>8</v>
       </c>
       <c r="L299" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
       <c r="M299" s="10" t="s">
         <v>498</v>
       </c>
       <c r="N299" s="14" t="s">
-        <v>1063</v>
+        <v>1024</v>
       </c>
       <c r="O299">
         <v>1</v>
@@ -26877,13 +27132,13 @@
         <v>9</v>
       </c>
       <c r="V299" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W299">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="X299">
-        <v>3755</v>
+        <v>3089</v>
       </c>
       <c r="AA299" t="s">
         <v>86</v>
@@ -26891,16 +27146,16 @@
     </row>
     <row r="300" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A300" s="13" t="s">
-        <v>1036</v>
+        <v>1006</v>
       </c>
       <c r="B300" s="7">
-        <v>9845</v>
+        <v>102</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D300" s="5">
-        <v>42786</v>
+        <v>43026</v>
       </c>
       <c r="E300" s="4" t="s">
         <v>844</v>
@@ -26921,13 +27176,13 @@
         <v>8</v>
       </c>
       <c r="L300" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
       <c r="M300" s="10" t="s">
         <v>498</v>
       </c>
       <c r="N300" s="14" t="s">
-        <v>1042</v>
+        <v>1025</v>
       </c>
       <c r="O300">
         <v>1</v>
@@ -26951,13 +27206,13 @@
         <v>9</v>
       </c>
       <c r="V300" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W300">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="X300">
-        <v>484</v>
+        <v>3089</v>
       </c>
       <c r="AA300" t="s">
         <v>86</v>
@@ -26965,16 +27220,16 @@
     </row>
     <row r="301" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A301" s="13" t="s">
-        <v>1037</v>
+        <v>1007</v>
       </c>
       <c r="B301" s="7">
-        <v>9845</v>
+        <v>102</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D301" s="5">
-        <v>42787</v>
+        <v>43027</v>
       </c>
       <c r="E301" s="4" t="s">
         <v>844</v>
@@ -26995,13 +27250,13 @@
         <v>8</v>
       </c>
       <c r="L301" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
       <c r="M301" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N301" s="14" t="s">
-        <v>1064</v>
+      <c r="N301" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="O301">
         <v>1</v>
@@ -27019,16 +27274,16 @@
         <v>0</v>
       </c>
       <c r="T301">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U301" t="s">
         <v>9</v>
       </c>
       <c r="V301" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W301">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="X301">
         <v>3089</v>
@@ -27039,16 +27294,16 @@
     </row>
     <row r="302" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A302" s="13" t="s">
-        <v>1038</v>
+        <v>1008</v>
       </c>
       <c r="B302" s="7">
-        <v>9845</v>
+        <v>102</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D302" s="5">
-        <v>42788</v>
+        <v>43034</v>
       </c>
       <c r="E302" s="4" t="s">
         <v>844</v>
@@ -27069,13 +27324,13 @@
         <v>8</v>
       </c>
       <c r="L302" t="s">
-        <v>1040</v>
+        <v>595</v>
       </c>
       <c r="M302" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N302" s="14" t="s">
-        <v>1065</v>
+      <c r="N302" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="O302">
         <v>1</v>
@@ -27099,10 +27354,10 @@
         <v>9</v>
       </c>
       <c r="V302" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W302">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="X302">
         <v>3089</v>
@@ -27113,7 +27368,7 @@
     </row>
     <row r="303" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A303" s="13" t="s">
-        <v>1039</v>
+        <v>1030</v>
       </c>
       <c r="B303" s="7">
         <v>9845</v>
@@ -27122,7 +27377,7 @@
         <v>754</v>
       </c>
       <c r="D303" s="5">
-        <v>42789</v>
+        <v>42778</v>
       </c>
       <c r="E303" s="4" t="s">
         <v>844</v>
@@ -27148,8 +27403,8 @@
       <c r="M303" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N303" s="14" t="s">
-        <v>1066</v>
+      <c r="N303" s="7" t="s">
+        <v>1098</v>
       </c>
       <c r="O303">
         <v>1</v>
@@ -27179,7 +27434,7 @@
         <v>18</v>
       </c>
       <c r="X303">
-        <v>3089</v>
+        <v>3755</v>
       </c>
       <c r="AA303" t="s">
         <v>86</v>
@@ -27187,7 +27442,7 @@
     </row>
     <row r="304" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A304" s="13" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
       <c r="B304" s="7">
         <v>9845</v>
@@ -27196,7 +27451,7 @@
         <v>754</v>
       </c>
       <c r="D304" s="5">
-        <v>42871</v>
+        <v>42779</v>
       </c>
       <c r="E304" s="4" t="s">
         <v>844</v>
@@ -27217,13 +27472,13 @@
         <v>8</v>
       </c>
       <c r="L304" t="s">
-        <v>1059</v>
+        <v>1040</v>
       </c>
       <c r="M304" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N304" s="14" t="s">
-        <v>1067</v>
+      <c r="N304" s="7" t="s">
+        <v>1093</v>
       </c>
       <c r="O304">
         <v>1</v>
@@ -27253,7 +27508,7 @@
         <v>18</v>
       </c>
       <c r="X304">
-        <v>1115</v>
+        <v>484</v>
       </c>
       <c r="AA304" t="s">
         <v>86</v>
@@ -27261,7 +27516,7 @@
     </row>
     <row r="305" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A305" s="13" t="s">
-        <v>1045</v>
+        <v>1032</v>
       </c>
       <c r="B305" s="7">
         <v>9845</v>
@@ -27270,7 +27525,7 @@
         <v>754</v>
       </c>
       <c r="D305" s="5">
-        <v>42872</v>
+        <v>42781</v>
       </c>
       <c r="E305" s="4" t="s">
         <v>844</v>
@@ -27291,13 +27546,13 @@
         <v>8</v>
       </c>
       <c r="L305" t="s">
-        <v>1059</v>
+        <v>1040</v>
       </c>
       <c r="M305" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N305" s="14" t="s">
-        <v>1068</v>
+      <c r="N305" s="7" t="s">
+        <v>1094</v>
       </c>
       <c r="O305">
         <v>1</v>
@@ -27327,7 +27582,7 @@
         <v>18</v>
       </c>
       <c r="X305">
-        <v>1115</v>
+        <v>484</v>
       </c>
       <c r="AA305" t="s">
         <v>86</v>
@@ -27335,7 +27590,7 @@
     </row>
     <row r="306" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A306" s="13" t="s">
-        <v>1046</v>
+        <v>1033</v>
       </c>
       <c r="B306" s="7">
         <v>9845</v>
@@ -27344,7 +27599,7 @@
         <v>754</v>
       </c>
       <c r="D306" s="5">
-        <v>42873</v>
+        <v>42782</v>
       </c>
       <c r="E306" s="4" t="s">
         <v>844</v>
@@ -27365,13 +27620,13 @@
         <v>8</v>
       </c>
       <c r="L306" t="s">
-        <v>1059</v>
+        <v>1040</v>
       </c>
       <c r="M306" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N306" s="14" t="s">
-        <v>1069</v>
+      <c r="N306" s="7" t="s">
+        <v>1041</v>
       </c>
       <c r="O306">
         <v>1</v>
@@ -27386,10 +27641,10 @@
         <v>0</v>
       </c>
       <c r="S306">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T306">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U306" t="s">
         <v>9</v>
@@ -27401,15 +27656,18 @@
         <v>18</v>
       </c>
       <c r="X306">
-        <v>1115</v>
+        <v>484</v>
       </c>
       <c r="AA306" t="s">
         <v>86</v>
+      </c>
+      <c r="AD306" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="307" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A307" s="13" t="s">
-        <v>1047</v>
+        <v>1034</v>
       </c>
       <c r="B307" s="7">
         <v>9845</v>
@@ -27418,7 +27676,7 @@
         <v>754</v>
       </c>
       <c r="D307" s="5">
-        <v>42880</v>
+        <v>42783</v>
       </c>
       <c r="E307" s="4" t="s">
         <v>844</v>
@@ -27439,13 +27697,13 @@
         <v>8</v>
       </c>
       <c r="L307" t="s">
-        <v>1060</v>
+        <v>1040</v>
       </c>
       <c r="M307" s="10" t="s">
         <v>498</v>
       </c>
       <c r="N307" s="14" t="s">
-        <v>1070</v>
+        <v>1062</v>
       </c>
       <c r="O307">
         <v>1</v>
@@ -27475,7 +27733,7 @@
         <v>18</v>
       </c>
       <c r="X307">
-        <v>1115</v>
+        <v>3755</v>
       </c>
       <c r="AA307" t="s">
         <v>86</v>
@@ -27483,7 +27741,7 @@
     </row>
     <row r="308" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A308" s="13" t="s">
-        <v>1048</v>
+        <v>1035</v>
       </c>
       <c r="B308" s="7">
         <v>9845</v>
@@ -27492,7 +27750,7 @@
         <v>754</v>
       </c>
       <c r="D308" s="5">
-        <v>42882</v>
+        <v>42785</v>
       </c>
       <c r="E308" s="4" t="s">
         <v>844</v>
@@ -27513,13 +27771,13 @@
         <v>8</v>
       </c>
       <c r="L308" t="s">
-        <v>1060</v>
+        <v>1040</v>
       </c>
       <c r="M308" s="10" t="s">
         <v>498</v>
       </c>
       <c r="N308" s="14" t="s">
-        <v>1071</v>
+        <v>1063</v>
       </c>
       <c r="O308">
         <v>1</v>
@@ -27549,18 +27807,15 @@
         <v>18</v>
       </c>
       <c r="X308">
-        <v>1115</v>
+        <v>3755</v>
       </c>
       <c r="AA308" t="s">
         <v>86</v>
-      </c>
-      <c r="AD308" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="309" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A309" s="13" t="s">
-        <v>1049</v>
+        <v>1036</v>
       </c>
       <c r="B309" s="7">
         <v>9845</v>
@@ -27569,7 +27824,7 @@
         <v>754</v>
       </c>
       <c r="D309" s="5">
-        <v>42883</v>
+        <v>42786</v>
       </c>
       <c r="E309" s="4" t="s">
         <v>844</v>
@@ -27590,13 +27845,13 @@
         <v>8</v>
       </c>
       <c r="L309" t="s">
-        <v>1060</v>
+        <v>1040</v>
       </c>
       <c r="M309" s="10" t="s">
         <v>498</v>
       </c>
       <c r="N309" s="14" t="s">
-        <v>1072</v>
+        <v>1042</v>
       </c>
       <c r="O309">
         <v>1</v>
@@ -27626,7 +27881,7 @@
         <v>18</v>
       </c>
       <c r="X309">
-        <v>1115</v>
+        <v>484</v>
       </c>
       <c r="AA309" t="s">
         <v>86</v>
@@ -27634,7 +27889,7 @@
     </row>
     <row r="310" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A310" s="13" t="s">
-        <v>1050</v>
+        <v>1037</v>
       </c>
       <c r="B310" s="7">
         <v>9845</v>
@@ -27643,7 +27898,7 @@
         <v>754</v>
       </c>
       <c r="D310" s="5">
-        <v>42884</v>
+        <v>42787</v>
       </c>
       <c r="E310" s="4" t="s">
         <v>844</v>
@@ -27664,13 +27919,13 @@
         <v>8</v>
       </c>
       <c r="L310" t="s">
-        <v>1060</v>
+        <v>1040</v>
       </c>
       <c r="M310" s="10" t="s">
         <v>498</v>
       </c>
       <c r="N310" s="14" t="s">
-        <v>1073</v>
+        <v>1064</v>
       </c>
       <c r="O310">
         <v>1</v>
@@ -27700,7 +27955,7 @@
         <v>18</v>
       </c>
       <c r="X310">
-        <v>1115</v>
+        <v>3089</v>
       </c>
       <c r="AA310" t="s">
         <v>86</v>
@@ -27708,7 +27963,7 @@
     </row>
     <row r="311" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A311" s="13" t="s">
-        <v>1051</v>
+        <v>1038</v>
       </c>
       <c r="B311" s="7">
         <v>9845</v>
@@ -27717,7 +27972,7 @@
         <v>754</v>
       </c>
       <c r="D311" s="5">
-        <v>42889</v>
+        <v>42788</v>
       </c>
       <c r="E311" s="4" t="s">
         <v>844</v>
@@ -27738,13 +27993,13 @@
         <v>8</v>
       </c>
       <c r="L311" t="s">
-        <v>1060</v>
+        <v>1040</v>
       </c>
       <c r="M311" s="10" t="s">
         <v>498</v>
       </c>
       <c r="N311" s="14" t="s">
-        <v>1074</v>
+        <v>1065</v>
       </c>
       <c r="O311">
         <v>1</v>
@@ -27774,7 +28029,7 @@
         <v>18</v>
       </c>
       <c r="X311">
-        <v>484</v>
+        <v>3089</v>
       </c>
       <c r="AA311" t="s">
         <v>86</v>
@@ -27782,7 +28037,7 @@
     </row>
     <row r="312" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A312" s="13" t="s">
-        <v>1052</v>
+        <v>1039</v>
       </c>
       <c r="B312" s="7">
         <v>9845</v>
@@ -27791,7 +28046,7 @@
         <v>754</v>
       </c>
       <c r="D312" s="5">
-        <v>42891</v>
+        <v>42789</v>
       </c>
       <c r="E312" s="4" t="s">
         <v>844</v>
@@ -27812,13 +28067,13 @@
         <v>8</v>
       </c>
       <c r="L312" t="s">
-        <v>1060</v>
+        <v>1040</v>
       </c>
       <c r="M312" s="10" t="s">
         <v>498</v>
       </c>
       <c r="N312" s="14" t="s">
-        <v>1076</v>
+        <v>1066</v>
       </c>
       <c r="O312">
         <v>1</v>
@@ -27848,7 +28103,7 @@
         <v>18</v>
       </c>
       <c r="X312">
-        <v>3755</v>
+        <v>3089</v>
       </c>
       <c r="AA312" t="s">
         <v>86</v>
@@ -27856,7 +28111,7 @@
     </row>
     <row r="313" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A313" s="13" t="s">
-        <v>1053</v>
+        <v>1044</v>
       </c>
       <c r="B313" s="7">
         <v>9845</v>
@@ -27865,7 +28120,7 @@
         <v>754</v>
       </c>
       <c r="D313" s="5">
-        <v>42892</v>
+        <v>42871</v>
       </c>
       <c r="E313" s="4" t="s">
         <v>844</v>
@@ -27886,13 +28141,13 @@
         <v>8</v>
       </c>
       <c r="L313" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="M313" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N313" s="7" t="s">
-        <v>1095</v>
+      <c r="N313" s="14" t="s">
+        <v>1067</v>
       </c>
       <c r="O313">
         <v>1</v>
@@ -27922,7 +28177,7 @@
         <v>18</v>
       </c>
       <c r="X313">
-        <v>3755</v>
+        <v>1115</v>
       </c>
       <c r="AA313" t="s">
         <v>86</v>
@@ -27930,7 +28185,7 @@
     </row>
     <row r="314" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A314" s="13" t="s">
-        <v>1054</v>
+        <v>1045</v>
       </c>
       <c r="B314" s="7">
         <v>9845</v>
@@ -27939,7 +28194,7 @@
         <v>754</v>
       </c>
       <c r="D314" s="5">
-        <v>42894</v>
+        <v>42872</v>
       </c>
       <c r="E314" s="4" t="s">
         <v>844</v>
@@ -27960,13 +28215,13 @@
         <v>8</v>
       </c>
       <c r="L314" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="M314" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N314" s="7" t="s">
-        <v>1096</v>
+      <c r="N314" s="14" t="s">
+        <v>1068</v>
       </c>
       <c r="O314">
         <v>1</v>
@@ -27996,18 +28251,15 @@
         <v>18</v>
       </c>
       <c r="X314">
-        <v>3755</v>
+        <v>1115</v>
       </c>
       <c r="AA314" t="s">
         <v>86</v>
-      </c>
-      <c r="AD314" t="s">
-        <v>1099</v>
       </c>
     </row>
     <row r="315" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A315" s="13" t="s">
-        <v>1055</v>
+        <v>1046</v>
       </c>
       <c r="B315" s="7">
         <v>9845</v>
@@ -28016,7 +28268,7 @@
         <v>754</v>
       </c>
       <c r="D315" s="5">
-        <v>42898</v>
+        <v>42873</v>
       </c>
       <c r="E315" s="4" t="s">
         <v>844</v>
@@ -28037,13 +28289,13 @@
         <v>8</v>
       </c>
       <c r="L315" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="M315" s="10" t="s">
         <v>498</v>
       </c>
       <c r="N315" s="14" t="s">
-        <v>1077</v>
+        <v>1069</v>
       </c>
       <c r="O315">
         <v>1</v>
@@ -28058,10 +28310,10 @@
         <v>0</v>
       </c>
       <c r="S315">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T315">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U315" t="s">
         <v>9</v>
@@ -28073,7 +28325,7 @@
         <v>18</v>
       </c>
       <c r="X315">
-        <v>3755</v>
+        <v>1115</v>
       </c>
       <c r="AA315" t="s">
         <v>86</v>
@@ -28081,7 +28333,7 @@
     </row>
     <row r="316" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A316" s="13" t="s">
-        <v>1056</v>
+        <v>1047</v>
       </c>
       <c r="B316" s="7">
         <v>9845</v>
@@ -28090,7 +28342,7 @@
         <v>754</v>
       </c>
       <c r="D316" s="5">
-        <v>42900</v>
+        <v>42880</v>
       </c>
       <c r="E316" s="4" t="s">
         <v>844</v>
@@ -28117,7 +28369,7 @@
         <v>498</v>
       </c>
       <c r="N316" s="14" t="s">
-        <v>1078</v>
+        <v>1070</v>
       </c>
       <c r="O316">
         <v>1</v>
@@ -28147,7 +28399,7 @@
         <v>18</v>
       </c>
       <c r="X316">
-        <v>3755</v>
+        <v>1115</v>
       </c>
       <c r="AA316" t="s">
         <v>86</v>
@@ -28155,7 +28407,7 @@
     </row>
     <row r="317" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A317" s="13" t="s">
-        <v>1057</v>
+        <v>1048</v>
       </c>
       <c r="B317" s="7">
         <v>9845</v>
@@ -28164,7 +28416,7 @@
         <v>754</v>
       </c>
       <c r="D317" s="5">
-        <v>42901</v>
+        <v>42882</v>
       </c>
       <c r="E317" s="4" t="s">
         <v>844</v>
@@ -28190,8 +28442,8 @@
       <c r="M317" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N317" s="7" t="s">
-        <v>1097</v>
+      <c r="N317" s="14" t="s">
+        <v>1071</v>
       </c>
       <c r="O317">
         <v>1</v>
@@ -28221,15 +28473,18 @@
         <v>18</v>
       </c>
       <c r="X317">
-        <v>3755</v>
+        <v>1115</v>
       </c>
       <c r="AA317" t="s">
         <v>86</v>
+      </c>
+      <c r="AD317" t="s">
+        <v>1075</v>
       </c>
     </row>
     <row r="318" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A318" s="13" t="s">
-        <v>1058</v>
+        <v>1049</v>
       </c>
       <c r="B318" s="7">
         <v>9845</v>
@@ -28238,7 +28493,7 @@
         <v>754</v>
       </c>
       <c r="D318" s="5">
-        <v>42908</v>
+        <v>42883</v>
       </c>
       <c r="E318" s="4" t="s">
         <v>844</v>
@@ -28265,7 +28520,7 @@
         <v>498</v>
       </c>
       <c r="N318" s="14" t="s">
-        <v>1079</v>
+        <v>1072</v>
       </c>
       <c r="O318">
         <v>1</v>
@@ -28295,17 +28550,3242 @@
         <v>18</v>
       </c>
       <c r="X318">
+        <v>1115</v>
+      </c>
+      <c r="AA318" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="319" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A319" s="13" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B319" s="7">
+        <v>9845</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D319" s="5">
+        <v>42884</v>
+      </c>
+      <c r="E319" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F319" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H319">
+        <v>4</v>
+      </c>
+      <c r="I319" t="s">
+        <v>679</v>
+      </c>
+      <c r="J319" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K319" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L319" t="s">
+        <v>1060</v>
+      </c>
+      <c r="M319" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N319" s="14" t="s">
+        <v>1073</v>
+      </c>
+      <c r="O319">
+        <v>1</v>
+      </c>
+      <c r="P319">
+        <v>1</v>
+      </c>
+      <c r="Q319">
+        <v>0</v>
+      </c>
+      <c r="R319">
+        <v>0</v>
+      </c>
+      <c r="S319">
+        <v>0</v>
+      </c>
+      <c r="T319">
+        <v>0</v>
+      </c>
+      <c r="U319" t="s">
+        <v>9</v>
+      </c>
+      <c r="V319" t="s">
+        <v>501</v>
+      </c>
+      <c r="W319">
+        <v>18</v>
+      </c>
+      <c r="X319">
+        <v>1115</v>
+      </c>
+      <c r="AA319" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="320" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A320" s="13" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B320" s="7">
+        <v>9845</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D320" s="5">
+        <v>42889</v>
+      </c>
+      <c r="E320" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F320" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H320">
+        <v>4</v>
+      </c>
+      <c r="I320" t="s">
+        <v>679</v>
+      </c>
+      <c r="J320" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K320" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L320" t="s">
+        <v>1060</v>
+      </c>
+      <c r="M320" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N320" s="14" t="s">
+        <v>1074</v>
+      </c>
+      <c r="O320">
+        <v>1</v>
+      </c>
+      <c r="P320">
+        <v>1</v>
+      </c>
+      <c r="Q320">
+        <v>0</v>
+      </c>
+      <c r="R320">
+        <v>0</v>
+      </c>
+      <c r="S320">
+        <v>0</v>
+      </c>
+      <c r="T320">
+        <v>0</v>
+      </c>
+      <c r="U320" t="s">
+        <v>9</v>
+      </c>
+      <c r="V320" t="s">
+        <v>501</v>
+      </c>
+      <c r="W320">
+        <v>18</v>
+      </c>
+      <c r="X320">
+        <v>484</v>
+      </c>
+      <c r="AA320" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="321" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A321" s="13" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B321" s="7">
+        <v>9845</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D321" s="5">
+        <v>42891</v>
+      </c>
+      <c r="E321" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F321" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H321">
+        <v>4</v>
+      </c>
+      <c r="I321" t="s">
+        <v>679</v>
+      </c>
+      <c r="J321" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K321" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L321" t="s">
+        <v>1060</v>
+      </c>
+      <c r="M321" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N321" s="14" t="s">
+        <v>1076</v>
+      </c>
+      <c r="O321">
+        <v>1</v>
+      </c>
+      <c r="P321">
+        <v>1</v>
+      </c>
+      <c r="Q321">
+        <v>0</v>
+      </c>
+      <c r="R321">
+        <v>0</v>
+      </c>
+      <c r="S321">
+        <v>0</v>
+      </c>
+      <c r="T321">
+        <v>0</v>
+      </c>
+      <c r="U321" t="s">
+        <v>9</v>
+      </c>
+      <c r="V321" t="s">
+        <v>501</v>
+      </c>
+      <c r="W321">
+        <v>18</v>
+      </c>
+      <c r="X321">
         <v>3755</v>
       </c>
-      <c r="AA318" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB318" t="s">
+      <c r="AA321" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="322" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A322" s="13" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B322" s="7">
+        <v>9845</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D322" s="5">
+        <v>42892</v>
+      </c>
+      <c r="E322" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F322" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H322">
+        <v>4</v>
+      </c>
+      <c r="I322" t="s">
+        <v>679</v>
+      </c>
+      <c r="J322" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K322" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L322" t="s">
+        <v>1060</v>
+      </c>
+      <c r="M322" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N322" s="7" t="s">
+        <v>1095</v>
+      </c>
+      <c r="O322">
+        <v>1</v>
+      </c>
+      <c r="P322">
+        <v>1</v>
+      </c>
+      <c r="Q322">
+        <v>0</v>
+      </c>
+      <c r="R322">
+        <v>0</v>
+      </c>
+      <c r="S322">
+        <v>0</v>
+      </c>
+      <c r="T322">
+        <v>0</v>
+      </c>
+      <c r="U322" t="s">
+        <v>9</v>
+      </c>
+      <c r="V322" t="s">
+        <v>501</v>
+      </c>
+      <c r="W322">
+        <v>18</v>
+      </c>
+      <c r="X322">
+        <v>3755</v>
+      </c>
+      <c r="AA322" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="323" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A323" s="13" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B323" s="7">
+        <v>9845</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D323" s="5">
+        <v>42894</v>
+      </c>
+      <c r="E323" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F323" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H323">
+        <v>4</v>
+      </c>
+      <c r="I323" t="s">
+        <v>679</v>
+      </c>
+      <c r="J323" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K323" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L323" t="s">
+        <v>1060</v>
+      </c>
+      <c r="M323" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N323" s="7" t="s">
+        <v>1096</v>
+      </c>
+      <c r="O323">
+        <v>1</v>
+      </c>
+      <c r="P323">
+        <v>1</v>
+      </c>
+      <c r="Q323">
+        <v>0</v>
+      </c>
+      <c r="R323">
+        <v>0</v>
+      </c>
+      <c r="S323">
+        <v>0</v>
+      </c>
+      <c r="T323">
+        <v>0</v>
+      </c>
+      <c r="U323" t="s">
+        <v>9</v>
+      </c>
+      <c r="V323" t="s">
+        <v>501</v>
+      </c>
+      <c r="W323">
+        <v>18</v>
+      </c>
+      <c r="X323">
+        <v>3755</v>
+      </c>
+      <c r="AA323" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD323" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="324" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A324" s="13" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B324" s="7">
+        <v>9845</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D324" s="5">
+        <v>42898</v>
+      </c>
+      <c r="E324" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F324" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H324">
+        <v>4</v>
+      </c>
+      <c r="I324" t="s">
+        <v>679</v>
+      </c>
+      <c r="J324" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K324" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L324" t="s">
+        <v>1060</v>
+      </c>
+      <c r="M324" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N324" s="14" t="s">
+        <v>1077</v>
+      </c>
+      <c r="O324">
+        <v>1</v>
+      </c>
+      <c r="P324">
+        <v>1</v>
+      </c>
+      <c r="Q324">
+        <v>0</v>
+      </c>
+      <c r="R324">
+        <v>0</v>
+      </c>
+      <c r="S324">
+        <v>0</v>
+      </c>
+      <c r="T324">
+        <v>0</v>
+      </c>
+      <c r="U324" t="s">
+        <v>9</v>
+      </c>
+      <c r="V324" t="s">
+        <v>501</v>
+      </c>
+      <c r="W324">
+        <v>18</v>
+      </c>
+      <c r="X324">
+        <v>3755</v>
+      </c>
+      <c r="AA324" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="325" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A325" s="13" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B325" s="7">
+        <v>9845</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D325" s="5">
+        <v>42900</v>
+      </c>
+      <c r="E325" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F325" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H325">
+        <v>4</v>
+      </c>
+      <c r="I325" t="s">
+        <v>679</v>
+      </c>
+      <c r="J325" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K325" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L325" t="s">
+        <v>1060</v>
+      </c>
+      <c r="M325" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N325" s="14" t="s">
+        <v>1078</v>
+      </c>
+      <c r="O325">
+        <v>1</v>
+      </c>
+      <c r="P325">
+        <v>1</v>
+      </c>
+      <c r="Q325">
+        <v>0</v>
+      </c>
+      <c r="R325">
+        <v>0</v>
+      </c>
+      <c r="S325">
+        <v>0</v>
+      </c>
+      <c r="T325">
+        <v>0</v>
+      </c>
+      <c r="U325" t="s">
+        <v>9</v>
+      </c>
+      <c r="V325" t="s">
+        <v>501</v>
+      </c>
+      <c r="W325">
+        <v>18</v>
+      </c>
+      <c r="X325">
+        <v>3755</v>
+      </c>
+      <c r="AA325" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="326" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A326" s="13" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B326" s="7">
+        <v>9845</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D326" s="5">
+        <v>42901</v>
+      </c>
+      <c r="E326" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F326" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H326">
+        <v>4</v>
+      </c>
+      <c r="I326" t="s">
+        <v>679</v>
+      </c>
+      <c r="J326" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K326" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L326" t="s">
+        <v>1060</v>
+      </c>
+      <c r="M326" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N326" s="7" t="s">
+        <v>1097</v>
+      </c>
+      <c r="O326">
+        <v>1</v>
+      </c>
+      <c r="P326">
+        <v>1</v>
+      </c>
+      <c r="Q326">
+        <v>0</v>
+      </c>
+      <c r="R326">
+        <v>0</v>
+      </c>
+      <c r="S326">
+        <v>0</v>
+      </c>
+      <c r="T326">
+        <v>0</v>
+      </c>
+      <c r="U326" t="s">
+        <v>9</v>
+      </c>
+      <c r="V326" t="s">
+        <v>501</v>
+      </c>
+      <c r="W326">
+        <v>18</v>
+      </c>
+      <c r="X326">
+        <v>3755</v>
+      </c>
+      <c r="AA326" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="327" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A327" s="13" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B327" s="7">
+        <v>9845</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="D327" s="5">
+        <v>42908</v>
+      </c>
+      <c r="E327" s="4" t="s">
+        <v>844</v>
+      </c>
+      <c r="F327" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H327">
+        <v>4</v>
+      </c>
+      <c r="I327" t="s">
+        <v>679</v>
+      </c>
+      <c r="J327" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K327" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L327" t="s">
+        <v>1060</v>
+      </c>
+      <c r="M327" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N327" s="14" t="s">
+        <v>1079</v>
+      </c>
+      <c r="O327">
+        <v>1</v>
+      </c>
+      <c r="P327">
+        <v>1</v>
+      </c>
+      <c r="Q327">
+        <v>0</v>
+      </c>
+      <c r="R327">
+        <v>0</v>
+      </c>
+      <c r="S327">
+        <v>0</v>
+      </c>
+      <c r="T327">
+        <v>0</v>
+      </c>
+      <c r="U327" t="s">
+        <v>9</v>
+      </c>
+      <c r="V327" t="s">
+        <v>501</v>
+      </c>
+      <c r="W327">
+        <v>18</v>
+      </c>
+      <c r="X327">
+        <v>3755</v>
+      </c>
+      <c r="AA327" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB327" t="s">
         <v>1061</v>
       </c>
-      <c r="AD318" t="s">
+      <c r="AD327" t="s">
         <v>1061</v>
       </c>
+    </row>
+    <row r="328" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A328" s="13" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B328" s="7">
+        <v>2299</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D328" s="5">
+        <v>43793</v>
+      </c>
+      <c r="E328" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F328" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H328">
+        <v>16</v>
+      </c>
+      <c r="I328" t="s">
+        <v>758</v>
+      </c>
+      <c r="J328" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="K328" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="L328" t="s">
+        <v>1153</v>
+      </c>
+      <c r="M328" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N328" t="s">
+        <v>1130</v>
+      </c>
+      <c r="O328">
+        <v>1</v>
+      </c>
+      <c r="P328">
+        <v>1</v>
+      </c>
+      <c r="Q328">
+        <v>0</v>
+      </c>
+      <c r="R328">
+        <v>0</v>
+      </c>
+      <c r="S328">
+        <v>0</v>
+      </c>
+      <c r="T328">
+        <v>0</v>
+      </c>
+      <c r="U328" t="s">
+        <v>757</v>
+      </c>
+      <c r="V328" t="s">
+        <v>759</v>
+      </c>
+      <c r="W328">
+        <v>0</v>
+      </c>
+      <c r="X328">
+        <v>917</v>
+      </c>
+      <c r="AA328" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="329" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A329" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B329" s="7">
+        <v>2299</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D329" s="5">
+        <v>43794</v>
+      </c>
+      <c r="E329" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F329" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H329">
+        <v>16</v>
+      </c>
+      <c r="I329" t="s">
+        <v>758</v>
+      </c>
+      <c r="J329" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="K329" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="L329" t="s">
+        <v>1154</v>
+      </c>
+      <c r="M329" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N329" t="s">
+        <v>1131</v>
+      </c>
+      <c r="O329">
+        <v>1</v>
+      </c>
+      <c r="P329">
+        <v>1</v>
+      </c>
+      <c r="Q329">
+        <v>0</v>
+      </c>
+      <c r="R329">
+        <v>0</v>
+      </c>
+      <c r="S329">
+        <v>0</v>
+      </c>
+      <c r="T329">
+        <v>0</v>
+      </c>
+      <c r="U329" t="s">
+        <v>757</v>
+      </c>
+      <c r="V329" t="s">
+        <v>759</v>
+      </c>
+      <c r="W329">
+        <v>0</v>
+      </c>
+      <c r="X329">
+        <v>4029</v>
+      </c>
+      <c r="AA329" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="330" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A330" s="13" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B330" s="7">
+        <v>2299</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D330" s="5">
+        <v>43795</v>
+      </c>
+      <c r="E330" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F330" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H330">
+        <v>16</v>
+      </c>
+      <c r="I330" t="s">
+        <v>758</v>
+      </c>
+      <c r="J330" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="K330" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="L330" t="s">
+        <v>1154</v>
+      </c>
+      <c r="M330" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N330" t="s">
+        <v>1132</v>
+      </c>
+      <c r="O330">
+        <v>1</v>
+      </c>
+      <c r="P330">
+        <v>1</v>
+      </c>
+      <c r="Q330">
+        <v>0</v>
+      </c>
+      <c r="R330">
+        <v>0</v>
+      </c>
+      <c r="S330">
+        <v>0</v>
+      </c>
+      <c r="T330">
+        <v>0</v>
+      </c>
+      <c r="U330" t="s">
+        <v>757</v>
+      </c>
+      <c r="V330" t="s">
+        <v>759</v>
+      </c>
+      <c r="W330">
+        <v>0</v>
+      </c>
+      <c r="X330">
+        <v>4029</v>
+      </c>
+      <c r="AA330" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="331" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A331" s="13" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B331" s="7">
+        <v>2299</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D331" s="5">
+        <v>43796</v>
+      </c>
+      <c r="E331" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F331" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H331">
+        <v>16</v>
+      </c>
+      <c r="I331" t="s">
+        <v>758</v>
+      </c>
+      <c r="J331" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="K331" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="L331" t="s">
+        <v>1155</v>
+      </c>
+      <c r="M331" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N331" t="s">
+        <v>1133</v>
+      </c>
+      <c r="O331">
+        <v>1</v>
+      </c>
+      <c r="P331">
+        <v>1</v>
+      </c>
+      <c r="Q331">
+        <v>0</v>
+      </c>
+      <c r="R331">
+        <v>0</v>
+      </c>
+      <c r="S331">
+        <v>0</v>
+      </c>
+      <c r="T331">
+        <v>0</v>
+      </c>
+      <c r="U331" t="s">
+        <v>757</v>
+      </c>
+      <c r="V331" t="s">
+        <v>759</v>
+      </c>
+      <c r="W331">
+        <v>0</v>
+      </c>
+      <c r="X331">
+        <v>4029</v>
+      </c>
+      <c r="AA331" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="332" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A332" s="13" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B332" s="7">
+        <v>2299</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D332" s="5">
+        <v>43797</v>
+      </c>
+      <c r="E332" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F332" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H332">
+        <v>16</v>
+      </c>
+      <c r="I332" t="s">
+        <v>758</v>
+      </c>
+      <c r="J332" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="K332" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="L332" t="s">
+        <v>1156</v>
+      </c>
+      <c r="M332" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N332" t="s">
+        <v>1134</v>
+      </c>
+      <c r="O332">
+        <v>1</v>
+      </c>
+      <c r="P332">
+        <v>1</v>
+      </c>
+      <c r="Q332">
+        <v>0</v>
+      </c>
+      <c r="R332">
+        <v>0</v>
+      </c>
+      <c r="S332">
+        <v>0</v>
+      </c>
+      <c r="T332">
+        <v>0</v>
+      </c>
+      <c r="U332" t="s">
+        <v>757</v>
+      </c>
+      <c r="V332" t="s">
+        <v>759</v>
+      </c>
+      <c r="W332">
+        <v>0</v>
+      </c>
+      <c r="X332">
+        <v>4029</v>
+      </c>
+      <c r="AA332" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="333" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A333" s="13" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B333" s="7">
+        <v>2299</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D333" s="5">
+        <v>43800</v>
+      </c>
+      <c r="E333" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F333" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H333">
+        <v>16</v>
+      </c>
+      <c r="I333" t="s">
+        <v>758</v>
+      </c>
+      <c r="J333" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="K333" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="L333" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M333" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N333" t="s">
+        <v>1135</v>
+      </c>
+      <c r="O333">
+        <v>1</v>
+      </c>
+      <c r="P333">
+        <v>1</v>
+      </c>
+      <c r="Q333">
+        <v>1</v>
+      </c>
+      <c r="R333">
+        <v>0</v>
+      </c>
+      <c r="S333">
+        <v>0</v>
+      </c>
+      <c r="T333">
+        <v>0</v>
+      </c>
+      <c r="U333" t="s">
+        <v>757</v>
+      </c>
+      <c r="V333" t="s">
+        <v>759</v>
+      </c>
+      <c r="W333">
+        <v>0</v>
+      </c>
+      <c r="X333">
+        <v>4029</v>
+      </c>
+      <c r="AA333" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="334" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A334" s="13" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B334" s="7">
+        <v>2299</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D334" s="5">
+        <v>43801</v>
+      </c>
+      <c r="E334" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F334" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H334">
+        <v>16</v>
+      </c>
+      <c r="I334" t="s">
+        <v>758</v>
+      </c>
+      <c r="J334" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="K334" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="L334" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M334" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N334" t="s">
+        <v>1136</v>
+      </c>
+      <c r="O334">
+        <v>1</v>
+      </c>
+      <c r="P334">
+        <v>1</v>
+      </c>
+      <c r="Q334">
+        <v>1</v>
+      </c>
+      <c r="R334">
+        <v>0</v>
+      </c>
+      <c r="S334">
+        <v>0</v>
+      </c>
+      <c r="T334">
+        <v>0</v>
+      </c>
+      <c r="U334" t="s">
+        <v>757</v>
+      </c>
+      <c r="V334" t="s">
+        <v>759</v>
+      </c>
+      <c r="W334">
+        <v>0</v>
+      </c>
+      <c r="X334">
+        <v>4029</v>
+      </c>
+      <c r="AA334" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="335" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A335" s="13" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B335" s="7">
+        <v>2299</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D335" s="5">
+        <v>43802</v>
+      </c>
+      <c r="E335" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F335" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H335">
+        <v>16</v>
+      </c>
+      <c r="I335" t="s">
+        <v>758</v>
+      </c>
+      <c r="J335" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="K335" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="L335" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M335" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N335" t="s">
+        <v>1137</v>
+      </c>
+      <c r="O335">
+        <v>1</v>
+      </c>
+      <c r="P335">
+        <v>1</v>
+      </c>
+      <c r="Q335">
+        <v>1</v>
+      </c>
+      <c r="R335">
+        <v>0</v>
+      </c>
+      <c r="S335">
+        <v>0</v>
+      </c>
+      <c r="T335">
+        <v>0</v>
+      </c>
+      <c r="U335" t="s">
+        <v>757</v>
+      </c>
+      <c r="V335" t="s">
+        <v>759</v>
+      </c>
+      <c r="W335">
+        <v>0</v>
+      </c>
+      <c r="X335">
+        <v>4029</v>
+      </c>
+      <c r="AA335" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="336" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A336" s="13" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B336" s="7">
+        <v>2299</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D336" s="5">
+        <v>43803</v>
+      </c>
+      <c r="E336" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F336" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H336">
+        <v>16</v>
+      </c>
+      <c r="I336" t="s">
+        <v>758</v>
+      </c>
+      <c r="J336" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="K336" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="L336" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M336" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N336" t="s">
+        <v>1138</v>
+      </c>
+      <c r="O336">
+        <v>1</v>
+      </c>
+      <c r="P336">
+        <v>1</v>
+      </c>
+      <c r="Q336">
+        <v>1</v>
+      </c>
+      <c r="R336">
+        <v>0</v>
+      </c>
+      <c r="S336">
+        <v>0</v>
+      </c>
+      <c r="T336">
+        <v>0</v>
+      </c>
+      <c r="U336" t="s">
+        <v>757</v>
+      </c>
+      <c r="V336" t="s">
+        <v>759</v>
+      </c>
+      <c r="W336">
+        <v>0</v>
+      </c>
+      <c r="X336">
+        <v>4029</v>
+      </c>
+      <c r="AA336" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="337" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A337" s="13" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B337" s="7">
+        <v>2299</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D337" s="5">
+        <v>43804</v>
+      </c>
+      <c r="E337" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F337" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H337">
+        <v>16</v>
+      </c>
+      <c r="I337" t="s">
+        <v>758</v>
+      </c>
+      <c r="J337" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="K337" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="L337" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M337" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N337" t="s">
+        <v>1139</v>
+      </c>
+      <c r="O337">
+        <v>1</v>
+      </c>
+      <c r="P337">
+        <v>1</v>
+      </c>
+      <c r="Q337">
+        <v>1</v>
+      </c>
+      <c r="R337">
+        <v>0</v>
+      </c>
+      <c r="S337">
+        <v>0</v>
+      </c>
+      <c r="T337">
+        <v>0</v>
+      </c>
+      <c r="U337" t="s">
+        <v>757</v>
+      </c>
+      <c r="V337" t="s">
+        <v>759</v>
+      </c>
+      <c r="W337">
+        <v>0</v>
+      </c>
+      <c r="X337">
+        <v>4029</v>
+      </c>
+      <c r="AA337" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="338" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A338" s="13" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B338" s="7">
+        <v>2299</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D338" s="5">
+        <v>43807</v>
+      </c>
+      <c r="E338" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F338" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H338">
+        <v>16</v>
+      </c>
+      <c r="I338" t="s">
+        <v>758</v>
+      </c>
+      <c r="J338" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="K338" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="L338" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M338" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N338" t="s">
+        <v>1140</v>
+      </c>
+      <c r="O338">
+        <v>1</v>
+      </c>
+      <c r="P338">
+        <v>1</v>
+      </c>
+      <c r="Q338">
+        <v>1</v>
+      </c>
+      <c r="R338">
+        <v>0</v>
+      </c>
+      <c r="S338">
+        <v>0</v>
+      </c>
+      <c r="T338">
+        <v>0</v>
+      </c>
+      <c r="U338" t="s">
+        <v>757</v>
+      </c>
+      <c r="V338" t="s">
+        <v>759</v>
+      </c>
+      <c r="W338">
+        <v>0</v>
+      </c>
+      <c r="X338">
+        <v>4029</v>
+      </c>
+      <c r="AA338" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="339" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A339" s="13" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B339" s="7">
+        <v>2299</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D339" s="5">
+        <v>43808</v>
+      </c>
+      <c r="E339" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F339" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H339">
+        <v>16</v>
+      </c>
+      <c r="I339" t="s">
+        <v>758</v>
+      </c>
+      <c r="J339" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="K339" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="L339" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M339" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N339" t="s">
+        <v>1141</v>
+      </c>
+      <c r="O339">
+        <v>1</v>
+      </c>
+      <c r="P339">
+        <v>1</v>
+      </c>
+      <c r="Q339">
+        <v>1</v>
+      </c>
+      <c r="R339">
+        <v>0</v>
+      </c>
+      <c r="S339">
+        <v>0</v>
+      </c>
+      <c r="T339">
+        <v>0</v>
+      </c>
+      <c r="U339" t="s">
+        <v>757</v>
+      </c>
+      <c r="V339" t="s">
+        <v>759</v>
+      </c>
+      <c r="W339">
+        <v>0</v>
+      </c>
+      <c r="X339">
+        <v>4029</v>
+      </c>
+      <c r="AA339" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="340" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A340" s="13" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B340" s="7">
+        <v>2299</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D340" s="5">
+        <v>43809</v>
+      </c>
+      <c r="E340" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F340" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H340">
+        <v>16</v>
+      </c>
+      <c r="I340" t="s">
+        <v>758</v>
+      </c>
+      <c r="J340" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="K340" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="L340" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M340" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N340" t="s">
+        <v>1183</v>
+      </c>
+      <c r="O340">
+        <v>1</v>
+      </c>
+      <c r="P340">
+        <v>1</v>
+      </c>
+      <c r="Q340">
+        <v>1</v>
+      </c>
+      <c r="R340">
+        <v>0</v>
+      </c>
+      <c r="S340">
+        <v>0</v>
+      </c>
+      <c r="T340">
+        <v>0</v>
+      </c>
+      <c r="U340" t="s">
+        <v>757</v>
+      </c>
+      <c r="V340" t="s">
+        <v>759</v>
+      </c>
+      <c r="W340">
+        <v>0</v>
+      </c>
+      <c r="X340">
+        <v>4029</v>
+      </c>
+      <c r="AA340" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="341" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A341" s="13" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B341" s="7">
+        <v>2299</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D341" s="5">
+        <v>43810</v>
+      </c>
+      <c r="E341" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F341" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H341">
+        <v>16</v>
+      </c>
+      <c r="I341" t="s">
+        <v>758</v>
+      </c>
+      <c r="J341" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="K341" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="L341" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M341" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N341" t="s">
+        <v>1142</v>
+      </c>
+      <c r="O341">
+        <v>1</v>
+      </c>
+      <c r="P341">
+        <v>1</v>
+      </c>
+      <c r="Q341">
+        <v>1</v>
+      </c>
+      <c r="R341">
+        <v>0</v>
+      </c>
+      <c r="S341">
+        <v>0</v>
+      </c>
+      <c r="T341">
+        <v>0</v>
+      </c>
+      <c r="U341" t="s">
+        <v>757</v>
+      </c>
+      <c r="V341" t="s">
+        <v>759</v>
+      </c>
+      <c r="W341">
+        <v>0</v>
+      </c>
+      <c r="X341">
+        <v>4029</v>
+      </c>
+      <c r="AA341" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="342" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A342" s="13" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B342" s="7">
+        <v>2299</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D342" s="5">
+        <v>43811</v>
+      </c>
+      <c r="E342" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F342" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H342">
+        <v>16</v>
+      </c>
+      <c r="I342" t="s">
+        <v>758</v>
+      </c>
+      <c r="J342" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="K342" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="L342" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M342" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N342" t="s">
+        <v>1184</v>
+      </c>
+      <c r="O342">
+        <v>1</v>
+      </c>
+      <c r="P342">
+        <v>1</v>
+      </c>
+      <c r="Q342">
+        <v>1</v>
+      </c>
+      <c r="R342">
+        <v>0</v>
+      </c>
+      <c r="S342">
+        <v>0</v>
+      </c>
+      <c r="T342">
+        <v>0</v>
+      </c>
+      <c r="U342" t="s">
+        <v>757</v>
+      </c>
+      <c r="V342" t="s">
+        <v>759</v>
+      </c>
+      <c r="W342">
+        <v>0</v>
+      </c>
+      <c r="X342">
+        <v>4029</v>
+      </c>
+      <c r="AA342" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="343" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A343" s="13" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B343" s="7">
+        <v>2299</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D343" s="5">
+        <v>43812</v>
+      </c>
+      <c r="E343" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F343" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H343">
+        <v>16</v>
+      </c>
+      <c r="I343" t="s">
+        <v>758</v>
+      </c>
+      <c r="J343" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="K343" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="L343" t="s">
+        <v>1157</v>
+      </c>
+      <c r="M343" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N343" t="s">
+        <v>1185</v>
+      </c>
+      <c r="O343">
+        <v>1</v>
+      </c>
+      <c r="P343">
+        <v>1</v>
+      </c>
+      <c r="Q343">
+        <v>1</v>
+      </c>
+      <c r="R343">
+        <v>0</v>
+      </c>
+      <c r="S343">
+        <v>0</v>
+      </c>
+      <c r="T343">
+        <v>0</v>
+      </c>
+      <c r="U343" t="s">
+        <v>757</v>
+      </c>
+      <c r="V343" t="s">
+        <v>759</v>
+      </c>
+      <c r="W343">
+        <v>0</v>
+      </c>
+      <c r="X343">
+        <v>4029</v>
+      </c>
+      <c r="AA343" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="344" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A344" s="13" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B344" s="7">
+        <v>2336</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D344" s="5">
+        <v>43711</v>
+      </c>
+      <c r="E344" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F344" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H344">
+        <v>16</v>
+      </c>
+      <c r="I344" t="s">
+        <v>758</v>
+      </c>
+      <c r="J344" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="K344" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="L344" t="s">
+        <v>1114</v>
+      </c>
+      <c r="M344" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N344" t="s">
+        <v>1162</v>
+      </c>
+      <c r="O344">
+        <v>1</v>
+      </c>
+      <c r="P344">
+        <v>1</v>
+      </c>
+      <c r="Q344">
+        <v>1</v>
+      </c>
+      <c r="R344">
+        <v>0</v>
+      </c>
+      <c r="S344">
+        <v>0</v>
+      </c>
+      <c r="T344">
+        <v>0</v>
+      </c>
+      <c r="U344" t="s">
+        <v>757</v>
+      </c>
+      <c r="V344" t="s">
+        <v>759</v>
+      </c>
+      <c r="W344">
+        <v>0</v>
+      </c>
+      <c r="X344">
+        <v>4029</v>
+      </c>
+      <c r="AA344" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="345" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A345" s="13" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B345" s="7">
+        <v>2336</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D345" s="5">
+        <v>43718</v>
+      </c>
+      <c r="E345" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F345" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H345">
+        <v>16</v>
+      </c>
+      <c r="I345" t="s">
+        <v>758</v>
+      </c>
+      <c r="J345" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="K345" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="L345" t="s">
+        <v>1114</v>
+      </c>
+      <c r="M345" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N345" t="s">
+        <v>1162</v>
+      </c>
+      <c r="O345">
+        <v>1</v>
+      </c>
+      <c r="P345">
+        <v>1</v>
+      </c>
+      <c r="Q345">
+        <v>1</v>
+      </c>
+      <c r="R345">
+        <v>0</v>
+      </c>
+      <c r="S345">
+        <v>0</v>
+      </c>
+      <c r="T345">
+        <v>0</v>
+      </c>
+      <c r="U345" t="s">
+        <v>757</v>
+      </c>
+      <c r="V345" t="s">
+        <v>759</v>
+      </c>
+      <c r="W345">
+        <v>0</v>
+      </c>
+      <c r="X345">
+        <v>4029</v>
+      </c>
+      <c r="AA345" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="346" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A346" s="13" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B346" s="7">
+        <v>2336</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D346" s="5">
+        <v>43719</v>
+      </c>
+      <c r="E346" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F346" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H346">
+        <v>16</v>
+      </c>
+      <c r="I346" t="s">
+        <v>758</v>
+      </c>
+      <c r="J346" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="K346" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="L346" t="s">
+        <v>1114</v>
+      </c>
+      <c r="M346" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N346" t="s">
+        <v>1162</v>
+      </c>
+      <c r="O346">
+        <v>1</v>
+      </c>
+      <c r="P346">
+        <v>1</v>
+      </c>
+      <c r="Q346">
+        <v>1</v>
+      </c>
+      <c r="R346">
+        <v>0</v>
+      </c>
+      <c r="S346">
+        <v>0</v>
+      </c>
+      <c r="T346">
+        <v>0</v>
+      </c>
+      <c r="U346" t="s">
+        <v>757</v>
+      </c>
+      <c r="V346" t="s">
+        <v>759</v>
+      </c>
+      <c r="W346">
+        <v>0</v>
+      </c>
+      <c r="X346">
+        <v>4029</v>
+      </c>
+      <c r="AA346" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="347" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A347" s="13" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B347" s="7">
+        <v>2336</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D347" s="5">
+        <v>43723</v>
+      </c>
+      <c r="E347" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F347" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H347">
+        <v>16</v>
+      </c>
+      <c r="I347" t="s">
+        <v>758</v>
+      </c>
+      <c r="J347" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="K347" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="L347" t="s">
+        <v>1114</v>
+      </c>
+      <c r="M347" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N347" t="s">
+        <v>1162</v>
+      </c>
+      <c r="O347">
+        <v>1</v>
+      </c>
+      <c r="P347">
+        <v>1</v>
+      </c>
+      <c r="Q347">
+        <v>1</v>
+      </c>
+      <c r="R347">
+        <v>0</v>
+      </c>
+      <c r="S347">
+        <v>0</v>
+      </c>
+      <c r="T347">
+        <v>0</v>
+      </c>
+      <c r="U347" t="s">
+        <v>757</v>
+      </c>
+      <c r="V347" t="s">
+        <v>759</v>
+      </c>
+      <c r="W347">
+        <v>0</v>
+      </c>
+      <c r="X347">
+        <v>4029</v>
+      </c>
+      <c r="AA347" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="348" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A348" s="13" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B348" s="7">
+        <v>2336</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D348" s="5">
+        <v>43726</v>
+      </c>
+      <c r="E348" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F348" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H348">
+        <v>16</v>
+      </c>
+      <c r="I348" t="s">
+        <v>758</v>
+      </c>
+      <c r="J348" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="K348" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="L348" t="s">
+        <v>1114</v>
+      </c>
+      <c r="M348" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N348" t="s">
+        <v>1162</v>
+      </c>
+      <c r="O348">
+        <v>1</v>
+      </c>
+      <c r="P348">
+        <v>1</v>
+      </c>
+      <c r="Q348">
+        <v>1</v>
+      </c>
+      <c r="R348">
+        <v>0</v>
+      </c>
+      <c r="S348">
+        <v>0</v>
+      </c>
+      <c r="T348">
+        <v>0</v>
+      </c>
+      <c r="U348" t="s">
+        <v>757</v>
+      </c>
+      <c r="V348" t="s">
+        <v>759</v>
+      </c>
+      <c r="W348">
+        <v>0</v>
+      </c>
+      <c r="X348">
+        <v>4029</v>
+      </c>
+      <c r="AA348" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="349" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A349" s="13" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B349" s="7">
+        <v>2336</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D349" s="5">
+        <v>43729</v>
+      </c>
+      <c r="E349" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F349" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H349">
+        <v>16</v>
+      </c>
+      <c r="I349" t="s">
+        <v>758</v>
+      </c>
+      <c r="J349" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="K349" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="L349" t="s">
+        <v>1114</v>
+      </c>
+      <c r="M349" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N349" t="s">
+        <v>1162</v>
+      </c>
+      <c r="O349">
+        <v>1</v>
+      </c>
+      <c r="P349">
+        <v>1</v>
+      </c>
+      <c r="Q349">
+        <v>1</v>
+      </c>
+      <c r="R349">
+        <v>0</v>
+      </c>
+      <c r="S349">
+        <v>0</v>
+      </c>
+      <c r="T349">
+        <v>0</v>
+      </c>
+      <c r="U349" t="s">
+        <v>757</v>
+      </c>
+      <c r="V349" t="s">
+        <v>759</v>
+      </c>
+      <c r="W349">
+        <v>0</v>
+      </c>
+      <c r="X349">
+        <v>4029</v>
+      </c>
+      <c r="AA349" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="350" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A350" s="13" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B350" s="7">
+        <v>2336</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D350" s="5">
+        <v>43731</v>
+      </c>
+      <c r="E350" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F350" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H350">
+        <v>16</v>
+      </c>
+      <c r="I350" t="s">
+        <v>758</v>
+      </c>
+      <c r="J350" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="K350" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="L350" t="s">
+        <v>1114</v>
+      </c>
+      <c r="M350" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N350" t="s">
+        <v>1162</v>
+      </c>
+      <c r="O350">
+        <v>1</v>
+      </c>
+      <c r="P350">
+        <v>1</v>
+      </c>
+      <c r="Q350">
+        <v>1</v>
+      </c>
+      <c r="R350">
+        <v>0</v>
+      </c>
+      <c r="S350">
+        <v>0</v>
+      </c>
+      <c r="T350">
+        <v>0</v>
+      </c>
+      <c r="U350" t="s">
+        <v>757</v>
+      </c>
+      <c r="V350" t="s">
+        <v>759</v>
+      </c>
+      <c r="W350">
+        <v>0</v>
+      </c>
+      <c r="X350">
+        <v>4029</v>
+      </c>
+      <c r="AA350" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="351" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A351" s="13" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B351" s="7">
+        <v>2336</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D351" s="5">
+        <v>43733</v>
+      </c>
+      <c r="E351" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F351" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H351">
+        <v>16</v>
+      </c>
+      <c r="I351" t="s">
+        <v>758</v>
+      </c>
+      <c r="J351" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="K351" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="L351" t="s">
+        <v>1114</v>
+      </c>
+      <c r="M351" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N351" t="s">
+        <v>1162</v>
+      </c>
+      <c r="O351">
+        <v>1</v>
+      </c>
+      <c r="P351">
+        <v>1</v>
+      </c>
+      <c r="Q351">
+        <v>1</v>
+      </c>
+      <c r="R351">
+        <v>0</v>
+      </c>
+      <c r="S351">
+        <v>0</v>
+      </c>
+      <c r="T351">
+        <v>0</v>
+      </c>
+      <c r="U351" t="s">
+        <v>757</v>
+      </c>
+      <c r="V351" t="s">
+        <v>759</v>
+      </c>
+      <c r="W351">
+        <v>0</v>
+      </c>
+      <c r="X351">
+        <v>4029</v>
+      </c>
+      <c r="AA351" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="352" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A352" s="13" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B352" s="7">
+        <v>2336</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D352" s="5">
+        <v>43740</v>
+      </c>
+      <c r="E352" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F352" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H352">
+        <v>16</v>
+      </c>
+      <c r="I352" t="s">
+        <v>758</v>
+      </c>
+      <c r="J352" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="K352" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="L352" t="s">
+        <v>1114</v>
+      </c>
+      <c r="M352" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N352" t="s">
+        <v>1162</v>
+      </c>
+      <c r="O352">
+        <v>1</v>
+      </c>
+      <c r="P352">
+        <v>1</v>
+      </c>
+      <c r="Q352">
+        <v>1</v>
+      </c>
+      <c r="R352">
+        <v>0</v>
+      </c>
+      <c r="S352">
+        <v>0</v>
+      </c>
+      <c r="T352">
+        <v>0</v>
+      </c>
+      <c r="U352" t="s">
+        <v>757</v>
+      </c>
+      <c r="V352" t="s">
+        <v>759</v>
+      </c>
+      <c r="W352">
+        <v>0</v>
+      </c>
+      <c r="X352">
+        <v>4029</v>
+      </c>
+      <c r="AA352" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="353" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A353" s="13" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B353" s="7">
+        <v>2336</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D353" s="5">
+        <v>43744</v>
+      </c>
+      <c r="E353" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F353" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H353">
+        <v>16</v>
+      </c>
+      <c r="I353" t="s">
+        <v>758</v>
+      </c>
+      <c r="J353" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="K353" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="L353" t="s">
+        <v>1114</v>
+      </c>
+      <c r="M353" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N353" t="s">
+        <v>1162</v>
+      </c>
+      <c r="O353">
+        <v>1</v>
+      </c>
+      <c r="P353">
+        <v>1</v>
+      </c>
+      <c r="Q353">
+        <v>1</v>
+      </c>
+      <c r="R353">
+        <v>0</v>
+      </c>
+      <c r="S353">
+        <v>0</v>
+      </c>
+      <c r="T353">
+        <v>0</v>
+      </c>
+      <c r="U353" t="s">
+        <v>757</v>
+      </c>
+      <c r="V353" t="s">
+        <v>759</v>
+      </c>
+      <c r="W353">
+        <v>0</v>
+      </c>
+      <c r="X353">
+        <v>4029</v>
+      </c>
+      <c r="AA353" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="354" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A354" s="13" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B354" s="7">
+        <v>2336</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D354" s="5">
+        <v>43745</v>
+      </c>
+      <c r="E354" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F354" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H354">
+        <v>16</v>
+      </c>
+      <c r="I354" t="s">
+        <v>758</v>
+      </c>
+      <c r="J354" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="K354" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="L354" t="s">
+        <v>1114</v>
+      </c>
+      <c r="M354" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N354" t="s">
+        <v>1162</v>
+      </c>
+      <c r="O354">
+        <v>1</v>
+      </c>
+      <c r="P354">
+        <v>1</v>
+      </c>
+      <c r="Q354">
+        <v>1</v>
+      </c>
+      <c r="R354">
+        <v>0</v>
+      </c>
+      <c r="S354">
+        <v>0</v>
+      </c>
+      <c r="T354">
+        <v>0</v>
+      </c>
+      <c r="U354" t="s">
+        <v>757</v>
+      </c>
+      <c r="V354" t="s">
+        <v>759</v>
+      </c>
+      <c r="W354">
+        <v>0</v>
+      </c>
+      <c r="X354">
+        <v>4029</v>
+      </c>
+      <c r="AA354" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="355" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A355" s="13" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B355" s="7">
+        <v>2336</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D355" s="5">
+        <v>43748</v>
+      </c>
+      <c r="E355" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F355" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H355">
+        <v>16</v>
+      </c>
+      <c r="I355" t="s">
+        <v>758</v>
+      </c>
+      <c r="J355" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="K355" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="L355" t="s">
+        <v>1114</v>
+      </c>
+      <c r="M355" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N355" t="s">
+        <v>1162</v>
+      </c>
+      <c r="O355">
+        <v>1</v>
+      </c>
+      <c r="P355">
+        <v>1</v>
+      </c>
+      <c r="Q355">
+        <v>1</v>
+      </c>
+      <c r="R355">
+        <v>0</v>
+      </c>
+      <c r="S355">
+        <v>0</v>
+      </c>
+      <c r="T355">
+        <v>0</v>
+      </c>
+      <c r="U355" t="s">
+        <v>757</v>
+      </c>
+      <c r="V355" t="s">
+        <v>759</v>
+      </c>
+      <c r="W355">
+        <v>0</v>
+      </c>
+      <c r="X355">
+        <v>4029</v>
+      </c>
+      <c r="AA355" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="356" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A356" s="13" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B356" s="7">
+        <v>2336</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D356" s="5">
+        <v>43750</v>
+      </c>
+      <c r="E356" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F356" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H356">
+        <v>16</v>
+      </c>
+      <c r="I356" t="s">
+        <v>758</v>
+      </c>
+      <c r="J356" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="K356" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="L356" t="s">
+        <v>1114</v>
+      </c>
+      <c r="M356" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N356" t="s">
+        <v>1162</v>
+      </c>
+      <c r="O356">
+        <v>1</v>
+      </c>
+      <c r="P356">
+        <v>1</v>
+      </c>
+      <c r="Q356">
+        <v>1</v>
+      </c>
+      <c r="R356">
+        <v>0</v>
+      </c>
+      <c r="S356">
+        <v>0</v>
+      </c>
+      <c r="T356">
+        <v>0</v>
+      </c>
+      <c r="U356" t="s">
+        <v>757</v>
+      </c>
+      <c r="V356" t="s">
+        <v>759</v>
+      </c>
+      <c r="W356">
+        <v>0</v>
+      </c>
+      <c r="X356">
+        <v>4029</v>
+      </c>
+      <c r="AA356" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="357" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A357" s="13" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B357" s="7">
+        <v>2336</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D357" s="5">
+        <v>43761</v>
+      </c>
+      <c r="E357" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F357" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H357">
+        <v>16</v>
+      </c>
+      <c r="I357" t="s">
+        <v>758</v>
+      </c>
+      <c r="J357" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="K357" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="L357" t="s">
+        <v>1114</v>
+      </c>
+      <c r="M357" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N357" t="s">
+        <v>1162</v>
+      </c>
+      <c r="O357">
+        <v>1</v>
+      </c>
+      <c r="P357">
+        <v>1</v>
+      </c>
+      <c r="Q357">
+        <v>1</v>
+      </c>
+      <c r="R357">
+        <v>0</v>
+      </c>
+      <c r="S357">
+        <v>0</v>
+      </c>
+      <c r="T357">
+        <v>0</v>
+      </c>
+      <c r="U357" t="s">
+        <v>757</v>
+      </c>
+      <c r="V357" t="s">
+        <v>759</v>
+      </c>
+      <c r="W357">
+        <v>0</v>
+      </c>
+      <c r="X357">
+        <v>4029</v>
+      </c>
+      <c r="AA357" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="358" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A358" s="13" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B358" s="7">
+        <v>2336</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D358" s="5">
+        <v>43768</v>
+      </c>
+      <c r="E358" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F358" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H358">
+        <v>16</v>
+      </c>
+      <c r="I358" t="s">
+        <v>758</v>
+      </c>
+      <c r="J358" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="K358" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="L358" t="s">
+        <v>1114</v>
+      </c>
+      <c r="M358" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N358" t="s">
+        <v>1162</v>
+      </c>
+      <c r="O358">
+        <v>1</v>
+      </c>
+      <c r="P358">
+        <v>1</v>
+      </c>
+      <c r="Q358">
+        <v>1</v>
+      </c>
+      <c r="R358">
+        <v>0</v>
+      </c>
+      <c r="S358">
+        <v>0</v>
+      </c>
+      <c r="T358">
+        <v>0</v>
+      </c>
+      <c r="U358" t="s">
+        <v>757</v>
+      </c>
+      <c r="V358" t="s">
+        <v>759</v>
+      </c>
+      <c r="W358">
+        <v>0</v>
+      </c>
+      <c r="X358">
+        <v>4029</v>
+      </c>
+      <c r="AA358" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="359" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A359" s="13" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B359" s="7">
+        <v>2336</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D359" s="5">
+        <v>43779</v>
+      </c>
+      <c r="E359" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F359" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H359">
+        <v>16</v>
+      </c>
+      <c r="I359" t="s">
+        <v>758</v>
+      </c>
+      <c r="J359" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="K359" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="L359" t="s">
+        <v>1114</v>
+      </c>
+      <c r="M359" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N359" t="s">
+        <v>1162</v>
+      </c>
+      <c r="O359">
+        <v>1</v>
+      </c>
+      <c r="P359">
+        <v>1</v>
+      </c>
+      <c r="Q359">
+        <v>1</v>
+      </c>
+      <c r="R359">
+        <v>0</v>
+      </c>
+      <c r="S359">
+        <v>0</v>
+      </c>
+      <c r="T359">
+        <v>0</v>
+      </c>
+      <c r="U359" t="s">
+        <v>757</v>
+      </c>
+      <c r="V359" t="s">
+        <v>759</v>
+      </c>
+      <c r="W359">
+        <v>0</v>
+      </c>
+      <c r="X359">
+        <v>4029</v>
+      </c>
+      <c r="AA359" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="360" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A360" s="13" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B360" s="7">
+        <v>2336</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D360" s="5">
+        <v>43783</v>
+      </c>
+      <c r="E360" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F360" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H360">
+        <v>16</v>
+      </c>
+      <c r="I360" t="s">
+        <v>758</v>
+      </c>
+      <c r="J360" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="K360" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="L360" t="s">
+        <v>1114</v>
+      </c>
+      <c r="M360" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N360" t="s">
+        <v>1162</v>
+      </c>
+      <c r="O360">
+        <v>1</v>
+      </c>
+      <c r="P360">
+        <v>1</v>
+      </c>
+      <c r="Q360">
+        <v>1</v>
+      </c>
+      <c r="R360">
+        <v>0</v>
+      </c>
+      <c r="S360">
+        <v>0</v>
+      </c>
+      <c r="T360">
+        <v>0</v>
+      </c>
+      <c r="U360" t="s">
+        <v>757</v>
+      </c>
+      <c r="V360" t="s">
+        <v>759</v>
+      </c>
+      <c r="W360">
+        <v>0</v>
+      </c>
+      <c r="X360">
+        <v>4029</v>
+      </c>
+      <c r="AA360" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="361" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A361" s="13" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B361" s="7">
+        <v>2336</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D361" s="5">
+        <v>43793</v>
+      </c>
+      <c r="E361" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F361" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H361">
+        <v>16</v>
+      </c>
+      <c r="I361" t="s">
+        <v>758</v>
+      </c>
+      <c r="J361" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="K361" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="L361" t="s">
+        <v>1114</v>
+      </c>
+      <c r="M361" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N361" t="s">
+        <v>1162</v>
+      </c>
+      <c r="O361">
+        <v>1</v>
+      </c>
+      <c r="P361">
+        <v>1</v>
+      </c>
+      <c r="Q361">
+        <v>1</v>
+      </c>
+      <c r="R361">
+        <v>0</v>
+      </c>
+      <c r="S361">
+        <v>0</v>
+      </c>
+      <c r="T361">
+        <v>0</v>
+      </c>
+      <c r="U361" t="s">
+        <v>757</v>
+      </c>
+      <c r="V361" t="s">
+        <v>759</v>
+      </c>
+      <c r="W361">
+        <v>0</v>
+      </c>
+      <c r="X361">
+        <v>4029</v>
+      </c>
+      <c r="AA361" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="362" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B362" s="7"/>
+      <c r="D362" s="5"/>
+      <c r="J362" s="1"/>
+      <c r="K362" s="1"/>
+      <c r="M362" s="10"/>
+      <c r="N362"/>
+    </row>
+    <row r="363" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B363" s="7"/>
+      <c r="D363" s="5"/>
+      <c r="J363" s="1"/>
+      <c r="K363" s="1"/>
+      <c r="M363" s="10"/>
+      <c r="N363"/>
+    </row>
+    <row r="364" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B364" s="7"/>
+      <c r="D364" s="5"/>
+      <c r="J364" s="1"/>
+      <c r="K364" s="1"/>
+      <c r="M364" s="10"/>
+      <c r="N364"/>
+    </row>
+    <row r="365" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B365" s="7"/>
+      <c r="D365" s="5"/>
+      <c r="J365" s="1"/>
+      <c r="K365" s="1"/>
+      <c r="M365" s="10"/>
+      <c r="N365"/>
+    </row>
+    <row r="366" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B366" s="7"/>
+      <c r="D366" s="5"/>
+      <c r="J366" s="1"/>
+      <c r="K366" s="1"/>
+      <c r="M366" s="10"/>
+      <c r="N366"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AD174">
@@ -28428,16 +31908,19 @@
   <conditionalFormatting sqref="A83">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A233:A258">
+  <conditionalFormatting sqref="A242:A267">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A294:A303">
+  <conditionalFormatting sqref="A303:A312">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A304:A318">
+  <conditionalFormatting sqref="A313:A327">
     <cfRule type="duplicateValues" dxfId="0" priority="42"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="597" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C344 C328:C339 C341" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/inclusion_lists/exp_summary.xlsx
+++ b/inclusion_lists/exp_summary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5023" uniqueCount="1186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5078" uniqueCount="1199">
   <si>
     <t>date</t>
   </si>
@@ -3584,13 +3584,52 @@
     <t>b2299_d191213</t>
   </si>
   <si>
-    <t>[31723200707 32131441441; 32168159967 39668188681; 39728188681 40098057829; ]</t>
-  </si>
-  <si>
     <t>[31632137327 31974662460; 32056927719 39059190647; 39186170153 39480628000; ]</t>
   </si>
   <si>
-    <t>[32271509929 32654251667; 32747308821 39878181896; 39945446550 40240270000; ]</t>
+    <t>[32271509929 32654251667; 32752299626 39878181896; 39945446550 40240270000; ]</t>
+  </si>
+  <si>
+    <t>[31723200707 32131441441; 32168159967 39491477469; 39728188681 40098057829; ]</t>
+  </si>
+  <si>
+    <t>b0184_d191124</t>
+  </si>
+  <si>
+    <t>b0184_d191125</t>
+  </si>
+  <si>
+    <t>b0184_d191126</t>
+  </si>
+  <si>
+    <t>b0184_d191127</t>
+  </si>
+  <si>
+    <t>{'Sleep1';'Behave_6m_Light';'Behave_6m_Dark';'Behave_6m_Light';'Sleep2'}</t>
+  </si>
+  <si>
+    <t>one very short dark session - 1 flight only.</t>
+  </si>
+  <si>
+    <t>way to far end doing medium height, way back very low (0.5 m above the ground), mostly direct flights, landed only one time on the floor.</t>
+  </si>
+  <si>
+    <t>6m+120m</t>
+  </si>
+  <si>
+    <t>[43714183000 44235539394; 44298632000 45577890000; 45580533000 45610781204; 45651269950 45986091940; 46018354000 46954719000]</t>
+  </si>
+  <si>
+    <t>[60147794000 60989135414; 61030817000 61662604000; 61777079000 65713353294; 65753648000 66587858000]</t>
+  </si>
+  <si>
+    <t>[48778241000 50123383085; 50170303000 51035217761; 51076388000 51679735000]</t>
+  </si>
+  <si>
+    <t>[59445993000 59775226000; 60006721000 61704590171; 61800710116 63082975000]</t>
+  </si>
+  <si>
+    <t>{'Sleep1';'Behave_6m';'Behave_6m_Dark';'Behave_6m_Light';'Sleep2'}</t>
   </si>
 </sst>
 </file>
@@ -4380,13 +4419,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD366"/>
+  <dimension ref="A1:AD370"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B306" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M138" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J347" sqref="J347"/>
+      <selection pane="bottomRight" activeCell="M177" sqref="M177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4400,11 +4439,11 @@
     <col min="7" max="7" width="5.140625" style="7" customWidth="1"/>
     <col min="8" max="8" width="3" customWidth="1"/>
     <col min="9" max="9" width="6.140625" customWidth="1"/>
-    <col min="10" max="10" width="102.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="26" customWidth="1"/>
-    <col min="13" max="13" width="27.85546875" customWidth="1"/>
-    <col min="14" max="14" width="74.5703125" style="9" customWidth="1"/>
+    <col min="12" max="12" width="85.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="80.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="173.85546875" style="9" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="4.5703125" customWidth="1"/>
     <col min="16" max="16" width="4.140625" customWidth="1"/>
     <col min="17" max="17" width="3.140625" customWidth="1"/>
@@ -17776,7 +17815,7 @@
     </row>
     <row r="175" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A175" s="13" t="s">
-        <v>744</v>
+        <v>1186</v>
       </c>
       <c r="B175" s="7">
         <v>184</v>
@@ -17785,7 +17824,7 @@
         <v>754</v>
       </c>
       <c r="D175" s="5">
-        <v>43797</v>
+        <v>43793</v>
       </c>
       <c r="E175" s="5" t="s">
         <v>844</v>
@@ -17809,10 +17848,10 @@
         <v>770</v>
       </c>
       <c r="M175" s="10" t="s">
-        <v>498</v>
+        <v>1127</v>
       </c>
       <c r="N175" s="9" t="s">
-        <v>771</v>
+        <v>1197</v>
       </c>
       <c r="O175">
         <v>1</v>
@@ -17833,7 +17872,7 @@
         <v>0</v>
       </c>
       <c r="U175" t="s">
-        <v>757</v>
+        <v>1029</v>
       </c>
       <c r="V175" t="s">
         <v>759</v>
@@ -17847,13 +17886,10 @@
       <c r="AA175" t="s">
         <v>86</v>
       </c>
-      <c r="AB175" t="s">
-        <v>760</v>
-      </c>
     </row>
     <row r="176" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A176" s="13" t="s">
-        <v>745</v>
+        <v>1187</v>
       </c>
       <c r="B176" s="7">
         <v>184</v>
@@ -17862,7 +17898,7 @@
         <v>754</v>
       </c>
       <c r="D176" s="5">
-        <v>43798</v>
+        <v>43794</v>
       </c>
       <c r="E176" s="5" t="s">
         <v>844</v>
@@ -17886,10 +17922,10 @@
         <v>770</v>
       </c>
       <c r="M176" s="10" t="s">
-        <v>498</v>
+        <v>1127</v>
       </c>
       <c r="N176" s="9" t="s">
-        <v>772</v>
+        <v>1196</v>
       </c>
       <c r="O176">
         <v>1</v>
@@ -17910,7 +17946,7 @@
         <v>0</v>
       </c>
       <c r="U176" t="s">
-        <v>757</v>
+        <v>1029</v>
       </c>
       <c r="V176" t="s">
         <v>759</v>
@@ -17924,16 +17960,10 @@
       <c r="AA176" t="s">
         <v>86</v>
       </c>
-      <c r="AB176" t="s">
-        <v>760</v>
-      </c>
-      <c r="AC176" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="177" spans="1:29" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A177" s="13" t="s">
-        <v>746</v>
+        <v>1188</v>
       </c>
       <c r="B177" s="7">
         <v>184</v>
@@ -17942,7 +17972,7 @@
         <v>754</v>
       </c>
       <c r="D177" s="5">
-        <v>43799</v>
+        <v>43795</v>
       </c>
       <c r="E177" s="5" t="s">
         <v>844</v>
@@ -17966,10 +17996,10 @@
         <v>770</v>
       </c>
       <c r="M177" s="10" t="s">
-        <v>498</v>
+        <v>1198</v>
       </c>
       <c r="N177" s="9" t="s">
-        <v>768</v>
+        <v>1194</v>
       </c>
       <c r="O177">
         <v>1</v>
@@ -17990,7 +18020,7 @@
         <v>0</v>
       </c>
       <c r="U177" t="s">
-        <v>757</v>
+        <v>1029</v>
       </c>
       <c r="V177" t="s">
         <v>759</v>
@@ -18005,15 +18035,15 @@
         <v>86</v>
       </c>
       <c r="AB177" t="s">
-        <v>761</v>
-      </c>
-      <c r="AC177" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="178" spans="1:29" x14ac:dyDescent="0.25">
+        <v>1191</v>
+      </c>
+      <c r="AD177" s="10" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="178" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A178" s="13" t="s">
-        <v>747</v>
+        <v>1189</v>
       </c>
       <c r="B178" s="7">
         <v>184</v>
@@ -18022,7 +18052,7 @@
         <v>754</v>
       </c>
       <c r="D178" s="5">
-        <v>43800</v>
+        <v>43796</v>
       </c>
       <c r="E178" s="5" t="s">
         <v>844</v>
@@ -18046,10 +18076,10 @@
         <v>770</v>
       </c>
       <c r="M178" s="10" t="s">
-        <v>498</v>
+        <v>845</v>
       </c>
       <c r="N178" s="9" t="s">
-        <v>769</v>
+        <v>1195</v>
       </c>
       <c r="O178">
         <v>1</v>
@@ -18070,7 +18100,7 @@
         <v>0</v>
       </c>
       <c r="U178" t="s">
-        <v>757</v>
+        <v>1193</v>
       </c>
       <c r="V178" t="s">
         <v>759</v>
@@ -18084,13 +18114,13 @@
       <c r="AA178" t="s">
         <v>86</v>
       </c>
-      <c r="AC178" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="179" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB178" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="179" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A179" s="13" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="B179" s="7">
         <v>184</v>
@@ -18099,7 +18129,7 @@
         <v>754</v>
       </c>
       <c r="D179" s="5">
-        <v>43801</v>
+        <v>43797</v>
       </c>
       <c r="E179" s="5" t="s">
         <v>844</v>
@@ -18126,7 +18156,7 @@
         <v>498</v>
       </c>
       <c r="N179" s="9" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="O179">
         <v>1</v>
@@ -18161,13 +18191,13 @@
       <c r="AA179" t="s">
         <v>86</v>
       </c>
-      <c r="AC179" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="180" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB179" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="180" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A180" s="13" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="B180" s="7">
         <v>184</v>
@@ -18176,7 +18206,7 @@
         <v>754</v>
       </c>
       <c r="D180" s="5">
-        <v>43802</v>
+        <v>43798</v>
       </c>
       <c r="E180" s="5" t="s">
         <v>844</v>
@@ -18203,7 +18233,7 @@
         <v>498</v>
       </c>
       <c r="N180" s="9" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="O180">
         <v>1</v>
@@ -18239,15 +18269,15 @@
         <v>86</v>
       </c>
       <c r="AB180" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="AC180" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="181" spans="1:29" x14ac:dyDescent="0.25">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="181" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A181" s="13" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="B181" s="7">
         <v>184</v>
@@ -18256,7 +18286,7 @@
         <v>754</v>
       </c>
       <c r="D181" s="5">
-        <v>43803</v>
+        <v>43799</v>
       </c>
       <c r="E181" s="5" t="s">
         <v>844</v>
@@ -18283,7 +18313,7 @@
         <v>498</v>
       </c>
       <c r="N181" s="9" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="O181">
         <v>1</v>
@@ -18318,10 +18348,16 @@
       <c r="AA181" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="182" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB181" t="s">
+        <v>761</v>
+      </c>
+      <c r="AC181" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="182" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A182" s="13" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="B182" s="7">
         <v>184</v>
@@ -18330,7 +18366,7 @@
         <v>754</v>
       </c>
       <c r="D182" s="5">
-        <v>43804</v>
+        <v>43800</v>
       </c>
       <c r="E182" s="5" t="s">
         <v>844</v>
@@ -18357,7 +18393,7 @@
         <v>498</v>
       </c>
       <c r="N182" s="9" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="O182">
         <v>1</v>
@@ -18392,10 +18428,13 @@
       <c r="AA182" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="183" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC182" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="183" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A183" s="13" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B183" s="7">
         <v>184</v>
@@ -18404,7 +18443,7 @@
         <v>754</v>
       </c>
       <c r="D183" s="5">
-        <v>43807</v>
+        <v>43801</v>
       </c>
       <c r="E183" s="5" t="s">
         <v>844</v>
@@ -18431,7 +18470,7 @@
         <v>498</v>
       </c>
       <c r="N183" s="9" t="s">
-        <v>798</v>
+        <v>773</v>
       </c>
       <c r="O183">
         <v>1</v>
@@ -18466,13 +18505,13 @@
       <c r="AA183" t="s">
         <v>86</v>
       </c>
-      <c r="AB183" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="184" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AC183" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="184" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A184" s="13" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B184" s="7">
         <v>184</v>
@@ -18481,7 +18520,7 @@
         <v>754</v>
       </c>
       <c r="D184" s="5">
-        <v>43808</v>
+        <v>43802</v>
       </c>
       <c r="E184" s="5" t="s">
         <v>844</v>
@@ -18508,7 +18547,7 @@
         <v>498</v>
       </c>
       <c r="N184" s="9" t="s">
-        <v>792</v>
+        <v>774</v>
       </c>
       <c r="O184">
         <v>1</v>
@@ -18543,10 +18582,16 @@
       <c r="AA184" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="185" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB184" t="s">
+        <v>762</v>
+      </c>
+      <c r="AC184" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="185" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A185" s="13" t="s">
-        <v>777</v>
+        <v>750</v>
       </c>
       <c r="B185" s="7">
         <v>184</v>
@@ -18555,7 +18600,7 @@
         <v>754</v>
       </c>
       <c r="D185" s="5">
-        <v>43809</v>
+        <v>43803</v>
       </c>
       <c r="E185" s="5" t="s">
         <v>844</v>
@@ -18582,7 +18627,7 @@
         <v>498</v>
       </c>
       <c r="N185" s="9" t="s">
-        <v>793</v>
+        <v>775</v>
       </c>
       <c r="O185">
         <v>1</v>
@@ -18618,9 +18663,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="186" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A186" s="13" t="s">
-        <v>778</v>
+        <v>751</v>
       </c>
       <c r="B186" s="7">
         <v>184</v>
@@ -18629,7 +18674,7 @@
         <v>754</v>
       </c>
       <c r="D186" s="5">
-        <v>43810</v>
+        <v>43804</v>
       </c>
       <c r="E186" s="5" t="s">
         <v>844</v>
@@ -18656,7 +18701,7 @@
         <v>498</v>
       </c>
       <c r="N186" s="9" t="s">
-        <v>794</v>
+        <v>776</v>
       </c>
       <c r="O186">
         <v>1</v>
@@ -18692,9 +18737,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="187" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A187" s="13" t="s">
-        <v>779</v>
+        <v>752</v>
       </c>
       <c r="B187" s="7">
         <v>184</v>
@@ -18703,7 +18748,7 @@
         <v>754</v>
       </c>
       <c r="D187" s="5">
-        <v>43811</v>
+        <v>43807</v>
       </c>
       <c r="E187" s="5" t="s">
         <v>844</v>
@@ -18730,7 +18775,7 @@
         <v>498</v>
       </c>
       <c r="N187" s="9" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="O187">
         <v>1</v>
@@ -18765,10 +18810,13 @@
       <c r="AA187" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="188" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB187" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="188" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A188" s="13" t="s">
-        <v>780</v>
+        <v>753</v>
       </c>
       <c r="B188" s="7">
         <v>184</v>
@@ -18777,7 +18825,7 @@
         <v>754</v>
       </c>
       <c r="D188" s="5">
-        <v>43814</v>
+        <v>43808</v>
       </c>
       <c r="E188" s="5" t="s">
         <v>844</v>
@@ -18804,7 +18852,7 @@
         <v>498</v>
       </c>
       <c r="N188" s="9" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="O188">
         <v>1</v>
@@ -18840,9 +18888,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="189" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A189" s="13" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="B189" s="7">
         <v>184</v>
@@ -18851,7 +18899,7 @@
         <v>754</v>
       </c>
       <c r="D189" s="5">
-        <v>43815</v>
+        <v>43809</v>
       </c>
       <c r="E189" s="5" t="s">
         <v>844</v>
@@ -18878,7 +18926,7 @@
         <v>498</v>
       </c>
       <c r="N189" s="9" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="O189">
         <v>1</v>
@@ -18914,9 +18962,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="190" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A190" s="13" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="B190" s="7">
         <v>184</v>
@@ -18925,7 +18973,7 @@
         <v>754</v>
       </c>
       <c r="D190" s="5">
-        <v>43816</v>
+        <v>43810</v>
       </c>
       <c r="E190" s="5" t="s">
         <v>844</v>
@@ -18952,7 +19000,7 @@
         <v>498</v>
       </c>
       <c r="N190" s="9" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="O190">
         <v>1</v>
@@ -18988,9 +19036,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="191" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A191" s="13" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="B191" s="7">
         <v>184</v>
@@ -18999,7 +19047,7 @@
         <v>754</v>
       </c>
       <c r="D191" s="5">
-        <v>43819</v>
+        <v>43811</v>
       </c>
       <c r="E191" s="5" t="s">
         <v>844</v>
@@ -19026,7 +19074,7 @@
         <v>498</v>
       </c>
       <c r="N191" s="9" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="O191">
         <v>1</v>
@@ -19062,9 +19110,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="192" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A192" s="13" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="B192" s="7">
         <v>184</v>
@@ -19073,7 +19121,7 @@
         <v>754</v>
       </c>
       <c r="D192" s="5">
-        <v>43821</v>
+        <v>43814</v>
       </c>
       <c r="E192" s="5" t="s">
         <v>844</v>
@@ -19100,7 +19148,7 @@
         <v>498</v>
       </c>
       <c r="N192" s="9" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="O192">
         <v>1</v>
@@ -19135,13 +19183,10 @@
       <c r="AA192" t="s">
         <v>86</v>
       </c>
-      <c r="AC192" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="193" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A193" s="13" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="B193" s="7">
         <v>184</v>
@@ -19150,7 +19195,7 @@
         <v>754</v>
       </c>
       <c r="D193" s="5">
-        <v>43823</v>
+        <v>43815</v>
       </c>
       <c r="E193" s="5" t="s">
         <v>844</v>
@@ -19177,7 +19222,7 @@
         <v>498</v>
       </c>
       <c r="N193" s="9" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="O193">
         <v>1</v>
@@ -19212,13 +19257,10 @@
       <c r="AA193" t="s">
         <v>86</v>
       </c>
-      <c r="AB193" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="194" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A194" s="13" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="B194" s="7">
         <v>184</v>
@@ -19227,7 +19269,7 @@
         <v>754</v>
       </c>
       <c r="D194" s="5">
-        <v>43824</v>
+        <v>43816</v>
       </c>
       <c r="E194" s="5" t="s">
         <v>844</v>
@@ -19254,7 +19296,7 @@
         <v>498</v>
       </c>
       <c r="N194" s="9" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="O194">
         <v>1</v>
@@ -19290,9 +19332,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="195" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A195" s="13" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="B195" s="7">
         <v>184</v>
@@ -19301,7 +19343,7 @@
         <v>754</v>
       </c>
       <c r="D195" s="5">
-        <v>43825</v>
+        <v>43819</v>
       </c>
       <c r="E195" s="5" t="s">
         <v>844</v>
@@ -19328,7 +19370,7 @@
         <v>498</v>
       </c>
       <c r="N195" s="9" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="O195">
         <v>1</v>
@@ -19364,9 +19406,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="196" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A196" s="13" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="B196" s="7">
         <v>184</v>
@@ -19375,7 +19417,7 @@
         <v>754</v>
       </c>
       <c r="D196" s="5">
-        <v>43831</v>
+        <v>43821</v>
       </c>
       <c r="E196" s="5" t="s">
         <v>844</v>
@@ -19402,7 +19444,7 @@
         <v>498</v>
       </c>
       <c r="N196" s="9" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="O196">
         <v>1</v>
@@ -19437,10 +19479,13 @@
       <c r="AA196" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="197" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC196" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="197" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A197" s="13" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="B197" s="7">
         <v>184</v>
@@ -19449,7 +19494,7 @@
         <v>754</v>
       </c>
       <c r="D197" s="5">
-        <v>43832</v>
+        <v>43823</v>
       </c>
       <c r="E197" s="5" t="s">
         <v>844</v>
@@ -19476,7 +19521,7 @@
         <v>498</v>
       </c>
       <c r="N197" s="9" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="O197">
         <v>1</v>
@@ -19511,22 +19556,25 @@
       <c r="AA197" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="198" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AB197" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="198" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A198" s="13" t="s">
-        <v>1117</v>
+        <v>786</v>
       </c>
       <c r="B198" s="7">
-        <v>2382</v>
+        <v>184</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D198" s="5">
-        <v>43620</v>
+        <v>43824</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F198" s="7" t="s">
         <v>86</v>
@@ -19544,13 +19592,13 @@
         <v>756</v>
       </c>
       <c r="L198" s="7" t="s">
-        <v>1114</v>
+        <v>770</v>
       </c>
       <c r="M198" s="10" t="s">
-        <v>1126</v>
+        <v>498</v>
       </c>
       <c r="N198" s="9" t="s">
-        <v>1128</v>
+        <v>803</v>
       </c>
       <c r="O198">
         <v>1</v>
@@ -19559,19 +19607,19 @@
         <v>1</v>
       </c>
       <c r="Q198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R198">
         <v>0</v>
       </c>
       <c r="S198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T198">
         <v>0</v>
       </c>
       <c r="U198" t="s">
-        <v>1029</v>
+        <v>757</v>
       </c>
       <c r="V198" t="s">
         <v>759</v>
@@ -19580,27 +19628,27 @@
         <v>16</v>
       </c>
       <c r="X198">
-        <v>4013</v>
+        <v>1624</v>
       </c>
       <c r="AA198" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="199" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A199" s="13" t="s">
-        <v>1118</v>
+        <v>787</v>
       </c>
       <c r="B199" s="7">
-        <v>2382</v>
+        <v>184</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D199" s="5">
-        <v>43622</v>
+        <v>43825</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F199" s="7" t="s">
         <v>86</v>
@@ -19618,13 +19666,13 @@
         <v>756</v>
       </c>
       <c r="L199" s="7" t="s">
-        <v>1114</v>
+        <v>770</v>
       </c>
       <c r="M199" s="10" t="s">
-        <v>1126</v>
+        <v>498</v>
       </c>
       <c r="N199" s="9" t="s">
-        <v>1129</v>
+        <v>804</v>
       </c>
       <c r="O199">
         <v>1</v>
@@ -19633,19 +19681,19 @@
         <v>1</v>
       </c>
       <c r="Q199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R199">
         <v>0</v>
       </c>
       <c r="S199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T199">
         <v>0</v>
       </c>
       <c r="U199" t="s">
-        <v>1029</v>
+        <v>757</v>
       </c>
       <c r="V199" t="s">
         <v>759</v>
@@ -19654,27 +19702,27 @@
         <v>16</v>
       </c>
       <c r="X199">
-        <v>4013</v>
+        <v>1624</v>
       </c>
       <c r="AA199" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="200" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A200" s="13" t="s">
-        <v>1119</v>
+        <v>788</v>
       </c>
       <c r="B200" s="7">
-        <v>2382</v>
+        <v>184</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D200" s="5">
-        <v>43626</v>
+        <v>43831</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F200" s="7" t="s">
         <v>86</v>
@@ -19692,13 +19740,13 @@
         <v>756</v>
       </c>
       <c r="L200" s="7" t="s">
-        <v>1143</v>
+        <v>770</v>
       </c>
       <c r="M200" s="10" t="s">
-        <v>1126</v>
+        <v>498</v>
       </c>
       <c r="N200" s="9" t="s">
-        <v>1152</v>
+        <v>805</v>
       </c>
       <c r="O200">
         <v>1</v>
@@ -19713,13 +19761,13 @@
         <v>0</v>
       </c>
       <c r="S200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T200">
         <v>0</v>
       </c>
       <c r="U200" t="s">
-        <v>1029</v>
+        <v>757</v>
       </c>
       <c r="V200" t="s">
         <v>759</v>
@@ -19728,27 +19776,27 @@
         <v>16</v>
       </c>
       <c r="X200">
-        <v>4013</v>
+        <v>1624</v>
       </c>
       <c r="AA200" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="201" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A201" s="13" t="s">
-        <v>1120</v>
+        <v>789</v>
       </c>
       <c r="B201" s="7">
-        <v>2382</v>
+        <v>184</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D201" s="5">
-        <v>43628</v>
+        <v>43832</v>
       </c>
       <c r="E201" s="5" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F201" s="7" t="s">
         <v>86</v>
@@ -19766,13 +19814,13 @@
         <v>756</v>
       </c>
       <c r="L201" s="7" t="s">
-        <v>1143</v>
+        <v>770</v>
       </c>
       <c r="M201" s="10" t="s">
-        <v>1126</v>
-      </c>
-      <c r="N201" s="11" t="s">
-        <v>1151</v>
+        <v>498</v>
+      </c>
+      <c r="N201" s="9" t="s">
+        <v>806</v>
       </c>
       <c r="O201">
         <v>1</v>
@@ -19787,13 +19835,13 @@
         <v>0</v>
       </c>
       <c r="S201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T201">
         <v>0</v>
       </c>
       <c r="U201" t="s">
-        <v>1029</v>
+        <v>757</v>
       </c>
       <c r="V201" t="s">
         <v>759</v>
@@ -19802,15 +19850,15 @@
         <v>16</v>
       </c>
       <c r="X201">
-        <v>4013</v>
+        <v>1624</v>
       </c>
       <c r="AA201" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="202" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A202" s="13" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="B202" s="7">
         <v>2382</v>
@@ -19819,7 +19867,7 @@
         <v>754</v>
       </c>
       <c r="D202" s="5">
-        <v>43632</v>
+        <v>43620</v>
       </c>
       <c r="E202" s="5" t="s">
         <v>843</v>
@@ -19840,13 +19888,13 @@
         <v>756</v>
       </c>
       <c r="L202" s="7" t="s">
-        <v>1144</v>
+        <v>1114</v>
       </c>
       <c r="M202" s="10" t="s">
-        <v>1127</v>
-      </c>
-      <c r="N202" s="11" t="s">
-        <v>1150</v>
+        <v>1126</v>
+      </c>
+      <c r="N202" s="9" t="s">
+        <v>1128</v>
       </c>
       <c r="O202">
         <v>1</v>
@@ -19882,9 +19930,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="203" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A203" s="13" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="B203" s="7">
         <v>2382</v>
@@ -19893,7 +19941,7 @@
         <v>754</v>
       </c>
       <c r="D203" s="5">
-        <v>43633</v>
+        <v>43622</v>
       </c>
       <c r="E203" s="5" t="s">
         <v>843</v>
@@ -19914,13 +19962,13 @@
         <v>756</v>
       </c>
       <c r="L203" s="7" t="s">
-        <v>1144</v>
+        <v>1114</v>
       </c>
       <c r="M203" s="10" t="s">
-        <v>1127</v>
-      </c>
-      <c r="N203" s="11" t="s">
-        <v>1149</v>
+        <v>1126</v>
+      </c>
+      <c r="N203" s="9" t="s">
+        <v>1129</v>
       </c>
       <c r="O203">
         <v>1</v>
@@ -19929,7 +19977,7 @@
         <v>1</v>
       </c>
       <c r="Q203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R203">
         <v>0</v>
@@ -19956,9 +20004,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="204" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A204" s="13" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="B204" s="7">
         <v>2382</v>
@@ -19967,7 +20015,7 @@
         <v>754</v>
       </c>
       <c r="D204" s="5">
-        <v>43634</v>
+        <v>43626</v>
       </c>
       <c r="E204" s="5" t="s">
         <v>843</v>
@@ -19988,13 +20036,13 @@
         <v>756</v>
       </c>
       <c r="L204" s="7" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="M204" s="10" t="s">
-        <v>1127</v>
-      </c>
-      <c r="N204" s="11" t="s">
-        <v>1148</v>
+        <v>1126</v>
+      </c>
+      <c r="N204" s="9" t="s">
+        <v>1152</v>
       </c>
       <c r="O204">
         <v>1</v>
@@ -20003,7 +20051,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R204">
         <v>0</v>
@@ -20030,9 +20078,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="205" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A205" s="13" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="B205" s="7">
         <v>2382</v>
@@ -20041,7 +20089,7 @@
         <v>754</v>
       </c>
       <c r="D205" s="5">
-        <v>43635</v>
+        <v>43628</v>
       </c>
       <c r="E205" s="5" t="s">
         <v>843</v>
@@ -20062,13 +20110,13 @@
         <v>756</v>
       </c>
       <c r="L205" s="7" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="M205" s="10" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="N205" s="11" t="s">
-        <v>1147</v>
+        <v>1151</v>
       </c>
       <c r="O205">
         <v>1</v>
@@ -20104,9 +20152,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="206" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A206" s="13" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="B206" s="7">
         <v>2382</v>
@@ -20115,7 +20163,7 @@
         <v>754</v>
       </c>
       <c r="D206" s="5">
-        <v>43636</v>
+        <v>43632</v>
       </c>
       <c r="E206" s="5" t="s">
         <v>843</v>
@@ -20136,13 +20184,13 @@
         <v>756</v>
       </c>
       <c r="L206" s="7" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="M206" s="10" t="s">
         <v>1127</v>
       </c>
       <c r="N206" s="11" t="s">
-        <v>1146</v>
+        <v>1150</v>
       </c>
       <c r="O206">
         <v>1</v>
@@ -20151,7 +20199,7 @@
         <v>1</v>
       </c>
       <c r="Q206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R206">
         <v>0</v>
@@ -20178,9 +20226,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="207" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A207" s="13" t="s">
-        <v>807</v>
+        <v>1122</v>
       </c>
       <c r="B207" s="7">
         <v>2382</v>
@@ -20189,7 +20237,7 @@
         <v>754</v>
       </c>
       <c r="D207" s="5">
-        <v>43639</v>
+        <v>43633</v>
       </c>
       <c r="E207" s="5" t="s">
         <v>843</v>
@@ -20210,13 +20258,13 @@
         <v>756</v>
       </c>
       <c r="L207" s="7" t="s">
-        <v>858</v>
+        <v>1144</v>
       </c>
       <c r="M207" s="10" t="s">
-        <v>845</v>
+        <v>1127</v>
       </c>
       <c r="N207" s="11" t="s">
-        <v>861</v>
+        <v>1149</v>
       </c>
       <c r="O207">
         <v>1</v>
@@ -20237,7 +20285,7 @@
         <v>0</v>
       </c>
       <c r="U207" t="s">
-        <v>757</v>
+        <v>1029</v>
       </c>
       <c r="V207" t="s">
         <v>759</v>
@@ -20251,13 +20299,10 @@
       <c r="AA207" t="s">
         <v>86</v>
       </c>
-      <c r="AB207" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="208" spans="1:28" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A208" s="13" t="s">
-        <v>808</v>
+        <v>1123</v>
       </c>
       <c r="B208" s="7">
         <v>2382</v>
@@ -20266,7 +20311,7 @@
         <v>754</v>
       </c>
       <c r="D208" s="5">
-        <v>43640</v>
+        <v>43634</v>
       </c>
       <c r="E208" s="5" t="s">
         <v>843</v>
@@ -20287,13 +20332,13 @@
         <v>756</v>
       </c>
       <c r="L208" s="7" t="s">
-        <v>858</v>
+        <v>1144</v>
       </c>
       <c r="M208" s="10" t="s">
-        <v>498</v>
+        <v>1127</v>
       </c>
       <c r="N208" s="11" t="s">
-        <v>862</v>
+        <v>1148</v>
       </c>
       <c r="O208">
         <v>1</v>
@@ -20302,7 +20347,7 @@
         <v>1</v>
       </c>
       <c r="Q208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R208">
         <v>0</v>
@@ -20314,7 +20359,7 @@
         <v>0</v>
       </c>
       <c r="U208" t="s">
-        <v>757</v>
+        <v>1029</v>
       </c>
       <c r="V208" t="s">
         <v>759</v>
@@ -20328,13 +20373,10 @@
       <c r="AA208" t="s">
         <v>86</v>
       </c>
-      <c r="AB208" t="s">
-        <v>851</v>
-      </c>
     </row>
     <row r="209" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A209" s="13" t="s">
-        <v>809</v>
+        <v>1124</v>
       </c>
       <c r="B209" s="7">
         <v>2382</v>
@@ -20343,7 +20385,7 @@
         <v>754</v>
       </c>
       <c r="D209" s="5">
-        <v>43641</v>
+        <v>43635</v>
       </c>
       <c r="E209" s="5" t="s">
         <v>843</v>
@@ -20364,13 +20406,13 @@
         <v>756</v>
       </c>
       <c r="L209" s="7" t="s">
-        <v>858</v>
+        <v>1145</v>
       </c>
       <c r="M209" s="10" t="s">
-        <v>498</v>
+        <v>1127</v>
       </c>
       <c r="N209" s="11" t="s">
-        <v>863</v>
+        <v>1147</v>
       </c>
       <c r="O209">
         <v>1</v>
@@ -20391,7 +20433,7 @@
         <v>0</v>
       </c>
       <c r="U209" t="s">
-        <v>757</v>
+        <v>1029</v>
       </c>
       <c r="V209" t="s">
         <v>759</v>
@@ -20400,7 +20442,7 @@
         <v>16</v>
       </c>
       <c r="X209">
-        <v>1624</v>
+        <v>4013</v>
       </c>
       <c r="AA209" t="s">
         <v>86</v>
@@ -20408,7 +20450,7 @@
     </row>
     <row r="210" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A210" s="13" t="s">
-        <v>810</v>
+        <v>1125</v>
       </c>
       <c r="B210" s="7">
         <v>2382</v>
@@ -20417,7 +20459,7 @@
         <v>754</v>
       </c>
       <c r="D210" s="5">
-        <v>43642</v>
+        <v>43636</v>
       </c>
       <c r="E210" s="5" t="s">
         <v>843</v>
@@ -20438,19 +20480,19 @@
         <v>756</v>
       </c>
       <c r="L210" s="7" t="s">
-        <v>858</v>
+        <v>1145</v>
       </c>
       <c r="M210" s="10" t="s">
-        <v>498</v>
+        <v>1127</v>
       </c>
       <c r="N210" s="11" t="s">
-        <v>846</v>
+        <v>1146</v>
       </c>
       <c r="O210">
         <v>1</v>
       </c>
       <c r="P210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q210">
         <v>0</v>
@@ -20465,7 +20507,7 @@
         <v>0</v>
       </c>
       <c r="U210" t="s">
-        <v>757</v>
+        <v>1029</v>
       </c>
       <c r="V210" t="s">
         <v>759</v>
@@ -20479,16 +20521,10 @@
       <c r="AA210" t="s">
         <v>86</v>
       </c>
-      <c r="AB210" t="s">
-        <v>852</v>
-      </c>
-      <c r="AD210" t="s">
-        <v>853</v>
-      </c>
     </row>
     <row r="211" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A211" s="13" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="B211" s="7">
         <v>2382</v>
@@ -20497,7 +20533,7 @@
         <v>754</v>
       </c>
       <c r="D211" s="5">
-        <v>43643</v>
+        <v>43639</v>
       </c>
       <c r="E211" s="5" t="s">
         <v>843</v>
@@ -20518,13 +20554,13 @@
         <v>756</v>
       </c>
       <c r="L211" s="7" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="M211" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="N211" s="9" t="s">
-        <v>864</v>
+        <v>845</v>
+      </c>
+      <c r="N211" s="11" t="s">
+        <v>861</v>
       </c>
       <c r="O211">
         <v>1</v>
@@ -20554,15 +20590,18 @@
         <v>16</v>
       </c>
       <c r="X211">
-        <v>1624</v>
+        <v>4013</v>
       </c>
       <c r="AA211" t="s">
         <v>86</v>
+      </c>
+      <c r="AB211" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="212" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A212" s="13" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="B212" s="7">
         <v>2382</v>
@@ -20571,7 +20610,7 @@
         <v>754</v>
       </c>
       <c r="D212" s="5">
-        <v>43644</v>
+        <v>43640</v>
       </c>
       <c r="E212" s="5" t="s">
         <v>843</v>
@@ -20592,13 +20631,13 @@
         <v>756</v>
       </c>
       <c r="L212" s="7" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="M212" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N212" s="9" t="s">
-        <v>865</v>
+      <c r="N212" s="11" t="s">
+        <v>862</v>
       </c>
       <c r="O212">
         <v>1</v>
@@ -20628,15 +20667,18 @@
         <v>16</v>
       </c>
       <c r="X212">
-        <v>1624</v>
+        <v>4013</v>
       </c>
       <c r="AA212" t="s">
         <v>86</v>
+      </c>
+      <c r="AB212" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="213" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A213" s="13" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="B213" s="7">
         <v>2382</v>
@@ -20645,7 +20687,7 @@
         <v>754</v>
       </c>
       <c r="D213" s="5">
-        <v>43646</v>
+        <v>43641</v>
       </c>
       <c r="E213" s="5" t="s">
         <v>843</v>
@@ -20666,13 +20708,13 @@
         <v>756</v>
       </c>
       <c r="L213" s="7" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="M213" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N213" s="9" t="s">
-        <v>866</v>
+      <c r="N213" s="11" t="s">
+        <v>863</v>
       </c>
       <c r="O213">
         <v>1</v>
@@ -20710,7 +20752,7 @@
     </row>
     <row r="214" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A214" s="13" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="B214" s="7">
         <v>2382</v>
@@ -20719,7 +20761,7 @@
         <v>754</v>
       </c>
       <c r="D214" s="5">
-        <v>43647</v>
+        <v>43642</v>
       </c>
       <c r="E214" s="5" t="s">
         <v>843</v>
@@ -20740,19 +20782,19 @@
         <v>756</v>
       </c>
       <c r="L214" s="7" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="M214" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N214" s="9" t="s">
-        <v>867</v>
+      <c r="N214" s="11" t="s">
+        <v>846</v>
       </c>
       <c r="O214">
         <v>1</v>
       </c>
       <c r="P214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q214">
         <v>0</v>
@@ -20776,15 +20818,21 @@
         <v>16</v>
       </c>
       <c r="X214">
-        <v>1624</v>
+        <v>4013</v>
       </c>
       <c r="AA214" t="s">
         <v>86</v>
+      </c>
+      <c r="AB214" t="s">
+        <v>852</v>
+      </c>
+      <c r="AD214" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="215" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A215" s="13" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="B215" s="7">
         <v>2382</v>
@@ -20793,7 +20841,7 @@
         <v>754</v>
       </c>
       <c r="D215" s="5">
-        <v>43648</v>
+        <v>43643</v>
       </c>
       <c r="E215" s="5" t="s">
         <v>843</v>
@@ -20820,13 +20868,13 @@
         <v>498</v>
       </c>
       <c r="N215" s="9" t="s">
-        <v>847</v>
+        <v>864</v>
       </c>
       <c r="O215">
         <v>1</v>
       </c>
       <c r="P215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q215">
         <v>0</v>
@@ -20855,13 +20903,10 @@
       <c r="AA215" t="s">
         <v>86</v>
       </c>
-      <c r="AD215" t="s">
-        <v>854</v>
-      </c>
     </row>
     <row r="216" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A216" s="13" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="B216" s="7">
         <v>2382</v>
@@ -20870,7 +20915,7 @@
         <v>754</v>
       </c>
       <c r="D216" s="5">
-        <v>43649</v>
+        <v>43644</v>
       </c>
       <c r="E216" s="5" t="s">
         <v>843</v>
@@ -20891,13 +20936,13 @@
         <v>756</v>
       </c>
       <c r="L216" s="7" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="M216" s="10" t="s">
         <v>498</v>
       </c>
       <c r="N216" s="9" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="O216">
         <v>1</v>
@@ -20935,7 +20980,7 @@
     </row>
     <row r="217" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A217" s="13" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="B217" s="7">
         <v>2382</v>
@@ -20944,7 +20989,7 @@
         <v>754</v>
       </c>
       <c r="D217" s="5">
-        <v>43653</v>
+        <v>43646</v>
       </c>
       <c r="E217" s="5" t="s">
         <v>843</v>
@@ -20965,13 +21010,13 @@
         <v>756</v>
       </c>
       <c r="L217" s="7" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="M217" s="10" t="s">
         <v>498</v>
       </c>
       <c r="N217" s="9" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="O217">
         <v>1</v>
@@ -21009,7 +21054,7 @@
     </row>
     <row r="218" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A218" s="13" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="B218" s="7">
         <v>2382</v>
@@ -21018,7 +21063,7 @@
         <v>754</v>
       </c>
       <c r="D218" s="5">
-        <v>43654</v>
+        <v>43647</v>
       </c>
       <c r="E218" s="5" t="s">
         <v>843</v>
@@ -21039,13 +21084,13 @@
         <v>756</v>
       </c>
       <c r="L218" s="7" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="M218" s="10" t="s">
         <v>498</v>
       </c>
       <c r="N218" s="9" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="O218">
         <v>1</v>
@@ -21083,7 +21128,7 @@
     </row>
     <row r="219" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A219" s="13" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="B219" s="7">
         <v>2382</v>
@@ -21092,7 +21137,7 @@
         <v>754</v>
       </c>
       <c r="D219" s="5">
-        <v>43655</v>
+        <v>43648</v>
       </c>
       <c r="E219" s="5" t="s">
         <v>843</v>
@@ -21113,19 +21158,19 @@
         <v>756</v>
       </c>
       <c r="L219" s="7" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="M219" s="10" t="s">
         <v>498</v>
       </c>
       <c r="N219" s="9" t="s">
-        <v>871</v>
+        <v>847</v>
       </c>
       <c r="O219">
         <v>1</v>
       </c>
       <c r="P219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q219">
         <v>0</v>
@@ -21154,10 +21199,13 @@
       <c r="AA219" t="s">
         <v>86</v>
       </c>
+      <c r="AD219" t="s">
+        <v>854</v>
+      </c>
     </row>
     <row r="220" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A220" s="13" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="B220" s="7">
         <v>2382</v>
@@ -21166,7 +21214,7 @@
         <v>754</v>
       </c>
       <c r="D220" s="5">
-        <v>43658</v>
+        <v>43649</v>
       </c>
       <c r="E220" s="5" t="s">
         <v>843</v>
@@ -21193,7 +21241,7 @@
         <v>498</v>
       </c>
       <c r="N220" s="9" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="O220">
         <v>1</v>
@@ -21231,7 +21279,7 @@
     </row>
     <row r="221" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A221" s="13" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="B221" s="7">
         <v>2382</v>
@@ -21240,7 +21288,7 @@
         <v>754</v>
       </c>
       <c r="D221" s="5">
-        <v>43660</v>
+        <v>43653</v>
       </c>
       <c r="E221" s="5" t="s">
         <v>843</v>
@@ -21267,7 +21315,7 @@
         <v>498</v>
       </c>
       <c r="N221" s="9" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="O221">
         <v>1</v>
@@ -21305,7 +21353,7 @@
     </row>
     <row r="222" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A222" s="13" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="B222" s="7">
         <v>2382</v>
@@ -21314,7 +21362,7 @@
         <v>754</v>
       </c>
       <c r="D222" s="5">
-        <v>43661</v>
+        <v>43654</v>
       </c>
       <c r="E222" s="5" t="s">
         <v>843</v>
@@ -21341,7 +21389,7 @@
         <v>498</v>
       </c>
       <c r="N222" s="9" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="O222">
         <v>1</v>
@@ -21379,7 +21427,7 @@
     </row>
     <row r="223" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A223" s="13" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="B223" s="7">
         <v>2382</v>
@@ -21388,7 +21436,7 @@
         <v>754</v>
       </c>
       <c r="D223" s="5">
-        <v>43662</v>
+        <v>43655</v>
       </c>
       <c r="E223" s="5" t="s">
         <v>843</v>
@@ -21415,7 +21463,7 @@
         <v>498</v>
       </c>
       <c r="N223" s="9" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="O223">
         <v>1</v>
@@ -21453,7 +21501,7 @@
     </row>
     <row r="224" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A224" s="13" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="B224" s="7">
         <v>2382</v>
@@ -21462,7 +21510,7 @@
         <v>754</v>
       </c>
       <c r="D224" s="5">
-        <v>43664</v>
+        <v>43658</v>
       </c>
       <c r="E224" s="5" t="s">
         <v>843</v>
@@ -21489,7 +21537,7 @@
         <v>498</v>
       </c>
       <c r="N224" s="9" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="O224">
         <v>1</v>
@@ -21527,7 +21575,7 @@
     </row>
     <row r="225" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A225" s="13" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="B225" s="7">
         <v>2382</v>
@@ -21536,7 +21584,7 @@
         <v>754</v>
       </c>
       <c r="D225" s="5">
-        <v>43667</v>
+        <v>43660</v>
       </c>
       <c r="E225" s="5" t="s">
         <v>843</v>
@@ -21563,7 +21611,7 @@
         <v>498</v>
       </c>
       <c r="N225" s="9" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="O225">
         <v>1</v>
@@ -21601,7 +21649,7 @@
     </row>
     <row r="226" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A226" s="13" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="B226" s="7">
         <v>2382</v>
@@ -21610,7 +21658,7 @@
         <v>754</v>
       </c>
       <c r="D226" s="5">
-        <v>43668</v>
+        <v>43661</v>
       </c>
       <c r="E226" s="5" t="s">
         <v>843</v>
@@ -21637,7 +21685,7 @@
         <v>498</v>
       </c>
       <c r="N226" s="9" t="s">
-        <v>848</v>
+        <v>874</v>
       </c>
       <c r="O226">
         <v>1</v>
@@ -21675,7 +21723,7 @@
     </row>
     <row r="227" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A227" s="13" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="B227" s="7">
         <v>2382</v>
@@ -21684,7 +21732,7 @@
         <v>754</v>
       </c>
       <c r="D227" s="5">
-        <v>43670</v>
+        <v>43662</v>
       </c>
       <c r="E227" s="5" t="s">
         <v>843</v>
@@ -21711,7 +21759,7 @@
         <v>498</v>
       </c>
       <c r="N227" s="9" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="O227">
         <v>1</v>
@@ -21749,7 +21797,7 @@
     </row>
     <row r="228" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A228" s="13" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="B228" s="7">
         <v>2382</v>
@@ -21758,7 +21806,7 @@
         <v>754</v>
       </c>
       <c r="D228" s="5">
-        <v>43671</v>
+        <v>43664</v>
       </c>
       <c r="E228" s="5" t="s">
         <v>843</v>
@@ -21785,7 +21833,7 @@
         <v>498</v>
       </c>
       <c r="N228" s="9" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="O228">
         <v>1</v>
@@ -21823,7 +21871,7 @@
     </row>
     <row r="229" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A229" s="13" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="B229" s="7">
         <v>2382</v>
@@ -21832,7 +21880,7 @@
         <v>754</v>
       </c>
       <c r="D229" s="5">
-        <v>43674</v>
+        <v>43667</v>
       </c>
       <c r="E229" s="5" t="s">
         <v>843</v>
@@ -21859,7 +21907,7 @@
         <v>498</v>
       </c>
       <c r="N229" s="9" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="O229">
         <v>1</v>
@@ -21897,7 +21945,7 @@
     </row>
     <row r="230" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A230" s="13" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="B230" s="7">
         <v>2382</v>
@@ -21906,7 +21954,7 @@
         <v>754</v>
       </c>
       <c r="D230" s="5">
-        <v>43675</v>
+        <v>43668</v>
       </c>
       <c r="E230" s="5" t="s">
         <v>843</v>
@@ -21933,7 +21981,7 @@
         <v>498</v>
       </c>
       <c r="N230" s="9" t="s">
-        <v>881</v>
+        <v>848</v>
       </c>
       <c r="O230">
         <v>1</v>
@@ -21971,7 +22019,7 @@
     </row>
     <row r="231" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A231" s="13" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="B231" s="7">
         <v>2382</v>
@@ -21980,7 +22028,7 @@
         <v>754</v>
       </c>
       <c r="D231" s="5">
-        <v>43676</v>
+        <v>43670</v>
       </c>
       <c r="E231" s="5" t="s">
         <v>843</v>
@@ -22007,7 +22055,7 @@
         <v>498</v>
       </c>
       <c r="N231" s="9" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="O231">
         <v>1</v>
@@ -22045,7 +22093,7 @@
     </row>
     <row r="232" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A232" s="13" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="B232" s="7">
         <v>2382</v>
@@ -22054,7 +22102,7 @@
         <v>754</v>
       </c>
       <c r="D232" s="5">
-        <v>43677</v>
+        <v>43671</v>
       </c>
       <c r="E232" s="5" t="s">
         <v>843</v>
@@ -22081,7 +22129,7 @@
         <v>498</v>
       </c>
       <c r="N232" s="9" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="O232">
         <v>1</v>
@@ -22119,7 +22167,7 @@
     </row>
     <row r="233" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A233" s="13" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="B233" s="7">
         <v>2382</v>
@@ -22128,7 +22176,7 @@
         <v>754</v>
       </c>
       <c r="D233" s="5">
-        <v>43678</v>
+        <v>43674</v>
       </c>
       <c r="E233" s="5" t="s">
         <v>843</v>
@@ -22155,7 +22203,7 @@
         <v>498</v>
       </c>
       <c r="N233" s="9" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="O233">
         <v>1</v>
@@ -22190,13 +22238,10 @@
       <c r="AA233" t="s">
         <v>86</v>
       </c>
-      <c r="AD233" t="s">
-        <v>855</v>
-      </c>
     </row>
     <row r="234" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A234" s="13" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B234" s="7">
         <v>2382</v>
@@ -22205,7 +22250,7 @@
         <v>754</v>
       </c>
       <c r="D234" s="5">
-        <v>43681</v>
+        <v>43675</v>
       </c>
       <c r="E234" s="5" t="s">
         <v>843</v>
@@ -22232,7 +22277,7 @@
         <v>498</v>
       </c>
       <c r="N234" s="9" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="O234">
         <v>1</v>
@@ -22270,7 +22315,7 @@
     </row>
     <row r="235" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A235" s="13" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="B235" s="7">
         <v>2382</v>
@@ -22279,7 +22324,7 @@
         <v>754</v>
       </c>
       <c r="D235" s="5">
-        <v>43682</v>
+        <v>43676</v>
       </c>
       <c r="E235" s="5" t="s">
         <v>843</v>
@@ -22306,7 +22351,7 @@
         <v>498</v>
       </c>
       <c r="N235" s="9" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="O235">
         <v>1</v>
@@ -22344,7 +22389,7 @@
     </row>
     <row r="236" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A236" s="13" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="B236" s="7">
         <v>2382</v>
@@ -22353,7 +22398,7 @@
         <v>754</v>
       </c>
       <c r="D236" s="5">
-        <v>43684</v>
+        <v>43677</v>
       </c>
       <c r="E236" s="5" t="s">
         <v>843</v>
@@ -22380,7 +22425,7 @@
         <v>498</v>
       </c>
       <c r="N236" s="9" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="O236">
         <v>1</v>
@@ -22418,7 +22463,7 @@
     </row>
     <row r="237" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A237" s="13" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="B237" s="7">
         <v>2382</v>
@@ -22427,7 +22472,7 @@
         <v>754</v>
       </c>
       <c r="D237" s="5">
-        <v>43685</v>
+        <v>43678</v>
       </c>
       <c r="E237" s="5" t="s">
         <v>843</v>
@@ -22454,7 +22499,7 @@
         <v>498</v>
       </c>
       <c r="N237" s="9" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="O237">
         <v>1</v>
@@ -22489,10 +22534,13 @@
       <c r="AA237" t="s">
         <v>86</v>
       </c>
+      <c r="AD237" t="s">
+        <v>855</v>
+      </c>
     </row>
     <row r="238" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A238" s="13" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="B238" s="7">
         <v>2382</v>
@@ -22501,7 +22549,7 @@
         <v>754</v>
       </c>
       <c r="D238" s="5">
-        <v>43688</v>
+        <v>43681</v>
       </c>
       <c r="E238" s="5" t="s">
         <v>843</v>
@@ -22528,7 +22576,7 @@
         <v>498</v>
       </c>
       <c r="N238" s="9" t="s">
-        <v>849</v>
+        <v>885</v>
       </c>
       <c r="O238">
         <v>1</v>
@@ -22566,7 +22614,7 @@
     </row>
     <row r="239" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A239" s="13" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="B239" s="7">
         <v>2382</v>
@@ -22575,7 +22623,7 @@
         <v>754</v>
       </c>
       <c r="D239" s="5">
-        <v>43689</v>
+        <v>43682</v>
       </c>
       <c r="E239" s="5" t="s">
         <v>843</v>
@@ -22602,7 +22650,7 @@
         <v>498</v>
       </c>
       <c r="N239" s="9" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="O239">
         <v>1</v>
@@ -22640,7 +22688,7 @@
     </row>
     <row r="240" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A240" s="13" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="B240" s="7">
         <v>2382</v>
@@ -22649,7 +22697,7 @@
         <v>754</v>
       </c>
       <c r="D240" s="5">
-        <v>43690</v>
+        <v>43684</v>
       </c>
       <c r="E240" s="5" t="s">
         <v>843</v>
@@ -22676,7 +22724,7 @@
         <v>498</v>
       </c>
       <c r="N240" s="9" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="O240">
         <v>1</v>
@@ -22711,13 +22759,10 @@
       <c r="AA240" t="s">
         <v>86</v>
       </c>
-      <c r="AB240" t="s">
-        <v>856</v>
-      </c>
     </row>
     <row r="241" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A241" s="13" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="B241" s="7">
         <v>2382</v>
@@ -22726,7 +22771,7 @@
         <v>754</v>
       </c>
       <c r="D241" s="5">
-        <v>43691</v>
+        <v>43685</v>
       </c>
       <c r="E241" s="5" t="s">
         <v>843</v>
@@ -22753,7 +22798,7 @@
         <v>498</v>
       </c>
       <c r="N241" s="9" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="O241">
         <v>1</v>
@@ -22788,49 +22833,46 @@
       <c r="AA241" t="s">
         <v>86</v>
       </c>
-      <c r="AB241" t="s">
-        <v>857</v>
-      </c>
     </row>
     <row r="242" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A242" s="13" t="s">
-        <v>892</v>
+        <v>838</v>
       </c>
       <c r="B242" s="7">
-        <v>194</v>
+        <v>2382</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D242" s="5">
-        <v>43219</v>
-      </c>
-      <c r="E242" s="4" t="s">
-        <v>844</v>
+        <v>43688</v>
+      </c>
+      <c r="E242" s="5" t="s">
+        <v>843</v>
       </c>
       <c r="F242" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H242">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I242" t="s">
-        <v>679</v>
+        <v>758</v>
       </c>
       <c r="J242" s="1" t="s">
-        <v>7</v>
+        <v>755</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L242" t="s">
-        <v>928</v>
+        <v>756</v>
+      </c>
+      <c r="L242" s="7" t="s">
+        <v>860</v>
       </c>
       <c r="M242" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N242" s="14" t="s">
-        <v>927</v>
+      <c r="N242" s="9" t="s">
+        <v>849</v>
       </c>
       <c r="O242">
         <v>1</v>
@@ -22845,19 +22887,19 @@
         <v>0</v>
       </c>
       <c r="S242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T242">
         <v>0</v>
       </c>
       <c r="U242" t="s">
-        <v>9</v>
+        <v>757</v>
       </c>
       <c r="V242" t="s">
-        <v>500</v>
+        <v>759</v>
       </c>
       <c r="W242">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="X242">
         <v>1624</v>
@@ -22868,43 +22910,43 @@
     </row>
     <row r="243" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A243" s="13" t="s">
-        <v>893</v>
+        <v>839</v>
       </c>
       <c r="B243" s="7">
-        <v>194</v>
+        <v>2382</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D243" s="5">
-        <v>43221</v>
-      </c>
-      <c r="E243" s="4" t="s">
-        <v>844</v>
+        <v>43689</v>
+      </c>
+      <c r="E243" s="5" t="s">
+        <v>843</v>
       </c>
       <c r="F243" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H243">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I243" t="s">
-        <v>679</v>
+        <v>758</v>
       </c>
       <c r="J243" s="1" t="s">
-        <v>7</v>
+        <v>755</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L243" t="s">
-        <v>928</v>
+        <v>756</v>
+      </c>
+      <c r="L243" s="7" t="s">
+        <v>860</v>
       </c>
       <c r="M243" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N243" s="14" t="s">
-        <v>929</v>
+      <c r="N243" s="9" t="s">
+        <v>889</v>
       </c>
       <c r="O243">
         <v>1</v>
@@ -22919,19 +22961,19 @@
         <v>0</v>
       </c>
       <c r="S243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T243">
         <v>0</v>
       </c>
       <c r="U243" t="s">
-        <v>9</v>
+        <v>757</v>
       </c>
       <c r="V243" t="s">
-        <v>500</v>
+        <v>759</v>
       </c>
       <c r="W243">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="X243">
         <v>1624</v>
@@ -22939,52 +22981,46 @@
       <c r="AA243" t="s">
         <v>86</v>
       </c>
-      <c r="AB243" t="s">
-        <v>924</v>
-      </c>
-      <c r="AD243" t="s">
-        <v>924</v>
-      </c>
     </row>
     <row r="244" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A244" s="13" t="s">
-        <v>894</v>
+        <v>840</v>
       </c>
       <c r="B244" s="7">
-        <v>194</v>
+        <v>2382</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D244" s="5">
-        <v>43222</v>
-      </c>
-      <c r="E244" s="4" t="s">
-        <v>844</v>
+        <v>43690</v>
+      </c>
+      <c r="E244" s="5" t="s">
+        <v>843</v>
       </c>
       <c r="F244" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H244">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I244" t="s">
-        <v>679</v>
+        <v>758</v>
       </c>
       <c r="J244" s="1" t="s">
-        <v>7</v>
+        <v>755</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L244" t="s">
-        <v>928</v>
+        <v>756</v>
+      </c>
+      <c r="L244" s="7" t="s">
+        <v>860</v>
       </c>
       <c r="M244" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N244" s="14" t="s">
-        <v>930</v>
+      <c r="N244" s="9" t="s">
+        <v>890</v>
       </c>
       <c r="O244">
         <v>1</v>
@@ -22999,19 +23035,19 @@
         <v>0</v>
       </c>
       <c r="S244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T244">
         <v>0</v>
       </c>
       <c r="U244" t="s">
-        <v>9</v>
+        <v>757</v>
       </c>
       <c r="V244" t="s">
-        <v>500</v>
+        <v>759</v>
       </c>
       <c r="W244">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="X244">
         <v>1624</v>
@@ -23019,46 +23055,49 @@
       <c r="AA244" t="s">
         <v>86</v>
       </c>
+      <c r="AB244" t="s">
+        <v>856</v>
+      </c>
     </row>
     <row r="245" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A245" s="13" t="s">
-        <v>895</v>
+        <v>841</v>
       </c>
       <c r="B245" s="7">
-        <v>194</v>
+        <v>2382</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D245" s="5">
-        <v>43223</v>
-      </c>
-      <c r="E245" s="4" t="s">
-        <v>844</v>
+        <v>43691</v>
+      </c>
+      <c r="E245" s="5" t="s">
+        <v>843</v>
       </c>
       <c r="F245" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H245">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I245" t="s">
-        <v>679</v>
+        <v>758</v>
       </c>
       <c r="J245" s="1" t="s">
-        <v>7</v>
+        <v>755</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L245" t="s">
-        <v>928</v>
+        <v>756</v>
+      </c>
+      <c r="L245" s="7" t="s">
+        <v>860</v>
       </c>
       <c r="M245" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N245" s="14" t="s">
-        <v>931</v>
+      <c r="N245" s="9" t="s">
+        <v>891</v>
       </c>
       <c r="O245">
         <v>1</v>
@@ -23073,19 +23112,19 @@
         <v>0</v>
       </c>
       <c r="S245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T245">
         <v>0</v>
       </c>
       <c r="U245" t="s">
-        <v>9</v>
+        <v>757</v>
       </c>
       <c r="V245" t="s">
-        <v>500</v>
+        <v>759</v>
       </c>
       <c r="W245">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="X245">
         <v>1624</v>
@@ -23093,10 +23132,13 @@
       <c r="AA245" t="s">
         <v>86</v>
       </c>
+      <c r="AB245" t="s">
+        <v>857</v>
+      </c>
     </row>
     <row r="246" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A246" s="13" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="B246" s="7">
         <v>194</v>
@@ -23105,7 +23147,7 @@
         <v>754</v>
       </c>
       <c r="D246" s="5">
-        <v>43225</v>
+        <v>43219</v>
       </c>
       <c r="E246" s="4" t="s">
         <v>844</v>
@@ -23132,7 +23174,7 @@
         <v>498</v>
       </c>
       <c r="N246" s="14" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="O246">
         <v>1</v>
@@ -23170,7 +23212,7 @@
     </row>
     <row r="247" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A247" s="13" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="B247" s="7">
         <v>194</v>
@@ -23179,7 +23221,7 @@
         <v>754</v>
       </c>
       <c r="D247" s="5">
-        <v>43227</v>
+        <v>43221</v>
       </c>
       <c r="E247" s="4" t="s">
         <v>844</v>
@@ -23206,7 +23248,7 @@
         <v>498</v>
       </c>
       <c r="N247" s="14" t="s">
-        <v>918</v>
+        <v>929</v>
       </c>
       <c r="O247">
         <v>1</v>
@@ -23242,15 +23284,15 @@
         <v>86</v>
       </c>
       <c r="AB247" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="AD247" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="248" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A248" s="13" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="B248" s="7">
         <v>194</v>
@@ -23259,7 +23301,7 @@
         <v>754</v>
       </c>
       <c r="D248" s="5">
-        <v>43228</v>
+        <v>43222</v>
       </c>
       <c r="E248" s="4" t="s">
         <v>844</v>
@@ -23286,7 +23328,7 @@
         <v>498</v>
       </c>
       <c r="N248" s="14" t="s">
-        <v>919</v>
+        <v>930</v>
       </c>
       <c r="O248">
         <v>1</v>
@@ -23324,7 +23366,7 @@
     </row>
     <row r="249" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A249" s="13" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="B249" s="7">
         <v>194</v>
@@ -23333,7 +23375,7 @@
         <v>754</v>
       </c>
       <c r="D249" s="5">
-        <v>43229</v>
+        <v>43223</v>
       </c>
       <c r="E249" s="4" t="s">
         <v>844</v>
@@ -23360,7 +23402,7 @@
         <v>498</v>
       </c>
       <c r="N249" s="14" t="s">
-        <v>920</v>
+        <v>931</v>
       </c>
       <c r="O249">
         <v>1</v>
@@ -23398,7 +23440,7 @@
     </row>
     <row r="250" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A250" s="13" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="B250" s="7">
         <v>194</v>
@@ -23407,7 +23449,7 @@
         <v>754</v>
       </c>
       <c r="D250" s="5">
-        <v>43230</v>
+        <v>43225</v>
       </c>
       <c r="E250" s="4" t="s">
         <v>844</v>
@@ -23434,7 +23476,7 @@
         <v>498</v>
       </c>
       <c r="N250" s="14" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="O250">
         <v>1</v>
@@ -23472,7 +23514,7 @@
     </row>
     <row r="251" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A251" s="13" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="B251" s="7">
         <v>194</v>
@@ -23481,7 +23523,7 @@
         <v>754</v>
       </c>
       <c r="D251" s="5">
-        <v>43233</v>
+        <v>43227</v>
       </c>
       <c r="E251" s="4" t="s">
         <v>844</v>
@@ -23508,7 +23550,7 @@
         <v>498</v>
       </c>
       <c r="N251" s="14" t="s">
-        <v>934</v>
+        <v>918</v>
       </c>
       <c r="O251">
         <v>1</v>
@@ -23543,10 +23585,16 @@
       <c r="AA251" t="s">
         <v>86</v>
       </c>
+      <c r="AB251" t="s">
+        <v>925</v>
+      </c>
+      <c r="AD251" t="s">
+        <v>925</v>
+      </c>
     </row>
     <row r="252" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A252" s="13" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B252" s="7">
         <v>194</v>
@@ -23555,7 +23603,7 @@
         <v>754</v>
       </c>
       <c r="D252" s="5">
-        <v>43234</v>
+        <v>43228</v>
       </c>
       <c r="E252" s="4" t="s">
         <v>844</v>
@@ -23582,7 +23630,7 @@
         <v>498</v>
       </c>
       <c r="N252" s="14" t="s">
-        <v>935</v>
+        <v>919</v>
       </c>
       <c r="O252">
         <v>1</v>
@@ -23620,7 +23668,7 @@
     </row>
     <row r="253" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A253" s="13" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="B253" s="7">
         <v>194</v>
@@ -23629,7 +23677,7 @@
         <v>754</v>
       </c>
       <c r="D253" s="5">
-        <v>43235</v>
+        <v>43229</v>
       </c>
       <c r="E253" s="4" t="s">
         <v>844</v>
@@ -23656,7 +23704,7 @@
         <v>498</v>
       </c>
       <c r="N253" s="14" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="O253">
         <v>1</v>
@@ -23694,7 +23742,7 @@
     </row>
     <row r="254" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A254" s="13" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="B254" s="7">
         <v>194</v>
@@ -23703,7 +23751,7 @@
         <v>754</v>
       </c>
       <c r="D254" s="5">
-        <v>43236</v>
+        <v>43230</v>
       </c>
       <c r="E254" s="4" t="s">
         <v>844</v>
@@ -23730,7 +23778,7 @@
         <v>498</v>
       </c>
       <c r="N254" s="14" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="O254">
         <v>1</v>
@@ -23768,7 +23816,7 @@
     </row>
     <row r="255" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A255" s="13" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="B255" s="7">
         <v>194</v>
@@ -23777,7 +23825,7 @@
         <v>754</v>
       </c>
       <c r="D255" s="5">
-        <v>43240</v>
+        <v>43233</v>
       </c>
       <c r="E255" s="4" t="s">
         <v>844</v>
@@ -23804,7 +23852,7 @@
         <v>498</v>
       </c>
       <c r="N255" s="14" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="O255">
         <v>1</v>
@@ -23842,7 +23890,7 @@
     </row>
     <row r="256" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A256" s="13" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="B256" s="7">
         <v>194</v>
@@ -23851,7 +23899,7 @@
         <v>754</v>
       </c>
       <c r="D256" s="5">
-        <v>43241</v>
+        <v>43234</v>
       </c>
       <c r="E256" s="4" t="s">
         <v>844</v>
@@ -23878,7 +23926,7 @@
         <v>498</v>
       </c>
       <c r="N256" s="14" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="O256">
         <v>1</v>
@@ -23916,7 +23964,7 @@
     </row>
     <row r="257" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A257" s="13" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="B257" s="7">
         <v>194</v>
@@ -23925,7 +23973,7 @@
         <v>754</v>
       </c>
       <c r="D257" s="5">
-        <v>43242</v>
+        <v>43235</v>
       </c>
       <c r="E257" s="4" t="s">
         <v>844</v>
@@ -23952,7 +24000,7 @@
         <v>498</v>
       </c>
       <c r="N257" s="14" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="O257">
         <v>1</v>
@@ -23990,7 +24038,7 @@
     </row>
     <row r="258" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A258" s="13" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="B258" s="7">
         <v>194</v>
@@ -23999,7 +24047,7 @@
         <v>754</v>
       </c>
       <c r="D258" s="5">
-        <v>43248</v>
+        <v>43236</v>
       </c>
       <c r="E258" s="4" t="s">
         <v>844</v>
@@ -24026,7 +24074,7 @@
         <v>498</v>
       </c>
       <c r="N258" s="14" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="O258">
         <v>1</v>
@@ -24064,7 +24112,7 @@
     </row>
     <row r="259" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A259" s="13" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="B259" s="7">
         <v>194</v>
@@ -24073,7 +24121,7 @@
         <v>754</v>
       </c>
       <c r="D259" s="5">
-        <v>43251</v>
+        <v>43240</v>
       </c>
       <c r="E259" s="4" t="s">
         <v>844</v>
@@ -24100,7 +24148,7 @@
         <v>498</v>
       </c>
       <c r="N259" s="14" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="O259">
         <v>1</v>
@@ -24135,16 +24183,10 @@
       <c r="AA259" t="s">
         <v>86</v>
       </c>
-      <c r="AB259" t="s">
-        <v>926</v>
-      </c>
-      <c r="AD259" t="s">
-        <v>926</v>
-      </c>
     </row>
     <row r="260" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A260" s="13" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="B260" s="7">
         <v>194</v>
@@ -24153,7 +24195,7 @@
         <v>754</v>
       </c>
       <c r="D260" s="5">
-        <v>43255</v>
+        <v>43241</v>
       </c>
       <c r="E260" s="4" t="s">
         <v>844</v>
@@ -24180,7 +24222,7 @@
         <v>498</v>
       </c>
       <c r="N260" s="14" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="O260">
         <v>1</v>
@@ -24218,7 +24260,7 @@
     </row>
     <row r="261" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A261" s="13" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="B261" s="7">
         <v>194</v>
@@ -24227,7 +24269,7 @@
         <v>754</v>
       </c>
       <c r="D261" s="5">
-        <v>43256</v>
+        <v>43242</v>
       </c>
       <c r="E261" s="4" t="s">
         <v>844</v>
@@ -24254,7 +24296,7 @@
         <v>498</v>
       </c>
       <c r="N261" s="14" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="O261">
         <v>1</v>
@@ -24292,7 +24334,7 @@
     </row>
     <row r="262" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A262" s="13" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="B262" s="7">
         <v>194</v>
@@ -24301,7 +24343,7 @@
         <v>754</v>
       </c>
       <c r="D262" s="5">
-        <v>43257</v>
+        <v>43248</v>
       </c>
       <c r="E262" s="4" t="s">
         <v>844</v>
@@ -24328,7 +24370,7 @@
         <v>498</v>
       </c>
       <c r="N262" s="14" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="O262">
         <v>1</v>
@@ -24366,7 +24408,7 @@
     </row>
     <row r="263" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A263" s="13" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="B263" s="7">
         <v>194</v>
@@ -24375,7 +24417,7 @@
         <v>754</v>
       </c>
       <c r="D263" s="5">
-        <v>43258</v>
+        <v>43251</v>
       </c>
       <c r="E263" s="4" t="s">
         <v>844</v>
@@ -24402,7 +24444,7 @@
         <v>498</v>
       </c>
       <c r="N263" s="14" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="O263">
         <v>1</v>
@@ -24437,10 +24479,16 @@
       <c r="AA263" t="s">
         <v>86</v>
       </c>
+      <c r="AB263" t="s">
+        <v>926</v>
+      </c>
+      <c r="AD263" t="s">
+        <v>926</v>
+      </c>
     </row>
     <row r="264" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A264" s="13" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="B264" s="7">
         <v>194</v>
@@ -24449,7 +24497,7 @@
         <v>754</v>
       </c>
       <c r="D264" s="5">
-        <v>43261</v>
+        <v>43255</v>
       </c>
       <c r="E264" s="4" t="s">
         <v>844</v>
@@ -24476,7 +24524,7 @@
         <v>498</v>
       </c>
       <c r="N264" s="14" t="s">
-        <v>921</v>
+        <v>943</v>
       </c>
       <c r="O264">
         <v>1</v>
@@ -24514,7 +24562,7 @@
     </row>
     <row r="265" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A265" s="13" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="B265" s="7">
         <v>194</v>
@@ -24523,7 +24571,7 @@
         <v>754</v>
       </c>
       <c r="D265" s="5">
-        <v>43262</v>
+        <v>43256</v>
       </c>
       <c r="E265" s="4" t="s">
         <v>844</v>
@@ -24550,7 +24598,7 @@
         <v>498</v>
       </c>
       <c r="N265" s="14" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="O265">
         <v>1</v>
@@ -24588,7 +24636,7 @@
     </row>
     <row r="266" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A266" s="13" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="B266" s="7">
         <v>194</v>
@@ -24597,7 +24645,7 @@
         <v>754</v>
       </c>
       <c r="D266" s="5">
-        <v>43263</v>
+        <v>43257</v>
       </c>
       <c r="E266" s="4" t="s">
         <v>844</v>
@@ -24624,7 +24672,7 @@
         <v>498</v>
       </c>
       <c r="N266" s="14" t="s">
-        <v>922</v>
+        <v>945</v>
       </c>
       <c r="O266">
         <v>1</v>
@@ -24662,7 +24710,7 @@
     </row>
     <row r="267" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A267" s="13" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="B267" s="7">
         <v>194</v>
@@ -24671,7 +24719,7 @@
         <v>754</v>
       </c>
       <c r="D267" s="5">
-        <v>43265</v>
+        <v>43258</v>
       </c>
       <c r="E267" s="4" t="s">
         <v>844</v>
@@ -24698,7 +24746,7 @@
         <v>498</v>
       </c>
       <c r="N267" s="14" t="s">
-        <v>923</v>
+        <v>946</v>
       </c>
       <c r="O267">
         <v>1</v>
@@ -24736,43 +24784,43 @@
     </row>
     <row r="268" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A268" s="13" t="s">
-        <v>948</v>
+        <v>914</v>
       </c>
       <c r="B268" s="7">
-        <v>2311</v>
+        <v>194</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D268" s="5">
-        <v>43803</v>
+        <v>43261</v>
       </c>
       <c r="E268" s="4" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F268" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H268">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I268" t="s">
-        <v>758</v>
+        <v>679</v>
       </c>
       <c r="J268" s="1" t="s">
-        <v>755</v>
+        <v>7</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>756</v>
+        <v>8</v>
       </c>
       <c r="L268" t="s">
-        <v>986</v>
+        <v>928</v>
       </c>
       <c r="M268" s="10" t="s">
-        <v>963</v>
-      </c>
-      <c r="N268" s="9" t="s">
-        <v>973</v>
+        <v>498</v>
+      </c>
+      <c r="N268" s="14" t="s">
+        <v>921</v>
       </c>
       <c r="O268">
         <v>1</v>
@@ -24781,7 +24829,7 @@
         <v>1</v>
       </c>
       <c r="Q268">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R268">
         <v>0</v>
@@ -24793,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="U268" t="s">
-        <v>1029</v>
+        <v>9</v>
       </c>
       <c r="V268" t="s">
-        <v>759</v>
+        <v>500</v>
       </c>
       <c r="W268">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="X268">
         <v>1624</v>
@@ -24810,43 +24858,43 @@
     </row>
     <row r="269" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A269" s="13" t="s">
-        <v>949</v>
+        <v>915</v>
       </c>
       <c r="B269" s="7">
-        <v>2311</v>
+        <v>194</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D269" s="5">
-        <v>43808</v>
+        <v>43262</v>
       </c>
       <c r="E269" s="4" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F269" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H269">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I269" t="s">
-        <v>758</v>
+        <v>679</v>
       </c>
       <c r="J269" s="1" t="s">
-        <v>755</v>
+        <v>7</v>
       </c>
       <c r="K269" s="1" t="s">
-        <v>756</v>
+        <v>8</v>
       </c>
       <c r="L269" t="s">
-        <v>987</v>
+        <v>928</v>
       </c>
       <c r="M269" s="10" t="s">
-        <v>964</v>
-      </c>
-      <c r="N269" s="9" t="s">
-        <v>974</v>
+        <v>498</v>
+      </c>
+      <c r="N269" s="14" t="s">
+        <v>947</v>
       </c>
       <c r="O269">
         <v>1</v>
@@ -24855,7 +24903,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R269">
         <v>0</v>
@@ -24867,13 +24915,13 @@
         <v>0</v>
       </c>
       <c r="U269" t="s">
-        <v>1029</v>
+        <v>9</v>
       </c>
       <c r="V269" t="s">
-        <v>759</v>
+        <v>500</v>
       </c>
       <c r="W269">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="X269">
         <v>1624</v>
@@ -24881,49 +24929,46 @@
       <c r="AA269" t="s">
         <v>86</v>
       </c>
-      <c r="AB269" t="s">
-        <v>975</v>
-      </c>
     </row>
     <row r="270" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A270" s="13" t="s">
-        <v>950</v>
+        <v>916</v>
       </c>
       <c r="B270" s="7">
-        <v>2311</v>
+        <v>194</v>
       </c>
       <c r="C270" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D270" s="5">
-        <v>43817</v>
+        <v>43263</v>
       </c>
       <c r="E270" s="4" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F270" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H270">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I270" t="s">
-        <v>758</v>
+        <v>679</v>
       </c>
       <c r="J270" s="1" t="s">
-        <v>755</v>
+        <v>7</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>756</v>
+        <v>8</v>
       </c>
       <c r="L270" t="s">
-        <v>988</v>
+        <v>928</v>
       </c>
       <c r="M270" s="10" t="s">
-        <v>965</v>
-      </c>
-      <c r="N270" s="9" t="s">
-        <v>1080</v>
+        <v>498</v>
+      </c>
+      <c r="N270" s="14" t="s">
+        <v>922</v>
       </c>
       <c r="O270">
         <v>1</v>
@@ -24932,7 +24977,7 @@
         <v>1</v>
       </c>
       <c r="Q270">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R270">
         <v>0</v>
@@ -24944,13 +24989,13 @@
         <v>0</v>
       </c>
       <c r="U270" t="s">
-        <v>757</v>
+        <v>9</v>
       </c>
       <c r="V270" t="s">
-        <v>759</v>
+        <v>500</v>
       </c>
       <c r="W270">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="X270">
         <v>1624</v>
@@ -24961,43 +25006,43 @@
     </row>
     <row r="271" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A271" s="13" t="s">
-        <v>951</v>
+        <v>917</v>
       </c>
       <c r="B271" s="7">
-        <v>2311</v>
+        <v>194</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D271" s="5">
-        <v>43818</v>
+        <v>43265</v>
       </c>
       <c r="E271" s="4" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F271" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H271">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I271" t="s">
-        <v>758</v>
+        <v>679</v>
       </c>
       <c r="J271" s="1" t="s">
-        <v>755</v>
+        <v>7</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>756</v>
+        <v>8</v>
       </c>
       <c r="L271" t="s">
-        <v>988</v>
+        <v>928</v>
       </c>
       <c r="M271" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N271" s="9" t="s">
-        <v>1081</v>
+      <c r="N271" s="14" t="s">
+        <v>923</v>
       </c>
       <c r="O271">
         <v>1</v>
@@ -25006,7 +25051,7 @@
         <v>1</v>
       </c>
       <c r="Q271">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R271">
         <v>0</v>
@@ -25018,13 +25063,13 @@
         <v>0</v>
       </c>
       <c r="U271" t="s">
-        <v>757</v>
+        <v>9</v>
       </c>
       <c r="V271" t="s">
-        <v>759</v>
+        <v>500</v>
       </c>
       <c r="W271">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="X271">
         <v>1624</v>
@@ -25035,7 +25080,7 @@
     </row>
     <row r="272" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A272" s="13" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="B272" s="7">
         <v>2311</v>
@@ -25044,7 +25089,7 @@
         <v>754</v>
       </c>
       <c r="D272" s="5">
-        <v>43819</v>
+        <v>43803</v>
       </c>
       <c r="E272" s="4" t="s">
         <v>843</v>
@@ -25065,13 +25110,13 @@
         <v>756</v>
       </c>
       <c r="L272" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="M272" s="10" t="s">
-        <v>498</v>
+        <v>963</v>
       </c>
       <c r="N272" s="9" t="s">
-        <v>1082</v>
+        <v>973</v>
       </c>
       <c r="O272">
         <v>1</v>
@@ -25092,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="U272" t="s">
-        <v>757</v>
+        <v>1029</v>
       </c>
       <c r="V272" t="s">
         <v>759</v>
@@ -25107,9 +25152,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="273" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A273" s="13" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="B273" s="7">
         <v>2311</v>
@@ -25118,7 +25163,7 @@
         <v>754</v>
       </c>
       <c r="D273" s="5">
-        <v>43821</v>
+        <v>43808</v>
       </c>
       <c r="E273" s="4" t="s">
         <v>843</v>
@@ -25139,13 +25184,13 @@
         <v>756</v>
       </c>
       <c r="L273" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="M273" s="10" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="N273" s="9" t="s">
-        <v>1083</v>
+        <v>974</v>
       </c>
       <c r="O273">
         <v>1</v>
@@ -25166,7 +25211,7 @@
         <v>0</v>
       </c>
       <c r="U273" t="s">
-        <v>757</v>
+        <v>1029</v>
       </c>
       <c r="V273" t="s">
         <v>759</v>
@@ -25181,12 +25226,12 @@
         <v>86</v>
       </c>
       <c r="AB273" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="274" spans="1:30" x14ac:dyDescent="0.25">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="274" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A274" s="13" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="B274" s="7">
         <v>2311</v>
@@ -25195,7 +25240,7 @@
         <v>754</v>
       </c>
       <c r="D274" s="5">
-        <v>43822</v>
+        <v>43817</v>
       </c>
       <c r="E274" s="4" t="s">
         <v>843</v>
@@ -25219,10 +25264,10 @@
         <v>988</v>
       </c>
       <c r="M274" s="10" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="N274" s="9" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="O274">
         <v>1</v>
@@ -25257,13 +25302,10 @@
       <c r="AA274" t="s">
         <v>86</v>
       </c>
-      <c r="AB274" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="275" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A275" s="13" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="B275" s="7">
         <v>2311</v>
@@ -25272,7 +25314,7 @@
         <v>754</v>
       </c>
       <c r="D275" s="5">
-        <v>43823</v>
+        <v>43818</v>
       </c>
       <c r="E275" s="4" t="s">
         <v>843</v>
@@ -25296,10 +25338,10 @@
         <v>988</v>
       </c>
       <c r="M275" s="10" t="s">
-        <v>968</v>
+        <v>498</v>
       </c>
       <c r="N275" s="9" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="O275">
         <v>1</v>
@@ -25334,13 +25376,10 @@
       <c r="AA275" t="s">
         <v>86</v>
       </c>
-      <c r="AB275" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="276" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="276" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A276" s="13" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="B276" s="7">
         <v>2311</v>
@@ -25349,7 +25388,7 @@
         <v>754</v>
       </c>
       <c r="D276" s="5">
-        <v>43824</v>
+        <v>43819</v>
       </c>
       <c r="E276" s="4" t="s">
         <v>843</v>
@@ -25373,10 +25412,10 @@
         <v>988</v>
       </c>
       <c r="M276" s="10" t="s">
-        <v>969</v>
+        <v>498</v>
       </c>
       <c r="N276" s="9" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="O276">
         <v>1</v>
@@ -25412,9 +25451,9 @@
         <v>86</v>
       </c>
     </row>
-    <row r="277" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A277" s="13" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="B277" s="7">
         <v>2311</v>
@@ -25423,7 +25462,7 @@
         <v>754</v>
       </c>
       <c r="D277" s="5">
-        <v>43825</v>
+        <v>43821</v>
       </c>
       <c r="E277" s="4" t="s">
         <v>843</v>
@@ -25447,10 +25486,10 @@
         <v>988</v>
       </c>
       <c r="M277" s="10" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="N277" s="9" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="O277">
         <v>1</v>
@@ -25486,12 +25525,12 @@
         <v>86</v>
       </c>
       <c r="AB277" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="278" spans="1:30" x14ac:dyDescent="0.25">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="278" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A278" s="13" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="B278" s="7">
         <v>2311</v>
@@ -25500,7 +25539,7 @@
         <v>754</v>
       </c>
       <c r="D278" s="5">
-        <v>43828</v>
+        <v>43822</v>
       </c>
       <c r="E278" s="4" t="s">
         <v>843</v>
@@ -25524,10 +25563,10 @@
         <v>988</v>
       </c>
       <c r="M278" s="10" t="s">
-        <v>498</v>
+        <v>967</v>
       </c>
       <c r="N278" s="9" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="O278">
         <v>1</v>
@@ -25563,12 +25602,12 @@
         <v>86</v>
       </c>
       <c r="AB278" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="279" spans="1:30" x14ac:dyDescent="0.25">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="279" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A279" s="13" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="B279" s="7">
         <v>2311</v>
@@ -25577,7 +25616,7 @@
         <v>754</v>
       </c>
       <c r="D279" s="5">
-        <v>43829</v>
+        <v>43823</v>
       </c>
       <c r="E279" s="4" t="s">
         <v>843</v>
@@ -25601,10 +25640,10 @@
         <v>988</v>
       </c>
       <c r="M279" s="10" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="N279" s="9" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="O279">
         <v>1</v>
@@ -25640,15 +25679,12 @@
         <v>86</v>
       </c>
       <c r="AB279" t="s">
-        <v>981</v>
-      </c>
-      <c r="AC279" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="280" spans="1:30" x14ac:dyDescent="0.25">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="280" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A280" s="13" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="B280" s="7">
         <v>2311</v>
@@ -25657,7 +25693,7 @@
         <v>754</v>
       </c>
       <c r="D280" s="5">
-        <v>43830</v>
+        <v>43824</v>
       </c>
       <c r="E280" s="4" t="s">
         <v>843</v>
@@ -25681,10 +25717,10 @@
         <v>988</v>
       </c>
       <c r="M280" s="10" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="N280" s="9" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="O280">
         <v>1</v>
@@ -25719,16 +25755,10 @@
       <c r="AA280" t="s">
         <v>86</v>
       </c>
-      <c r="AB280" t="s">
-        <v>983</v>
-      </c>
-      <c r="AC280" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="281" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="281" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A281" s="13" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="B281" s="7">
         <v>2311</v>
@@ -25737,7 +25767,7 @@
         <v>754</v>
       </c>
       <c r="D281" s="5">
-        <v>43831</v>
+        <v>43825</v>
       </c>
       <c r="E281" s="4" t="s">
         <v>843</v>
@@ -25761,10 +25791,10 @@
         <v>988</v>
       </c>
       <c r="M281" s="10" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="N281" s="9" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="O281">
         <v>1</v>
@@ -25800,12 +25830,12 @@
         <v>86</v>
       </c>
       <c r="AB281" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="282" spans="1:30" x14ac:dyDescent="0.25">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="282" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A282" s="13" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="B282" s="7">
         <v>2311</v>
@@ -25814,7 +25844,7 @@
         <v>754</v>
       </c>
       <c r="D282" s="5">
-        <v>43832</v>
+        <v>43828</v>
       </c>
       <c r="E282" s="4" t="s">
         <v>843</v>
@@ -25838,10 +25868,10 @@
         <v>988</v>
       </c>
       <c r="M282" s="10" t="s">
-        <v>969</v>
+        <v>498</v>
       </c>
       <c r="N282" s="9" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="O282">
         <v>1</v>
@@ -25876,46 +25906,49 @@
       <c r="AA282" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="283" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AB282" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="283" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A283" s="13" t="s">
-        <v>989</v>
+        <v>959</v>
       </c>
       <c r="B283" s="7">
-        <v>102</v>
+        <v>2311</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D283" s="5">
-        <v>42992</v>
+        <v>43829</v>
       </c>
       <c r="E283" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F283" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H283">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I283" t="s">
-        <v>679</v>
+        <v>758</v>
       </c>
       <c r="J283" s="1" t="s">
-        <v>7</v>
+        <v>755</v>
       </c>
       <c r="K283" s="1" t="s">
-        <v>8</v>
+        <v>756</v>
       </c>
       <c r="L283" t="s">
-        <v>595</v>
+        <v>988</v>
       </c>
       <c r="M283" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="N283" s="7" t="s">
-        <v>86</v>
+        <v>970</v>
+      </c>
+      <c r="N283" s="9" t="s">
+        <v>1089</v>
       </c>
       <c r="O283">
         <v>1</v>
@@ -25924,7 +25957,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R283">
         <v>0</v>
@@ -25936,57 +25969,66 @@
         <v>0</v>
       </c>
       <c r="U283" t="s">
-        <v>9</v>
+        <v>757</v>
       </c>
       <c r="V283" t="s">
-        <v>500</v>
+        <v>759</v>
       </c>
       <c r="W283">
-        <v>6</v>
+        <v>40</v>
+      </c>
+      <c r="X283">
+        <v>1624</v>
       </c>
       <c r="AA283" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="284" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AB283" t="s">
+        <v>981</v>
+      </c>
+      <c r="AC283" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="284" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A284" s="13" t="s">
-        <v>990</v>
+        <v>960</v>
       </c>
       <c r="B284" s="7">
-        <v>102</v>
+        <v>2311</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D284" s="5">
-        <v>42997</v>
+        <v>43830</v>
       </c>
       <c r="E284" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F284" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H284">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I284" t="s">
-        <v>679</v>
+        <v>758</v>
       </c>
       <c r="J284" s="1" t="s">
-        <v>7</v>
+        <v>755</v>
       </c>
       <c r="K284" s="1" t="s">
-        <v>8</v>
+        <v>756</v>
       </c>
       <c r="L284" t="s">
-        <v>1028</v>
+        <v>988</v>
       </c>
       <c r="M284" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="N284" s="7" t="s">
-        <v>1009</v>
+        <v>971</v>
+      </c>
+      <c r="N284" s="9" t="s">
+        <v>1090</v>
       </c>
       <c r="O284">
         <v>1</v>
@@ -25995,72 +26037,78 @@
         <v>1</v>
       </c>
       <c r="Q284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R284">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S284">
         <v>0</v>
       </c>
       <c r="T284">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U284" t="s">
-        <v>9</v>
+        <v>757</v>
       </c>
       <c r="V284" t="s">
-        <v>500</v>
+        <v>759</v>
       </c>
       <c r="W284">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="X284">
-        <v>3755</v>
+        <v>1624</v>
       </c>
       <c r="AA284" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="285" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AB284" t="s">
+        <v>983</v>
+      </c>
+      <c r="AC284" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="285" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A285" s="13" t="s">
-        <v>991</v>
+        <v>961</v>
       </c>
       <c r="B285" s="7">
-        <v>102</v>
+        <v>2311</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D285" s="5">
-        <v>42998</v>
+        <v>43831</v>
       </c>
       <c r="E285" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F285" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H285">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I285" t="s">
-        <v>679</v>
+        <v>758</v>
       </c>
       <c r="J285" s="1" t="s">
-        <v>7</v>
+        <v>755</v>
       </c>
       <c r="K285" s="1" t="s">
-        <v>8</v>
+        <v>756</v>
       </c>
       <c r="L285" t="s">
-        <v>1028</v>
+        <v>988</v>
       </c>
       <c r="M285" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="N285" s="14" t="s">
-        <v>1010</v>
+        <v>972</v>
+      </c>
+      <c r="N285" s="9" t="s">
+        <v>1091</v>
       </c>
       <c r="O285">
         <v>1</v>
@@ -26069,7 +26117,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R285">
         <v>0</v>
@@ -26081,60 +26129,63 @@
         <v>0</v>
       </c>
       <c r="U285" t="s">
-        <v>9</v>
+        <v>757</v>
       </c>
       <c r="V285" t="s">
-        <v>500</v>
+        <v>759</v>
       </c>
       <c r="W285">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="X285">
-        <v>3755</v>
+        <v>1624</v>
       </c>
       <c r="AA285" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="286" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AB285" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="286" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A286" s="13" t="s">
-        <v>992</v>
+        <v>962</v>
       </c>
       <c r="B286" s="7">
-        <v>102</v>
+        <v>2311</v>
       </c>
       <c r="C286" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D286" s="5">
-        <v>43002</v>
+        <v>43832</v>
       </c>
       <c r="E286" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F286" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H286">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I286" t="s">
-        <v>679</v>
+        <v>758</v>
       </c>
       <c r="J286" s="1" t="s">
-        <v>7</v>
+        <v>755</v>
       </c>
       <c r="K286" s="1" t="s">
-        <v>8</v>
+        <v>756</v>
       </c>
       <c r="L286" t="s">
-        <v>1028</v>
+        <v>988</v>
       </c>
       <c r="M286" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="N286" s="14" t="s">
-        <v>1011</v>
+        <v>969</v>
+      </c>
+      <c r="N286" s="9" t="s">
+        <v>1092</v>
       </c>
       <c r="O286">
         <v>1</v>
@@ -26143,7 +26194,7 @@
         <v>1</v>
       </c>
       <c r="Q286">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R286">
         <v>0</v>
@@ -26155,24 +26206,24 @@
         <v>0</v>
       </c>
       <c r="U286" t="s">
-        <v>9</v>
+        <v>757</v>
       </c>
       <c r="V286" t="s">
-        <v>500</v>
+        <v>759</v>
       </c>
       <c r="W286">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="X286">
-        <v>3089</v>
+        <v>1624</v>
       </c>
       <c r="AA286" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="287" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A287" s="13" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="B287" s="7">
         <v>102</v>
@@ -26181,7 +26232,7 @@
         <v>754</v>
       </c>
       <c r="D287" s="5">
-        <v>43003</v>
+        <v>42992</v>
       </c>
       <c r="E287" s="4" t="s">
         <v>844</v>
@@ -26202,13 +26253,13 @@
         <v>8</v>
       </c>
       <c r="L287" t="s">
-        <v>1028</v>
+        <v>595</v>
       </c>
       <c r="M287" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N287" s="14" t="s">
-        <v>1012</v>
+      <c r="N287" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="O287">
         <v>1</v>
@@ -26235,24 +26286,15 @@
         <v>500</v>
       </c>
       <c r="W287">
-        <v>7</v>
-      </c>
-      <c r="X287">
-        <v>3089</v>
+        <v>6</v>
       </c>
       <c r="AA287" t="s">
         <v>86</v>
       </c>
-      <c r="AB287" t="s">
-        <v>1026</v>
-      </c>
-      <c r="AD287" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="288" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="288" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A288" s="13" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="B288" s="7">
         <v>102</v>
@@ -26261,7 +26303,7 @@
         <v>754</v>
       </c>
       <c r="D288" s="5">
-        <v>43004</v>
+        <v>42997</v>
       </c>
       <c r="E288" s="4" t="s">
         <v>844</v>
@@ -26287,8 +26329,8 @@
       <c r="M288" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N288" s="14" t="s">
-        <v>1013</v>
+      <c r="N288" s="7" t="s">
+        <v>1009</v>
       </c>
       <c r="O288">
         <v>1</v>
@@ -26300,13 +26342,13 @@
         <v>0</v>
       </c>
       <c r="R288">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S288">
         <v>0</v>
       </c>
       <c r="T288">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U288" t="s">
         <v>9</v>
@@ -26315,10 +26357,10 @@
         <v>500</v>
       </c>
       <c r="W288">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X288">
-        <v>3089</v>
+        <v>3755</v>
       </c>
       <c r="AA288" t="s">
         <v>86</v>
@@ -26326,7 +26368,7 @@
     </row>
     <row r="289" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A289" s="13" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="B289" s="7">
         <v>102</v>
@@ -26335,7 +26377,7 @@
         <v>754</v>
       </c>
       <c r="D289" s="5">
-        <v>43005</v>
+        <v>42998</v>
       </c>
       <c r="E289" s="4" t="s">
         <v>844</v>
@@ -26362,7 +26404,7 @@
         <v>498</v>
       </c>
       <c r="N289" s="14" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="O289">
         <v>1</v>
@@ -26392,21 +26434,15 @@
         <v>7</v>
       </c>
       <c r="X289">
-        <v>3089</v>
+        <v>3755</v>
       </c>
       <c r="AA289" t="s">
         <v>86</v>
-      </c>
-      <c r="AB289" t="s">
-        <v>1027</v>
-      </c>
-      <c r="AD289" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="290" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A290" s="13" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="B290" s="7">
         <v>102</v>
@@ -26415,7 +26451,7 @@
         <v>754</v>
       </c>
       <c r="D290" s="5">
-        <v>43006</v>
+        <v>43002</v>
       </c>
       <c r="E290" s="4" t="s">
         <v>844</v>
@@ -26442,7 +26478,7 @@
         <v>498</v>
       </c>
       <c r="N290" s="14" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="O290">
         <v>1</v>
@@ -26480,7 +26516,7 @@
     </row>
     <row r="291" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A291" s="13" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="B291" s="7">
         <v>102</v>
@@ -26489,7 +26525,7 @@
         <v>754</v>
       </c>
       <c r="D291" s="5">
-        <v>43009</v>
+        <v>43003</v>
       </c>
       <c r="E291" s="4" t="s">
         <v>844</v>
@@ -26516,7 +26552,7 @@
         <v>498</v>
       </c>
       <c r="N291" s="14" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="O291">
         <v>1</v>
@@ -26551,10 +26587,16 @@
       <c r="AA291" t="s">
         <v>86</v>
       </c>
+      <c r="AB291" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AD291" t="s">
+        <v>1026</v>
+      </c>
     </row>
     <row r="292" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A292" s="13" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="B292" s="7">
         <v>102</v>
@@ -26563,7 +26605,7 @@
         <v>754</v>
       </c>
       <c r="D292" s="5">
-        <v>43010</v>
+        <v>43004</v>
       </c>
       <c r="E292" s="4" t="s">
         <v>844</v>
@@ -26590,7 +26632,7 @@
         <v>498</v>
       </c>
       <c r="N292" s="14" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="O292">
         <v>1</v>
@@ -26628,7 +26670,7 @@
     </row>
     <row r="293" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A293" s="13" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="B293" s="7">
         <v>102</v>
@@ -26637,7 +26679,7 @@
         <v>754</v>
       </c>
       <c r="D293" s="5">
-        <v>43011</v>
+        <v>43005</v>
       </c>
       <c r="E293" s="4" t="s">
         <v>844</v>
@@ -26664,7 +26706,7 @@
         <v>498</v>
       </c>
       <c r="N293" s="14" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="O293">
         <v>1</v>
@@ -26699,10 +26741,16 @@
       <c r="AA293" t="s">
         <v>86</v>
       </c>
+      <c r="AB293" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AD293" t="s">
+        <v>1027</v>
+      </c>
     </row>
     <row r="294" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A294" s="13" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="B294" s="7">
         <v>102</v>
@@ -26711,7 +26759,7 @@
         <v>754</v>
       </c>
       <c r="D294" s="5">
-        <v>43013</v>
+        <v>43006</v>
       </c>
       <c r="E294" s="4" t="s">
         <v>844</v>
@@ -26738,7 +26786,7 @@
         <v>498</v>
       </c>
       <c r="N294" s="14" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="O294">
         <v>1</v>
@@ -26776,7 +26824,7 @@
     </row>
     <row r="295" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A295" s="13" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="B295" s="7">
         <v>102</v>
@@ -26785,7 +26833,7 @@
         <v>754</v>
       </c>
       <c r="D295" s="5">
-        <v>43016</v>
+        <v>43009</v>
       </c>
       <c r="E295" s="4" t="s">
         <v>844</v>
@@ -26812,7 +26860,7 @@
         <v>498</v>
       </c>
       <c r="N295" s="14" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="O295">
         <v>1</v>
@@ -26850,7 +26898,7 @@
     </row>
     <row r="296" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A296" s="13" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="B296" s="7">
         <v>102</v>
@@ -26859,7 +26907,7 @@
         <v>754</v>
       </c>
       <c r="D296" s="5">
-        <v>43017</v>
+        <v>43010</v>
       </c>
       <c r="E296" s="4" t="s">
         <v>844</v>
@@ -26886,7 +26934,7 @@
         <v>498</v>
       </c>
       <c r="N296" s="14" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="O296">
         <v>1</v>
@@ -26924,7 +26972,7 @@
     </row>
     <row r="297" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A297" s="13" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="B297" s="7">
         <v>102</v>
@@ -26933,7 +26981,7 @@
         <v>754</v>
       </c>
       <c r="D297" s="5">
-        <v>43018</v>
+        <v>43011</v>
       </c>
       <c r="E297" s="4" t="s">
         <v>844</v>
@@ -26960,7 +27008,7 @@
         <v>498</v>
       </c>
       <c r="N297" s="14" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="O297">
         <v>1</v>
@@ -26998,7 +27046,7 @@
     </row>
     <row r="298" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A298" s="13" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="B298" s="7">
         <v>102</v>
@@ -27007,7 +27055,7 @@
         <v>754</v>
       </c>
       <c r="D298" s="5">
-        <v>43020</v>
+        <v>43013</v>
       </c>
       <c r="E298" s="4" t="s">
         <v>844</v>
@@ -27034,7 +27082,7 @@
         <v>498</v>
       </c>
       <c r="N298" s="14" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="O298">
         <v>1</v>
@@ -27072,7 +27120,7 @@
     </row>
     <row r="299" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A299" s="13" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="B299" s="7">
         <v>102</v>
@@ -27081,7 +27129,7 @@
         <v>754</v>
       </c>
       <c r="D299" s="5">
-        <v>43024</v>
+        <v>43016</v>
       </c>
       <c r="E299" s="4" t="s">
         <v>844</v>
@@ -27108,7 +27156,7 @@
         <v>498</v>
       </c>
       <c r="N299" s="14" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="O299">
         <v>1</v>
@@ -27146,7 +27194,7 @@
     </row>
     <row r="300" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A300" s="13" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="B300" s="7">
         <v>102</v>
@@ -27155,7 +27203,7 @@
         <v>754</v>
       </c>
       <c r="D300" s="5">
-        <v>43026</v>
+        <v>43017</v>
       </c>
       <c r="E300" s="4" t="s">
         <v>844</v>
@@ -27182,7 +27230,7 @@
         <v>498</v>
       </c>
       <c r="N300" s="14" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="O300">
         <v>1</v>
@@ -27220,7 +27268,7 @@
     </row>
     <row r="301" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A301" s="13" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="B301" s="7">
         <v>102</v>
@@ -27229,7 +27277,7 @@
         <v>754</v>
       </c>
       <c r="D301" s="5">
-        <v>43027</v>
+        <v>43018</v>
       </c>
       <c r="E301" s="4" t="s">
         <v>844</v>
@@ -27255,8 +27303,8 @@
       <c r="M301" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N301" s="7" t="s">
-        <v>86</v>
+      <c r="N301" s="14" t="s">
+        <v>1022</v>
       </c>
       <c r="O301">
         <v>1</v>
@@ -27274,7 +27322,7 @@
         <v>0</v>
       </c>
       <c r="T301">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U301" t="s">
         <v>9</v>
@@ -27294,7 +27342,7 @@
     </row>
     <row r="302" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A302" s="13" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="B302" s="7">
         <v>102</v>
@@ -27303,7 +27351,7 @@
         <v>754</v>
       </c>
       <c r="D302" s="5">
-        <v>43034</v>
+        <v>43020</v>
       </c>
       <c r="E302" s="4" t="s">
         <v>844</v>
@@ -27324,13 +27372,13 @@
         <v>8</v>
       </c>
       <c r="L302" t="s">
-        <v>595</v>
+        <v>1028</v>
       </c>
       <c r="M302" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N302" s="7" t="s">
-        <v>86</v>
+      <c r="N302" s="14" t="s">
+        <v>1023</v>
       </c>
       <c r="O302">
         <v>1</v>
@@ -27368,16 +27416,16 @@
     </row>
     <row r="303" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A303" s="13" t="s">
-        <v>1030</v>
+        <v>1005</v>
       </c>
       <c r="B303" s="7">
-        <v>9845</v>
+        <v>102</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D303" s="5">
-        <v>42778</v>
+        <v>43024</v>
       </c>
       <c r="E303" s="4" t="s">
         <v>844</v>
@@ -27398,13 +27446,13 @@
         <v>8</v>
       </c>
       <c r="L303" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
       <c r="M303" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N303" s="7" t="s">
-        <v>1098</v>
+      <c r="N303" s="14" t="s">
+        <v>1024</v>
       </c>
       <c r="O303">
         <v>1</v>
@@ -27428,13 +27476,13 @@
         <v>9</v>
       </c>
       <c r="V303" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W303">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="X303">
-        <v>3755</v>
+        <v>3089</v>
       </c>
       <c r="AA303" t="s">
         <v>86</v>
@@ -27442,16 +27490,16 @@
     </row>
     <row r="304" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A304" s="13" t="s">
-        <v>1031</v>
+        <v>1006</v>
       </c>
       <c r="B304" s="7">
-        <v>9845</v>
+        <v>102</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D304" s="5">
-        <v>42779</v>
+        <v>43026</v>
       </c>
       <c r="E304" s="4" t="s">
         <v>844</v>
@@ -27472,13 +27520,13 @@
         <v>8</v>
       </c>
       <c r="L304" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
       <c r="M304" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N304" s="7" t="s">
-        <v>1093</v>
+      <c r="N304" s="14" t="s">
+        <v>1025</v>
       </c>
       <c r="O304">
         <v>1</v>
@@ -27502,13 +27550,13 @@
         <v>9</v>
       </c>
       <c r="V304" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W304">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="X304">
-        <v>484</v>
+        <v>3089</v>
       </c>
       <c r="AA304" t="s">
         <v>86</v>
@@ -27516,16 +27564,16 @@
     </row>
     <row r="305" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A305" s="13" t="s">
-        <v>1032</v>
+        <v>1007</v>
       </c>
       <c r="B305" s="7">
-        <v>9845</v>
+        <v>102</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D305" s="5">
-        <v>42781</v>
+        <v>43027</v>
       </c>
       <c r="E305" s="4" t="s">
         <v>844</v>
@@ -27546,13 +27594,13 @@
         <v>8</v>
       </c>
       <c r="L305" t="s">
-        <v>1040</v>
+        <v>1028</v>
       </c>
       <c r="M305" s="10" t="s">
         <v>498</v>
       </c>
       <c r="N305" s="7" t="s">
-        <v>1094</v>
+        <v>86</v>
       </c>
       <c r="O305">
         <v>1</v>
@@ -27570,19 +27618,19 @@
         <v>0</v>
       </c>
       <c r="T305">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U305" t="s">
         <v>9</v>
       </c>
       <c r="V305" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W305">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="X305">
-        <v>484</v>
+        <v>3089</v>
       </c>
       <c r="AA305" t="s">
         <v>86</v>
@@ -27590,16 +27638,16 @@
     </row>
     <row r="306" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A306" s="13" t="s">
-        <v>1033</v>
+        <v>1008</v>
       </c>
       <c r="B306" s="7">
-        <v>9845</v>
+        <v>102</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>754</v>
       </c>
       <c r="D306" s="5">
-        <v>42782</v>
+        <v>43034</v>
       </c>
       <c r="E306" s="4" t="s">
         <v>844</v>
@@ -27620,13 +27668,13 @@
         <v>8</v>
       </c>
       <c r="L306" t="s">
-        <v>1040</v>
+        <v>595</v>
       </c>
       <c r="M306" s="10" t="s">
         <v>498</v>
       </c>
       <c r="N306" s="7" t="s">
-        <v>1041</v>
+        <v>86</v>
       </c>
       <c r="O306">
         <v>1</v>
@@ -27650,24 +27698,21 @@
         <v>9</v>
       </c>
       <c r="V306" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="W306">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="X306">
-        <v>484</v>
+        <v>3089</v>
       </c>
       <c r="AA306" t="s">
         <v>86</v>
-      </c>
-      <c r="AD306" t="s">
-        <v>1043</v>
       </c>
     </row>
     <row r="307" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A307" s="13" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="B307" s="7">
         <v>9845</v>
@@ -27676,7 +27721,7 @@
         <v>754</v>
       </c>
       <c r="D307" s="5">
-        <v>42783</v>
+        <v>42778</v>
       </c>
       <c r="E307" s="4" t="s">
         <v>844</v>
@@ -27702,8 +27747,8 @@
       <c r="M307" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N307" s="14" t="s">
-        <v>1062</v>
+      <c r="N307" s="7" t="s">
+        <v>1098</v>
       </c>
       <c r="O307">
         <v>1</v>
@@ -27741,7 +27786,7 @@
     </row>
     <row r="308" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A308" s="13" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="B308" s="7">
         <v>9845</v>
@@ -27750,7 +27795,7 @@
         <v>754</v>
       </c>
       <c r="D308" s="5">
-        <v>42785</v>
+        <v>42779</v>
       </c>
       <c r="E308" s="4" t="s">
         <v>844</v>
@@ -27776,8 +27821,8 @@
       <c r="M308" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N308" s="14" t="s">
-        <v>1063</v>
+      <c r="N308" s="7" t="s">
+        <v>1093</v>
       </c>
       <c r="O308">
         <v>1</v>
@@ -27807,7 +27852,7 @@
         <v>18</v>
       </c>
       <c r="X308">
-        <v>3755</v>
+        <v>484</v>
       </c>
       <c r="AA308" t="s">
         <v>86</v>
@@ -27815,7 +27860,7 @@
     </row>
     <row r="309" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A309" s="13" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="B309" s="7">
         <v>9845</v>
@@ -27824,7 +27869,7 @@
         <v>754</v>
       </c>
       <c r="D309" s="5">
-        <v>42786</v>
+        <v>42781</v>
       </c>
       <c r="E309" s="4" t="s">
         <v>844</v>
@@ -27850,8 +27895,8 @@
       <c r="M309" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N309" s="14" t="s">
-        <v>1042</v>
+      <c r="N309" s="7" t="s">
+        <v>1094</v>
       </c>
       <c r="O309">
         <v>1</v>
@@ -27889,7 +27934,7 @@
     </row>
     <row r="310" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A310" s="13" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="B310" s="7">
         <v>9845</v>
@@ -27898,7 +27943,7 @@
         <v>754</v>
       </c>
       <c r="D310" s="5">
-        <v>42787</v>
+        <v>42782</v>
       </c>
       <c r="E310" s="4" t="s">
         <v>844</v>
@@ -27924,8 +27969,8 @@
       <c r="M310" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N310" s="14" t="s">
-        <v>1064</v>
+      <c r="N310" s="7" t="s">
+        <v>1041</v>
       </c>
       <c r="O310">
         <v>1</v>
@@ -27955,15 +28000,18 @@
         <v>18</v>
       </c>
       <c r="X310">
-        <v>3089</v>
+        <v>484</v>
       </c>
       <c r="AA310" t="s">
         <v>86</v>
+      </c>
+      <c r="AD310" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="311" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A311" s="13" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="B311" s="7">
         <v>9845</v>
@@ -27972,7 +28020,7 @@
         <v>754</v>
       </c>
       <c r="D311" s="5">
-        <v>42788</v>
+        <v>42783</v>
       </c>
       <c r="E311" s="4" t="s">
         <v>844</v>
@@ -27999,7 +28047,7 @@
         <v>498</v>
       </c>
       <c r="N311" s="14" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="O311">
         <v>1</v>
@@ -28029,7 +28077,7 @@
         <v>18</v>
       </c>
       <c r="X311">
-        <v>3089</v>
+        <v>3755</v>
       </c>
       <c r="AA311" t="s">
         <v>86</v>
@@ -28037,7 +28085,7 @@
     </row>
     <row r="312" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A312" s="13" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="B312" s="7">
         <v>9845</v>
@@ -28046,7 +28094,7 @@
         <v>754</v>
       </c>
       <c r="D312" s="5">
-        <v>42789</v>
+        <v>42785</v>
       </c>
       <c r="E312" s="4" t="s">
         <v>844</v>
@@ -28073,7 +28121,7 @@
         <v>498</v>
       </c>
       <c r="N312" s="14" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="O312">
         <v>1</v>
@@ -28103,7 +28151,7 @@
         <v>18</v>
       </c>
       <c r="X312">
-        <v>3089</v>
+        <v>3755</v>
       </c>
       <c r="AA312" t="s">
         <v>86</v>
@@ -28111,7 +28159,7 @@
     </row>
     <row r="313" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A313" s="13" t="s">
-        <v>1044</v>
+        <v>1036</v>
       </c>
       <c r="B313" s="7">
         <v>9845</v>
@@ -28120,7 +28168,7 @@
         <v>754</v>
       </c>
       <c r="D313" s="5">
-        <v>42871</v>
+        <v>42786</v>
       </c>
       <c r="E313" s="4" t="s">
         <v>844</v>
@@ -28141,13 +28189,13 @@
         <v>8</v>
       </c>
       <c r="L313" t="s">
-        <v>1059</v>
+        <v>1040</v>
       </c>
       <c r="M313" s="10" t="s">
         <v>498</v>
       </c>
       <c r="N313" s="14" t="s">
-        <v>1067</v>
+        <v>1042</v>
       </c>
       <c r="O313">
         <v>1</v>
@@ -28177,7 +28225,7 @@
         <v>18</v>
       </c>
       <c r="X313">
-        <v>1115</v>
+        <v>484</v>
       </c>
       <c r="AA313" t="s">
         <v>86</v>
@@ -28185,7 +28233,7 @@
     </row>
     <row r="314" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A314" s="13" t="s">
-        <v>1045</v>
+        <v>1037</v>
       </c>
       <c r="B314" s="7">
         <v>9845</v>
@@ -28194,7 +28242,7 @@
         <v>754</v>
       </c>
       <c r="D314" s="5">
-        <v>42872</v>
+        <v>42787</v>
       </c>
       <c r="E314" s="4" t="s">
         <v>844</v>
@@ -28215,13 +28263,13 @@
         <v>8</v>
       </c>
       <c r="L314" t="s">
-        <v>1059</v>
+        <v>1040</v>
       </c>
       <c r="M314" s="10" t="s">
         <v>498</v>
       </c>
       <c r="N314" s="14" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="O314">
         <v>1</v>
@@ -28251,7 +28299,7 @@
         <v>18</v>
       </c>
       <c r="X314">
-        <v>1115</v>
+        <v>3089</v>
       </c>
       <c r="AA314" t="s">
         <v>86</v>
@@ -28259,7 +28307,7 @@
     </row>
     <row r="315" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A315" s="13" t="s">
-        <v>1046</v>
+        <v>1038</v>
       </c>
       <c r="B315" s="7">
         <v>9845</v>
@@ -28268,7 +28316,7 @@
         <v>754</v>
       </c>
       <c r="D315" s="5">
-        <v>42873</v>
+        <v>42788</v>
       </c>
       <c r="E315" s="4" t="s">
         <v>844</v>
@@ -28289,13 +28337,13 @@
         <v>8</v>
       </c>
       <c r="L315" t="s">
-        <v>1059</v>
+        <v>1040</v>
       </c>
       <c r="M315" s="10" t="s">
         <v>498</v>
       </c>
       <c r="N315" s="14" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="O315">
         <v>1</v>
@@ -28310,10 +28358,10 @@
         <v>0</v>
       </c>
       <c r="S315">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T315">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U315" t="s">
         <v>9</v>
@@ -28325,7 +28373,7 @@
         <v>18</v>
       </c>
       <c r="X315">
-        <v>1115</v>
+        <v>3089</v>
       </c>
       <c r="AA315" t="s">
         <v>86</v>
@@ -28333,7 +28381,7 @@
     </row>
     <row r="316" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A316" s="13" t="s">
-        <v>1047</v>
+        <v>1039</v>
       </c>
       <c r="B316" s="7">
         <v>9845</v>
@@ -28342,7 +28390,7 @@
         <v>754</v>
       </c>
       <c r="D316" s="5">
-        <v>42880</v>
+        <v>42789</v>
       </c>
       <c r="E316" s="4" t="s">
         <v>844</v>
@@ -28363,13 +28411,13 @@
         <v>8</v>
       </c>
       <c r="L316" t="s">
-        <v>1060</v>
+        <v>1040</v>
       </c>
       <c r="M316" s="10" t="s">
         <v>498</v>
       </c>
       <c r="N316" s="14" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="O316">
         <v>1</v>
@@ -28399,7 +28447,7 @@
         <v>18</v>
       </c>
       <c r="X316">
-        <v>1115</v>
+        <v>3089</v>
       </c>
       <c r="AA316" t="s">
         <v>86</v>
@@ -28407,7 +28455,7 @@
     </row>
     <row r="317" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A317" s="13" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="B317" s="7">
         <v>9845</v>
@@ -28416,7 +28464,7 @@
         <v>754</v>
       </c>
       <c r="D317" s="5">
-        <v>42882</v>
+        <v>42871</v>
       </c>
       <c r="E317" s="4" t="s">
         <v>844</v>
@@ -28437,13 +28485,13 @@
         <v>8</v>
       </c>
       <c r="L317" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="M317" s="10" t="s">
         <v>498</v>
       </c>
       <c r="N317" s="14" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="O317">
         <v>1</v>
@@ -28478,13 +28526,10 @@
       <c r="AA317" t="s">
         <v>86</v>
       </c>
-      <c r="AD317" t="s">
-        <v>1075</v>
-      </c>
     </row>
     <row r="318" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A318" s="13" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="B318" s="7">
         <v>9845</v>
@@ -28493,7 +28538,7 @@
         <v>754</v>
       </c>
       <c r="D318" s="5">
-        <v>42883</v>
+        <v>42872</v>
       </c>
       <c r="E318" s="4" t="s">
         <v>844</v>
@@ -28514,13 +28559,13 @@
         <v>8</v>
       </c>
       <c r="L318" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="M318" s="10" t="s">
         <v>498</v>
       </c>
       <c r="N318" s="14" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="O318">
         <v>1</v>
@@ -28558,7 +28603,7 @@
     </row>
     <row r="319" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A319" s="13" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="B319" s="7">
         <v>9845</v>
@@ -28567,7 +28612,7 @@
         <v>754</v>
       </c>
       <c r="D319" s="5">
-        <v>42884</v>
+        <v>42873</v>
       </c>
       <c r="E319" s="4" t="s">
         <v>844</v>
@@ -28588,13 +28633,13 @@
         <v>8</v>
       </c>
       <c r="L319" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="M319" s="10" t="s">
         <v>498</v>
       </c>
       <c r="N319" s="14" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="O319">
         <v>1</v>
@@ -28609,10 +28654,10 @@
         <v>0</v>
       </c>
       <c r="S319">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T319">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U319" t="s">
         <v>9</v>
@@ -28632,7 +28677,7 @@
     </row>
     <row r="320" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A320" s="13" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="B320" s="7">
         <v>9845</v>
@@ -28641,7 +28686,7 @@
         <v>754</v>
       </c>
       <c r="D320" s="5">
-        <v>42889</v>
+        <v>42880</v>
       </c>
       <c r="E320" s="4" t="s">
         <v>844</v>
@@ -28668,7 +28713,7 @@
         <v>498</v>
       </c>
       <c r="N320" s="14" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="O320">
         <v>1</v>
@@ -28698,7 +28743,7 @@
         <v>18</v>
       </c>
       <c r="X320">
-        <v>484</v>
+        <v>1115</v>
       </c>
       <c r="AA320" t="s">
         <v>86</v>
@@ -28706,7 +28751,7 @@
     </row>
     <row r="321" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A321" s="13" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="B321" s="7">
         <v>9845</v>
@@ -28715,7 +28760,7 @@
         <v>754</v>
       </c>
       <c r="D321" s="5">
-        <v>42891</v>
+        <v>42882</v>
       </c>
       <c r="E321" s="4" t="s">
         <v>844</v>
@@ -28742,7 +28787,7 @@
         <v>498</v>
       </c>
       <c r="N321" s="14" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="O321">
         <v>1</v>
@@ -28772,15 +28817,18 @@
         <v>18</v>
       </c>
       <c r="X321">
-        <v>3755</v>
+        <v>1115</v>
       </c>
       <c r="AA321" t="s">
         <v>86</v>
+      </c>
+      <c r="AD321" t="s">
+        <v>1075</v>
       </c>
     </row>
     <row r="322" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A322" s="13" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="B322" s="7">
         <v>9845</v>
@@ -28789,7 +28837,7 @@
         <v>754</v>
       </c>
       <c r="D322" s="5">
-        <v>42892</v>
+        <v>42883</v>
       </c>
       <c r="E322" s="4" t="s">
         <v>844</v>
@@ -28815,8 +28863,8 @@
       <c r="M322" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N322" s="7" t="s">
-        <v>1095</v>
+      <c r="N322" s="14" t="s">
+        <v>1072</v>
       </c>
       <c r="O322">
         <v>1</v>
@@ -28846,7 +28894,7 @@
         <v>18</v>
       </c>
       <c r="X322">
-        <v>3755</v>
+        <v>1115</v>
       </c>
       <c r="AA322" t="s">
         <v>86</v>
@@ -28854,7 +28902,7 @@
     </row>
     <row r="323" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A323" s="13" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="B323" s="7">
         <v>9845</v>
@@ -28863,7 +28911,7 @@
         <v>754</v>
       </c>
       <c r="D323" s="5">
-        <v>42894</v>
+        <v>42884</v>
       </c>
       <c r="E323" s="4" t="s">
         <v>844</v>
@@ -28889,8 +28937,8 @@
       <c r="M323" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N323" s="7" t="s">
-        <v>1096</v>
+      <c r="N323" s="14" t="s">
+        <v>1073</v>
       </c>
       <c r="O323">
         <v>1</v>
@@ -28920,18 +28968,15 @@
         <v>18</v>
       </c>
       <c r="X323">
-        <v>3755</v>
+        <v>1115</v>
       </c>
       <c r="AA323" t="s">
         <v>86</v>
-      </c>
-      <c r="AD323" t="s">
-        <v>1099</v>
       </c>
     </row>
     <row r="324" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A324" s="13" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="B324" s="7">
         <v>9845</v>
@@ -28940,7 +28985,7 @@
         <v>754</v>
       </c>
       <c r="D324" s="5">
-        <v>42898</v>
+        <v>42889</v>
       </c>
       <c r="E324" s="4" t="s">
         <v>844</v>
@@ -28967,7 +29012,7 @@
         <v>498</v>
       </c>
       <c r="N324" s="14" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="O324">
         <v>1</v>
@@ -28997,7 +29042,7 @@
         <v>18</v>
       </c>
       <c r="X324">
-        <v>3755</v>
+        <v>484</v>
       </c>
       <c r="AA324" t="s">
         <v>86</v>
@@ -29005,7 +29050,7 @@
     </row>
     <row r="325" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A325" s="13" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="B325" s="7">
         <v>9845</v>
@@ -29014,7 +29059,7 @@
         <v>754</v>
       </c>
       <c r="D325" s="5">
-        <v>42900</v>
+        <v>42891</v>
       </c>
       <c r="E325" s="4" t="s">
         <v>844</v>
@@ -29041,7 +29086,7 @@
         <v>498</v>
       </c>
       <c r="N325" s="14" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="O325">
         <v>1</v>
@@ -29079,7 +29124,7 @@
     </row>
     <row r="326" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A326" s="13" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="B326" s="7">
         <v>9845</v>
@@ -29088,7 +29133,7 @@
         <v>754</v>
       </c>
       <c r="D326" s="5">
-        <v>42901</v>
+        <v>42892</v>
       </c>
       <c r="E326" s="4" t="s">
         <v>844</v>
@@ -29115,7 +29160,7 @@
         <v>498</v>
       </c>
       <c r="N326" s="7" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="O326">
         <v>1</v>
@@ -29153,7 +29198,7 @@
     </row>
     <row r="327" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A327" s="13" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="B327" s="7">
         <v>9845</v>
@@ -29162,7 +29207,7 @@
         <v>754</v>
       </c>
       <c r="D327" s="5">
-        <v>42908</v>
+        <v>42894</v>
       </c>
       <c r="E327" s="4" t="s">
         <v>844</v>
@@ -29188,8 +29233,8 @@
       <c r="M327" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N327" s="14" t="s">
-        <v>1079</v>
+      <c r="N327" s="7" t="s">
+        <v>1096</v>
       </c>
       <c r="O327">
         <v>1</v>
@@ -29224,52 +29269,49 @@
       <c r="AA327" t="s">
         <v>86</v>
       </c>
-      <c r="AB327" t="s">
-        <v>1061</v>
-      </c>
       <c r="AD327" t="s">
-        <v>1061</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="328" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A328" s="13" t="s">
-        <v>1100</v>
+        <v>1055</v>
       </c>
       <c r="B328" s="7">
-        <v>2299</v>
+        <v>9845</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>1113</v>
+        <v>754</v>
       </c>
       <c r="D328" s="5">
-        <v>43793</v>
+        <v>42898</v>
       </c>
       <c r="E328" s="4" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F328" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H328">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I328" t="s">
-        <v>758</v>
+        <v>679</v>
       </c>
       <c r="J328" s="1" t="s">
-        <v>1115</v>
+        <v>7</v>
       </c>
       <c r="K328" s="1" t="s">
-        <v>1116</v>
+        <v>8</v>
       </c>
       <c r="L328" t="s">
-        <v>1153</v>
+        <v>1060</v>
       </c>
       <c r="M328" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N328" t="s">
-        <v>1130</v>
+      <c r="N328" s="14" t="s">
+        <v>1077</v>
       </c>
       <c r="O328">
         <v>1</v>
@@ -29290,16 +29332,16 @@
         <v>0</v>
       </c>
       <c r="U328" t="s">
-        <v>757</v>
+        <v>9</v>
       </c>
       <c r="V328" t="s">
-        <v>759</v>
+        <v>501</v>
       </c>
       <c r="W328">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="X328">
-        <v>917</v>
+        <v>3755</v>
       </c>
       <c r="AA328" t="s">
         <v>86</v>
@@ -29307,43 +29349,43 @@
     </row>
     <row r="329" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A329" s="13" t="s">
-        <v>1101</v>
+        <v>1056</v>
       </c>
       <c r="B329" s="7">
-        <v>2299</v>
+        <v>9845</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>1113</v>
+        <v>754</v>
       </c>
       <c r="D329" s="5">
-        <v>43794</v>
+        <v>42900</v>
       </c>
       <c r="E329" s="4" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F329" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H329">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I329" t="s">
-        <v>758</v>
+        <v>679</v>
       </c>
       <c r="J329" s="1" t="s">
-        <v>1115</v>
+        <v>7</v>
       </c>
       <c r="K329" s="1" t="s">
-        <v>1116</v>
+        <v>8</v>
       </c>
       <c r="L329" t="s">
-        <v>1154</v>
+        <v>1060</v>
       </c>
       <c r="M329" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N329" t="s">
-        <v>1131</v>
+      <c r="N329" s="14" t="s">
+        <v>1078</v>
       </c>
       <c r="O329">
         <v>1</v>
@@ -29364,16 +29406,16 @@
         <v>0</v>
       </c>
       <c r="U329" t="s">
-        <v>757</v>
+        <v>9</v>
       </c>
       <c r="V329" t="s">
-        <v>759</v>
+        <v>501</v>
       </c>
       <c r="W329">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="X329">
-        <v>4029</v>
+        <v>3755</v>
       </c>
       <c r="AA329" t="s">
         <v>86</v>
@@ -29381,43 +29423,43 @@
     </row>
     <row r="330" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A330" s="13" t="s">
-        <v>1102</v>
+        <v>1057</v>
       </c>
       <c r="B330" s="7">
-        <v>2299</v>
+        <v>9845</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>1113</v>
+        <v>754</v>
       </c>
       <c r="D330" s="5">
-        <v>43795</v>
+        <v>42901</v>
       </c>
       <c r="E330" s="4" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F330" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H330">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I330" t="s">
-        <v>758</v>
+        <v>679</v>
       </c>
       <c r="J330" s="1" t="s">
-        <v>1115</v>
+        <v>7</v>
       </c>
       <c r="K330" s="1" t="s">
-        <v>1116</v>
+        <v>8</v>
       </c>
       <c r="L330" t="s">
-        <v>1154</v>
+        <v>1060</v>
       </c>
       <c r="M330" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N330" t="s">
-        <v>1132</v>
+      <c r="N330" s="7" t="s">
+        <v>1097</v>
       </c>
       <c r="O330">
         <v>1</v>
@@ -29438,16 +29480,16 @@
         <v>0</v>
       </c>
       <c r="U330" t="s">
-        <v>757</v>
+        <v>9</v>
       </c>
       <c r="V330" t="s">
-        <v>759</v>
+        <v>501</v>
       </c>
       <c r="W330">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="X330">
-        <v>4029</v>
+        <v>3755</v>
       </c>
       <c r="AA330" t="s">
         <v>86</v>
@@ -29455,43 +29497,43 @@
     </row>
     <row r="331" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A331" s="13" t="s">
-        <v>1103</v>
+        <v>1058</v>
       </c>
       <c r="B331" s="7">
-        <v>2299</v>
+        <v>9845</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>1113</v>
+        <v>754</v>
       </c>
       <c r="D331" s="5">
-        <v>43796</v>
+        <v>42908</v>
       </c>
       <c r="E331" s="4" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F331" s="7" t="s">
         <v>86</v>
       </c>
       <c r="H331">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I331" t="s">
-        <v>758</v>
+        <v>679</v>
       </c>
       <c r="J331" s="1" t="s">
-        <v>1115</v>
+        <v>7</v>
       </c>
       <c r="K331" s="1" t="s">
-        <v>1116</v>
+        <v>8</v>
       </c>
       <c r="L331" t="s">
-        <v>1155</v>
+        <v>1060</v>
       </c>
       <c r="M331" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="N331" t="s">
-        <v>1133</v>
+      <c r="N331" s="14" t="s">
+        <v>1079</v>
       </c>
       <c r="O331">
         <v>1</v>
@@ -29512,24 +29554,30 @@
         <v>0</v>
       </c>
       <c r="U331" t="s">
-        <v>757</v>
+        <v>9</v>
       </c>
       <c r="V331" t="s">
-        <v>759</v>
+        <v>501</v>
       </c>
       <c r="W331">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="X331">
-        <v>4029</v>
+        <v>3755</v>
       </c>
       <c r="AA331" t="s">
         <v>86</v>
+      </c>
+      <c r="AB331" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AD331" t="s">
+        <v>1061</v>
       </c>
     </row>
     <row r="332" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A332" s="13" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="B332" s="7">
         <v>2299</v>
@@ -29538,7 +29586,7 @@
         <v>1113</v>
       </c>
       <c r="D332" s="5">
-        <v>43797</v>
+        <v>43793</v>
       </c>
       <c r="E332" s="4" t="s">
         <v>843</v>
@@ -29559,13 +29607,13 @@
         <v>1116</v>
       </c>
       <c r="L332" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="M332" s="10" t="s">
         <v>498</v>
       </c>
       <c r="N332" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="O332">
         <v>1</v>
@@ -29595,7 +29643,7 @@
         <v>0</v>
       </c>
       <c r="X332">
-        <v>4029</v>
+        <v>917</v>
       </c>
       <c r="AA332" t="s">
         <v>86</v>
@@ -29603,7 +29651,7 @@
     </row>
     <row r="333" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A333" s="13" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="B333" s="7">
         <v>2299</v>
@@ -29612,7 +29660,7 @@
         <v>1113</v>
       </c>
       <c r="D333" s="5">
-        <v>43800</v>
+        <v>43794</v>
       </c>
       <c r="E333" s="4" t="s">
         <v>843</v>
@@ -29633,13 +29681,13 @@
         <v>1116</v>
       </c>
       <c r="L333" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="M333" s="10" t="s">
         <v>498</v>
       </c>
       <c r="N333" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="O333">
         <v>1</v>
@@ -29648,7 +29696,7 @@
         <v>1</v>
       </c>
       <c r="Q333">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R333">
         <v>0</v>
@@ -29677,7 +29725,7 @@
     </row>
     <row r="334" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A334" s="13" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="B334" s="7">
         <v>2299</v>
@@ -29686,7 +29734,7 @@
         <v>1113</v>
       </c>
       <c r="D334" s="5">
-        <v>43801</v>
+        <v>43795</v>
       </c>
       <c r="E334" s="4" t="s">
         <v>843</v>
@@ -29707,13 +29755,13 @@
         <v>1116</v>
       </c>
       <c r="L334" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="M334" s="10" t="s">
         <v>498</v>
       </c>
       <c r="N334" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="O334">
         <v>1</v>
@@ -29722,7 +29770,7 @@
         <v>1</v>
       </c>
       <c r="Q334">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R334">
         <v>0</v>
@@ -29751,7 +29799,7 @@
     </row>
     <row r="335" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A335" s="13" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="B335" s="7">
         <v>2299</v>
@@ -29760,7 +29808,7 @@
         <v>1113</v>
       </c>
       <c r="D335" s="5">
-        <v>43802</v>
+        <v>43796</v>
       </c>
       <c r="E335" s="4" t="s">
         <v>843</v>
@@ -29781,13 +29829,13 @@
         <v>1116</v>
       </c>
       <c r="L335" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="M335" s="10" t="s">
         <v>498</v>
       </c>
       <c r="N335" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="O335">
         <v>1</v>
@@ -29796,7 +29844,7 @@
         <v>1</v>
       </c>
       <c r="Q335">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R335">
         <v>0</v>
@@ -29825,7 +29873,7 @@
     </row>
     <row r="336" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A336" s="13" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="B336" s="7">
         <v>2299</v>
@@ -29834,7 +29882,7 @@
         <v>1113</v>
       </c>
       <c r="D336" s="5">
-        <v>43803</v>
+        <v>43797</v>
       </c>
       <c r="E336" s="4" t="s">
         <v>843</v>
@@ -29855,13 +29903,13 @@
         <v>1116</v>
       </c>
       <c r="L336" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="M336" s="10" t="s">
         <v>498</v>
       </c>
       <c r="N336" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="O336">
         <v>1</v>
@@ -29870,7 +29918,7 @@
         <v>1</v>
       </c>
       <c r="Q336">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R336">
         <v>0</v>
@@ -29899,7 +29947,7 @@
     </row>
     <row r="337" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A337" s="13" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="B337" s="7">
         <v>2299</v>
@@ -29908,7 +29956,7 @@
         <v>1113</v>
       </c>
       <c r="D337" s="5">
-        <v>43804</v>
+        <v>43800</v>
       </c>
       <c r="E337" s="4" t="s">
         <v>843</v>
@@ -29935,7 +29983,7 @@
         <v>498</v>
       </c>
       <c r="N337" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="O337">
         <v>1</v>
@@ -29973,7 +30021,7 @@
     </row>
     <row r="338" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A338" s="13" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="B338" s="7">
         <v>2299</v>
@@ -29982,7 +30030,7 @@
         <v>1113</v>
       </c>
       <c r="D338" s="5">
-        <v>43807</v>
+        <v>43801</v>
       </c>
       <c r="E338" s="4" t="s">
         <v>843</v>
@@ -30009,7 +30057,7 @@
         <v>498</v>
       </c>
       <c r="N338" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="O338">
         <v>1</v>
@@ -30047,7 +30095,7 @@
     </row>
     <row r="339" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A339" s="13" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="B339" s="7">
         <v>2299</v>
@@ -30056,7 +30104,7 @@
         <v>1113</v>
       </c>
       <c r="D339" s="5">
-        <v>43808</v>
+        <v>43802</v>
       </c>
       <c r="E339" s="4" t="s">
         <v>843</v>
@@ -30083,7 +30131,7 @@
         <v>498</v>
       </c>
       <c r="N339" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="O339">
         <v>1</v>
@@ -30121,7 +30169,7 @@
     </row>
     <row r="340" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A340" s="13" t="s">
-        <v>1180</v>
+        <v>1108</v>
       </c>
       <c r="B340" s="7">
         <v>2299</v>
@@ -30130,7 +30178,7 @@
         <v>1113</v>
       </c>
       <c r="D340" s="5">
-        <v>43809</v>
+        <v>43803</v>
       </c>
       <c r="E340" s="4" t="s">
         <v>843</v>
@@ -30157,7 +30205,7 @@
         <v>498</v>
       </c>
       <c r="N340" t="s">
-        <v>1183</v>
+        <v>1138</v>
       </c>
       <c r="O340">
         <v>1</v>
@@ -30195,7 +30243,7 @@
     </row>
     <row r="341" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A341" s="13" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="B341" s="7">
         <v>2299</v>
@@ -30204,7 +30252,7 @@
         <v>1113</v>
       </c>
       <c r="D341" s="5">
-        <v>43810</v>
+        <v>43804</v>
       </c>
       <c r="E341" s="4" t="s">
         <v>843</v>
@@ -30231,7 +30279,7 @@
         <v>498</v>
       </c>
       <c r="N341" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="O341">
         <v>1</v>
@@ -30269,7 +30317,7 @@
     </row>
     <row r="342" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A342" s="13" t="s">
-        <v>1181</v>
+        <v>1110</v>
       </c>
       <c r="B342" s="7">
         <v>2299</v>
@@ -30278,7 +30326,7 @@
         <v>1113</v>
       </c>
       <c r="D342" s="5">
-        <v>43811</v>
+        <v>43807</v>
       </c>
       <c r="E342" s="4" t="s">
         <v>843</v>
@@ -30305,7 +30353,7 @@
         <v>498</v>
       </c>
       <c r="N342" t="s">
-        <v>1184</v>
+        <v>1140</v>
       </c>
       <c r="O342">
         <v>1</v>
@@ -30343,7 +30391,7 @@
     </row>
     <row r="343" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A343" s="13" t="s">
-        <v>1182</v>
+        <v>1111</v>
       </c>
       <c r="B343" s="7">
         <v>2299</v>
@@ -30352,7 +30400,7 @@
         <v>1113</v>
       </c>
       <c r="D343" s="5">
-        <v>43812</v>
+        <v>43808</v>
       </c>
       <c r="E343" s="4" t="s">
         <v>843</v>
@@ -30379,7 +30427,7 @@
         <v>498</v>
       </c>
       <c r="N343" t="s">
-        <v>1185</v>
+        <v>1141</v>
       </c>
       <c r="O343">
         <v>1</v>
@@ -30417,16 +30465,16 @@
     </row>
     <row r="344" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A344" s="13" t="s">
-        <v>1158</v>
+        <v>1180</v>
       </c>
       <c r="B344" s="7">
-        <v>2336</v>
+        <v>2299</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>1159</v>
+        <v>1113</v>
       </c>
       <c r="D344" s="5">
-        <v>43711</v>
+        <v>43809</v>
       </c>
       <c r="E344" s="4" t="s">
         <v>843</v>
@@ -30441,19 +30489,19 @@
         <v>758</v>
       </c>
       <c r="J344" s="1" t="s">
-        <v>1160</v>
+        <v>1115</v>
       </c>
       <c r="K344" s="1" t="s">
-        <v>1161</v>
+        <v>1116</v>
       </c>
       <c r="L344" t="s">
-        <v>1114</v>
+        <v>1157</v>
       </c>
       <c r="M344" s="10" t="s">
         <v>498</v>
       </c>
       <c r="N344" t="s">
-        <v>1162</v>
+        <v>1185</v>
       </c>
       <c r="O344">
         <v>1</v>
@@ -30491,16 +30539,16 @@
     </row>
     <row r="345" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A345" s="13" t="s">
-        <v>1163</v>
+        <v>1112</v>
       </c>
       <c r="B345" s="7">
-        <v>2336</v>
+        <v>2299</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>1159</v>
+        <v>1113</v>
       </c>
       <c r="D345" s="5">
-        <v>43718</v>
+        <v>43810</v>
       </c>
       <c r="E345" s="4" t="s">
         <v>843</v>
@@ -30515,19 +30563,19 @@
         <v>758</v>
       </c>
       <c r="J345" s="1" t="s">
-        <v>1160</v>
+        <v>1115</v>
       </c>
       <c r="K345" s="1" t="s">
-        <v>1161</v>
+        <v>1116</v>
       </c>
       <c r="L345" t="s">
-        <v>1114</v>
+        <v>1157</v>
       </c>
       <c r="M345" s="10" t="s">
         <v>498</v>
       </c>
       <c r="N345" t="s">
-        <v>1162</v>
+        <v>1142</v>
       </c>
       <c r="O345">
         <v>1</v>
@@ -30565,16 +30613,16 @@
     </row>
     <row r="346" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A346" s="13" t="s">
-        <v>1164</v>
+        <v>1181</v>
       </c>
       <c r="B346" s="7">
-        <v>2336</v>
+        <v>2299</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>1159</v>
+        <v>1113</v>
       </c>
       <c r="D346" s="5">
-        <v>43719</v>
+        <v>43811</v>
       </c>
       <c r="E346" s="4" t="s">
         <v>843</v>
@@ -30589,19 +30637,19 @@
         <v>758</v>
       </c>
       <c r="J346" s="1" t="s">
-        <v>1160</v>
+        <v>1115</v>
       </c>
       <c r="K346" s="1" t="s">
-        <v>1161</v>
+        <v>1116</v>
       </c>
       <c r="L346" t="s">
-        <v>1114</v>
+        <v>1157</v>
       </c>
       <c r="M346" s="10" t="s">
         <v>498</v>
       </c>
       <c r="N346" t="s">
-        <v>1162</v>
+        <v>1183</v>
       </c>
       <c r="O346">
         <v>1</v>
@@ -30639,16 +30687,16 @@
     </row>
     <row r="347" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A347" s="13" t="s">
-        <v>1165</v>
+        <v>1182</v>
       </c>
       <c r="B347" s="7">
-        <v>2336</v>
+        <v>2299</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>1159</v>
+        <v>1113</v>
       </c>
       <c r="D347" s="5">
-        <v>43723</v>
+        <v>43812</v>
       </c>
       <c r="E347" s="4" t="s">
         <v>843</v>
@@ -30663,19 +30711,19 @@
         <v>758</v>
       </c>
       <c r="J347" s="1" t="s">
-        <v>1160</v>
+        <v>1115</v>
       </c>
       <c r="K347" s="1" t="s">
-        <v>1161</v>
+        <v>1116</v>
       </c>
       <c r="L347" t="s">
-        <v>1114</v>
+        <v>1157</v>
       </c>
       <c r="M347" s="10" t="s">
         <v>498</v>
       </c>
       <c r="N347" t="s">
-        <v>1162</v>
+        <v>1184</v>
       </c>
       <c r="O347">
         <v>1</v>
@@ -30713,7 +30761,7 @@
     </row>
     <row r="348" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A348" s="13" t="s">
-        <v>1166</v>
+        <v>1158</v>
       </c>
       <c r="B348" s="7">
         <v>2336</v>
@@ -30722,7 +30770,7 @@
         <v>1159</v>
       </c>
       <c r="D348" s="5">
-        <v>43726</v>
+        <v>43711</v>
       </c>
       <c r="E348" s="4" t="s">
         <v>843</v>
@@ -30787,7 +30835,7 @@
     </row>
     <row r="349" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A349" s="13" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="B349" s="7">
         <v>2336</v>
@@ -30796,7 +30844,7 @@
         <v>1159</v>
       </c>
       <c r="D349" s="5">
-        <v>43729</v>
+        <v>43718</v>
       </c>
       <c r="E349" s="4" t="s">
         <v>843</v>
@@ -30861,7 +30909,7 @@
     </row>
     <row r="350" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A350" s="13" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="B350" s="7">
         <v>2336</v>
@@ -30870,7 +30918,7 @@
         <v>1159</v>
       </c>
       <c r="D350" s="5">
-        <v>43731</v>
+        <v>43719</v>
       </c>
       <c r="E350" s="4" t="s">
         <v>843</v>
@@ -30935,7 +30983,7 @@
     </row>
     <row r="351" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A351" s="13" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="B351" s="7">
         <v>2336</v>
@@ -30944,7 +30992,7 @@
         <v>1159</v>
       </c>
       <c r="D351" s="5">
-        <v>43733</v>
+        <v>43723</v>
       </c>
       <c r="E351" s="4" t="s">
         <v>843</v>
@@ -31009,7 +31057,7 @@
     </row>
     <row r="352" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A352" s="13" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="B352" s="7">
         <v>2336</v>
@@ -31018,7 +31066,7 @@
         <v>1159</v>
       </c>
       <c r="D352" s="5">
-        <v>43740</v>
+        <v>43726</v>
       </c>
       <c r="E352" s="4" t="s">
         <v>843</v>
@@ -31083,7 +31131,7 @@
     </row>
     <row r="353" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A353" s="13" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="B353" s="7">
         <v>2336</v>
@@ -31092,7 +31140,7 @@
         <v>1159</v>
       </c>
       <c r="D353" s="5">
-        <v>43744</v>
+        <v>43729</v>
       </c>
       <c r="E353" s="4" t="s">
         <v>843</v>
@@ -31157,7 +31205,7 @@
     </row>
     <row r="354" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A354" s="13" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="B354" s="7">
         <v>2336</v>
@@ -31166,7 +31214,7 @@
         <v>1159</v>
       </c>
       <c r="D354" s="5">
-        <v>43745</v>
+        <v>43731</v>
       </c>
       <c r="E354" s="4" t="s">
         <v>843</v>
@@ -31231,7 +31279,7 @@
     </row>
     <row r="355" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A355" s="13" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="B355" s="7">
         <v>2336</v>
@@ -31240,7 +31288,7 @@
         <v>1159</v>
       </c>
       <c r="D355" s="5">
-        <v>43748</v>
+        <v>43733</v>
       </c>
       <c r="E355" s="4" t="s">
         <v>843</v>
@@ -31305,7 +31353,7 @@
     </row>
     <row r="356" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A356" s="13" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="B356" s="7">
         <v>2336</v>
@@ -31314,7 +31362,7 @@
         <v>1159</v>
       </c>
       <c r="D356" s="5">
-        <v>43750</v>
+        <v>43740</v>
       </c>
       <c r="E356" s="4" t="s">
         <v>843</v>
@@ -31379,7 +31427,7 @@
     </row>
     <row r="357" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A357" s="13" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="B357" s="7">
         <v>2336</v>
@@ -31388,7 +31436,7 @@
         <v>1159</v>
       </c>
       <c r="D357" s="5">
-        <v>43761</v>
+        <v>43744</v>
       </c>
       <c r="E357" s="4" t="s">
         <v>843</v>
@@ -31453,7 +31501,7 @@
     </row>
     <row r="358" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A358" s="13" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="B358" s="7">
         <v>2336</v>
@@ -31462,7 +31510,7 @@
         <v>1159</v>
       </c>
       <c r="D358" s="5">
-        <v>43768</v>
+        <v>43745</v>
       </c>
       <c r="E358" s="4" t="s">
         <v>843</v>
@@ -31527,7 +31575,7 @@
     </row>
     <row r="359" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A359" s="13" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="B359" s="7">
         <v>2336</v>
@@ -31536,7 +31584,7 @@
         <v>1159</v>
       </c>
       <c r="D359" s="5">
-        <v>43779</v>
+        <v>43748</v>
       </c>
       <c r="E359" s="4" t="s">
         <v>843</v>
@@ -31601,7 +31649,7 @@
     </row>
     <row r="360" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A360" s="13" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="B360" s="7">
         <v>2336</v>
@@ -31610,7 +31658,7 @@
         <v>1159</v>
       </c>
       <c r="D360" s="5">
-        <v>43783</v>
+        <v>43750</v>
       </c>
       <c r="E360" s="4" t="s">
         <v>843</v>
@@ -31675,7 +31723,7 @@
     </row>
     <row r="361" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A361" s="13" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="B361" s="7">
         <v>2336</v>
@@ -31684,7 +31732,7 @@
         <v>1159</v>
       </c>
       <c r="D361" s="5">
-        <v>43793</v>
+        <v>43761</v>
       </c>
       <c r="E361" s="4" t="s">
         <v>843</v>
@@ -31748,36 +31796,300 @@
       </c>
     </row>
     <row r="362" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B362" s="7"/>
-      <c r="D362" s="5"/>
-      <c r="J362" s="1"/>
-      <c r="K362" s="1"/>
-      <c r="M362" s="10"/>
-      <c r="N362"/>
+      <c r="A362" s="13" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B362" s="7">
+        <v>2336</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D362" s="5">
+        <v>43768</v>
+      </c>
+      <c r="E362" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F362" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H362">
+        <v>16</v>
+      </c>
+      <c r="I362" t="s">
+        <v>758</v>
+      </c>
+      <c r="J362" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="K362" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="L362" t="s">
+        <v>1114</v>
+      </c>
+      <c r="M362" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N362" t="s">
+        <v>1162</v>
+      </c>
+      <c r="O362">
+        <v>1</v>
+      </c>
+      <c r="P362">
+        <v>1</v>
+      </c>
+      <c r="Q362">
+        <v>1</v>
+      </c>
+      <c r="R362">
+        <v>0</v>
+      </c>
+      <c r="S362">
+        <v>0</v>
+      </c>
+      <c r="T362">
+        <v>0</v>
+      </c>
+      <c r="U362" t="s">
+        <v>757</v>
+      </c>
+      <c r="V362" t="s">
+        <v>759</v>
+      </c>
+      <c r="W362">
+        <v>0</v>
+      </c>
+      <c r="X362">
+        <v>4029</v>
+      </c>
+      <c r="AA362" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="363" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B363" s="7"/>
-      <c r="D363" s="5"/>
-      <c r="J363" s="1"/>
-      <c r="K363" s="1"/>
-      <c r="M363" s="10"/>
-      <c r="N363"/>
+      <c r="A363" s="13" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B363" s="7">
+        <v>2336</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D363" s="5">
+        <v>43779</v>
+      </c>
+      <c r="E363" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F363" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H363">
+        <v>16</v>
+      </c>
+      <c r="I363" t="s">
+        <v>758</v>
+      </c>
+      <c r="J363" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="K363" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="L363" t="s">
+        <v>1114</v>
+      </c>
+      <c r="M363" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N363" t="s">
+        <v>1162</v>
+      </c>
+      <c r="O363">
+        <v>1</v>
+      </c>
+      <c r="P363">
+        <v>1</v>
+      </c>
+      <c r="Q363">
+        <v>1</v>
+      </c>
+      <c r="R363">
+        <v>0</v>
+      </c>
+      <c r="S363">
+        <v>0</v>
+      </c>
+      <c r="T363">
+        <v>0</v>
+      </c>
+      <c r="U363" t="s">
+        <v>757</v>
+      </c>
+      <c r="V363" t="s">
+        <v>759</v>
+      </c>
+      <c r="W363">
+        <v>0</v>
+      </c>
+      <c r="X363">
+        <v>4029</v>
+      </c>
+      <c r="AA363" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="364" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B364" s="7"/>
-      <c r="D364" s="5"/>
-      <c r="J364" s="1"/>
-      <c r="K364" s="1"/>
-      <c r="M364" s="10"/>
-      <c r="N364"/>
+      <c r="A364" s="13" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B364" s="7">
+        <v>2336</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D364" s="5">
+        <v>43783</v>
+      </c>
+      <c r="E364" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F364" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H364">
+        <v>16</v>
+      </c>
+      <c r="I364" t="s">
+        <v>758</v>
+      </c>
+      <c r="J364" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="K364" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="L364" t="s">
+        <v>1114</v>
+      </c>
+      <c r="M364" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N364" t="s">
+        <v>1162</v>
+      </c>
+      <c r="O364">
+        <v>1</v>
+      </c>
+      <c r="P364">
+        <v>1</v>
+      </c>
+      <c r="Q364">
+        <v>1</v>
+      </c>
+      <c r="R364">
+        <v>0</v>
+      </c>
+      <c r="S364">
+        <v>0</v>
+      </c>
+      <c r="T364">
+        <v>0</v>
+      </c>
+      <c r="U364" t="s">
+        <v>757</v>
+      </c>
+      <c r="V364" t="s">
+        <v>759</v>
+      </c>
+      <c r="W364">
+        <v>0</v>
+      </c>
+      <c r="X364">
+        <v>4029</v>
+      </c>
+      <c r="AA364" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="365" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B365" s="7"/>
-      <c r="D365" s="5"/>
-      <c r="J365" s="1"/>
-      <c r="K365" s="1"/>
-      <c r="M365" s="10"/>
-      <c r="N365"/>
+      <c r="A365" s="13" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B365" s="7">
+        <v>2336</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D365" s="5">
+        <v>43793</v>
+      </c>
+      <c r="E365" s="4" t="s">
+        <v>843</v>
+      </c>
+      <c r="F365" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H365">
+        <v>16</v>
+      </c>
+      <c r="I365" t="s">
+        <v>758</v>
+      </c>
+      <c r="J365" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="K365" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="L365" t="s">
+        <v>1114</v>
+      </c>
+      <c r="M365" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="N365" t="s">
+        <v>1162</v>
+      </c>
+      <c r="O365">
+        <v>1</v>
+      </c>
+      <c r="P365">
+        <v>1</v>
+      </c>
+      <c r="Q365">
+        <v>1</v>
+      </c>
+      <c r="R365">
+        <v>0</v>
+      </c>
+      <c r="S365">
+        <v>0</v>
+      </c>
+      <c r="T365">
+        <v>0</v>
+      </c>
+      <c r="U365" t="s">
+        <v>757</v>
+      </c>
+      <c r="V365" t="s">
+        <v>759</v>
+      </c>
+      <c r="W365">
+        <v>0</v>
+      </c>
+      <c r="X365">
+        <v>4029</v>
+      </c>
+      <c r="AA365" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="366" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B366" s="7"/>
@@ -31786,6 +32098,38 @@
       <c r="K366" s="1"/>
       <c r="M366" s="10"/>
       <c r="N366"/>
+    </row>
+    <row r="367" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B367" s="7"/>
+      <c r="D367" s="5"/>
+      <c r="J367" s="1"/>
+      <c r="K367" s="1"/>
+      <c r="M367" s="10"/>
+      <c r="N367"/>
+    </row>
+    <row r="368" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B368" s="7"/>
+      <c r="D368" s="5"/>
+      <c r="J368" s="1"/>
+      <c r="K368" s="1"/>
+      <c r="M368" s="10"/>
+      <c r="N368"/>
+    </row>
+    <row r="369" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B369" s="7"/>
+      <c r="D369" s="5"/>
+      <c r="J369" s="1"/>
+      <c r="K369" s="1"/>
+      <c r="M369" s="10"/>
+      <c r="N369"/>
+    </row>
+    <row r="370" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B370" s="7"/>
+      <c r="D370" s="5"/>
+      <c r="J370" s="1"/>
+      <c r="K370" s="1"/>
+      <c r="M370" s="10"/>
+      <c r="N370"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AD174">
@@ -31908,19 +32252,19 @@
   <conditionalFormatting sqref="A83">
     <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A242:A267">
+  <conditionalFormatting sqref="A246:A271">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A303:A312">
+  <conditionalFormatting sqref="A307:A316">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A313:A327">
+  <conditionalFormatting sqref="A317:A331">
     <cfRule type="duplicateValues" dxfId="0" priority="42"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="597" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C344 C328:C339 C341" numberStoredAsText="1"/>
+    <ignoredError sqref="C348 C332:C343 C345" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>